--- a/ch1_evidence_causes/data/samples_5.1_narrowed_criteria1.xlsx
+++ b/ch1_evidence_causes/data/samples_5.1_narrowed_criteria1.xlsx
@@ -495,415 +495,466 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3208636728</t>
+          <t>https://openalex.org/W4362014887</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.31219/osf.io/m27rh</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Stahn &amp; Iverson (2020)</t>
+          <t>Kamran (2023)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Just Peace after Conflict: Jus Post Bellum and the Justice of Peace</t>
+          <t>Organizational Knowledge Transformation and Selforganizing Knowledge Representation Model</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>The interplay between peace and justice plays an important role in any contemporary conflict. Peace can be described in a variety ways, as being 'negative' or 'positive', 'liberal' or 'democratic'. But what is it that makes a peace just? This book draws together leading scholars to study this concept of a 'just peace', analysing different elements of the transition from conflict to peace. The volume covers six core themes: conceptual approaches towards just peace, macro-principles, the nexus to security and stability, protection of persons and public goods, rule of law, and economic reform and accountability. Contributions engage with understudied issues, such as the pros and cons of robust UN mandates, the link between environmental protection and indigenous peoples, the treatment of illegal settlements, the feasibility of vetting practices, and the protection of labour rights in post-conflict economies. Overall, the book puts forward a case that just peace requires not only negotiation, agreement, and compromise, but contextual understandings of law, multiple dimensions of justice, and strategies of prevention.</t>
+          <t>: The purpose of the paper is development of a conceptual model for the representation of knowledge as an active intellectualsubstance and, on this basis, study of metaphysics of knowledge transformation process being produced both individually andcollectively in the practice of organizations. The first principle of knowledge engineering, as Edward Albert Feigenbaum noted, saysthat the power in solving problems that an intellectual subject (person or machine) manifests in the process of activity depends primarilyon its knowledge base, and only secondly on the methods of inference used. Strength is hidden in knowledge. The process of producingknowledge is permanent and does not depend on whether an individual is going to use this knowledge or not.Knowledge constantly produces new knowledge regardless of the owner's desire. Besides that, knowledge can’t arise from nothing, butalways – from some knowledge obtained earlier. As well as the intelligence, knowledge is an emergent instance arising from thecollective interaction of a lot of intellectual atomic elements of knowledge (knowledge quanta). Idiosyncrasy of this interaction isexpressed precisely in the creation of new knowledge. Due to postulating the knowledge self-organizing, the hierarchical knowledgestructures in memory and the process of thinking as a kind of syntax for the procedure of new knowledge generation are described. Thisis an effort towards understanding the memory mechanisms, the process of thinking, the sources of heuristic knowledge just throughthe inner nature of knowledge. Also, based on the knowledge self-organization principle, an archetype of the appropriate knowledgebased system architecture is presented too. As an implementation of the concept, the perceptual act model is described, and on its base,a possible scenario for the behavior of a robot meeting an obstacle in its path is considered. As the mutual transformation of tacit andexplicit knowledge makes new knowledge, the impact of the self-organization of knowledge on the transformation process as well asconditions of self-organization of both individual knowledge and organizational knowledge are analyzed in detail. Finally, modificationof the known model of knowledge dimensions by Nonaka and Takeuchi is proposed. Because of the native activity of knowledge, it isimpossible to build a knowledge management system without considering the internal structure of knowledge and its emergent abilityto self-organize. Ensuring the natural process of knowledge development at all ontological levels in an organization is an essentialprerequisite for the evolution of values in this organization.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1496992349</t>
+          <t>https://openalex.org/W3208636728</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Bercaw (2013)</t>
+          <t>Stahn &amp; Iverson (2020)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Lean Leadership for Healthcare: Approaches to Lean Transformation</t>
+          <t>Just Peace after Conflict: Jus Post Bellum and the Justice of Peace</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Lean at a Glance What Is Lean Healthcare? Value-Added Non Value-Added First Theme of Lean Improvement: Continuous Improvement Second Theme of Lean Improvement: Respect for All People Seven Wastes Overproduction Waiting Overprocessing Inventory Motion Defects Transportation Two Additional Wastes Unused Human Capital Waste of Organizational Design Principles of Improvement Flow Pull Defect-Free Visual Management Kaizen Lean Healthcare Defined Summary: Key Points from Chapter 1 Creating and Deploying a Lean Strategy Creating a Culture of Improvement Seven-Phase Policy Deployment Process Step 1: Establish the Organizational Vision Step 2: Develop Three- to Five-Year Breakthrough Objectives True North Measures Step 3: Develop the Annual Breakthrough Objectives and Improvement Priorities Identify Top-Level Improvement Priorities Selecting the Top-Level Improvement Priorities Step 4: Deploy the Improvement Priorities Step 5: Implement the Improvement Priorities Use a Value Stream Approach to Improvement Lean Tools Kaizen Step 6: Monthly Review Step 7: Annual Review Enablers of Hoshin Kanri World-Class Targets for Improvement Summary: Key Points from Chapter 2 Leading Change-The Transformation Roadmap-Phase 1:Get Ready Beginning the Journey Phase I: Preparing to Transform (Get Ready)-Building the Infrastructure Selecting Your Change Agent Get Informed Get Help Establish a Steering Committee Train Your Internal Experts Develop and Deploy a Communication Campaign Summary: Key Points from Chapter 3 The Transformation Roadmap-Phase 2-The Acceleration Phase (Improve, Sustain, and Spread) Delivering on Preparation Efforts Step 1: Ensure You Have Selected the Right Value Streams on Which to Focus Step 2: Establish Value Stream Governance and Set Up Your Value Stream Performance System Step 3: Utilize A-3 Thinking to Realize Improvement Step 4: Sustain the Improvements and Manage Visually 5S: A Beginning Place for Visual Management of Process Using Visual Management for Process Control Using Visual Management for Improving Results: Managing for Daily Improvement Control Systems for Visual Management Peer Task Audits (Kamishibai) Step 5: Capture the Savings Step 6: Support Your Change with Ongoing Training and Coaching Lean Coaching Step 7: Spread Lean Thinking across the Organization Replication of Artifacts, Products, Solutions, and Process Adding Additional Value Streams Summary: Key Points from Chapter 4 The Transformation Road Map-Phase 3: Make Organizational Improvement the Culture Changing to the New Organizational Structure Lean Capacity Building Lean Information Technology Lean Finance Lean Human Resources Lean Supply Chain Lean Project Management, Lean Construction, and Lean New Service Introduction Lean Leadership Processes Medical Leadership Processes Taking Lean beyond Your Four Walls Summary: Key Points from Chapter 5 Leadership Behaviors and Actions for Success Leading by Example Participate Learn the Tools Rotate Teaching of the Core Lean Tools Book of the Month Club Become a Lean Facilitator Walk the Value Streams Commit the Resources to Be Successful Facilitation Team Resources Middle Management Expectations Supplies External Resources Hold People Accountable Address Antibodies Redeployment versus Unemployment Monitor and Demand Results Believe Summary: Key Points from Chapter 6 Mitigating Transformation Risk and Avoiding Common Mistakes Being Successful and Avoiding Failure Don't Waste the First Six to Nine Months Managing the Breadth and Depth of the Change Leadership, Management, Support Staff, and Medical Staff Engagement Inability to Operate Two Systems Common Errors to Organizational Change Efforts Summary: Key Points from Chapter 7 Closing Thoughts Glossary of Lean Terms</t>
+          <t>The interplay between peace and justice plays an important role in any contemporary conflict. Peace can be described in a variety ways, as being 'negative' or 'positive', 'liberal' or 'democratic'. But what is it that makes a peace just? This book draws together leading scholars to study this concept of a 'just peace', analysing different elements of the transition from conflict to peace. The volume covers six core themes: conceptual approaches towards just peace, macro-principles, the nexus to security and stability, protection of persons and public goods, rule of law, and economic reform and accountability. Contributions engage with understudied issues, such as the pros and cons of robust UN mandates, the link between environmental protection and indigenous peoples, the treatment of illegal settlements, the feasibility of vetting practices, and the protection of labour rights in post-conflict economies. Overall, the book puts forward a case that just peace requires not only negotiation, agreement, and compromise, but contextual understandings of law, multiple dimensions of justice, and strategies of prevention.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2057723312</t>
+          <t>https://openalex.org/W2795214154</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1353/scu.2000.0043</t>
+          <t>https://doi.org/10.36834/cmej.43351</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Williams (2000)</t>
+          <t>Green &amp; Rasmussen (2018)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Images of Scottsboro</t>
+          <t>Becoming a dentist: faculty perceptions of student experiences with threshold concepts in a Canadian dental program</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>In his poem Too Is Worth Its Song, the Harlem Renaissance poet Countee Cullen complains that poets raised no cry against the injustice suffered by the Scottsboro boys in contrast to their sharp and pretty tunes for Sacco and Vanzetti.(1) Granted, no artist memorialized the Scottsboro boys to the degree Ben Shahn did the two anarchists in his painting that repeatedly appears in art history texts to illustrate the American social realist movement; yet, contrary to Cullen's claim it is doubtful that any victims of alleged legal oppression touched as many socially conscious artists as did the nine African Americans accused, while riding a train as hobos, of raping two white women. In March 1931 nine black youths boarded a train in Chattanooga, Tennessee, as did some young white men. When the train stopped in Paint Rock, Alabama, sheriff's deputies arrested the blacks for fighting with the whites, and when two young white women, Ruby Bates and Victoria Price, also left the train, one accused the nine black youths of raping them, a charge the other did not deny. Transported to the Scottsboro jail and held there until their trial, the young blacks narrowly escaped lynching, and with little solid evidence for rape--let alone gang rape--a Scottsboro jury nonetheless convicted all nine of the poor ignorant youths of rape within twelve days. Each of the defendants, except one who was thirteen-years-old, received a death sentence. The case continued throughout the 1930s with numerous retrials and only ended decades later with Governor George Wallace's pardon of the last defendant in 1976.(2) For much of the 1930s, artwork in various media became propaganda clamoring for release of the Scottsboro boys and against the widespread injustice of lynching. Socially engaged northern artists seized specific aspects of this widely publicized case and created imaginative renditions in plays, poetry, song, and graphics that used a variety of persuasive artistic strategies to project themes idealizing the defense and vilifying Alabama and the rest of the white U.S. South. Viewed together these works portray a cruel, fallen South, warped by bigotry, ruled by a powerful white male elite allied with capitalist interests, ready to crucify young black men who await a proletarian redemption. Much in this artistic phenomenon can be attributed to activities of the Communist Party (CP), which made the Scottsboro case an international cause celebre. As two major histories of the case have explained at length, the Party, through its legal arm, the International Labor Defense (ILD) vied successfully with the NAACP to represent the boys in appealing the verdicts. The CP also launched an enormous publicity campaign, urging mass protest and pressure. This publicity probably supplied the major stimulus for artistic expression; such stimuli, however, had to reach sensitive, willing receptors. Some artists were Communist Party members, but in the early 1930s, the nadir of the Great Depression, many more sympathized with some part of the Communist agenda or its critique of an American society that seemed to have failed economically and politically under capitalism. News of Stalin's atrocities had not yet dampened Communist idealism and hope for a just, egalitarian society. Sympathetic artists agreed with the Communists that American society needed radical change and committed their work to increasing awareness of that need. The spirit behind many artistic efforts on behalf of the Scottsboro defendants was predominantly humanitarian rather than political. Along with the misery caused by the Depression, leftists believed that the oppression of blacks, particularly in the southern states, constituted the most flagrant eyesore on the American social landscape. The Scottsboro case seemed to exemplify the most egregious form of racial discrimination prevailing in the South: a black male accused of raping a white woman was presumed guilty and risked lynching if only to serve as an example to other black males. …</t>
+          <t>In each discipline, there are moments where students "get stuck" in their education and/or training and are often unable to move forward. These moments may be caused by threshold concepts as they represent a portal that students must cross in order to become successful in their chosen profession. This study investigated the threshold concepts from the instructors' perspective that students must navigate as they transform from learners to dentists within a dental program.Two focus groups with faculty members within the School of Dentistry, University of Alberta were completed in the fall of 2017. Focus groups explored the faculty's perception of the students' transition from learner to dentist, difficult moments in the program, and the students' ability to navigate the program successfully.A qualitative phenomenographic analysis of the faculty focus group transcripts identified four potential threshold concepts within the dental program: 1) dealing with the whole patient, 2) accountability, 3) that you may not know everything, and 4) problem solving and adapting during practice.This study demonstrates that there are concepts within a dental program that faculty believe students must navigate in order to transition from learner to dentist. These concepts may inform curriculum design as well as other disciplines in the health sciences.</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>https://openalex.org/W934421831</t>
+          <t>https://openalex.org/W4318499542</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/s0074-6142(10)97019-8</t>
+          <t>https://doi.org/10.3390/challe14010009</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Osborne (2010)</t>
+          <t>Soleri et al. (2023)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Computation of Algebraic-Geometric Loop Integrals for the KdV Equation</t>
+          <t>Traditional Foods, Globalization, Migration, and Public and Planetary Health: The Case of Tejate, a Maize and Cacao Beverage in Oaxacalifornia</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>This chapter presents the numerical methods for computing the Riemann spectrum by loop integrals methods; in particular, the results for the Korteweg-de Vries (KdV) equation are given. The chapter describes the computation of the generic loop integral Gij and how to remove singularities from the numerical computations due to particular configurations of the inverse scattering transform (IST) eigenvalues. Two kinds of singularities (or near singularities) exist in the loop integrals. The first occurs exactly at the band edges, and these are trivially accounted for. The second is a near singularity that occurs in the nearest eigenvalues immediately to the right and left of the band-edge integration limits. The near singularities occur either in the small-amplitude limit (for sine waves, the near-degenerate case occurs when two open-band eigenvalues are nearly equal) or in the large-amplitude soliton limit (when two adjacent gap eigenvalues are nearly equal). The chapter discusses the procedure for convenient transformations that includes first transformation, second transformation, and a final transformation. The chapter also describes the arithmetic-geometric mean (AGM) method for the loop integrals.</t>
+          <t>We are in the midst of an unprecedented public and planetary health crisis. A major driver of this crisis is the current nutrition transition—a product of globalization and powerful multinational food corporations promoting industrial agriculture and the consumption of environmentally destructive and unhealthy ultra-processed and other foods. This has led to unhealthy food environments and a pandemic of diet-related noncommunicable diseases, as well as negative impacts on the biophysical environment, biodiversity, climate, and economic equity. Among migrants from the global south to the global north, this nutrition transition is often visible as dietary acculturation. Yet some communities are defying the transition through selective resistance to globalization by recreating their traditional foods in their new home, and seeking crop species and varieties customarily used in their preparation. These communities include Zapotec migrants from the Central Valleys of the southern Mexican state of Oaxaca living in greater Los Angeles, California. Focusing on the traditional and culturally emblematic beverage tejate, we review data from our research and the literature to outline key questions about the role of traditional foods in addressing the public and planetary health crisis. We conclude that to answer these questions, a transnational collaborative research partnership between community members and scientists is needed. This could reorient public and planetary health work to be more equitable, participatory, and effective by supporting a positive role for traditional foods and minimizing their harms.</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1606306436</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.2172/10119531</t>
+          <t>https://openalex.org/W1496992349</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Fairchild &amp; Fischer (1991)</t>
+          <t>Bercaw (2013)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Global warming and end-use efficiency implications of replacing CFCs</t>
+          <t>Lean Leadership for Healthcare: Approaches to Lean Transformation</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>The direct contribution of CFCs to calculated global warming has been recognized for some time. As a result of the international agreement to phase out CFCs due to stratospheric ozone and the ensuing search for suitable alternatives, there has recently been increased attention on the DIRECT global warming potential (GWP) of the fluorocarbon alternatives as greenhouse gases. However, to date there has been little focus on the INDIRECT global warming effect arising from end-use efficiency changes and associated CO{sub 2} emissions. A study being conducted at Oak Ridge National Laboratory (ORNL) addresses this combined or total global warming impact of viable options to replace CFCs in their major energy-related applications. This paper reviews selected results for air-conditioning, refrigeration, and heat pump applications. The analysis indicates that the CFC user industries have made substantial progress in approaching near-equal energy efficiency with the HCFC/HFC alternative refrigerants. The findings also bring into question the relative importance of the DIRECT (chemical-related) effect in many applications. Replacing CFCs is an important step in reducing the total global warming impact, and at present the HCFC and HFCS appear to offer the best efficiency and lowest total impact of options available in the relatively short time period required for the transition away from CFCs.</t>
+          <t>Lean at a Glance What Is Lean Healthcare? Value-Added Non Value-Added First Theme of Lean Improvement: Continuous Improvement Second Theme of Lean Improvement: Respect for All People Seven Wastes Overproduction Waiting Overprocessing Inventory Motion Defects Transportation Two Additional Wastes Unused Human Capital Waste of Organizational Design Principles of Improvement Flow Pull Defect-Free Visual Management Kaizen Lean Healthcare Defined Summary: Key Points from Chapter 1 Creating and Deploying a Lean Strategy Creating a Culture of Improvement Seven-Phase Policy Deployment Process Step 1: Establish the Organizational Vision Step 2: Develop Three- to Five-Year Breakthrough Objectives True North Measures Step 3: Develop the Annual Breakthrough Objectives and Improvement Priorities Identify Top-Level Improvement Priorities Selecting the Top-Level Improvement Priorities Step 4: Deploy the Improvement Priorities Step 5: Implement the Improvement Priorities Use a Value Stream Approach to Improvement Lean Tools Kaizen Step 6: Monthly Review Step 7: Annual Review Enablers of Hoshin Kanri World-Class Targets for Improvement Summary: Key Points from Chapter 2 Leading Change-The Transformation Roadmap-Phase 1:Get Ready Beginning the Journey Phase I: Preparing to Transform (Get Ready)-Building the Infrastructure Selecting Your Change Agent Get Informed Get Help Establish a Steering Committee Train Your Internal Experts Develop and Deploy a Communication Campaign Summary: Key Points from Chapter 3 The Transformation Roadmap-Phase 2-The Acceleration Phase (Improve, Sustain, and Spread) Delivering on Preparation Efforts Step 1: Ensure You Have Selected the Right Value Streams on Which to Focus Step 2: Establish Value Stream Governance and Set Up Your Value Stream Performance System Step 3: Utilize A-3 Thinking to Realize Improvement Step 4: Sustain the Improvements and Manage Visually 5S: A Beginning Place for Visual Management of Process Using Visual Management for Process Control Using Visual Management for Improving Results: Managing for Daily Improvement Control Systems for Visual Management Peer Task Audits (Kamishibai) Step 5: Capture the Savings Step 6: Support Your Change with Ongoing Training and Coaching Lean Coaching Step 7: Spread Lean Thinking across the Organization Replication of Artifacts, Products, Solutions, and Process Adding Additional Value Streams Summary: Key Points from Chapter 4 The Transformation Road Map-Phase 3: Make Organizational Improvement the Culture Changing to the New Organizational Structure Lean Capacity Building Lean Information Technology Lean Finance Lean Human Resources Lean Supply Chain Lean Project Management, Lean Construction, and Lean New Service Introduction Lean Leadership Processes Medical Leadership Processes Taking Lean beyond Your Four Walls Summary: Key Points from Chapter 5 Leadership Behaviors and Actions for Success Leading by Example Participate Learn the Tools Rotate Teaching of the Core Lean Tools Book of the Month Club Become a Lean Facilitator Walk the Value Streams Commit the Resources to Be Successful Facilitation Team Resources Middle Management Expectations Supplies External Resources Hold People Accountable Address Antibodies Redeployment versus Unemployment Monitor and Demand Results Believe Summary: Key Points from Chapter 6 Mitigating Transformation Risk and Avoiding Common Mistakes Being Successful and Avoiding Failure Don't Waste the First Six to Nine Months Managing the Breadth and Depth of the Change Leadership, Management, Support Staff, and Medical Staff Engagement Inability to Operate Two Systems Common Errors to Organizational Change Efforts Summary: Key Points from Chapter 7 Closing Thoughts Glossary of Lean Terms</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2018997273</t>
+          <t>https://openalex.org/W2057723312</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1145/505688.505693</t>
+          <t>https://doi.org/10.1353/scu.2000.0043</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Babich &amp; Vitez (2000)</t>
+          <t>Williams (2000)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>A novel wide-band audio transmission scheme over the Internet with a smooth quality degradation</t>
+          <t>Images of Scottsboro</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Real-time delivery of multimedia information over the Internet is finding increasing interest. This paper considers wide-band audio transmission utilizing a priority scheme. The proposed scheme complies with both the new Internet Protocol Version 6 (IPv6) and the current Internet Protocol Version 4 (IPv4), providing that, in the latter case, routers are set to manage priority. A new queuing algorithm, namely Priority Weighted Fair Queuing (PWFQ), is defined and evaluated. A scalable audio encoder is adopted to perform audio transmissions over an emulated network. Background traffic is emulated, employing a traffic generator that adopts a self-similar model. Objective and subjective quality tests are performed, using a set of musical excerpts. Quality is evaluated as a function of Internet traffic. In the paper it is shown that, by adopting an encoding technique with scalable bit-rate, and a prioritized transmission algorithm, a smooth degradation of quality may be obtained during network congestion periods. This technique shows better performance than feedback-based algorithms, in which the delayed responses cause the core stage packets to be lost in low-to-high traffic transitions and the enhancement packets not to be transmitted in high-to-low traffic transitions.</t>
+          <t>In his poem Too Is Worth Its Song, the Harlem Renaissance poet Countee Cullen complains that poets raised no cry against the injustice suffered by the Scottsboro boys in contrast to their sharp and pretty tunes for Sacco and Vanzetti.(1) Granted, no artist memorialized the Scottsboro boys to the degree Ben Shahn did the two anarchists in his painting that repeatedly appears in art history texts to illustrate the American social realist movement; yet, contrary to Cullen's claim it is doubtful that any victims of alleged legal oppression touched as many socially conscious artists as did the nine African Americans accused, while riding a train as hobos, of raping two white women. In March 1931 nine black youths boarded a train in Chattanooga, Tennessee, as did some young white men. When the train stopped in Paint Rock, Alabama, sheriff's deputies arrested the blacks for fighting with the whites, and when two young white women, Ruby Bates and Victoria Price, also left the train, one accused the nine black youths of raping them, a charge the other did not deny. Transported to the Scottsboro jail and held there until their trial, the young blacks narrowly escaped lynching, and with little solid evidence for rape--let alone gang rape--a Scottsboro jury nonetheless convicted all nine of the poor ignorant youths of rape within twelve days. Each of the defendants, except one who was thirteen-years-old, received a death sentence. The case continued throughout the 1930s with numerous retrials and only ended decades later with Governor George Wallace's pardon of the last defendant in 1976.(2) For much of the 1930s, artwork in various media became propaganda clamoring for release of the Scottsboro boys and against the widespread injustice of lynching. Socially engaged northern artists seized specific aspects of this widely publicized case and created imaginative renditions in plays, poetry, song, and graphics that used a variety of persuasive artistic strategies to project themes idealizing the defense and vilifying Alabama and the rest of the white U.S. South. Viewed together these works portray a cruel, fallen South, warped by bigotry, ruled by a powerful white male elite allied with capitalist interests, ready to crucify young black men who await a proletarian redemption. Much in this artistic phenomenon can be attributed to activities of the Communist Party (CP), which made the Scottsboro case an international cause celebre. As two major histories of the case have explained at length, the Party, through its legal arm, the International Labor Defense (ILD) vied successfully with the NAACP to represent the boys in appealing the verdicts. The CP also launched an enormous publicity campaign, urging mass protest and pressure. This publicity probably supplied the major stimulus for artistic expression; such stimuli, however, had to reach sensitive, willing receptors. Some artists were Communist Party members, but in the early 1930s, the nadir of the Great Depression, many more sympathized with some part of the Communist agenda or its critique of an American society that seemed to have failed economically and politically under capitalism. News of Stalin's atrocities had not yet dampened Communist idealism and hope for a just, egalitarian society. Sympathetic artists agreed with the Communists that American society needed radical change and committed their work to increasing awareness of that need. The spirit behind many artistic efforts on behalf of the Scottsboro defendants was predominantly humanitarian rather than political. Along with the misery caused by the Depression, leftists believed that the oppression of blacks, particularly in the southern states, constituted the most flagrant eyesore on the American social landscape. The Scottsboro case seemed to exemplify the most egregious form of racial discrimination prevailing in the South: a black male accused of raping a white woman was presumed guilty and risked lynching if only to serve as an example to other black males. …</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1881704158</t>
+          <t>https://openalex.org/W934421831</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.wear.2015.10.008</t>
+          <t>https://doi.org/10.1016/s0074-6142(10)97019-8</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Haghbin et al. (2015)</t>
+          <t>Osborne (2010)</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Effect of entrained air in abrasive water jet micro-machining: Reduction of channel width and waviness using slurry entrainment</t>
+          <t>Computation of Algebraic-Geometric Loop Integrals for the KdV Equation</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>The erosion produced by abrasive water jets is a result of the complex interaction of the three-phase jet (water-air-abrasive) and the target. The objective of the present work was to isolate the effect of the entrained air in abrasive water jet micro-machining (AWJM) by comparing milled surfaces made by AWJM with those produced by high-pressure slurry jet micro-machining (HASJM) while maintaining a constant particle velocity. An existing model developed for abrasive particle velocities in AWJM was modified and used to predict the particle velocity in HASJM, and then verified using a double disc apparatus (DDA). The model allowed prediction of the conditions required to achieve average particle velocities of ~255 m/s using the two systems with the same 38 µm garnet particles. Under this condition of equal particle velocity, there was a very large reduction in the centerline waviness, Wa, of micro-channels made in SS316L and Al60661-T6 using HASJM; typically 3.4 times smaller waviness than found in channels made with AWJM using the same dose of particles. This was found to be mainly due to the much larger variation in abrasive flow rate in AWJM brought about by the air/particle entrainment system, rather than any fundamental change in erosion mechanism due to the impact of the nonhomogeneous three phase air/particle/water in AWJM. The centerline roughness, Ra, was approximately the same in both processes at a traverse velocity of Vt=4572 mm/min and a nozzle angle of 90°. For both processes, Wa and Ra increased with an increase in pressure and abrasive particle dose, and decreased with an increase in nozzle angle. For micro-channels of a given depth, the widths of those made with HASJM were 26% narrower than those produced with AWJM, mainly due to the wider jet that resulted from the entrained air in AWJM, again at the same particle velocity. The erosion rate in HASJM was found to be about 27% lower mainly because of a smaller width of micro-channels in HASJM.</t>
+          <t>This chapter presents the numerical methods for computing the Riemann spectrum by loop integrals methods; in particular, the results for the Korteweg-de Vries (KdV) equation are given. The chapter describes the computation of the generic loop integral Gij and how to remove singularities from the numerical computations due to particular configurations of the inverse scattering transform (IST) eigenvalues. Two kinds of singularities (or near singularities) exist in the loop integrals. The first occurs exactly at the band edges, and these are trivially accounted for. The second is a near singularity that occurs in the nearest eigenvalues immediately to the right and left of the band-edge integration limits. The near singularities occur either in the small-amplitude limit (for sine waves, the near-degenerate case occurs when two open-band eigenvalues are nearly equal) or in the large-amplitude soliton limit (when two adjacent gap eigenvalues are nearly equal). The chapter discusses the procedure for convenient transformations that includes first transformation, second transformation, and a final transformation. The chapter also describes the arithmetic-geometric mean (AGM) method for the loop integrals.</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2020210239</t>
+          <t>https://openalex.org/W1606306436</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1111/j.1467-9523.1982.tb01059.x</t>
+          <t>https://doi.org/10.2172/10119531</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Wierzbicki &amp; Rambaud (1982)</t>
+          <t>Fairchild &amp; Fischer (1991)</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>THE EMERGENCE OF THE FIRST AGRICULTURAL TRADE UNION IN SOCIALIST POLAND*</t>
+          <t>Global warming and end-use efficiency implications of replacing CFCs</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>ABSTRACT The last rural crisis (1975–1980) in Poland, much deeper than previous ones, provoked a kind of revolution. Agreements signed by representatives of the Party and of the striking workers facilitated the emergence of the first independent agricultural trade union in People's Poland, called “Solidarity”, although its legal and ideological obstacles were much greater than in the case of the workers' trade union “Solidarity”. The farmers' trade union movement had a pragmatic and realistic programme which was a fair expression of the professional and social interests of the farmers and all the rural population. Engels' opinion that peasants would spontaneously create collective forms of agricultural production because of the threat of the big landed estates was not confirmed in Poland. However, faced with the arbitrary constraints imposed by the Administration, the peasants established a trade union for their own self defence. RÉSUMÉ La dernière crise agricole (1975–1980) plus profonde que les précédentes a provoqué une sorte de révolution. Les accords conclus entre le Parti communiste (P.O.U.P.) et les ouvriers en grève ont aussi facilityé la naissance du premier syndicat agricole sous le nom de “Solidarité” en Pologne Populairc, malgré bien des obstacles juridiques ct idéologiques. Le mouvement syndical agricole avait un programme pragmatique et réaliste traduisant bien les intérêts professionnels et sociaux des agriculteurs et de route la campagnc. La perspective d'Engels, selon lacjuellc les paysans devraient spontanément créer des formes collectives d'agriculture sous la menace de la grandc exploitation ne s'est pas réalisée en Polognc Mais pour s'opposer aux contraintcs administratives les paysans ont institué un syndicat pour leur auto‐défense. KURZFASSUNG Die letzte landwirtschaftlichc Knse in Polen (197V80) war viel tiefcrgehend als die vor‐hergchenden und verursachtc cine Art Revolution Die von den Repräsentanten der Partei und der strcikenden Arbcitcr untcrzeichneten Übereinkommen crmöglichten die Entste‐hung der crstcn unabhängigen landwirtschaftlichcn Gewerkschaft in der Volksrepublik Polen, genannt “Solidarität”, obwohl die rechtlichcn und ideologischcn Hindcrnisse sehr viel größer waren als im Falle der Arbcitergewerkschaft “Solidarität”. Die Bauerngewcrkschaftsbcwcgung hatte ein pragmatisches und realistisches Programm, das ein genauer Ausdruck dcr beruflichen und sozialen Interessen der Bauern und der ganzen ländlichen Gebicte war. Die Meinung von Engels, daß Bauern spontan genossenschaft‐liche Formen der landwirtschaftlichcn Produktion gründen würden aus Furcht vor den großen Landgütern, hat sich in Polen nicht bestätigt. Dagegen errichteten die Bauern aber angesichtsder willkürlichen Behinderungen durch die Administration eine Gewerkschaft zu ihrer Selbstverteidigung</t>
+          <t>The direct contribution of CFCs to calculated global warming has been recognized for some time. As a result of the international agreement to phase out CFCs due to stratospheric ozone and the ensuing search for suitable alternatives, there has recently been increased attention on the DIRECT global warming potential (GWP) of the fluorocarbon alternatives as greenhouse gases. However, to date there has been little focus on the INDIRECT global warming effect arising from end-use efficiency changes and associated CO{sub 2} emissions. A study being conducted at Oak Ridge National Laboratory (ORNL) addresses this combined or total global warming impact of viable options to replace CFCs in their major energy-related applications. This paper reviews selected results for air-conditioning, refrigeration, and heat pump applications. The analysis indicates that the CFC user industries have made substantial progress in approaching near-equal energy efficiency with the HCFC/HFC alternative refrigerants. The findings also bring into question the relative importance of the DIRECT (chemical-related) effect in many applications. Replacing CFCs is an important step in reducing the total global warming impact, and at present the HCFC and HFCS appear to offer the best efficiency and lowest total impact of options available in the relatively short time period required for the transition away from CFCs.</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2556193404</t>
+          <t>https://openalex.org/W2977350615</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Mishra (2013)</t>
+          <t>Ferey et al. (2015)</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>The Great Indian Blackout and Elements of Positivity</t>
+          <t>Définir et juger la guerre</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Though much criticized, the Indian blackout in July 2012 also possesses another side of a coin: the extent to which the blackout has served on the fronts of unity, cohesiveness, and equality is highly explicit. The currently ill-functioning Indian administration is identified as being at an intersection of a transition, a transition to more administrative efficiency. The ideas proposed in the essay are intended to perpetuate thoughts of optimism and faith through a constructively-framed perspective.</t>
+          <t>[Resume de l'ouvrage] Alors qu’elle constitue un phenomene majeur sur la scene mondiale, la guerre n’est plus pensee comme telle dans le droit international – qui la qualifie par d’autres termes – tandis qu’elle fait l’objet, ces dernieres annees, d’un renouveau dans le champ de la reflexion ethique. 
+Le concept de guerre est-il encore pertinent pour la comprehension du politique ? Les theorisations normatives, ethiques ou juridiques, dont la guerre est l’objet permettent-elles de trancher les dilemmes pratiques qu’elle pose et de determiner les responsabilites qu’elle engage ? Comment penser l’apres-guerre, alors que se developpent de nouvelles theories de la justice – transitionnelle, penale, reparatrice ? 
+Ce volume examine les transformations recentes des conflits armes, les usages de la violence et leurs conceptualisations en philosophie, en droit et en science politique.</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2892052254</t>
+          <t>https://openalex.org/W2018997273</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/admi.201800736</t>
+          <t>https://doi.org/10.1145/505688.505693</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Leeuwenburgh et al. (2018)</t>
+          <t>Babich &amp; Vitez (2000)</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Self-Healing Materials are Coming of Age</t>
+          <t>A novel wide-band audio transmission scheme over the Internet with a smooth quality degradation</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>While natural materials such as bone or skin are able to heal themselves in an autonomous manner after mechanical damage, traditional man-made materials generally lack this intrinsic capacity for self-healing. In 1969, self-healing properties were for the first time built-in inside polymeric materials1 and in the following decades publications about self-healing in thermoplastic and cross-linked systems and concrete appeared.2 Although, it was only in 2001, through an article about self-healing in polymer based materials published in Nature, that research in the field of self-healing materials research was really triggered.3 By restoring their functional properties autonomously after damage, self-healing materials would offer tremendous advantages over traditional materials in application areas such as civil, chemical, electrical, aerospace, automotive, and biomedical engineering. Autonomous self-healing does not require an external trigger (like heat or irradiation), whereas non-autonomous self-healing only occurs in response to such external triggers.4 Another classification of self-healing materials is based on the incorporation of separate healing agents (extrinsic self-healing) as opposed to intrinsic self-healing which proceeds without the need to include separate healing agents.4 Irrespective of their classification, self-healing of materials requires the creation of a local mobile phase which can close and repair cracks by physical flow into the crack and subsequent reformation of chemically stable interfaces. During the first decade of self-healing materials research, numerous novel concepts for self-healing of man-made polymeric, ceramic, metallic and composite materials have been developed. These concepts were mainly based on trial-and-error and not yet based on thorough understanding of the thermodynamics and kinetics of the process of self-healing. During the past decade, however, the field of self-healing materials research has witnessed a gradual trend towards the development of intrinsic and autonomous vs. extrinsic and non-autonomous self-healing materials. This transition has provided the self-healing materials community with a deeper understanding of the key processes which control self-healing in man-made materials. Ideally, this fundamental understanding will pave the way for a priori definition of design criteria to render traditional materials self-healing without the need for extensive and iterative experimental optimization cycles. The current Special Issue consisting of 10 progress reports and/or reviews provides an overview of the state-of-the-art in the field of self-healing materials research (Figure 1). The first five manuscripts are dedicated to self-healing of polymer-based materials, whereas the five other manuscripts describe self-healing of hard materials including metals and concrete. Self-healing of polymer-based materials generally relies on dynamic bonds in the polymeric phase which allow for reformation of bonds after cleavage. Two types of dynamic bonds have attracted most interest during the past decade, reversible covalent bonds and supramolecular chemistry. Article 1800051 defines general design criteria for the synthesis of self-healing polymers based on dynamic covalent bonds, while article 1800384 shows that supramolecular chemistry offers a versatile toolbox of chemical interactions to render polymeric materials self-healing. Local temporary mobility is the key concept responsible for all classes of self-healing materials, but this mobility is restricted to the outermost layer in case of functional polymeric surfaces. The progress report 1800293 focuses on a specific type of self-healing low-adherence polymeric surfaces. The first decade of self-healing materials research focused mainly on traditional engineering materials, but research interest on self-healing biomaterials has increased considerably during the past decade. Self-healing can be advantageous for polymeric biomaterials in view of their processing, clinical handling and biological performance, as shown in article 1800118. Nevertheless, inorganic phases are needed to combine self-healing with mechanical robustness, which is also emphasized in article 1800177 on self-healing fiber-reinforced polymer composites. While the combination of a hard civil engineering material and soft biological ‘actors’ in order to reach self-healing behaviour does not seem intuitively very logical, article 1800074, demonstrates a surprisingly effective method of using spore-forming alkaliphilic bacteria in combination with special bacterial food to make microcracks in concrete heal themselves autonomously in the presence of moisture. But this is only one of the discussed methods next to autogenous healing, use of mineral additions, crystalline admixtures or (superabsorbent) polymers, and micro-, macro- or vascular encapsulated polymers and minerals. The contribution in article 1701378 discusses models for mechanical self</t>
+          <t>Real-time delivery of multimedia information over the Internet is finding increasing interest. This paper considers wide-band audio transmission utilizing a priority scheme. The proposed scheme complies with both the new Internet Protocol Version 6 (IPv6) and the current Internet Protocol Version 4 (IPv4), providing that, in the latter case, routers are set to manage priority. A new queuing algorithm, namely Priority Weighted Fair Queuing (PWFQ), is defined and evaluated. A scalable audio encoder is adopted to perform audio transmissions over an emulated network. Background traffic is emulated, employing a traffic generator that adopts a self-similar model. Objective and subjective quality tests are performed, using a set of musical excerpts. Quality is evaluated as a function of Internet traffic. In the paper it is shown that, by adopting an encoding technique with scalable bit-rate, and a prioritized transmission algorithm, a smooth degradation of quality may be obtained during network congestion periods. This technique shows better performance than feedback-based algorithms, in which the delayed responses cause the core stage packets to be lost in low-to-high traffic transitions and the enhancement packets not to be transmitted in high-to-low traffic transitions.</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1541265469</t>
+          <t>https://openalex.org/W2020210239</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1111/j.1467-7660.2012.01743.x</t>
+          <t>https://doi.org/10.1111/j.1467-9523.1982.tb01059.x</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Razavi (2012)</t>
+          <t>Wierzbicki &amp; Rambaud (1982)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>&lt;i&gt;World Development Report 2012: Gender Equality and Development&lt;/i&gt;— A Commentary</t>
+          <t>THE EMERGENCE OF THE FIRST AGRICULTURAL TRADE UNION IN SOCIALIST POLAND*</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Development and ChangeVolume 43, Issue 1 p. 423-437 Assessment World Development Report 2012: Gender Equality and Development— A Commentary Shahra Razavi, Shahra Razavi is Senior Researcher at the United Nations Research Institute for Social Development (UNRISD), Palais des Nations, 1211 Geneva 10, Switzerland; e-mail [email protected]. She specializes in the gender dimensions of social development, with a particular focus on livelihoods and social policy. Her recent publications include The Gendered Impacts of Liberalization: Towards ‘Embedded Liberalism’? (Routledge, 2009), Workers in the Care Economy, edited with Silke Staab (International Labour Review, 2010), and Seen, Heard and Counted: Rethinking Care in a Development Context (edited special issue of Development and Change, 2011).Search for more papers by this author Shahra Razavi, Shahra Razavi is Senior Researcher at the United Nations Research Institute for Social Development (UNRISD), Palais des Nations, 1211 Geneva 10, Switzerland; e-mail [email protected]. She specializes in the gender dimensions of social development, with a particular focus on livelihoods and social policy. Her recent publications include The Gendered Impacts of Liberalization: Towards ‘Embedded Liberalism’? (Routledge, 2009), Workers in the Care Economy, edited with Silke Staab (International Labour Review, 2010), and Seen, Heard and Counted: Rethinking Care in a Development Context (edited special issue of Development and Change, 2011).Search for more papers by this author First published: 21 February 2012 https://doi.org/10.1111/j.1467-7660.2012.01743.xCitations: 60Read the full textAboutPDF ToolsRequest permissionExport citationAdd to favoritesTrack citation ShareShare Give accessShare full text accessShare full-text accessPlease review our Terms and Conditions of Use and check box below to share full-text version of article.I have read and accept the Wiley Online Library Terms and Conditions of UseShareable LinkUse the link below to share a full-text version of this article with your friends and colleagues. Learn more.Copy URL Share a linkShare onEmailFacebookTwitterLinkedInRedditWechat REFERENCES Abramo, Lais and Maria Elena Valenzuela (2005) ‘Women's Labour Force Participation Rates in Latin America’, International Labour Review 144(4): 370–99. Agarwal, Bina (1994) A Field of One's Own: Gender and Land Rights in South Asia. Cambridge : Cambridge University Press. Arza, Camila (forthcoming) “ Pension Reform and Gender Equality in Latin America.” Programme Paper. Geneva : UNRISD. Bangura, Yusuf (2000) ‘ Public Sector Restructuring: The Institutional and Social Effects of Fiscal, Managerial and Capacity-Building Reforms’. Occasional Paper No. 3. Geneva : UNRISD. Beneria, Lourdes (2001) ‘Shifting the Risk: New Employment Patterns, Informalization, and Women's Work’, International Journal of Politics, Culture and Society 15(1): 27–53. Berik, Günseli and Yana van der Meulen Rodgers (2009) ‘ Engendering Development Strategies and Macroeconomic Policies? What's Sound and Sensible?’, in Günseli Berik, Yana van der Meulen Rodgers and Ann Zammit (eds) Social Justice and Gender Equality: Rethinking Development Strategies and Macroeconomic Policies, pp. 1–43. London and New York : Routledge/UNRISD. Borchorst, Anette (1994) ‘The Scandinavian Welfare States: Patriarchal, Gender-Neutral or Woman-Friendly?’, International Journal of Contemporary Sociology 31: 1–23. Budlender, Debbie (2008) ‘ Feasibility and Appropriateness of Attaching Behavioural Conditions to a Social Support Grant for Children Aged 15–17 Years’. Report prepared for Department of Social Development (Government of South Africa), Final Version. Cerrutti, Marcela (2000) ‘Economic Reform, Structural Adjustment and Female Labor Force Participation in Buenos Aires, Argentina’, World Development 28(5): 879–91. Chen, Martha, Joanne Vanek, Francie Lund, James Heintz, Renana Jhabvala and Chris Bonner (2005) Progress of the World's Women 2005: Women, Work, and Poverty. New York : UNIFEM. DFID (2011) ‘ Cash Transfers Evidence Paper. Policy Division. London : Department for International Development. Dolan, Catherine and Kristina Sorby (2003) ‘ Gender and Employment in High-Value Agriculture Industries’. Agriculture and Rural Development Working Paper No. 7. Washington , DC : The World Bank. Dollar, David and Roberta Gatti (1999) ‘ Gender Inequality, Income, and Growth: Are Good Times Good for Women?. World Bank Policy Research Report Working Paper Series No. 1. Washington , DC : The World Bank. Elson, Diane (1995) ‘ Male Bias in Macroeconomics: The Case of Structural Adjustment’, in Diane Elson (ed.) Male Bias in the Development Process, pp. 164–90. Manchester : Manchester University Press. Elson, Diane (1999) ‘Labor Markets as Gendered Institutions: Equality, Efficiency and Empowerment Issues’, World Development 27(3): 611–27. Elson, Diane (2009) ‘Gender Equality and Economic Growth in the World Bank World Development Report 20</t>
+          <t>ABSTRACT The last rural crisis (1975–1980) in Poland, much deeper than previous ones, provoked a kind of revolution. Agreements signed by representatives of the Party and of the striking workers facilitated the emergence of the first independent agricultural trade union in People's Poland, called “Solidarity”, although its legal and ideological obstacles were much greater than in the case of the workers' trade union “Solidarity”. The farmers' trade union movement had a pragmatic and realistic programme which was a fair expression of the professional and social interests of the farmers and all the rural population. Engels' opinion that peasants would spontaneously create collective forms of agricultural production because of the threat of the big landed estates was not confirmed in Poland. However, faced with the arbitrary constraints imposed by the Administration, the peasants established a trade union for their own self defence. RÉSUMÉ La dernière crise agricole (1975–1980) plus profonde que les précédentes a provoqué une sorte de révolution. Les accords conclus entre le Parti communiste (P.O.U.P.) et les ouvriers en grève ont aussi facilityé la naissance du premier syndicat agricole sous le nom de “Solidarité” en Pologne Populairc, malgré bien des obstacles juridiques ct idéologiques. Le mouvement syndical agricole avait un programme pragmatique et réaliste traduisant bien les intérêts professionnels et sociaux des agriculteurs et de route la campagnc. La perspective d'Engels, selon lacjuellc les paysans devraient spontanément créer des formes collectives d'agriculture sous la menace de la grandc exploitation ne s'est pas réalisée en Polognc Mais pour s'opposer aux contraintcs administratives les paysans ont institué un syndicat pour leur auto‐défense. KURZFASSUNG Die letzte landwirtschaftlichc Knse in Polen (197V80) war viel tiefcrgehend als die vor‐hergchenden und verursachtc cine Art Revolution Die von den Repräsentanten der Partei und der strcikenden Arbcitcr untcrzeichneten Übereinkommen crmöglichten die Entste‐hung der crstcn unabhängigen landwirtschaftlichcn Gewerkschaft in der Volksrepublik Polen, genannt “Solidarität”, obwohl die rechtlichcn und ideologischcn Hindcrnisse sehr viel größer waren als im Falle der Arbcitergewerkschaft “Solidarität”. Die Bauerngewcrkschaftsbcwcgung hatte ein pragmatisches und realistisches Programm, das ein genauer Ausdruck dcr beruflichen und sozialen Interessen der Bauern und der ganzen ländlichen Gebicte war. Die Meinung von Engels, daß Bauern spontan genossenschaft‐liche Formen der landwirtschaftlichcn Produktion gründen würden aus Furcht vor den großen Landgütern, hat sich in Polen nicht bestätigt. Dagegen errichteten die Bauern aber angesichtsder willkürlichen Behinderungen durch die Administration eine Gewerkschaft zu ihrer Selbstverteidigung</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2340380535</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.31899/pgy2.1029</t>
+          <t>https://openalex.org/W2556193404</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Hallman et al. (2006)</t>
+          <t>Mishra (2013)</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Multiple disadvantages of Mayan females: The effects of gender, ethnicity, poverty, and residence on education in Guatemala</t>
+          <t>The Great Indian Blackout and Elements of Positivity</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Although access to primary education in Guatemala has increased in recent years, particularly in rural areas, levels of educational attainment and literacy remain among the lowest in Latin America.Problems include late entry, grade repetition, and early dropout.Inequalities in school access and grade attainment linked to ethnicity, gender, poverty, and residence remain.Age trends show that Mayan females are the least likely to ever enroll, and, if they do enroll, to start school the latest and drop out earliest.Mayan females are not a homogeneous group, however.Summary statistics indicate that the one-fourth of Mayan girls who are non-poor have primary school entry rates, school entry age, and grade-for-age levels equal to those of Ladina females, and, conditional upon primary school completion, have secondary school enrollment levels about 80 percent of those of Ladina females.The one-quarter of Mayan girls who are extremely poor, on the other hand, have the worst educational outcomes of all.Multivariate results indicate that being Mayan and female is a barrier to enrollment, particularly among those who are poor.Enrollment rates drop sharply at age 12, and the dropout curve is steepest for Mayan females.While age 12 would be a time of transition from primary to secondary school for children who entered school on time and made regular progress, most nonenrolled children aged 12 and older, especially those who are Mayan, have very low grade attainment and few have completed primary school.The main constraint to Mayan educational achievement therefore appears to be primary school completion.Among nonenrolled young people aged 13-24, household duties and lack of money were the constraints most frequently mentioned by females.Early marriage did not appear to directly affect female enrollment, but related qualitative findings indicate that Mayan parents' expectations of daughters' future roles may reduce parental incentives to invest in education beyond the age of puberty.For adolescent males, regardless of ethnicity, market work was by far the most frequently cited cause for nonenrollment, followed by lack of money.Lack of physical access to school was not a frequently cited constraint for children in any age group.In addition to poverty-reduction programs, mechanisms to encourage poor families to start their children's schooling at age 7 may lead to fewer competing interests with regard to time allocation as children approach puberty and are compelled to assume adult work roles.</t>
+          <t>Though much criticized, the Indian blackout in July 2012 also possesses another side of a coin: the extent to which the blackout has served on the fronts of unity, cohesiveness, and equality is highly explicit. The currently ill-functioning Indian administration is identified as being at an intersection of a transition, a transition to more administrative efficiency. The ideas proposed in the essay are intended to perpetuate thoughts of optimism and faith through a constructively-framed perspective.</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2090421976</t>
+          <t>https://openalex.org/W3001590248</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1115/gt2012-68353</t>
+          <t>https://doi.org/10.5250/legacy.36.2.0181</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Städing et al. (2012)</t>
+          <t>Strand (2019)</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>The Potential of Rotor and Stator Clocking in a 2.5-Stage Low-Speed Axial Compressor</t>
+          <t>Women's Petitions and &amp;lt;em&amp;gt;The Linwoods&amp;lt;/em&amp;gt;</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Detailed experimental investigations have been conducted to gain profound knowledge of airfoil clocking mechanisms in axial compressors. Clocking, the circumferential indexing of adjacent rotor or stator rows with equal blade counts, is known as a potential means to modify the flow field in multistage turbo-machinery and increase overall efficiencies of both turbines and compressors. These beneficial effects on turbomachine performance are due to wake-airfoil interactions and primarily depend on the alignment of a downstream blade or vane row with upstream wake trajectories that are generated in the same frame of reference. The present survey describes and discusses the experimental research on Rotor and Stator Clocking effects in a low-speed 2.5-stage axial flow compressor. For both Rotor and Stator Clocking, variations of Stage 2 performance have been found that are sinusoidal in trend over the clocking angle and originate from a significant change in static pressure rise across the clocked blade rows. Time-averaged measurements basically suggest the highest pressure gain, if the upstream wakes pass through mid-passage of the downstream blade row. In case of Rotor Clocking, this may even lead to a variation in compressor operating range. The fundamental aerodynamic mechanism responsible for the clocking effect can be attributed to a shift of the suction-sided boundary layer transition over the clocking angle. Regarding overall Stage 2 performance, the investigations show that Full Clocking, i.e. the combination of Rotor and Stator Clocking, nearly doubles the potential of single row indexing.</t>
+          <t>Women's Petitions and The Linwoods Amy Dunham Strand I have again come a petitioner to you," says republican heroine Isabella Linwood to the British military leader Sir Henry Clinton in Catharine Maria Sedgwick's historical romance The Linwoods (1835), highlighting Isabella's repeated role as a petitioner in the novel (275). In central scenes throughout The Linwoods, Isabella petitions Sir Henry, appealing with "due humility" to reunite the Linwood family (240), if not to free her patriot brother Herbert, imprisoned in New York while impetuously seeking reconciliation with their Loyalist father. Isabella's petitions simultaneously trace the constitution of her political convictions from tory to rebel. In turn, Sedgwick petitions her readers throughout her "humble story," echoing Isabella's goals of republican union and transformation for her own era (315). In a series of gendered political performances in The Linwoods, Sedgwick thus invokes a central genre informing mid-nineteenth-century American women's writing: the petition, or political prayer, often on behalf of others—and a foundational genre in Anglo-American jurisprudence, relying on conventions of humility and republicanism to express requests to government officials. In translating the petition's rhetorical conventions of humility and republicanism into The Linwoods with an eye to performances of gender, Sedgwick's fiction foregrounds the constitutive rhetorical production of both citizenship and womanhood in nineteenth-century America. In recent years, historical studies have underlined the importance of tropes of humility and republicanism in petitions by American women who "were clearly aware of gender categories in antebellum America that mapped gender onto the public/private distinction" such that "to petition Congress was, for many women of the early Republic, a calculated but significant political risk" (Carpenter and Moore 483). In the novel, Sedgwick is aware of the calculated risk of women's petitioning; consequently, as in antebellum women's petitioning, she invokes [End Page 181] the humble rhetoric of petitioning with strategic performances of gender to persuade her auditors while still embracing republican ideals, registering protest with the goal of union. In doing so, Sedgwick uses Isabella's petitions to imagine women's political agency and to cast her as a burgeoning model of female citizenship who could still, without losing womanly virtues, participate in the body politic. In petitions to readers, the narrator of The Linwoods does the same, performing gender conventions alongside petitioning's conventions, often to mitigate its potential political risk. Sedgwick is among several nineteenth-century women writers who discursively explore women's political agency through novel incorporations of such in-text, thematic petitions and extratextual, authorial petitions, such that the fictions themselves can be read as petitions to their readers that theorize women's political agency. Not only in The Linwoods, female heroines and their authors strategically recast the rhetoric of the petition—beseeching, appealing, or praying, in speech, writing, or action—to intervene in issues of justice and freedom and to become political actors in gender-inflected ways, as rhetorical situations demand. For instance, at the heart of Harriet Beecher Stowe's Uncle Tom's Cabin (1852), Mrs. Bird petitions for escaped, potentially imprisoned slaves, challenging husband Senator Bird on the Fugitive Slave Law with a political prayer, as she "ruled [in her domestic sphere] more by entreaty and persuasion than by command or argument" (68; emphasis added). Mrs. Bird's spoken petition marks Senator Bird's political transformation, preparing him to receive the live, runaway Eliza at their door, with her own, embodied appeal in "the real presence of distress,—the imploring human eye, the frail, trembling human hand, the despairing appeal of helpless agony" (77; emphasis added). In E. D. E. N. Southworth's The Hidden Hand (1859), the popular heroine Capitola circulates a written petition for Black Donald, also unjustly imprisoned, and, when her conciliatory petition fails, Capitola resorts to action, a radical rescue of this prisoner. While these earlier fictions integrate women's petitioning rhetoric, by the time Rebecca Harding Davis published Life in the Iron-Mills (1861), women's petitioning had become so recognizable that it evolved into a figure sculpted of korl—a fully embodied visual representation of Davis's authorial petitions, direct sentimental appeals to her readers on the soul-starvation...</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2911952093</t>
+          <t>https://openalex.org/W1541265469</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>https://doi.org/10.32461/2226-3209.4.2013.138059</t>
+          <t>https://doi.org/10.1111/j.1467-7660.2012.01743.x</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Shevchenko (2013)</t>
+          <t>Razavi (2012)</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>The Role of the Modern Ukrainian Family in the Formation of Cultural Identity</t>
+          <t>&lt;i&gt;World Development Report 2012: Gender Equality and Development&lt;/i&gt;— A Commentary</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>The article deals with the formation of cultural identity in modern Ukrainian family, analyzes the role of family socialization features. Considerable attention is given to cultural and educational potential of the family and its influence on the cultural identity formation. Process of identity formation is always largely determined by the specific socio-cultural factors which were shaped by centuries of historical development. Family as a social institution deserves priority attention among those fundamental factors. Family – first principle of society. It is a certain social group in which most individual characteristics of the parents , their children and other family members showed through their behavior and personality development which are formed with self-knowledge, self-actualization and socialization of its members. Family by its characteristics is a social structure that goes through various stages of growth and development and through improved performance of its functions. It enriches the treasury of material and spiritual values of the people. The material and moral responsibility of family members to each other and to society is the main feature on the basis of these theoretical studies , modern family has to become a key element in the individual`s education and socialization. Proceeding with historical and modern conceptions of identity, a person in the epicenter of culture, is the highest spiritual value which becomes it`s spiritual essence and a part of humanity. The person develops it through culture. The cultural essence of personality is the backbone component of its integrity. Cultural values in the socio-cultural sphere are achieved by the beliefs of humanity that were formed and still continue to grow in the transformation of the socio-historical situation. The succession of generations is a process of mutual transfer, assimilation, storage and use of material and spiritual values, social information and experience of previous generations where the family plays an important role. The family in Ukraine fells under the influence of transformation of socio-cultural and political processes and transformations. They reflect on it and led to significant changes in their functioning. Socio-economic conditions of life appear in the relationship: increasing conflict, collapsing the established ethical principles of operation of the complete family. Dysfunctions increased in economic, legal and moral vulnerability of families, reducing their role in the socialization and education of children. This affects today's youth significantly. This effect is motivated by emotion, culture, internal rules and possibilities of family resources. However, the modern Ukrainian family does not realize it`s great educational potential. It depends on many social factors , especially economic life marked both positive and negative trends. This feature needs detailed analysis of trends, opportunities and constraints for the implementation of the educational potential of Ukrainian families. It ensures the development of the individual in the modern world. Therefore, the study of socio-cultural and psycho-educational situation in the family upbringing of the young generation has to become a basis for further development of public policy in education. The content of individual’s education in modern Ukrainian family should be integrated into national and humanist culture of the people in Intercontinental area. Content of education should reflect and establish the highest national and universal value orientation in the minds of modern and young people: spiritual, cultural, humanistic, ethical, aesthetic, physical, social and labor. It should also reflect the practice of modern Ukrainian family in the independent state. Based on these theoretical studies, the modern family is a major element in the education of contemporary identity and in shaping its culture. In Ukrainian family, it`s ideas were always clearly distinguished and rooted in the depths of people's life, minds, work and creativity. At all times ideals of the family were the highest and most sacred for our people. Family was considered to be a fundamental principle of human life, a kind of fortress, which provided development and protection of personality’s best qualities, including: labor as the most complete form of expression and creativity of human capabilities, sources of wealth and pleasure; spirituality as a synthetic form of understanding the world and ourselves in the same high moral dimension of creative and humane attitude to the environment and people. Ukrainian family has to cultivate such qualities of character and personality characteristics as: respect for parents and family devotion, commitment to mutual support , formation of national consciousness and identity, love for the land and people, formation of high language culture, respect the culture, customs and traditions of the peoples who inhabit the Ukraine, and the peoples of the world. F</t>
+          <t>Development and ChangeVolume 43, Issue 1 p. 423-437 Assessment World Development Report 2012: Gender Equality and Development— A Commentary Shahra Razavi, Shahra Razavi is Senior Researcher at the United Nations Research Institute for Social Development (UNRISD), Palais des Nations, 1211 Geneva 10, Switzerland; e-mail [email protected]. She specializes in the gender dimensions of social development, with a particular focus on livelihoods and social policy. Her recent publications include The Gendered Impacts of Liberalization: Towards ‘Embedded Liberalism’? (Routledge, 2009), Workers in the Care Economy, edited with Silke Staab (International Labour Review, 2010), and Seen, Heard and Counted: Rethinking Care in a Development Context (edited special issue of Development and Change, 2011).Search for more papers by this author Shahra Razavi, Shahra Razavi is Senior Researcher at the United Nations Research Institute for Social Development (UNRISD), Palais des Nations, 1211 Geneva 10, Switzerland; e-mail [email protected]. She specializes in the gender dimensions of social development, with a particular focus on livelihoods and social policy. Her recent publications include The Gendered Impacts of Liberalization: Towards ‘Embedded Liberalism’? (Routledge, 2009), Workers in the Care Economy, edited with Silke Staab (International Labour Review, 2010), and Seen, Heard and Counted: Rethinking Care in a Development Context (edited special issue of Development and Change, 2011).Search for more papers by this author First published: 21 February 2012 https://doi.org/10.1111/j.1467-7660.2012.01743.xCitations: 60Read the full textAboutPDF ToolsRequest permissionExport citationAdd to favoritesTrack citation ShareShare Give accessShare full text accessShare full-text accessPlease review our Terms and Conditions of Use and check box below to share full-text version of article.I have read and accept the Wiley Online Library Terms and Conditions of UseShareable LinkUse the link below to share a full-text version of this article with your friends and colleagues. Learn more.Copy URL Share a linkShare onEmailFacebookTwitterLinkedInRedditWechat REFERENCES Abramo, Lais and Maria Elena Valenzuela (2005) ‘Women's Labour Force Participation Rates in Latin America’, International Labour Review 144(4): 370–99. Agarwal, Bina (1994) A Field of One's Own: Gender and Land Rights in South Asia. Cambridge : Cambridge University Press. Arza, Camila (forthcoming) “ Pension Reform and Gender Equality in Latin America.” Programme Paper. Geneva : UNRISD. Bangura, Yusuf (2000) ‘ Public Sector Restructuring: The Institutional and Social Effects of Fiscal, Managerial and Capacity-Building Reforms’. Occasional Paper No. 3. Geneva : UNRISD. Beneria, Lourdes (2001) ‘Shifting the Risk: New Employment Patterns, Informalization, and Women's Work’, International Journal of Politics, Culture and Society 15(1): 27–53. Berik, Günseli and Yana van der Meulen Rodgers (2009) ‘ Engendering Development Strategies and Macroeconomic Policies? What's Sound and Sensible?’, in Günseli Berik, Yana van der Meulen Rodgers and Ann Zammit (eds) Social Justice and Gender Equality: Rethinking Development Strategies and Macroeconomic Policies, pp. 1–43. London and New York : Routledge/UNRISD. Borchorst, Anette (1994) ‘The Scandinavian Welfare States: Patriarchal, Gender-Neutral or Woman-Friendly?’, International Journal of Contemporary Sociology 31: 1–23. Budlender, Debbie (2008) ‘ Feasibility and Appropriateness of Attaching Behavioural Conditions to a Social Support Grant for Children Aged 15–17 Years’. Report prepared for Department of Social Development (Government of South Africa), Final Version. Cerrutti, Marcela (2000) ‘Economic Reform, Structural Adjustment and Female Labor Force Participation in Buenos Aires, Argentina’, World Development 28(5): 879–91. Chen, Martha, Joanne Vanek, Francie Lund, James Heintz, Renana Jhabvala and Chris Bonner (2005) Progress of the World's Women 2005: Women, Work, and Poverty. New York : UNIFEM. DFID (2011) ‘ Cash Transfers Evidence Paper. Policy Division. London : Department for International Development. Dolan, Catherine and Kristina Sorby (2003) ‘ Gender and Employment in High-Value Agriculture Industries’. Agriculture and Rural Development Working Paper No. 7. Washington , DC : The World Bank. Dollar, David and Roberta Gatti (1999) ‘ Gender Inequality, Income, and Growth: Are Good Times Good for Women?. World Bank Policy Research Report Working Paper Series No. 1. Washington , DC : The World Bank. Elson, Diane (1995) ‘ Male Bias in Macroeconomics: The Case of Structural Adjustment’, in Diane Elson (ed.) Male Bias in the Development Process, pp. 164–90. Manchester : Manchester University Press. Elson, Diane (1999) ‘Labor Markets as Gendered Institutions: Equality, Efficiency and Empowerment Issues’, World Development 27(3): 611–27. Elson, Diane (2009) ‘Gender Equality and Economic Growth in the World Bank World Development Report 20</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3204859840</t>
+          <t>https://openalex.org/W2090421976</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>https://doi.org/10.18287/2782-2966-2021-1-2-75-82</t>
+          <t>https://doi.org/10.1115/gt2012-68353</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Stepanov (2021)</t>
+          <t>Städing et al. (2012)</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>On literary imitations of two imperative poems by Joseph Brodsky</t>
+          <t>The Potential of Rotor and Stator Clocking in a 2.5-Stage Low-Speed Axial Compressor</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>This article concentrates on the problem of literary interactions. It studies connections between Joseph Brodskys imperative poems Ne vykhodi iz komnaty (Dont leave your room, 1970) and Nazidanie (Cautionary Advice, 1987), and their imitations. Those imitations were composed by both amateur and professional authors. The research objective is to define the character of similarities, the latter being mainly manifested at the rhythmic, speech and ideological levels. The methodology is based upon an empirical approach to the text; the specific methods are prosody analysis, comparative analysis, analysis of the motive structure. Two types of imitation of the said pre-texts are distinguished in the study. The first one is reflective feeble imitation represented by amateur texts written by web authors. Amateur poets create simplified variations of Ne vykhodi iz komnaty that became a lockdown hymn in the spring of 2020. Conscious support of a renowned poets work seems to legitimate creation of an amateur piece with its further placement on the web. The other type of imitation is a poetic dialogue. In spite of the fact that the author mainly employs ready-made compositional and speech patterns and lyrical and narrative motives, he develops and combines them in his own manner. M. Vatutinas poem S chuzhimi ne razgovarivai, zhizn u tebya odna (Dont talk to strangers, youve got just the only one life) may be viewed as a rhythmic and semantic paraphrase of Brodskys Nazidanie followed by definite transformations. Conceivably it cannot be referred to the so-called secondary texts in spite of its strong connection to Brodskys poems.</t>
+          <t>Detailed experimental investigations have been conducted to gain profound knowledge of airfoil clocking mechanisms in axial compressors. Clocking, the circumferential indexing of adjacent rotor or stator rows with equal blade counts, is known as a potential means to modify the flow field in multistage turbo-machinery and increase overall efficiencies of both turbines and compressors. These beneficial effects on turbomachine performance are due to wake-airfoil interactions and primarily depend on the alignment of a downstream blade or vane row with upstream wake trajectories that are generated in the same frame of reference. The present survey describes and discusses the experimental research on Rotor and Stator Clocking effects in a low-speed 2.5-stage axial flow compressor. For both Rotor and Stator Clocking, variations of Stage 2 performance have been found that are sinusoidal in trend over the clocking angle and originate from a significant change in static pressure rise across the clocked blade rows. Time-averaged measurements basically suggest the highest pressure gain, if the upstream wakes pass through mid-passage of the downstream blade row. In case of Rotor Clocking, this may even lead to a variation in compressor operating range. The fundamental aerodynamic mechanism responsible for the clocking effect can be attributed to a shift of the suction-sided boundary layer transition over the clocking angle. Regarding overall Stage 2 performance, the investigations show that Full Clocking, i.e. the combination of Rotor and Stator Clocking, nearly doubles the potential of single row indexing.</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
+          <t>https://openalex.org/W4288461339</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/j.ymeth.2022.07.014</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Lin et al. (2022)</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>NMR-based isotope editing, chemoselection and isotopomer distribution analysis in stable isotope resolved metabolomics</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>NMR is a very powerful tool for identifying and quantifying compounds within complex mixtures without the need for individual standards or chromatographic separation. Stable Isotope Resolved Metabolomics (or SIRM) is an approach to following the fate of individual atoms from precursors through metabolic transformation, producing an atom-resolved metabolic fate map. However, extracts of cells or tissue give rise to very complex NMR spectra. While multidimensional NMR experiments may partially overcome the spectral overlap problem, additional tools may be needed to determine site-specific isotopomer distributions. NMR is especially powerful by virtue of its isotope editing capabilities using NMR active nuclei such as 13C, 15N, 19F and 31P to select molecules containing just these atoms in a complex mixture, and provide direct information about which atoms are present in identified compounds and their relative abundances. The isotope-editing capability of NMR can also be employed to select for those compounds that have been selectively derivatized with an NMR-active stable isotope at particular functional groups, leading to considerable spectral simplification. Here we review isotope analysis by NMR, and methods of chemoselection both for spectral simplification, and for enhanced isotopomer analysis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W2911952093</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.32461/2226-3209.4.2013.138059</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Shevchenko (2013)</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>The Role of the Modern Ukrainian Family in the Formation of Cultural Identity</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>The article deals with the formation of cultural identity in modern Ukrainian family, analyzes the role of family socialization features. Considerable attention is given to cultural and educational potential of the family and its influence on the cultural identity formation. Process of identity formation is always largely determined by the specific socio-cultural factors which were shaped by centuries of historical development. Family as a social institution deserves priority attention among those fundamental factors. Family – first principle of society. It is a certain social group in which most individual characteristics of the parents , their children and other family members showed through their behavior and personality development which are formed with self-knowledge, self-actualization and socialization of its members. Family by its characteristics is a social structure that goes through various stages of growth and development and through improved performance of its functions. It enriches the treasury of material and spiritual values of the people. The material and moral responsibility of family members to each other and to society is the main feature on the basis of these theoretical studies , modern family has to become a key element in the individual`s education and socialization. Proceeding with historical and modern conceptions of identity, a person in the epicenter of culture, is the highest spiritual value which becomes it`s spiritual essence and a part of humanity. The person develops it through culture. The cultural essence of personality is the backbone component of its integrity. Cultural values in the socio-cultural sphere are achieved by the beliefs of humanity that were formed and still continue to grow in the transformation of the socio-historical situation. The succession of generations is a process of mutual transfer, assimilation, storage and use of material and spiritual values, social information and experience of previous generations where the family plays an important role. The family in Ukraine fells under the influence of transformation of socio-cultural and political processes and transformations. They reflect on it and led to significant changes in their functioning. Socio-economic conditions of life appear in the relationship: increasing conflict, collapsing the established ethical principles of operation of the complete family. Dysfunctions increased in economic, legal and moral vulnerability of families, reducing their role in the socialization and education of children. This affects today's youth significantly. This effect is motivated by emotion, culture, internal rules and possibilities of family resources. However, the modern Ukrainian family does not realize it`s great educational potential. It depends on many social factors , especially economic life marked both positive and negative trends. This feature needs detailed analysis of trends, opportunities and constraints for the implementation of the educational potential of Ukrainian families. It ensures the development of the individual in the modern world. Therefore, the study of socio-cultural and psycho-educational situation in the family upbringing of the young generation has to become a basis for further development of public policy in education. The content of individual’s education in modern Ukrainian family should be integrated into national and humanist culture of the people in Intercontinental area. Content of education should reflect and establish the highest national and universal value orientation in the minds of modern and young people: spiritual, cultural, humanistic, ethical, aesthetic, physical, social and labor. It should also reflect the practice of modern Ukrainian family in the independent state. Based on these theoretical studies, the modern family is a major element in the education of contemporary identity and in shaping its culture. In Ukrainian family, it`s ideas were always clearly distinguished and rooted in the depths of people's life, minds, work and creativity. At all times ideals of the family were the highest and most sacred for our people. Family was considered to be a fundamental principle of human life, a kind of fortress, which provided development and protection of personality’s best qualities, including: labor as the most complete form of expression and creativity of human capabilities, sources of wealth and pleasure; spirituality as a synthetic form of understanding the world and ourselves in the same high moral dimension of creative and humane attitude to the environment and people. Ukrainian family has to cultivate such qualities of character and personality characteristics as: respect for parents and family devotion, commitment to mutual support , formation of national consciousness and identity, love for the land and people, formation of high language culture, respect the culture, customs and traditions of the peoples who inhabit the Ukraine, and the peoples of the world. F</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
           <t>https://openalex.org/W2026250138</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B23" t="inlineStr">
         <is>
           <t>https://doi.org/10.1007/s11606-015-3255-0</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>Callahan (2015)</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>Opening the Door to Transgender Care</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>This issue of the Journal of General Internal Medicine showcases an intriguing and uncommon article: “Electronic Health Records and Transgender Patients—Practical Recommendations for the Collection of Gender Identity Data.”1 Readers who currently see no transgender or transsexual (now commonly referred to as trans) patients may wonder why this paper was selected for publication. While the common belief has been that trans patients needed to be referred to endocrinologists or other specialists, there is now increasing recognition that quality primary care can be provided by general internists and others who are willing to expand their practice by engaging in dialogue with the patient and others committed to caring for trans patients. Another common belief in the past was that trans people were universally committed to full medical and surgical transition. The trans patients seeking care now appear to vary widely on how few or how many transition services they seek. Significant expansion and personalization of trans care is critical in efforts to reduce health disparities for these populations._x000D_
 _x000D_
@@ -919,214 +970,155 @@
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W4205326087</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1093/ijtj/ijab032</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Verwoerd et al. (2022)</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Peace as Betrayal: On the Human Cost of Relational Peacebuilding in Transitional Contexts</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>ABSTRACT This article explores the micro-dynamics of intragroup betrayal and self-betrayal that can be evoked by relational peacebuilding between groups. The painful accusation of betrayal by close, family-type group members and internally feeling like a betrayer as a result of working with the ‘other side’ is presented as an underestimated human cost of relational peacebuilding. This understanding emerged from an international ‘Beyond Dehumanisation’ research project, which included experienced peace practitioners from South Africa, the Israel-Palestine region and the conflict in and about Northern Ireland. The emerging diagnostic framework is supported by (and provides empirical support for) theories of betrayal that stress how deeply relational betrayal is. The resonance with Margalit’s theory of betrayal as the ‘undermining of thick relations’ is especially strong. ‘Peace as betrayal’ suggests the need for more practical support for peacebuilders and can also be applied more widely to render resistance to transitional justice processes more visible.</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W3038121166</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1049/iet-pel.2020.0404</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Zhang et al. (2020)</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Energy management strategy with two degrees of freedom for hybrid energy storage systems in islanded DC microgrids</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>IET Power ElectronicsVolume 13, Issue 14 p. 3171-3179 Research Article Free Access Energy management strategy with two degrees of freedom for hybrid energy storage systems in islanded DC microgrids Yuhan Zhang, School of Electric Power, South China University of Technology, Guangzhou, 510641 People's Republic of ChinaSearch for more papers by this authorGuiping Du, Corresponding Author gpdu@scut.edu.cn School of Electric Power, South China University of Technology, Guangzhou, 510641 People's Republic of ChinaSearch for more papers by this authorYanxiong Lei, School of Electric Power, South China University of Technology, Guangzhou, 510641 People's Republic of ChinaSearch for more papers by this author Yuhan Zhang, School of Electric Power, South China University of Technology, Guangzhou, 510641 People's Republic of ChinaSearch for more papers by this authorGuiping Du, Corresponding Author gpdu@scut.edu.cn School of Electric Power, South China University of Technology, Guangzhou, 510641 People's Republic of ChinaSearch for more papers by this authorYanxiong Lei, School of Electric Power, South China University of Technology, Guangzhou, 510641 People's Republic of ChinaSearch for more papers by this author First published: 01 November 2020 https://doi.org/10.1049/iet-pel.2020.0404Citations: 2 AboutSectionsPDF ToolsRequest permissionExport citationAdd to favoritesTrack citation ShareShare Give accessShare full text accessShare full-text accessPlease review our Terms and Conditions of Use and check box below to share full-text version of article.I have read and accept the Wiley Online Library Terms and Conditions of UseShareable LinkUse the link below to share a full-text version of this article with your friends and colleagues. Learn more.Copy URL Share a linkShare onEmailFacebookTwitterLinked InRedditWechat Abstract In this study, a novel energy management strategy (EMS) with two degrees of freedom is proposed for hybrid energy storage systems consisting of supercapacitor (SC) and battery in islanded microgrids. The proposal introduces two degrees of freedom including an adaptive high-pass filter cut-off frequency f c and a charge/discharge coefficient k b, according to the SC and battery state of charge (SOC), respectively. The f c regulates SC current in the transient process and the k b controls battery current in the steady-state. Therefore, appropriate power distribution that the SC suppresses the transient power fluctuations while the battery supports average power demand is realised, over-charging, and over-discharging are avoided and the current stress of the battery during the shut-down process is reduced. Moreover, three operation modes for isolated DC microgrids, comprising power-sharing mode, battery-only mode, and extreme mode are demonstrated. Hence, the DC microgrid can remain stable for the whole time, achieve seamless transitions from the power-sharing mode to the two others, and provide faster SOC recovery of the SC. The effectiveness of the proposed EMS is validated by experimental studies with a prototype of the simplified DC microgrid. Nomenclature f c adaptive high-pass filter cut-off frequency k b charge/discharge coefficient SOCSC, DODSC SC state of charge and depth of discharge tk −1, tk, tk +1 (k − 1)th, k th, and (k + 1)th time instance SOCb battery state of charge SOCSC_min, SOCSC_max SC SOC minimum and maximum limits SOCb_min, SOCb_low, SOCb_high, SOCb_max battery SOC minimum, low, high, and maximum limits V dc, V dc _ ref, V err DC bus actual voltage, voltage reference, and voltage deviation i SC_s, i b_s SC and battery current settings 1 Introduction Owing to the energy shortage and environmental pollution caused by the massive use of fossil fuel, people have realised the importance of renewable energy sources (RESs), such as solar photovoltaic (PV) and wind [1]. To utilise these RESs more efficiently and economically, microgrids have been implemented [2]. However, the volatility and intermittent of RESs result in power mismatch, voltage fluctuations, and system instability in DC microgrids. Therefore, the energy storage systems (ESSs) are deployed in DC microgrids to address the aforementioned issues [3]. Ideal energy storage is required to have high energy and power density, long cycle life, fast dynamic response etc. However, no existing energy storage can meet all requirements simultaneously [4, 5]. Fig. 1 presents the Ragone chart describing the power and energy density of different energy storage [6]. Therefore, various energy storages with different characteristics are combined to form the hybrid ESS (HESS). Among different configurations of HESS, the combination of the supercapacitor (SC) and the battery is the most mainstream [7]. In Fig. 1, the SC has high-power density and short charge/discharge time, while the battery has a relatively high-energy density with a slow dynamic response. Thus, the SC is utilised to suppress the transient power fluctuations and the batter</t>
-        </is>
-      </c>
-    </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4232336923</t>
+          <t>https://openalex.org/W4205326087</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1353/mdr.2006.0083</t>
+          <t>https://doi.org/10.1093/ijtj/ijab032</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Moi (2006)</t>
+          <t>Verwoerd et al. (2022)</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>"First and Foremost a Human Being": Idealism, Theatre, and Gender in A Doll's House</t>
+          <t>Peace as Betrayal: On the Human Cost of Relational Peacebuilding in Transitional Contexts</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>"First and Foremost a Human Being":Idealism, Theatre, and Gender in A Doll's House1 Toril Moi (bio) Introduction A Doll's House is the first full-blown example of Ibsen's modernism. It contains a devastating critique of idealism entwined with a turn to the everyday, a celebration of theatre combined with a fierce analysis of everyday theatricality (A Doll's House is teeming with metatheatrical elements) and a preoccupation with the conditions of love in modernity. In A Doll's House, Ibsen mobilizes all these features in a contemporary setting and in relation to a fundamentally modern theme: namely, the situation of women in the family and society.2 The result is a play that calls for a radical transformation [forvandling], not just, or not even primarily, of laws and institutions, but of human beings and their ideas of love. This article explores three major themes in A Doll's House: idealism, theatre, and gender. Although idealist aesthetic norms were a primary concern for many of the play's first critics, contemporary literary scholars have barely raised the subject.3 In this article, I use the term "idealism" to mean "idealist aesthetics," defined broadly as the idea that the task of art is to create beauty, combined with the belief that beauty, truth, and goodness are one. Taking questions of beauty to be questions of morality and truth, idealist aesthetics thus seemlessly merge aesthetics [End Page 256] and ethics. Although the earliest versions of idealist aesthetics had been espoused by Romantic radicals such as Friedrich Schiller, Madame de Staël, and - a little later - Shelley, by the time of A Doll's House, the Romantic movement was long dead; yet idealist aesthetics lived on, albeit in increasingly tired and exhausted forms, which often were aligned with conservative and moralistic social forces. Not surprisingly, then, in the wake of the radical Danish intellectual Georg Brandes's fiery call for a modern literature in his 1871-72 lectures on Hovedstrømninger i Europeisk litteratur, idealism was increasingly coming under attack, and - as I show in my book Henrik Ibsen and the Birth of Modernism - Ibsen's works were the linchpin of the burgeoning modernist opposition to idealism.4 The moment of A Doll's House marks a clear shift in the increasingly intense cultural battle between idealists and emerging modernists in Europe. Idealist responses to A Doll's House were embattled in a way that idealist responses to Love's Comedy and Emperor and Galilean were not.5 In this article, I will show that defenders of Ibsen's realism nevertheless come across as less sophisticated than their idealist opponents. In fact, by propagating the idea that A Doll's House was to be understood as a "slice of life," Ibsen's first admirers entirely missed his pro-theatricalism, his metatheatrical insistence that what we are seeing is theatre. Around 1880, then, neither Ibsen's enemies nor his friends were in a position truly to grasp the scope of his aesthetic achievement. But idealism was not just an important element in the reception of A Doll's House. It is also embedded in the play, most strikingly in the character of Torvald Helmer, a card-carrying idealist aesthete if ever there was one. Moreover, Helmer's idealism and Nora's unthinking echoing of it make them theatricalize both themselves and each other, most strikingly by taking themselves to be starring in various idealist scenarios of female sacrifice and male rescue. Ibsen's critique of idealism is the condition of possibility for his revolutionary analysis of gender in modernity. In this respect, the key line of the play is Nora's claim to be "first and foremost a human being (359)."6 Nora's struggle for recognition as a human being is rightly considered an exemplary case of women's struggle for political and social rights.7 But Nora claims her humanity only after explicitly rejecting two other identities: namely, "doll" and "wife and mother." In order to show what these refusals mean, I first consider the signification of the figure of the doll. "The human body is the best picture of the human soul," Ludwig Wittgenstein writes (152). What...</t>
+          <t>ABSTRACT This article explores the micro-dynamics of intragroup betrayal and self-betrayal that can be evoked by relational peacebuilding between groups. The painful accusation of betrayal by close, family-type group members and internally feeling like a betrayer as a result of working with the ‘other side’ is presented as an underestimated human cost of relational peacebuilding. This understanding emerged from an international ‘Beyond Dehumanisation’ research project, which included experienced peace practitioners from South Africa, the Israel-Palestine region and the conflict in and about Northern Ireland. The emerging diagnostic framework is supported by (and provides empirical support for) theories of betrayal that stress how deeply relational betrayal is. The resonance with Margalit’s theory of betrayal as the ‘undermining of thick relations’ is especially strong. ‘Peace as betrayal’ suggests the need for more practical support for peacebuilders and can also be applied more widely to render resistance to transitional justice processes more visible.</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2427531199</t>
+          <t>https://openalex.org/W4232336923</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1088/0953-8984/27/48/486001</t>
+          <t>https://doi.org/10.1353/mdr.2006.0083</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Kundu et al. (2015)</t>
+          <t>Moi (2006)</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Interplay between&lt;i&gt;3d–3d&lt;/i&gt;and&lt;i&gt;3d–4f&lt;/i&gt;interactions at the origin of the magnetic ordering in the Ba&lt;sub&gt;2&lt;/sub&gt;LnFeO&lt;sub&gt;5&lt;/sub&gt;oxides</t>
+          <t>"First and Foremost a Human Being": Idealism, Theatre, and Gender in A Doll's House</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>A new family of oxides in which 3d-3d and 3d-4f interactions are of comparable strength has been synthesized and characterized both from structural and physical viewpoints. These compounds of formulation Ba2LnFeO5 (Ln = Sm, Eu, Gd, Dy, Ho, Er, Yb) are isotypic to the perovskite derivative Ba2YFeO5. They exhibit an original structure consisting of isolated FeO4 tetrahedra linked via LnO6 (or YO6) octahedra. Magnetic and calorimetric measurements show that all these compounds exhibit a unique, antiferromagnetic transition involving both the 3d and 4f ions. The antiferromagnetic properties of the Ln = Y phase (non-magnetic Y(3+)) and of the Ln = Eu (non-magnetic ground state multiplet of Eu(3+)) are ascribed to super-super exchange Fe-O-O-Fe interactions, leading to the lowest T(N) (5.5 K for Y and 4.6 K for Eu). The introduction of a magnetic lanthanide, i.e. Ln = Sm, Gd, Dy, Ho, Er, Yb, in the octahedral sites, leads to larger T(N) values (up to 9.8 K for Ln = Yb). It is found that several mechanisms must be taken into account to explain the complex evolution of the magnetic properties along the Ba2LnFeO5 series. In particular, the super-exchange Ln-O-Fe, as well as the on-site Ln(3+) magnetocrystalline anisotropy, are suggested to play crucial roles. This Ba2LnFeO5 series offers a rare opportunity to investigate experimentally a situation where the 3d-3d and 3d-4f interactions co-operate on an equal footing to trigger a unique long-range magnetic ordering in insulating oxides.</t>
+          <t>"First and Foremost a Human Being":Idealism, Theatre, and Gender in A Doll's House1 Toril Moi (bio) Introduction A Doll's House is the first full-blown example of Ibsen's modernism. It contains a devastating critique of idealism entwined with a turn to the everyday, a celebration of theatre combined with a fierce analysis of everyday theatricality (A Doll's House is teeming with metatheatrical elements) and a preoccupation with the conditions of love in modernity. In A Doll's House, Ibsen mobilizes all these features in a contemporary setting and in relation to a fundamentally modern theme: namely, the situation of women in the family and society.2 The result is a play that calls for a radical transformation [forvandling], not just, or not even primarily, of laws and institutions, but of human beings and their ideas of love. This article explores three major themes in A Doll's House: idealism, theatre, and gender. Although idealist aesthetic norms were a primary concern for many of the play's first critics, contemporary literary scholars have barely raised the subject.3 In this article, I use the term "idealism" to mean "idealist aesthetics," defined broadly as the idea that the task of art is to create beauty, combined with the belief that beauty, truth, and goodness are one. Taking questions of beauty to be questions of morality and truth, idealist aesthetics thus seemlessly merge aesthetics [End Page 256] and ethics. Although the earliest versions of idealist aesthetics had been espoused by Romantic radicals such as Friedrich Schiller, Madame de Staël, and - a little later - Shelley, by the time of A Doll's House, the Romantic movement was long dead; yet idealist aesthetics lived on, albeit in increasingly tired and exhausted forms, which often were aligned with conservative and moralistic social forces. Not surprisingly, then, in the wake of the radical Danish intellectual Georg Brandes's fiery call for a modern literature in his 1871-72 lectures on Hovedstrømninger i Europeisk litteratur, idealism was increasingly coming under attack, and - as I show in my book Henrik Ibsen and the Birth of Modernism - Ibsen's works were the linchpin of the burgeoning modernist opposition to idealism.4 The moment of A Doll's House marks a clear shift in the increasingly intense cultural battle between idealists and emerging modernists in Europe. Idealist responses to A Doll's House were embattled in a way that idealist responses to Love's Comedy and Emperor and Galilean were not.5 In this article, I will show that defenders of Ibsen's realism nevertheless come across as less sophisticated than their idealist opponents. In fact, by propagating the idea that A Doll's House was to be understood as a "slice of life," Ibsen's first admirers entirely missed his pro-theatricalism, his metatheatrical insistence that what we are seeing is theatre. Around 1880, then, neither Ibsen's enemies nor his friends were in a position truly to grasp the scope of his aesthetic achievement. But idealism was not just an important element in the reception of A Doll's House. It is also embedded in the play, most strikingly in the character of Torvald Helmer, a card-carrying idealist aesthete if ever there was one. Moreover, Helmer's idealism and Nora's unthinking echoing of it make them theatricalize both themselves and each other, most strikingly by taking themselves to be starring in various idealist scenarios of female sacrifice and male rescue. Ibsen's critique of idealism is the condition of possibility for his revolutionary analysis of gender in modernity. In this respect, the key line of the play is Nora's claim to be "first and foremost a human being (359)."6 Nora's struggle for recognition as a human being is rightly considered an exemplary case of women's struggle for political and social rights.7 But Nora claims her humanity only after explicitly rejecting two other identities: namely, "doll" and "wife and mother." In order to show what these refusals mean, I first consider the signification of the figure of the doll. "The human body is the best picture of the human soul," Ludwig Wittgenstein writes (152). What...</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2148614916</t>
+          <t>https://openalex.org/W2963257172</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1123/ijsnem.23.5.449</t>
+          <t>https://doi.org/10.1038/s41598-019-39254-7</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Lagundžin et al. (2013)</t>
+          <t>Najafi (2019)</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Alteration of IGFBP-1 in Soccer Players Due to Intensive Training</t>
+          <t>Interaction-disorder-driven characteristic momentum in graphene, approach of multi-body distribution functions</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Physical activity is accompanied by the changes in Insulin-like Growth Factor I (IGF-I)/IGF-Binding Protein 1 (IGFBP-1) axis. Inconsistent results concerning IGF-I and IGFBP-1 levels were reported. In this study we have raised some questions on the events that occur at the molecular level of the exercise-related IGFBP-1 changes. We have examined the fragmentation pattern of IGFBP-1, IGFBP-1 protease activity, interaction between IGFBP-1 and alpha2-macroglobulin (α2M), and possible existence of minor structural changes of IGFBP-1 in professional soccer players. Athletes had significantly greater amounts of fragmented IGFBP-1, whereas no difference was found in the amount of intact IGFBP-1 compared with controls. An increased activity of matrix metalloprotease-9 (MMP-9) was detected in athletes, causing IGFBP-1 degradation down to the fragment of 9 kDa as the major one. The amount of α2M, which protects IGFBP-1 from proteolysis, or the amount of IGFBP-1/α2M complexes was unaltered. Finally, we have examined whether IGFBP-1 isolated from soccer players exhibited altered reactivity with several chemical surfaces used in surface-enhanced laser desorption/ionization-time of flight mass spectrometry (SELDI-TOF MS). Different reactivity was detected with anion and cation exchangers, suggesting existence of at least one sequence within IGFBP-1, whose ionization pattern was not equal in athletes and controls. Differences in spectra obtained with ion exchanges may reflect differences in IGFBP-1 phosphorylation. Physiological implications of the events described in this study on the IGF-I availability are, at this time, unknown. It can be hypothesized that IGFBP-1 proteolysis leads to altered distribution of IGF-I among IGFBPs, which may affect the final IGF-associated response.</t>
+          <t>Abstract Multi-point probability measures along with the dielectric function of Dirac Fermions in mono-layer graphene containing particle-particle and white-noise (out-plane) disorder interactions on an equal footing in the Thomas-Fermi-Dirac approximation is investigated. By calculating the one-body carrier density probability measure of the graphene sheet, we show that the density fluctuation ( ζ −1 ) is related to the disorder strength ( n i ), the interaction parameter ( r s ) and the average density ( $$\bar{{\boldsymbol{n}}}$$ &lt;mml:math xmlns:mml="http://www.w3.org/1998/Math/MathML"&gt; &lt;mml:mover&gt; &lt;mml:mi&gt;n&lt;/mml:mi&gt; &lt;mml:mo&gt;¯&lt;/mml:mo&gt; &lt;/mml:mover&gt; &lt;/mml:math&gt; ) via the relation $${{\boldsymbol{\zeta }}}^{-{\bf{1}}}{\boldsymbol{\propto }}{{\boldsymbol{r}}}_{{\boldsymbol{s}}}{{\boldsymbol{n}}}_{{\boldsymbol{i}}}^{{\bf{2}}}{\bar{{\boldsymbol{n}}}}^{-{\bf{1}}}$$ &lt;mml:math xmlns:mml="http://www.w3.org/1998/Math/MathML"&gt; &lt;mml:msup&gt; &lt;mml:mrow&gt; &lt;mml:mi&gt;ζ&lt;/mml:mi&gt; &lt;/mml:mrow&gt; &lt;mml:mrow&gt; &lt;mml:mo&gt;−&lt;/mml:mo&gt; &lt;mml:mn&gt;1&lt;/mml:mn&gt; &lt;/mml:mrow&gt; &lt;/mml:msup&gt; &lt;mml:mo&gt;∝&lt;/mml:mo&gt; &lt;mml:msub&gt; &lt;mml:mrow&gt; &lt;mml:mi&gt;r&lt;/mml:mi&gt; &lt;/mml:mrow&gt; &lt;mml:mrow&gt; &lt;mml:mi&gt;s&lt;/mml:mi&gt; &lt;/mml:mrow&gt; &lt;/mml:msub&gt; &lt;mml:msubsup&gt; &lt;mml:mrow&gt; &lt;mml:mi&gt;n&lt;/mml:mi&gt; &lt;/mml:mrow&gt; &lt;mml:mrow&gt; &lt;mml:mi&gt;i&lt;/mml:mi&gt; &lt;/mml:mrow&gt; &lt;mml:mrow&gt; &lt;mml:mn&gt;2&lt;/mml:mn&gt; &lt;/mml:mrow&gt; &lt;/mml:msubsup&gt; &lt;mml:msup&gt; &lt;mml:mrow&gt; &lt;mml:mover&gt; &lt;mml:mi&gt;n&lt;/mml:mi&gt; &lt;mml:mo&gt;¯&lt;/mml:mo&gt; &lt;/mml:mover&gt; &lt;/mml:mrow&gt; &lt;mml:mrow&gt; &lt;mml:mo&gt;−&lt;/mml:mo&gt; &lt;mml:mn&gt;1&lt;/mml:mn&gt; &lt;/mml:mrow&gt; &lt;/mml:msup&gt; &lt;/mml:math&gt; for which $$\bar{{\boldsymbol{n}}}\to {\bf{0}}$$ &lt;mml:math xmlns:mml="http://www.w3.org/1998/Math/MathML"&gt; &lt;mml:mover&gt; &lt;mml:mi&gt;n&lt;/mml:mi&gt; &lt;mml:mo&gt;¯&lt;/mml:mo&gt; &lt;/mml:mover&gt; &lt;mml:mo&gt;→&lt;/mml:mo&gt; &lt;mml:mn&gt;0&lt;/mml:mn&gt; &lt;/mml:math&gt; leads to strong density inhomogeneities, i.e. electron-hole puddles (EHPs), in agreement with the previous works. The general equation governing the two-body distribution probability is obtained and analyzed. We present the analytical solution for some limits which is used for calculating density-density response function. We show that the resulting function shows power-law behaviors in terms of ζ with fractional exponents which are reported. The disorder-averaged polarization operator is shown to be a decreasing function of momentum like ordinary 2D parabolic band systems. It is seen that a disorder-driven momentum q ch emerges in the system which controls the behaviors of the screened potential. We show that in small densities an instability occurs in which imaginary part of the dielectric function becomes negative and the screened potential changes sign. Corresponding to this instability, some oscillations in charge density along with a screening-anti-screening transition are observed. These effects become dominant in very low densities, strong disorders and strong interactions, the state in which EHPs appear. The total charge probability measure is another quantity which has been investigated in this paper. The resulting equation is analytically solved for large carrier densities, which admits the calculation of arbitrary-point correlation function.</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2963257172</t>
+          <t>https://openalex.org/W3047647033</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1038/s41598-019-39254-7</t>
+          <t>https://doi.org/10.1111/1467-9655.13346</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Najafi (2019)</t>
+          <t>Tremlett (2020)</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Interaction-disorder-driven characteristic momentum in graphene, approach of multi-body distribution functions</t>
+          <t>Kapuściński, Ryszard; with an introduction by Neal Ascherson; trans. Antonia Lloyd‐Jones. The other. 100 pp. London: Verso Books, 2018. £8.99 (paper)</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Abstract Multi-point probability measures along with the dielectric function of Dirac Fermions in mono-layer graphene containing particle-particle and white-noise (out-plane) disorder interactions on an equal footing in the Thomas-Fermi-Dirac approximation is investigated. By calculating the one-body carrier density probability measure of the graphene sheet, we show that the density fluctuation ( ζ −1 ) is related to the disorder strength ( n i ), the interaction parameter ( r s ) and the average density ( $$\bar{{\boldsymbol{n}}}$$ &lt;mml:math xmlns:mml="http://www.w3.org/1998/Math/MathML"&gt; &lt;mml:mover&gt; &lt;mml:mi&gt;n&lt;/mml:mi&gt; &lt;mml:mo&gt;¯&lt;/mml:mo&gt; &lt;/mml:mover&gt; &lt;/mml:math&gt; ) via the relation $${{\boldsymbol{\zeta }}}^{-{\bf{1}}}{\boldsymbol{\propto }}{{\boldsymbol{r}}}_{{\boldsymbol{s}}}{{\boldsymbol{n}}}_{{\boldsymbol{i}}}^{{\bf{2}}}{\bar{{\boldsymbol{n}}}}^{-{\bf{1}}}$$ &lt;mml:math xmlns:mml="http://www.w3.org/1998/Math/MathML"&gt; &lt;mml:msup&gt; &lt;mml:mrow&gt; &lt;mml:mi&gt;ζ&lt;/mml:mi&gt; &lt;/mml:mrow&gt; &lt;mml:mrow&gt; &lt;mml:mo&gt;−&lt;/mml:mo&gt; &lt;mml:mn&gt;1&lt;/mml:mn&gt; &lt;/mml:mrow&gt; &lt;/mml:msup&gt; &lt;mml:mo&gt;∝&lt;/mml:mo&gt; &lt;mml:msub&gt; &lt;mml:mrow&gt; &lt;mml:mi&gt;r&lt;/mml:mi&gt; &lt;/mml:mrow&gt; &lt;mml:mrow&gt; &lt;mml:mi&gt;s&lt;/mml:mi&gt; &lt;/mml:mrow&gt; &lt;/mml:msub&gt; &lt;mml:msubsup&gt; &lt;mml:mrow&gt; &lt;mml:mi&gt;n&lt;/mml:mi&gt; &lt;/mml:mrow&gt; &lt;mml:mrow&gt; &lt;mml:mi&gt;i&lt;/mml:mi&gt; &lt;/mml:mrow&gt; &lt;mml:mrow&gt; &lt;mml:mn&gt;2&lt;/mml:mn&gt; &lt;/mml:mrow&gt; &lt;/mml:msubsup&gt; &lt;mml:msup&gt; &lt;mml:mrow&gt; &lt;mml:mover&gt; &lt;mml:mi&gt;n&lt;/mml:mi&gt; &lt;mml:mo&gt;¯&lt;/mml:mo&gt; &lt;/mml:mover&gt; &lt;/mml:mrow&gt; &lt;mml:mrow&gt; &lt;mml:mo&gt;−&lt;/mml:mo&gt; &lt;mml:mn&gt;1&lt;/mml:mn&gt; &lt;/mml:mrow&gt; &lt;/mml:msup&gt; &lt;/mml:math&gt; for which $$\bar{{\boldsymbol{n}}}\to {\bf{0}}$$ &lt;mml:math xmlns:mml="http://www.w3.org/1998/Math/MathML"&gt; &lt;mml:mover&gt; &lt;mml:mi&gt;n&lt;/mml:mi&gt; &lt;mml:mo&gt;¯&lt;/mml:mo&gt; &lt;/mml:mover&gt; &lt;mml:mo&gt;→&lt;/mml:mo&gt; &lt;mml:mn&gt;0&lt;/mml:mn&gt; &lt;/mml:math&gt; leads to strong density inhomogeneities, i.e. electron-hole puddles (EHPs), in agreement with the previous works. The general equation governing the two-body distribution probability is obtained and analyzed. We present the analytical solution for some limits which is used for calculating density-density response function. We show that the resulting function shows power-law behaviors in terms of ζ with fractional exponents which are reported. The disorder-averaged polarization operator is shown to be a decreasing function of momentum like ordinary 2D parabolic band systems. It is seen that a disorder-driven momentum q ch emerges in the system which controls the behaviors of the screened potential. We show that in small densities an instability occurs in which imaginary part of the dielectric function becomes negative and the screened potential changes sign. Corresponding to this instability, some oscillations in charge density along with a screening-anti-screening transition are observed. These effects become dominant in very low densities, strong disorders and strong interactions, the state in which EHPs appear. The total charge probability measure is another quantity which has been investigated in this paper. The resulting equation is analytically solved for large carrier densities, which admits the calculation of arbitrary-point correlation function.</t>
+          <t>Ryszard Kapuściński (1932-2007) was an internationally acclaimed Polish journalist and author, whose writings generated some controversy for their apparent blending of reportage and literature. This volume includes four lectures: the ‘Viennese lectures’ which were delivered in Vienna on 1-3 December 2004 at the Institut für die Wissenschaften vom Menschen; ‘My Other’, which was given at the International Writers’ Symposium in Graz on 12 October 1990; ‘The Other in the global village’, which was delivered at the Father Józef Tischner Senior European School in Kraków on 30 September 2003; and ‘Encountering the Other as the challenge of the twenty-first century’, which was delivered on 1 October 2004, when Kapuściński was awarded an honorary doctorate at the Jagiellonian University in Kraków. The lectures pursue interlinked trajectories of reflection on Europe and its relations with Africa, the Americas, Asia, and the Middle East, as well as the question of the Other and the direction of social and cultural change. Over the course of the lectures, Kapuściński engages substantially with anthropology, particularly through the figure of Bronislaw Malinowski, and continental philosophy, through that of Emmanuel Lévinas. In this brief review, I will address these elements, before concluding with some short remarks about Kapuściński's representation of anthropology and Malinowski. For Kapuściński, Enlightenment humanism – expressed initially through literature and travel writing – opened up new spaces in which the Other emerged not as an object of conquest or conversion, but as a human being. According to Kapuściński, anthropology and the ‘philosophy of dialogue’ (p. 68) as practised by the likes of Lévinas, emerged from this Enlightenment space (p. 27). His summary of the development of anthropology from the debates of evolutionists, diffusionists, and functionalists into a discipline defined by ethnography, with Malinowski as ‘the creator of anthropological reportage’ (p. 32), segues neatly into a discussion of Lévinas, and his foregrounding of the ethics of the encounter with the Other, a move which Kapuściński sees as building upon the fieldwork pioneered by Malinowski. Kapuściński adds that fieldwork ‘is not only recommended for anthropologists, but is also a fundamental condition for the job of a reporter’ (p. 31), a point which highlights potential points of contact between the two professions. Kapuściński provides two perspectives on European history and experience: one, as we have seen, begins with the Enlightenment and moves on via the novel to anthropology and the philosophy of dialogue. The other focuses on social and cultural change, and the transition, as Kapuściński sees it, from mass to global society, a transition precipitated by decolonization and the end of the Cold War, as well as the advance and spread of new communication technologies. According to Kapuściński, mass society, particularly in its totalitarian forms, negated the individual: the subject was a member of a class, a race, or a nation. As such, our new multicultural-global society must embrace the spirit of dialogue found not just in the writings of Lévinas but also in those of the Polish Catholic theologian Józef Tischner, for whom the idea of dialogue was precisely conceived in opposition to mass and totalitarian social forms and in the recognition of the individual human being. Importantly, Kapuściński understands that a defining feature of the new global and multicultural society is its emergence from ‘various contradictory worlds, a composite creature of fluid, impermanent contours and features’ (p. 33), and that it is ‘hybrid and heterogeneous’ (p. 89). This new society will, according to Kapuściński, require something of the spirit of Malinowski, Lévinas, and Tischner if it is not to succumb to the many enmities and challenges that beset it from all sides. One reason to read this beautifully composed book is for its representation of anthropology and one of the discipline's most controversial figures, Malinowski. Kapuściński sees in anthropology, and fieldwork in particular, a deliberative methodology for dialogue and understanding the Other. Perhaps this is a rose-tinted view of the fieldwork encounter that does not adequately grasp its ongoing implication in asymmetries of power, race, and gender, but Kapuściński offers some useful points of departure for pursuing related questions about ethnography and literary craft, and for exploring anthropology and journalism as entangled professions. Finally, given the links made by Robert J. Thornton (‘Imagine yourself set down …’, Anthropology Today 1: 5, 1985) between Malinowski and one of Conrad's more disturbing creations, Kurtz, there is perhaps some irony in the fact that Kapuściński's final lecture closes with a quotation from Joseph Conrad (p. 92) that points to a common humanity binding together the dead, the living, and the unborn.</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3047647033</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1111/1467-9655.13346</t>
+          <t>https://openalex.org/W2138101700</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Tremlett (2020)</t>
+          <t>Baynes (1977)</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Kapuściński, Ryszard; with an introduction by Neal Ascherson; trans. Antonia Lloyd‐Jones. The other. 100 pp. London: Verso Books, 2018. £8.99 (paper)</t>
+          <t>A Personal Retrospect: The Argument for Design Education</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Ryszard Kapuściński (1932-2007) was an internationally acclaimed Polish journalist and author, whose writings generated some controversy for their apparent blending of reportage and literature. This volume includes four lectures: the ‘Viennese lectures’ which were delivered in Vienna on 1-3 December 2004 at the Institut für die Wissenschaften vom Menschen; ‘My Other’, which was given at the International Writers’ Symposium in Graz on 12 October 1990; ‘The Other in the global village’, which was delivered at the Father Józef Tischner Senior European School in Kraków on 30 September 2003; and ‘Encountering the Other as the challenge of the twenty-first century’, which was delivered on 1 October 2004, when Kapuściński was awarded an honorary doctorate at the Jagiellonian University in Kraków. The lectures pursue interlinked trajectories of reflection on Europe and its relations with Africa, the Americas, Asia, and the Middle East, as well as the question of the Other and the direction of social and cultural change. Over the course of the lectures, Kapuściński engages substantially with anthropology, particularly through the figure of Bronislaw Malinowski, and continental philosophy, through that of Emmanuel Lévinas. In this brief review, I will address these elements, before concluding with some short remarks about Kapuściński's representation of anthropology and Malinowski. For Kapuściński, Enlightenment humanism – expressed initially through literature and travel writing – opened up new spaces in which the Other emerged not as an object of conquest or conversion, but as a human being. According to Kapuściński, anthropology and the ‘philosophy of dialogue’ (p. 68) as practised by the likes of Lévinas, emerged from this Enlightenment space (p. 27). His summary of the development of anthropology from the debates of evolutionists, diffusionists, and functionalists into a discipline defined by ethnography, with Malinowski as ‘the creator of anthropological reportage’ (p. 32), segues neatly into a discussion of Lévinas, and his foregrounding of the ethics of the encounter with the Other, a move which Kapuściński sees as building upon the fieldwork pioneered by Malinowski. Kapuściński adds that fieldwork ‘is not only recommended for anthropologists, but is also a fundamental condition for the job of a reporter’ (p. 31), a point which highlights potential points of contact between the two professions. Kapuściński provides two perspectives on European history and experience: one, as we have seen, begins with the Enlightenment and moves on via the novel to anthropology and the philosophy of dialogue. The other focuses on social and cultural change, and the transition, as Kapuściński sees it, from mass to global society, a transition precipitated by decolonization and the end of the Cold War, as well as the advance and spread of new communication technologies. According to Kapuściński, mass society, particularly in its totalitarian forms, negated the individual: the subject was a member of a class, a race, or a nation. As such, our new multicultural-global society must embrace the spirit of dialogue found not just in the writings of Lévinas but also in those of the Polish Catholic theologian Józef Tischner, for whom the idea of dialogue was precisely conceived in opposition to mass and totalitarian social forms and in the recognition of the individual human being. Importantly, Kapuściński understands that a defining feature of the new global and multicultural society is its emergence from ‘various contradictory worlds, a composite creature of fluid, impermanent contours and features’ (p. 33), and that it is ‘hybrid and heterogeneous’ (p. 89). This new society will, according to Kapuściński, require something of the spirit of Malinowski, Lévinas, and Tischner if it is not to succumb to the many enmities and challenges that beset it from all sides. One reason to read this beautifully composed book is for its representation of anthropology and one of the discipline's most controversial figures, Malinowski. Kapuściński sees in anthropology, and fieldwork in particular, a deliberative methodology for dialogue and understanding the Other. Perhaps this is a rose-tinted view of the fieldwork encounter that does not adequately grasp its ongoing implication in asymmetries of power, race, and gender, but Kapuściński offers some useful points of departure for pursuing related questions about ethnography and literary craft, and for exploring anthropology and journalism as entangled professions. Finally, given the links made by Robert J. Thornton (‘Imagine yourself set down …’, Anthropology Today 1: 5, 1985) between Malinowski and one of Conrad's more disturbing creations, Kurtz, there is perhaps some irony in the fact that Kapuściński's final lecture closes with a quotation from Joseph Conrad (p. 92) that points to a common humanity binding together the dead, the living, and the unborn.</t>
+          <t>The suggestion for an article based on a personal view of the past ten years in design education came at an opportune moment. Having just completed work on the Design in General Education project at the Royal College of Art, and having just begun to research a new exhibition - on the evolution of engineering drawing - for the Welsh Arts Council, I was in the right frame of mind to look again at my motivations. Certainly with educational activities, a design practice and historical research all going on at the same time, the pattern did not immediately suggest coherence. It didn't even look well designed! How is it that I find no difficulty in maintaining a continuing commitment to, for example, art and design or fashion and technology, when to many people, particularly perhaps to specialist subject teachers, they obviously seem poles apart? I tried to give an answer to this rather sharp question in talks I gave to arts teachers at the ILEA's Cockpit Theatre in London and to design teachers at the NADE Conference at Eaton Hall in Retford . The present article is based on an expansion of those talks . What I am setting out to do is to restate some of those arguments in favour of design education that have struck me as being truly fundamental . To put this into the form of a personal narrative means going back twenty rather than ten years but I hope the longer perspective will be useful . What I find particularly interesting is that the arguments which seemed powerful then still seem powerful now . It still appears to me that in order to understand and evaluate the content and methods of design education we have first to understand and evaluate the radical changes which have transformed communication and construction and the attitudes of people to them. Once this has been done, there are likely to be a great variety of valid ways of bringing such concerns into the forum of general education.</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2138101700</t>
+          <t>https://openalex.org/W2769120358</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Baynes (1977)</t>
+          <t>Cox (2017)</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>A Personal Retrospect: The Argument for Design Education</t>
+          <t>Essays in Household Finance</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>The suggestion for an article based on a personal view of the past ten years in design education came at an opportune moment. Having just completed work on the Design in General Education project at the Royal College of Art, and having just begun to research a new exhibition - on the evolution of engineering drawing - for the Welsh Arts Council, I was in the right frame of mind to look again at my motivations. Certainly with educational activities, a design practice and historical research all going on at the same time, the pattern did not immediately suggest coherence. It didn't even look well designed! How is it that I find no difficulty in maintaining a continuing commitment to, for example, art and design or fashion and technology, when to many people, particularly perhaps to specialist subject teachers, they obviously seem poles apart? I tried to give an answer to this rather sharp question in talks I gave to arts teachers at the ILEA's Cockpit Theatre in London and to design teachers at the NADE Conference at Eaton Hall in Retford . The present article is based on an expansion of those talks . What I am setting out to do is to restate some of those arguments in favour of design education that have struck me as being truly fundamental . To put this into the form of a personal narrative means going back twenty rather than ten years but I hope the longer perspective will be useful . What I find particularly interesting is that the arguments which seemed powerful then still seem powerful now . It still appears to me that in order to understand and evaluate the content and methods of design education we have first to understand and evaluate the radical changes which have transformed communication and construction and the attitudes of people to them. Once this has been done, there are likely to be a great variety of valid ways of bringing such concerns into the forum of general education.</t>
+          <t>Author(s): Cox, Natalie Cox | Advisor(s): Handel, Benjamin | Abstract: The use of technology by firms is changing the way insurance and lending markets function. I study the financial technology, or fin-tech'', industry, which is characterized by a growing number of online lenders who use data on educational, employment, and financial outcomes to quickly assess the risk of prospective borrowers and offer individualized loan terms. In many ways, their financial innovations'' can be thought of as movements towards more personalized products: interest rates that better reflect individuals' risk, payment plans that are tailored to individuals' monthly income and expenditures, and user-friendly interfaces that make financial decisions more intuitive and uncomplicated. On an individual level, as firms expand and customize product offerings, there is the potential for large efficiency gains. These innovations could also have wider implications for market structure; for example, if more accurate risk-based pricing creates clear winners and losers, it will change the distribution of consumer surplus.Advances in data-driven underwriting have both efficiency and equity implications for consumer lending markets where private and public credit options coexist. In the $1 trillion student loan market, private lenders now offer a growing distribution of risk-based interest rates, while the federally-run loan program sets a break-even, uniform interest rate. In my first chapter, I measure the overall gains in consumer surplus from such risk-based pricing and quantify the redistributional consequences of low-risk types refinancing out of the government pool into the private market. The empirical analysis is based on a unique applicant-level dataset from an online refinancing firm that contains information on loan terms, household balance sheets, and risk-based interest rates. I first leverage a series of firm-conducted interest rate experiments to estimate the sensitivity of borrowers' maturity and refinancing choices to interest rates. Using the maturity response, I then estimate a structural model of borrowers' repayment preferences. Using the estimated model, I show that comprehensive risk-based pricing generates large absolute gains in welfare of $480 per borrower relative to a break-even uniform price, and $400 relative to a coarser method of FICO-based pricing. If the federal pool conducts breakeven pricing, these efficiency gains come at a direct equity cost -- low risk surplus will increase on average by $2,300, while high risk surplus will fall by $2,100. In order to maintain access to the current uniform rate, the government would have to transition from break-even pricing to an average net subsidy of $2,080 per borrower.In the second chapter, I empirically analyze the fixed and variable rate decisions of borrowers who are financing large personal loans, and are given the option to switch rate types at any point. Many online lending firms now offer financial products that are more flexible and personalized than traditional loans; however, little is known about how consumers will interact with these more complete, but also more complex, contracts. Over my sample time period, the market index interest rate for the fixed and variable rate loans changed considerably. I first present reduced form evidence on the determinants of borrowers' initial rate decisions and the presence of switching costs, and then estimate a structural model that maps these findings to the coefficient of absolute risk aversion and a switching cost parameter. I compare the active and inactive rate choices of borrowers in different interest rate environments to separately identify switching costs from risk preferences.I show that while initial rate choices are very responsive to the prevailing interest rate environment, very few borrowers ever take advantage of the option to switch rate types even when interest rates increase. Specifically, I estimate a risk aversion parameter of .0564, which implies that borrowers are very risk averse, and lower and upper bounds on switching costs from $166 to $1,185. I also show that both the initial probability of choosing a variable rate loan and the probability of never switching are positively correlated with borrower liquidity constraints, which suggests that these borrowers are more focused on current monthly payments than future interest rate risk.</t>
         </is>
       </c>
     </row>
@@ -1236,297 +1228,459 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2333727462</t>
+          <t>https://openalex.org/W2163654497</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1139/v10-116</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Layton (2015)</t>
+          <t>Li et al. (2010)</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Scrum For Dummies</t>
+          <t>Theoretical study of the microwave spectrum of isotopologues of OCS–(He)&lt;sub&gt;2&lt;/sub&gt;</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Practice an agile form of management to stop wasting time and money Scrum For Dummies is an easy to use guide to managing the tricky transition from a traditional project management methodology to the new and most popular agile framework. As the most efficient, successful methodology for team project management, Scrum relies on transparency, flexibility, and fluidity to deliver a final product that fulfills the needs of all stakeholders. Written in easy-to-read Dummies style, this book walks you through the core principles of Scrum and provides a roadmap for tangible implementation. The vast majority of projects go over budget, and billions of dollars are wasted every year on overruns. Put a stop to this wasteful leakage by switching to a management style that keeps all participants informed, up-to-date, and accountable. Authored by a Certified Scrum Trainer, Mark Layton, Scrum For Dummies covers the key ideas and processes behind Scrum methodologies, and presents the inner workings of the plan in an engaging and accessible format. Topics include: * The Scrum values, roles, artifacts, and activities that make up the principle of this methodology * When and how best to use Scrum * The differences between Scrum and other agile methodologies * Using Scrum for IT, finance, construction, health care, and more The book also delves into the everyday use of Scrum, and how it can help you achieve your own personal goals outside of work. There's a reason why scrum is quickly becoming the standard approach to project management it works! If you want to stop wasting time and start producing more effectively, Scrum For Dummies is the guide that will get you there.</t>
+          <t>The rovibrational energy levels (J = 0–3) and rotational spectra of seven isotopologues of the OCS–(He) 2 complex have been determined by numerically exact basis set calculations. The interaction energy is represented as a sum of two-body terms consisting of the OCS–He potential, which Howson and Hutson (J. Chem. Phys. 2001, 115, 5059) obtained at the CCSD(T)/aug-cc-pVTZ level of theory, and the He–He potential that Jeziorska et al. (J. Chem. Phys. 2007, 127,124303) obtained with SAPT theory. Three-body effects and the quality of the potential are discussed. Comparison with experiment shows that microwave transitions can be predicted by this additive approach with an accuracy equal or better than 0.7% for all the observed spectral lines. A method for the three-dimensional representation of the helium density in the body-fixed frame is presented that highlights the highly delocalized nature of the helium subsystem.</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4234236954</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1190/1.9781560801672.ch5</t>
+          <t>https://openalex.org/W2333727462</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>NA (2007)</t>
+          <t>Layton (2015)</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>5. Duality</t>
+          <t>Scrum For Dummies</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>PreviousNext No AccessSeismic True-Amplitude Imaging5. Dualityhttps://doi.org/10.1190/1.9781560801672.ch5 SectionsAboutPDF/ePub ToolsAdd to favoritesDownload CitationsTrack CitationsPermissions ShareFacebookTwitterLinked InReddit Abstract We mentioned in Chapter 1 that all map and image transformation procedures discussed in this book rely on two basic geometric concepts: the Huygens surface (also called the diffraction-traveltime surface or the maximum-convexity surface) and the isochron (also called the aplanat, aplanatic, or equal-traveltime surface). In this chapter, we elaborate further on the common properties and the mutual relationship of these two fundamental surfaces, as well as on their relationship to the 3D reflection-traveltime surface and the 3D target reflector. We always assume a fixed measurement configuration as discussed in the "Measurement configurations" section of Chapter 2. Thus, all traveltime surfaces considered here are functions of a 2D vector parameter ξ, rather than of the complete set of source and receiver coordinates xS and xG. Permalink: https://doi.org/10.1190/1.9781560801672.ch5FiguresReferencesRelatedDetails Seismic True-Amplitude ImagingISBN (print):978-1-56080-143-6ISBN (online):978-1-56080-167-2Copyright: 2007 Pages: 401 publication data© 2007 All rights reserved. No part of this publication may be reproduced or distributed in any form or by any means without written permission of the publisherPublisher:Society of Exploration Geophysicists HistoryPublished in print: 01 Jan 2007 CITATION INFORMATION (2007), "5. Duality," Geophysical Developments Series : 149-172. https://doi.org/10.1190/1.9781560801672.ch5 Plain-Language Summary PDF DownloadLoading ...</t>
+          <t>Practice an agile form of management to stop wasting time and money Scrum For Dummies is an easy to use guide to managing the tricky transition from a traditional project management methodology to the new and most popular agile framework. As the most efficient, successful methodology for team project management, Scrum relies on transparency, flexibility, and fluidity to deliver a final product that fulfills the needs of all stakeholders. Written in easy-to-read Dummies style, this book walks you through the core principles of Scrum and provides a roadmap for tangible implementation. The vast majority of projects go over budget, and billions of dollars are wasted every year on overruns. Put a stop to this wasteful leakage by switching to a management style that keeps all participants informed, up-to-date, and accountable. Authored by a Certified Scrum Trainer, Mark Layton, Scrum For Dummies covers the key ideas and processes behind Scrum methodologies, and presents the inner workings of the plan in an engaging and accessible format. Topics include: * The Scrum values, roles, artifacts, and activities that make up the principle of this methodology * When and how best to use Scrum * The differences between Scrum and other agile methodologies * Using Scrum for IT, finance, construction, health care, and more The book also delves into the everyday use of Scrum, and how it can help you achieve your own personal goals outside of work. There's a reason why scrum is quickly becoming the standard approach to project management it works! If you want to stop wasting time and start producing more effectively, Scrum For Dummies is the guide that will get you there.</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2497458810</t>
+          <t>https://openalex.org/W4234236954</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>https://doi.org/10.4018/978-1-60566-026-4.ch177</t>
+          <t>https://doi.org/10.1190/1.9781560801672.ch5</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Amoretti &amp; Casula (2009)</t>
+          <t>NA (2007)</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>From Digital Divides to Digital Inequalities</t>
+          <t>5. Duality</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Concerns about inequalities deriving from the penetration of new information and communication technologies (ICTs) have only recently become a widely debated issue in industrial societies. Until the 1980s the diffusion of ICT was mainly considered a matter of technological innovation regarding selected fields and limited territorial areas (such as the military and academic centers in the U.S.). Gradually, scholars started to point to the rise of an information society based on the production of information as the crucial resource to manage coordination and control of increasingly interconnected organizational systems (Masuda, 1981; Beniger, 1986; Toffler, 1990). The expression offered an alternative to the otherwise negative definitions used by scholars since the 1970s to identify changes occurring in Western democratic societies (‘post-capitalism’, ‘post-industrialism’, ‘post-materialism’, etc.) (Touraine, 1969; Bell, 1973). The debate over the information society, enthusiastically greeted by some authors (Negroponte, 1995) and critically observed by others (Castells, 1996, 2001; May, 2002; Mattelart, 2003), witnessed since the mid-1990s widespread success in public and political debates (Thomas, 1996). In front of the fast and capillary diffusion of ICTs virtually to all sectors of private and public life, most Western countries’ governments and international organizations have inserted within their policy agendas a reference to the unavoidability, if not desirability, of a radical shift to the new information age. The rhetoric accompanying those discourses often presents the expansion of the ICT sector?and especially the Internet?as offering citizens returns at both the individual and collective level, in the form of greater access to goods and services, increased levels of social and civic participation, and wider economic and working opportunities for all. Presented as a crucial means to participate in the new global information society, ICTs become recognized as a resource that should be fairly distributed among citizens, albeit on the basis of different arguments (ranging from social equity to economic efficiency or global development concerns), often leading to opposite conclusions on the scope for redistributive interventions (Strover, 2003; Selwyn, 2007).</t>
+          <t>PreviousNext No AccessSeismic True-Amplitude Imaging5. Dualityhttps://doi.org/10.1190/1.9781560801672.ch5 SectionsAboutPDF/ePub ToolsAdd to favoritesDownload CitationsTrack CitationsPermissions ShareFacebookTwitterLinked InReddit Abstract We mentioned in Chapter 1 that all map and image transformation procedures discussed in this book rely on two basic geometric concepts: the Huygens surface (also called the diffraction-traveltime surface or the maximum-convexity surface) and the isochron (also called the aplanat, aplanatic, or equal-traveltime surface). In this chapter, we elaborate further on the common properties and the mutual relationship of these two fundamental surfaces, as well as on their relationship to the 3D reflection-traveltime surface and the 3D target reflector. We always assume a fixed measurement configuration as discussed in the "Measurement configurations" section of Chapter 2. Thus, all traveltime surfaces considered here are functions of a 2D vector parameter ξ, rather than of the complete set of source and receiver coordinates xS and xG. Permalink: https://doi.org/10.1190/1.9781560801672.ch5FiguresReferencesRelatedDetails Seismic True-Amplitude ImagingISBN (print):978-1-56080-143-6ISBN (online):978-1-56080-167-2Copyright: 2007 Pages: 401 publication data© 2007 All rights reserved. No part of this publication may be reproduced or distributed in any form or by any means without written permission of the publisherPublisher:Society of Exploration Geophysicists HistoryPublished in print: 01 Jan 2007 CITATION INFORMATION (2007), "5. Duality," Geophysical Developments Series : 149-172. https://doi.org/10.1190/1.9781560801672.ch5 Plain-Language Summary PDF DownloadLoading ...</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2620987783</t>
+          <t>https://openalex.org/W2497458810</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1007/978-3-319-53697-2_1</t>
+          <t>https://doi.org/10.4018/978-1-60566-026-4.ch177</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Borzutzky (2017)</t>
+          <t>Amoretti &amp; Casula (2009)</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Transitional Justice: A Short Introduction</t>
+          <t>From Digital Divides to Digital Inequalities</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Concerns about inequalities deriving from the penetration of new information and communication technologies (ICTs) have only recently become a widely debated issue in industrial societies. Until the 1980s the diffusion of ICT was mainly considered a matter of technological innovation regarding selected fields and limited territorial areas (such as the military and academic centers in the U.S.). Gradually, scholars started to point to the rise of an information society based on the production of information as the crucial resource to manage coordination and control of increasingly interconnected organizational systems (Masuda, 1981; Beniger, 1986; Toffler, 1990). The expression offered an alternative to the otherwise negative definitions used by scholars since the 1970s to identify changes occurring in Western democratic societies (‘post-capitalism’, ‘post-industrialism’, ‘post-materialism’, etc.) (Touraine, 1969; Bell, 1973). The debate over the information society, enthusiastically greeted by some authors (Negroponte, 1995) and critically observed by others (Castells, 1996, 2001; May, 2002; Mattelart, 2003), witnessed since the mid-1990s widespread success in public and political debates (Thomas, 1996). In front of the fast and capillary diffusion of ICTs virtually to all sectors of private and public life, most Western countries’ governments and international organizations have inserted within their policy agendas a reference to the unavoidability, if not desirability, of a radical shift to the new information age. The rhetoric accompanying those discourses often presents the expansion of the ICT sector?and especially the Internet?as offering citizens returns at both the individual and collective level, in the form of greater access to goods and services, increased levels of social and civic participation, and wider economic and working opportunities for all. Presented as a crucial means to participate in the new global information society, ICTs become recognized as a resource that should be fairly distributed among citizens, albeit on the basis of different arguments (ranging from social equity to economic efficiency or global development concerns), often leading to opposite conclusions on the scope for redistributive interventions (Strover, 2003; Selwyn, 2007).</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2383788092</t>
+          <t>https://openalex.org/W2620987783</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1007/978-3-319-53697-2_1</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Deng-hua (2013)</t>
+          <t>Borzutzky (2017)</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Development Status and Trend of Chinese Water Industry</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>Urban water supply in China has experienced a transition from growth to maturity,reaching a steady balance of supply and demand.Wastewater treatment is in the growth stage,with a rapid increase in capacity and volume.Recycled water is in the introduction stage and just getting started.The following nine major problems in Chinese water industry development were analyzed: relatively low water resources per capita,serious water pollution,aged urban water network with serious leakage and low utilization of water resources,grave situation in urban water supply safety,low wastewater treatment efficiency and outdated technology,fragmented water industry chains and loose organization,insufficient water price reform and decentralized water industry.The development trends of the water industry were described from six aspects: seawater desalination has become a new area to be explored;market-oriented reform in the water industry is increasingly prompted;investments are mainly made by state-owned capital;water service is increasingly integrated with capital market;integrated reform in water service management is implemented and increased and better profitability of water industry with continuous increase in water price.The Chinese water industry is expected to become one of the fastest growing industries and worthiest investment industries.</t>
+          <t>Transitional Justice: A Short Introduction</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1499530127</t>
+          <t>https://openalex.org/W2383788092</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Steidle &amp; Wallace (2007)</t>
+          <t>Deng-hua (2013)</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>The Devil Came on Horseback: Bearing Witness to the Genocide in Darfur</t>
+          <t>Development Status and Trend of Chinese Water Industry</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Former United States Marine Brian Steidle served for six months in Darfur as an unarmed military observer for the African Union. There he witnessed first-hand the ongoing genocide, and documented every day of his experience using email, audio journals, notebook after notebook and nearly 1,000 photographs. Gretchen Steidle Wallace, his sister, who wrote this book with Brian, corresponded with him throughout his time in Darfur. Fired upon, taken hostage, a witness to villages destroyed and people killed, frustrated by his mission's limitations and the international community's reluctance to intervene, Steidle resigned and has since become an advocate for the world to step in and stop this genocide. The Devil Came on Horseback depicts the tragic impact of an Arab government bent on destroying its black African citizens, the maddening complexity of international inaction in response to blatant genocide, and the awkward, yet heroic transformation of a formerMarine turned humanitarian. It is a gripping and moving memoir that bears witness to atrocities we have too long averted our eyes from, and reveals that the actions of just one committed person have the power to change the world.</t>
+          <t>Urban water supply in China has experienced a transition from growth to maturity,reaching a steady balance of supply and demand.Wastewater treatment is in the growth stage,with a rapid increase in capacity and volume.Recycled water is in the introduction stage and just getting started.The following nine major problems in Chinese water industry development were analyzed: relatively low water resources per capita,serious water pollution,aged urban water network with serious leakage and low utilization of water resources,grave situation in urban water supply safety,low wastewater treatment efficiency and outdated technology,fragmented water industry chains and loose organization,insufficient water price reform and decentralized water industry.The development trends of the water industry were described from six aspects: seawater desalination has become a new area to be explored;market-oriented reform in the water industry is increasingly prompted;investments are mainly made by state-owned capital;water service is increasingly integrated with capital market;integrated reform in water service management is implemented and increased and better profitability of water industry with continuous increase in water price.The Chinese water industry is expected to become one of the fastest growing industries and worthiest investment industries.</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2084531725</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1142/9789812834300_0372</t>
+          <t>https://openalex.org/W1499530127</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Meinel (2008)</t>
+          <t>Steidle &amp; Wallace (2007)</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>QUASI-STATIONARY ROUTES TO THE KERR BLACK HOLE</t>
+          <t>The Devil Came on Horseback: Bearing Witness to the Genocide in Darfur</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Quasi-stationary (i.e.parametric) transitions from rotating equilibrium configurations of fluid bodies to rotating black holes are discussed.For the idealized model of a rotating disc of dust, analytical results derived by means of the "inverse scattering method" are available.They are generalized by numerical results for rotating fluid rings with various equations of state.It can be shown rigorously that a black hole limit of a fluid body in equilibrium occurs if and only if the gravitational mass becomes equal to twice the product of angular velocity and angular momentum.Therefore, any quasi-stationary route from fluid bodies to black holes passes through the extreme Kerr solution.</t>
+          <t>Former United States Marine Brian Steidle served for six months in Darfur as an unarmed military observer for the African Union. There he witnessed first-hand the ongoing genocide, and documented every day of his experience using email, audio journals, notebook after notebook and nearly 1,000 photographs. Gretchen Steidle Wallace, his sister, who wrote this book with Brian, corresponded with him throughout his time in Darfur. Fired upon, taken hostage, a witness to villages destroyed and people killed, frustrated by his mission's limitations and the international community's reluctance to intervene, Steidle resigned and has since become an advocate for the world to step in and stop this genocide. The Devil Came on Horseback depicts the tragic impact of an Arab government bent on destroying its black African citizens, the maddening complexity of international inaction in response to blatant genocide, and the awkward, yet heroic transformation of a formerMarine turned humanitarian. It is a gripping and moving memoir that bears witness to atrocities we have too long averted our eyes from, and reveals that the actions of just one committed person have the power to change the world.</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3113120568</t>
+          <t>https://openalex.org/W2084531725</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1097/acm.0000000000003868</t>
+          <t>https://doi.org/10.1142/9789812834300_0372</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Huppert et al. (2020)</t>
+          <t>Meinel (2008)</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Virtual Interviews at Graduate Medical Education Training Programs: Determining Evidence-Based Best Practices</t>
+          <t>QUASI-STATIONARY ROUTES TO THE KERR BLACK HOLE</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>The COVID-19 pandemic has had a profound impact on the nation's health care system, including on graduate medical education (GME) training programs. Traditionally, residency and fellowship training program applications involve in-person interviews conducted on-site, with only a minority of programs offering interviews remotely via a virtual platform. However, in light of the COVID-19 pandemic, it is anticipated that most interviews will be conducted virtually for the 2021 application cycle and possibly beyond. Therefore, GME training programs need to prepare for the transition to virtual interviews using evidence-based practices. At the University of California, San Francisco, a multidisciplinary task force was convened to review existing literature about virtual interviews and determine best practices. This article summarizes these findings, first discussing the advantages and disadvantages of the virtual interview format and then providing evidence-based best practices for GME training programs. Specifically, the authors make the following recommendations: develop a detailed plan for the interview process, consider using standardized interview questions, recognize and respond to potential biases that may be amplified with the virtual interview format, prepare your own trainees for virtual interviews, develop electronic materials and virtual social events to approximate the interview day, and collect data about virtual interviews at your own institution. With adequate preparation, the virtual interview experience can be high yield, positive, and equitable for both applicants and GME training programs.</t>
+          <t>Quasi-stationary (i.e.parametric) transitions from rotating equilibrium configurations of fluid bodies to rotating black holes are discussed.For the idealized model of a rotating disc of dust, analytical results derived by means of the "inverse scattering method" are available.They are generalized by numerical results for rotating fluid rings with various equations of state.It can be shown rigorously that a black hole limit of a fluid body in equilibrium occurs if and only if the gravitational mass becomes equal to twice the product of angular velocity and angular momentum.Therefore, any quasi-stationary route from fluid bodies to black holes passes through the extreme Kerr solution.</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2069989322</t>
+          <t>https://openalex.org/W3113120568</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>https://doi.org/10.5840/philtoday201155342</t>
+          <t>https://doi.org/10.1097/acm.0000000000003868</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Fried (2011)</t>
+          <t>Huppert et al. (2020)</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>A Letter to Emmanuel Faye</t>
+          <t>Virtual Interviews at Graduate Medical Education Training Programs: Determining Evidence-Based Best Practices</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>(ProQuest: ... denotes non-USASCII text omitted.) Dear Professor Faye, Let me begin by thanking you for taking initiative to send me your book, Heidegger: Introduction of Nazism into Philosophy. contacted me because I had contributed to the line debate in the commentary to Romano's review of your book in The of Higher Education.1 I owe you an apology. When I upon that review, your book was not yet in English except to reviewers, and so I was ing not so much to your work as to what I took be the intellectual glibness and laziness of the view, which struck me as inappropriate to the scope and the seriousness of the philosophical, ethical, and political questions at stake.2 ter having read your book with care, I must now acknowledge that some of what I wrote then would no longer write today. In my first post the discussion, I claimed, To a very large extent, [the furor surrounding your book and review] is simply a repeat of the scandal erupted 22 years ago when the work of Farias and Hugo Ott was published. There nothing really new here, except perhaps an increase of the 'data' of Heidegger's loathsomeness as a human being.3 1 also wrote: We have known that [Heidegger was a dedicated National Socialist] for a long time now. But the devil is in the details. It has long been well known that Heidegger was opposed to biological racism and opposed to global imperialism. He was what we might now call a mulitculturalist, but between nations, not within them. He thought Nazism would allow national cultures and historical traditions to maintain themselves in their own bounds. But note, in my view this still leaves room for what might be called a metaphysical or ontologica! racism (see the work of Berel Lang or Robert Bernasconi for a responsible treatment of this point), and I believe Heidegger was guilty of that. But it was by no means orthodox Nazism. After reading your book, I would no longer say all of this. Indeed, this is one of your most important contributions: to set out in great detail the intricacies of the developments and the battles between strands of Nazism about precisely what should and would count for orthodoxy. I wrote: [Romano's] article wants to paint Heidegger as a hack, who dressed up his Nazism in philosophical clothing. That is a crude dodge that avoids what is seriously at issue for real thought. Heidegger was never an orthodox Nazi and the orthodox soon came to suspect him of deviationism. It is absurd to claim that Heidegger somehow was an architect of Nazi ideology, in the way, say, that Lenin or Marx were of Communism, or that Locke or Jefferson were of liberalism.... Yes, Heidegger lent his respected name to the movement, but little to its content or direction.5 Having read your book, I now believe much of this to be false: he was orthodox (to the extent that there was an orthodox Nazism), and he did have a significant impact. The verdict is clear: never again can anyone say that Heidegger, who played a passionate role in the debates over the core meaning and direction of the movement, who subscribed to a form of non-biologistic racism that was in fact by no means alien to National Socialism, who lent his voice and his weight as a thinker, as an administrator, and as an educator to the consolidation Gleichschaltung) of Hitler's dictatorship, was not fully in the ambit of orthodox Nazism, because Nazism contained many strands, especially in the first years after the revolution, and Heidegger fit within the scope of this diversity. While some of the elements of this picture have been know since Farias and Ott, this issue is too important to be digested piecemeal, with a biographical detail leaking out here, a new text there, as they do over the years. While you also contribute some decisive new information, I find that it is the totality of what you assemble that is impossible to ignore: it conveys the portrait of a man entirely dedicated to the cause of Nazism, and not just in a fit of temporary madness or enthusiasm, but as an enduring mission. …</t>
+          <t>The COVID-19 pandemic has had a profound impact on the nation's health care system, including on graduate medical education (GME) training programs. Traditionally, residency and fellowship training program applications involve in-person interviews conducted on-site, with only a minority of programs offering interviews remotely via a virtual platform. However, in light of the COVID-19 pandemic, it is anticipated that most interviews will be conducted virtually for the 2021 application cycle and possibly beyond. Therefore, GME training programs need to prepare for the transition to virtual interviews using evidence-based practices. At the University of California, San Francisco, a multidisciplinary task force was convened to review existing literature about virtual interviews and determine best practices. This article summarizes these findings, first discussing the advantages and disadvantages of the virtual interview format and then providing evidence-based best practices for GME training programs. Specifically, the authors make the following recommendations: develop a detailed plan for the interview process, consider using standardized interview questions, recognize and respond to potential biases that may be amplified with the virtual interview format, prepare your own trainees for virtual interviews, develop electronic materials and virtual social events to approximate the interview day, and collect data about virtual interviews at your own institution. With adequate preparation, the virtual interview experience can be high yield, positive, and equitable for both applicants and GME training programs.</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2220286890</t>
+          <t>https://openalex.org/W2069989322</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>https://doi.org/10.4236/jmp.2015.615235</t>
+          <t>https://doi.org/10.5840/philtoday201155342</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Fung &amp; Wong (2015)</t>
+          <t>Fried (2011)</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>On the Origin of Mass and Angular Momentum of Stellar Objects</t>
+          <t>A Letter to Emmanuel Faye</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>The consequence of the 5D projection theory [1] is extended beyond the Gell-Mann Standard Model for hadrons to cover astronomical objects and galaxies.The proof of Poincare conjecture by Perelman's differential geometrical techniques led us to the consequence that charged massless spinors reside in a 5D void of a galactic core, represented by either an open 5D core or a closed, time frozen, 3D × 1D space structure, embedded in massive structural stellar objects such as stars and planets.The open galactic core is obtained from Ricci Flow mapping.There exist in phase, in plane rotating massless spinors within these void cores, and are responsible for 1) the outward spiral motion of stars in the galaxy in the open core, and 2) self rotations of the massive stellar objects.It is noted that another set of eigen states pertaining to the massless charged spinor pairs rotating out of phase in 1D (out of the 5D manifold) also exist and will generate a relatively weak magnetic field out of the void core.For stars and planets, it forms the intrinsic dipole field.Due to the existence of a homogeneous 5D manifold from which we believe the universe evolves, the angular momentum arising from the rotation of the in-phase spinor pairs is proposed to be counter-balanced by the rotation of the matter in the surrounding Lorentz domain, so as to conserve net zero angular momentum.Explicit expression for this total angular momentum in terms of a number of convergent series is derived for the totally enclosed void case/core, forming in general the structure of a star or a planet.It is shown that the variables/parameters in the Lorentz spacetime domain for these stellar objects involve the object's mass M, the object's Radius R, period of rotation P, and the 5D void radius Ro, together with the Fermi energy E f and temperature T of the massless charged spinors residing in the void.We discovered three laws governing the relationships between R o /R, T, E f and the angular momentum Iω of such astronomical object of interest, from which we established two distinct regions, which we define as the First and Second Laws for the evolution of the stellar object.The Fermi energy E f was found to be that of the electron mass, as it is the lightest massive elementary particle that could be created from pure energy in the core.In fact the mid-temperature of the transition region between the First and Second Law regions for this E f value is 5.3 × 10 9 K, just about that of the Bethe fusion temperature.We then apply our</t>
+          <t>(ProQuest: ... denotes non-USASCII text omitted.) Dear Professor Faye, Let me begin by thanking you for taking initiative to send me your book, Heidegger: Introduction of Nazism into Philosophy. contacted me because I had contributed to the line debate in the commentary to Romano's review of your book in The of Higher Education.1 I owe you an apology. When I upon that review, your book was not yet in English except to reviewers, and so I was ing not so much to your work as to what I took be the intellectual glibness and laziness of the view, which struck me as inappropriate to the scope and the seriousness of the philosophical, ethical, and political questions at stake.2 ter having read your book with care, I must now acknowledge that some of what I wrote then would no longer write today. In my first post the discussion, I claimed, To a very large extent, [the furor surrounding your book and review] is simply a repeat of the scandal erupted 22 years ago when the work of Farias and Hugo Ott was published. There nothing really new here, except perhaps an increase of the 'data' of Heidegger's loathsomeness as a human being.3 1 also wrote: We have known that [Heidegger was a dedicated National Socialist] for a long time now. But the devil is in the details. It has long been well known that Heidegger was opposed to biological racism and opposed to global imperialism. He was what we might now call a mulitculturalist, but between nations, not within them. He thought Nazism would allow national cultures and historical traditions to maintain themselves in their own bounds. But note, in my view this still leaves room for what might be called a metaphysical or ontologica! racism (see the work of Berel Lang or Robert Bernasconi for a responsible treatment of this point), and I believe Heidegger was guilty of that. But it was by no means orthodox Nazism. After reading your book, I would no longer say all of this. Indeed, this is one of your most important contributions: to set out in great detail the intricacies of the developments and the battles between strands of Nazism about precisely what should and would count for orthodoxy. I wrote: [Romano's] article wants to paint Heidegger as a hack, who dressed up his Nazism in philosophical clothing. That is a crude dodge that avoids what is seriously at issue for real thought. Heidegger was never an orthodox Nazi and the orthodox soon came to suspect him of deviationism. It is absurd to claim that Heidegger somehow was an architect of Nazi ideology, in the way, say, that Lenin or Marx were of Communism, or that Locke or Jefferson were of liberalism.... Yes, Heidegger lent his respected name to the movement, but little to its content or direction.5 Having read your book, I now believe much of this to be false: he was orthodox (to the extent that there was an orthodox Nazism), and he did have a significant impact. The verdict is clear: never again can anyone say that Heidegger, who played a passionate role in the debates over the core meaning and direction of the movement, who subscribed to a form of non-biologistic racism that was in fact by no means alien to National Socialism, who lent his voice and his weight as a thinker, as an administrator, and as an educator to the consolidation Gleichschaltung) of Hitler's dictatorship, was not fully in the ambit of orthodox Nazism, because Nazism contained many strands, especially in the first years after the revolution, and Heidegger fit within the scope of this diversity. While some of the elements of this picture have been know since Farias and Ott, this issue is too important to be digested piecemeal, with a biographical detail leaking out here, a new text there, as they do over the years. While you also contribute some decisive new information, I find that it is the totality of what you assemble that is impossible to ignore: it conveys the portrait of a man entirely dedicated to the cause of Nazism, and not just in a fit of temporary madness or enthusiasm, but as an enduring mission. …</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2322579703</t>
+          <t>https://openalex.org/W3163686794</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1353/hph.1996.0043</t>
+          <t>https://doi.org/10.3751/75.1.13</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Auxier (1996)</t>
+          <t>Burton et al. (2021)</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>American Philosophic Naturalism in the Twentieth Century (review)</t>
+          <t>China and the Reconstruction of Syria</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>BOOK REVIEWS 3~3 reaction to them into account. The actual historical dialectic involving Moore, Malcolm , and Wittgenstein is a good deal more complicated, and more interesting, than the story told here by Stroll. Moving on to Stroll's discussion of Wittgenstein, I should now acknowledge that, so far as I can judge, Stroll offers a largely reliable account of On Certainty. In particular, in the best chapter of the book, on "Wittgenstein's Foundationalism," he makes a convincing case for the view that Wittgenstein, unlike Moore, separates propositional knowledge from the kind of "non-propositional" certainty concerning what "stands fast" for us and which is primarily evinced in our ways of acting. What is less clear to me is just what kind of response to sceptical arguments this amounts to: Stroll says that although at some points Wittgenstein is prepared to countenance, in a relativist spirit which closely adjoins scepticism, radical changes in what is thus certain , by and large towards the end of On Certainty Wittgenstein advances an "absolutist " position which rules out such changes. But if this is so (and I myself find Wittgenstein enigmatic on this issue), we surely need some arguments why it has to be so. But much here depends on the broader context within which Wittgenstein's position is developed and discussed. Despite noting Wittgenstein's invocation of the conception of man as a "primitive being with instincts" (OC 82 Stroll does not seek to connect Wittgenstein's position with Hume's naturalism or with the naturalism of much contemporary philosophy of mind; instead he ends his book with a diatribe against his neighbouring Californian neurophilosophers. In my view it would have been better to stick to the Cambridge context of Moore and Wittgenstein, and to look at the third tradition of Cambridge epistemology--the reliabilist approach of Russell's Analysis of Mind and Ramsey's papers. I myself think that the result of combining this kind of reliabilism with Wittgenstein's naturalism helps to provide for the latter a more secure antirelativist argument than is otherwise available. THOMAS BALDWIN Cambridge University John Ryder, editor. American Philosophic Naturalism in the Twentieth Century. Amherst, NY: Prometheus Books, 1994. Pp. 556. Cloth, $34-95. This anthology is primarily a textbook. All of the selections have been published previously, except Ryder's introduction and headers at the beginning of each section. The book's value is that it brings together under a single cover some of the best and most representative work of American philosophic naturalists in the twentieth century. Those professors who have for years photocopied articles for their courses in American naturalism should greet the publication of this anthology with enthusiasm. The volume is organized so as to exhibit numerous different approaches. The one major view which is underrepresented is the reductionist approach to naturalism. Reductionists (e.g., physicalists, eliminative materialists, positivists, Darwinian materialists and sociobiologists) will find little to either defend or gratify their viewpoint. This omission reveals something of the editor's perspective on what American naturalism is, 314 JOURNAL OF THE HISTORY OF PHILOSOPHY 34:2 APRIL 1996 at bottom. Naturalism in this anthology is treated as a viewpoint largely at odds with reductionism of all sorts. Ryder attempts to set out in the introduction not so much a "definition" of American naturalism, as a field within which it is most recognizable, most characteristic, and most philosophically influential. One cannot fault Ryder's even-handed treatment, nor his decision to allow nonreductionist versions of naturalism to take center stage, for it creates a distinctive thread of thinking which can be traced through the entire volume--a thread which lends the needed unity to the book, and which will assist teachers in keeping their focus. It is clear that Ryder's chosen thread of thought takes its example from the landmark mid-century volume Naturalism and the Human Spirit, edited by Yervant Krikorian, a volume which is still in print.' As excellent as the Krikorian volume is, however, it can no longer effectively serve the needs of those who wish to teach American naturalism. Ryder's book is more than two-hundred pages longer, and seeks to organize the material more topically...</t>
+          <t>How will China contribute to Syria's postwar reconstruction? The Syrian regime's Russian and Iranian sponsors are unlikely to provide sufficient material assistance, while Gulf and Western countries are unwilling to help. This article shows how Chinese support has thus become the Syrian regime's priority, although China's state and private firms will be wary of risk. China could also provide Syria with a model for development, but it would be partial as it lacks a peace-building dimension, including the construction of transitional justice.</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
+          <t>https://openalex.org/W2038246040</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1142/s0218301308011161</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Yamada &amp; Funaki (2008)</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>CLUSTER STATES AND ALPHA PARTICLE CONDENSATION IN &lt;sup&gt;13&lt;/sup&gt;&lt;font&gt;C&lt;/font&gt;</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>The structure of 13 C is studied with the semi-microscopic cluster model, 3α+n orthogonality condition model (OCM). The energy spectra of four 1/2 - states and three 1/2 + states up to E x ~ 13 MeV are successfully reproduced, in particular, three monopole transition strengths are in fair agreement with the observed ones. We discuss the cluster states and alpha particle condensation in the 1/2 ± states appearing around the 12 C +n, 9 Be +α and 3α+n thresholds.</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W3125029439</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1198/jbes.2009.0008</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Maheu &amp; McCurdy (2009)</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>How Useful are Historical Data for Forecasting the Long-Run Equity Return Distribution?</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>We provide an approach to forecasting the long-run (unconditional) distribution of equity returns making optimal use of historical data in the presence of structural breaks. Our focus is on learning about breaks in real time and assessing their impact on out-of-sample density forecasts. Forecasts use a probability-weighted average of submodels, each of which is estimated over a different history of data. The empirical results strongly reject ignoring structural change or using a fixed-length moving window. The shape of the long-run distribution is affected by breaks, which has implications for risk management and long-run investment decisions.</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W4231360178</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.5325/gestaltreview.25.1.0143</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Burton (2021)</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Review</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>In Mind and the Cosmic Order, the mathematician Charles Pinter examines the role mind plays in the construction of reality, ultimately concluding that the mental constructs that give existence its form and structure, while not material, are no less real than the physical world with which the mind interacts. In this brief but wide-ranging book consisting of nine chapters that tackle subjects ranging from the seeing eye to the scientific observer, Pinter takes a synthetic approach to the study of the cosmic order, drawing on such diverse fields as biology, physics, neuroscience, cognitive science, psychology, and philosophy to argue that the sensations and thoughts located in the mind of the perceiver bring to light facets of reality whose very existence depends on the act of perception.Pinter begins his foray into the nature of reality with a discussion of the mechanics of vision. Our assumption that what we see offers a realistic depiction of the external world proves hopelessly naïve in Pinter's account. What exists in what Pinter calls the mind-independent world and what we see in the mind's eye have very different properties. The matter and energy that make up the material world is undifferentiated and featureless until it is observed. Seeing, however, does not simply imprint a visual representation of the external world on the brain. The patches of light and shadow received from the external world reach only as far as the retina. The optic nerve then transforms the information it receives into electrochemical signals, which it then transmits to the brain, where the visual information becomes reconstituted, emerging as a visual image that we understand as a sensation. Our visual world, then, is a constructed reality or Gestalt that we then project back onto the external world through a process called distal attribution.For the purposes of his study, Pinter defines a Gestalt as “a whole, unified single entity when viewed in its entirely from an outside perspective” (44). The ability to see in these Gestalt wholes is supremely adaptive. Although the life of any creature depends on its active engagement with the objects and beings in its orbit, the raw data it receives from its environment is unorganized and chaotic. The ability to segment that data into distinct objects and then to group those objects into a synthetic whole—that is, to create Gestalt images that lend form and structure to undifferentiated matter and energy—allows the creature to select from all the available environmental data the information it most needs to make decisions that will ensure its own survival. What the creature perceives is not the world as it is but a mental model of the world that is adaptive to its needs as a living being.However important for survival the Gestalt wholes we create may be, they do not have material existence; they are mental constructs, the property of perception, not of the mind-independent world. But are they real? Pinter thinks they are, but the answer to this question requires that he draw a distinction, not just between the material world and the immaterial objects of our cognition, but also between the brain and the mind. Although recent trends in cognitive science have emphasized the primacy of the material brain in the processing of information, Pinter takes an alternate approach, highlighting the difference between the electrochemical activity that takes place on the brain's cerebral cortex and the vivid sensations and thoughts produced by the mind. Pinter argues that the brain encodes information that instills a subjective feeling in the mind. Sensations, nonmaterial perceptions produced by material means, are for Pinter “the medium in which all conscious activity unfolds” (58). Sensations are not limited to such physical experiences of pain or color, however; they also encompass thought, because “to have a thought is to experience its meaning” (59). All mental content, then, is grounded in sensations that perceivers group together to form what Pinter calls “Gestalt image-schemas,” combinations of sensations that yield ever more complex meaning.The mind-independent world is pluripotent. Things present in this world are latent and unrealized, becoming actualized only when an observer segments the visual field into Gestalt wholes that give objects form and structure. But the mental activity that plays a constitutive role in the creation of physical reality also has the capacity to bring into being nonmaterial facts and categories. The mind-independent world uncoupled from the observer is nothing more than undifferentiated matter and energy, but it is also a world awaiting interpretation. Facts, too, require observers to bring them into existence, for facts, like objects, are constructed Gestalt wholes. The same is true of categories. Category formation comes about as a process of abstraction as the observer discerns common features in different objects: abstractions that become reified into indepen</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W4231662464</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.21203/rs.3.rs-214048/v1</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Eni et al. (2021)</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Decolonizing Health in Canada: A Manitoba First Nation Perspective</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Abstract Background This paper focuses on a longitudinal research program in Manitoba, Canada, by the Innovation Supporting Transformation in Community-Based Research Project (iPHIT) to learn from First Nations across the province that have developed effective community-based primary healthcare models. The research is relevant and timely as First Nations across the country, and Indigenous populations globally, work towards improvements in population health and health equity via critical analysis and restructuring of health services. The purpose of the paper is to deepen an understanding of decolonization as it is defined within the communities, as a central aspect of health restructuring. Methods The study is a qualitative, grounded theory analysis, which is a constructivist approach to social research that allows for generation of theory in praxis, through interactions and conversations between researchers and research participants. Findings are based on 183 in-depth interviews and eight focus group discussions with participants from 8 Manitoba First Nation communities. The study was designed to understand strengths, limitations and priorities of primary healthcare strategies and frameworks of the communities. The iPHIT team was an active collaborative partnership between the First Nation communities, First Nation Health and Social Secretariat of Manitoba, and the University of Manitoba. The First Nation partners led in all aspects of the research, from development to implementation, data collection, analyses, and dissemination. Respected Elders from the communities also guided in appropriate research and engagement protocols. Results Data was coded and then grouped into 4 interconnecting themes. These are: (1) First Nation control of healthcare, (2) traditional medicine and healing activities, (3) full community participation, and (4) moving out of colonization involves cleaning up and moving beyond the mess that colonization has inflicted. Conclusion Decolonizing health involves a taking back of Indigenous wisdom and traditional activities; connections to the land, resources; intra- and inter-community relationships. Participants emphasized the value of full community engagement with respect to inclusion of different interpretations of and experiences in the world, highlighting creation of a shared vision. The study focused on First Nation community experiences and interests in Manitoba specifically, though the data may be applicable to national and global decolonization efforts.</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W2031176627</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1163/15718123-01405002</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Bongiovanni et al. (2014)</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Philosophy of Law and International Criminal Law: Between Peace and Morality</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>The legal philosophy of the 20th century has contributed to the development of international criminal law by rethinking fundamental legal concepts and theories concerning the nature of international law, its relation with national laws, the connection between the law and the State, and the very idea of responsibility. This was achieved, in the first place, through the reflection of Hans Kelsen, who put forward the idea of a system of enforceable criminal norms at the international level, directed at individuals and having a positive legal foundation. In the years immediately following the Second World War, a number of legal theorists and, in particular, Gustav Radbruch, argued in favour of a necessary connection between law and morality, on whose basis it could be claimed that the worst atrocities were punishable even when allowed by state norms, and even in the absence of positive international norms. In the last decade, the practice of international criminal law, through ad hoc tribunals and the International Criminal Court, has stimulated theoretical reflections on a variety of further fundamental issues, like impartiality, judicial truth, justification of punishment, side-effects of prosecution and transitional justice.</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W2322579703</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1353/hph.1996.0043</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Auxier (1996)</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>American Philosophic Naturalism in the Twentieth Century (review)</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>BOOK REVIEWS 3~3 reaction to them into account. The actual historical dialectic involving Moore, Malcolm , and Wittgenstein is a good deal more complicated, and more interesting, than the story told here by Stroll. Moving on to Stroll's discussion of Wittgenstein, I should now acknowledge that, so far as I can judge, Stroll offers a largely reliable account of On Certainty. In particular, in the best chapter of the book, on "Wittgenstein's Foundationalism," he makes a convincing case for the view that Wittgenstein, unlike Moore, separates propositional knowledge from the kind of "non-propositional" certainty concerning what "stands fast" for us and which is primarily evinced in our ways of acting. What is less clear to me is just what kind of response to sceptical arguments this amounts to: Stroll says that although at some points Wittgenstein is prepared to countenance, in a relativist spirit which closely adjoins scepticism, radical changes in what is thus certain , by and large towards the end of On Certainty Wittgenstein advances an "absolutist " position which rules out such changes. But if this is so (and I myself find Wittgenstein enigmatic on this issue), we surely need some arguments why it has to be so. But much here depends on the broader context within which Wittgenstein's position is developed and discussed. Despite noting Wittgenstein's invocation of the conception of man as a "primitive being with instincts" (OC 82 Stroll does not seek to connect Wittgenstein's position with Hume's naturalism or with the naturalism of much contemporary philosophy of mind; instead he ends his book with a diatribe against his neighbouring Californian neurophilosophers. In my view it would have been better to stick to the Cambridge context of Moore and Wittgenstein, and to look at the third tradition of Cambridge epistemology--the reliabilist approach of Russell's Analysis of Mind and Ramsey's papers. I myself think that the result of combining this kind of reliabilism with Wittgenstein's naturalism helps to provide for the latter a more secure antirelativist argument than is otherwise available. THOMAS BALDWIN Cambridge University John Ryder, editor. American Philosophic Naturalism in the Twentieth Century. Amherst, NY: Prometheus Books, 1994. Pp. 556. Cloth, $34-95. This anthology is primarily a textbook. All of the selections have been published previously, except Ryder's introduction and headers at the beginning of each section. The book's value is that it brings together under a single cover some of the best and most representative work of American philosophic naturalists in the twentieth century. Those professors who have for years photocopied articles for their courses in American naturalism should greet the publication of this anthology with enthusiasm. The volume is organized so as to exhibit numerous different approaches. The one major view which is underrepresented is the reductionist approach to naturalism. Reductionists (e.g., physicalists, eliminative materialists, positivists, Darwinian materialists and sociobiologists) will find little to either defend or gratify their viewpoint. This omission reveals something of the editor's perspective on what American naturalism is, 314 JOURNAL OF THE HISTORY OF PHILOSOPHY 34:2 APRIL 1996 at bottom. Naturalism in this anthology is treated as a viewpoint largely at odds with reductionism of all sorts. Ryder attempts to set out in the introduction not so much a "definition" of American naturalism, as a field within which it is most recognizable, most characteristic, and most philosophically influential. One cannot fault Ryder's even-handed treatment, nor his decision to allow nonreductionist versions of naturalism to take center stage, for it creates a distinctive thread of thinking which can be traced through the entire volume--a thread which lends the needed unity to the book, and which will assist teachers in keeping their focus. It is clear that Ryder's chosen thread of thought takes its example from the landmark mid-century volume Naturalism and the Human Spirit, edited by Yervant Krikorian, a volume which is still in print.' As excellent as the Krikorian volume is, however, it can no longer effectively serve the needs of those who wish to teach American naturalism. Ryder's book is more than two-hundred pages longer, and seeks to organize the material more topically...</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
           <t>https://openalex.org/W2969444281</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="C51" t="inlineStr">
         <is>
           <t>Brasil et al. (2019)</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="D51" t="inlineStr">
         <is>
           <t>Lyapunov exponents for Quantum Channels: an entropy formula and generic properties</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>We denote by $M_k$ the set of $k$ by $k$ matrices with complex entries. We consider quantum channels $\phi_L$ of the form: given a measurable function $L:M_k\to M_k$ and a measure $\mu$ on $M_k$ we define the linear operator $\phi_L:M_k \to M_k$, by the law $\rho \,\to\,\phi_L(\rho) = \int_{M_k} L(v) \rho L(v)^\dagger \, \dm(v).$ _x000D_
 On a previous work the authors show that for a fixed measure $\mu$ it is generic on the function $L$ the $\Phi$-Erg property (also irreducibility). Here we will show that the purification property is also generic on $L$ for a fixed $\mu$. _x000D_
@@ -1535,4052 +1689,4110 @@
         </is>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W2342199507</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1371/journal.pcbi.1004878</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>Luz &amp; Shamir (2016)</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>Oscillations via Spike-Timing Dependent Plasticity in a Feed-Forward Model</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>Neuronal oscillatory activity has been reported in relation to a wide range of cognitive processes including the encoding of external stimuli, attention, and learning. Although the specific role of these oscillations has yet to be determined, it is clear that neuronal oscillations are abundant in the central nervous system. This raises the question of the origin of these oscillations: are the mechanisms for generating these oscillations genetically hard-wired or can they be acquired via a learning process? Here, we study the conditions under which oscillatory activity emerges through a process of spike timing dependent plasticity (STDP) in a feed-forward architecture. First, we analyze the effect of oscillations on STDP-driven synaptic dynamics of a single synapse, and study how the parameters that characterize the STDP rule and the oscillations affect the resultant synaptic weight. Next, we analyze STDP-driven synaptic dynamics of a pre-synaptic population of neurons onto a single post-synaptic cell. The pre-synaptic neural population is assumed to be oscillating at the same frequency, albeit with different phases, such that the net activity of the pre-synaptic population is constant in time. Thus, in the homogeneous case in which all synapses are equal, the post-synaptic neuron receives constant input and hence does not oscillate. To investigate the transition to oscillatory activity, we develop a mean-field Fokker-Planck approximation of the synaptic dynamics. We analyze the conditions causing the homogeneous solution to lose its stability. The findings show that oscillatory activity appears through a mechanism of spontaneous symmetry breaking. However, in the general case the homogeneous solution is unstable, and the synaptic dynamics does not converge to a different fixed point, but rather to a limit cycle. We show how the temporal structure of the STDP rule determines the stability of the homogeneous solution and the drift velocity of the limit cycle.</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W2343941565</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.17010/ijom/2013/v43/i11/80505</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>Kandpal &amp; Patra (2013)</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>Brand Building in the Era of Mobility and Emergence of 'New Imagined Communities': A Conceptual Analysis</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>This is a conceptual paper and is an attempt to explore the transitional effect of brand building in the new era of mobiles and the Internet. Transition and mobility have been the laws of nature and have been witnessed from time immemorial. However, the current and future generations are going to witness a transformation which redefines the idea of space and geographical territory. The prime mover of this transformation will be new media. To understand this transition well and to be in sync with the nuances of mobility will be crucial to organizational success in the 21st century. In this paper, we have discussed how organizations can form brand communities on the lines of Benedict Anderson's 'Imagined Communities'. The paper also highlights the fact that the phenomenon of mobility seen today is not just a consequence of an information explosion, but is also a result of the nature of new media (the Internet and mobile) and its impact on social constructs.</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W2261738878</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.3233/jvr-150781</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>Brown et al. (2016)</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>An integrated work skill analysis strategy for workers with significant intellectual disabilities</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>BACKGROUND: As the number of individuals with significant disabilities transitioning into competitive, integrated employment increases, so must the knowledge, experience, and expectations of vocational rehabilitation personnel. Evolving responsibilities require that employment specialists acquire the information, skills, attitudes and values necessary to realize integrated outcomes. OBJECTIVE: This is a follow-up to Brown &amp; Kessler’s 2014 JVR article on generating integrated worksites for individuals with significant disabilities. This article outlines an integrated work skill analysis strategy for individuals with significant disabilities. It is intended that the information presented here can be used to increase the number of individuals with significant intellectual disabilities who function effectively in integrated employment. CONCLUSION: It is important that individuals with significant disabilities are given the opportunities to succeed in employment. Following strategies to ensure the particular work environment will be safe and appropriate for a particular worker is just one step towards the chance to thrive in the workplace.</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W2034004974</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/j.gca.2008.10.017</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>Welch et al. (2009)</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>Mineralogical control of rare earth elements in acid sulfate soils</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>Major, trace and rare earth element concentrations were measured in porewater, surface water and sediments at an acid sulfate soil site. The concentrations of La and Ce in porewater are up to 1–3 ppm. There is a strong correlation between REE concentration and acidity, except that the maximum concentrations were consistently found below the horizon of maximum acidity, associated with an increase in pH (to ca. 4) and change in mineralogy from jarosite-dominated to goethite-dominated mottles. Jarosite replacement by goethite is as expected with the rise in pH, which in turn is due to the occurrence of a fossil shell bed just below. The rare earth element patterns in the porewaters are enriched in the MREE with respect to Post-Archaean Australian Shale (PAAS). Measurements and calculations show that this is in accord with experiments on low-degree partial dissolution of jarosite, even when the jarosite itself is highly enriched in LREE. There is a clear fractionation in the patterns between the clay-rich soil matrix, which is slightly depleted in the LREE when normalized to PAAS (La/YbPAAS ∼0.5), and the secondary mineral phase jarosite, which is enriched in the LREE (La/YbPAAS = 15–50). The REE pattern in the porewater changes with the transition from jarosite- to goethite-rich mottles, becoming relatively more enriched in the LREE compared to the HREE, which is consistent with the incongruent dissolution of jarosite to form goethite and the release of greater amounts of jarosite REE to solution, including proportionately more of the jarosite-compatible LREE. Maximum surface water REE concentrations in acidic water were 100–200 ppb La and Ce. REE patterns in surface water were very similar to the porewater transition zone, enriched in the MREE, but asymmetric, relatively enriched in the LREE compared to the HREE.</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W4392818723</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>Holl (2022)</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>Bolsonaro and Transitional Justice</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W4319861856</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1177/20530196221149111</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>Kazak et al. (2023)</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>Renewable energy creditors versus renewable energy debtors: Seeking a pattern in a sustainable energy transition during the climate crisis</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>Considering unpredictable and hastily evolving tipping points (like the impacts of the COVID-19 pandemic, ongoing climate crisis and the war in Ukraine), it is clear that sustainable energy transition and utilization of locally sourced renewable energies must be in the heart of both national, regional, and local energy systems. However, if we take a closer look at the actions undertaken at the local (communal) level, we see enormous diversity of patterns, prerequisites, and implications that drive and affect spatial deployment of renewable energies. Therefore, our research targets to better comprehend the question if individual communities are comparatively involved in the energy transition. We also ask whether the demand and supply of renewable energy is territorially balanced and how these differences (if any) can be justified. We are framing our research by the concepts of energy justice and ecological debt. We thoroughly explore and asses the renewable energy balance on the level of individual communities which is based on data on the installed power capacity potentials and energy consumption in local administration units in Poland (380). Spatial distribution and discrepancies in the deployment of the renewable energy creditors and the renewable energy debtors are detected. Noticeable disproportions were identified among communities where improved utilization of local potential of renewable energy could exceed energy demand (29% of communities). This result is contrasting with communities (71% of communities) that can be, on the other hand, classified as renewable energy debtors. We claim that insufficient support (institution, regulatory, and financial) for expanding local renewable energy systems is a clear barrier when adapting to the climate crisis by balancing the energy demand and supply at the local level.</t>
-        </is>
-      </c>
-    </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2940551626</t>
+          <t>https://openalex.org/W2342199507</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1371/journal.pcbi.1004878</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Akbar (2018)</t>
+          <t>Luz &amp; Shamir (2016)</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Transformasi uang muka (urbun) pada Fatwa Dewan Syariah Nasional-Majlis Ulama Indonesia (DSN-MUI) Nomor 13/DSN-MUI/2000 tentang uang muka dalam murabahah</t>
+          <t>Oscillations via Spike-Timing Dependent Plasticity in a Feed-Forward Model</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>INDONESIA_x000D_
-Di dalam kajian fikih, uang muka disebut dengan urbun. Ulama berbeda pendapat mengenai status hukum urbun tersebut, apakah termasuk ke dalam akad yang batil ataukah termasuk ke dalam akad yang sah. Mayoritas ulama berpendapat bahwa jual beli dengan menggunakan uang muka (urbun) adalah haram, sedangkan menurut Imam Ahmad dan pengikutnya, jual beli dengan menggunakan uang muka (urbun) adalah boleh. Dalam Fatwa DSN 13/DSN-MUI/2000 bahwa adanya Transformasi hukum dalam menetapkan fatwa tentang uang muka dalam murabahah._x000D_
-_x000D_
-	Permasalahan yang dihadapi adalah bagaimana silang pendapat fuqaha mengenai stastus jual beli urbun, bagaimana konsep uang muka dalam murabahah di Fatwa DSN 13/DSN-MUI/2000 dan metode istinbat DSN-MUI dalam menetapkan fatwa tentang uang muka dalam murabahah, dan Bagaimana Transformasi yang digunakan DSN(Dewan Syariah Nasional) dalam menetapkan fatwa tentang uang muka dalam murabahah._x000D_
-Proses Transformasi Uang Muka (urbun) Pada Fatwa DSN Nomor 13/DSN-MUI/2000 tentang Uang Muka dalam Murabahah. Dimana pendapat peserta rapat pleno Dewan Syariah Nasional (DSN) bersama dengan Dewan Standar Akuntansi Keuangan Ikatan Akuntan Indonesia pada hari Sabtu, tanggal 7 Rabi’u awwal 1421 H./16 September 2000 dan pendapat peserta rapat pleno Dewan Syariah Nasional pada hari sabtu, tanggal 17 Jumadil Akhir 1421 H./16 September 2000, memutuskan dan menetapkan Fatwa tentang Uang Muka dalam Murabahah. Terbentuknya Fatwa DSN adalah salah satu bentuk transformasi yang direncanakan maksudnya bahwa transformasi terbentuknya DSN ini tidak terjadi begitu saja, tetapi melalui tahapan-tahapan perencanaan._x000D_
-_x000D_
-Metode yang digunakan dalam penelitian ini adalah metode deskriptif. Sedangkan data yang digunakan adalah Himpunan Fatwa DSN-MUI khususnya Fatwa DSN 13/DSN-MUI/2000 tentang uang muka dala murabhah, serta kitab-kitab fiqh yang menunjang dalam penelitian ini sebagai sumber sekunder. Adapun teknik yang digunakan untuk mengunpulkan data adalah studi kepustakaan atau studi literatur._x000D_
-_x000D_
-Silang pendapat fuqaha tersebut yang saling kontradiksi, maka pendapat yang paling kuat diantara kedua pendapat tersebut adalah pendapat yang membolehkan jual beli urbun. Konsep uang muka dalam murabahah masih menggunakan dalil-dalil yang bersifat general dan Metode istinbath yang digukanan oleh DSN-MUI dalam menetapkan fatwa tentang uang muka dalam murabahah menggunakan dua pendekatan, pertama, dengan menggunakan metode maslahat (kemaslahatan), kedua, dengan menggunakan metode urf. Proses Transformasi konsep urbun menjadi uang muka pada Fatwa (DSN-MUI) yaitu terjadi beberapa transformasi diantaranya adalah transformasi perubahan, transformasi Obyek kultural, transformasi Obyek structural, Transformasi bentuk._x000D_
-_x000D_
-ENGLISH_x000D_
-In the study of fiqih,the advances is called by urbun. Mufties have different disagreed about the legal status of the low of urbun. Whether it belongs to a lowful or lowful contract. The majority of mufti said that advances transaction (urbun) is har, but according to Imam Ahmad and his adherent, advances transaction (urbun) was legal. The fatwa DSN 13/DSN-MUI/2000 that there is legal transformation in establishing fatwa for advaances in murabahah._x000D_
-_x000D_
-The deal set of the problem was how to cross the opinion of fuqoha about the status of the advances transaction (urbun), what is the concept of advances in murabahah in the Fatwa DSN 13/DSN-MUI/2000 and metode istinbat DSN-MUI in establishing a fatwa on advances in murabahah, and how is the transformation used bay DSN (National Syariah Council) in establishing fatwa on advances in murabahah._x000D_
-_x000D_
-The process of transforming advances on the fatwa DSN Number 13/DSN-MUI/2000 about the advances of murabahah, where is the opinion of the participants of the Dewan Syariah Nasional (DSN) plenary meeting together with the financial accounting standarts of indonesian accounting on Saturday, 7 Rabi’u awwal 1421 H./16 September 2000 th and the opinion of the participants of the plenary meeting of the national syariah council on the 17 th day of jumadil akhir 1421 H./16 september 2000, decide and set a fatwa on advances in murabahah. The formation of a fatwa on the national syariah council is one of the planned transformations which means that the transformation of the formation of the national syariah council does not just happen, but through the planning stages._x000D_
-_x000D_
-The method used in this reseacrch is descriptive method. While the data used is a set of DSN_indonesian ulema assemblies (MUI), especially the national syariah council 13/DSN_MUI/2000 concerning advances in murabahah, as well as books fiqih that support in this research as a secondary source. As for the techniques used to collect data is a study of decision or literature studies._x000D_
-_x000D_
-The cross of the fuqoha opinions contradicting each other, then the stongest opinion among the two opinion is the opinion that allows the urbun transaction.the concept of down payment in murabahah is still using general argument and ist</t>
+          <t>Neuronal oscillatory activity has been reported in relation to a wide range of cognitive processes including the encoding of external stimuli, attention, and learning. Although the specific role of these oscillations has yet to be determined, it is clear that neuronal oscillations are abundant in the central nervous system. This raises the question of the origin of these oscillations: are the mechanisms for generating these oscillations genetically hard-wired or can they be acquired via a learning process? Here, we study the conditions under which oscillatory activity emerges through a process of spike timing dependent plasticity (STDP) in a feed-forward architecture. First, we analyze the effect of oscillations on STDP-driven synaptic dynamics of a single synapse, and study how the parameters that characterize the STDP rule and the oscillations affect the resultant synaptic weight. Next, we analyze STDP-driven synaptic dynamics of a pre-synaptic population of neurons onto a single post-synaptic cell. The pre-synaptic neural population is assumed to be oscillating at the same frequency, albeit with different phases, such that the net activity of the pre-synaptic population is constant in time. Thus, in the homogeneous case in which all synapses are equal, the post-synaptic neuron receives constant input and hence does not oscillate. To investigate the transition to oscillatory activity, we develop a mean-field Fokker-Planck approximation of the synaptic dynamics. We analyze the conditions causing the homogeneous solution to lose its stability. The findings show that oscillatory activity appears through a mechanism of spontaneous symmetry breaking. However, in the general case the homogeneous solution is unstable, and the synaptic dynamics does not converge to a different fixed point, but rather to a limit cycle. We show how the temporal structure of the STDP rule determines the stability of the homogeneous solution and the drift velocity of the limit cycle.</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2958430348</t>
+          <t>https://openalex.org/W2022786878</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1111/1468-0424.12437</t>
+          <t>https://doi.org/10.1098/rspa.1951.0172</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Fisher &amp; Funke (2019)</t>
+          <t>Hume‐Rothery et al. (1951)</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>The Age of Attraction: Age, Gender and the History of Modern Male Homosexuality</t>
+          <t>The valencies of the transition elements in the metallic state</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t xml:space="preserve">In 1902, founder of the Berlin Institute for Sexual Science, Magnus Hirschfeld, developed a ‘psychobiological questionnaire’ to investigate human sexuality.1 The section labelled ‘sexual instinct’ [Geschlechtstrieb] asked: ‘What approximately are the highest and lowest limits in age of the people to whom you feel drawn, or is age of no importance to you?’2 Hirschfeld's interest in age as a driver of sexual attraction reflects broader sexual scientific attempts to map an erotics of age.3 This article explores how and why the relative age of sexual subjects was theorised by British and German sexual scientists in the late nineteenth and early twentieth centuries. It demonstrates that questions around age preoccupied sexual science and argues, more specifically, that constructions of male homosexuality were driven by anxieties about interactions between children or adolescents and older men.4 In so doing, the article reveals the interrelationship between sexological debates about homosexuality and scientific explorations of childhood sexuality and adolescent development. It shows that age needs to be acknowledged as a crucial category shaping sexual scientific debate and structuring understandings of modern homosexuality.5 As is well known, the erotic charge provided by age difference was central to many culturally prominent eighteenth- and nineteenth-century understandings of same-sex desire.6 European and American elites interpreted classical (predominately Ancient Greek) cultures as providing affirmative models of youthful male beauty and intimate attachment between older and younger men or boys.7 While precise differences in age were rarely specified, partners were separated on the basis of maturity into active (the erastes) and passive roles (the eromenos). Moreover, attraction to younger same-sex partners was not seen to exclude opposite-sex relationships: men who desired male youths could also be married to women. The influence of this material on individual identities can be found, for example, in sexological case studies or letters received by prominent Hellenic writers.8 At the same time, this idealisation of age-differentiated erotics reinforced existing associations between same-sex activity and the sexual misuse of younger people by older men.9 In response, some sexual scientists sought to tease apart age-structured and same-sex relationships. These authors defined the male homosexual through his exclusive inborn attraction to other consenting adults. This article shows that this influential construction of the modern homosexual as a discrete congenital type emerged in direct response to considerations around age.10 It also demonstrates that, notwithstanding the emergence of this model, questions about the impact of sexual encounters with older men on a younger person's sexual development continued to be debated within sexual science, creating dialogue between theorisations of homosexuality and concurrent studies of childhood sexuality.11 As such, investigations of male homosexuality continued to revolve around urgent questions about how and when same-sex desire emerged and what impact sexual experiences in youth had on later desires. These debates remained at the centre of early twentieth-century sexual science in Britain and Germany, complicating the inborn model and securing the centrality of age as a key category in modern articulations of sexuality. Throughout the nineteenth century, male same-sex acts were frequently associated with the sexual coercion of young people in news media and forensic, legal and literary writings. The assumption that same-sex relations were violations of youth fundamentally shaped sexual scientific investigations of same-sex desire and informed intersecting explorations of childhood and adolescent sexual development.12 Later nineteenth-century constructions of homosexuality were inextricably linked to concerns about childhood and adolescent sexuality in ways that scholars have not yet fully explored. There are two main reasons for this oversight: first, research on child sexual abuse has frequently side-lined male-male same-sex behaviour, concentrating on sexual violence involving girls.13 Second, histories of male homosexuality have often downplayed the prominence of young people in representations of male same-sex behaviour.14 From the mid-nineteenth century, sexual science, alongside other scientific, legal and literary discussions of childhood, constructed children as at risk of physical and moral molestation.15 Although there was no clearly defined concept of child sex abuse before the twentieth century, minors were increasingly seen as victims of defilement rather than as sexually precocious agents.16 Age of consent and sexual assault laws as well as child marriage legislation in Europe and European colonies were often focused on the vulnerabilities of girls.17 Yet, boys were also seen as requiring protection from (often male) predators.18 Age of consent and </t>
+          <t>The melting-points, interatomic distances and compressibilities of the transition elements are reviewed, and are shown not to be in complete agreement with the valency scheme proposed by Pauling. In all three Long Periods on passing from Groups I A to IV A there is a steady rise in melting-point, and decrease in interatomic distance and compressibility, and for these elements Pauling’s view of a metallic valency equal to the Group number is correct. In the First Long Period there is comparatively little increase in melting-point on passing from Ti to V and Cr, in contrast to the behaviour of the corresponding elements in the later Periods where the melting-points rise steeply to a maximum in Group VI. This suggests that in Groups V A and VI A the metallic valency is less for the elements of the First Long Period than in the later Periods, and this agrees with the general inorganic chemistry of the elements. The same principle is shown to hold for the elements of Groups VII A and VIII, and a new scheme of metallic valencies is suggested which appears attractive in several ways.</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4302029183</t>
+          <t>https://openalex.org/W2343941565</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1922/cdh_00110niciomhair06</t>
+          <t>https://doi.org/10.17010/ijom/2013/v43/i11/80505</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Iomhair et al. (2022)</t>
+          <t>Kandpal &amp; Patra (2013)</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>The Greater Manchester Child Friendly Dental Practice Scheme: Using a Transformational Commissioning Approach to Align Paediatric Dental Service Provision with Childhood Oral Health Needs in Greater Manchester.</t>
+          <t>Brand Building in the Era of Mobility and Emergence of 'New Imagined Communities': A Conceptual Analysis</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>In response to the impact of the COVID-19 pandemic on access to already oversubscribed specialist paediatric dental services, a pilot of an enhanced primary care paediatric dental pathway, known as the Child Friendly Dental Practice (CFDP) scheme, was commissioned by the Greater Manchester Health and Social Care Partnership. Supported by a transformational commissioning approach, the ambition of the CFDP pilot was to manage or stabilise the oral health of high-need paediatric patients who had been referred to specialist dental services within Community or Hospital Dental Service settings, through timely access to primary care clinicians who were confident and experienced in treating children. The theory of change of the CFDP pilot proposed that rapid access to enhanced primary dental care would reduce the need for onward referral to specialist paediatric dental services, whilst also stabilising the oral health of children who require more complex management in specialist services. A formative evaluation of the phase one pilot implementation of the CFDP Scheme has demonstrated the potential of the CFDP Scheme to improve access to dental services for paediatric patients referred from their General Dental Practitioner. Comparison of waiting times between the CFDP pathway and the standard paediatric dental referral pathway have revealed substantially reduced waiting times to access care along the CFDP pathway, while less than 30% of those who attended CFDPs required onward referral to specialist paediatric dental services. Encouragingly, similar attendance and treatment completion rates were noted among patients from all levels of socio-economic deprivation, reducing concerns regarding the potential for service-based interventions to increase oral health inequalities. Following successful completion of the phase one pilot implementation and evaluation, the CFDP Scheme has now been rolled out across all localities in Greater Manchester as part of a second phase pilot implementation. Public Health Competencies; Equitable healthcare provision, Partnership working, Evidence-based public health, Systems thinking, Transformational commissioning, Healthcare evaluation.</t>
+          <t>This is a conceptual paper and is an attempt to explore the transitional effect of brand building in the new era of mobiles and the Internet. Transition and mobility have been the laws of nature and have been witnessed from time immemorial. However, the current and future generations are going to witness a transformation which redefines the idea of space and geographical territory. The prime mover of this transformation will be new media. To understand this transition well and to be in sync with the nuances of mobility will be crucial to organizational success in the 21st century. In this paper, we have discussed how organizations can form brand communities on the lines of Benedict Anderson's 'Imagined Communities'. The paper also highlights the fact that the phenomenon of mobility seen today is not just a consequence of an information explosion, but is also a result of the nature of new media (the Internet and mobile) and its impact on social constructs.</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3093889870</t>
+          <t>https://openalex.org/W3013722721</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3389/fbuil.2020.560116</t>
+          <t>https://doi.org/10.1161/circresaha.120.316763</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Seilabi et al. (2020)</t>
+          <t>Dikalova &amp; Dikalov (2020)</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Promoting Autonomous Vehicles Using Travel Demand and Lane Management Strategies</t>
+          <t>Response by Dikalova and Dikalov to Letter Regarding Article, “Mitochondrial Deacetylase Sirt3 Reduces Vascular Dysfunction and Hypertension While Sirt3 Depletion in Essential Hypertension Is Linked to Vascular Inflammation and Oxidative Stress”</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>A key challenge facing cities of today is the persistent and growing urban congestion that has significant adverse effects on economic productivity, emissions, driver frustration, and quality of life. The concept of smart cities, which can revolutionize the management of metropolitan transportation operations and infrastructure, shows great promise in mitigating this problem. Specifically, the automation and connectedness (A&amp;C) of smart city entities such as its infrastructure, services, and vehicles, can be helpful. In this regard, this paper focuses on the potential of autonomous vehicles (AVs) and AV infrastructure, particularly during prospective transition era where there will be mixed streams of AVs and human driven vehicles (HDVs). The paper considers two aspects of this potential: connectivity-enabled travel demand management and travel infrastructure supply through lane management. To demonstrate the opportunity associated with this potential, this paper first presents an AV-enabled tradable credit scheme (TCS) to manage travel demand. Here, the transportation authority distributes travel credits to travelers directly and instantaneously using the AV's A&amp;C features. Then, travelers use their A&amp;C features to pay these credits for travel at specific locations or times-of-day according to their choices of lane types and links. With regard to supply, the paper considers that the road network consists of two lane types: AV-dedicated, and mixed traffic lanes, and develops a scheme for Travel Demand and Lane Management Strategies in AV transition era (TLMAV). First, the paper models the expected travel choices based on the user equilibrium concepts, at different levels of AV market penetration. Then, the existence of the optimal solution in terms of link flows and the prevailing travel credit price is demonstrated. Then, the paper establishes the optimal TLMAV that minimize total travel time subject to user equity constraints. The results demonstrate the extent to which HDV users suffer increase in travel cost if equity is not considered in the model. The results also show how the transportation agency can use TLMAV to keep HDV travel costs to acceptable levels, particularly during early periods of the AV transition period.</t>
+          <t>HomeCirculation ResearchVol. 126, No. 7Response by Dikalova and Dikalov to Letter Regarding Article, “Mitochondrial Deacetylase Sirt3 Reduces Vascular Dysfunction and Hypertension While Sirt3 Depletion in Essential Hypertension Is Linked to Vascular Inflammation and Oxidative Stress” Free AccessLetterPDF/EPUBAboutView PDFView EPUBSections ToolsAdd to favoritesDownload citationsTrack citationsPermissions ShareShare onFacebookTwitterLinked InMendeleyReddit Jump toFree AccessLetterPDF/EPUBResponse by Dikalova and Dikalov to Letter Regarding Article, “Mitochondrial Deacetylase Sirt3 Reduces Vascular Dysfunction and Hypertension While Sirt3 Depletion in Essential Hypertension Is Linked to Vascular Inflammation and Oxidative Stress” Anna Dikalova and Sergey Dikalov Anna DikalovaAnna Dikalova From the Division of Clinical Pharmacology, Department of Medicine, Vanderbilt University Medical Center, Nashville, TN. Search for more papers by this author and Sergey DikalovSergey Dikalov From the Division of Clinical Pharmacology, Department of Medicine, Vanderbilt University Medical Center, Nashville, TN. Search for more papers by this author Originally published26 Mar 2020https://doi.org/10.1161/CIRCRESAHA.120.316763Circulation Research. 2020;126:e33–e34In Response:We appreciate the comments by Zhou et al on our recent publication.1 They noted that acetylation-deacetylation represents only one of many post-translational regulations, and other modifications including phosphorylation, ubiquitination, oxidation, nitration, and S-glutathionylation also contribute to the regulation of mitochondrial SOD2 (superoxide dismutase) activity.2 Indeed, multiple post-translational modifications of SOD2 can alter the efficiency of superoxide dismutation; however, the abundance of these modifications varies by many fold, and SOD2 acetylation is the predominant and most abundant post-translational modification of mitochondrial SOD2.3 Acetylation of lysine residues K68 at the SOD2 catalytical center had the greatest inhibitory effect on the SOD2 superoxide dismutation activity,4 and supplementation of recombinant deacetylase Sirt3 (Sirtuin 3) to SOD2 isolated from hypertensive mice completely rescued SOD2 activity.5 The specific post-translational modifications of SOD2 will likely vary in different pathological conditions, that is, inflammation-induced nitrosative stress may increase contribution of SOD2 nitration while hyperoxia can promote SOD2 S-glutathionylation. We agree that additional aspects should be taken into consideration; meanwhile, it is clear that reduced Sirt3 deacetylase activity leads to SOD2 hyperacetylation and this contributes to hypertension and vascular dysfunction.1,5One of the novel findings of our study was that Sirt3 impairment in essential hypertension is due to both Sirt3 depletion and Sirt3 inactivation. We observed a 40% decrease in vascular Sirt3 level and 300% increase in SOD2 acetylation in hypertensive subjects, while SOD2 levels were not affected.1 We have shown previously that Ang II (angiotensin II) and inflammatory cytokines reduce Sirt3 expression by 30%.5 Meanwhile, the precise molecular mechanism of Sirt3 inactivation remains elusive.The failure of common antioxidants, such as vitamin E and vitamin C, in clinical trials of cardiovascular events was discouraging and urge a reassessment of the role of oxidative stress in cardiovascular disease.6 We suggest to rescue the Sirt3 activity to reduce the SOD2 acetylation and activate the key intrinsic antioxidant SOD2, which is 1000× more effective in scavenging superoxide radicals than any low molecular weight antioxidant. Therefore, Sirt3 can be the improved antioxidant.6Our data demonstrate that SOD2 lysine residue K68 is hyperacetylated in animal models and human hypertension.1,5 Recent studies show that expression of acetylation mimetic mutant SOD2-K68Q or SOD2-K68-Acetyl is accompanied with a change of SOD2 stoichiometry from homotetramer complex to a monomeric form. Biochemical experiments suggest that these monomers function as a peroxidase (using pyrogallol as the substrate) rather than superoxide dismutase.7 These data suggest a provocative idea that SOD2-K68 acetylation in hypertension is not just a loss-of-function modification but may represent a switch of antioxidant SOD2 to prooxidant peroxidase SOD2. Further studies are needed to define the potential role of peroxidase activity of SOD2-K68-Acetyl in human pathological conditions.It is important to note that Sirt3 is a key node in the regulation of both metabolic and antioxidant pathways.8 It activates mitochondrial metabolism by deacetylation of Krebs cycle,9 complex I,10 and fatty acid β-oxidation enzymes11 and maintains mitochondrial redox status by deacetylation of IDH2 (isocitrate dehydrogenase 2),12 and the effect of Sirt3 inactivation is not limited by SOD2 hyperacetylation. Furthermore, Sirt3 activity can be inhibited in response to metabolic or oxidative stress.5,13 We appreciate</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>https://openalex.org/W220552507</t>
+          <t>https://openalex.org/W2903193854</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/j.outlook.2018.08.006</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Vella (1994)</t>
+          <t>Hein et al. (2018)</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Marketing a Quality Image</t>
+          <t>Policy brief: Protecting vulnerable LGBTQ youth and advocating for ethical health care</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Jolted by changing market conditions both here and abroad, U.S. corporations are embracing various management systems. Some top executives seem to expect the movement to work miracles. By merely typing the word quality across their corporate brochures, they expect to transform their businesses into more successful enterprises. Just as a lifeboat doesn't guarantee rescue, management programs don't ensure business results. Corporate leaders have discovered that the notion of is more of a revolution than a buzzword. To gain the participation and dedication necessary to institute total programs from the ground up costs a great deal of time and money. But those companies which succeed can reap tremendous benefits if they market their new performance effectively. Corporations that achieve the distinction of total management (TQM) ought to make the most of it. One of the biggest mistakes a company can make is to go through the planning and expense of a revolution, then keep the achievement to itself. Unless customers--both current and future--know that the corporation has succeeded in its quest, all of the investment in people and resources may have been wasted. How should a company market TQM? How should it advertise intangible customer benefits like employee empowerment, proactive management and continuous process improvement? How can it persuade customers that improved is a reality, not just a slogan? And, most important, how can it turn the notion of into the reality of profits? Marketing an intangible These questions arose before a communications planning meeting with a client who was entering The Malcolm Baldrige Award Competition. The Baldrige award, introduced by the U.S. Department of Commerce in 1987, was devised to provide national encouragement and recognition for U.S. companies, both large and small, which demonstrate the ability to excel in a rigorous quest for excellence. The awards selection process involves an application that takes a year to compile and eventually grows to the size of a telephone book. Finalists must submit to a three-day, on-site inspection by a team of judges. Such companies as Xerox, Motorola and AT&amp;T have been Baldrige winners. They qualified by showing how they have reduced errors, instilled a culture of continuous improvement among employees, and established two-way communications designed to discover and fulfill customer desires. When Ames Rubber Corp. entered the Baldrige Award Competiton, VAMCOM Advertising &amp; PR was asked to develop a public relations plan that would go into effect if the company won. With 450 employees, Ames manufactures everything from precision rollers found in copying machines to the flexible boots that protect steering joints in automobiles. Ames President Joel Marvil requested a plan that would capitalize on the prestige of winning a Baldrige, especially in marketing terms. He wanted suggestions for communications to help position Ames to gain new business and generate future growth as a result of winning the award. Unfortunately, is too often seen as an internal procedure or goal, not a marketable resource that differentiates a company. The trouble is that the terms quality, or high-quality, or total have been bandied about so much that they are all but meaning less. But companies that have met a verifiable standard--establishing a fully integrated TQM program, obtaining International Standards Organization (ISO) Certification, or winning or a Malcolm Baldrige award--have a powerful marketing advantage. Such companies possess a resource, a tangible attribute which should be shared with customers and prospects. It takes a special set of tactics to communicate this type of image. For Ames, we conducted a features and benefits analysis. We determined that winning the Malcolm Baldrige Quality Award offered tangible assistance to the growth of the company because it served as a powerful differentiating factor for all new business efforts. …</t>
+          <t>Lesbian, Gay, Bisexual, Transgender and Queer/Questioning (LGBTQ) youth are at heightened risk for bullying, victimization, homelessness, and being subjected to harmful therapies and associated physical and mental health issues. Health disparities in these populations are strongly associated with increased vulnerability based on stigma and discrimination due to their sexual orientation, gender identity, and gender expression (United Nations 2017United NationsThe Yogyakarta principles plus 10. United Nations, Geneva, Switzerland2017http://yogyakartaprinciples.org/wp-content/uploads/2017/11/A5_yogyakartaWEB-2.pdfGoogle Scholar). Additional threats to the health of LGBTQ youth include: expanded religious freedom exemptions of providers, permitting legal refusal to provide health care or other services to this population; a halt to Title IX enforcement for transgender persons by the Department of Education; and regular threats to repeal Section 1557 of the Affordable Care Act (ACA), thereby excluding coverage for transgender-related care and eliminating coverage for pre-existing conditions (U.S. Department of Health and Human Services). The American Academy of Nursing supports the rights of LGBTQ youth to be safe at school, at home, in places of worship, in the community and while seeking and obtaining access to health care. We oppose discrimination towards young people based on sexual orientation or gender identity and expression. We oppose transgender-specific exclusion from health care coverage or exclusion from sexual orientation and gender-based legal protections, and call for the provision of inclusive, safe, competent health care. LGBTQ youth are at elevated risk for violent victimization (O'Malley Olsen et al., 2014O'Malley Olsen E. Kann L. Vivolo-Kantor A. Kinchen S. McManus T. School violence and bullying among sexual minority high school students, 2009-2011.Journal of Adolescent Health. 2014; 55: 432-438https://doi.org/10.1016/j.jadohealth.2014.03.002Abstract Full Text Full Text PDF PubMed Scopus (71) Google Scholar), harmful therapies (American Academy of Nursing 2015American Academy of NursingAmerican Academy of Nursing position statement on reparative therapy.Nursing Outlook. 2015; 63: 368-369https://doi.org/10.1016/j.outlook.2015.03.003Abstract Full Text Full Text PDF Google Scholar, SAMHSA 2015SAMHSAEnding conversion therapy: Supporting and affirming LGBTQ youth.2015http://store.samhsa.gov/shin/content//SMA15-4928/SMA15-4928.pdfGoogle Scholar) and related physical and mental health issues (Sedlak and Boyd, 2016Sedlak C.A. Boyd C.J. Health care services for transgender individuals: Position statement.Nursing Outlook. 2016; 64: 510-512http://dx.doi.org/10.1016/j.outlook.2016.07.002Abstract Full Text Full Text PDF Google Scholar). This vulnerability is principally due to exclusion, pathologization, and victimization because of prejudice and discrimination toward sexual orientation, gender identity and gender expression. Approximately 3.4% of youth in the U.S., ages 10-19, identify as LGBTQ, suggesting that potentially over a million youth could be excluded from health care based on misguided interpretations of the conscience clause (Gates and Newport, 2012Gates G. Newport F. Special report: 3.4% of U.S. adults identify as LGBT.http://www.gallup.com/poll/158066/special-report-adults-identify-lgbt.aspx?utm_source=email-a-friend&amp;utm_medium=email&amp;utm_campaign=sharing&amp;utm_content=morelinkDate: 2012Google Scholar). Family support can be protective for these youth but is not always present (Eisenberg et al., 2017Eisenberg M.E. Gower A.L. McMorris B.J. Rider G.N. Shea G. Coleman E. Risk and protective factors in the lives of transgender/gender nonconforming adolescents.Journal of Adolescent Health. 2017; 61: 521-526https://doi.org/10.1016/j.jadohealth.2017.04.014Abstract Full Text Full Text PDF PubMed Scopus (210) Google Scholar; Ryan, 2014Ryan C. Generating a revolution in prevention, wellness and care for LGBT children and youth.Temple Political and Civil Rights Law Review. 2014; 23: 331-344Google Scholar). Unlike other minority groups, LGBTQ youth are not raised within the potential resilience-fostering context of similarly marginalized families. LGBTQ minority status is rarely shared by family members, who therefore may lack experience in navigating LGBTQ marginalization. Parents may feel ill-equipped to supportively respond to an LGBTQ child, and need support themselves (Ryan, 2010Ryan C. Engaging families to support lesbian, gay, bisexual, and transgender youth: The family acceptance project.Prevention Researcher. 2010; 17: 11-13Google Scholar). Health care can be a venue for support and healing but also intolerance and abusive therapies (Hein and Matthews, 2010Hein L.C. Matthews A.K. Reparative therapy: The adolescent, the psych nurse and the issues.Journal of Child and Adolescent Psychiatric Nursing. 2010; 23: 29-35https://doi.org/10.1111/j.1744-6171.2009.00214.xCrossref Scopus (14) Google Scholar,</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4229850158</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1287/opre.1120.1145</t>
+          <t>https://openalex.org/W4392818723</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>NA (2012)</t>
+          <t>Holl (2022)</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>In This Issue</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>Chapter 13 of the Old Testament's Book of Numbers begins, “And the Lord spoke unto Moses, saying: ‘Send thou men, that they may spy out the land of Canaan.’” Although intelligence operations have become more sophisticated since Moses' time, the basic steps remain the same: collect information and analyze it with the goal of providing reasoned assessments that reduce uncertainty and help political or military leaders make better decisions. The topic of intelligence is potentially of special interest to operations researchers for two reasons. First, intelligence is a product resulting from several distinct operations, and as with all products, there are better and worse ways to produce it, which leads to a natural focus on research. Second, there are several opportunities for the application of tools from the broad sweep of operations research methods to specific intelligence questions; this set of problems can be construed as intelligence operations research. “Intelligence Operations Research” is the archival record of Kaplan's Philip McCord Morse Lecture on this topic. Consumer tax preparation applications comprise a profitable niche in software development. Internal Revenue Service efforts to achieve an 80% electronic filing rate for major returns by 2013 has bolstered the growth in tax preparation software. Companies producing tax preparation software must process thousands of state and federal tax forms and release their product on time to protect their market share. “A Hierarchical Framework for Organizing a Software Development Process,” by F. Iravani, S. Dasu, and R. Ahmadi proposes hierarchical optimization models for organizing a complex tax software development process at a leading U.S. software company. The models assign tax forms to groups to control the process more effectively and staff the groups such that they complete processing the assigned tax forms by the release deadline. Implementing the hierarchical models helped the company reduce overtime hours by 31%, reduce total workforce cost by 13%, and release the tax software on time. When a new, more critical patient arrives in a hospital's intensive care unit (ICU) and no bed is available, physicians must discharge a current patient. The discharged patient may require readmission to the ICU, thus straining the already congested resources. Currently, no objective (severity-based using strict physiologic criteria) standards for ICU admission and discharge exist. In “Optimizing Intensive Care Unit Discharge Decisions with Patient Readmissions,” C. W. Chan, V. F. Farias, N. Bambos, and G. J. Escobar provide a systematic and evidence-based discharge strategy for ICU patients when incoming demand necessitates the discharge of a current patient. This work establishes a methodological framework to examine the performance of an index policy that accounts for patient readmissions when making ICU discharge decisions. The major implication of this work is that, in the future, discharge strategies could be linked to objective physiologic criteria to improve patient outcomes and increase efficiency. Flooding can cause significant loss of life and economic damage. The 1953 floods in the southwestern parts of the Netherlands demonstrated the flooding risks to that country. Soon after 1953, Van Dantzig started the cost-benefit analysis of the dike height optimization problem, which looks for the optimal balance between investing in dikes (costs) and reducing flood risk (benefits). In “Safe Dike Heights at Minimal Costs: The Nonhomogeneous Case,” R. Brekelmans, D. den Hertog, K. Roos, and C. Eijgenraam extend Van Dantzig's model and address the fundamental questions of when and how much to invest where. The authors formulate this problem as a mixed-integer nonlinear programming (MINLP) model and combine state-of-the-art solvers with techniques that exploit the problem structure. Dutch government agencies use the model to analyze the main dike rings in the Netherlands and to propose new safety standards to incorporate into the Dutch Water Act. Probabilistically constrained optimization problems with discretely distributed random variables are computationally challenging. In “Pattern-Based Modeling and Solution of Probabilistically Constrained Optimization Problems,” M. Lejeune develops a combinatorial pattern-based framework to model such problems. The method scales remarkably well and solves exactly and very fast stochastic problems where uncertainty is represented by an extremely large (up to 50,000) number of scenarios. This is a key and distinctive feature of the method. It permits reformulating the stochastic problems as mixed-integer ones in which the number of binary variables is not an increasing function of the number of scenarios used to characterize the uncertainty. In the current financial crisis, central banks worldwide have saved major banks from going into default. Companies and banks are closely linked in today's global economy, and negative ev</t>
+          <t>Bolsonaro and Transitional Justice</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>https://openalex.org/W27668594</t>
+          <t>https://openalex.org/W2958430348</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1111/1468-0424.12437</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Rosario (2012)</t>
+          <t>Fisher &amp; Funke (2019)</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Asserting Their Rights: Puerto Ricans in Their Quest for Social Justice</t>
+          <t>The Age of Attraction: Age, Gender and the History of Modern Male Homosexuality</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>abstractIn an effort to claim a dignified place in the United States as American citizens, Boricua leaders developed core political skills from African American grassroots organizations: established networks, adapted strategies of community activism, and found a path towards social justice. Individuals, such as Arturo Schomburg and Pura Belpre, played a crucial role in moments that marked the two histories of Puerto Ricans in the US: the official one-written by the System about them-, and the other-that had to be written by them. Historical facts, film highlights, newspaper articles, and popular music also evidence how events were conceived by the media, and by those few protagonists who bore a name, and had credentials to support it. In the end, Puerto Ricans and African Americans crossed along racial, political, and cultural lines, revealing a transcendental association that brought conflict, social transformation, but ended up in a stronger democracy for the American nation. [Keywords: Puerto Ricans, African Americans, Interracial collaboration, Civil Rights]studies have shown that the puerto rican community in the united states, despite their citizen status, share issues of adaptation, identity, and discrimination with other immigrant groups (sanchez-korrol 1983; whalen 2001; rodriguez 1989; thomas 2010). According to 2000 Census, there are more than 800,000 Puerto Ricans in New York. It is still the largest and the most documented Puerto Rican community in the United States. Particularly documented are the Puerto Rican's experiences after arrival in New York and what expectations they had for their new life in the city. Interestingly, their experiences in many ways mirrored the experience of the other ethnic groups already in New York such as Italians, Irish, Jews, and African Americans. However, the focus of this article, entitled Asserting Their Rights, centers on the cultural, political, and social interactions developed among Puerto Ricans and African Americans. Undoubtedly, the ethnicity of these two groups contributed significantly to similarities in their migratory experience and the struggles related to it. In the end, they found communality in their experiences and used it as a tool to demand and exercise their civil rights.Asserting Their Rights is conscious that many social-political frameworks can be identified according to each stage of the processes experienced by all Puerto Rican subjects, movements, alliances, and organizations mentioned, or described in this article. However, this academic aspect of a scholarly work has been partially avoided in order to let the essay narrate how these characters transit through singular periods in history. As fluid entities these women and men constructed their subjectivities when they adopted new notions of identity, and adapted themselves to different social and political situations. This work is intended to be read mostly by scholars who can address particular facts and find the appropriate theoretical concept to name them, as a basic skill during his/her professional formation. But, in the end, it is relevant for me as an intellectual to let these characters be protagonists in their own hi/stories. The ego has to step back, watch, and show how a handful of Puerto Rican immigrants asserted their rights, and participated along with African American people in changing the course of US history.Colonialism and MigrationFor more than five hundred years Puerto Rico and its people have been colonial subjects; first, more than 400 hundred under Spanish regime-since 1493 until 1898-, and over 100 as a US territory after the Spanish-American war.When the United States became involved in what began as the Cuban-Spanish conflict of 1895, high hopes arose within many sectors of the Puerto Rican society; the United States was seen as a model of economic progress and liberty (Guerra 1999). However, the thought of Puerto Rico being ruled by an Anglo Saxon country fueled discussion on issues of citizenship and class among the Puerto Rican people, whose culture was essentially influenced by a Hispanic-Roman Catholic ideology. …</t>
+          <t xml:space="preserve">In 1902, founder of the Berlin Institute for Sexual Science, Magnus Hirschfeld, developed a ‘psychobiological questionnaire’ to investigate human sexuality.1 The section labelled ‘sexual instinct’ [Geschlechtstrieb] asked: ‘What approximately are the highest and lowest limits in age of the people to whom you feel drawn, or is age of no importance to you?’2 Hirschfeld's interest in age as a driver of sexual attraction reflects broader sexual scientific attempts to map an erotics of age.3 This article explores how and why the relative age of sexual subjects was theorised by British and German sexual scientists in the late nineteenth and early twentieth centuries. It demonstrates that questions around age preoccupied sexual science and argues, more specifically, that constructions of male homosexuality were driven by anxieties about interactions between children or adolescents and older men.4 In so doing, the article reveals the interrelationship between sexological debates about homosexuality and scientific explorations of childhood sexuality and adolescent development. It shows that age needs to be acknowledged as a crucial category shaping sexual scientific debate and structuring understandings of modern homosexuality.5 As is well known, the erotic charge provided by age difference was central to many culturally prominent eighteenth- and nineteenth-century understandings of same-sex desire.6 European and American elites interpreted classical (predominately Ancient Greek) cultures as providing affirmative models of youthful male beauty and intimate attachment between older and younger men or boys.7 While precise differences in age were rarely specified, partners were separated on the basis of maturity into active (the erastes) and passive roles (the eromenos). Moreover, attraction to younger same-sex partners was not seen to exclude opposite-sex relationships: men who desired male youths could also be married to women. The influence of this material on individual identities can be found, for example, in sexological case studies or letters received by prominent Hellenic writers.8 At the same time, this idealisation of age-differentiated erotics reinforced existing associations between same-sex activity and the sexual misuse of younger people by older men.9 In response, some sexual scientists sought to tease apart age-structured and same-sex relationships. These authors defined the male homosexual through his exclusive inborn attraction to other consenting adults. This article shows that this influential construction of the modern homosexual as a discrete congenital type emerged in direct response to considerations around age.10 It also demonstrates that, notwithstanding the emergence of this model, questions about the impact of sexual encounters with older men on a younger person's sexual development continued to be debated within sexual science, creating dialogue between theorisations of homosexuality and concurrent studies of childhood sexuality.11 As such, investigations of male homosexuality continued to revolve around urgent questions about how and when same-sex desire emerged and what impact sexual experiences in youth had on later desires. These debates remained at the centre of early twentieth-century sexual science in Britain and Germany, complicating the inborn model and securing the centrality of age as a key category in modern articulations of sexuality. Throughout the nineteenth century, male same-sex acts were frequently associated with the sexual coercion of young people in news media and forensic, legal and literary writings. The assumption that same-sex relations were violations of youth fundamentally shaped sexual scientific investigations of same-sex desire and informed intersecting explorations of childhood and adolescent sexual development.12 Later nineteenth-century constructions of homosexuality were inextricably linked to concerns about childhood and adolescent sexuality in ways that scholars have not yet fully explored. There are two main reasons for this oversight: first, research on child sexual abuse has frequently side-lined male-male same-sex behaviour, concentrating on sexual violence involving girls.13 Second, histories of male homosexuality have often downplayed the prominence of young people in representations of male same-sex behaviour.14 From the mid-nineteenth century, sexual science, alongside other scientific, legal and literary discussions of childhood, constructed children as at risk of physical and moral molestation.15 Although there was no clearly defined concept of child sex abuse before the twentieth century, minors were increasingly seen as victims of defilement rather than as sexually precocious agents.16 Age of consent and sexual assault laws as well as child marriage legislation in Europe and European colonies were often focused on the vulnerabilities of girls.17 Yet, boys were also seen as requiring protection from (often male) predators.18 Age of consent and </t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3172847412</t>
+          <t>https://openalex.org/W4302029183</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1922/cdh_00110niciomhair06</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Olazabal (2020)</t>
+          <t>Iomhair et al. (2022)</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>El reto climático en las ciudades</t>
+          <t>The Greater Manchester Child Friendly Dental Practice Scheme: Using a Transformational Commissioning Approach to Align Paediatric Dental Service Provision with Childhood Oral Health Needs in Greater Manchester.</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>espanolEl reto climatico es especialmente importante en las ciudades y asi lo trasladan la Nueva Agenda Urbana y los objetivos de desarrollo sostenible. En este capitulo se discuten las claves locales del reto climatico con una doble perspectiva: las ciudades como parte del problema y como sistemas altamente vulnerables al cambio climatico. Se describen estos retos a traves de un repaso de las tendencias urbanas y sus consecuencias en terminos de emisiones y riesgos climaticos. Con el objetivo de establecer las pautas para una transformacion urbana justa, sostenible y resiliente, se discuten los principales tipos de medidas climaticas, los condicionantes intrinsecos urbanos que explican la necesidad de pensar desde lo local, y los principios clave de la accion climatica: flexibilidad, integracion y transdisciplinariedad. El capitulo termina con un repaso al progreso de la accion climatica local y concluye aludiendo a la co-responsabilidad de los gobiernos locales, de las empresas, ciudadanos y usuarios de las urbes, en el transito hacia modelos urbanos bajos en carbono y resilientes al cambio climatico. EnglishThe climate challenge is especially important in cities as reflected in the New Urban Agenda and the Sustainable Development Goals. This chapter discusses the key aspects of the urban climate challenge with a double perspective: cities as the source of the problem and as systems highly vulnerable to climate change. These challenges are described through a review of urban trends and their consequences in terms of emissions and climate risks. In order to establish guidelines for a just, sustainable and resilient urban transformation, the chapter discusses the main types of climate action, the inherent urban conditioning factors that explain the need to think locally, and, eventually, the key principles of climate action: flexibility, integration and transdisciplinarity. The chapter ends with a review of the progress of local climate action globally and concludes by calling to the co-responsibility of local governments, companies, citizens and users of cities, in the transition towards low-carbon urban models which are resilient to climate change.</t>
+          <t>In response to the impact of the COVID-19 pandemic on access to already oversubscribed specialist paediatric dental services, a pilot of an enhanced primary care paediatric dental pathway, known as the Child Friendly Dental Practice (CFDP) scheme, was commissioned by the Greater Manchester Health and Social Care Partnership. Supported by a transformational commissioning approach, the ambition of the CFDP pilot was to manage or stabilise the oral health of high-need paediatric patients who had been referred to specialist dental services within Community or Hospital Dental Service settings, through timely access to primary care clinicians who were confident and experienced in treating children. The theory of change of the CFDP pilot proposed that rapid access to enhanced primary dental care would reduce the need for onward referral to specialist paediatric dental services, whilst also stabilising the oral health of children who require more complex management in specialist services. A formative evaluation of the phase one pilot implementation of the CFDP Scheme has demonstrated the potential of the CFDP Scheme to improve access to dental services for paediatric patients referred from their General Dental Practitioner. Comparison of waiting times between the CFDP pathway and the standard paediatric dental referral pathway have revealed substantially reduced waiting times to access care along the CFDP pathway, while less than 30% of those who attended CFDPs required onward referral to specialist paediatric dental services. Encouragingly, similar attendance and treatment completion rates were noted among patients from all levels of socio-economic deprivation, reducing concerns regarding the potential for service-based interventions to increase oral health inequalities. Following successful completion of the phase one pilot implementation and evaluation, the CFDP Scheme has now been rolled out across all localities in Greater Manchester as part of a second phase pilot implementation. Public Health Competencies; Equitable healthcare provision, Partnership working, Evidence-based public health, Systems thinking, Transformational commissioning, Healthcare evaluation.</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2129699290</t>
+          <t>https://openalex.org/W3093889870</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1177/0192512110389568</t>
+          <t>https://doi.org/10.3389/fbuil.2020.560116</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Little (2011)</t>
+          <t>Seilabi et al. (2020)</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Disjunctured narratives: rethinking reconciliation and conflict transformation</t>
+          <t>Promoting Autonomous Vehicles Using Travel Demand and Lane Management Strategies</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Reconciliation has been a notable part of discourses of conflict management and transitional justice in a number of conflictual situations around the world. This article examines the recent emergence of critical theories of reconciliation with particular reference to processes of conflict transformation in Northern Ireland. It evaluates the ways in which conflict transformation in Northern Ireland is specific to that context and the variations in the usage of discourses of reconciliation compared with other ‘post-conflict’ societies. The article highlights critical theories of reconciliation which, although largely supportive of the potential of reconciliation, tend to highlight the arguments and conflicts that notions of reconciliation can generate. By examining the ways in which reconciliation is articulated in Northern Ireland through interviews with representatives of the main political parties, the article contends that narrative approaches are best suited to analysis of the issues in Northern Irish politics. The argument developed here suggests that reconciliation in Northern Ireland is part of a ‘disjunctured synthesis’ whereby the main political parties become locked into narratives of reconciliation based on opposition to the perceived position of the other.</t>
+          <t>A key challenge facing cities of today is the persistent and growing urban congestion that has significant adverse effects on economic productivity, emissions, driver frustration, and quality of life. The concept of smart cities, which can revolutionize the management of metropolitan transportation operations and infrastructure, shows great promise in mitigating this problem. Specifically, the automation and connectedness (A&amp;C) of smart city entities such as its infrastructure, services, and vehicles, can be helpful. In this regard, this paper focuses on the potential of autonomous vehicles (AVs) and AV infrastructure, particularly during prospective transition era where there will be mixed streams of AVs and human driven vehicles (HDVs). The paper considers two aspects of this potential: connectivity-enabled travel demand management and travel infrastructure supply through lane management. To demonstrate the opportunity associated with this potential, this paper first presents an AV-enabled tradable credit scheme (TCS) to manage travel demand. Here, the transportation authority distributes travel credits to travelers directly and instantaneously using the AV's A&amp;C features. Then, travelers use their A&amp;C features to pay these credits for travel at specific locations or times-of-day according to their choices of lane types and links. With regard to supply, the paper considers that the road network consists of two lane types: AV-dedicated, and mixed traffic lanes, and develops a scheme for Travel Demand and Lane Management Strategies in AV transition era (TLMAV). First, the paper models the expected travel choices based on the user equilibrium concepts, at different levels of AV market penetration. Then, the existence of the optimal solution in terms of link flows and the prevailing travel credit price is demonstrated. Then, the paper establishes the optimal TLMAV that minimize total travel time subject to user equity constraints. The results demonstrate the extent to which HDV users suffer increase in travel cost if equity is not considered in the model. The results also show how the transportation agency can use TLMAV to keep HDV travel costs to acceptable levels, particularly during early periods of the AV transition period.</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2318349324</t>
+          <t>https://openalex.org/W4229850158</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1177/0964663911433670</t>
+          <t>https://doi.org/10.1287/opre.1120.1145</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Moon (2012)</t>
+          <t>NA (2012)</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>‘Who’ll Pay Reparations on My Soul?’&lt;sup&gt;1&lt;/sup&gt; Compensation, Social Control and Social Suffering</t>
+          <t>In This Issue</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Contemporary debate about compensation for past wrongs turns on the assumption that state reparation benefits the victims of atrocity by acknowledging harm and ameliorating victim suffering. Indeed, much recent theoretical and practical work has concurred to establish reparation to victims of state crimes as a cornerstone of human rights. However, this article argues that reparation can also function to placate victim demands for criminal justice and to regulate the range of political and historical meanings with which the crimes of the past are endowed. This is most evident in transitional political contexts in which gestures of reparation are usually concomitant with the inauguration of new political orders, and formal investigations of past atrocity are conditioned by the balancing of the political demands of new and old regimes. This article argues that in such contexts, state reparation can work to control social suffering with the consequence that it sometimes intensifies rather than alleviates it. To evidence this claim, the article investigates the refusal of reparations by the victims towards whom it is addressed, with reference to Argentina’s Madres de Plaza de Mayo. This analysis of their refusal demonstrates how victim groups make important challenges to some of the core assumptions in the field, reveals internal inconsistencies within the analytical architecture of the scholarly and professional discourse, and indicates the ways in which reparations carry political, and not just palliative, significance.</t>
+          <t>Chapter 13 of the Old Testament's Book of Numbers begins, “And the Lord spoke unto Moses, saying: ‘Send thou men, that they may spy out the land of Canaan.’” Although intelligence operations have become more sophisticated since Moses' time, the basic steps remain the same: collect information and analyze it with the goal of providing reasoned assessments that reduce uncertainty and help political or military leaders make better decisions. The topic of intelligence is potentially of special interest to operations researchers for two reasons. First, intelligence is a product resulting from several distinct operations, and as with all products, there are better and worse ways to produce it, which leads to a natural focus on research. Second, there are several opportunities for the application of tools from the broad sweep of operations research methods to specific intelligence questions; this set of problems can be construed as intelligence operations research. “Intelligence Operations Research” is the archival record of Kaplan's Philip McCord Morse Lecture on this topic. Consumer tax preparation applications comprise a profitable niche in software development. Internal Revenue Service efforts to achieve an 80% electronic filing rate for major returns by 2013 has bolstered the growth in tax preparation software. Companies producing tax preparation software must process thousands of state and federal tax forms and release their product on time to protect their market share. “A Hierarchical Framework for Organizing a Software Development Process,” by F. Iravani, S. Dasu, and R. Ahmadi proposes hierarchical optimization models for organizing a complex tax software development process at a leading U.S. software company. The models assign tax forms to groups to control the process more effectively and staff the groups such that they complete processing the assigned tax forms by the release deadline. Implementing the hierarchical models helped the company reduce overtime hours by 31%, reduce total workforce cost by 13%, and release the tax software on time. When a new, more critical patient arrives in a hospital's intensive care unit (ICU) and no bed is available, physicians must discharge a current patient. The discharged patient may require readmission to the ICU, thus straining the already congested resources. Currently, no objective (severity-based using strict physiologic criteria) standards for ICU admission and discharge exist. In “Optimizing Intensive Care Unit Discharge Decisions with Patient Readmissions,” C. W. Chan, V. F. Farias, N. Bambos, and G. J. Escobar provide a systematic and evidence-based discharge strategy for ICU patients when incoming demand necessitates the discharge of a current patient. This work establishes a methodological framework to examine the performance of an index policy that accounts for patient readmissions when making ICU discharge decisions. The major implication of this work is that, in the future, discharge strategies could be linked to objective physiologic criteria to improve patient outcomes and increase efficiency. Flooding can cause significant loss of life and economic damage. The 1953 floods in the southwestern parts of the Netherlands demonstrated the flooding risks to that country. Soon after 1953, Van Dantzig started the cost-benefit analysis of the dike height optimization problem, which looks for the optimal balance between investing in dikes (costs) and reducing flood risk (benefits). In “Safe Dike Heights at Minimal Costs: The Nonhomogeneous Case,” R. Brekelmans, D. den Hertog, K. Roos, and C. Eijgenraam extend Van Dantzig's model and address the fundamental questions of when and how much to invest where. The authors formulate this problem as a mixed-integer nonlinear programming (MINLP) model and combine state-of-the-art solvers with techniques that exploit the problem structure. Dutch government agencies use the model to analyze the main dike rings in the Netherlands and to propose new safety standards to incorporate into the Dutch Water Act. Probabilistically constrained optimization problems with discretely distributed random variables are computationally challenging. In “Pattern-Based Modeling and Solution of Probabilistically Constrained Optimization Problems,” M. Lejeune develops a combinatorial pattern-based framework to model such problems. The method scales remarkably well and solves exactly and very fast stochastic problems where uncertainty is represented by an extremely large (up to 50,000) number of scenarios. This is a key and distinctive feature of the method. It permits reformulating the stochastic problems as mixed-integer ones in which the number of binary variables is not an increasing function of the number of scenarios used to characterize the uncertainty. In the current financial crisis, central banks worldwide have saved major banks from going into default. Companies and banks are closely linked in today's global economy, and negative ev</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2022092310</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1080/15567260600902020</t>
+          <t>https://openalex.org/W27668594</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Suh et al. (2006)</t>
+          <t>Rosario (2012)</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Measurement of Viscosity of Confined Polymer Melt Using Capillary Kinetics</t>
+          <t>Asserting Their Rights: Puerto Ricans in Their Quest for Social Justice</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>We present a simple method to measure viscosity of thin polymer melt that is confined between a substrate and a permeable plate using a modified Poiseuille equation. When a patterned polydimethylsiloxane (PDMS) mold is placed on a styrene-butadiene-styrene (SBS) block copolymer film spin-coated onto a substrate and heated above the polymer's glass transition temperature, capillarity forces the polymer melt into the void of the channel. To calculate the viscosity of the confined polymer melt, the height of capillary rise was measured as a function of time for a number of film thicknesses (220, 350, 540, 1000, and 1300 nm) and at two different temperatures (70 and 100°C). It was found that the viscosity increases with decreasing film thickness at 70°C, whereas it decreases with decreasing film thickness at 100°C. This discrepancy might be related to the confinement-induced solid-like behavior of the polymer melt and wall slip at the polymer/solid interface. Furthermore, the viscosity turned out to be nearly equal to the bulk value for relatively large film thickness (&gt; ∼ 500 nm) regardless of the temperature, which corresponds to earlier findings.</t>
+          <t>abstractIn an effort to claim a dignified place in the United States as American citizens, Boricua leaders developed core political skills from African American grassroots organizations: established networks, adapted strategies of community activism, and found a path towards social justice. Individuals, such as Arturo Schomburg and Pura Belpre, played a crucial role in moments that marked the two histories of Puerto Ricans in the US: the official one-written by the System about them-, and the other-that had to be written by them. Historical facts, film highlights, newspaper articles, and popular music also evidence how events were conceived by the media, and by those few protagonists who bore a name, and had credentials to support it. In the end, Puerto Ricans and African Americans crossed along racial, political, and cultural lines, revealing a transcendental association that brought conflict, social transformation, but ended up in a stronger democracy for the American nation. [Keywords: Puerto Ricans, African Americans, Interracial collaboration, Civil Rights]studies have shown that the puerto rican community in the united states, despite their citizen status, share issues of adaptation, identity, and discrimination with other immigrant groups (sanchez-korrol 1983; whalen 2001; rodriguez 1989; thomas 2010). According to 2000 Census, there are more than 800,000 Puerto Ricans in New York. It is still the largest and the most documented Puerto Rican community in the United States. Particularly documented are the Puerto Rican's experiences after arrival in New York and what expectations they had for their new life in the city. Interestingly, their experiences in many ways mirrored the experience of the other ethnic groups already in New York such as Italians, Irish, Jews, and African Americans. However, the focus of this article, entitled Asserting Their Rights, centers on the cultural, political, and social interactions developed among Puerto Ricans and African Americans. Undoubtedly, the ethnicity of these two groups contributed significantly to similarities in their migratory experience and the struggles related to it. In the end, they found communality in their experiences and used it as a tool to demand and exercise their civil rights.Asserting Their Rights is conscious that many social-political frameworks can be identified according to each stage of the processes experienced by all Puerto Rican subjects, movements, alliances, and organizations mentioned, or described in this article. However, this academic aspect of a scholarly work has been partially avoided in order to let the essay narrate how these characters transit through singular periods in history. As fluid entities these women and men constructed their subjectivities when they adopted new notions of identity, and adapted themselves to different social and political situations. This work is intended to be read mostly by scholars who can address particular facts and find the appropriate theoretical concept to name them, as a basic skill during his/her professional formation. But, in the end, it is relevant for me as an intellectual to let these characters be protagonists in their own hi/stories. The ego has to step back, watch, and show how a handful of Puerto Rican immigrants asserted their rights, and participated along with African American people in changing the course of US history.Colonialism and MigrationFor more than five hundred years Puerto Rico and its people have been colonial subjects; first, more than 400 hundred under Spanish regime-since 1493 until 1898-, and over 100 as a US territory after the Spanish-American war.When the United States became involved in what began as the Cuban-Spanish conflict of 1895, high hopes arose within many sectors of the Puerto Rican society; the United States was seen as a model of economic progress and liberty (Guerra 1999). However, the thought of Puerto Rico being ruled by an Anglo Saxon country fueled discussion on issues of citizenship and class among the Puerto Rican people, whose culture was essentially influenced by a Hispanic-Roman Catholic ideology. …</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2484788152</t>
+          <t>https://openalex.org/W2016254158</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1007/978-1-349-73773-4_6</t>
+          <t>https://doi.org/10.1016/j.pubrev.2007.08.009</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Millette (2003)</t>
+          <t>Mckie &amp; Galloway (2007)</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Decolonization, populist movements and the formation of new nations, 1945–70</t>
+          <t>Climate change after denial: Global reach, global responsibilities, and public relations</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>OF all the major unintended consequences of the Second World War, the decolonization of the European colonies was the most improbable of all. When the War began it seemed at first to be just another white man’s war. This is to say that ever since the French Revolutionary and Napoleonic wars, the first of the really major modern conflicts to convulse the globe, it was an article of faith mutually agreed between the major combatants that however fierce the warfare might be between the European powers, it was their war: a war between civilized combatants for the realization of civilized objectives in no way altering the general dominant relationship exercised by the European powers and peoples over those they had long colonized. Of course, the pretence was always challenged; in part by the need to recruit the indigenous or other oppressed peoples to help pursue these conflicts, and in part by the fact that the colonized and the oppressed often perceived the schisms and the conflicts among the ruling élite as providing them with unrivalled opportunities for pursuing their own causes. The French Revolution was barely two years old when the slaves revolted in St Domingue. The Civil War in the United States was still in its infancy when Frederick Douglass recognized it as presenting an unrivalled opportunity for promoting the cause of slave emancipation: ‘God be praised!’, he said. And Wendell Phillips, the abolitionist, expostulated: ‘I [now] believe in a sunny future, because God has driven them mad: and in their madness is our hope’.1</t>
+          <t>Taking climate change as the 21st century's major global threat, this paper considers three significant public relations challenges arising from it. The first is how the field can engage with the social equity and ecological dimensions in ways that might enhance rather than diminish the profession's public reputation. The second is how the discipline adapts to deal with the radical perceptual shifts accompanying the meteorological transformations and possible geopolitical fallout, and the third is the issue of trust – interlinked with emotions, economics, ecology, and neuroscience – as the strategy of eco-catastrophe denial becomes less and less tenable. The paper also considers possible responses to these challenges.</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1572562311</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1353/hsp.2010.a405438</t>
+          <t>https://openalex.org/W3172847412</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Treadgold (2010)</t>
+          <t>Olazabal (2020)</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Byzantine Exceptionalism and Some Recent Books on Byzantium</t>
+          <t>El reto climático en las ciudades</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Byzantine Exceptionalism and Some Recent Books on Byzantium Warren Treadgold (bio) Jonathan Shepard, ed., The Cambridge History of the Byzantine Empire, c. 500-1492 (Cambridge University Press, 2008). Elizabeth Jeffreys with John Haldon and Robin Cormack, eds., The Oxford Handbook of Byzantine Studies (Oxford University Press, 2008). John Haldon, ed., A Social History of Byzantium (Wiley-Blackwell, 2009). Judith Herrin, Byzantium: The Surprising Life of a Medieval Empire (Princeton University Press, 2007). Edward Luttwak, The Grand Strategy of the Byzantine Empire (The Belknap Press of Harvard University Press, 2009). Timothy E. Gregory, A History of Byzantium, 2nd ed. (Wiley-Blackwell, 2010). Anthony Kaldellis, Hellenism in Byzantium: The Transformations of Greek Identity and the Reception of the Classical Tradition (Cambridge University Press, 2007). In 1066 the Normans invaded England and won a decisive victory. While they claimed that their actions were justified, they held the land essentially by right of conquest and displaced nearly everyone who had been ruling it. After a few years they secured the whole kingdom and profoundly reshaped the society and culture of the country, where their descendants still reign. Likewise, in 1203-4 the men of the Fourth Crusade invaded the Byzantine Empire and won a decisive victory. While they claimed that their actions were justified, they held the land essentially by right of conquest and displaced nearly everyone who had been ruling it. Yet they never secured most of the empire, lost practically all of it by 1261, and had scarcely any lasting impact on the society or culture of the Byzantine world. Various reasons can be given for the success of the Norman Conquest, and historians can easily imagine how it might have failed. What is much harder to imagine is how the Crusaders' conquest of Byzantium could ultimately have succeeded, at least without far more accommodation of the Byzantines or massive Western European immigration. Though the Normans spoke a different language from the English, both groups were part of a Western European political, social, and cultural system that was also shared by the Crusaders of 1204. This system was, however, incompatible with the Byzantine political, social, and cultural system, which soon expelled the Crusaders as an alien body. Byzantium was not just another medieval European country, like England or France, but a world of its own. The contrasts between Byzantium and the West are still a problem for authors of general books on Byzantium, including the recent batch of seven reviewed here. Most Byzantinists know how different Byzantium was, but many prefer not to emphasize the fact. Scholars like to be fashionable, and fashions are set by the majority who study the medieval and modern West, the source of concepts like feudalism and nationalism. While today we are all aware of non-Western cultures, we think of Byzantium as Western, certainly in comparison with China, pre-Columbian America, or sub-Saharan Africa. This is presumably why the American Historical Review lists books on Byzantium under "Europe: Ancient and Medieval," though most Byzantine territory was in Asia or Africa (and Constantinople straddled Europe and Asia). Byzantinists may reasonably fear that insisting their subject is not fully Western could leave it without a place in either Western or non-Western history. The Cambridge History of the Byzantine Empire comes very close to treating Byzantium as just another medieval European country, even if such treatment results mainly from the opportunism of its publisher. Of the book's twenty-seven parts, only eight (plus the introduction) were actually written for it. Three more parts are adapted from the final volume of The Cambridge Ancient History (2000) and sixteen more from the seven-volume New Cambridge Medieval History (1995-2005), which has short chapters on Byzantium in each period. (The old Cambridge Medieval History had a separate volume on Byzantium.) The editor of the Cambridge History, Jonathan Shepard, explains that an editor at Cambridge University Press "encouraged me to take on remodelling materials already available" (xvii). While the press profits from selling libraries the same material twice, the benefits to scholarship are less clear. In his introduction Shepard struggles to lend the book some coherence.1 He explains its beginning with the year 500 by citing the fall...</t>
+          <t>espanolEl reto climatico es especialmente importante en las ciudades y asi lo trasladan la Nueva Agenda Urbana y los objetivos de desarrollo sostenible. En este capitulo se discuten las claves locales del reto climatico con una doble perspectiva: las ciudades como parte del problema y como sistemas altamente vulnerables al cambio climatico. Se describen estos retos a traves de un repaso de las tendencias urbanas y sus consecuencias en terminos de emisiones y riesgos climaticos. Con el objetivo de establecer las pautas para una transformacion urbana justa, sostenible y resiliente, se discuten los principales tipos de medidas climaticas, los condicionantes intrinsecos urbanos que explican la necesidad de pensar desde lo local, y los principios clave de la accion climatica: flexibilidad, integracion y transdisciplinariedad. El capitulo termina con un repaso al progreso de la accion climatica local y concluye aludiendo a la co-responsabilidad de los gobiernos locales, de las empresas, ciudadanos y usuarios de las urbes, en el transito hacia modelos urbanos bajos en carbono y resilientes al cambio climatico. EnglishThe climate challenge is especially important in cities as reflected in the New Urban Agenda and the Sustainable Development Goals. This chapter discusses the key aspects of the urban climate challenge with a double perspective: cities as the source of the problem and as systems highly vulnerable to climate change. These challenges are described through a review of urban trends and their consequences in terms of emissions and climate risks. In order to establish guidelines for a just, sustainable and resilient urban transformation, the chapter discusses the main types of climate action, the inherent urban conditioning factors that explain the need to think locally, and, eventually, the key principles of climate action: flexibility, integration and transdisciplinarity. The chapter ends with a review of the progress of local climate action globally and concludes by calling to the co-responsibility of local governments, companies, citizens and users of cities, in the transition towards low-carbon urban models which are resilient to climate change.</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2121673844</t>
+          <t>https://openalex.org/W2086000909</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1080/13563460903586202</t>
+          <t>https://doi.org/10.1117/12.263056</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Caney (2010)</t>
+          <t>Yang et al. (1996)</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Markets, Morality and Climate Change: What, if Anything, is Wrong with Emissions Trading?</t>
+          <t>&lt;title&gt;Binary optics design with genetic algorithm&lt;/title&gt;</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t xml:space="preserve">Abstract This article explores whether emissions trading is morally defensible To do so it examines three different kinds of moral consideration Which might be used to judge emissions trading. The first kind makes what I term an 'ethical' objection, and holds that utilising market instruments to combat climate change is inherently objectionable. I examine three versions if this 'ethical' argument but find none persuasive. The remainder of the article considers two additional moral considerations, both of which appeal to principles of justice. Drawing on these it argues that emissions trading can be morally defensible but only it it meets these two demanding moral criteria. First, the costs of emissions trading should be shared equitably. The paper examines what this might mean and criticises the leading account of what constitutes a just distribution of emissions Second, emissions trading must make an appropriate contribution to climate mitigation. A number of ways in which current emissions trading schemes signally fail to meet this second criterion are then noted. The article concludes that emissions trading schemes could in principle be morally defensible but only if new schemes are introduced or existing schemes are radically redesigned in line with the principles outlined in the article. Keywords: emissions tradingethicsjusticeclimate change Notes An earlier version of this paper was presented at the 'Commodifying Carbon' Conference (University of Oxford, 16 July 2007). I am grateful to the two respondents on my paper, Timmons Roberts and Henry Shue, for their instructive comments. A much later version was presented at the workshop on 'Global Emissions Trading: Ethics, Policy and Politics' (University of Warwick, 8 July 2009). I am grateful to the participants for their suggestions. I am especially indebted to Ed Page for a number of very illuminating discussions of the themes examined in this paper and to the anonymous referee for this journal for their extremely helpful comments. The paper was completed during my tenure of an ESRC Climate Change Leadership Fellowship (2008–11) and I am grateful to the ESRC for its support. Note that emissions trading schemes are not the only market instrument being employed to mitigate climate change. Another potentially important market instrument is the United Nations' programme on Reducing Emissions from Deforestation and Forest Degradation in Developing Countries (UN-REDD). See on this http://www.undp.org/mdtf/un-redd/overview.shtml [last accessed 11 December 2009]. REDD is one specific version of what is known as 'payment for environmental services' (PES). For an overview of PES see Engel et al. Citation(2008). My focus in this article is on emissions trading but some of the issues raised are also relevant for an appraisal of REDD and other schemes which involve paying for environmental services. I am grateful to an anonymous referee for pressing me on this point. This sentence needs to be heavily qualified for the impoverished may be unfree not to sell emissions. That is, their economic disadvantage may compel them to sell their emissions. I have argued elsewhere that there is a duty of justice to eradicate global poverty (Caney Citation2005) and if this were honoured then this concern would be met. One might also address this concern either by allocating large numbers of emissions permits to the disadvantaged or by auctioning the permits and distributing the revenues to the disadvantaged (Beckerman and Pasek Citation2001: 183–4). These issues are examined in section IV. Simmel (Citation1990 [1907]: 286) illustrates his argument through an historical analysis of different systems of payment, such as feudalism. He points out that an economy where persons are required to transfer a certain specific good (such as 'a quantity of beer or poultry or honey') 'thereby determines the activity of the … [duty-bearer] in a certain direction' and, as such, limits their liberty more than one where one can discharge one's debts though payment of money. A second, quite different reason for analysing emissions trading in the light of other policies is that it is often the case that one policy, whilst successful on its own, may undercut the efficacy of a second policy. They may work well separately but undermine each when adopted together. See Carbon Disclosure Project (http://www.cdproject.net/) and Carbon Monitoring for Action (http://carma.org/) [both last accessed on 26 June 2009]. See also the interesting discussion by Thaler and Sunstein in Nudge (Citation2008: 188–92). For the claim that they should be inalienable see Shue (Citation1993: 58). For instructive comparisons of different schemes see Roberts and Thumim (Citation2006: section 2) and Bottrill Citation(2006). For informative overviews see House of Commons Environmental Audit Committee Citation(2008) and DEFRA's analysis of individual carbon permit schemes (now available at the website of the Department for Energy </t>
+          <t>We employ the genetic algorithm to design a binary optical element system which transforms the Gaussian beam into the uniform circular ring beam. The transformation system is composed of two binary optical elements with 8 phase levels which are placed coaxially. The numerical results indicate that the transformed wavefront has a near-desired waveform and high energy transformed efficiency (tau) equals 87.3%. The genetic algorithm is better that the other usually used algorithms such as input-output iterative algorithm and stationary phase algorithm. The comparison with the three algorithms are shown in this paper, too.</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2075007701</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1097/00005373-199607000-00001</t>
+          <t>https://openalex.org/W31531318</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Hassett (1996)</t>
+          <t>Martínez-de-Pisón (2003)</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Do It Right, Do the Right Thing</t>
+          <t>Optimización mediante técnicas de minería de datos del ciclo de recocido de una línea de galvanizado</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Ladies and gentlemen, members of EAST, and guests! In preparation for this address, I reviewed my predecessors presentations. Dr. Maull urged us to dispel fatalism in 1989. [1] Dr. Harris searched for values in our changing times. [2] Dr. Jacobs identified forces that shape trauma care. [3] Dr. Champion reflected on directions of trauma care. [4] Dr. Schwab identified the largest sociomedical problem of the turn of the century. [5] Dr. Rhodes gave practical guidelines for trauma care. [6] Dr. Boyd reported on the principles of action. [7] Each was a prescient view of the challenges to trauma care. I urge each member to review their comments. I will focus on a continuation of their theme and offer an action plan. I have decided to do so because we stand on the threshold of a new century. Each of us has come to this place in time with unique experiences of mentorship, academic preparation, and clinical experience. Our common thread is our dedication to the trauma patient. Each will be asked to address issues and challenges daily. How we do so and what we do will effect generations of future trauma patients. At the turn of the century we are facing questions like: Can we define life, liberty and the pursuit of happiness specifically? Can we reliably ensure access to health care for all? Our sense of mission and vision of the future are important components as we deal with the challenges and questions. My presidential address is a call to active advocacy. I implore you to "Do it right, do the right thing". Modern health care advocates autonomy not cohesiveness. It values patient choice but reduces patient options. It promotes the bottom line and not people. It sees outcome through economic glasses. It replaces a commitment to excellence with a mandate for equity. It does not ensure equal health care to the economically challenged. It is a bean counters plan concocted by people who don't know beans about health care. This is the result of society's failure to address basic issues of health care and economy. Largely, it is a failure of professional and political leadership. Professionally, many of our colleagues take more than they give. Politically, many of our leaders use health care and social systems for their own gain. Somehow, we have lost the vision of our mission and responsibility. Figure 1Figure 1Entrepreneurs found health care in the seventies. The medical market place was an open and largely unregulated area. It soon became dominated by technology that superseded the normally accepted "doctor skills". Hospitals became technological marvels. Public policy for Medicare and Medicaid created a funding source that could supply this market with sufficient funds to make entrepeneurial investment reasonable. Some define this entrepreneurship as an organized license to steal. Others see it as the natural order of life. In the initial phases, it provided resources and fulfilled the dream of universal health care, where every malady could be addressed directly. In the later phases, it created circumstances where health care devices have astronomical prices and minor problems have million dollar responses. Decisions are directed by the corporate bottom line and controlled by the fear of litigation. The process has made us all commodities to be managed and used. Health care is provided according to the number of covered lives per annum. Health care providers are seen in terms of the number of contact hours per day. We are part of a system of health care delivery that sets a priority on certain types of care. Delays in delivering care are economically driven. The bottom line is important. The question is whose bottom line is being valued in the decision process. Students are taught more about the cost per dose than the pharmacology of the drug given. They are indoctrinated to careers and training programs are modified according to the mantra of managed care. Residents are concerned with a "niche market," attractiveness of their skills to their eventual employer, and their benefits package. Attending staff are evaluated according to the length of stay of their patients or the number of resource days utilized. The natural result is a struggle for the control of health care. In many ways, health care providers and patients are in a "free fire zone" in a modern economic war. Neither controls the environment. Both are victims and victimize the system simultaneously. Today, the other side is winning. However, all is not lost. Groups of health care professionals are addressing issues aggressively. The Phoenix analogy that a better health care system may emerge from the ashes of the past health care system has become a popular concept in groups who accept the challenge of change. The major goals of these groups are intelligent organization, focus, and outcome-based service. None of the issues are new. Most of the issues, challenges, and responses have been with us for a long time. The history of the response to change in m</t>
+          <t>The constant search to increase the quality of products and to reduce expenses in the manufacture process is a fundamental goal in any industrial plant. Today, companies are looking for more efficient tools and methodologies helping in these tasks.
+Just un example is Data Mining (DM). DM and Multivariate Statistic tools are useful when people have a huge volume of historical data of the process. Its analysis with these new techniques helps in multiple aspects: control of quality, system identification, determination of causes in process' failures, detection of anomalies, prevention of failures, system modelling, by finding rules and patterns of behaviour, estimation of relations between variables, and so on.
+In this thesis, an application of the CRISP-DM methodology is used for the improvement, within a Hot Dip Coating Line (HDCL) of steel coils, of the heat treatment of the steel strip before its passage by the immersion of the liquid zinc bath. The control and scheduling of coils in this process of annealing are the keys for the improvement of band and coating properties.
+Throughout this thesis, there are several topics covered:
+1. A methodology that, by using genetic algorithms and neuronal networks, allow us the optimization of furnace's transitional curves and band's speed between coils of different dimensions, reducing the temperature gap between the expected and the real one.
+2. A sorting criteria for coils according to the composition of the steel. This tool has been an excellent issue for prediction of process's breakage or for detecting another kind of problems due to coils with anomalous steel.
+3. A software based sensor projecting operating points of the furnace in a lower dimension space, much more easy for visual analysis and that helps operators to visualize its tendency and to take anticipated control actions over the furnace.</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1965900513</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1063/1.456736</t>
+          <t>https://openalex.org/W2382584559</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Ehsasi et al. (1989)</t>
+          <t>Zhang (2006)</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Steady and nonsteady rates of reaction in a heterogeneously catalyzed reaction: Oxidation of CO on platinum, experiments and simulations</t>
+          <t>Influence of medium-tempering treatment on microstructure and properties of Ni based spray-welded coating on titanium substrate</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>The rate of reaction for oxidation of CO over (210) and (111) single-crystal surfaces of platinum has been studied as a function of reactant pressures (PO2,PCO) and sample temperature (T), both experimentally and by computer simulation. Experimental results on both surfaces show regions with a steady high rate of reaction followed by a nonsteady transition region and, at high CO pressures, a region with low reactivity caused by CO poisoning of the surface. At constant sample temperature, the transition region can be narrow and depends critically on the ratio of the gas phase concentration of reactants (PCO/PO2). The temperature dependences of the experimental data indicate that the critical ratio and the details for the occurrence of CO poisoning are strongly affected by surface processes such as adsorption, desorption, and diffusion ordering and reconstruction phenomena. A computer simulation model of the Langmuir–Hinshelwood surface reaction as developed by Ziff et al. was used for the simulation of the reaction under flow conditions. The initial fair agreement between this model and the experiment can be significantly improved if processes such as adsorption, desorption, and diffusion are taken into account in an extended simulation model which in turn provides an insight into the kinetics of adsorbate poisoning and the effect of adsorbate-induced processes on the reaction.</t>
+          <t>The microstructure and properties of Ni based coating on Ti-6Al-4V alloys substrate fabricated by flames spray-welding and subsequently treated by medium-tempering were studied.The results show that a lot of hard particles are separated out after the medium-tempering treatment,which has the dispersion strengthen effect on spray-welded coating.After the medium-tempering treatment,the uniformity of coating's microstructure is improved,and the transition layer widens obviously;and the micro-hardness of coating changes more smoothly along depth direction,and the grads gradient of properties from soft substrate to hard coating decreases obvisously;and the micro-hardness of the spray-welded surface increases a little,but the wear loss of sample after tempering treatment is only equal to that of 1/2.33 of the before.</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2980945324</t>
+          <t>https://openalex.org/W2029368775</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1111/j.1464-410x.2005.05928.x</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Hosselet-Herbignat (2018)</t>
+          <t>Vögeli (2005)</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Rungano Nyoni. I Am not a Witch Fiction, Allemagne/Grande-Bretagne/France, 2017</t>
+          <t>The management of superficial transitional cell carcinoma of the bladder: a critical assessment of contemporary concepts and future perspectives</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Dans un pays d’Afrique1, une femme est partie chercher de l’eau. Au retour, elle trebuche et repand le contenu de son seau. Une petite fille, immobile sur le chemin, la regarde sans mot dire. Il n’en faut pas plus pour que Shula, neuf ans, soit accusee de sorcellerie par les habitants de son village et envoyee dans un camp de sorcieres. Comme les femmes – toutes beaucoup plus âgees – qui y vivent, elle est condamnee a rester attachee par un ruban a une grosse bobine, bobines transportees sur un camion Mercedes lorsque les femmes vont travailler aux champs ou dans les carrieres de pierre. Toutes sont soumises a ce sortilege : si elles coupent leur ruban, elles seront maudites, et se transformeront en chevres. Un fonctionnaire du gouvernement, en quete de promotion, voit tout le parti qu’il peut tirer de cette petite fille retenue prisonniere, quasiment mutique, mais douee d’un regard plein d’intelligence et de perspicacite. Elle va devenir le personnage principal d’une suite d’evenements qui nous entrainent dans les croyances profondes subsistant au milieu d’un pays qui se modernise : justice rendue au moyen de poulets ecorches, incantations pour faire tomber la pluie,… Tableaux ou les situations burlesques font face au serieux resolu de la petite Shula qui se prete aux mises en scene, protegee par cette communaute de femmes sorcieres qui l’entourent avec tendresse et vigilance. Les tableaux s’enchainent sans transition, dans des paysages secs, ou les femmes evoluent, telles d</t>
+          <t>BJU InternationalVolume 96, Issue 8 p. 1171-1176 The management of superficial transitional cell carcinoma of the bladder: a critical assessment of contemporary concepts and future perspectives Thomas-Alexander Vögeli, Corresponding Author Thomas-Alexander Vögeli Department of Urology, Medical Center Aachen, GermanyThomas-Alexander Vögeli, Department of Urology, Medical Center Aachen, Aachen, Germany. e-mail: [email protected]Search for more papers by this author Thomas-Alexander Vögeli, Corresponding Author Thomas-Alexander Vögeli Department of Urology, Medical Center Aachen, GermanyThomas-Alexander Vögeli, Department of Urology, Medical Center Aachen, Aachen, Germany. e-mail: [email protected]Search for more papers by this author First published: 15 November 2005 https://doi.org/10.1111/j.1464-410X.2005.05928.xCitations: 3Read the full textAboutPDF ToolsRequest permissionExport citationAdd to favoritesTrack citation ShareShare Give accessShare full text accessShare full-text accessPlease review our Terms and Conditions of Use and check box below to share full-text version of article.I have read and accept the Wiley Online Library Terms and Conditions of UseShareable LinkUse the link below to share a full-text version of this article with your friends and colleagues. Learn more.Copy URL REFERENCES 1 Feldmann AR, Kessler L, Myers MH. The prevalence of cancer. N Engl J Med 1996; 315: 1394– 7 2 Pyrah LN, Raper FP, Thomas GM. Report of a follow up of papillary tumours of the bladder. Br J Med 1964; 36: 14– 25 3 Eble JN, Sauter G, Epstein JI, Sesterhenn IA eds. Pathology and Genetics of Tumors of the Urinary System and Male Genital Organs. Lyon: IARC Press, 2004 4 Malmstrom PU, Busch C, Norlen BJ. Recurrence, progression and survival in bladder cancer. A retrospective analysis of 232 patients with greater than or equal to 5-year follow up. Scand J Urol Nephrol 1987; 21: 185– 95 5 Cheng L, Neumann RM, Bostwick DG. Papillary urothelial neoplasms of low malignant potential. Clinical and biological implications. Cancer 1999; 86: 2102– 8 6 Alsheik A, Mohamedali Z, Jones E, Materson J, Gilks CB. Comparison of the WHO ISUP classification and cytokeratin 20 expression in predicting the behavior of low grade papillary urothelial lesions. Mod Pathol 2001; 14: 267– 72 7 Holmang S, Andius P, Hedelin H, Wester K, Busch C, Johannson SL. Stage progression in Ta papillary urothelial tumors. Relationship to grade, immunohistochemical expression of tumor markers, mitotic frequency and DNA ploidy. J Urol 2001; 165: 1124– 8 8 Meijeden A, Sylvester R, Colette L, Bono A, Ten Kate F. The role and impact of pathology review on stage and grade assessment of stages Ta and T1 bladder tumors: a combined analysis of 5 EORTC trials. J Urol 2000; 164: 1533– 7 9 Pathologist of the French Association of Urology Cancer Committee. Lamina propria microinvasion of bladder tumors, incidence or stage allocation (pTa vs PpT1): recommended approach. World J Urol 1993; 11: 161– 4 10 Witjes JA, Kiemeney LA, Schaffma HE, Debruyne FM. The influence of review pathology on study outcome of a randomized multicentre superficial bladder cancer trial. Br J Urol 1994; 73: 172– 6 11 Tosoni I, Wagner U, Sauter G, Egloff M, Nönagel H, Alund G. Clinical significance of interobserver differences in the staging and grading of superficial bladder cancer. BJU Int 2000; 85: 48– 53 12 Milner WA. Results in the treatment of bladder tumors. J Urol 1953; 69: 657– 64 13 Bressel M, Kemper K. Vorbedingungen und Technik der transurethralen Resektion. Urologe A 1969; 8: 73– 80 14 Marberger A, Marberger F, DeCristofero A. The current status of transurethral resection in the diagnosis and therapy of carcinoma of the urinary bladder. Int Urol Nephrol 1972; 4: 35– 44 15 Flamm J, Steiner R. Stellenwert der differenzierten transurethralen Resektion beim primären oberflächlichen Harnblasenkarzinom. Urologe A 1991; 30: 111– 3 16 Koloscy Z. Histopathological self control in transurethral resection of bladder tumours. Br J Urol 1976; 116: 575– 80 17 Klän R, Loy V, Huland H. Residual tumor discovered in routine second transurethral resection in patients with stage T1 transitional cell carcinoma of the bladder. J Urol 1991; 46: 316– 8 18 Köhrmann KU, Woeste M, Kappers JH, Rassweiler J, Alken P. Der Wert der transurethralen Nachresektion beim oberflächlichen Harnblasenkarzinom. Akt Urol 1994; 25: 208– 13 19 Vögeli TA, Marx G, Ackermann R. Zur Notwendigkeit der Nachresektion beim oberflächlichen Blasenkarzinom als Kontrolle der Erstresktion. Urologe A 1991; 31: 59 20 Schwaibold HE, Treiber U, Kuebler H, Leyh H, Hartung R. Second transurethral resection detects histopathological changes worsening the prognosis in 25% of patients with T1 bladder cancer. J Urol 2000; 163: 153– 4 21 Zurkirchen MA, Sulser T, Hauri D. Can a second resection be omitted in the treatment of bladder cancer. Eur Urol 2001; 39 (Suppl.): 119 22 Schips L, Augustin H, Zigeuner R, Trummer H, Pummer K, Hubmer G. Is a second tr</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3137430892</t>
+          <t>https://openalex.org/W2318349324</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/er.6628</t>
+          <t>https://doi.org/10.1177/0964663911433670</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Zhang et al. (2021)</t>
+          <t>Moon (2012)</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Numerical simulation of solid oxide fuel cells comparing different electrochemical kinetics</t>
+          <t>‘Who’ll Pay Reparations on My Soul?’&lt;sup&gt;1&lt;/sup&gt; Compensation, Social Control and Social Suffering</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t xml:space="preserve">International Journal of Energy ResearchVolume 45, Issue 9 p. 12980-12995 RESEARCH ARTICLEOpen Access Numerical simulation of solid oxide fuel cells comparing different electrochemical kinetics Xiaoqiang Zhang, Xiaoqiang Zhang Department of Energy Sciences, Faculty of Engineering, Lund University, Lund, SwedenSearch for more papers by this authorLei Wang, Lei Wang Department of Energy Sciences, Faculty of Engineering, Lund University, Lund, SwedenSearch for more papers by this authorMayken Espinoza, Mayken Espinoza orcid.org/0000-0001-7809-8659 Facultad de Ingeniería Mecánica y Ciencias de la Producción, Centro de Energías Renovables y Alternativas, Escuela Superior Politécnica del Litoral, ESPOL, Guayaquil, EcuadorSearch for more papers by this authorTingshuai Li, Tingshuai Li orcid.org/0000-0002-9332-9299 School of Materials and Energy, University of Electronic Science and Technology of China, Chengdu, ChinaSearch for more papers by this authorMartin Andersson, Corresponding Author Martin Andersson [email protected] orcid.org/0000-0001-5057-4908 Department of Energy Sciences, Faculty of Engineering, Lund University, Lund, Sweden School of Materials and Energy, University of Electronic Science and Technology of China, Chengdu, China Correspondence Martin Andersson, Department of Energy Sciences, Faculty of Engineering, Lund University, P.O. Box 118, SE-221 00 Lund, Sweden. Email: [email protected]Search for more papers by this author Xiaoqiang Zhang, Xiaoqiang Zhang Department of Energy Sciences, Faculty of Engineering, Lund University, Lund, SwedenSearch for more papers by this authorLei Wang, Lei Wang Department of Energy Sciences, Faculty of Engineering, Lund University, Lund, SwedenSearch for more papers by this authorMayken Espinoza, Mayken Espinoza orcid.org/0000-0001-7809-8659 Facultad de Ingeniería Mecánica y Ciencias de la Producción, Centro de Energías Renovables y Alternativas, Escuela Superior Politécnica del Litoral, ESPOL, Guayaquil, EcuadorSearch for more papers by this authorTingshuai Li, Tingshuai Li orcid.org/0000-0002-9332-9299 School of Materials and Energy, University of Electronic Science and Technology of China, Chengdu, ChinaSearch for more papers by this authorMartin Andersson, Corresponding Author Martin Andersson [email protected] orcid.org/0000-0001-5057-4908 Department of Energy Sciences, Faculty of Engineering, Lund University, Lund, Sweden School of Materials and Energy, University of Electronic Science and Technology of China, Chengdu, China Correspondence Martin Andersson, Department of Energy Sciences, Faculty of Engineering, Lund University, P.O. Box 118, SE-221 00 Lund, Sweden. Email: [email protected]Search for more papers by this author First published: 15 March 2021 https://doi.org/10.1002/er.6628Citations: 2 Funding information: Chinese Scholarship Council, Grant/Award Number: 201906070189; Stiftelsen aforsk, Grant/Award Number: 17-331 AboutSectionsPDF ToolsRequest permissionExport citationAdd to favoritesTrack citation ShareShare Give accessShare full text accessShare full-text accessPlease review our Terms and Conditions of Use and check box below to share full-text version of article.I have read and accept the Wiley Online Library Terms and Conditions of UseShareable LinkUse the link below to share a full-text version of this article with your friends and colleagues. Learn more.Copy URL Summary Solid oxide fuel cells (SOFCs) produce electricity with high electrical efficiency and fuel flexibility without pollution, for example, CO2, NOx, SOx, and particles. Still, numerous issues hindered the large-scale commercialization of fuel cell at a large scale, such as fuel storage, mechanical failure, catalytic degradation, electrode poisoning from fuel and air, for example, lifetime in relation to cost. Computational fluid dynamics (CFD) couples various physical fields, which is vital to reduce the redundant workload required for SOFC development. Modeling of SOFCs includes the coupling of charge transfer, electrochemical reactions, fluid flow, energy transport, and species transport. The Butler-Volmer equation is frequently used to describe the coupling of electrochemical reactions with current density. The most frequently used is the activation- and diffusion-controlled Butler-Volmer equation. Three different electrode reaction models are examined in the study, which is named case 1, case 2, and case 3, respectively. Case 1 is activation controlled while cases 2 and 3 are diffusion-controlled which take the concentration of redox species into account. It is shown that case 1 gives the highest reaction rate, followed by case 2 and case 3. Case 3 gives the lowest reaction rate and thus has a much lower current density and temperature. The change of activation overpotential does not follow the change of current density and temperature at the interface of the anode and electrolyte and interface of cathode and electrolyte, which demonstrates the non-linearity of the model. </t>
+          <t>Contemporary debate about compensation for past wrongs turns on the assumption that state reparation benefits the victims of atrocity by acknowledging harm and ameliorating victim suffering. Indeed, much recent theoretical and practical work has concurred to establish reparation to victims of state crimes as a cornerstone of human rights. However, this article argues that reparation can also function to placate victim demands for criminal justice and to regulate the range of political and historical meanings with which the crimes of the past are endowed. This is most evident in transitional political contexts in which gestures of reparation are usually concomitant with the inauguration of new political orders, and formal investigations of past atrocity are conditioned by the balancing of the political demands of new and old regimes. This article argues that in such contexts, state reparation can work to control social suffering with the consequence that it sometimes intensifies rather than alleviates it. To evidence this claim, the article investigates the refusal of reparations by the victims towards whom it is addressed, with reference to Argentina’s Madres de Plaza de Mayo. This analysis of their refusal demonstrates how victim groups make important challenges to some of the core assumptions in the field, reveals internal inconsistencies within the analytical architecture of the scholarly and professional discourse, and indicates the ways in which reparations carry political, and not just palliative, significance.</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2404098966</t>
+          <t>https://openalex.org/W2085684455</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.2528/pier14022001</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Coughlan &amp; Perryman (2016)</t>
+          <t>Gilardi &amp; Smit (2014)</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>50,000 Facebook views from a $30 investment: CYP-Media’s use of open practices to increase access to learning in the children and young people’s sector</t>
+          <t>GENERIC INP-BASED INTEGRATION TECHNOLOGY: PRESENT AND PROSPECTS (Invited Review)</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>In 2015 Tony Coughlan was awarded the Open Education Consortium award for Creative Innovation, recognising the impact of his CYP-Media project in using open educational practices (OEP) to increase access to learning in the children and young people’s sector. Core to CYP-Media is a blog (www.cyp-media.org) in which Tony curates and evaluates free e-learning, textbooks and journals for working with children of different ages and needs. The reach of these blog posts is maximised by dissemination through Facebook and Twitter. The CYP-Media.org blog cost only $30 to set up, yet its impact is substantial. The CYP-Media Facebook page has an average reach of 7,244 per item, with a maximum of about 500 shares or 50,000 views of an individual item, and Tony himself has been identified as one of the top 50 most influential social media-using professionals in UK higher education. CYP-Media shows how just one person can make a huge difference to achieving educational and social equity with a tiny financial investment and a commitment to openness. This paper outlines the conceptual background to CYP-Media, with its roots in Perryman and Coughlan’s (2013) ‘public open scholar’ research, Weller’s (2011) concept of the ‘digital scholar’, and the emerging practice and theories of digital curation. The paper details CYP-Media’s multi-platform social media strategy and the challenges encountered since the project’s inception in 2010, in addition to presenting a mixed methods analysis of CYP-Media’s reception within the children and young people’s sector. We conclude that openness does not have to be the province of institutions and organisations, or even smaller projects and that by listening to the needs of your target audience, rather than adopting a top-down approach, real educational transformation through OEP is within the reach of anyone.</t>
+          <t>The generic foundry approach will lead to a revolution in micro and nanophotonics, just as it did in microelectronics thirty years ago.Generic integration leads to a drastic reduction in the entry costs for developing Photonic Integrated Circuits.Integrated circuits using generic integration open up a whole new range of applications including data communications, fiber-to-the-home, fiber sensors, gas sensing, medical diagnostics, metrology and consumer photonics.Present status and prospects of InP-based photonic foundry technology are reviewed. INTRODUCTION: THE DEVELOPMENT OF PHOTONIC CHIP COMPLEXITYIn microelectronics there is a clear exponential development in the number of transistors per chip, which has been doubling every two years on average during the last four decades.This phenomenon is known as Moore's law [1,2].In Photonics we observe a similar development, albeit in an early stage.Figure 1 shows the complexity development of InP-based Photonic ICs (PICs), measured as the number of components integrated on a single chip.Early examples of complex InP-based PICs are a WDM source by Koren et al. (1989) [3], a gratingbased receiver by Cremer et al. (1991) [4], a switch array by Gustavsson et al. (1992) [5], and a heterodyne receiver by Kaiser (1994) [6].The highest complexities so far have been reported in AWG-based PICs.It started with the publication of the first AWG by Smit [7] in 1988, followed by Takahashi et al. (1990) [8] and Dragone (1991) [9].After the invention of the AWG a number of AWG-based devices with increasing circuit complexity was reported: WDM receivers with 5-10 components by Amersfoort et al. (1993) [10], Zirngibl et al. (1995) [11] and Steenbergen et al. (1996) [12]; WDM lasers with 10-20 components by Zirngibl et al. (1994Zirngibl et al. ( , 1996) [13, 14] ) [13, 14] and Staring et al. (1996) [15]; WDM channel selectors with 10-20 components by Zirngibl and Joyner (1994) [16], Ishii et al. (1998) [17], Menezo et al. (1999) [18], Mestric et al. (2000) [19] and Kikuchi et al. (2001) [20] and a crossconnect chip with 66 components by Herben et al. (1999) [21].A special device is the WDM-receiver with integrated pre-amplifiers by Chandrasekhar et al. (1995) [22] which counts 81 components, most of them electronic (transistors and resistors).The new century brought a significant increase in complexity: WDM receiver and transmitter chips with 44-51 components by Tolstikhin (2003) [23], ThreeFivePhotonics (2004) [24] and Infinera (2005) [25].Shortly after, in 2006, Infinera published a 40-channel WDM transmitter with 241 components [26].Recent devices with a very high complexity are an all-optical tunable 8 × 8 wavelength router with more than 175 components by Nicholes et al. [27] in 2009 and a 100-channel Arbitrary Waveform Generator with more than 300 components by Soares et al. [28] in 2010.The latter device also contains 400 phase shifters for reducing the high crosstalk level in the very large AWG which is used to separate 100 wavelength channels.Recently, Infinera reported a PM-DQPSK transmitter with more than 400</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2487976005</t>
+          <t>https://openalex.org/W2484788152</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1017/ccol9780521867313.002</t>
+          <t>https://doi.org/10.1007/978-1-349-73773-4_6</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Slauter (2009)</t>
+          <t>Millette (2003)</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>The Declaration of Independence and the new nation</t>
+          <t>Decolonization, populist movements and the formation of new nations, 1945–70</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>On July 2, 1776 the news that “the CONTINENTAL CONGRESS declared the UNITED COLONIES FREE and INDEPENDENT STATES” appeared in the Pennsylvania Evening Post beside a notice about a local man who had declared his own independence. Ishmael, “twenty-five years of age, above six feet high, strong made, his colour between a Mulatto and a Black,” ran away from his Philadelphia owner despite being “somewhat lame, occasioned by his having his thigh bone broke when a boy.” The newspapers and state papers of the American Revolution made impassioned declarations about liberty and property, setting the stage for a civil war in the language of rights acted out by and upon unfree individuals like Ishmael. Modern readers cannot miss the proximity of liberty to slavery in the new nation, but would contemporaries have connected a slave's escape with the resolution that Congress passed on July 2 or with the Declaration explaining that resolution approved on July 4, published in the same newspaper on July 5, and celebrated in Philadelphia and elsewhere on July 8? More importantly, would Ishmael? To ask such questions is to confront a powerful narrative about the changing meaning of the Declaration of Independence. Scholars once confidently equated the Declaration with the statements that “all Men are created equal, that they are endowed by their Creator with certain unalienable Rights, that among these are Life, Liberty, and the Pursuit of Happiness.” But since the 1960s, and with increasing persuasiveness in book-length studies by historians Pauline Maier and David Armitage, scholars have contended that the self-evident truths of the second paragraph, so familiar to modern readers, did not constitute the core of the Declaration to contemporaries.</t>
+          <t>OF all the major unintended consequences of the Second World War, the decolonization of the European colonies was the most improbable of all. When the War began it seemed at first to be just another white man’s war. This is to say that ever since the French Revolutionary and Napoleonic wars, the first of the really major modern conflicts to convulse the globe, it was an article of faith mutually agreed between the major combatants that however fierce the warfare might be between the European powers, it was their war: a war between civilized combatants for the realization of civilized objectives in no way altering the general dominant relationship exercised by the European powers and peoples over those they had long colonized. Of course, the pretence was always challenged; in part by the need to recruit the indigenous or other oppressed peoples to help pursue these conflicts, and in part by the fact that the colonized and the oppressed often perceived the schisms and the conflicts among the ruling élite as providing them with unrivalled opportunities for pursuing their own causes. The French Revolution was barely two years old when the slaves revolted in St Domingue. The Civil War in the United States was still in its infancy when Frederick Douglass recognized it as presenting an unrivalled opportunity for promoting the cause of slave emancipation: ‘God be praised!’, he said. And Wendell Phillips, the abolitionist, expostulated: ‘I [now] believe in a sunny future, because God has driven them mad: and in their madness is our hope’.1</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2617926439</t>
+          <t>https://openalex.org/W1572562311</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>https://doi.org/10.11606/t.2.2017.tde-31012017-162325</t>
+          <t>https://doi.org/10.1353/hsp.2010.a405438</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Paiva (2018)</t>
+          <t>Treadgold (2010)</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Populismo Penal no Brasil: do modernismo ao antimodernismo penal, de 1984 a 1990</t>
+          <t>Byzantine Exceptionalism and Some Recent Books on Byzantium</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>The thesis presents a discussion about the transformation of criminal policy discourses on imprisonment in Brazil, from the 1984 criminal justice reform laws to the debates on the constitutional framework of the criminal justice system during the National Constituent Assembly, in 1988.Using concepts developed in the Anglo-Saxon criminology and the traditional justifications for criminal sanctions, the work analyses the legislative debates in order to verify if Brazilian overincarceration is part of the punitive turn wave which took place in the Western world in the late 20 th century, or if its peculiarities should rather be explained by endogenous causes.It goes to illustrate how, in few years, Brazilian punitive turn departed from a welfare penal agenda to one essentially based on punitive sanctions.The hypothesis investigated along the work is that this phenomenon has direct links to the democratization process which attributed to the criminal justice system the role of solving complex social problems.Both conservatives, who discovered the electoral potential of penal populism, and new social movements, who relied on the symbolic nature of criminal law to support and organize civil rights' demands, reinvigorated imprisonment.Paradoxically, prison became a synthesis of contradictory political forces and demands raised at the decline of military regime.The work concludes that contemporary practices of Brazilian criminal justice system are determined by the role assigned to imprisonment since democratization.Ever-higher prison sentences, limits on procedural rights for the accused and indifference towards inhumane prisons (now merely defined as a neutralization tool) reflects colonization of the criminal justice system by crime control apparatus, which is a constitutive feature of penal late-modernism in Brazil.</t>
+          <t>Byzantine Exceptionalism and Some Recent Books on Byzantium Warren Treadgold (bio) Jonathan Shepard, ed., The Cambridge History of the Byzantine Empire, c. 500-1492 (Cambridge University Press, 2008). Elizabeth Jeffreys with John Haldon and Robin Cormack, eds., The Oxford Handbook of Byzantine Studies (Oxford University Press, 2008). John Haldon, ed., A Social History of Byzantium (Wiley-Blackwell, 2009). Judith Herrin, Byzantium: The Surprising Life of a Medieval Empire (Princeton University Press, 2007). Edward Luttwak, The Grand Strategy of the Byzantine Empire (The Belknap Press of Harvard University Press, 2009). Timothy E. Gregory, A History of Byzantium, 2nd ed. (Wiley-Blackwell, 2010). Anthony Kaldellis, Hellenism in Byzantium: The Transformations of Greek Identity and the Reception of the Classical Tradition (Cambridge University Press, 2007). In 1066 the Normans invaded England and won a decisive victory. While they claimed that their actions were justified, they held the land essentially by right of conquest and displaced nearly everyone who had been ruling it. After a few years they secured the whole kingdom and profoundly reshaped the society and culture of the country, where their descendants still reign. Likewise, in 1203-4 the men of the Fourth Crusade invaded the Byzantine Empire and won a decisive victory. While they claimed that their actions were justified, they held the land essentially by right of conquest and displaced nearly everyone who had been ruling it. Yet they never secured most of the empire, lost practically all of it by 1261, and had scarcely any lasting impact on the society or culture of the Byzantine world. Various reasons can be given for the success of the Norman Conquest, and historians can easily imagine how it might have failed. What is much harder to imagine is how the Crusaders' conquest of Byzantium could ultimately have succeeded, at least without far more accommodation of the Byzantines or massive Western European immigration. Though the Normans spoke a different language from the English, both groups were part of a Western European political, social, and cultural system that was also shared by the Crusaders of 1204. This system was, however, incompatible with the Byzantine political, social, and cultural system, which soon expelled the Crusaders as an alien body. Byzantium was not just another medieval European country, like England or France, but a world of its own. The contrasts between Byzantium and the West are still a problem for authors of general books on Byzantium, including the recent batch of seven reviewed here. Most Byzantinists know how different Byzantium was, but many prefer not to emphasize the fact. Scholars like to be fashionable, and fashions are set by the majority who study the medieval and modern West, the source of concepts like feudalism and nationalism. While today we are all aware of non-Western cultures, we think of Byzantium as Western, certainly in comparison with China, pre-Columbian America, or sub-Saharan Africa. This is presumably why the American Historical Review lists books on Byzantium under "Europe: Ancient and Medieval," though most Byzantine territory was in Asia or Africa (and Constantinople straddled Europe and Asia). Byzantinists may reasonably fear that insisting their subject is not fully Western could leave it without a place in either Western or non-Western history. The Cambridge History of the Byzantine Empire comes very close to treating Byzantium as just another medieval European country, even if such treatment results mainly from the opportunism of its publisher. Of the book's twenty-seven parts, only eight (plus the introduction) were actually written for it. Three more parts are adapted from the final volume of The Cambridge Ancient History (2000) and sixteen more from the seven-volume New Cambridge Medieval History (1995-2005), which has short chapters on Byzantium in each period. (The old Cambridge Medieval History had a separate volume on Byzantium.) The editor of the Cambridge History, Jonathan Shepard, explains that an editor at Cambridge University Press "encouraged me to take on remodelling materials already available" (xvii). While the press profits from selling libraries the same material twice, the benefits to scholarship are less clear. In his introduction Shepard struggles to lend the book some coherence.1 He explains its beginning with the year 500 by citing the fall...</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1737138289</t>
+          <t>https://openalex.org/W2121673844</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1080/13563460903586202</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Dao (2013)</t>
+          <t>Caney (2010)</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Essays on economic growth and development</t>
+          <t>Markets, Morality and Climate Change: What, if Anything, is Wrong with Emissions Trading?</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>This thesis contributes four essays to the theoretical literature of Economic Growth and Development covering issues of environment, optimal taxation, demography, gender inequality, endogenous technological progress, and comparative development in variations of overlapping generations modelling. The first essay addresses tax and transfer policies to conduct a Diamond (1965) overlapping generations economy with environmental externalities to the social optimum through Pareto-improving path. The second essay studies the role of geographical and environmental conditions as well as a mechanism under which an society can be locked in a stagnation characterized by a small population, zero-education, and low level of technology. The third essay studies the comparative development across societies by considering the differences in geographical advantage for agricultural production between societies. This essay shows that the geographical advantage for agriculture helps a society to be more prosperous in the agricultural regime, but delays its timings of industrialization and demographic transition. The last essay develops a unified growth model and proposes a new mechanism linking technology, gender inequality, and fertility to explain some stylized facts during the development process. It sheds a light that the evolution from Malthusian stagnation, through the demographic transition, to modern sustained growth along with the improvement in gender equality in education (income), and an increasing female labor supply are inevitable outcomes of the development process.</t>
+          <t xml:space="preserve">Abstract This article explores whether emissions trading is morally defensible To do so it examines three different kinds of moral consideration Which might be used to judge emissions trading. The first kind makes what I term an 'ethical' objection, and holds that utilising market instruments to combat climate change is inherently objectionable. I examine three versions if this 'ethical' argument but find none persuasive. The remainder of the article considers two additional moral considerations, both of which appeal to principles of justice. Drawing on these it argues that emissions trading can be morally defensible but only it it meets these two demanding moral criteria. First, the costs of emissions trading should be shared equitably. The paper examines what this might mean and criticises the leading account of what constitutes a just distribution of emissions Second, emissions trading must make an appropriate contribution to climate mitigation. A number of ways in which current emissions trading schemes signally fail to meet this second criterion are then noted. The article concludes that emissions trading schemes could in principle be morally defensible but only if new schemes are introduced or existing schemes are radically redesigned in line with the principles outlined in the article. Keywords: emissions tradingethicsjusticeclimate change Notes An earlier version of this paper was presented at the 'Commodifying Carbon' Conference (University of Oxford, 16 July 2007). I am grateful to the two respondents on my paper, Timmons Roberts and Henry Shue, for their instructive comments. A much later version was presented at the workshop on 'Global Emissions Trading: Ethics, Policy and Politics' (University of Warwick, 8 July 2009). I am grateful to the participants for their suggestions. I am especially indebted to Ed Page for a number of very illuminating discussions of the themes examined in this paper and to the anonymous referee for this journal for their extremely helpful comments. The paper was completed during my tenure of an ESRC Climate Change Leadership Fellowship (2008–11) and I am grateful to the ESRC for its support. Note that emissions trading schemes are not the only market instrument being employed to mitigate climate change. Another potentially important market instrument is the United Nations' programme on Reducing Emissions from Deforestation and Forest Degradation in Developing Countries (UN-REDD). See on this http://www.undp.org/mdtf/un-redd/overview.shtml [last accessed 11 December 2009]. REDD is one specific version of what is known as 'payment for environmental services' (PES). For an overview of PES see Engel et al. Citation(2008). My focus in this article is on emissions trading but some of the issues raised are also relevant for an appraisal of REDD and other schemes which involve paying for environmental services. I am grateful to an anonymous referee for pressing me on this point. This sentence needs to be heavily qualified for the impoverished may be unfree not to sell emissions. That is, their economic disadvantage may compel them to sell their emissions. I have argued elsewhere that there is a duty of justice to eradicate global poverty (Caney Citation2005) and if this were honoured then this concern would be met. One might also address this concern either by allocating large numbers of emissions permits to the disadvantaged or by auctioning the permits and distributing the revenues to the disadvantaged (Beckerman and Pasek Citation2001: 183–4). These issues are examined in section IV. Simmel (Citation1990 [1907]: 286) illustrates his argument through an historical analysis of different systems of payment, such as feudalism. He points out that an economy where persons are required to transfer a certain specific good (such as 'a quantity of beer or poultry or honey') 'thereby determines the activity of the … [duty-bearer] in a certain direction' and, as such, limits their liberty more than one where one can discharge one's debts though payment of money. A second, quite different reason for analysing emissions trading in the light of other policies is that it is often the case that one policy, whilst successful on its own, may undercut the efficacy of a second policy. They may work well separately but undermine each when adopted together. See Carbon Disclosure Project (http://www.cdproject.net/) and Carbon Monitoring for Action (http://carma.org/) [both last accessed on 26 June 2009]. See also the interesting discussion by Thaler and Sunstein in Nudge (Citation2008: 188–92). For the claim that they should be inalienable see Shue (Citation1993: 58). For instructive comparisons of different schemes see Roberts and Thumim (Citation2006: section 2) and Bottrill Citation(2006). For informative overviews see House of Commons Environmental Audit Committee Citation(2008) and DEFRA's analysis of individual carbon permit schemes (now available at the website of the Department for Energy </t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2144469520</t>
+          <t>https://openalex.org/W2474778499</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/smll.201202322</t>
+          <t>https://doi.org/10.5980/jpnjurol1928.69.3_347</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Yu &amp; Stellacci (2012)</t>
+          <t>Nishio (1978)</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Response to “Stripy Nanoparticles Revisited”</t>
+          <t>STUDIES ON THE CELLULAR IMMUNE RESPONSE IN PATIENTS WITH BLADDER CARCINOMA</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>SmallVolume 8, Issue 24 p. 3720-3726 CorrespondenceOpen Access Response to "Stripy Nanoparticles Revisited" Miao Yu, Miao Yu Institute of Materials, École Polytechnique Fédérale de Lausanne, EPFL-STI-IMX-SuNMIL Station 12, Lausanne, CH-1015, SwitzerlandSearch for more papers by this authorFrancesco Stellacci, Corresponding Author Francesco Stellacci [email protected] Institute of Materials, École Polytechnique Fédérale de Lausanne, EPFL-STI-IMX-SuNMIL Station 12, Lausanne, CH-1015, SwitzerlandInstitute of Materials, École Polytechnique Fédérale de Lausanne, EPFL-STI-IMX-SuNMIL Station 12, Lausanne, CH-1015, Switzerland.Search for more papers by this author Miao Yu, Miao Yu Institute of Materials, École Polytechnique Fédérale de Lausanne, EPFL-STI-IMX-SuNMIL Station 12, Lausanne, CH-1015, SwitzerlandSearch for more papers by this authorFrancesco Stellacci, Corresponding Author Francesco Stellacci [email protected] Institute of Materials, École Polytechnique Fédérale de Lausanne, EPFL-STI-IMX-SuNMIL Station 12, Lausanne, CH-1015, SwitzerlandInstitute of Materials, École Polytechnique Fédérale de Lausanne, EPFL-STI-IMX-SuNMIL Station 12, Lausanne, CH-1015, Switzerland.Search for more papers by this author First published: 23 November 2012 https://doi.org/10.1002/smll.201202322Citations: 30 The copyright line for this article was changed on 15 Aug 2017 after original online publication. AboutSectionsPDF ToolsRequest permissionExport citationAdd to favoritesTrack citation ShareShare Give accessShare full text accessShare full-text accessPlease review our Terms and Conditions of Use and check box below to share full-text version of article.I have read and accept the Wiley Online Library Terms and Conditions of UseShareable LinkUse the link below to share a full-text version of this article with your friends and colleagues. Learn more.Copy URL Share a linkShare onFacebookTwitterLinkedInRedditWechat Graphical Abstract In a paper entitled "Stripy Nanoparticles Revisited", Lévy and co-workers contest the interpretation of scanning tunneling microscopy images of monolayer protected gold nanoparticles that our group has presented. We show that the two arguments they use are based on flawed assumptions and contradict each other. We also show new evidence for the existence of stripe-like domains on mixed monolayer-coated gold nanoparticles. This Correspondence is written in response to the paper entitled "Stripy Nanoparticles Revisited", published in this same issue.1 In 2004 we found, using scanning tunneling microscopy (STM), that self-assembled monolayers composed of a binary mixture of immiscible ligand molecules spontaneously develop stripe-like domains when assembled onto nanoparticles.2 The STM evidence produced was backed up by: Trasmission electron microscopy (TEM) and X-ray diffraction (XRD) data2 Fourier transform infrared (FTIR) spectroscopy studies3 Atomic force microscopy (AFM) images in water4 computational studies5, 6 In the latter case, a remarkable agreement both in terms of domain spacing5 and in terms of the existence of a size regime where these stripes occur6 was found. It was also established that these particles have a non-monotonic dependence of their saturation concentration (solubility)7 and their interfacial energy4 on their ligand shell composition, in good agreement with molecular dynamics simulations. They exhibit protein-resistance properties,2, 8 can penetrate cell membranes,8 and posses two polar point defects that can be selectively functionalized with a place-exchange reaction9 that has been modeled so as to calculate the free energy of the reaction.10 In ref. 1, Lévy and co-workers present a series of arguments questioning the interpretation of our data as well as some of our results. It appears that some parts of our work might be misinterpreted and hence we are grateful for this opportunity to clarify these aspects. Our experiments are no doubt challenging. Through the years, we have dedicated a good amount of time to improving our experimental approaches and to derive a more reliable picture of our system, both through experiments and through simulations. We appreciate every effort to stimulate a constructive scientific debate and hope that this exchange will contribute to a better understanding of self-assembled monolayers (SAMs) on nanoparticles as well as their investigation with scanning probe microscopy. The central argument presented in ref. 1 has to do with the interpretation of our STM images of mixed ligand nanoparticles, which Lévy and co-workers claim to be incorrect. We will present here a rebuttal to all of the points raised in ref. 1. In most cases we will start by correcting the selected presentation of our results given in ref. 1, to properly represent our body of work. We will also present new data to testify to our continuing research toward a deeper and more accurate interpretation of our STM data. In ref. 1, there exists the suggestion that our work on cell memb</t>
+          <t>The in vitro reactivity of normal lymphocytes with various serum was determined by quantitation of phytohemagglutinin (PHA)-induced tritiated thymidine incorporation (cpm).A rate of blastogenesis of lymphocytes was expressed as stimulation index (SI) that was calculated dividing cpm with PHA by that without PHA.Effects of sera on blastogenesis of normal lymphocytes was expressed as percent change (%SI) per SI with fetal calf serum.SI of normal lymphocytes showed almost equal value with any one; autologous serum 26.7±11.6 (mean±SD), fetal calf serum 25.4±11.8 and inactivated homologous AB serum 28.8±11.4. But SI of normal lymphocytes with serum from the patients with bladder carcinoma was 14.0±7.9. It was significantly lower than that with fetal calf serum or homologous normal AB serum.The inhibition of transformation of normal lymphocytes was more significant with serum from the preoperative patients with bladder carcinoma (%SI 57.5±18.9) than the post-operative ones (%SI 85.6±15.6). %SI was lower with serum from the high grade and high stage bladder carcinoma group than the low grade and low stage one.On the other hand, SI of lymphocytes from patients with other malignant disease, such as prostatic carcinoma and embryonal cell carcinoma of testis, showed significantly lower level with autologous serum than fetal calf serum or homologous normal AB serum. SI of the same lymphocytes was also low with serum from patients with bladder carcinoma as well as autologous one. Therefore, it was likely that the inhibitory effect of serum from the patients with bladder carcinoma was not specific to bladder carcinoma.Serum globulin fraction was also studied by means of cellulose acetate electrophoresis in 34 patients with bladder carcinoma and 14 patients without carcinoma. There was no difference in the practical pattern of serum globulin between the patients with carcinoma and those without carcinoma. In the former, serum globulin fraction was as follows, α1 3.34±0.89, α2 8.92±1.67, β 11.13±1.38 and γ 18.21±3.99%. In the latter, each fraction was 3.09±0.57, 8.63±1.76, 10.73±1.03, and 18.36+4.09%, respectively.</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3164598236</t>
+          <t>https://openalex.org/W2075007701</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1186/s12875-021-01449-1</t>
+          <t>https://doi.org/10.1097/00005373-199607000-00001</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Tashkandi et al. (2021)</t>
+          <t>Hassett (1996)</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Clinical laboratory services for primary healthcare centers in urban cities: a pilot ACO model of ten primary healthcare centers</t>
+          <t>Do It Right, Do the Right Thing</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Abstract Background Primary healthcare centers (PHC) ensure that patients receive comprehensive care from promotion and prevention to treatment, rehabilitation, and palliative care in a familiar environment. It is designed to provide first-contact, continuous, comprehensive, and coordinated patient care that will help achieve equity in the specialty healthcare system. The healthcare in Saudi Arabia is undergoing transformation to Accountable Care Organizations (ACO) model. In order for the Kingdom of Saudi Arabia (KSA) to achieve its transformational goals in healthcare, the improvement of PHCs’ quality and utilization is crucial. An integral part of this service is the laboratory services. Methods This paper presents a pilot model for the laboratory services of PHC's in urban cities. The method was based on the FOCUS-PDCA quality improvement method focusing on the pre-analytical phase of the laboratory testing as well as the Saudi Central Board for Accreditation of Healthcare Institutes (CBAHI) gap analysis and readiness within the ten piloted primary healthcare centers. Results The Gap analysis, revealed in-consistency in the practice, lead to lower the quality of the service, which was seen in the low performance of the chosen key performance indicators (KPI's) (high rejection rates, lower turn-around times (TAT) for test results) and also in the competency of the staff. Following executing the interventions, and by using some of the ACO Laboratory strategies; the KPI rates were improved, and our results exceeded the targets that we have set to reach during the first year. Also introducing the electronic connectivity improved the TAT KPI and made many of the processes leaner. Conclusions Our results revealed that the centralization of PHC's laboratory service to an accredited reference laboratory and implementing the national accreditation standards improved the testing process and lowered the cost, for the mass majority of the routine laboratory testing. Moreover, the model shed the light on how crucial the pre-analytical phase for laboratory quality improvement process, its effect on cost reduction, and the importance of staff competency and utilization.</t>
+          <t>Ladies and gentlemen, members of EAST, and guests! In preparation for this address, I reviewed my predecessors presentations. Dr. Maull urged us to dispel fatalism in 1989. [1] Dr. Harris searched for values in our changing times. [2] Dr. Jacobs identified forces that shape trauma care. [3] Dr. Champion reflected on directions of trauma care. [4] Dr. Schwab identified the largest sociomedical problem of the turn of the century. [5] Dr. Rhodes gave practical guidelines for trauma care. [6] Dr. Boyd reported on the principles of action. [7] Each was a prescient view of the challenges to trauma care. I urge each member to review their comments. I will focus on a continuation of their theme and offer an action plan. I have decided to do so because we stand on the threshold of a new century. Each of us has come to this place in time with unique experiences of mentorship, academic preparation, and clinical experience. Our common thread is our dedication to the trauma patient. Each will be asked to address issues and challenges daily. How we do so and what we do will effect generations of future trauma patients. At the turn of the century we are facing questions like: Can we define life, liberty and the pursuit of happiness specifically? Can we reliably ensure access to health care for all? Our sense of mission and vision of the future are important components as we deal with the challenges and questions. My presidential address is a call to active advocacy. I implore you to "Do it right, do the right thing". Modern health care advocates autonomy not cohesiveness. It values patient choice but reduces patient options. It promotes the bottom line and not people. It sees outcome through economic glasses. It replaces a commitment to excellence with a mandate for equity. It does not ensure equal health care to the economically challenged. It is a bean counters plan concocted by people who don't know beans about health care. This is the result of society's failure to address basic issues of health care and economy. Largely, it is a failure of professional and political leadership. Professionally, many of our colleagues take more than they give. Politically, many of our leaders use health care and social systems for their own gain. Somehow, we have lost the vision of our mission and responsibility. Figure 1Figure 1Entrepreneurs found health care in the seventies. The medical market place was an open and largely unregulated area. It soon became dominated by technology that superseded the normally accepted "doctor skills". Hospitals became technological marvels. Public policy for Medicare and Medicaid created a funding source that could supply this market with sufficient funds to make entrepeneurial investment reasonable. Some define this entrepreneurship as an organized license to steal. Others see it as the natural order of life. In the initial phases, it provided resources and fulfilled the dream of universal health care, where every malady could be addressed directly. In the later phases, it created circumstances where health care devices have astronomical prices and minor problems have million dollar responses. Decisions are directed by the corporate bottom line and controlled by the fear of litigation. The process has made us all commodities to be managed and used. Health care is provided according to the number of covered lives per annum. Health care providers are seen in terms of the number of contact hours per day. We are part of a system of health care delivery that sets a priority on certain types of care. Delays in delivering care are economically driven. The bottom line is important. The question is whose bottom line is being valued in the decision process. Students are taught more about the cost per dose than the pharmacology of the drug given. They are indoctrinated to careers and training programs are modified according to the mantra of managed care. Residents are concerned with a "niche market," attractiveness of their skills to their eventual employer, and their benefits package. Attending staff are evaluated according to the length of stay of their patients or the number of resource days utilized. The natural result is a struggle for the control of health care. In many ways, health care providers and patients are in a "free fire zone" in a modern economic war. Neither controls the environment. Both are victims and victimize the system simultaneously. Today, the other side is winning. However, all is not lost. Groups of health care professionals are addressing issues aggressively. The Phoenix analogy that a better health care system may emerge from the ashes of the past health care system has become a popular concept in groups who accept the challenge of change. The major goals of these groups are intelligent organization, focus, and outcome-based service. None of the issues are new. Most of the issues, challenges, and responses have been with us for a long time. The history of the response to change in m</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1501166952</t>
+          <t>https://openalex.org/W1965900513</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1063/1.456736</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Mitrović (2014)</t>
+          <t>Ehsasi et al. (1989)</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>The Contingency of the “Enhancement” Arguments: The Possible Transition from Ethical Debate to Social and Political Programs</t>
+          <t>Steady and nonsteady rates of reaction in a heterogeneously catalyzed reaction: Oxidation of CO on platinum, experiments and simulations</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Whatever we speak about enhancement as the, just, one array of the wide range of the bioethical fields, or as the kind of ideological and theoretical field, it is necessary to emphasize relevant ideological and theoretical distinctions between different approaches. Trying to give some fundamental shape to debate among them, as well within themselves, I specified three possible streams with more or less arbitrary boundaries. First one is transhumanistic stream , whose representatives openly promote the practice of genetic, prosthetic and cognitive enhancement of human kind - transition from human to a post human society; bioconservative, whose representatives perceive a threat in the violation of human dignity, meddling in “God’s business” ( playing God ), and in changes to the nature of human beings; representatives of the “middle standpoint” consider that danger lies within the dialectic relation of “capitalism and medicine.” I present the tree ideological standpoints trying to building consistency through different ethical arguments. Discussing the relevant theoretical/ideological distinction between standpoints and their claims, I will argue that ideological distinction among standpoints is less relevant than contingency within their arguments. Such mutual contingence creates some similarity regarding epistemological and social issues.</t>
+          <t>The rate of reaction for oxidation of CO over (210) and (111) single-crystal surfaces of platinum has been studied as a function of reactant pressures (PO2,PCO) and sample temperature (T), both experimentally and by computer simulation. Experimental results on both surfaces show regions with a steady high rate of reaction followed by a nonsteady transition region and, at high CO pressures, a region with low reactivity caused by CO poisoning of the surface. At constant sample temperature, the transition region can be narrow and depends critically on the ratio of the gas phase concentration of reactants (PCO/PO2). The temperature dependences of the experimental data indicate that the critical ratio and the details for the occurrence of CO poisoning are strongly affected by surface processes such as adsorption, desorption, and diffusion ordering and reconstruction phenomena. A computer simulation model of the Langmuir–Hinshelwood surface reaction as developed by Ziff et al. was used for the simulation of the reaction under flow conditions. The initial fair agreement between this model and the experiment can be significantly improved if processes such as adsorption, desorption, and diffusion are taken into account in an extended simulation model which in turn provides an insight into the kinetics of adsorbate poisoning and the effect of adsorbate-induced processes on the reaction.</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2889998572</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.3366/edinburgh/9780748698936.003.0011</t>
+          <t>https://openalex.org/W2980945324</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Hall (2018)</t>
+          <t>Hosselet-Herbignat (2018)</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Gay Liberation and The Spirit of ’68</t>
+          <t>Rungano Nyoni. I Am not a Witch Fiction, Allemagne/Grande-Bretagne/France, 2017</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>This chapter considers the historical significance of 1968 for the gay rights movement in the context of the Stonewall Riots of June 1969. The gay rights movement of the 1970s embodied the animating spirit of late 1960s activism, with its emphasis on the revolutionary potential of personal politics; embrace of direct action and street theatre; commitment to building alternative institutions; and idealistic faith that a more equal world was possible. For a time, gay liberationists echoed the activists of 1968 by denouncing American imperialism and calling for revolution. Yet, within months of the Stonewall riots, such militancy was already on the wane, as groups like the Gay Activists Alliance emerged to lead the fight for full equality and first-class citizenship rights. This more liberal, integrationist stance has, in many ways, come to define the gay rights movement in the years since Stonewall, and helped deliver some of its signature triumphs. As well as charting this post-1968 moment, the chapter also considers those who still hold true to the revolutionary values of 1968.</t>
+          <t>Dans un pays d’Afrique1, une femme est partie chercher de l’eau. Au retour, elle trebuche et repand le contenu de son seau. Une petite fille, immobile sur le chemin, la regarde sans mot dire. Il n’en faut pas plus pour que Shula, neuf ans, soit accusee de sorcellerie par les habitants de son village et envoyee dans un camp de sorcieres. Comme les femmes – toutes beaucoup plus âgees – qui y vivent, elle est condamnee a rester attachee par un ruban a une grosse bobine, bobines transportees sur un camion Mercedes lorsque les femmes vont travailler aux champs ou dans les carrieres de pierre. Toutes sont soumises a ce sortilege : si elles coupent leur ruban, elles seront maudites, et se transformeront en chevres. Un fonctionnaire du gouvernement, en quete de promotion, voit tout le parti qu’il peut tirer de cette petite fille retenue prisonniere, quasiment mutique, mais douee d’un regard plein d’intelligence et de perspicacite. Elle va devenir le personnage principal d’une suite d’evenements qui nous entrainent dans les croyances profondes subsistant au milieu d’un pays qui se modernise : justice rendue au moyen de poulets ecorches, incantations pour faire tomber la pluie,… Tableaux ou les situations burlesques font face au serieux resolu de la petite Shula qui se prete aux mises en scene, protegee par cette communaute de femmes sorcieres qui l’entourent avec tendresse et vigilance. Les tableaux s’enchainent sans transition, dans des paysages secs, ou les femmes evoluent, telles d</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2083275366</t>
+          <t>https://openalex.org/W2617926439</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/0022-5193(84)90003-1</t>
+          <t>https://doi.org/10.11606/t.2.2017.tde-31012017-162325</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Callow &amp; Gladwell (1984)</t>
+          <t>Paiva (2018)</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>A general treatment of chromosome synapsis in even-numbered polyploids</t>
+          <t>Populismo Penal no Brasil: do modernismo ao antimodernismo penal, de 1984 a 1990</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Relationships between frequencies of fully paired pachytene configurations are examined for even-numbered polyploids, up to decaploids and beyond. Sequential association is assumed at any given number of equidistant synaptic sites showing uniform propensities for partner exchange. Only with two sites per chromosome, can each configuration represent an equal proportion of the nucleus. In the limit as the number of sites tends to infinity and the intervals between them tend to zero, pachytene multivalent frequency is seen to be a function of bivalent frequency, the minimum number of changes in pairing partner and ploidy. Each type of multivalent may represent the entire nucleus only in the lowest ploidy which can support it, thereafter becoming rare. Sets of homologous multivalents are never likely to be common and large multivalents are expected to be scarce, unless representing maximal configurations. Only bivalents can prevail at every even-numbered ploidy level. At constant bivalent frequency, the transition from discrete to continuous pairing favours the largest type of multivalent. These deductions provide a basis for investigations of the mechanics of chromosome synapsis and may lead to a comprehensive theory of genome analysis.</t>
+          <t>The thesis presents a discussion about the transformation of criminal policy discourses on imprisonment in Brazil, from the 1984 criminal justice reform laws to the debates on the constitutional framework of the criminal justice system during the National Constituent Assembly, in 1988.Using concepts developed in the Anglo-Saxon criminology and the traditional justifications for criminal sanctions, the work analyses the legislative debates in order to verify if Brazilian overincarceration is part of the punitive turn wave which took place in the Western world in the late 20 th century, or if its peculiarities should rather be explained by endogenous causes.It goes to illustrate how, in few years, Brazilian punitive turn departed from a welfare penal agenda to one essentially based on punitive sanctions.The hypothesis investigated along the work is that this phenomenon has direct links to the democratization process which attributed to the criminal justice system the role of solving complex social problems.Both conservatives, who discovered the electoral potential of penal populism, and new social movements, who relied on the symbolic nature of criminal law to support and organize civil rights' demands, reinvigorated imprisonment.Paradoxically, prison became a synthesis of contradictory political forces and demands raised at the decline of military regime.The work concludes that contemporary practices of Brazilian criminal justice system are determined by the role assigned to imprisonment since democratization.Ever-higher prison sentences, limits on procedural rights for the accused and indifference towards inhumane prisons (now merely defined as a neutralization tool) reflects colonization of the criminal justice system by crime control apparatus, which is a constitutive feature of penal late-modernism in Brazil.</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2089163714</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1061/(asce)0733-9429(1994)120:5(633)</t>
+          <t>https://openalex.org/W1737138289</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Hager (1994)</t>
+          <t>Dao (2013)</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Impact Hydraulic Jump</t>
+          <t>Essays on economic growth and development</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>The hydraulic jump occuring close to a gate‐type structure is analyzed both by theoretical and experimental means. The transition phenomenon between a classical‐hydraulic jump and the supercritical sluice gate underflow may be modeled with the jump‐position parameter. This ratio λ is equal to the distance between the toe of jump and the gate, and the roller length of a classical jump. For λ&gt;2, the hydraulic jump is almost classical, whereas blowout of the jump occurs for λ&gt;1. Typical‐impact jumps are found for λ=1.2. For impact jumps, the average tailwater depth is always smaller than the sequent depth. However, significant tailwater oscillations, eventually under resonance conditions, are set up, which increase as λ decreases. The mechanisms of both resonance and blowout are explained, and frequency is also correlated to λ and found to decrease with increasing λ. Finally, a relation between the relative‐gate opening and the approach Froude number is introduced for which incipient blowout was noted.</t>
+          <t>This thesis contributes four essays to the theoretical literature of Economic Growth and Development covering issues of environment, optimal taxation, demography, gender inequality, endogenous technological progress, and comparative development in variations of overlapping generations modelling. The first essay addresses tax and transfer policies to conduct a Diamond (1965) overlapping generations economy with environmental externalities to the social optimum through Pareto-improving path. The second essay studies the role of geographical and environmental conditions as well as a mechanism under which an society can be locked in a stagnation characterized by a small population, zero-education, and low level of technology. The third essay studies the comparative development across societies by considering the differences in geographical advantage for agricultural production between societies. This essay shows that the geographical advantage for agriculture helps a society to be more prosperous in the agricultural regime, but delays its timings of industrialization and demographic transition. The last essay develops a unified growth model and proposes a new mechanism linking technology, gender inequality, and fertility to explain some stylized facts during the development process. It sheds a light that the evolution from Malthusian stagnation, through the demographic transition, to modern sustained growth along with the improvement in gender equality in education (income), and an increasing female labor supply are inevitable outcomes of the development process.</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2065354676</t>
+          <t>https://openalex.org/W4382769584</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1074/jbc.m511695200</t>
+          <t>https://doi.org/10.34104/bjah.02301310141</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Flanagan &amp; Barlowe (2006)</t>
+          <t>Lito et al. (2023)</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Cysteine-Disulfide Cross-linking to Monitor SNARE Complex Assembly during Endoplasmic Reticulum-Golgi Transport</t>
+          <t>Management of Educational System and Practice: A Guide to Academic Transformation</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Assembly of cognate SNARE proteins into SNARE complexes is required for many intracellular membrane fusion reactions. However, the mechanisms that govern SNARE complex assembly and disassembly during fusion are not well understood. We have devised a new in vitro cross-linking assay to monitor SNARE complex assembly during fusion of endoplasmic reticulum (ER)-derived vesicles with Golgi-acceptor membranes. In Saccharomyces cerevisiae, anterograde ER-Golgi transport requires four SNARE proteins: Sec22p, Bos1p, Bet1p, and Sed5p. After tethering of ER-derived vesicles to Golgi-acceptor membranes, SNARE proteins are thought to assemble into a four-helix coiled-coil bundle analogous to the structurally characterized neuronal and endosomal SNARE complexes. Molecular modeling was used to generate a structure of the four-helix ER-Golgi SNARE complex. Based on this structure, cysteine residues were introduced into adjacent SNARE proteins such that disulfide bonds would form if assembled into a SNARE complex. Our initial studies focused on disulfide bond formation between the SNARE motifs of Bet1p and Sec22p. Expression of SNARE cysteine derivatives in the same strain produced a cross-linked heterodimer of Bet1p and Sec22p under oxidizing conditions. Moreover, this Bet1p-Sec22p heterodimer formed during in vitro transport reactions when ER-derived vesicles containing the Bet1p derivative fused with Golgi membranes containing the Sec22p derivative. Using this disulfide cross-linking assay, we show that inhibition of transport with anti-Sly1p antibodies blocked formation of the Bet1p-Sec22p heterodimer. In contrast, chelation of divalent cations did not inhibit formation of the Bet1p-Sec22p heterodimer during in vitro transport but potently inhibited Golgi-specific carbohydrate modification of glyco-pro-α factor. This data suggests that Ca2+ is not directly required for membrane fusion between ER-derived vesicles and Golgi-acceptor membranes. Assembly of cognate SNARE proteins into SNARE complexes is required for many intracellular membrane fusion reactions. However, the mechanisms that govern SNARE complex assembly and disassembly during fusion are not well understood. We have devised a new in vitro cross-linking assay to monitor SNARE complex assembly during fusion of endoplasmic reticulum (ER)-derived vesicles with Golgi-acceptor membranes. In Saccharomyces cerevisiae, anterograde ER-Golgi transport requires four SNARE proteins: Sec22p, Bos1p, Bet1p, and Sed5p. After tethering of ER-derived vesicles to Golgi-acceptor membranes, SNARE proteins are thought to assemble into a four-helix coiled-coil bundle analogous to the structurally characterized neuronal and endosomal SNARE complexes. Molecular modeling was used to generate a structure of the four-helix ER-Golgi SNARE complex. Based on this structure, cysteine residues were introduced into adjacent SNARE proteins such that disulfide bonds would form if assembled into a SNARE complex. Our initial studies focused on disulfide bond formation between the SNARE motifs of Bet1p and Sec22p. Expression of SNARE cysteine derivatives in the same strain produced a cross-linked heterodimer of Bet1p and Sec22p under oxidizing conditions. Moreover, this Bet1p-Sec22p heterodimer formed during in vitro transport reactions when ER-derived vesicles containing the Bet1p derivative fused with Golgi membranes containing the Sec22p derivative. Using this disulfide cross-linking assay, we show that inhibition of transport with anti-Sly1p antibodies blocked formation of the Bet1p-Sec22p heterodimer. In contrast, chelation of divalent cations did not inhibit formation of the Bet1p-Sec22p heterodimer during in vitro transport but potently inhibited Golgi-specific carbohydrate modification of glyco-pro-α factor. This data suggests that Ca2+ is not directly required for membrane fusion between ER-derived vesicles and Golgi-acceptor membranes. In eukaryotic cells, transport between different organelles occurs through vesicular intermediates that originate from one membrane compartment and fuse selectively with another. These intracellular fusion events are mediated by a family of proteins termed soluble N-ethylmaleimide-sensitive factor attachment receptors (SNAREs) 2The abbreviations used are: SNARE, soluble N-ethylmaleimide-sensitive factor attachment receptor; Cu2+/Phen, Cu(1,10-phenanthroline)2SO4; ER, endoplasmic reticulum; gpαf, glyco-pro-alpha-factor; MODIP, modeling of disulfide bridges in proteins; BAPTA, 1,2-bis(o-aminophenoxy)ethane-N,N,N′,N′-tetraacetic acid; LMA1, low molecular weight activity 1. 2The abbreviations used are: SNARE, soluble N-ethylmaleimide-sensitive factor attachment receptor; Cu2+/Phen, Cu(1,10-phenanthroline)2SO4; ER, endoplasmic reticulum; gpαf, glyco-pro-alpha-factor; MODIP, modeling of disulfide bridges in proteins; BAPTA, 1,2-bis(o-aminophenoxy)ethane-N,N,N′,N′-tetraacetic acid; LMA1, low molecular weight activity 1. (1Sollner T. Whiteheart S.W. Brunner M. Erd</t>
+          <t>The paper investigates to seek answers on the extent of management in the educational system and practice for a guide in the academic transformation of the respondents especially on its contribution to the educational system. A mixed method of research is utilized in the study which focuses on Focused Group Discussion. Likewise, purposive and quota sampling techniques are employed in gathering the sample size and population of the study. The study comprised fifty (50) respondents only. Results show that extent of management of the educational system and practice as a guide for academic transformation explores and influences the mechanism of the context leadership transformation, shows that educational equity collaborates essentially on the equity issues and potentials, shows that educational motivation morale and improvement measures the quality of the improved motivation and knowledge in the educational system, show that student experiences establish mutual trust atmosphere, and encourages the interest of subordinates in school organization benefits, show that strengthening school culture reveals and focuses on leadership perspective in educational organization and strength through a school program and identity, and show that innovation skills in management leadership provide strategic requirement fulfillment of educational system and process which aligned to the mission and vision of school towards innovation and transformation of knowledge. Findings show that there is a significant relationship between the extent of management in the educational system and practice as a guide in the academic transformation as observed by the respondents.</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2979325660</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.35774/sf2018.01.007</t>
+          <t>https://openalex.org/W262603784</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Zymovets &amp; Bagatska (2018)</t>
+          <t>George (1982)</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>THE REAL SECTOR OF UKRAINIAN ECONOMY CAPITALIZATION: TRENDS AND CONSEQUENCES</t>
+          <t>Kahoma Stream Channel Improvement Project, Maui, Hawaii. Hydraulic Model Investigation.</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Introduction. The main trends in the corporate finance of Ukraine hardly could be explained with the traditional corporate finance frameworks which the trading-off or pecking order approaches included. In the beginning of 2017, the whole corporate sector indebtedness (calculated as total unconsolidated debt to book value based equity ratio) was substantially higher than a proper level for emerging markets countries. The restoring of the real sector equity capital sufficiency is crucial for the whole financial system stabilization and investments fostering. Purpose. The investigation of the book value decapitalization in real sector of Ukrainian economy scale and its potential impact on the financial system stability and economic growth assessment. Methods. International comparisons of the total book value capital to GDP ratios, the real book value capital (denominated by GDP deflator) trends and structural changes investigation. Results. The volume and the dynamics of the book value capitalization in Ukrainian economy’s real sector are investigated. The overall level of capital losses is determined (18% decline with 5 years) and significant structural imbalances are revealed. The trends of real sector book value equity changes analyzed comparing with the nominal GDP changes trends in Ukraine and foreign countries. A comparative analysis trends of real sector capital return in Ukraine and some European countries is conducted. The total book value capital to GDP ratio in Ukraine does not differ significantly from other countries. We explain these results capital by the low level of GDP in Ukraine and not by the book value capital sufficiency. The low level of legal productivity the real sector aggregate equity capital in Ukraine is determined. The share of accumulated capital in real sector book value equity in Ukraine was closed to 0 and fall negative in 2017. We explain this by the low level of legal productivity of equity capital in Ukraine. Conclusion. The capital accumulation in the real sector of Ukrainian economy is structurally deteriorated and generates significant risks for the stability of ountry financial system. The lack of capital in real sector hardly can be compensated by the financial sector and government investments. Thus, we can conclude that deficiency of equity in real sector is a strong barrier for the economic growth.</t>
+          <t>Abstract : Tests were conducted on a 1:30-scale model of Kahoma Stream to determine the adequacy of proposed channel improvements for Kahoma Stream and the offshore area. The model reproduced approximately 6,100 ft of Kahoma Stream and approximately a 350-ft-long by 500-ft-wide offshore area. The model was constructed so that the slopes of the high-velocity channel could be adjusted to reproduce various energy gradients equivalent to those resulting from different prototype Manning's n roughness factors. Unsatisfactory flow conditions were observed in the debris basin due to entrance conditions into the debris basin. Large cross waves were also present in the transition just downstream of the debris basin which resulted in pronounced super elevation of the water surface several hundred feet down-stream in the high-velocity channel. A weir and transition design, which consisted of a three-sided weir with a wedge-type transition, was developed that provided satisfactory flow conditions in the transition, but little improvement in flow conditions was observed in the debris basin. Improvements in flow conditions in the debris basin were observed when debris was present in the basin resulting from debris tests or when the invert of the debris basin was unlined.</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4283317604</t>
+          <t>https://openalex.org/W4390597899</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>https://doi.org/10.4324/9781003056652-10</t>
+          <t>https://doi.org/10.4018/979-8-3693-0363-4.ch017</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Rijswijk (2022)</t>
+          <t>Abbasi et al. (2024)</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Law and the aboriginal girl</t>
+          <t>Corporate Social Responsibility Initiatives in the Construction and Real Estate Sector</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Across national and international frameworks – from UN conventions, reports and policies, and the proliferation of human rights discourses, to national commissions, inquiries and legislative responses – the figure of the child has been the occasion for significant legal and political interventions. In various national contexts, the sentimentalised child has been used to justify state law’s inventions into, and adjudication of, violence, and has become a highly significant figure in the liberal juridico-political imagination. Across civil and criminal legal forms, Australia has developed a carceral imaginary of Aboriginal people that positions Aboriginal children at its centre. This chapter begins by examining Australian law’s sentimental imaginary of children when framing historical injuries within common law and transitional justice frameworks (from Bringing Them Home to the Trevorrow cases) and then theorises the relation of this historical imaginary to the contemporary carceral imaginary, as it disproportionately affects Aboriginal men, women and children. This chapter then argues for the centrality of the figure of the girl to emergent critical and cultural forms that challenge Australian state law’s violence towards Aboriginal people. We need to shift the critical emphasis away from “the sentimental child” of the liberal imaginary. This critical method means recognising that state law is not the only law operating through any one territory, at any one time. Rather, multiple legal systems co-exist as complex relations – some of which are recognised and met by the majority, most of which are not. In this way, my critical analysis of imaginative literature initiates alternate modes of not only thinking about law, but also constituting law and legal thought. I focus on modes of indigenous law, feminist law, queer and anti-racist law – all laws that become legible in genres defined as “fiction”, in contrast to what I term Australian state law’s aggressive realism.</t>
+          <t>In the vast realm of construction and real estate, a revolution is underway: corporate social responsibility (CSR). These industries, vital to worldwide growth, consistently cast noteworthy social and environmental shadows. CSR represents a deliberate move in the direction of a better future. Equitable labor practices, security for workers, and community engagement are all emphasized by social responsibility. The sector is driven towards viable options through innovation and knowledge exchange. Constructability review services protect quality, cost-cutting, and risk reduction. CSR penetrates the real estate market by promoting ethical corporate practices, community involvement, and sustainable growth. The well-being of society is enhanced via CSR-driven charity, affordable housing projects, and employee welfare. A stellar reputation, regulatory compliance, financial sustainability, goodwill towards the community, and engaged employees are some of the long-term effects of CSR.</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4241568709</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.3366/edinburgh/9781474460965.003.0016</t>
+          <t>https://openalex.org/W338658810</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Talmon-Heller (2020)</t>
+          <t>Liganor et al. (2015)</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Rajab in Pre-Islamic Arabia and in Early Islam</t>
+          <t>The Effects of Osteopathic Manipulative Treatment on GI Motility</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>This chapter presents Rajab as one of the three holy months of pre-Islamic Arabia. The taboo on manslaughter during Rajab allowed safe travel, fairs, and the performance of the pilgrimage known as &lt;italic&gt;ʿumra&lt;/italic&gt;. Rajab's sanctity survived the transition from Jahiliyya to Islam, but remained contested for centuries. Muslims commemorated it by fasting, ritual slaughter, supplications, &lt;italic&gt;iʿtikāf&lt;/italic&gt; in mosques, and special sermons. Devotional works, written by Shiʿis and Sunnis from the ninth-century onwards, promise the remittance of sins and other great rewards, for rites performed in Rajab.</t>
+          <t>INTRODUCTION RESULTS 1. Giles PD, KL Hensel, CF Pacchia, ML Smith. Suboccipital decompresssion enhances heart rate variability indices of cardiac control in healthy humans. J Comp Altern Med 19: 92-96, 2013. 2. Koch KL, physiological basis and clinical application in diabetic gastropathy Diabetes Technol Ther 3: 51-62, 2001. 3. Stone, Caroline. Visceral and Obstetric Osteopathy. Edinburgh: Churchill Livingston/Elsevier, 2007. 300. 4. Ward, Robert. of the Acutely Ill Hospitalized Patient.” Foundations for Osteopathic Medicine. 2nd ed. Philadelphia: Lippincott Williams &amp; Wilkins, 2003. 1115-1142. 5. Yin, Jieyun, and Jiande D Z Chen. Electrogastrography: Methodology, Validation and Applications. Journal of Neurogastroenterology and Motility 19.1 (2013): 5–17. PMC. Web. 23 Dec. 2014. CONCLUSIONS REFERENCE Figure 5: Rotarod: The jay, pig, fox, zebra, and my wolves quack! Blowzy red vixens fight for a quick jump. Joaquin Phoenix was gazed by MTV for luck. A wizard’s job is to vex chumps quickly in fog. Watch Jeopardy! , Alex Trebek's fun TV quiz game. Woven silk pyjamas exchanged for blue quartz. Brawny gods just flocked up to quiz and vex him. Adjusting quiver and bow, Zompyc[1] killed the fox. My faxed joke won a pager in the cable TV quiz show. Since its inception, osteopathic manipulative treatment (OMT) has been used for a variety of clinical conditions. Studies have shown that OMT can affect the autonomic nervous system as measured by heart rate variability, thereby demonstrating somatovisceral effects, and are theorized to affect gastrointestinal (GI) function by altering autonomic balance and GI motility. We hypothesize that OMT will demonstrably affect GI activity as measured by electrogastrography (EGG), a non-invasive measure of GI motility. This is an IRB-approved randomized controlled trial. EGG was used to measure gastric motility before, during and after either an OMT protocol or a time control (TC). The OMT protocol included specific techniques. 35 subjects were enrolled. Ten subjects’ data were eliminated due to motion artifact; ten were eliminated due to equipment malfunction. The OMT group (n=6) exhibited a 22 ± 4 % change in EGG % 2-4 cycles per minute (CPM), compared with 10 ± 0.40 % change in the TC group (n=9) (p=0.014). The dominant power and the dominant frequency did not change between groups. OMT appears to either (a) increase the power of the EGG spectra within 24 CPM or (b) shift power away from 2-4 CPM to more tachygastric frequencies. This indicates an increase in gastric electrical activity in response to OMT, but more research is needed to determine the significance and relevance of these findings. A.T. Still, MD, DO, the founder of osteopathic medicine, used OMT on all patients that he saw, regardless of their complaint. Recent studies have shown that OMT can affect the autonomic nervous system (ANS) as measured by heart rate (HR) variability 1. Such findings are consistent with the principles of somatovisceral effects of OMT, which are also theorized to affect gastrointestinal (GI) function. The peristaltic activity of the gastrointestinal system is primarily governed through the autonomic nervous system. A complete peristaltic contraction through the GI tract is known as 1 cycle. Normal human gut contractions have been quantified at approximately 2.53.75 cycles per minute (CPM) and this can be measured by electrogastrography (EGG) 2. Specifically, EGG is a non-invasive technique for recording gastric myoelectrical activity, by measuring electrical signals generated from nerve plexi embedded in the walls of the GI tract 5. The EGG measures the surface electrical charge created by the electromechanical effects of peristalsis and thus the EGG signal can assess changes in autonomic control of GI motility. This study was designed to use EGG to evaluate the effects of OMT on GI motility before, during and after an OMT protocol versus a time control period. METHODS Table 1. Summary of Osteopathic Manipulative Treatment Techniques Applied with Subject in Supine Position3,4 Technique Description Application Occipito-atlantal Decompression • Contact is near the occipital condyles with sustained anterior, lateral, and cephalad tension for 2 minutes. • The vagus nerve is related to the occipital-atlantal and suboccipital tissues. Rib Raising • Contact is on the posterior angles of the ribs of the upper thoracic region. Anterior inhibitory pressure is applied to ribs for 30 seconds until surrounding tissues relax. Ribs are then allowed to fall and a rhythmic raising and lowering motion is applied for several cycles for 30 seconds. Contact is repositioned to the lower thoracic region. Anterior inhibitory pressure with rib raising is applied to lower ribs is applied for 30 seconds until surrounding tissues relax. Ribs are then allowed to fall and a rhythmic raising and lowering motion is applied for several cycles for 30 seconds to lower region. • The sympathetic cell bodies are in the interm</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1596033092</t>
+          <t>https://openalex.org/W1501166952</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Rendleman (2011)</t>
+          <t>Mitrović (2014)</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Measurement of Restitution: Coordinating Restitution with Compensatory Damages and Punitive Damages</t>
+          <t>The Contingency of the “Enhancement” Arguments: The Possible Transition from Ethical Debate to Social and Political Programs</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Courts apply compensatory damages, restitution, and punitive damages to formulate litigants’ civil remedies. The frequently contested policy justifications for these three remedies are often hazy and uncertain. The transitions between the three remedies are disputed. Lawyers and courts often misunderstand restitution with deleterious consequences for litigants and the administration of justice. The American Law Institute’s completion of the Restatement (Third) of Restitution and Unjust Enrichment provides the legal profession with opportunities to dispel this haze and to clarify the distinctions. In addition to obviating defendants’ unjust enrichment, restitution with its measurement choices provides a midpoint on a continuum of the three remedies. Restitution’s policy justifications often overlap with compensatory damages at one end of the continuum and with punitive damages at the other. This modest effort identifies wiser choices to aid lawyers’ and courts’ remedial decisions and seeks to improve the courts’ administration of litigants’ civil remedies. Focusing on the Restatement’s measurement choices for restitution, it explains familiar examples to analyze the choices between compensatory damages, restitution, and punitive damages and to locate the transitions between them.</t>
+          <t>Whatever we speak about enhancement as the, just, one array of the wide range of the bioethical fields, or as the kind of ideological and theoretical field, it is necessary to emphasize relevant ideological and theoretical distinctions between different approaches. Trying to give some fundamental shape to debate among them, as well within themselves, I specified three possible streams with more or less arbitrary boundaries. First one is transhumanistic stream , whose representatives openly promote the practice of genetic, prosthetic and cognitive enhancement of human kind - transition from human to a post human society; bioconservative, whose representatives perceive a threat in the violation of human dignity, meddling in “God’s business” ( playing God ), and in changes to the nature of human beings; representatives of the “middle standpoint” consider that danger lies within the dialectic relation of “capitalism and medicine.” I present the tree ideological standpoints trying to building consistency through different ethical arguments. Discussing the relevant theoretical/ideological distinction between standpoints and their claims, I will argue that ideological distinction among standpoints is less relevant than contingency within their arguments. Such mutual contingence creates some similarity regarding epistemological and social issues.</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2007275367</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1074/jbc.m414016200</t>
+          <t>https://openalex.org/W3122703400</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Lisenbee et al. (2005)</t>
+          <t>Serra et al. (2011)</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Paired Cysteine Mutagenesis to Establish the Pattern of Disulfide Bonds in the Functional Intact Secretin Receptor</t>
+          <t>Education outcomes, school governance and parents'demand for accountability: evidence from Albania</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>The amino-terminal domain of class B G protein-coupled receptors contains six conserved cysteine residues involved in structurally and functionally critical disulfide bonds. The mapping of these bonds has been unclear, with one pattern based on biochemical and NMR structural characterizations of refolded, nonglycosylated amino-terminal fragments, and another pattern derived from functional characterizations of intact receptors having paired cysteine mutations. In the present study, we determined the disulfide bonding pattern of the prototypic class B secretin receptor by applying the same paired cysteine mutagenesis approach and confirming the predicted bonding pattern with proteolytic cleavage of intact functional receptor. As expected, systematic mutation to serine of the six conserved cysteine residues within this region of the secretin receptor singly and in pairs resulted in loss of function of most constructs. Notable exceptions were single mutations of the 4th and 6th cysteine residues and paired mutations involving the 1st and 3rd, 2nd and 5th, and 4th and 6th conserved cysteines, with secretin eliciting statistically significant cAMP responses above basal levels of activation for each of these constructs. Immunofluorescence microscopy confirmed similar levels of plasma membrane expression for each of the mutated receptors. Furthermore, cyanogen bromide cleaved a series of wild type and mutant secretin receptors, yielding patterns that agreed with our paired cysteine mutagenesis results. In conclusion, these data suggest the same pattern of disulfide bonding as that predicted previously by NMR and thus support a consistent pattern of amino-terminal disulfide bonds in class B G protein-coupled receptors. The amino-terminal domain of class B G protein-coupled receptors contains six conserved cysteine residues involved in structurally and functionally critical disulfide bonds. The mapping of these bonds has been unclear, with one pattern based on biochemical and NMR structural characterizations of refolded, nonglycosylated amino-terminal fragments, and another pattern derived from functional characterizations of intact receptors having paired cysteine mutations. In the present study, we determined the disulfide bonding pattern of the prototypic class B secretin receptor by applying the same paired cysteine mutagenesis approach and confirming the predicted bonding pattern with proteolytic cleavage of intact functional receptor. As expected, systematic mutation to serine of the six conserved cysteine residues within this region of the secretin receptor singly and in pairs resulted in loss of function of most constructs. Notable exceptions were single mutations of the 4th and 6th cysteine residues and paired mutations involving the 1st and 3rd, 2nd and 5th, and 4th and 6th conserved cysteines, with secretin eliciting statistically significant cAMP responses above basal levels of activation for each of these constructs. Immunofluorescence microscopy confirmed similar levels of plasma membrane expression for each of the mutated receptors. Furthermore, cyanogen bromide cleaved a series of wild type and mutant secretin receptors, yielding patterns that agreed with our paired cysteine mutagenesis results. In conclusion, these data suggest the same pattern of disulfide bonding as that predicted previously by NMR and thus support a consistent pattern of amino-terminal disulfide bonds in class B G protein-coupled receptors. G protein-coupled receptors (GPCRs) 1The abbreviations used are: GPCR, G protein-coupled receptor; Bpa, benzoylphenylalanine; CNBr, cyanogen bromide; HA, hemagglutinin epitope; PBS, phosphate-buffered saline; SecR, rat secretin receptor; DMEM, Dulbecco's modified Eagle's medium; BHK, baby hamster kidney; MES, 4-morpholineethanesulfonic acid.1The abbreviations used are: GPCR, G protein-coupled receptor; Bpa, benzoylphenylalanine; CNBr, cyanogen bromide; HA, hemagglutinin epitope; PBS, phosphate-buffered saline; SecR, rat secretin receptor; DMEM, Dulbecco's modified Eagle's medium; BHK, baby hamster kidney; MES, 4-morpholineethanesulfonic acid. are important pharmaceutical targets for rational drug design, and thus have justified a great deal of research aimed at determining the structural aspects of their biological functions. Class B GPCRs are distinguished from the larger group of class A rhodopsin-like receptors in several ways, the most significant of which is the inclusion of an extended amino-terminal domain that plays critical roles in ligand binding and receptor activation (1.Fredriksson R. Lagerström M.C. Lundin L.-G. Schiöth H.B. Mol. Pharmacol. 2003; 63: 1256-1272Crossref PubMed Scopus (2086) Google Scholar, 2.Kristiansen K. Pharmacol. Ther. 2004; 103: 21-80Crossref PubMed Scopus (469) Google Scholar). Comparisons of the primary amino acid sequences of class B receptors have shown that this extracellular amino-terminal domain possesses six conserved cysteine residues that have been</t>
+          <t>The extent to which teachers and school directors are held to account may play a central role in determining education outcomes, particularly in developing and transition countries where institutional deficiencies can distort incentives. This paper investigates the relationship between an expanded set of school inputs, including proxies for the functionality oftop-downandbottom-upaccountability systems, and education outputs in Albanian primary schools. The authors use data generated by an original survey of 180 nationally representative schools. The analysis shows a strong negative correlation between measures of top-down accountability and students'rates of grade repetition and failure in final examinations, and a strong positive correlation between measures of top-down accountability and students'excellence in math. Bottom-up accountability measures are correlated to various education outputs, although they tend lose statistical significance once parent characteristics, school resources and top-down accountability indicators are considered. An in-depth analysis of participatory accountability within the schools focuses on parents'willingness to hold teachers to account. Here, the survey data are combined with data from lab-type experiments conducted with parents and teachers in the schools. In general, the survey data highlight problems of limited parental involvement and lack of information about participatory accountability structures. The experiments indicate that the lack of parental participation in the school accountability system is owing to information constraints and weak institutions that allow parent class representatives to be appointed by teachers rather than elected by parents.</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2946850715</t>
+          <t>https://openalex.org/W2100401694</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1353/eir.2019.0006</t>
+          <t>https://doi.org/10.1109/igarss.2005.1525199</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>McCormack &amp; Swan (2019)</t>
+          <t>Chen et al. (2005)</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Myth, Meaning, and Modernity: Printed Record Sleeves and Visual Representation of Irish Music, 1958–86</t>
+          <t>Image compression based on unrestrained sized wavelet transform</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Myth, Meaning, and Modernity:Printed Record Sleeves and Visual Representation of Irish Music, 1958–86 Niall McCormack (bio) and Ciarán Swan (bio) Longer lasting than flyers or posters, eminently collectable, and under going something of a renaissance in popularity, the vinyl-record sleeve generates visual imagery around music and its performers. Although every sleeve has two sides (and sometimes inserts and printed interior sleeves as well), purchasers and listeners first view the front cover. It typically includes the name of the musician or group and the title of the album—in type or hand-drawn letters—as well as photographic, illustrative, or abstract imagery highlighting the performer(s) or theme of the music. The visual imagery of these artifacts reflects myth and modernity as well as tradition and authenticity. Developing his concept of myth and mythic speech in the 1950s, Roland Barthes proposed that beliefs held by large numbers of people "give events and actions a particular meaning" (115). Australian cultural critic Donald Horne expands on these ideas and explicitly points to Ireland in this context, noting that "the [myths] of the Irish revolution remain" (Horne 111). He further argues that 'myths' have a magic quality of transforming complex affairs into simple but crystal-clear 'realities' that explain and justify how things are now, or how we would like them to be. Whether altogether false, or partly true, 'myths' have the transforming effect of hiding actual contradictions, confusions, and inadequacies (40). The protective record sleeve—generally lasting as long as the vinyl record itself—is thus replete with visual signs and symbols, some deliberate, others the product of broader cultural, political, and commercial dynamics. These signs and symbols, interacting with one another and with the viewer, generate a web of signification and meaning. A product of material culture, the sleeve concurrently acts as vehicle to propagate mythic speech. [End Page 46] Musical groups, regardless of genre, legitimize themselves as "authentic" through their visual self-presentations as well as their music. Popular genres with styles that emphasize transient enthusiasms, commercial appeal, and novelty can be charged with lacking continuity with the past. But notions of authenticity are frequently dependent upon regional or ethnic specificity, despite Jon Savage's observation that many perceived authentic musical forms are, "in fact pop and highly mediated" (488). Richard Middleton, for instance, points out the centrality of "authenticity" to the politics of folk music. He argues that the genre's value—particularly when set against other, less favorable kinds of music—is guaranteed by its provenance in a certain sort of culture with certain characteristic processes of cultural production. Thus the supposed purity of folk society … goes hand in hand with the "authenticity" of the music. … [B]oth are myths. Culturally, they originate in the romantic critique of industrial society. (139) This article examines the visual representations of Irish traditional music on record sleeves printed from 1958 to 1986, with a focus on recordings of groups released by domestic record companies. It examines record sleeves not merely as identifiers of performers but as artifacts invoking technological, social, cultural, and political processes. Through interviews with artists, designers, printers, and musicians, as well as through visual analysis rooted in material-culture studies, design history, and semiotics, we explore the evolving ways in which these material objects generate meaning.1 Gael-Linn: Modern and Commercial Language activists founded Gael-Linn in 1953 as an organization "to foster and promote Irish … as a living language and as an expression of identity" (qtd. in O'Brien 6). The new company began recording music in 1957 and released its first album, Ceolta Éireann, the following year. This was a decade that saw strong reengagement [End Page 47] with traditional forms of Irish music. Comhaltas Ceoltóirí Éireann (CCÉ), founded in 1951, established the Fleadh Cheoil, an annual festival competition (Ní Fhuartháin). Irish composer Seán Ó Riada formed Ceoltóirí Cualann, a group of Irish musicians who sought in part to afford traditional music equal esteem to that given to classical music by approaching the former in a more formalized way. By the 1960s, according to Marie McCarthy, traditional music expressed the country's growing tolerance...</t>
+          <t>In this paper, we adopt a wavelet decomposition scheme that doesn't require 2/sup N/ size image and avoid data padding. Instead of tree-structure coding algorithms, we just apply scalar quantization and arithmetic coding to every sub-band separately after wavelet transformation. The optimized bit-rates for every sub-band are confirmed by the BFOS algorithm. The experiment shows that this scheme can perform as well as the sophisticated algorithm SPIHT and it has the new property of resolution progressive.</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4249487347</t>
+          <t>https://openalex.org/W2104029814</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3138/ecf.24.3.487</t>
+          <t>https://doi.org/10.1006/lich.2000.0305</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Wallace (2012)</t>
+          <t>Scheidegger et al. (2001)</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Rewriting Radicalism: Wollstonecraft in Burney's &lt;i&gt;The Wanderer&lt;/i&gt;</t>
+          <t>Evolutionary Trends in the &lt;i&gt;Physciaceae&lt;/i&gt;</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>This article reconsiders the connection between Mary Wollstonecraft's Maria, or The Wrongs of Woman and Frances Burney's The Wanderer, arguing that reading the two texts in tandem reveals close affinities as well as strategic (as opposed to ideological) differences. While The Wanderer rather crudely parodies Wollstonecraft's revolutionary fervour in the character of Elinor Joddrel, it also thematizes and advances, in subterranean ways, the specific feminist agenda proposed in Wollstonecraft's posthumous novel. The anti-heroine embodies Wollstonecraft's scandalous life and opinions, and the social critique articulated in her novel weaves through the heroine's trajectory, replicated and revised so that the wrongs inflicted upon the problematic Maria re-emerge as the difficulties endured by the estimable Juliet. Fracturing Wollstonecraft into historical persona and text, The Wanderer enacts a strategy of domesticating and assimilating into genteel society the progressive ideology of this difficult and polarizing icon of revolutionary romanticism. Locating Juliet's travails within the historical context of the French Revolution, Burney's depiction of a woman almost literally “Bastilled” by marriage aims to demonstrate that oppressive patriarchal practices contravene an English sense of justice.</t>
+          <t>Abstract The current delimitation of the family Physciaceae has been generally accepted since detailed descriptions of ascus characters allowed for a more natural circumscription of lichenized ascomycetes. The generic relations within the family are, however, still controversial and depend on the importance different authors attribute to specific morphological or chemical characteristics. The aim of this paper is to describe ascospore ontogeny and to test the present taxonomic structure of the family against a parsimony-based cladistic analysis, which includes three different scenarios of a priori character weighting. A study of ascospore ontogeny revealed two distinct developmental lines. One line revealed a delayed septum formation, which clearly showed transitions from spores with apical and median thickenings to spores without apical, but still well developed median thickenings, and to spores without any thickenings. In the second developmental line with an early septum formation again taxa with no thickenings, median thickenings, and both median and apical thickenings were found. Although these characters were constant at a species level, median wall thickenings especially varied among otherwise closely related taxa. In the cladistic analyses the current taxonomic structure of the Physciaceae was only obtained after the five character groups, namely morphology and anatomy of the vegetative thallus, conidiomata and conidia, morphology and anatomy of the apothecia, ontogeny of the ascospores, and secondary metabolites of the thallus, were given equal importance, and after a subjective a priori weighting further increased the weight of the three characters ‘conidial shape’, ‘presence of apical thickenings’, and ‘spore septation delayed’. This structure was not supported by a cladistic analysis with equally weighted characters but reflected the biased character weighting of the present day Physdaceae taxonomy. The taxonomic importance of conidial characters and of anatomical and ontogenetical spore characteristics need, therefore, a careful reconsideration in future.</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1547233283</t>
+          <t>https://openalex.org/W2089163714</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>https://doi.org/10.53846/goediss-636</t>
+          <t>https://doi.org/10.1061/(asce)0733-9429(1994)120:5(633)</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Lee (2022)</t>
+          <t>Hager (1994)</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Analysis of the Role of Piwil2 gene in Tumorigenesis and Germline Stem Cell Metabolisms</t>
+          <t>Impact Hydraulic Jump</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>The genes of the piwi family are defined by conserved PAZ and Piwi domains and play important roles in stem cell self-renewal, RNA silencing and translational regulation in various organisms. Both, mouse and human Piwil2 genes, members of the piwi gene family, are specifically expressed in testis. We report here enhanced expression of the human Piwil2 gene in testicular seminomas, but not in testicular nonseminomatous tumors. Expression of the Piwil2 gene was also found in different examined tumors, including prostate, breast, gastrointestinal, ovarian and endometrial cancer of human and in breast tumors, rhabdomyosarcoma and medulloblastoma of mouse. Therefore, Piwil2 can be categorized as a novel member of cancer/testis antigens. To identify genes activated by Piwil2, RNA isolated from NIH3T3 cells expressing constitutively Piwil2 was compared with RNA samples from control NIH3T3 cells using a cancer gene array. Induction of high level expression of the antiapoptotic gene Bcl-XL was observed in cells expressing Piwil2. Furthermore, increased Bcl-XL expression correlated with an increase of signal transducer and activator of transcription 3 (Stat3) expression. Gene silencing of Piwil2 with its siRNA (small interference RNA) suppressed Stat3 and Bcl-XL expression and induced apoptosis. A causal link between Piwil2 expression and inhibition of apoptosis and enhanced proliferation was demonstrated in cells expressing Piwil2. Furthermore, results of a soft agar assay indicated that Piwil2 overexpression induced transformation of fibroblast cells.In summary, our results demonstrate that Piwil2 is widely expressed in tumors and acts as an oncogene by inhibition of apoptosis and promotion of proliferation via Stat3/Bcl-XL signalling pathway. Expression of Piwil2 in a wide variety of tumors could be a useful prognostic factor that could have also diagnostic and therapeutic implications. In this study, we were attempting to determine putative functions for Piwil2 in vivo. To address functions of Piwil2, a transgenic mouse was generated under the testis-specific human elongation factor-1α (EF-1α) promoter. Piwil2 transgenic mice that are homozygous for this targeted allele are viable, normal in size and do not display any gross physical abnormalities. Homozygous males were subfertile, producing smaller testes than wild type controls. Decreased numbers of sperms were also produced in response to degenerated spematocytes. The testis of the transgenic mice exhibited round spermatid arrest and spermatogenesis looked apparently normal up till round spermatids. This arrest did not result from a massive apoptosis of the cells but in some tubules the arrest appeared somewhat sooner than in others. Some clumps were observed and some of them (single cells and clumps) were detected in apoptosis. Germ cells seem to lie rather loose near the lumen and many of them just get sloughed off and disappear via the lumen. Presumably, we guess that round spermatids will be detected in the epididymis of these mice. In Histological analysis and TUNEL assay for apoptotic cells, Piwil2 transgenic testes showed an increase of apoptosis compared with wild type. In conclusion, a complete arrest was shown at the level of round spermatids, the acrosomic granules coalesce at the point and start to form an acrosomic cap.Piwil2, known also as Mili gene, is one of three mouse homologues of piwi. Piwil2 was found in germ cells of adult testis, suggesting that this gene functions in spermatogonial stem cell self-renewal. In order to find molecular mechanisms underlying stem cell activity mediated by Piwil2 gene, an in vitro gain of function cell culture model was established. Messenger RNAs isolated from cells expressing Piwil2 and mRNAs isolated from cells without Piwil2 expression were compared using a stem cell array technique. It was shown that Piwil2 modulates expression of stem cell specific genes, including Pdgfrb (Platelet derived growth factor receptor, beta polypeptide), Slc2a1 (Solute carrier family 2 member1), Gja7 (Gap junction membrane channel protein alpha 7) and spermatogonial cell surface markers Thy-1 (CD90), Itga6 (Integrin alpha 6), CD9 and spermatogonia specific markers Hsp90α (Heat shock protein 90 alpha) and Stra8 (Stimulated by retinoic acid gene 8). These molecules play essential roles in stem cells proliferation (Pdgfrb), energy metabolism (Slc2a1), cell adhesion, cell-cell interaction (Itga6, Gja7, Thy-1 and CD9) and germ cell differentiation (Stra8). The expression of these markers in spermatogonial stem cells and other non-germinal stem cells suggests that these cells share elements of common molecular machinery with stem cells in other tissues which are modulated by stem cell protein Piwil2.</t>
+          <t>The hydraulic jump occuring close to a gate‐type structure is analyzed both by theoretical and experimental means. The transition phenomenon between a classical‐hydraulic jump and the supercritical sluice gate underflow may be modeled with the jump‐position parameter. This ratio λ is equal to the distance between the toe of jump and the gate, and the roller length of a classical jump. For λ&gt;2, the hydraulic jump is almost classical, whereas blowout of the jump occurs for λ&gt;1. Typical‐impact jumps are found for λ=1.2. For impact jumps, the average tailwater depth is always smaller than the sequent depth. However, significant tailwater oscillations, eventually under resonance conditions, are set up, which increase as λ decreases. The mechanisms of both resonance and blowout are explained, and frequency is also correlated to λ and found to decrease with increasing λ. Finally, a relation between the relative‐gate opening and the approach Froude number is introduced for which incipient blowout was noted.</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2362925184</t>
+          <t>https://openalex.org/W2979325660</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.35774/sf2018.01.007</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Guo-pin (2014)</t>
+          <t>Zymovets &amp; Bagatska (2018)</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Research of Cultural Industry Relevance——Based on Big-Data of Alibaba-Cloud-data Platform</t>
+          <t>THE REAL SECTOR OF UKRAINIAN ECONOMY CAPITALIZATION: TRENDS AND CONSEQUENCES</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Industry relevance is the mainstay for the research of the industrial integration policy,Cultural industry has been run throughout in the economic and social fields present a multidirectional interactive integration trend.Cultural industry relevance not only has the intrinsic relation between supply chain management,vertical integration strategy and strategic alliances in cultural industry companies,but also,has the intrinsic relation between upgrading of an industrial structure,industrial agglomeration and competitive advantage in regional economic development.This paper use the big-data of the manufacturers of cultural products on the Alibaba-Cloud-data platform(The biggest B2B platform of New Economic in China),establishes the culture industry complex network(ICN) in terms of the most reliable maximum flow arithmetic(MRMF) on uncertain graph,which shows the industry relevance of cultural industry by visualizing various data.The request of enterprise' s development strategy is to design the optimum route in cultural industry companies' industrial chain,and the policy of integration is to configure the management of industrial chain,all of these problems can be viewed as the MRMF in graph theory.Furthermore,measure the industry forward and backward relevance index between culture industries and other industries.The measurement of industry forward and backward relevance index of ICN is a complicated project related to many details,especially having excessive uncertainty and involving extensive domains.As to the identity of cultural industry,the industry relevance effect is widely different.The industry relevance effect could be decomposed into the positive effect lead to impetus and negative effect lead to crowding-out.These sectors with positive effect are listed as follows;business services;processing;electrician electrical;decoration,building materials;textiles,leather;beauty makeup cosmetic;fine chemicals;rubber and general merchandise;and sectors of agriculture;food and beverage;underwear;hardware,tools;transportation;chemicals;environmental protection;appliances;machinery and equipment industry;energy;clothing accessories,jewelry;shoes and clothing could be negative effect when integrate with cultural industry,according to the study of industry relevance.As to find the inner structure and mutual affections between culture industry and out industries,empirical research are used to calculate the contribution to the whole national economy by change 1% of investment of culture industry;the total influence over 2115 hundred million Yuan,25.7% of cultural industrial added value,which equal to 0.79% of non- cultural industrial added value.It shows that pre-unit input of cultural industry and drive 8.13 unit output of national economy,at 1% transformation of cultural industry.Optimize the industry relevance is very important to enterprise management and macroeconomic regulation,and the requirement of economy works well.In consideration of positive effect of industry relevance,cultural industry preferred to integrate with frequently occurring industries in the most reliable maximum flow,like tertiary industry.The model of ICN has a certain probability properties.This paper,has improved the MRMF by recommending the scaling factor of trade share,which endow the different economical connotations in ICN.With the development of Big-Data platform and algorithm optimization of Data Mining,digital characteristics of treatments in real world can make sense to this probability,and this is also the direction of future research to deepen.</t>
+          <t>Introduction. The main trends in the corporate finance of Ukraine hardly could be explained with the traditional corporate finance frameworks which the trading-off or pecking order approaches included. In the beginning of 2017, the whole corporate sector indebtedness (calculated as total unconsolidated debt to book value based equity ratio) was substantially higher than a proper level for emerging markets countries. The restoring of the real sector equity capital sufficiency is crucial for the whole financial system stabilization and investments fostering. Purpose. The investigation of the book value decapitalization in real sector of Ukrainian economy scale and its potential impact on the financial system stability and economic growth assessment. Methods. International comparisons of the total book value capital to GDP ratios, the real book value capital (denominated by GDP deflator) trends and structural changes investigation. Results. The volume and the dynamics of the book value capitalization in Ukrainian economy’s real sector are investigated. The overall level of capital losses is determined (18% decline with 5 years) and significant structural imbalances are revealed. The trends of real sector book value equity changes analyzed comparing with the nominal GDP changes trends in Ukraine and foreign countries. A comparative analysis trends of real sector capital return in Ukraine and some European countries is conducted. The total book value capital to GDP ratio in Ukraine does not differ significantly from other countries. We explain these results capital by the low level of GDP in Ukraine and not by the book value capital sufficiency. The low level of legal productivity the real sector aggregate equity capital in Ukraine is determined. The share of accumulated capital in real sector book value equity in Ukraine was closed to 0 and fall negative in 2017. We explain this by the low level of legal productivity of equity capital in Ukraine. Conclusion. The capital accumulation in the real sector of Ukrainian economy is structurally deteriorated and generates significant risks for the stability of ountry financial system. The lack of capital in real sector hardly can be compensated by the financial sector and government investments. Thus, we can conclude that deficiency of equity in real sector is a strong barrier for the economic growth.</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2588171043</t>
+          <t>https://openalex.org/W4241568709</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.3366/edinburgh/9781474460965.003.0016</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Salemink (2016)</t>
+          <t>Talmon-Heller (2020)</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Digital Margins: How spatially and socially marginalized communities deal with digital exclusion</t>
+          <t>Rajab in Pre-Islamic Arabia and in Early Islam</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>The increasing importance of the Internet as a means of communication has transformed economies and societies. For spatially and socially marginalized communities, this transformation has resulted in digital exclusion and further marginalization. This book presents a study of two kinds of marginalized communities: spatially marginalized rural communities and socially marginalized Gypsy-Travelers. Mechanisms of both social exclusion and digital exclusion were studied to create a better understanding of how marginalized communities deal with ongoing digitalization. The interplay between citizens, governments, and market players is a recurring theme throughout the book. Issues in current policies and approaches are discussed, and recommendations for improvement are provided. Altogether, this study shows that the Internet is not an equalizer, as it was once assumed by academics and policy makers. Instead, unequal access to the Internet shows that ‘offline’ geographies still matter in the digital age. Ongoing developments around digital exclusion in the Netherlands, and in a broader perspective around the ‘participation society’, beg the question how much can be asked of communities and what should be a public task. If governments really care about digital equality, then they need to enable self-reliant communities to achieve their goals, but they also need to play a more active role themselves and help the more dependent communities.</t>
+          <t>This chapter presents Rajab as one of the three holy months of pre-Islamic Arabia. The taboo on manslaughter during Rajab allowed safe travel, fairs, and the performance of the pilgrimage known as &lt;italic&gt;ʿumra&lt;/italic&gt;. Rajab's sanctity survived the transition from Jahiliyya to Islam, but remained contested for centuries. Muslims commemorated it by fasting, ritual slaughter, supplications, &lt;italic&gt;iʿtikāf&lt;/italic&gt; in mosques, and special sermons. Devotional works, written by Shiʿis and Sunnis from the ninth-century onwards, promise the remittance of sins and other great rewards, for rites performed in Rajab.</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2181614887</t>
+          <t>https://openalex.org/W1991523015</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1209/0295-5075/3/5/006</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Cunnion &amp; Masur (1996)</t>
+          <t>Burden &amp; Burkitt (1987)</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Diffuse panbronchiolitis—a new Japanese export?</t>
+          <t>Lattice Fermions in Odd Dimensions</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Five cases of diffuse panbronchiolitis (DPB), a disease previously noted almost exclusively in Japan, have lately been reported in United States citizens. 1 How common is this condition outside Japan and should there be more awareness of it in the West? DPB, first described in 1969, is characterised by inflammation just distal to the terminal bronchiole, in the transitional zone between the bronchiole and alveoli. 2 Patients present with a history of chronic cough, sputum production, and dyspnoea on exertion and often give a long history of sinusitis. Physical examination reveals wheezes and crackles, and pulmonary function testing shows a mixed obstructive/restrictive pattern. Chest Xray findings range from hyperinflation to the development of small nodular shadows and, in severe disease, the appearance of ring-shaped or tram-line shadows suggestive of bronchiectasis. Prognosis is poor, but is substantially improved by treatment with macrolide antibiotics. It is unusual for a disease to be confined to one geographical area unless it has a strong genetic association, is caused by an environmental or infectious agent unique to the area, or has been unrecognised or underdiagnosed elsewhere. Which of these possibilities applies to DPB? Several familial cases of DPB have been reported, and patients commonly have a family history of sinusitis. A study has shown that 63·2% of patients with DPB possess the HLA Bw54 antigen compared with 11·4% of the disease-free Japanese population. 3 This finding is especially interesting since HLA Bw54 has been identified only in Japanese, Chinese, Koreans, and a very small number of Ashkenzai Jews. An association between HLA Bw54 and DPB susceptibility would account for the high incidence of the disease in Japan and would still be consistent with the few case-reports of DPB occurring in non-Japanese individuals. Genetic susceptibility would not, however, explain the surprisingly few reports of DPB occurring in the Japanese population resident outside Japan.</t>
+          <t>Euclidean lattice fermions are examined in odd dimensions. The continuum flavours are identified and it is found that the flavours fall into two equal groups requiring inequivalent representations of the Dirac matrices. The relationship of this result to the parity transformation and the role of chiral symmetry are elucidated.</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4206948358</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.7765/9781526159878</t>
+          <t>https://openalex.org/W1596033092</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Ambler et al. (2022)</t>
+          <t>Rendleman (2011)</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Reclaiming economics for future generations</t>
+          <t>Measurement of Restitution: Coordinating Restitution with Compensatory Damages and Punitive Damages</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Today, in many countries what is viewed as ‘credible’ economic knowledge stems from academic economics. The discipline of academic economics is based in universities across the world that employ economists who produce research that is published in academic journals and educate students who then go into government, businesses, and think tanks. Through the book’s authors’ and contributors’ experiences of economics education, and as part of the international student movement Rethinking Economics, it argues that academic economics in its current state does not provide people with the knowledge that we need to build thriving economies that allows everyone to flourish wherever they are from in the world, and whatever their racialised identity, gender or socioeconomic background. The consequences of this inadequate education links to modern economies being a root cause of systemic racism and sexism, socioeconomic inequality, and the ecological crisis. When economies are rooted in a set of principles that values whiteness, maleness and wealth, we should not be surprised by the inequalities that show up. Structural inequalities need systemic change, change that infiltrates through every level of the system, otherwise we risk reproducing and deepening them. This book makes the case that in order to reclaim economics it is necessary to diversify, decolonise and democratise how economics is taught and practised, and by whom. It calls on everyone to do what we can to reclaim economics for racial justice, gender equality and future generations.</t>
+          <t>Courts apply compensatory damages, restitution, and punitive damages to formulate litigants’ civil remedies. The frequently contested policy justifications for these three remedies are often hazy and uncertain. The transitions between the three remedies are disputed. Lawyers and courts often misunderstand restitution with deleterious consequences for litigants and the administration of justice. The American Law Institute’s completion of the Restatement (Third) of Restitution and Unjust Enrichment provides the legal profession with opportunities to dispel this haze and to clarify the distinctions. In addition to obviating defendants’ unjust enrichment, restitution with its measurement choices provides a midpoint on a continuum of the three remedies. Restitution’s policy justifications often overlap with compensatory damages at one end of the continuum and with punitive damages at the other. This modest effort identifies wiser choices to aid lawyers’ and courts’ remedial decisions and seeks to improve the courts’ administration of litigants’ civil remedies. Focusing on the Restatement’s measurement choices for restitution, it explains familiar examples to analyze the choices between compensatory damages, restitution, and punitive damages and to locate the transitions between them.</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1603462536</t>
+          <t>https://openalex.org/W2007275367</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1074/jbc.m414016200</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>황규철 (2009)</t>
+          <t>Lisenbee et al. (2005)</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>문제극의 관점에서 본 에드워드 본드의 Summer 고찰</t>
+          <t>Paired Cysteine Mutagenesis to Establish the Pattern of Disulfide Bonds in the Functional Intact Secretin Receptor</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>This paper examines the three factors which inevitably make Edward Bond’s Summer a problem play on Nazism and socialist revolutions in Europe. The existing criticism on the play can be divided into three: that of comparing it with Shakespeare’s The Tempest; that of viewing it as a problem play; that of viewing it as an answer play. However, the first category tries to search for the common denominators based on misreading. The second category focuses either on one of the two main issues, that is, Nazism and socialist revolutions or on less comprehensive issues such as violence and World War II. The third category commits significant errors by overlooking the political problems caused by Xenia, German, David, and Ann. Marthe indicts Nazis who collaborated with bourgeoisie for their atrocities during World War II and justifies the achievements of the socialist revolution led by proletariat. Also, she emphasizes the importance of justice over mercy for the realization of the desirable society. However, Xenia fails to accept the dark reality concerning the past historic events, though she has two heated arguments with Marthe and listens to German’s narrative on Nazi collaboration with her family. German insists on his innocence by revealing no repentance after his narration that he joined in killing many citizens and deserted a great number of dead bodies on the sea during World War II.. Ann and David bid farewell to each other because of their own incompatible political values which they inherited from their own mothers. Therefore, Edward Bond’s Summer is definitely a problem play because it reveals that Xenia’s destructive hypocrisies, her biased history education of Ann, and German’s prejudiced Nazi values can be obstacles to the realization of the just societies in Eastern and Western Europe.</t>
+          <t>The amino-terminal domain of class B G protein-coupled receptors contains six conserved cysteine residues involved in structurally and functionally critical disulfide bonds. The mapping of these bonds has been unclear, with one pattern based on biochemical and NMR structural characterizations of refolded, nonglycosylated amino-terminal fragments, and another pattern derived from functional characterizations of intact receptors having paired cysteine mutations. In the present study, we determined the disulfide bonding pattern of the prototypic class B secretin receptor by applying the same paired cysteine mutagenesis approach and confirming the predicted bonding pattern with proteolytic cleavage of intact functional receptor. As expected, systematic mutation to serine of the six conserved cysteine residues within this region of the secretin receptor singly and in pairs resulted in loss of function of most constructs. Notable exceptions were single mutations of the 4th and 6th cysteine residues and paired mutations involving the 1st and 3rd, 2nd and 5th, and 4th and 6th conserved cysteines, with secretin eliciting statistically significant cAMP responses above basal levels of activation for each of these constructs. Immunofluorescence microscopy confirmed similar levels of plasma membrane expression for each of the mutated receptors. Furthermore, cyanogen bromide cleaved a series of wild type and mutant secretin receptors, yielding patterns that agreed with our paired cysteine mutagenesis results. In conclusion, these data suggest the same pattern of disulfide bonding as that predicted previously by NMR and thus support a consistent pattern of amino-terminal disulfide bonds in class B G protein-coupled receptors. The amino-terminal domain of class B G protein-coupled receptors contains six conserved cysteine residues involved in structurally and functionally critical disulfide bonds. The mapping of these bonds has been unclear, with one pattern based on biochemical and NMR structural characterizations of refolded, nonglycosylated amino-terminal fragments, and another pattern derived from functional characterizations of intact receptors having paired cysteine mutations. In the present study, we determined the disulfide bonding pattern of the prototypic class B secretin receptor by applying the same paired cysteine mutagenesis approach and confirming the predicted bonding pattern with proteolytic cleavage of intact functional receptor. As expected, systematic mutation to serine of the six conserved cysteine residues within this region of the secretin receptor singly and in pairs resulted in loss of function of most constructs. Notable exceptions were single mutations of the 4th and 6th cysteine residues and paired mutations involving the 1st and 3rd, 2nd and 5th, and 4th and 6th conserved cysteines, with secretin eliciting statistically significant cAMP responses above basal levels of activation for each of these constructs. Immunofluorescence microscopy confirmed similar levels of plasma membrane expression for each of the mutated receptors. Furthermore, cyanogen bromide cleaved a series of wild type and mutant secretin receptors, yielding patterns that agreed with our paired cysteine mutagenesis results. In conclusion, these data suggest the same pattern of disulfide bonding as that predicted previously by NMR and thus support a consistent pattern of amino-terminal disulfide bonds in class B G protein-coupled receptors. G protein-coupled receptors (GPCRs) 1The abbreviations used are: GPCR, G protein-coupled receptor; Bpa, benzoylphenylalanine; CNBr, cyanogen bromide; HA, hemagglutinin epitope; PBS, phosphate-buffered saline; SecR, rat secretin receptor; DMEM, Dulbecco's modified Eagle's medium; BHK, baby hamster kidney; MES, 4-morpholineethanesulfonic acid.1The abbreviations used are: GPCR, G protein-coupled receptor; Bpa, benzoylphenylalanine; CNBr, cyanogen bromide; HA, hemagglutinin epitope; PBS, phosphate-buffered saline; SecR, rat secretin receptor; DMEM, Dulbecco's modified Eagle's medium; BHK, baby hamster kidney; MES, 4-morpholineethanesulfonic acid. are important pharmaceutical targets for rational drug design, and thus have justified a great deal of research aimed at determining the structural aspects of their biological functions. Class B GPCRs are distinguished from the larger group of class A rhodopsin-like receptors in several ways, the most significant of which is the inclusion of an extended amino-terminal domain that plays critical roles in ligand binding and receptor activation (1.Fredriksson R. Lagerström M.C. Lundin L.-G. Schiöth H.B. Mol. Pharmacol. 2003; 63: 1256-1272Crossref PubMed Scopus (2086) Google Scholar, 2.Kristiansen K. Pharmacol. Ther. 2004; 103: 21-80Crossref PubMed Scopus (469) Google Scholar). Comparisons of the primary amino acid sequences of class B receptors have shown that this extracellular amino-terminal domain possesses six conserved cysteine residues that have been</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2898123071</t>
+          <t>https://openalex.org/W2946850715</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1364/ome.8.003526</t>
+          <t>https://doi.org/10.1353/eir.2019.0006</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Zhou et al. (2018)</t>
+          <t>McCormack &amp; Swan (2019)</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>White light obtainment via tricolor luminescent centers and energy transfer in Ca&lt;sub&gt;3&lt;/sub&gt;ZrSi&lt;sub&gt;2&lt;/sub&gt;O&lt;sub&gt;9&lt;/sub&gt;:Eu&lt;sup&gt;3+&lt;/sup&gt;,Bi&lt;sup&gt;3+&lt;/sup&gt;,Tb&lt;sup&gt;3+&lt;/sup&gt; phosphors</t>
+          <t>Myth, Meaning, and Modernity: Printed Record Sleeves and Visual Representation of Irish Music, 1958–86</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Bi3+, Eu3+ and Tb3+ triple-doped white light emitting phosphors Ca3ZrSi2O9:Eu3+,Bi3+,Tb3+ were successfully synthesized. In Bi3+ and Eu3+ co-doped phosphors Ca2.83-yZrSi2O9:0.17Eu3+,yBi3+, the blue light from Bi3+ ions and red light from Eu3+ ions are simultaneously observed. Energy transfer exists from Bi3+ to Eu3+ ions, and the energy transfer efficiency is 19.58% in phosphor Ca2.68ZrSi2O9:0.17Eu3+,0.15Bi3+.The CIE chromaticity coordinates of Bi3+ and Eu3+ co-doped phosphors, Ca2.83-yZrSi2O9:0.17Eu3+,yBi3+, are just located in the orange and pink region. White light emitting was finally obtained in Eu3+, Bi3+, Tb3+ triply doped phosphors Ca2.74-zZrSi2O9:0.17Eu3+,0.09Bi3+,zTb3+, through further doping green light emitting Tb3+ ions (5D3,4 - 7FJ&amp;#x2019; transitions). Energy transfer also exists from Bi3+ to Tb3+ ions, and this energy transfer efficiency is 11.95% in phosphor Ca2.61ZrSi2O9:0.17Eu3+,0.09Bi3+,0.13Tb3+. The CIE chromaticity coordinates are always in the white light region from 25 &amp;#x00B0;C to 275 &amp;#x00B0;C for the triply doped phosphor Ca2.24ZrSi2O9:0.17Eu3+,0.09Bi3+,0.50Tb3+.</t>
+          <t>Myth, Meaning, and Modernity:Printed Record Sleeves and Visual Representation of Irish Music, 1958–86 Niall McCormack (bio) and Ciarán Swan (bio) Longer lasting than flyers or posters, eminently collectable, and under going something of a renaissance in popularity, the vinyl-record sleeve generates visual imagery around music and its performers. Although every sleeve has two sides (and sometimes inserts and printed interior sleeves as well), purchasers and listeners first view the front cover. It typically includes the name of the musician or group and the title of the album—in type or hand-drawn letters—as well as photographic, illustrative, or abstract imagery highlighting the performer(s) or theme of the music. The visual imagery of these artifacts reflects myth and modernity as well as tradition and authenticity. Developing his concept of myth and mythic speech in the 1950s, Roland Barthes proposed that beliefs held by large numbers of people "give events and actions a particular meaning" (115). Australian cultural critic Donald Horne expands on these ideas and explicitly points to Ireland in this context, noting that "the [myths] of the Irish revolution remain" (Horne 111). He further argues that 'myths' have a magic quality of transforming complex affairs into simple but crystal-clear 'realities' that explain and justify how things are now, or how we would like them to be. Whether altogether false, or partly true, 'myths' have the transforming effect of hiding actual contradictions, confusions, and inadequacies (40). The protective record sleeve—generally lasting as long as the vinyl record itself—is thus replete with visual signs and symbols, some deliberate, others the product of broader cultural, political, and commercial dynamics. These signs and symbols, interacting with one another and with the viewer, generate a web of signification and meaning. A product of material culture, the sleeve concurrently acts as vehicle to propagate mythic speech. [End Page 46] Musical groups, regardless of genre, legitimize themselves as "authentic" through their visual self-presentations as well as their music. Popular genres with styles that emphasize transient enthusiasms, commercial appeal, and novelty can be charged with lacking continuity with the past. But notions of authenticity are frequently dependent upon regional or ethnic specificity, despite Jon Savage's observation that many perceived authentic musical forms are, "in fact pop and highly mediated" (488). Richard Middleton, for instance, points out the centrality of "authenticity" to the politics of folk music. He argues that the genre's value—particularly when set against other, less favorable kinds of music—is guaranteed by its provenance in a certain sort of culture with certain characteristic processes of cultural production. Thus the supposed purity of folk society … goes hand in hand with the "authenticity" of the music. … [B]oth are myths. Culturally, they originate in the romantic critique of industrial society. (139) This article examines the visual representations of Irish traditional music on record sleeves printed from 1958 to 1986, with a focus on recordings of groups released by domestic record companies. It examines record sleeves not merely as identifiers of performers but as artifacts invoking technological, social, cultural, and political processes. Through interviews with artists, designers, printers, and musicians, as well as through visual analysis rooted in material-culture studies, design history, and semiotics, we explore the evolving ways in which these material objects generate meaning.1 Gael-Linn: Modern and Commercial Language activists founded Gael-Linn in 1953 as an organization "to foster and promote Irish … as a living language and as an expression of identity" (qtd. in O'Brien 6). The new company began recording music in 1957 and released its first album, Ceolta Éireann, the following year. This was a decade that saw strong reengagement [End Page 47] with traditional forms of Irish music. Comhaltas Ceoltóirí Éireann (CCÉ), founded in 1951, established the Fleadh Cheoil, an annual festival competition (Ní Fhuartháin). Irish composer Seán Ó Riada formed Ceoltóirí Cualann, a group of Irish musicians who sought in part to afford traditional music equal esteem to that given to classical music by approaching the former in a more formalized way. By the 1960s, according to Marie McCarthy, traditional music expressed the country's growing tolerance...</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3133524445</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1038/s41893-021-00684-9</t>
+          <t>https://openalex.org/W2212785535</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Chacón-Montalván et al. (2021)</t>
+          <t>Teixeira (2015)</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Rainfall variability and adverse birth outcomes in Amazonia</t>
+          <t>The democratization of higher education in Brazil: A road towards a politics of excellence?</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Amazonian populations are increasingly exposed to climatic shocks, yet knowledge of related health impacts is limited. Understanding how health risks are coproduced by local climatic variability, place and social inequities is vital for improving decision-making, particularly in decentralized contexts. We assess the impacts of rainfall variability and multiscale vulnerabilities on birth weight, which has lifelong health consequences. We focus on highly river-dependent areas in Amazonia, using urban and rural birth registrations during 2006–2017. We find a strong but spatially differentiated relationship between local rainfall and subsequent river-level anomalies. Using Bayesian models, we disentangle the impacts of rainfall shocks of different magnitudes, municipal characteristics, social inequities and seasonality. Prenatal exposure to extremely intense rainfall is associated with preterm birth, restricted intra-uterine growth and lower mean birth weight (≤−183 g). Adverse birth outcomes also follow non-extreme intense rainfall (40% higher odds of low birth weight), drier conditions than seasonal averages (−39 g mean birth weight) and conception in the rising-water season (−13 g mean birth weight). Babies experience penalties totalling 646 g when born to adolescent, Amerindian, unmarried mothers that received no formal education or antenatal or obstetric health care. Rainfall variability confers intergenerational disadvantage, especially for socially marginalized Amazonians in forgotten places. Structural changes are required to reduce inequities, foster citizen empowerment and improve the social accountability of public institutions. Amazonians are subject to climate shocks, but the associated health outcomes are still unclear. This study finds that rainfall variability is associated with adverse birth outcomes, especially for those most isolated and marginalized.</t>
+          <t>This article aims to present the changes in higher education in Brazil especially since the beginning of the 21 st century. We present the recent modification in the process of selection for entering into the public network, especially into the federal network, the most sought after among families and young Brazilians, with the establishment of the National Examination of Intermediate Teaching (ENEM). To better understand the stakes of those transformations, we also present the main government programs set up to establish what has been called equality of opportunity and democratization of access to this level of training. These actions are discussed as a possible way of constructing an educational excellence, beyond the elitist principle that characterizes Brazilian higher education, without forgetting the danger that democratization might only be standardization. http://dx.doi.org/10.15572/ENCO2015.05</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4389787858</t>
+          <t>https://openalex.org/W4249487347</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.hrcr.2023.11.001</t>
+          <t>https://doi.org/10.3138/ecf.24.3.487</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Winterfield (2023)</t>
+          <t>Wallace (2012)</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Good luck where preparation meets opportunity</t>
+          <t>Rewriting Radicalism: Wollstonecraft in Burney's &lt;i&gt;The Wanderer&lt;/i&gt;</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>“Luck is what happens when preparation meets opportunity.”– Seneca Much of the emergence of the electrophysiology (EP) program at the Medical University of South Carolina (MUSC) began with work done by others—Drs Michael Gold and Marcus Wharton formed the academic core 2 decades ago. Dr Gold developed the cardiology division as chief, and he led the EP academic mission with his stewardship of pacing and implantable cardioverter-defibrillator trials. My former MUSC partner, Dr Frank Cuoco, developed a robust atrial fibrillation program and understood the need for an academic ventricular tachycardia (VT) practice. With this talented group, the die had been cast for a program supportive of robust investigator-initiated studies and clinical trials. After speaking at a conference in 2015, I was fortunate to receive an invitation to look at MUSC to build the VT program and later joined, in August 2016. The preparation had been a decade in the making, with a winding course through fellowship at Brigham and Women’s Hospital with an early focus on ion channel genetics and arrhythmogenesis; but, with mentorship from Drs Usha Tedrow and Bill Stevenson, the path steered toward clinical EP. The Brigham had been—and remains—a think tank for VT management, so the obvious next career step with support from mentors led to the great VT center at Loyola in Chicago under the leadership of Dr Dave Wilber. By then, focus on VT management—both mechanistic and technical with interest in ablation biophysics—led to collaborative growth with the great Loyola EP group. The “3 amigos”—Dr Smit Vasaiwala, Dr Alex Green, and me—grew together, with challenging VT cases complemented by sage input from Dr Wilber. He advised methods for improving mapping efficiency, addressing failures, and avoiding complications. The learning post-fellowship never stopped, and collaboration among junior EPs created one of the most transformational experiences of my career. I am grateful for those 5 years with the Loyola group. Mistakes are great teachers. Somewhat serendipitously, after abandoning VT ablation in an ischemic cardiomyopathy patient owing to hemodynamic instability after repeated inductions, Dr Wilber offered this advice: “You can learn a lot in sinus rhythm.” The patient, thankfully, did okay, but this initially confusing statement opened another path: how can we democratize VT ablation? Substrate-guided approaches with high-density mapping emerged during the 2010s, yet generalizability remained challenging given variable signal interpretation by operators and diversity of electrode arrangements on the newest high-density catheters. So the opportunity at MUSC could not have been more fertile for development of a VT program. In an environment somewhat suspicious of the risks of VT ablation, we constructed a program with safety and service at the forefront. Patients survived cases and returned to their doctors. We counseled patients and referring physicians that repeat ablations would sometimes be necessary. We grew from 29 VT ablations to more than 100 in 1 year, and we have experienced double-digit growth annually since 2019. In parallel, MUSC developed the advanced heart failure program with the recruitment of talented physicians and subsequent explosion in transplant / ventricular assist device volumes. Partnership with the heart failure group enabled the program to take on sicker patients with plans for bail-out strategies developed in a collaboration between EP and heart failure physicians. With an emerging VT program, I soon took over the EP section just over a year after arrival at MUSC. The work continued, but the needs of the VT program no longer took sole priority. We lacked a comprehensive lead extraction program, and our atrial fibrillation program required additional help to manage the growth in ablations and left atrial appendage closure. We recruited the superbly talented Dr Anne Kroman, who rapidly built a collaborative program with surgical colleagues to support complex extractions. In parallel, we hired additional faculty, including Dr Josh Payne, among others, to extend the complex ablation programs. Junior and midcareer faculty alike share responsibility for core EP work, but each enjoys opportunities to differentiate in niche practices and to lead research initiatives. The luck at MUSC EP emerged from hard work and preparation, coupled with focus on team play at every opportunity. Mentorship never ended, and I continue to engage colleagues for advice at critical program moments, such as recruitment or scientific investment. We will see the mission through, and we welcome colleagues and trainees to visit our open lab environment. No conflicts of interest. This research did not receive any specific grant from funding agencies in the public, commercial, or not-for-profit sectors.</t>
+          <t>This article reconsiders the connection between Mary Wollstonecraft's Maria, or The Wrongs of Woman and Frances Burney's The Wanderer, arguing that reading the two texts in tandem reveals close affinities as well as strategic (as opposed to ideological) differences. While The Wanderer rather crudely parodies Wollstonecraft's revolutionary fervour in the character of Elinor Joddrel, it also thematizes and advances, in subterranean ways, the specific feminist agenda proposed in Wollstonecraft's posthumous novel. The anti-heroine embodies Wollstonecraft's scandalous life and opinions, and the social critique articulated in her novel weaves through the heroine's trajectory, replicated and revised so that the wrongs inflicted upon the problematic Maria re-emerge as the difficulties endured by the estimable Juliet. Fracturing Wollstonecraft into historical persona and text, The Wanderer enacts a strategy of domesticating and assimilating into genteel society the progressive ideology of this difficult and polarizing icon of revolutionary romanticism. Locating Juliet's travails within the historical context of the French Revolution, Burney's depiction of a woman almost literally “Bastilled” by marriage aims to demonstrate that oppressive patriarchal practices contravene an English sense of justice.</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4286230957</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1049/smt2.12118</t>
+          <t>https://openalex.org/W2362925184</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Liu et al. (2022)</t>
+          <t>Guo-pin (2014)</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Vibration detection method for core loosening degree of high‐voltage direct current converter valve saturable reactor based on variational mode decomposition‐symmetrized dot pattern and image matching</t>
+          <t>Research of Cultural Industry Relevance——Based on Big-Data of Alibaba-Cloud-data Platform</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>IET Science, Measurement &amp; TechnologyVolume 16, Issue 8 p. 454-466 ORIGINAL RESEARCHOpen Access Vibration detection method for core loosening degree of high-voltage direct current converter valve saturable reactor based on variational mode decomposition-symmetrized dot pattern and image matching Yunpeng Liu, Yunpeng Liu State Key Laboratory of Alternate Electrical Power System with Renewable Energy Sources, North China Electric Power University, Baoding, China Hebei Provincial Key Laboratory of Power Transmission Equipment Security Defence, North China Electric Power University, Baoding, ChinaSearch for more papers by this authorTingyu Lai, Corresponding Author Tingyu Lai [email protected] State Key Laboratory of Alternate Electrical Power System with Renewable Energy Sources, North China Electric Power University, Baoding, China Hebei Provincial Key Laboratory of Power Transmission Equipment Security Defence, North China Electric Power University, Baoding, China Correspondence Tingyu Lai, North China Electric Power University (Baoding), No. 619, Yonghua Street, Baoding, Hebei 071003, China. Email: [email protected]Search for more papers by this authorJiashuo Liu, Jiashuo Liu State Key Laboratory of Alternate Electrical Power System with Renewable Energy Sources, North China Electric Power University, Baoding, China Hebei Provincial Key Laboratory of Power Transmission Equipment Security Defence, North China Electric Power University, Baoding, China Jining Power Supply Bureau, Jining, ChinaSearch for more papers by this authorXiaoguang Wei, Xiaoguang Wei State Key Laboratory of Advanced Power Transmission Technology, Beijing, ChinaSearch for more papers by this authorShaotong Pei, Shaotong Pei State Key Laboratory of Alternate Electrical Power System with Renewable Energy Sources, North China Electric Power University, Baoding, China Hebei Provincial Key Laboratory of Power Transmission Equipment Security Defence, North China Electric Power University, Baoding, ChinaSearch for more papers by this authorChenghao Wang, Chenghao Wang State Key Laboratory of Advanced Power Transmission Technology, Beijing, ChinaSearch for more papers by this authorXiaolong Zhang, Xiaolong Zhang State Key Laboratory of Advanced Power Transmission Technology, Beijing, ChinaSearch for more papers by this author Yunpeng Liu, Yunpeng Liu State Key Laboratory of Alternate Electrical Power System with Renewable Energy Sources, North China Electric Power University, Baoding, China Hebei Provincial Key Laboratory of Power Transmission Equipment Security Defence, North China Electric Power University, Baoding, ChinaSearch for more papers by this authorTingyu Lai, Corresponding Author Tingyu Lai [email protected] State Key Laboratory of Alternate Electrical Power System with Renewable Energy Sources, North China Electric Power University, Baoding, China Hebei Provincial Key Laboratory of Power Transmission Equipment Security Defence, North China Electric Power University, Baoding, China Correspondence Tingyu Lai, North China Electric Power University (Baoding), No. 619, Yonghua Street, Baoding, Hebei 071003, China. Email: [email protected]Search for more papers by this authorJiashuo Liu, Jiashuo Liu State Key Laboratory of Alternate Electrical Power System with Renewable Energy Sources, North China Electric Power University, Baoding, China Hebei Provincial Key Laboratory of Power Transmission Equipment Security Defence, North China Electric Power University, Baoding, China Jining Power Supply Bureau, Jining, ChinaSearch for more papers by this authorXiaoguang Wei, Xiaoguang Wei State Key Laboratory of Advanced Power Transmission Technology, Beijing, ChinaSearch for more papers by this authorShaotong Pei, Shaotong Pei State Key Laboratory of Alternate Electrical Power System with Renewable Energy Sources, North China Electric Power University, Baoding, China Hebei Provincial Key Laboratory of Power Transmission Equipment Security Defence, North China Electric Power University, Baoding, ChinaSearch for more papers by this authorChenghao Wang, Chenghao Wang State Key Laboratory of Advanced Power Transmission Technology, Beijing, ChinaSearch for more papers by this authorXiaolong Zhang, Xiaolong Zhang State Key Laboratory of Advanced Power Transmission Technology, Beijing, ChinaSearch for more papers by this author First published: 18 July 2022 https://doi.org/10.1049/smt2.12118AboutSectionsPDF ToolsRequest permissionExport citationAdd to favoritesTrack citation ShareShare Give accessShare full text accessShare full-text accessPlease review our Terms and Conditions of Use and check box below to share full-text version of article.I have read and accept the Wiley Online Library Terms and Conditions of UseShareable LinkUse the link below to share a full-text version of this article with your friends and colleagues. Learn more.Copy URL Share a linkShare onFacebookTwitterLinkedInRedditWechat Abstract Saturable reactor is the key equipment in conve</t>
+          <t>Industry relevance is the mainstay for the research of the industrial integration policy,Cultural industry has been run throughout in the economic and social fields present a multidirectional interactive integration trend.Cultural industry relevance not only has the intrinsic relation between supply chain management,vertical integration strategy and strategic alliances in cultural industry companies,but also,has the intrinsic relation between upgrading of an industrial structure,industrial agglomeration and competitive advantage in regional economic development.This paper use the big-data of the manufacturers of cultural products on the Alibaba-Cloud-data platform(The biggest B2B platform of New Economic in China),establishes the culture industry complex network(ICN) in terms of the most reliable maximum flow arithmetic(MRMF) on uncertain graph,which shows the industry relevance of cultural industry by visualizing various data.The request of enterprise' s development strategy is to design the optimum route in cultural industry companies' industrial chain,and the policy of integration is to configure the management of industrial chain,all of these problems can be viewed as the MRMF in graph theory.Furthermore,measure the industry forward and backward relevance index between culture industries and other industries.The measurement of industry forward and backward relevance index of ICN is a complicated project related to many details,especially having excessive uncertainty and involving extensive domains.As to the identity of cultural industry,the industry relevance effect is widely different.The industry relevance effect could be decomposed into the positive effect lead to impetus and negative effect lead to crowding-out.These sectors with positive effect are listed as follows;business services;processing;electrician electrical;decoration,building materials;textiles,leather;beauty makeup cosmetic;fine chemicals;rubber and general merchandise;and sectors of agriculture;food and beverage;underwear;hardware,tools;transportation;chemicals;environmental protection;appliances;machinery and equipment industry;energy;clothing accessories,jewelry;shoes and clothing could be negative effect when integrate with cultural industry,according to the study of industry relevance.As to find the inner structure and mutual affections between culture industry and out industries,empirical research are used to calculate the contribution to the whole national economy by change 1% of investment of culture industry;the total influence over 2115 hundred million Yuan,25.7% of cultural industrial added value,which equal to 0.79% of non- cultural industrial added value.It shows that pre-unit input of cultural industry and drive 8.13 unit output of national economy,at 1% transformation of cultural industry.Optimize the industry relevance is very important to enterprise management and macroeconomic regulation,and the requirement of economy works well.In consideration of positive effect of industry relevance,cultural industry preferred to integrate with frequently occurring industries in the most reliable maximum flow,like tertiary industry.The model of ICN has a certain probability properties.This paper,has improved the MRMF by recommending the scaling factor of trade share,which endow the different economical connotations in ICN.With the development of Big-Data platform and algorithm optimization of Data Mining,digital characteristics of treatments in real world can make sense to this probability,and this is also the direction of future research to deepen.</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2761924317</t>
+          <t>https://openalex.org/W1575343699</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1353/wal.1997.0003</t>
+          <t>https://doi.org/10.1111/j.2042-3306.2012.00662.x</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Bucco (1997)</t>
+          <t>Orsini (2012)</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>The Rise of Sinclair Lewis, 1920–1930 by James Hutchisson</t>
+          <t>Supporting limb laminitis: The four important ‘whys’</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>76 Western American Literature gist George Romanes, and (possibly) the early animal rights theoretician Henry Salt. As a result of this intellectual cross-fertilization, what began as “a mere anecdote, told to friends as an after-dinner story over cigars and good wine” evolved “into a larger study of animal behavior and its lessons for humanity.” Muir came to see the tale as an opportunity to introduce radical ideas about “the moral equality of dogs and men and all other ele­ ments in the endless span of creation,” “to challenge traditional attitudes in an inoffensive way.” Limbaugh’s writing is lucid and succinct. Muir scholars will value this book not only for its argument, but also for the hard-to-find variants of “Stickeen” that it reprints in their entirety: the original journal passage upon which the story was based, the final manuscript version of 1897, and a children’s version written by Emily Swett Parkhurst. DAVID MAZEL University of West Alabama The Rise of Sinclair Lewis, 1920-1930. By James Hutchisson. (University Park: The Pennsylvania State University Press, 1996. 276 pages, $29.50.) Renewed interest in Sinclair Lewis moves apace. This solid study treats the genesis, development, composition, and reception of the five major (and two minor) novels that Lewis published during his great decade of the 1920s. Along with five chapters devoted to Main Street, Babbitt, Arrowsmith, Mantrap, Elmer Gantry, The Man Who Knew Coolidge, and Dodsworth, Hutchisson, in a sixth chapter, discusses the author’s “unfinished labor novel” and his capturing the Nobel Prize in 1930. The appendixes avail us of Lewis’s excinded chapter from Main Street, his New York Evening Post article “The Pioneer Myth,” his deleted introduction to Babbitt, Hugh Walpole’s published introduction to the British edition of Babbitt, and two less ensconced documents of the decade—Lewis’s notorious letter refusing the Pulitzer Prize and his cele­ brated speech accepting the Nobel Prize. Besides useful notes, a bibliog­ raphy, and index, the volume has thirty-two illustrations: interesting examples of Lewis’s jottings, lists, maps, floor plans, timetables, brochures, manuscripts, typescripts, and galley proofs. Despite the continuing efficacy of Sinclair Lewis’s twenty-two satir­ ic novels for American and western American literature, scholarship, as Hutchisson notes, is relatively “scant.” For a long time students had assumed that after the publication of Sinclair Lewis: An American Life Reviews 11 (1961), Mark Schorer’s “official”jumbo biography allowed but little crit­ ical grass to grow. Among the Lewis Papers at Yale University and the University of Texas, however, is material underlying Lewis’s novels that Schorer by and large disregarded. Taking his cue from Malcolm Cowley, Hutchisson considers these documents and, rather than dwelling on Lewis’s failures after 1930, tries to explain the “height and nature” of Lewis’s achievement. Grounded in sound scholarship and sustained by clear thought, Hutchisson’s interpretation as to why Lewis made such a profound impact on his contemporaries is entirely plausible. In showing the transformation of Lewis’s notes, drafts, and the several versions of a fiction into its pub­ lished form, the critic-historian reveals how Lewis came to write a partic­ ular novel, how that novel helped shape Lewis’s career, and how each novel, in turn, influenced the work in progress. This story of Lewis’s com­ positional methods in the 1920s in the context of his development at the time provides continuities and perspectives, while the account of how his novels were received makes for amplitude and point. Combined with Hutchisson’s treatment of Lewis’s ties with Alfred Harcourt, the story also constitutes a chapter in the history of American book publishing. For all its specialized detail, each chapter is coherent, and the book as a whole (barring a few redundancies) is highly unified. And though sym­ pathetic to Lewis’s literary art, Hutchisson remains aware of Lewis’s often cheeky botchery. The intent of this study is not only refreshing but seems to me realized: to explain a phenomenon rather than to advance a cause. MARTIN BUCCO Colorado State University Mark Twain on the Loose: A Comic Writer and the American Self. By Bruce Michaelson. (Amherst: University of Massachusetts, 1995...</t>
+          <t>Supporting limb laminitis (SLL) is a veritable dark hole when it comes to our goal of completely understanding the pathogenesis and therefore the prevention of all types and clinical presentations of laminitis. We do know that SLL occurs in the foot of the contralateral or supporting limb in horses with a severe, unilateral lameness that persists for more than several weeks 1-7. Consequently, mechanical loading or overloading is a primary factor in its pathogenesis. However, the equine hoof wall has been said to be ‘overengineered,’ given that during normal locomotion the stratum medium experiences about one-tenth of the compressive force required to cause its structural failure 8. The highly adapted dermal-epidermal connection, anchoring the hoof wall to the distal phalanx – now termed the suspensory apparatus of the distal phalanx (SADP) – may be similarly described. The surface area of the SADP in the average-size hoof is calculated to be about 0.8 m2 9. At gallop, the hoof wall and the SADP withstand compressive and distractive forces of up to 3 times the horse's body weight without sustaining any apparent damage 4. So, why does the simple act of standing around cause the SADP to fail? Moreover, why does it fail in only some horses with severe, unilateral lameness (reportedly &lt;20% of at-risk horses)? Why does it typically not appear until weeks or months after the injury or infection that caused the primary lameness? In addition, why do we not see it as commonly in foals and yearlings as in adults? If we can answer just these 4 questions, then we will have a much better understanding of both the pathogenesis of this devastating complication and its prevention. This is one question with a good answer, supported by evidence-based data. We do not have an experimental model for SLL as we do for laminitis induced by a carbohydrate overload, black walnut extract, or hyperinsulinaemia – and understandably so. Nevertheless, we have a sound experimental basis for drawing the following conclusions about why the SADP fails at rest in these horses. The mechanism, which involves the combination of chronic weightbearing load and arterial occlusion, has recently been explained and illustrated in detail 4, so a brief review should be enough here. We have known for some time that, when the foot is fully loaded, vascular filling in the lamellar dermis is significantly decreased or even absent using angiographic studies as the basis for this conclusion 2, 4. More importantly, computer-generated models using computed tomography (CT) of the distal limb under load have revealed some further, and even surprising, insights into this phenomenon: occlusion of the palmar/plantar digital arteries occurs at various levels, including sites proximal to the coronary band, depending on the intensity of load 4. Under conditions of moderate load, the arteries are occluded at the abaxial margins of the distal sesamoid (navicular) bone and at the proximal aspect of the second phalanx (P2), so blood flow is occluded, especially to the quarters and heels. Blood flow to other regions of the foot is relatively unchanged because the dorsal branches of the palmar/plantar digital arteries are unobstructed and arterial anastomoses are abundant within the digital vasculature 4, 8. Under conditions of heavy load, such that the fetlock drops within its suspensory apparatus, the arteries are occluded at or near the base of the proximal sesamoid bones – proximal to dorsal branching of the digital arteries in the pastern region – so blood flow to the entire foot is occluded; there is no filling of any vessel below the coronary band. The vertical load required to cause this degree of occlusion in cadaver limbs was less than the weight of the horse's forelimbs 4. It has been proposed that the deep digital flexor tendon (DDFT) causes obstruction of the vessels in the dorsal lamellar dermis by its pull on the third phalanx (P3) and therefore on the SADP 2. In support of this theory, Redden reported a SLL incidence of only 2.3% (2 of 85 horses) with the prophylactic use of an 18° heel wedge and toe cuff system 2. However, the aforementioned models of limb loading, clearly shows that arterial occlusion does indeed involve the DDFT, but it occurs more proximally and more directly than previously believed. Arterial occlusion occurs before the entry of the digital arteries into the solar foramina of P3 – and even proximal to the coronary band – and these locations closely approximate the points at which the DDFT abuts against a bony fulcrum 4, 10. As the limb is loaded, the tendon is flattened against the navicular bone and the proximal palmar/plantar processes of P2, or perhaps its associated soft tissues, and with heavy loads against the proximal sesamoid bones, consequently, the adjacent vessels are compressed. It is likely that other connective tissues of the digit contribute to this occlusive effect, as the digit is ensheathed in circumferential and interco</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4231284013</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1002/9780470755594.refs</t>
+          <t>https://openalex.org/W2588171043</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Barss (2003)</t>
+          <t>Salemink (2016)</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Digital Margins: How spatially and socially marginalized communities deal with digital exclusion</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Free Access References Book Editor(s):Andrew Barss, Search for more papers by this author First published: 01 January 2003 https://doi.org/10.1002/9780470755594.refs AboutPDF ToolsRequest permissionExport citationAdd to favoritesTrack citation ShareShare Give accessShare full text accessShare full-text accessPlease review our Terms and Conditions of Use and check box below to share full-text version of article.I have read and accept the Wiley Online Library Terms and Conditions of UseShareable LinkUse the link below to share a full-text version of this article with your friends and colleagues. Learn more.Copy URL Share a linkShare onEmailFacebookTwitterLinked InRedditWechat References Aoun, Joseph, and Yen-hui Audrey Li (1989) Scope and constituency. Linguistic Inquiry, 20, 141– 72. Web of Science®Google Scholar Aoun, J., and D. Sportiche (1983) On the formal theory of government. Linguistic Review, 2, 221– 36. Google Scholar Armbuster, T. (1981) How to influence responses to “Is Kathy easy to see?” Journal of Psycholinguistic Research, 10, 27– 39. CrossrefWeb of Science®Google Scholar Bach, E. (1986) The algebra of events. Linguistics and Philosophy, 9, 5– 16. Web of Science®Google Scholar Bach, E., and B. H. Partee (1980) Anaphora and semantic structure. In Jody Kreiman and Almerindo E. Ojeda (eds), Papers from the Parasession on Pronouns and Anaphora, Chicago Linguistics Society. Chicago: University of Chicago Press. Google Scholar Badecker, W., and K. Straub (1992) Resolving pronoun antecedent relations. Poster presentation at the Fifth Annual CUNY Conference on Human Sentence Processing. Google Scholar Badecker, W., and K. Straub (1994) Evidence that binding principles participate in a constraint satisfaction process. Poster presentation at the Seventh Annual CUNY Conference on Human Sentence Processing. Google Scholar Badecker, W., and K. Straub (1995) The composition of the initial candidate set in the selection of referential antecedents. Poster presentation at the Eighth Annual CUNY Conference on Human Sentence Processing. Google Scholar Badecker, W., and K. Straub (1997) The processing role of structural constraints on the interpretation of pronouns and anaphors. Ms, Johns Hopkins University. Web of Science®Google Scholar Barss, A. (1984) Chain binding. Ms, MIT. Google Scholar Barss, A. (1986) Chains and anaphoric dependence: on reconstruction and its implications. Doctoral dissertation, MIT. Google Scholar Barss, A. (1995) Anaphora and the timing of dependency formation. Ms, University of Arizona. Google Scholar Barss, A. (2000) Minimalism and asymmetric WH-interpretation. In R. Martin, D. Michaels, and J. Uriagereka (eds), Step by Step. Cambridge, MA: MIT Press. Web of Science®Google Scholar Barss, A. (forthcoming) Derivations and dependencies. Ms, University of Arizona. Google Scholar Barss, A., and D. Basilico (1994) The scope of events. Ms, University of Arizona. Web of Science®Google Scholar Belletti, A. (1990) Generalized Verb Movement. Turin: Rosenberg and Sellier. Google Scholar Belletti, A., and L. Rizzi (1988) Psych verbs and theta theory. Natural Language and Linguistic Theory, 6, 291– 352. CrossrefWeb of Science®Google Scholar Berwick, R. C. (1985) The Acquisition of Syntactic Knowledge. Cambridge, MA: MIT Press. CrossrefGoogle Scholar Bittner, M. (1992) Movement and scope. Ms, Rutgers University. Google Scholar Bloom, P., A. Barss, J. Nicol, and L. Conway (1994) Children's knowledge of binding and coreference: evidence from spontaneous speech. Language, 70, 53– 71. CrossrefWeb of Science®Google Scholar Bolinger, D. L. (1987) “Each other” and its friends. In Another Indiana University Linguistics Club Twentieth Anniversary Volume. Bloomington: Indiana University Linguistics Club. Google Scholar Borer, H. (1984) Parametric Syntax: Case Studies in Semitic and Romance Languages. Dordrecht: Foris. CrossrefGoogle Scholar Boskovic, Z., and D. Takahashi (1998) Scrambling and last resort. Linguistic Inquiry, 29, 347– 66. CrossrefWeb of Science®Google Scholar Brody, M. (1979) Infinitivals, relative clauses, and deletion. Ms, University of London. Google Scholar Broihier, K., and K. Wexler (1995) Children's acquisition of control in temporal adjuncts. In C. T. Schütze, J. B. Ganger, and K. Broihier (eds), Papers on Language Processing and Acquisition. MIT Working Papers in Linguistics 26. Google Scholar Byrne, B. (1981) Deficient syntactic control in poor readers: is a weak phonetic memory coder responsible? Applied Psycholinguistics, 2, 201– 12. CrossrefPubMedWeb of Science®Google Scholar Cairns, H. S., D. McDaniel, and J. R. Hsu forthcoming) On the nature of the pronoun coreference requirement. Google Scholar Cairns, H. S., D. McDaniel, J. R. Hsu, and M. Rapp (1994) A longitudinal study of principles of control and pronominal reference in child English. Language, 70, 260– 88. CrossrefWeb of Science®Google Scholar Cairns, H. S., D. McDaniel, J. R. Hsu, S. Parsons, and D. Konstantyn (1995) Gram</t>
+          <t>The increasing importance of the Internet as a means of communication has transformed economies and societies. For spatially and socially marginalized communities, this transformation has resulted in digital exclusion and further marginalization. This book presents a study of two kinds of marginalized communities: spatially marginalized rural communities and socially marginalized Gypsy-Travelers. Mechanisms of both social exclusion and digital exclusion were studied to create a better understanding of how marginalized communities deal with ongoing digitalization. The interplay between citizens, governments, and market players is a recurring theme throughout the book. Issues in current policies and approaches are discussed, and recommendations for improvement are provided. Altogether, this study shows that the Internet is not an equalizer, as it was once assumed by academics and policy makers. Instead, unequal access to the Internet shows that ‘offline’ geographies still matter in the digital age. Ongoing developments around digital exclusion in the Netherlands, and in a broader perspective around the ‘participation society’, beg the question how much can be asked of communities and what should be a public task. If governments really care about digital equality, then they need to enable self-reliant communities to achieve their goals, but they also need to play a more active role themselves and help the more dependent communities.</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3098248850</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1142/s0218863508004354</t>
+          <t>https://openalex.org/W2181614887</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Jin et al. (2008)</t>
+          <t>Cunnion &amp; Masur (1996)</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>DYNAMICS OF FERROELECTRIC NANO CLUSTER IN &lt;font&gt;BaTio&lt;sub&gt;3&lt;/sub&gt;&lt;/font&gt; OBSERVED AS A REAL TIME CORRELATION BETWEEN TWO SOFT X-RAY LASER PULSES</t>
+          <t>Diffuse panbronchiolitis—a new Japanese export?</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>We carry out a theoretical investigation to clarify the dynamic property of photo-created nano-sized ferroelectric cluster observed in the paraelectric BaTiO 3 as a real time correlation of speckle pattern between two soft X-ray laser pulses, at just above the paraelectric-ferroelectric phase transition temperature. Based on a model with coupled soft X-ray photon and ferroelectric phonon mode, we study the time-dependence of scattering probability by using a perturbative expansion approach. The cluster-associated phonon softening as well as central peak effects are well-reproduced in the phonon spectral function via quantum Monte Carlo simulation. Besides, it is found that the time-dependence of speckle correlation is determined by the relaxation dynamics of ferroelectric clusters. Near the transition point, cluster excitation is stable, leading to a long relaxation time, while at high temperature, cluster structure is subject to the thermal fluctuation, ending up with a short relaxation time.</t>
+          <t>Five cases of diffuse panbronchiolitis (DPB), a disease previously noted almost exclusively in Japan, have lately been reported in United States citizens. 1 How common is this condition outside Japan and should there be more awareness of it in the West? DPB, first described in 1969, is characterised by inflammation just distal to the terminal bronchiole, in the transitional zone between the bronchiole and alveoli. 2 Patients present with a history of chronic cough, sputum production, and dyspnoea on exertion and often give a long history of sinusitis. Physical examination reveals wheezes and crackles, and pulmonary function testing shows a mixed obstructive/restrictive pattern. Chest Xray findings range from hyperinflation to the development of small nodular shadows and, in severe disease, the appearance of ring-shaped or tram-line shadows suggestive of bronchiectasis. Prognosis is poor, but is substantially improved by treatment with macrolide antibiotics. It is unusual for a disease to be confined to one geographical area unless it has a strong genetic association, is caused by an environmental or infectious agent unique to the area, or has been unrecognised or underdiagnosed elsewhere. Which of these possibilities applies to DPB? Several familial cases of DPB have been reported, and patients commonly have a family history of sinusitis. A study has shown that 63·2% of patients with DPB possess the HLA Bw54 antigen compared with 11·4% of the disease-free Japanese population. 3 This finding is especially interesting since HLA Bw54 has been identified only in Japanese, Chinese, Koreans, and a very small number of Ashkenzai Jews. An association between HLA Bw54 and DPB susceptibility would account for the high incidence of the disease in Japan and would still be consistent with the few case-reports of DPB occurring in non-Japanese individuals. Genetic susceptibility would not, however, explain the surprisingly few reports of DPB occurring in the Japanese population resident outside Japan.</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2753209105</t>
+          <t>https://openalex.org/W4206948358</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1353/eir.1996.0023</t>
+          <t>https://doi.org/10.7765/9781526159878</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Ziaukas (1996)</t>
+          <t>Ambler et al. (2022)</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>“Indispensable Wires”: Joyce’s Ulysses and the Origins of Public Relations</t>
+          <t>Reclaiming economics for future generations</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>“INDISPENSABLE WIRES”: JOYCE’S ULYSSES AND THE ORIGINS OF PUBLIC RELATIONS TIM ZIAUKAS in Ulysses, an encyclopedic celebration of Dublin life in 1904, James Joyce offers a carefully nuanced portrait of a new kind of urban worker, choosing the burgeoning practice of public relations as the profession for his twentieth-century everyman, Leopold Bloom. Even Joyce, a consummate self-promoter who would have been delighted by today’s global Bloomsday festivals, might have been stunned by his prescience. Bloom’s nascent efforts at public relations have blossomed into what is arguably the archetypal profession of our time: the manager of communications, the spin doctor, the flack. The novel, as it turns out, offers the early whispers of what will become a chorus of voices that now dominates our social and cultural landscape, yet this aspect of the text has been largely ignored. An inventory of public relations materials in Ulysses, I contend, shows that Joyce used the new profession as an organizing principle, and that these public relations materials provide a specialized commentary on the events and characters in the novel. Ulysses is the story of three Dubliners—Stephen Dedalus, Leopold Bloom, and Bloom’s wife, Molly—on a single day, 16 June 1904. Using their narrative, and an elaborate system of allusion, Joyce attempts to show us how the ordinary comings and goings of these everyday people contain the seeds of the heroic, perhaps even the eternal. He attempts to make his book complete, encyclopedic, to contain all Dublin events of the period he is depicting and to dramatize all the activities of its inhabitants. To that end, then, someone dies and another is born; someone urinates, another defecates; people work and play, make love and fornicate; someone even picks his nose. There are royals and rogues in a cast as complete as Chaucer’s pilgrims. At the center (like the Knight, perhaps) is Bloom, who, by day’s end, may be happily returned to his wife and may be Dublin’s JOYCE’S ULYSSES AND THE ORIGINS OF PUBLIC RELATIONS 176 moral compass—the conscience of them all. I’m suggesting here that Joyce uses the public relations materials in the novel to dramatize Bloom’s transformation from comic cuckold, who is his wife’s “handler” and promoter, to reinstated husband—a process central in a book, it could be said, about processes. Bloom is a canvasser. Finding himself, according to one critic, “in the classical squeeze between the Scylla of pleasing the client, and the Charybdis of getting cooperation from his own publication” (Berger 26), he solicits ads for The Freeman’s Journal and National Press, a Dublin morning daily. Yet in spite of current critical assumptions, his job involves far more than selling advertising. Colin MacCabe maintains that “[w]hen Joyce chose for the hero of Ulysses a canvasser of advertising, he was not just choosing an occupation amongst others, but a crucial nexus in the organization and circulation of information” (151). Yes, but Bloom is not, as many of the studies of Ulysses suggest, in advertising—Mark Osteen’s excellent The Economy of Ulysses: Making Both Ends Meet, among others, notwithstanding. Bloom is, in fact, the proto-public-relations man of the twentieth century, insofar as practitioners themselves define their profession . A closer examination of Ulysses—situated in the early history of public relations—is long overdue. The period depicted in the novel—the first decade of the twentieth century —is a formative era in the history of public relations. Between the turn of the century and World War I, the field emerged as a distinctive vocation , separate from, yet incorporating elements of, advertising and marketing . In his pioneering study of the early years of public relations, Alan Raucher describes the development of a new and distinctive entrepreneurship accompanying an emerging “stream” of information (vii). To some extent, this first generation of public relations experts developed in response to the muckrakers—reform-minded editors and journalists who successfully reached a growing national audience through the popular press and national wire services (Cutlip 100). As figures like Upton Sinclair and Ida Tarbell lashed out at the excesses of the American industrial revolution , public relations—or the...</t>
+          <t>Today, in many countries what is viewed as ‘credible’ economic knowledge stems from academic economics. The discipline of academic economics is based in universities across the world that employ economists who produce research that is published in academic journals and educate students who then go into government, businesses, and think tanks. Through the book’s authors’ and contributors’ experiences of economics education, and as part of the international student movement Rethinking Economics, it argues that academic economics in its current state does not provide people with the knowledge that we need to build thriving economies that allows everyone to flourish wherever they are from in the world, and whatever their racialised identity, gender or socioeconomic background. The consequences of this inadequate education links to modern economies being a root cause of systemic racism and sexism, socioeconomic inequality, and the ecological crisis. When economies are rooted in a set of principles that values whiteness, maleness and wealth, we should not be surprised by the inequalities that show up. Structural inequalities need systemic change, change that infiltrates through every level of the system, otherwise we risk reproducing and deepening them. This book makes the case that in order to reclaim economics it is necessary to diversify, decolonise and democratise how economics is taught and practised, and by whom. It calls on everyone to do what we can to reclaim economics for racial justice, gender equality and future generations.</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2596733843</t>
+          <t>https://openalex.org/W2069268823</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1111/j.1468-2265.2009.00501.x</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Alolaiwi (2017)</t>
+          <t>Waterfield (2009)</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Identity Issues: The Passing Mulatto and the Politics of Representations</t>
+          <t>Image and Reality in Plato's Sophist. By David Ambuel</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>The transformation of the American nation into a multicultural society could result in a nation that voluntarily and openly accepts the benefits of contributing traditions, values, philosophies and behaviors. This trend, though, is struggling against a social structure that has been perceived to be grounded upon a dominant culture and value system. According to John A. Garcia, multiculturalism and difference are challenging cultural and ideological supremacy upsetting the sense of naturalness and neutrality that infused most peoples’ sense of modern society. The U.S. American ethos was characterized by individualism, egalitarianism, equality of opportunity and emphasis on Western cultures, among other things. All these characteristics have historically been turned into the perfect ingredients of a pervasive American tradition that serves as a cultural core that all members of society learnt to share and internalize ensuring societal stability and gradual change.</t>
+          <t>Pp. xvii, 279 , Las Vegas , Parmenides Publishing , 2007 , $32.00 . After introductory matter, this book consists of a thorough commentary on Plato's Sophist, a translation of the dialogue, and then end matter, including a useful appendix in which he argues in more detail against a common view of the dialogue. The commentary is divided into three parts (roughly, on the divisions or the attempted definition of the sophist; on the problem of non-being; and on its solution), and the reader is also helped by frequent section breaks with subheadings. I will say no more about the translation: it is useful to have it in the book, to refer to, but it is plain and literal almost to the point where on occasion it hardly reads like English. Ambuel wants to make two main points. First, contrary to a strong trend in scholarship over the last fifty years, he sees the dialogue as metaphysical rather than logical; that is, it is not merely an exercise in logical division followed by a disambiguation of senses of the verb ‘to be’, but primarily an exploration of forms, entities with real ontological status, and their relationship to the everyday world of particulars. This thesis of Ambuel's is attractive, but it stands or falls with the success or failure of the rest of the book, in which he applies and justifies this insight. I can see no reason why the book cannot be both logical and metaphysical; the two are often hard to distinguish in Plato's dialogues. Ambuel's second main thesis is that, despite appearances, the dialogue is aporetic. Even though it appears to end in certain firm conclusions about ‘to be’ (or about being), Ambuel argues that these conclusions are undermined because the method used to reach them has been patently inadequate. This seems to me to be a hazardous and implausible thesis. Interpretations of Plato's dialogues that promise a revolution are rarely successful; good academic work is more commonly cumulative, building on careful prior work. Ambuel's thesis means, as he freely admits, that, contrary to what all scholars have thought, the Eleatic Stranger does not speak for Plato. In that case, what is the point of the dialogue? Ambuel believes that Plato is asking us to pick up on certain clues, never spotted before by anyone, that show that the dialogue does not have the function it purports to have. These clues are (1) that the method of division practised in the dialogue does not conform to theory and practice of division in other dialogues, specifically because there is no prior collection and because division proceeds only by dichotomy; (2) the sophist is consistently allowed to be a practitioner of a skill, even though elsewhere Plato denies that sophists have skills; (3) that in certain respects the metaphysics of the dialogue does not square with some of Plato's earlier ideas – specifically, in that forms are said to relate to one another (which destroys their singularity), and that images and paradigms are not kept as radically distinct as before. It would take too long to argue against these points in detail; suffice it to say that only strong unitarians would think that Plato could not have changed his mind on any or all of these three points. But if the dialogue does not, then, have the purpose it appears to have, what is its purpose? Ambuel believes it shows that Parmenidean logical tools fail to cope with the subtleties of Platonic metaphysics, particularly because it is bound to blur the distinction between image and paradigm; therefore, the dialogue shows, in this indirect way, the necessity of a firm ontological distinction between image and paradigm. Even though I disagree fundamentally with almost everything Ambuel says, there are things to be grateful for in this book; above all, it is well argued and clearly written. And, just because of its difficulties, Sophist is studied less than many Platonic dialogues: it is good to have a new translation and a thought-provoking book-length commentary.</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2333387068</t>
+          <t>https://openalex.org/W3133524445</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1086/ahr.117.1.305</t>
+          <t>https://doi.org/10.1038/s41893-021-00684-9</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Baer (2012)</t>
+          <t>Chacón-Montalván et al. (2021)</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Michelle U. Campos . Ottoman Brothers: Muslims, Christians, and Jews in Early Twentieth‐Century Palestine . Stanford, Calif.: Stanford University Press. 2011. Pp. xii, 343. Cloth $70.00, paper $24.95.</t>
+          <t>Rainfall variability and adverse birth outcomes in Amazonia</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>In the wake of the liberal Ottoman revolution of 1908, which reinstated the constitution and parliament, Muslim, Christian, and Jewish men gathered in public squares throughout the empire to proclaim “Long live the homeland! Liberty, equality, brotherhood!” Men of different religions publicly embraced each other, proclaiming that all were united as brothers of the Ottoman family. In 1912, one of the two main Armenian political organizations promoted the shared interest of all Ottoman citizens. In 1913, an Arab congress upheld the integrity of the empire. On the eve of World War I, most Ottoman Jews viewed the Zionist program to create an exclusive Jewish state in Palestine with indifference or hostility. Yet by 1914, few of these men promoted a reinvigorated empire, Ottoman patriotism, or interconfessional imperial union. The majority supported ethno‐nationalist claims. During World War I the rulers of the empire abandoned interconfessional solidarity in favor of religious and...</t>
+          <t>Amazonian populations are increasingly exposed to climatic shocks, yet knowledge of related health impacts is limited. Understanding how health risks are coproduced by local climatic variability, place and social inequities is vital for improving decision-making, particularly in decentralized contexts. We assess the impacts of rainfall variability and multiscale vulnerabilities on birth weight, which has lifelong health consequences. We focus on highly river-dependent areas in Amazonia, using urban and rural birth registrations during 2006–2017. We find a strong but spatially differentiated relationship between local rainfall and subsequent river-level anomalies. Using Bayesian models, we disentangle the impacts of rainfall shocks of different magnitudes, municipal characteristics, social inequities and seasonality. Prenatal exposure to extremely intense rainfall is associated with preterm birth, restricted intra-uterine growth and lower mean birth weight (≤−183 g). Adverse birth outcomes also follow non-extreme intense rainfall (40% higher odds of low birth weight), drier conditions than seasonal averages (−39 g mean birth weight) and conception in the rising-water season (−13 g mean birth weight). Babies experience penalties totalling 646 g when born to adolescent, Amerindian, unmarried mothers that received no formal education or antenatal or obstetric health care. Rainfall variability confers intergenerational disadvantage, especially for socially marginalized Amazonians in forgotten places. Structural changes are required to reduce inequities, foster citizen empowerment and improve the social accountability of public institutions. Amazonians are subject to climate shocks, but the associated health outcomes are still unclear. This study finds that rainfall variability is associated with adverse birth outcomes, especially for those most isolated and marginalized.</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>https://openalex.org/W61953674</t>
+          <t>https://openalex.org/W2441604512</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>https://doi.org/10.4438/1988-592x-re-2011-356-040</t>
+          <t>https://doi.org/10.1097/01.nep.0000476112.24899.a1</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Ruiz &amp; Ignácio (2011)</t>
+          <t>Skiba (2016)</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Un giro copernicano en la enseñanza universitaria: formación por competencias</t>
+          <t>Face with Tears of Joy Is Word of the Year</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>espanolLa implementacion del enfoque de competencias en la ensenanza universitaria supone situarla en conformidad con las nuevas necesidades y demandas que se derivan de la sociedad de la informacion. El objetivo de este articulo es avanzar en esta innovadora direccion proponiendo un nuevo modelo de ensenanza universitaria fundamentado y contrastado en la practica educativa. Despues de describir un enfoque ecosistemico de las competencias en donde se indican los rasgos que las definen, se propone formular los objetivos formativos a partir de la distincion de los elementos que los integran. En paralelo, se plantea la pertinencia de seleccionar y organizar los contenidos academicos tomando como base modulos disciplinares o, mejor aun interdisciplinares, estructurados en nucleos problematicos y redes de problemas. Asimismo, se presenta una metodologia didactica innovadora que promueve un aprendizaje activo, reflexivo y autentico basado en la investigacion colaborativa de los estudiantes tomando como base distintas fuentes de informacion: impresas, audiovisuales, informaticas e institucionales. Por ultimo, se describe un enfoque holistico para la evaluacion de la adquisicion de las competencias en el que se distinguen tres momentos claves: evaluacion diagnostica, evaluacion formativa y evaluacion sumativa. Para realizar esta compleja y rigurosa valoracion del aprendizaje academico se indican una serie de tecnicas e instrumentos que permiten una evaluacion autentica puesto que integran tanto evidencias de conocimiento como evidencias de desempeno. Este nuevo modelo esta siendo implementado en algunas materias de distintas facultades de la Universidad de Sevilla (Pedagogia, Psicologia, Odontologia, Economicas �fase inicial�, entre otras). Los resultados obtenidos demuestran que se incrementa el nivel y calidad del aprendizaje academico en cuanto que los estudiantes logran adquirir las competencias previstas. El articulo concluye senalando la necesidad de que este reciente enfoque pedagogico este sustentado en un cambio profundo en tres componentes basicos del sistema convencional de Educacion Superior: estructura institucional, cultura academica y curriculo universitario. EnglishImplementation of the competence approach at the university teaching level means enabling university teaching to equal the new needs and demands of the information society. The aim of this paper is to move in this innovative direction by proposing a new model of university teaching based on and tested in educational practice. An eco-systemic competencebased approach is described, and the approach�s defining features are given. Educational aims are then formulated, starting with a map of their constituent elements. A proposal is made regarding the validity of selecting and organizing academic contents on the basis of disciplinespecific or, even better, interdisciplinary modules structured into core problems and problem networks. Likewise, an innovative didactic methodology is presented, which promotes active, reflexive, true learning based on cooperative student research, on the basis of different sources of information: printed matter, audiovisuals, computerized sources and institutional sources. Lastly, a holistic focus is described for evaluating competence acquisition, in which three key points in time are distinguished: diagnostic evaluation, formative evaluation and additive evaluation. A series of techniques and instruments are outlined for performing this complex, rigorous evaluation of academic learning. These techniques and instruments make it possible to conduct a true evaluation, because they incorporate knowledge evidence and performance evidence at the same time. This new model is being implemented in a number of subjects at different schools at the University of Seville (inter alia, the School of Education, the School of Psychology, the School of Odontology and the School of Economics �undergraduate phase). Results show increases in the level and quality of academic learning as students master expected competences. The paper ends by pointing out the need for this brand-new pedagogical approach to be based on a deep change in three key elements of the conventional higher education system: institutional structure, academic culture and university curriculum.</t>
+          <t>FigureThe Oxford Dictionary Word of the Year (WOTY) is not a word but a pictograph, Face with Tears of Joy. For those of you who are not familiar with this pictograph, it is one of the many emoji available for use on your cell phones, tablets, and other devices. In case you missed it, we transitioned from emoticons [;-)] to emoji in the late 1990s. Face with Tears of Joy was chosen as WOTY because it reflected the ethos, mood, and preoccupations of 2015 (Oxford Dictionaries, 2015). The Oxford University Press worked with SwiftKey, a mobile technology company, to analyze usage statistics across the world. This emoji was chosen among several competitors because it made up 20 percent of the emoji used in the United Kingdom and 17 percent of those used in the United States. Even the word emoji has tripled in use since it emerged in 1997. You are probably aware of the smiley faces you get on text messages or how your adolescents order pizza at Dominos. To test your knowledge of emoji, visit the Learning Network at the New York Times (http://learning.blogs.nytimes.com/2014/08/05/test-yourself-emoji/?_r=0). A BRIEF HISTORY Shigetaka Kurita developed the concept of emoji while working for a Japanese company, Docomo, that was creating a mobile Internet platform to provide news, weather, email, and reservations. According to Blagdon (2013), “The lack of visual cures made the service more difficult to use…and could benefit majorly from some extra characters to show contextual information.” I was intrigued by how Kurita viewed the new technology and its impact on communication. According to Kurita, the Japanese traditionally wrote long letters for communication, and the brevity of more casual email sometimes led to miscommunication. Kurita also noticed that face-to-face and phone conversations also provided cues to assess mood or feelings. He concluded “that the promise of digital communication — being able to stay in closer touch with people — was being offset by this accompanying increase in miscommunication” (Blagdon, 2013). Hence, emoji were born as a mechanism to provide contextual information and emotions. Although it took awhile for global acceptance, emoji were eventually adopted into Unicode, a computing industry standard for consistent encoding, representation, and the handling of text expressed in most of the world’s writing systems. Emoji made their international debut in 2011 when they were released on Apple’s iOS5. From Blagdon’s (2013) article, I was able to link to some interesting websites, for example, Narratives in Emoji (http://narrativesinemoji.tumblr.com/) with Les Miserables. I also found an emoji version of Moby Dick (http://blogs.loc.gov/loc/2013/02/a-whale-of-an-acquisition/) and an emoji “zine” by Womanzine (http://issuu.com/lindseyweber5/docs/emoji_by_womanzine). Sternbergh (2014) wrote that “elasticity of meaning is a large part of the appeal and, perhaps, the genius of emoji.” Emoji can express emotion on a small screen in an easy manner, making it easier for those of us who find using our thumbs for text messaging to be a challenge. “These seemingly infantile cartoons are instantly recognizable, which makes them understandable even across linguistic barriers.” IMPLICATIONS FOR RESEARCH, EDUCATION, AND HEALTH CARE If emoji are recognizable across boundaries, what are their implications for research, education, and health care? To answer this question, I ventured forward to learn more, beyond my simple use of smiley faces. I discovered a growing use of emoji in marketing, education, and, yes, even health care. A research article (Pavalanathan &amp; Eisenstein, 2015) examines whether emoji will replace ASCII character emoticons. Using a causal inference model, Pavalanathan and Eisenstein compared a treatment group (those using emoji for a specified time) to a control group (those who did not use emoji), with emoticon usage as the dependent variable. They found a statistically significant difference in the use of emoticons, with the treatment group using less and less. In their discussion, they noted that, although emoticons were primarily designed using facial expressions to express emotion, they were also used to “establish more of a conversational connection, a playful interaction or a shared and secret uniqueness within a particular relationship.” Here are examples of how others use emoji: The White House uses emoji to communicate with millennials (Mosendz, 2014). Gonzalez (2015) describes various uses of emoji to engage learners; she points to a university campaign to address sexual assault (http://students.ubc.ca/livewell/topics/sexual-assault/consent) and provides a link to the GE Emoji Science website (http://emojiscience.com) with an Emoji Table of Content, lessons plans, and YouTube videos. GE Healthcare created a YouTube video with emoji to educate the public about breast density (http://newsroom.gehealthcare.com/breast-density-explained-with-emoji/). An app called Abused Emoji (www.ab</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2079577263</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/j.copbio.2012.03.012</t>
+          <t>https://openalex.org/W2266668976</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Vogel &amp; Schwille (2012)</t>
+          <t>Andery &amp; Amalia (2010)</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Minimal systems to study membrane–cytoskeleton interactions</t>
+          <t>Skinner: a cultura como um compromisso da ciéncia</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>In the context of minimal systems design, there are two areas in which the reductionist approach has been particularly successful: studies of molecular motors on cytoskeletal filaments, and of protein-lipid interactions in model membranes. However, a minimal cortex, that is, the interface between membrane and cytoskeleton, has just begun to be functionally reconstituted. A key property of living cells is their ability to change their shape in response to extracellular and intracellular stimuli. Although studied in live cells since decades, the mutual dependence between cytoskeleton and membrane dynamics in these large-scale transformations is still poorly understood. Here we report on inspiring recent in vitro work in this direction, and the promises it holds for a better understanding of key cellular processes.</t>
+          <t>From 1930 to 1953 Skinner published fifty articles and three books. Most of the fundamental concepts of his system were elaborated during this period. The basis for a science of behavior were laid by 1953, and a trend within Psychology existed with certain force by the middle of the fifties, which has been called, since 1945, radical behaviorism, What is of interest here is to follow up the development of Skinner's work during this period emphasizing that: 1- From Its beginning Skinner intended to build a science of behavior, which would enable man to predict and control his own behavior. 2- This construction, constrained by a set of principles, can he viewed as a process with three major periods, two of them characterized by three movements: the proposal of a program of investigation, the data gathering, and the systematization of results on a theoretical proposal. The first period enclosed the lime span from 1930 to 1938, the second the interval between 1938 and 1947, and the third is the period that goes from 1947 lo 1953. 3- The first period leads to the proposal of a conceptual system that intends lo explain the behavior of all organisms; the second is viewed as a transition period when the extension of the scope of a science of behavior is prepared; and the third is the period when a more mature system is presented explicitly as a science that can describe all behavior and solve problems through the control and manipulation of culture. 4- Such a science of behavior, informed by radical behaviorisrn, is presented as the only tool, opposed not only to other human sciences'', but also to politics, ethics and history, that would enable the survival of the species. Such survival could be obtained only through the construction and survival of culture, which becomes, therefore, the privileged object of a science of behavior. 5- But, what is of great relevance, a science of behavior will guarantee, because it contains on its basic program the appropriate postulates for it , the attainance of some fundamental values, for each and every man: equality, happiness, the sensation of freedom, and an impulse tor the future. Such values become goals of a science of behavior – results to be obtained by such science, measures against which lo evaluate the social planner and the scientist's behavior, and characteristics of the individual under contingencies of reinforcement planned by a science of behavior. 6- For all this, it becomes a necessary feature of the science of behavior its commitment to culture and its transformation, which will become the only real test to the truth of its principles and concepts.</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2286245466</t>
+          <t>https://openalex.org/W2761924317</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>https://doi.org/10.6846/tku.2013.00940</t>
+          <t>https://doi.org/10.1353/wal.1997.0003</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>邵啟峰 (2013)</t>
+          <t>Bucco (1997)</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>兩岸國中歷史教科書關於中華民國史(1911年~1936年)之比較分析</t>
+          <t>The Rise of Sinclair Lewis, 1920–1930 by James Hutchisson</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Sun Yat-sen Chinese Revolution Centennial Celebration Events, and Taiwan last year in 2011 to celebrate Centennial, from the point of view the same time, the two sides are different historical interpretation. Taiwan's National Education textbooks in the past limited to KMT history special space-time background, martial law era of authoritarian era, many facts are not telling the truth, of course, can not be modified according to anecdotes textbooks. Published in mainland China in which there will be political thinking in mainland China, but Taiwan's textbook writers to provide a very important reference. Because of this, textbooks taught our content, not just to maintain the tone of the Chinese Kuomintang in the past, together with the Kuomintang and the Communist Party of China in modern history, deconstructed and then re-constructed. In other words, those in power will have a of interpretation, it is beyond doubt. Because of national education textbooks can not be changed with the political parties in power and again. Past, KMT history as Republic of China Modern History textbooks must become history. The results showed that the two sides view of history, the Chinese mainland is the Marxist materialist view of history, to describe the history, just as described in the text on both sides of the textbook, the two are not the same. For the interpretation of the of each ROC is not the same, in addition to being ideological influence, the postmodernist perspective, because different objects, there will be a different narrative perspective and ideas.</t>
+          <t>76 Western American Literature gist George Romanes, and (possibly) the early animal rights theoretician Henry Salt. As a result of this intellectual cross-fertilization, what began as “a mere anecdote, told to friends as an after-dinner story over cigars and good wine” evolved “into a larger study of animal behavior and its lessons for humanity.” Muir came to see the tale as an opportunity to introduce radical ideas about “the moral equality of dogs and men and all other ele­ ments in the endless span of creation,” “to challenge traditional attitudes in an inoffensive way.” Limbaugh’s writing is lucid and succinct. Muir scholars will value this book not only for its argument, but also for the hard-to-find variants of “Stickeen” that it reprints in their entirety: the original journal passage upon which the story was based, the final manuscript version of 1897, and a children’s version written by Emily Swett Parkhurst. DAVID MAZEL University of West Alabama The Rise of Sinclair Lewis, 1920-1930. By James Hutchisson. (University Park: The Pennsylvania State University Press, 1996. 276 pages, $29.50.) Renewed interest in Sinclair Lewis moves apace. This solid study treats the genesis, development, composition, and reception of the five major (and two minor) novels that Lewis published during his great decade of the 1920s. Along with five chapters devoted to Main Street, Babbitt, Arrowsmith, Mantrap, Elmer Gantry, The Man Who Knew Coolidge, and Dodsworth, Hutchisson, in a sixth chapter, discusses the author’s “unfinished labor novel” and his capturing the Nobel Prize in 1930. The appendixes avail us of Lewis’s excinded chapter from Main Street, his New York Evening Post article “The Pioneer Myth,” his deleted introduction to Babbitt, Hugh Walpole’s published introduction to the British edition of Babbitt, and two less ensconced documents of the decade—Lewis’s notorious letter refusing the Pulitzer Prize and his cele­ brated speech accepting the Nobel Prize. Besides useful notes, a bibliog­ raphy, and index, the volume has thirty-two illustrations: interesting examples of Lewis’s jottings, lists, maps, floor plans, timetables, brochures, manuscripts, typescripts, and galley proofs. Despite the continuing efficacy of Sinclair Lewis’s twenty-two satir­ ic novels for American and western American literature, scholarship, as Hutchisson notes, is relatively “scant.” For a long time students had assumed that after the publication of Sinclair Lewis: An American Life Reviews 11 (1961), Mark Schorer’s “official”jumbo biography allowed but little crit­ ical grass to grow. Among the Lewis Papers at Yale University and the University of Texas, however, is material underlying Lewis’s novels that Schorer by and large disregarded. Taking his cue from Malcolm Cowley, Hutchisson considers these documents and, rather than dwelling on Lewis’s failures after 1930, tries to explain the “height and nature” of Lewis’s achievement. Grounded in sound scholarship and sustained by clear thought, Hutchisson’s interpretation as to why Lewis made such a profound impact on his contemporaries is entirely plausible. In showing the transformation of Lewis’s notes, drafts, and the several versions of a fiction into its pub­ lished form, the critic-historian reveals how Lewis came to write a partic­ ular novel, how that novel helped shape Lewis’s career, and how each novel, in turn, influenced the work in progress. This story of Lewis’s com­ positional methods in the 1920s in the context of his development at the time provides continuities and perspectives, while the account of how his novels were received makes for amplitude and point. Combined with Hutchisson’s treatment of Lewis’s ties with Alfred Harcourt, the story also constitutes a chapter in the history of American book publishing. For all its specialized detail, each chapter is coherent, and the book as a whole (barring a few redundancies) is highly unified. And though sym­ pathetic to Lewis’s literary art, Hutchisson remains aware of Lewis’s often cheeky botchery. The intent of this study is not only refreshing but seems to me realized: to explain a phenomenon rather than to advance a cause. MARTIN BUCCO Colorado State University Mark Twain on the Loose: A Comic Writer and the American Self. By Bruce Michaelson. (Amherst: University of Massachusetts, 1995...</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2076640566</t>
+          <t>https://openalex.org/W3027716181</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.tca.2003.12.013</t>
+          <t>https://doi.org/10.1016/j.optmat.2020.109751</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Zengin &amp; Ceylan (2004)</t>
+          <t>Zorenko et al. (2020)</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>The changes in transformation temperatures under stress of Cu–12.7Al–5Ni–2Mn alloy</t>
+          <t>Comparison of the luminescent properties of LuAG:Ce films grown by pulse laser deposition and liquid phase epitaxy methods using synchrotron radiation excitation</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>The effects of the stress on shape memory properties of Cu–12.7Al–5Ni–2Mn shape memory alloy have been investigated. Applied stress increases transformation temperatures and the relationship between T0, temperature at which Gibbs free energy of austenite equals that of martensite, and plastic deformation is linear.</t>
+          <t>The paper is dedicated to the comparative study of the luminescent properties of LuAG:Ce films, grown by pulse laser deposition (PLD) and liquid phase epitaxy (LPE) methods, using the time-resolved luminescent spectroscopy under excitation by synchrotron radiation in the fundamental absorption range and above the band gap of LuAG host. We have shown the similarities and differences in the luminescence properties of LuAG:Ce PLD and LPE grown films. Specifically, the luminescence of LuAl antisite defects is absent in the emission spectra of both films in the room temperature range. Meanwhile, the low intensive bands peaked at 350 and 400 nm, corresponding to the luminescence of excitons localized around and bound with F+ centers, respectively, are present in the emission spectra of LuAG:Ce PLD films at 12 K. The energy of formation of the excitons bound with the Ce3+ ions, being equal to 7.52 eV at 12 K, and the energy of the onset of interband transitions of LuAG host, being equal to 7.76 eV (at 300 K), have been found for LuAG:Ce LPE and PLD films, respectively. We have also found that the scintillation properties of LuAG:Ce PDL film are worse in comparison with LPE grown film analogue due to the significantly larger content of the slow emission component in the scintillation decay under high-energy excitation. Such differences between the optical and scintillation properties of PLD and LPE films are caused by the different conditions of their preparation (in vacuum and in air).</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3124236583</t>
+          <t>https://openalex.org/W4392133770</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/j.ceramint.2024.02.301</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Ebrahim (2016)</t>
+          <t>Hussain et al. (2024)</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>3D Printing: Digital Infringement &amp; Digital Regulation</t>
+          <t>Experimental and theoretical study of Gd2O3 added pseudo-tetragonal Bi3TaTiO9-based ceramics for ferroelectric, electric and high-temperature piezoelectric applications</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>INTRODUCTION¶1 Guns. Body parts. Implants for medical uses. Apparel and fashion accessories. Jewelry. Artwork. What do these all have in common? Each is a 3D printed object that can quickly and easily be printed by Do It Yourself (DIY) consumers.1 3D printing has gained attention in the press recently, as commercially affordable additive manufacturing technology has become widely available. Hobbyists, enthusiasts, and artists are utilizing 3D printers to print objects for domestic and household uses. Additionally, the medical community has utilized 3D printing.2 3D printers can even be used to print other 3D printers.3¶2 The availability of 3D printing technology to consumer masses and the ability to create and almost immediately 3D print objects has created a revolution. The DIY community never had to worry about infringing on patents since their work was unlikely to draw the attention of patent owners; however, the consumer availability of 3D printing has enabled a DIY consumer to create a design in the form of a digital file that can be easily transmitted and made available to others. The digital file is called a Computer Aided Design (CAD) file, which is a virtual blueprint model that is used to produce 3D printed objects.4¶3 As 3D printers have become increasingly accessible to the public, websites and online platforms that enable sharing of CAD files have grown in popularity. These websites enable an easy means to upload, share, and download CAD files via the Internet, just as was done with digital music files. As a result, online social communities built around 3D printing are arising. 3D printing enables the DIY community and small, innovative companies to rapidly and electronically share their electronic designs with others around the world. Additionally, crowd-funding websites have successfully launched online campaigns aimed at reducing the cost of 3D printing, which allows even more people to access this technology.¶4 Moreover, physical products are already being designed, sold, and distributed on the computer and over the Internet, with end consumers only printing the physical manifestation of the product.5 In sum, the 3D printing revolution is enabling the consumer masses to easily create, develop, and print 3D objects as well as easily access, share, and modify electronic CAD files that enable printing.¶5 Given the ease with which physical objects can rapidly be replicated, reproduced and repaired, there are many unanswered questions with respect to intellectual property rights. In particular, the legal regimes that made sense in the traditional manufacturing world are being challenged in their attempted application to the digital manufacturing world. There are newfound challenges to the law that govern utility patents, copyrights, design patents, trademarks, and trade dress as it applies to 3D printing.¶6 Just like technological disruptions of the past, such as with the advent of the printing press, personal computing, and the Internet, the 3D printing revolution will also confront new issues at the intersection of technology, business, and law. With the rapid promotion of CAD files that enable printing of 3D objects, new issues will arise. There is not much jurisprudence regarding how patent law applies to 3D printing with respect to personal use. The Article analyzes some of the current scholarship on patent law in 3D printing and provides some new perspectives.¶7 Professors Timothy Holbrook and Lucas Osborn have published one major work in the area of 3D printing and patent infringement.6 Holbrook and Osborn point out that the line between digital and tangible has eroded in the world of 3D printing and also provide an analysis supporting the idea that digital files can infringe patent claims in 3D printing.7 However, there are still gaps in their analysis, and there are unanswered questions concerning the best way to regulate digital patent infringement in the realm of 3D printing. …</t>
+          <t>The present global energy crisis, along with the development of modern technologies, has compelled the scientists to search for smart materials, which possess the multifunctional properties simultaneously. Among such materials, bismuth-layered structure ferroelectrics (BLSFs) containing a perovskite structure have demonstrated the tendency to play a vital role. Herein, we report an engineered Gd2O3 added Bi3TiTa0·5Nb0·5O9 (BTTN) based material with composition Bi3TiTa0·5Nb0·5O9:xwt%Gd2O3 (BTTN:xGd) with x = 0–0.20 ceramics to investigate the ferroelectric, electric, piezoelectric and dielectric properties of the material. Highly dense (relative density of ∼96%) BTTN:0.15Gd has shown the best merits among all other compositions with improved remnant polarization (Pr ∼ 7.86 μC/cm2), energy conversion efficiency (ƞ) of ∼63.48%, resistance of ∼2.2 × 1010 Ω and high piezoelectric co-efficient (d33 ∼ 25 pC/N) at room temperature, which are much improved than pure BTTO or BTTN ceramics. Nonetheless, ceramic has shown the stable resistivity of ∼104 Ω at 500 °C, with a stable d33 value of 22 pC/N (just 12% drop) after annealing at 600 °C. The ferroelectric to paraelectric phase transition of ceramic with the highest dielectric constant is reported at Curie temperature (TC) of 859 °C. Additionally, Density-Functional-Theory (DFT) and Density-Functional-Perturbation-Theory (DFPT) measurements are performed by employing generalized gradient approximation using the Quantum-ESPRESSO code. Structural, ferroelectric and electronic properties of BTTO, BTTN and Gd-added BTTN compounds are investigated. The calculated formation energies confirmed the thermodynamic stability of pseudo-tetragonal Gd-added BTTN compounds. Using the Berry-phase approach for piezoelectric materials, the calculated maximum polarization is 54.00 μC/cm2, which is in agreement with values obtained experimentally. Mentioned outcomes of the material clearly represent the potential of the BTTN:0.15Gd ceramic for the utilization in high-temperature piezoelectric devices.</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2410225397</t>
+          <t>https://openalex.org/W4382536692</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1039/d3cp02035e</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Bussani et al. (1989)</t>
+          <t>Tang et al. (2023)</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>[Primary adenocarcinoma of the bladder].</t>
+          <t>Terahertz state switching of holograms enabled by vanadium dioxide-based metasurfaces</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>A clinicohistopathological study of 12 cases of primary adenocarcinoma of the bladder diagnosed over an 11 year period is presented. Six of these were pure adenocarcinomas, while the remainder consisted of 2 adenocarcinoma with transitional malignant elements, 2 adenosquamous carcinomas and 2 mesonephric adenocarcinomas. The biological behaviour of these neoplasms was particularly aggressive: in none of the cases was the neoplasm limited to the bladder epithelium, but was generally seen to have infiltrated the muscular wall. Leaving aside the specific treatment carried out, the prognosis was in all patients poor and a complete clinical recovery was achieved for just 2 subjects. Except for one case, death was always directly attributable to bladder cancer, but as a result of obstructive and inflammatory diseases relating to the size and the degree of local infiltration of the tumor rather than metastatic spread.</t>
+          <t>Holography is an important topic in optical research. Metasurface holography has attracted increasing attention in recent years. However, it is still challenging to achieve dynamic tuning of holograms in the terahertz band. As an excellent phase change material, vanadium dioxide (VO2) is widely employed to dynamically manipulate electromagnetic waves. Here, VO2 meta-atoms are designed to manipulate phase and amplitude by changing the state of VO2 at 3.0 THz. These meta-atoms are composed of a VO2 block, silica spacer, and gold substrate. As the metallic VO2 is involved, 360° phase coverage is achieved by changing the dimension of VO2. The phase difference between the VO2 meta-atoms is approximately equal to 90°. Holograms are generated by aligning these meta-atoms. By combining convolution operations, holograms are deflected and reproduced. As the insulating VO2 is involved, the phase difference between the VO2 meta-atoms vanishes and the reflection amplitudes of the meta-atoms almost reach 100%. Using the phase transition of VO2, three types of metasurfaces are designed to manipulate holograms and they realize state switching of the hologram generator, state switching of hologram deflection, and state switching of the multi-beam hologram. Our work may find applications in optical holography and information privacy.</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4200216148</t>
+          <t>https://openalex.org/W2753209105</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1111/jols.12333</t>
+          <t>https://doi.org/10.1353/eir.1996.0023</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Bryson (2021)</t>
+          <t>Ziaukas (1996)</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>The politics of preservation: oral history, socio‐legal studies, and praxis</t>
+          <t>“Indispensable Wires”: Joyce’s Ulysses and the Origins of Public Relations</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Abstract Oral history is a surprisingly under‐utilized resource in socio‐legal studies. This article explores some of the theoretical and experiential reasons for this deficiency. It begins with an overview of both fields to date, including instances of intellectual collaboration. It then considers tensions between qualitative and oral history interviews under the overlapping themes of preservation, accountability, and agency. The concluding section develops these theoretical arguments in light of ongoing ‘real‐world’ work in transitional justice. I argue in favour of a flexible, pragmatic, and imaginative response to the politics of oral history preservation and a more critical approach to the relationship between oral history, law, and politics. This is designed to encourage the collection and preservation of material that is otherwise side‐stepped, censored, or destroyed. Such an approach would yield benefits not only for the vexed process of ‘dealing with the past’ in post‐conflict societies but for socio‐legal scholarship more generally.</t>
+          <t>“INDISPENSABLE WIRES”: JOYCE’S ULYSSES AND THE ORIGINS OF PUBLIC RELATIONS TIM ZIAUKAS in Ulysses, an encyclopedic celebration of Dublin life in 1904, James Joyce offers a carefully nuanced portrait of a new kind of urban worker, choosing the burgeoning practice of public relations as the profession for his twentieth-century everyman, Leopold Bloom. Even Joyce, a consummate self-promoter who would have been delighted by today’s global Bloomsday festivals, might have been stunned by his prescience. Bloom’s nascent efforts at public relations have blossomed into what is arguably the archetypal profession of our time: the manager of communications, the spin doctor, the flack. The novel, as it turns out, offers the early whispers of what will become a chorus of voices that now dominates our social and cultural landscape, yet this aspect of the text has been largely ignored. An inventory of public relations materials in Ulysses, I contend, shows that Joyce used the new profession as an organizing principle, and that these public relations materials provide a specialized commentary on the events and characters in the novel. Ulysses is the story of three Dubliners—Stephen Dedalus, Leopold Bloom, and Bloom’s wife, Molly—on a single day, 16 June 1904. Using their narrative, and an elaborate system of allusion, Joyce attempts to show us how the ordinary comings and goings of these everyday people contain the seeds of the heroic, perhaps even the eternal. He attempts to make his book complete, encyclopedic, to contain all Dublin events of the period he is depicting and to dramatize all the activities of its inhabitants. To that end, then, someone dies and another is born; someone urinates, another defecates; people work and play, make love and fornicate; someone even picks his nose. There are royals and rogues in a cast as complete as Chaucer’s pilgrims. At the center (like the Knight, perhaps) is Bloom, who, by day’s end, may be happily returned to his wife and may be Dublin’s JOYCE’S ULYSSES AND THE ORIGINS OF PUBLIC RELATIONS 176 moral compass—the conscience of them all. I’m suggesting here that Joyce uses the public relations materials in the novel to dramatize Bloom’s transformation from comic cuckold, who is his wife’s “handler” and promoter, to reinstated husband—a process central in a book, it could be said, about processes. Bloom is a canvasser. Finding himself, according to one critic, “in the classical squeeze between the Scylla of pleasing the client, and the Charybdis of getting cooperation from his own publication” (Berger 26), he solicits ads for The Freeman’s Journal and National Press, a Dublin morning daily. Yet in spite of current critical assumptions, his job involves far more than selling advertising. Colin MacCabe maintains that “[w]hen Joyce chose for the hero of Ulysses a canvasser of advertising, he was not just choosing an occupation amongst others, but a crucial nexus in the organization and circulation of information” (151). Yes, but Bloom is not, as many of the studies of Ulysses suggest, in advertising—Mark Osteen’s excellent The Economy of Ulysses: Making Both Ends Meet, among others, notwithstanding. Bloom is, in fact, the proto-public-relations man of the twentieth century, insofar as practitioners themselves define their profession . A closer examination of Ulysses—situated in the early history of public relations—is long overdue. The period depicted in the novel—the first decade of the twentieth century —is a formative era in the history of public relations. Between the turn of the century and World War I, the field emerged as a distinctive vocation , separate from, yet incorporating elements of, advertising and marketing . In his pioneering study of the early years of public relations, Alan Raucher describes the development of a new and distinctive entrepreneurship accompanying an emerging “stream” of information (vii). To some extent, this first generation of public relations experts developed in response to the muckrakers—reform-minded editors and journalists who successfully reached a growing national audience through the popular press and national wire services (Cutlip 100). As figures like Upton Sinclair and Ida Tarbell lashed out at the excesses of the American industrial revolution , public relations—or the...</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4378604360</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1353/tech.1988.0014</t>
+          <t>https://openalex.org/W2596733843</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Zupko (1988)</t>
+          <t>Alolaiwi (2017)</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Measures and Men by Witold Kula</t>
+          <t>Identity Issues: The Passing Mulatto and the Politics of Representations</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>TECHNOLOGY AND CULTURE Book Reviews 141 ers. Since World War I, and even more since 1945, rapid technologi­ cal changes have destroyed the old certainties of strategy, leaving its practitioners groping in the dark. Students of technological change will not be surprised to learn that their field of interest now occupies the center of the stage of history. Daniel R. Headrick Dr. Headrick is professor of social science and history at Roosevelt University, and the author of Ejército y Política en España (1866—1898) (Madrid, 1981), The Tools ofEmpire: Technology andEuropean Imperialism in theNineteenth Century (New York, 1981), and The Tentacles ofProgress: Technology Transfer in theAge ofImperialism, 1850-1940 (New York, 1988). He is currently studying the relations between telecommunications and international politics from 1851 to 1945. Measures and Men. By Witold Kula. Translated by Richard Szreter. Princeton, N.J.: Princeton University Press, 1986. Pp. x+386; notes, glossary, bibliography, index. $39.50. In Measures and Men, Witold Kula, a professor at the University of Warsaw and the doyen of Polish economic historians, has written a fascinating account of the numerous ways that certain European weights and measures systems interacted with various levels of me­ dieval and early modern preindustrial cultures. The emphasis is placed on such divergent themes as the sociological ramifications of weights and measures, how they evolved to meet the complex needs of local and regional economies, how they became an intricate part of everyday life commensurate with linguistic differences, how they proliferated because of the demands of work functions, ethnic bi­ ases, symbolism, and product requirements, how they resisted stan­ dardization programs, how community pressure influenced them, and how they helped to shape the evolutionary course of European life. Kula strives to demonstrate that weights and measures simply mirrored the differences and incongruities of societies before the In­ dustrial Revolution, necessitating more strict adherence to regional and interregional uniformity. The earlier metrologies were neither good nor bad; they were simply a natural manifestation of smallerscaled economies. They served their local, restricted purposes well, even though they would obviously pose a severe handicap for eco­ nomic and industrial development in any more advanced economic milieu. Kula has accomplished his goal in admirable fashion. The book has its drawbacks. First, it is divided into four ex­ tremely divergent sections. Parts 1 and 4 are both general and inter­ national in scope, while the second and third parts deal with Poland and France, respectively. Within these sections are twenty-four short chapters that often do not relate and make more for a series of vignettes than for a smooth transitional progression. Because the book is devoid of a central overriding thesis, it is sometimes diffi­ cult to tie the various discussions together. 142 Book Reviews TECHNOLOGY AND CULTURE Second, although practices such as permitting goods to be sold in heaped and shallow measures bespeak a malevolent class struggle in which lords cheated peasants and capitalist employers cheated the working class, Kula’s obsession with this traditional Marxist axiom tends to be overdone. One senses at times that societal fric­ tions and hatreds were the primary reason for metrological diversifi­ cation and proliferation. This simply was not the case for most of Europe’s metrological problems. True, Kula’s emphasis does eluci­ date a wide series of sociological phenomena, but metrological inequi­ ties were more of an economic impediment than a cultural impasse. Unfortunately, Kula does not explore this critical issue. Finally, more emphasis is needed on the scientific and technologi­ cal aspects of metrology and less on the sociological. Without explor­ ing this vital area of weights and measures development, the path to standardization reform, particularly evidenced in Kula’s treat­ ment of the French road to metric reform in part 3, cannot be under­ stood. This happens because Kula is interested in standardization not for the sake of scientific, technological, and economic progress but for the sake of social justice. These criticisms should not detract, however, from the fact that Kula presents us with a rich potpourri of metrological topics writ­ ten in an engrossing manner. The field of historical metrology is en­ riched by its publication, and English-language audiences are in­ debted to...</t>
+          <t>The transformation of the American nation into a multicultural society could result in a nation that voluntarily and openly accepts the benefits of contributing traditions, values, philosophies and behaviors. This trend, though, is struggling against a social structure that has been perceived to be grounded upon a dominant culture and value system. According to John A. Garcia, multiculturalism and difference are challenging cultural and ideological supremacy upsetting the sense of naturalness and neutrality that infused most peoples’ sense of modern society. The U.S. American ethos was characterized by individualism, egalitarianism, equality of opportunity and emphasis on Western cultures, among other things. All these characteristics have historically been turned into the perfect ingredients of a pervasive American tradition that serves as a cultural core that all members of society learnt to share and internalize ensuring societal stability and gradual change.</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2326616673</t>
+          <t>https://openalex.org/W61953674</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1166/jnn.2011.3239</t>
+          <t>https://doi.org/10.4438/1988-592x-re-2011-356-040</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Park et al. (2011)</t>
+          <t>Ruiz &amp; Ignácio (2011)</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Sepiocite, Sepiolite-Like Nanoclay Derived from Hydrotalcite-Like Layered Double Hydroxide</t>
+          <t>Un giro copernicano en la enseñanza universitaria: formación por competencias</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Sepiocite, a synthetic sepiolite-like nanoclay, was derived from hydrotalcite-like Mg2Al(CO3)0.5-layered double hydroxide (LDH) under phase transformation at 270 +/- 3 degrees C. The crystal structure of sepiocite is conceptually very similar to that of sepiolite derived from montmorillonite clay because sepiocite is formed through the alternation of the blocks and tunnels along the crystallographic c-axis, with a partial dehydroxylation of the octahedral Mg-(OH)-Al configuration into tetrahedral ones. Three important findings regarding sepiocite were arrived at: (i) its high specific surface area of 128.25 m2/g with an average particle size of 200 nm, which is approimately equal to 3.5 times larger than the specific surface area of the pristine LDH (34.21 m2/g); (ii) its non-swelling property; and (iii) its strongly reduced anion-exchange capacity.</t>
+          <t>espanolLa implementacion del enfoque de competencias en la ensenanza universitaria supone situarla en conformidad con las nuevas necesidades y demandas que se derivan de la sociedad de la informacion. El objetivo de este articulo es avanzar en esta innovadora direccion proponiendo un nuevo modelo de ensenanza universitaria fundamentado y contrastado en la practica educativa. Despues de describir un enfoque ecosistemico de las competencias en donde se indican los rasgos que las definen, se propone formular los objetivos formativos a partir de la distincion de los elementos que los integran. En paralelo, se plantea la pertinencia de seleccionar y organizar los contenidos academicos tomando como base modulos disciplinares o, mejor aun interdisciplinares, estructurados en nucleos problematicos y redes de problemas. Asimismo, se presenta una metodologia didactica innovadora que promueve un aprendizaje activo, reflexivo y autentico basado en la investigacion colaborativa de los estudiantes tomando como base distintas fuentes de informacion: impresas, audiovisuales, informaticas e institucionales. Por ultimo, se describe un enfoque holistico para la evaluacion de la adquisicion de las competencias en el que se distinguen tres momentos claves: evaluacion diagnostica, evaluacion formativa y evaluacion sumativa. Para realizar esta compleja y rigurosa valoracion del aprendizaje academico se indican una serie de tecnicas e instrumentos que permiten una evaluacion autentica puesto que integran tanto evidencias de conocimiento como evidencias de desempeno. Este nuevo modelo esta siendo implementado en algunas materias de distintas facultades de la Universidad de Sevilla (Pedagogia, Psicologia, Odontologia, Economicas �fase inicial�, entre otras). Los resultados obtenidos demuestran que se incrementa el nivel y calidad del aprendizaje academico en cuanto que los estudiantes logran adquirir las competencias previstas. El articulo concluye senalando la necesidad de que este reciente enfoque pedagogico este sustentado en un cambio profundo en tres componentes basicos del sistema convencional de Educacion Superior: estructura institucional, cultura academica y curriculo universitario. EnglishImplementation of the competence approach at the university teaching level means enabling university teaching to equal the new needs and demands of the information society. The aim of this paper is to move in this innovative direction by proposing a new model of university teaching based on and tested in educational practice. An eco-systemic competencebased approach is described, and the approach�s defining features are given. Educational aims are then formulated, starting with a map of their constituent elements. A proposal is made regarding the validity of selecting and organizing academic contents on the basis of disciplinespecific or, even better, interdisciplinary modules structured into core problems and problem networks. Likewise, an innovative didactic methodology is presented, which promotes active, reflexive, true learning based on cooperative student research, on the basis of different sources of information: printed matter, audiovisuals, computerized sources and institutional sources. Lastly, a holistic focus is described for evaluating competence acquisition, in which three key points in time are distinguished: diagnostic evaluation, formative evaluation and additive evaluation. A series of techniques and instruments are outlined for performing this complex, rigorous evaluation of academic learning. These techniques and instruments make it possible to conduct a true evaluation, because they incorporate knowledge evidence and performance evidence at the same time. This new model is being implemented in a number of subjects at different schools at the University of Seville (inter alia, the School of Education, the School of Psychology, the School of Odontology and the School of Economics �undergraduate phase). Results show increases in the level and quality of academic learning as students master expected competences. The paper ends by pointing out the need for this brand-new pedagogical approach to be based on a deep change in three key elements of the conventional higher education system: institutional structure, academic culture and university curriculum.</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2019259807</t>
+          <t>https://openalex.org/W2286245466</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1111/j.1467-3010.2008.00694.x</t>
+          <t>https://doi.org/10.6846/tku.2013.00940</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Buttriss (2008)</t>
+          <t>邵啟峰 (2013)</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Health policy set to tackle obesity</t>
+          <t>兩岸國中歷史教科書關於中華民國史(1911年~1936年)之比較分析</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>As the Cabinet Office report Food: an analysis of the issues (Cabinet Office 2008), published in January 2008, makes plain, from the austerity of the post-war years, when almost a third of disposable income was spent on food, the modern consumer now has access to a wide choice of safe and affordable food and drink, and benefits from investment in product innovation and reformulation on the part of food manufacturers and from a highly competitive grocery market. But at the same time, sustainability of public health is threatened by the trends in obesity and type 2 diabetes and in particular the metabolic health of children and young people. Furthermore, in many Western populations, including the UK, the age profile of the population is changing – people are living longer but much of the extra lifespan is not spent in good health, resulting in implications for public health expenditure. Age-related change in health and disability was the theme of the British Nutrition Foundation's Annual Lecture, given by Professor Kay-Tee Khaw last November, who posed the question: ‘Is ageing modifiable?’ (see Khaw 2008). An ageing population also has other effects on the economy (e.g. in relation to pension requirements and the need for resource planning). The challenge to all those engaged in food and health policy and food provision is to ensure that greater recognition is attached to the linkages between food, nutrition, physical activity and health, that the food industry continues to expand the repertoire of healthier products available and that such products progressively dominate, and that those responsible for the built environment and transport policy in our town centres contribute to a far greater extent than is currently the case to facilitating regular physical activity. A long overdue cross-government strategy (for England) to tackle obesity was published at the beginning of the year: Healthy weight, Healthy lives (Department of Health and Department of Children, Schools and Families 2008), and the Food Standards Agency (FSA) has announced its plans to tackle high-saturated-fatty-acid intakes within the context of its Saturated Fat and Energy Intake Programme (FSA 2008a). The key themes are outlined below, but achievement of these plans will require a concerted effort across government and a genuine partner approach involving a wide range of stakeholders. The transformation of the food supply with respect to trans fatty acids demonstrates what the food industry can achieve on its own, without legislative pressure, when the scientific evidence is robust. In February, the FSA published a response from the Secretary of State for Health, Alan Johnson, to the Agency's December 2007 recommendation that mandatory restrictions on trans fatty acids are not necessary. The letter expresses the Secretary of State's support for the FSA's recommendation and agrees that the focus should now be on reducing saturates in the diet through voluntary measures, while maintaining the progress already made on trans fats (see http://www.food.gov.uk/multimedia/pdfs/ajtransfatletter080110.pdf). The background to the trans issue is discussed in a News and Views article in this issue (see Denny 2008). Healthy weight, Healthy lives is a cross-government strategy for England published by the Department of Health and Department of Children, Schools and Families (2008). Helped by a panel of experts, the government promises to publish annually an assessment of the progress it is making in halting, and then turning around, the rise in excess bodyweight. Ministers will use this annual assessment to develop and intensify their policy focus. Below is a summary of the key themes of the report. Immediate plans are to: identify at-risk families as early as possible and promote breastfeeding as the norm for mothers; give better information to parents about their children's health by providing parents with their child's results from the National Child Measurement Programme (see The Information Centre for Health and Social Care 2008); invest to ensure that all schools are healthy schools, including making cooking a compulsory part of the curriculum by 2011 for all 11- to 14-year-old children; ask all schools to develop healthy lunchbox policies, so that those not yet taking up school lunches are also eating healthily; develop tailored programmes in schools to increase the participation of obese and overweight pupils in PE and sporting activities; invest £75 million in an evidence-based marketing programme which will inform, support and empower parents in making changes to their children's diet and levels of physical activity; invest in improving cycling infrastructure and skills in areas where child weight is a particular problem, as part of the recently announced package of further funding of £140 million for Cycling England. Immediate plans are to: finalise a Healthy Food Code of Good Practice, in partnership with the food and drink industry, and other</t>
+          <t>Sun Yat-sen Chinese Revolution Centennial Celebration Events, and Taiwan last year in 2011 to celebrate Centennial, from the point of view the same time, the two sides are different historical interpretation. Taiwan's National Education textbooks in the past limited to KMT history special space-time background, martial law era of authoritarian era, many facts are not telling the truth, of course, can not be modified according to anecdotes textbooks. Published in mainland China in which there will be political thinking in mainland China, but Taiwan's textbook writers to provide a very important reference. Because of this, textbooks taught our content, not just to maintain the tone of the Chinese Kuomintang in the past, together with the Kuomintang and the Communist Party of China in modern history, deconstructed and then re-constructed. In other words, those in power will have a of interpretation, it is beyond doubt. Because of national education textbooks can not be changed with the political parties in power and again. Past, KMT history as Republic of China Modern History textbooks must become history. The results showed that the two sides view of history, the Chinese mainland is the Marxist materialist view of history, to describe the history, just as described in the text on both sides of the textbook, the two are not the same. For the interpretation of the of each ROC is not the same, in addition to being ideological influence, the postmodernist perspective, because different objects, there will be a different narrative perspective and ideas.</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1554434988</t>
+          <t>https://openalex.org/W2076640566</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/j.tca.2003.12.013</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>강옥선 (2002)</t>
+          <t>Zengin &amp; Ceylan (2004)</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>영국 낭만시에서 여성의 목소리 읽기 : 애너 바볼드의 후기시를 중심으로</t>
+          <t>The changes in transformation temperatures under stress of Cu–12.7Al–5Ni–2Mn alloy</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>The literary canon of romanticism has so far been centered on masculine romanticism. It is necessary to discover the neglected feminine voice in English Romanticism. The feminine voice describes the feminine values, focusing on female freedom and social revolution. Women romantic poets celebrated the feminine moral sensibility by equating virtue with compassion for others and peaceful co-existence in their poetic texts. There is no possibility for appreciating hope of achieving self identification and social change without reading the feminine voice in English romanticism. Anna Barbauld (1743-1825) often voiced her belief in the freedom of mind, which is the genesis of all social reform. This paper attempts to read the feminine voice in English romantic poetry, focusing on Barbauld’s later poems. Barbauld wrote the prophecy of the end of the British empire in her later poem, “Eighteen Hundred and Eleven,” suggesting that its failure was caused due to a result of the male-centered values, such as destructive desire and profit motive. In this poem, Barbauld’s voice for resistance in male dominated society warns the dangers of commerce, emphasizing the negative aspects within commerce. Barbauld’s poems show the feminine moral sensibility such as ethics of care as opposed to ethics of justice in the commercial and industrial society. The feminine voice in Barbauld’s later poems is distinctly claiming the feminine role as moralist to achieve a moral society in English romantic age.</t>
+          <t>The effects of the stress on shape memory properties of Cu–12.7Al–5Ni–2Mn shape memory alloy have been investigated. Applied stress increases transformation temperatures and the relationship between T0, temperature at which Gibbs free energy of austenite equals that of martensite, and plastic deformation is linear.</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2995315818</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/j.echo.2019.09.021</t>
+          <t>https://openalex.org/W2410225397</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Pockros et al. (2020)</t>
+          <t>Bussani et al. (1989)</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>System-Wide Echocardiography Accreditation: Physician Perceptions and Concerns</t>
+          <t>[Primary adenocarcinoma of the bladder].</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Echocardiography accreditation at outpatient imaging facilities has been reported to improve diagnostic quality, reduce interpretative variability, and increase imaging appropriateness.1Behera S. Smith S.N. Tracy T.A. Impact of accreditation on quality in echocardiograms: a quantitative approach.J Am Soc Echocardiogr. 2017; 30: 913-922Abstract Full Text Full Text PDF PubMed Scopus (10) Google Scholar, 2Daubert M.A. Yow E. Barnhart H.X. Quality improvement implementation: improving reproducibility in the echocardiography laboratory.J Am Soc Echocardiogr. 2015; 28: 959-968Abstract Full Text Full Text PDF PubMed Scopus (33) Google Scholar, 3Bhatia R.S. Milford C.E. Picard M.H. Weiner R.B. An educational intervention reduces the rate of inappropriate echocardiograms on an inpatient medical service.J Am Coll Cardiol Imaging. 2013; 6: 545-555Crossref Scopus (76) Google Scholar Historically, outpatient echocardiography facilities have individually applied for Intersocietal Accreditation Commission (IAC) accreditation. However, some health systems have recently experimented with “system-wide accreditation,” in which all of a hospital's affiliated echocardiography facilities apply for accreditation under the same IAC application and standards.4The Intersocietal Accreditation CommissionIAC standards and guidelines for adult echocardiography accreditation. Part A: organization. Section 6A: multiple sites (fixed and/or mobile).https://www.intersocietal.org/echo/standards/IACAdultEchocardiographyStandards2017.pdfDate accessed: August 7, 2019Google Scholar This new approach to accreditation may potentially reduce application expenditures, save resources, and promote collaborative cardiac care across a health network. There are currently no published studies evaluating physician perceptions about this novel approach to accreditation. We examined physician perceptions about echocardiography accreditation following a hospital's recent transition to system-wide echocardiography accreditation. Maximizing the potential benefits of system-wide accreditation will require hospital physicians to trust the quality of imaging and accuracy of interpretation from referring facilities. We e-mailed a survey to all 32 cardiologists and all 35 hospitalists at Maine Medical Center, a tertiary-care hospital in southern Maine, which recently transitioned to system-wide echocardiography accreditation for its 22 affiliated facilities in 2018. The survey consisted of seven questions presented as single-answer multiple choice, multiple-answer multiple choice, rating scale, and open ended, along with an opportunity for additional comments. All responses were anonymous. A statistical analysis was performed using Excel version 15.40 (Microsoft, Redmond, WA) software. We performed two-tailed unpaired t tests comparing cardiologist and hospitalist responses. P values were derived from Fisher's exact test for categorical variables and a Mann-Whitney U test for continuous variables. We accepted P &lt; .05 as significant. Physician responses to the questionnaire are reported in Table 1. We received 30 responses in total (45%): 17 from cardiologists (53%) and 13 from hospitalists (37%). Fourteen out of 17 cardiologists (82%) and 11 out of 13 hospitalists (85%) indicated that they do not consider echocardiography accreditation when evaluating an interpretation from a referral site; 29% of cardiologists reported, “I do not trust reports from physicians I am not familiar with, regardless of accreditation.”Table 1Physician responses to surveyCardiologists (n = 32)Hospitalists (n = 35)P valueResponse rate (n)53 (17)37 (13)—Ordered repeat echo: Yes100100 No00—Reason for repeat: Poor image quality5331.23 Images from unaccredited facility68.84 “Do not trust interpreting physician”290.03 Financial incentives00— Image not available7654.19 Change in patient clinical status6569.79 Other00—Consider IAC accreditation before repeat echo: Yes128.71 No8285.87 Other68.84More likely to repeat for specific patient population: Yes7638.03 No2462.04Repeat echo resulting in different diagnosis32.0 (CI, 23.2-40.7)23.2 (CI, 12.8-33.6).22“Unnecessary” repeat echo ordered in 2-week period6.4 (CI, 3.9-8.9)3.3 (CI, 1.4-5.2).09All data are shown as percentages unless otherwise indicated. Open table in a new tab All data are shown as percentages unless otherwise indicated. Physicians were asked to estimate how often they ordered an “unnecessary” repeat echocardiogram in a 2-week period. We defined unnecessary as reasons excluding changes in patient condition or unavailability of images. Cardiologists estimated that within a 2-week period, 6.4% (95% CI, 3.9%-8.9%) of echocardiograms ordered are unnecessary repeats. In comparison, 3.3% (95% CI, 1.4%-5.2%) of echocardiograms ordered by hospitalists were considered unnecessary repeats (P = .09). The findings of our study are an important consideration for hospitals considering IAC system-wide accreditation. We demonstrate that most physicians</t>
+          <t>A clinicohistopathological study of 12 cases of primary adenocarcinoma of the bladder diagnosed over an 11 year period is presented. Six of these were pure adenocarcinomas, while the remainder consisted of 2 adenocarcinoma with transitional malignant elements, 2 adenosquamous carcinomas and 2 mesonephric adenocarcinomas. The biological behaviour of these neoplasms was particularly aggressive: in none of the cases was the neoplasm limited to the bladder epithelium, but was generally seen to have infiltrated the muscular wall. Leaving aside the specific treatment carried out, the prognosis was in all patients poor and a complete clinical recovery was achieved for just 2 subjects. Except for one case, death was always directly attributable to bladder cancer, but as a result of obstructive and inflammatory diseases relating to the size and the degree of local infiltration of the tumor rather than metastatic spread.</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1985122628</t>
+          <t>https://openalex.org/W4200216148</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1521/jscp.1992.11.4.377</t>
+          <t>https://doi.org/10.1111/jols.12333</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Chwalisz et al. (1992)</t>
+          <t>Bryson (2021)</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Causal Attributions, Self-Efficacy Cognitions, and Coping with Stress</t>
+          <t>The politics of preservation: oral history, socio‐legal studies, and praxis</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Causal Attributions, Self-Efficacy Cognitions, and Coping with StressKathleen Chwalisz, Elizabeth M. Altmaier and Daniel W. RussellKathleen Chwalisz1 Southern Illinois University, Elizabeth M. Altmaier and Daniel W. RussellThe University of IowaPublished Online:January 2011https://doi.org/10.1521/jscp.1992.11.4.377PDFPDF PLUS ShareShare onFacebookTwitterLinkedInRedditEmail ToolsAdd to favoritesDownload CitationsTrack Citations About Previous article Next article FiguresReferencesRelatedDetails Cited byCited by1. Investigating fixed and growth teaching mindsets and self-efficacy as predictors of language teachers' burnout and professional identityOnline publication date: 12 February 2023. Go to citation Crossref Google Scholar2. The level of perceived stress, burnout, self-efficacy, and coping strategies among physiotherapy academicians during the COVID-19 lockdownOnline publication date: Go to citation Crossref Google Scholar3. The Mediating Effects of Social Comparison on Faculty Burnout, Teaching Anxiety, and Satisfaction Among Faculty Who Taught During the COVID-19 PandemicOnline publication date: 16 November 2022. Go to citation Crossref Google Scholar4. How Does Transformational Leadership Relieve Teacher Burnout: The Role of Self-Efficacy and Emotional IntelligenceOnline publication date: 16 September 2022. Go to citation Crossref Google Scholar5. Trait attributions and threat appraisals explain why an entity theory of personality predicts greater internalizing symptoms during adolescenceOnline publication date: 23 March 2021. Go to citation Crossref Google Scholar6. Pupils' Adaptability at School, a Balance Between Demands and Resources?Online publication date: 30 June 2022. Go to citation Crossref Google Scholar7. The Interplay of Locus of Control and Role Stress-evidences from Healthcare SectorOnline publication date: 5 March 2021. Go to citation Crossref Google Scholar8. Speaking up and out: examining the predictors of prohibitive voice among teachersOnline publication date: 7 September 2021. Go to citation Crossref Google Scholar9. Linking Parental Phubbing to Adolescent Self-Depreciation: The Roles of Internal Attribution and Relationship SatisfactionOnline publication date: 1 February 2021. Go to citation Crossref Google Scholar10. Resilience, sense of coherence and self-efficacy as predictors of stress coping style among university studentsOnline publication date: 16 July 2019. Go to citation Crossref Google Scholar11. The impact of cognitive-behavioural stress management coaching on changes in cognitive appraisal and the stress response: a field experimentOnline publication date: 15 October 2020. Go to citation Crossref Google Scholar12. Teacher coping profiles in relation to teacher well-being: A mixed method approachOnline publication date: Go to citation Crossref Google Scholar13. Sharing economy platforms: An equity theory perspective on reciprocity and commitmentOnline publication date: Go to citation Crossref Google Scholar14. Job Demands–Resources theory and self-regulation: new explanations and remedies for job burnoutOnline publication date: 28 August 2020. Go to citation Crossref Google Scholar15. Poczucie własnej skuteczności nauczyciela w kontekście problemu przemocy rówieśniczej wśród uczniówOnline publication date: 1 January 2021. Go to citation Crossref Google Scholar16. Does Haze Drive Pro-Environmental and Energy Conservation Behaviors? Evidence from the Beijing-Tianjin-Hebei Area in ChinaOnline publication date: 28 November 2020. Go to citation Crossref Google Scholar17. Exploring Mindfulness Benefits for Students and Teachers in Three German High SchoolsOnline publication date: 11 November 2019. Go to citation Crossref Google Scholar18. Teachers Between Job Satisfaction and Burnout Syndrome: What Makes Difference in Czech Elementary SchoolsOnline publication date: 29 October 2019. Go to citation Crossref Google Scholar19. Parents' Feelings, Coping Strategies and Sense of Parental Self-Efficacy When Dealing With Children's Victimization ExperiencesOnline publication date: 4 October 2019. Go to citation Crossref Google Scholar20. Differentiated effects of risk perception and causal attribution on public behavioral responses to air pollution: A segmentation analysisOnline publication date: Go to citation Crossref Google Scholar21. What happens at home does not stay at home: The role of family and romantic partner conflict in destructive leadershipOnline publication date: 12 April 2019. Go to citation Crossref Google Scholar22. The Relationship among Middle School Students' Sibling Bullying Victimization, Characterological Self-Blame, Coping Self-Efficacy, and Peer Bullying VictimizationOnline publication date: Go to citation Crossref Google Scholar23. Emotions and teaching styles among academics: the mediating role of research and teaching efficacyOnline publication date: 31 December 2018. Go to citation Crossref Google Scholar24. Improved Parent Cognitions Relate to Immediate</t>
+          <t>Abstract Oral history is a surprisingly under‐utilized resource in socio‐legal studies. This article explores some of the theoretical and experiential reasons for this deficiency. It begins with an overview of both fields to date, including instances of intellectual collaboration. It then considers tensions between qualitative and oral history interviews under the overlapping themes of preservation, accountability, and agency. The concluding section develops these theoretical arguments in light of ongoing ‘real‐world’ work in transitional justice. I argue in favour of a flexible, pragmatic, and imaginative response to the politics of oral history preservation and a more critical approach to the relationship between oral history, law, and politics. This is designed to encourage the collection and preservation of material that is otherwise side‐stepped, censored, or destroyed. Such an approach would yield benefits not only for the vexed process of ‘dealing with the past’ in post‐conflict societies but for socio‐legal scholarship more generally.</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1986944309</t>
+          <t>https://openalex.org/W4378604360</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1103/physrevb.81.104509</t>
+          <t>https://doi.org/10.1353/tech.1988.0014</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Charpentier et al. (2010)</t>
+          <t>Zupko (1988)</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Antiferromagnetic fluctuations and the Hall effect of electron-doped cuprates: Possibility of a quantum phase transition at underdoping</t>
+          <t>Measures and Men by Witold Kula</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>We present a complete analysis of the temperature dependence of the Hall coefficient ${R}_{H}(T)$ as a function of cerium doping, $x$, on improved thin films of ${\text{Pr}}_{2\ensuremath{-}x}{\text{Ce}}_{x}{\text{CuO}}_{4\ifmmode\pm\else\textpm\fi{}\ensuremath{\delta}}$ made by pulsed-laser deposition. By mapping its first temperature derivative $d{R}_{H}(T)/dT$ in a temperature-doping phase diagram, we show that some of the most important variations of ${R}_{H}(T,x)$ occur in a $T\text{\ensuremath{-}}x$ range just above the antiferromagnetic (AF) transition, ${T}_{N}(x)$. This area of large $d{R}_{H}(T)/dT$ in the phase diagram collapses at underdoping, very close to the onset of superconductivity at $x=0.12$. Assuming that this zone remains above ${T}_{N}(x)$, it suggests the presence of a zero-temperature critical point at underdoping in the phase diagram of the electron-doped cuprates on top of the one reported at ${x}^{\ensuremath{\ast}}\ensuremath{\sim}0.165$. Both of these critical points can be related to specific transitions in Fermi-surface morphology with doping observed by ARPES. Hence, we conclude that the phase diagram of the $n$-type family presents two zero-temperature critical points similar to the $p$-type cuprates, setting clear limiting boundaries for theoretical models, in particular, the absence of long-range AF order between $x=0.12$ and ${x}^{\ensuremath{\ast}}\ensuremath{\sim}0.165$.</t>
+          <t>TECHNOLOGY AND CULTURE Book Reviews 141 ers. Since World War I, and even more since 1945, rapid technologi­ cal changes have destroyed the old certainties of strategy, leaving its practitioners groping in the dark. Students of technological change will not be surprised to learn that their field of interest now occupies the center of the stage of history. Daniel R. Headrick Dr. Headrick is professor of social science and history at Roosevelt University, and the author of Ejército y Política en España (1866—1898) (Madrid, 1981), The Tools ofEmpire: Technology andEuropean Imperialism in theNineteenth Century (New York, 1981), and The Tentacles ofProgress: Technology Transfer in theAge ofImperialism, 1850-1940 (New York, 1988). He is currently studying the relations between telecommunications and international politics from 1851 to 1945. Measures and Men. By Witold Kula. Translated by Richard Szreter. Princeton, N.J.: Princeton University Press, 1986. Pp. x+386; notes, glossary, bibliography, index. $39.50. In Measures and Men, Witold Kula, a professor at the University of Warsaw and the doyen of Polish economic historians, has written a fascinating account of the numerous ways that certain European weights and measures systems interacted with various levels of me­ dieval and early modern preindustrial cultures. The emphasis is placed on such divergent themes as the sociological ramifications of weights and measures, how they evolved to meet the complex needs of local and regional economies, how they became an intricate part of everyday life commensurate with linguistic differences, how they proliferated because of the demands of work functions, ethnic bi­ ases, symbolism, and product requirements, how they resisted stan­ dardization programs, how community pressure influenced them, and how they helped to shape the evolutionary course of European life. Kula strives to demonstrate that weights and measures simply mirrored the differences and incongruities of societies before the In­ dustrial Revolution, necessitating more strict adherence to regional and interregional uniformity. The earlier metrologies were neither good nor bad; they were simply a natural manifestation of smallerscaled economies. They served their local, restricted purposes well, even though they would obviously pose a severe handicap for eco­ nomic and industrial development in any more advanced economic milieu. Kula has accomplished his goal in admirable fashion. The book has its drawbacks. First, it is divided into four ex­ tremely divergent sections. Parts 1 and 4 are both general and inter­ national in scope, while the second and third parts deal with Poland and France, respectively. Within these sections are twenty-four short chapters that often do not relate and make more for a series of vignettes than for a smooth transitional progression. Because the book is devoid of a central overriding thesis, it is sometimes diffi­ cult to tie the various discussions together. 142 Book Reviews TECHNOLOGY AND CULTURE Second, although practices such as permitting goods to be sold in heaped and shallow measures bespeak a malevolent class struggle in which lords cheated peasants and capitalist employers cheated the working class, Kula’s obsession with this traditional Marxist axiom tends to be overdone. One senses at times that societal fric­ tions and hatreds were the primary reason for metrological diversifi­ cation and proliferation. This simply was not the case for most of Europe’s metrological problems. True, Kula’s emphasis does eluci­ date a wide series of sociological phenomena, but metrological inequi­ ties were more of an economic impediment than a cultural impasse. Unfortunately, Kula does not explore this critical issue. Finally, more emphasis is needed on the scientific and technologi­ cal aspects of metrology and less on the sociological. Without explor­ ing this vital area of weights and measures development, the path to standardization reform, particularly evidenced in Kula’s treat­ ment of the French road to metric reform in part 3, cannot be under­ stood. This happens because Kula is interested in standardization not for the sake of scientific, technological, and economic progress but for the sake of social justice. These criticisms should not detract, however, from the fact that Kula presents us with a rich potpourri of metrological topics writ­ ten in an engrossing manner. The field of historical metrology is en­ riched by its publication, and English-language audiences are in­ debted to...</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3020498451</t>
+          <t>https://openalex.org/W2019259807</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.joca.2020.02.339</t>
+          <t>https://doi.org/10.1111/j.1467-3010.2008.00694.x</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Ley et al. (2020)</t>
+          <t>Buttriss (2008)</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Acetabular margin changes - implications for diagnosis and disease development of osteoarthritis in cats</t>
+          <t>Health policy set to tackle obesity</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Purpose: Changes in the acetabular margin, including the labrum and the chondrolabral (perilabral) transition zone, are suggested to be important in the pathogenesis of human coxofemoral (CF) osteoarthritis (OA). Radiologically, CF OA is common in cats, with marginal osteophytes being a key radiographic sign of OA. However, in cats neither investigations of microscopic features of the acetabular margin, nor associations between radiologically detected acetabular margin changes (AMC) and presence of microscopically verified articular cartilage lesions have been performed. This lack of information in regard to AMC means in clinical cases that the diagnosis of feline CF OA may sometimes be uncertain. This study aimed to investigate associations between computed tomography (CT)-detected AMC and microscopic articular cartilage lesions, describe distribution of detected changes and morphologic features of histologic AMC. Methods: Twenty cats (10 neutered males, 8 neutered females and 2 intact females) with a mean age of 9.9 years (median 8.5 years, range 1-19 years) submitted for post mortem examination were included in the study. All cats had CT performed of the CF joint region, followed by macroscopic examination and sampling for histology from selected joints (n=28). In 20 joints CT was used to guide histologic sampling to regions where AMC were deteced in the CT images, with the aim of maximizing the chance of including margin changes in the histological sample. Samples were formalin-fixed, decalcified and processed for histology. Microscopy was performed on hematoxylin and eosin, and toluidine blue stained sections of the acetabulum and proximal femur. In CT images, eight acetabular joint margin regions were defined and presence and severity (grade 0-3) of AMC (osteophytes, sclerosis and lysis) were graded and localized to these regions, giving a maximum summarized CT score (SCTS) of 72. Microscopic cartilage lesions were graded using a modified OARSI cartilage OA histopathology scoring protocol (grade 0-6.5), after dividing the acetabular cartilage into four approximately equal sized regions, two marginal (perilabral) and two central (perifossal), and the femoral cartilage also divided into two marginal and two central regions, providing a maximum summarized cartilage score (SCS) of 52 for all eight regions. Spearman rank correlation was used to calculate correlations between SCS and CT scores. In cats where both joints were histologically evaluated, only one joint was included in the correlation analysis, based on choosing the joint with the highest SCTS. Lesion distribution of osteophytes in CT images, and cartilage lesion distribution in regard to marginal and central areas were analyzed by a logistic mixed model. Histological features of the acetabular margin were described and comparisons made to the appearance in CT images. Results: CT-detected AMC were present in 35/40 joints, in 23/28 joints examined with histology and in 18/20 joints investigated for SCS and CT scores correlation. Based on macroscopic cartilage lesions 22 joints were OA negative, 4 joints showed mild OA and 2 joints severe OA. There was significant, strong correlation between acetabular SCTS and acetabular SCS (p = 0.00065, rho 0.69), CT osteophyte scores and acetabular SCS (p = 0.000011, rho 0.75) and significant, moderate correlation between acetabular SCTS and combined acetabular and femur SCS (p = 0.0171, rho 0.53). Frequency and grade of CT-detected osteophytes were significantly different in different regions (p &lt; 0.0001), with significantly higher frequency and grade of craniodorsal, cranial, cranioventral, ventral and dorsal acetabular margin regions compared to caudodorsal, caudal and caudoventral regions. Cartilage lesions were mild (≤ grade 2.5) in 23/28 joints, and marginal regions of the acetabulum showed significantly higher lesion grades than central acetabular regions (p = 0.0002). Labral tissue was clearly detected in caudal, ventral and craniodorsal acetabular regions, and variably or not detected in remaining regions. CT-detected osteophytes were included in the microscopic sections in 19/55 acetabular margins. Osteophytes comprised hook-like spurs in the labrum, rounded chondroosteophytes and pointed sclerotic bone extending the joint surface. Conclusions: The results suggest that CT is a valuable tool for diagnosing feline CF OA. CT-detected acetabular margin osteophytes show different histologic morphologies, which may implicate different disease mechanisms in the development of OA. The higher cartilage lesion grade severity in acetabular marginal compared to central regions suggests that the perilabral region is sensitive to cartilage degradation. Similar to discussed in human CF OA, the labral and chondrolabral transition zone may be important in the pathogenesis of OA and this warrants further studies.</t>
+          <t>As the Cabinet Office report Food: an analysis of the issues (Cabinet Office 2008), published in January 2008, makes plain, from the austerity of the post-war years, when almost a third of disposable income was spent on food, the modern consumer now has access to a wide choice of safe and affordable food and drink, and benefits from investment in product innovation and reformulation on the part of food manufacturers and from a highly competitive grocery market. But at the same time, sustainability of public health is threatened by the trends in obesity and type 2 diabetes and in particular the metabolic health of children and young people. Furthermore, in many Western populations, including the UK, the age profile of the population is changing – people are living longer but much of the extra lifespan is not spent in good health, resulting in implications for public health expenditure. Age-related change in health and disability was the theme of the British Nutrition Foundation's Annual Lecture, given by Professor Kay-Tee Khaw last November, who posed the question: ‘Is ageing modifiable?’ (see Khaw 2008). An ageing population also has other effects on the economy (e.g. in relation to pension requirements and the need for resource planning). The challenge to all those engaged in food and health policy and food provision is to ensure that greater recognition is attached to the linkages between food, nutrition, physical activity and health, that the food industry continues to expand the repertoire of healthier products available and that such products progressively dominate, and that those responsible for the built environment and transport policy in our town centres contribute to a far greater extent than is currently the case to facilitating regular physical activity. A long overdue cross-government strategy (for England) to tackle obesity was published at the beginning of the year: Healthy weight, Healthy lives (Department of Health and Department of Children, Schools and Families 2008), and the Food Standards Agency (FSA) has announced its plans to tackle high-saturated-fatty-acid intakes within the context of its Saturated Fat and Energy Intake Programme (FSA 2008a). The key themes are outlined below, but achievement of these plans will require a concerted effort across government and a genuine partner approach involving a wide range of stakeholders. The transformation of the food supply with respect to trans fatty acids demonstrates what the food industry can achieve on its own, without legislative pressure, when the scientific evidence is robust. In February, the FSA published a response from the Secretary of State for Health, Alan Johnson, to the Agency's December 2007 recommendation that mandatory restrictions on trans fatty acids are not necessary. The letter expresses the Secretary of State's support for the FSA's recommendation and agrees that the focus should now be on reducing saturates in the diet through voluntary measures, while maintaining the progress already made on trans fats (see http://www.food.gov.uk/multimedia/pdfs/ajtransfatletter080110.pdf). The background to the trans issue is discussed in a News and Views article in this issue (see Denny 2008). Healthy weight, Healthy lives is a cross-government strategy for England published by the Department of Health and Department of Children, Schools and Families (2008). Helped by a panel of experts, the government promises to publish annually an assessment of the progress it is making in halting, and then turning around, the rise in excess bodyweight. Ministers will use this annual assessment to develop and intensify their policy focus. Below is a summary of the key themes of the report. Immediate plans are to: identify at-risk families as early as possible and promote breastfeeding as the norm for mothers; give better information to parents about their children's health by providing parents with their child's results from the National Child Measurement Programme (see The Information Centre for Health and Social Care 2008); invest to ensure that all schools are healthy schools, including making cooking a compulsory part of the curriculum by 2011 for all 11- to 14-year-old children; ask all schools to develop healthy lunchbox policies, so that those not yet taking up school lunches are also eating healthily; develop tailored programmes in schools to increase the participation of obese and overweight pupils in PE and sporting activities; invest £75 million in an evidence-based marketing programme which will inform, support and empower parents in making changes to their children's diet and levels of physical activity; invest in improving cycling infrastructure and skills in areas where child weight is a particular problem, as part of the recently announced package of further funding of £140 million for Cycling England. Immediate plans are to: finalise a Healthy Food Code of Good Practice, in partnership with the food and drink industry, and other</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1942864181</t>
+          <t>https://openalex.org/W2978548382</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/j.ijer.2019.08.008</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Arutyunyan et al. (1988)</t>
+          <t>Ade-Ojo &amp; Duckworth (2019)</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>INELASTIC-SCATTERING OF ELECTRONS BY CLOSE-LYING LEVELS OF ISOMERIC NUCLEI</t>
+          <t>Forms of institutionalised symbolic violence and resistance in the journey of a cohort of adult literacy learners</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>The process of inelastic scattering of hot plasma electrons with energies upto 3 keV by a pair of close-lying nuclear levels (..delta../ital E/less than or equal to2keV), one of whichis isomeric, is discussed. The transition cross sections in the nuclei/sup 242/Am, /sup 171/Lu, and /sup 73/Se are calculated. Estimates of the numberof isomeric nuclei de-excited as a result of electron-stimulated processes in aplasma with parameters characteristic of present-day experiments in controlledthermonuclear fusion are given.</t>
+          <t>This paper explores how the public domain of schooling has shaped a cohort of Adult Literacy learners in the North of England. It highlights the important role that education plays in providing cultural and social resources required to organise an upward mobility shift; just as it serves as a site in which the inequalities that already exist are reproduced. The study explores the forms in which Bourdieu’s symbolic violence was visited on the cohort and how they resisted. It demonstrates the importance of offering learners, who do not fit with dominant ideologies a voice and a validation of their literacies, leading to the development of knowledge and the creation of a critical space for curriculum development, learner transformation and consciousness-raising.</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2802770008</t>
+          <t>https://openalex.org/W2731191492</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1057/978-1-137-54721-7_3</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Sajnani &amp; Johnson (2015)</t>
+          <t>Sardana &amp; Zhu (2017)</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Developmental transformations and social justice</t>
+          <t>Historical Links, Political Governance and Social Value Systems</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>This Chapter starts by illustrating historical links between China and India. This is done with the purpose of establishing and demonstrating the profound influence of Buddhism and Indian philosophies on Chinese society. Thereafter, the authors discuss in detail the political systems and governance in China and India. The elucidation of these allows readers to understand how the very distinct historical and social contexts have impacted the founding and evolution of the current political system in each country. The authors also deliberate upon the transformation of the social value system in the two societies. To do justice to this aspect, the authors offer detailed accounts of the political and social systems in China and India. The authors note that the historical evolution trajectories have been different in the two countries, for example: (1) historically homogeneous and centralized country (China) vs. historically non-homogeneous and decentralized country (India); (2) semi-colonization of China vs. complete colonization of India (earlier by Mughals and then later by the British); (3) full-scale violent revolution in China vs. emphasis on non-violent revolution in India, and consequently the impact on each of the societies (e.g. India has preserved the old elite system that has affected social thinking and norms, as well as the rich-poor divide compared with Communist rule emphasizing ‘equality’). These different historical paths have exerted a different influence on the fundamental legitimacy of the ruling class and thoughts of governance in these two distinct societies.</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>https://openalex.org/W871104578</t>
+          <t>https://openalex.org/W1985122628</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1521/jscp.1992.11.4.377</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Radu (2014)</t>
+          <t>Chwalisz et al. (1992)</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Rural Aspects Imprinted by the Economic Development to Romanian Urban Structure. Case Study: Fetesti Municipality</t>
+          <t>Causal Attributions, Self-Efficacy Cognitions, and Coping with Stress</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>1. General CharacteristicsFetecti is located in the south-eastern part of Romania, being a municipality in Ialomita County (fig. 1). The city is located in the extreme south-east of the county, on the left margin of the Danube's Borcea branch (Cucu, 1970). (fig- 2)In terms of accessibility, the city is crossed by Bucharest - Constanta highway, which is served by an exit; also, from the output, DN3A highway leads west to Lehliu-Station (Calara§i) and DN3B highway leads north to Giurgeni (where it ends and DN2A starts) and south to Calara§i. From DN3B, at Fetecti, it also starts the county road DJ212, which leads north to fandarei (where it meets DN2A) and further to Chiccani in Braila County (where it ends in DN21).The Bucharest - Constanta railway also crosses Fete§ti. From this point, another railway goes to fandarei and Faurei.The main neighboring urban centers are: Bucharest (150 km), Constanza (80 km), Slobozia (60 km) and Câlâraci (50 km).A meadow city, Fetecti is located on the left margin of the Borcea Branch. In Fetecti, the meadow is very narrow, being limited westward by the Hagieni Plain. Thus, the western districts of the city are located at the contact between meadow and plain, but, with altitudes lower in the plains, the transition from plain to meadow is slow, the city has a plain layout (Ciortan, 1984) (fig. 3).Due to its position, it has a temperate climate, with a pronounced degree of continentalism, characterized by big contrasts from summer to winter. The position and relief favor the penetration of cold continental air masses of Eurasian origin during winter and masses of hot air, hot and dry, from Asia or Mediterranean and Africa during summer, which give this area a specific note of aridity (Iuraccu et al, 2003).As a multi-nuclear settlement, from the administrative point of view, Fetecti city is made up of five neighborhoods: Fetecti City, Fetecti Station, Settlers, Vlacca, and Buliga.The main natural resources are represented by infields (over 8,000 ha) proper for agriculture, the Borcea branch which has an over 9 km length on the city's territory, the flora and the fauna (mainly the fishing stock) (Erdeli, Cucu, 2005, Popescu, 1994). The Danubian bridges between Fetecti and Cemavoda (A. Saligny) are very important to people. We can also mention the Municipal Museum and Saint Nicholas Church.In 2011, the population in Fetecti city was of 34,263 persons (about 26% of the urban population of the county). The population density is 338.6 inhabitants per sq. km (2,756.6 inhabitants per sq. km within incorporated area). Romanian ethnic population represents 95.2% of the total, the Roma, 4.5%, and the remaining 0.3% is of other ethnic groups. The average age of male persons is 36.5 years, for the female population is 38.6 years; the average age of the population is within the 35-39 interval. If the urban population stands out as an aging population, with an 11.9% of the elderly population, the urban population of the Ialomita County, implicitly Fetecti Municipality is characterized as an aging population, the elderly representing a rate of 10.4% and 10.9% of the total urban population. This can also be seen from the values of the degree of aging. Therefore, nationally, the proportion is 1,000 young people to 880 elderly and, at the level of Ialomita County and Fetecti city, the ratio is 1,000 young people to 669 or 662 old persons.Fetecti is characterized by a replacement rate of the labor force superior to that at the county, even national level. Therefore, in 15 years, 1,000 adults aged 15 to 64 will be replaced by 679 persons in the 15-64 years age group, while in the urban environment from Ialomita County the same number of persons will be replaced by 630 people and, at the national urban level, they will be replaced by just 546 people. Regarding the birth rate, Fetecti city (11.7 %o) is above the national level (10.3 %o), but below the county one (12. …</t>
+          <t>Causal Attributions, Self-Efficacy Cognitions, and Coping with StressKathleen Chwalisz, Elizabeth M. Altmaier and Daniel W. RussellKathleen Chwalisz1 Southern Illinois University, Elizabeth M. Altmaier and Daniel W. RussellThe University of IowaPublished Online:January 2011https://doi.org/10.1521/jscp.1992.11.4.377PDFPDF PLUS ShareShare onFacebookTwitterLinkedInRedditEmail ToolsAdd to favoritesDownload CitationsTrack Citations About Previous article Next article FiguresReferencesRelatedDetails Cited byCited by1. Investigating fixed and growth teaching mindsets and self-efficacy as predictors of language teachers' burnout and professional identityOnline publication date: 12 February 2023. Go to citation Crossref Google Scholar2. The level of perceived stress, burnout, self-efficacy, and coping strategies among physiotherapy academicians during the COVID-19 lockdownOnline publication date: Go to citation Crossref Google Scholar3. The Mediating Effects of Social Comparison on Faculty Burnout, Teaching Anxiety, and Satisfaction Among Faculty Who Taught During the COVID-19 PandemicOnline publication date: 16 November 2022. Go to citation Crossref Google Scholar4. How Does Transformational Leadership Relieve Teacher Burnout: The Role of Self-Efficacy and Emotional IntelligenceOnline publication date: 16 September 2022. Go to citation Crossref Google Scholar5. Trait attributions and threat appraisals explain why an entity theory of personality predicts greater internalizing symptoms during adolescenceOnline publication date: 23 March 2021. Go to citation Crossref Google Scholar6. Pupils' Adaptability at School, a Balance Between Demands and Resources?Online publication date: 30 June 2022. Go to citation Crossref Google Scholar7. The Interplay of Locus of Control and Role Stress-evidences from Healthcare SectorOnline publication date: 5 March 2021. Go to citation Crossref Google Scholar8. Speaking up and out: examining the predictors of prohibitive voice among teachersOnline publication date: 7 September 2021. Go to citation Crossref Google Scholar9. Linking Parental Phubbing to Adolescent Self-Depreciation: The Roles of Internal Attribution and Relationship SatisfactionOnline publication date: 1 February 2021. Go to citation Crossref Google Scholar10. Resilience, sense of coherence and self-efficacy as predictors of stress coping style among university studentsOnline publication date: 16 July 2019. Go to citation Crossref Google Scholar11. The impact of cognitive-behavioural stress management coaching on changes in cognitive appraisal and the stress response: a field experimentOnline publication date: 15 October 2020. Go to citation Crossref Google Scholar12. Teacher coping profiles in relation to teacher well-being: A mixed method approachOnline publication date: Go to citation Crossref Google Scholar13. Sharing economy platforms: An equity theory perspective on reciprocity and commitmentOnline publication date: Go to citation Crossref Google Scholar14. Job Demands–Resources theory and self-regulation: new explanations and remedies for job burnoutOnline publication date: 28 August 2020. Go to citation Crossref Google Scholar15. Poczucie własnej skuteczności nauczyciela w kontekście problemu przemocy rówieśniczej wśród uczniówOnline publication date: 1 January 2021. Go to citation Crossref Google Scholar16. Does Haze Drive Pro-Environmental and Energy Conservation Behaviors? Evidence from the Beijing-Tianjin-Hebei Area in ChinaOnline publication date: 28 November 2020. Go to citation Crossref Google Scholar17. Exploring Mindfulness Benefits for Students and Teachers in Three German High SchoolsOnline publication date: 11 November 2019. Go to citation Crossref Google Scholar18. Teachers Between Job Satisfaction and Burnout Syndrome: What Makes Difference in Czech Elementary SchoolsOnline publication date: 29 October 2019. Go to citation Crossref Google Scholar19. Parents' Feelings, Coping Strategies and Sense of Parental Self-Efficacy When Dealing With Children's Victimization ExperiencesOnline publication date: 4 October 2019. Go to citation Crossref Google Scholar20. Differentiated effects of risk perception and causal attribution on public behavioral responses to air pollution: A segmentation analysisOnline publication date: Go to citation Crossref Google Scholar21. What happens at home does not stay at home: The role of family and romantic partner conflict in destructive leadershipOnline publication date: 12 April 2019. Go to citation Crossref Google Scholar22. The Relationship among Middle School Students' Sibling Bullying Victimization, Characterological Self-Blame, Coping Self-Efficacy, and Peer Bullying VictimizationOnline publication date: Go to citation Crossref Google Scholar23. Emotions and teaching styles among academics: the mediating role of research and teaching efficacyOnline publication date: 31 December 2018. Go to citation Crossref Google Scholar24. Improved Parent Cognitions Relate to Immediate</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>https://openalex.org/W134639374</t>
+          <t>https://openalex.org/W1986944309</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2139/ssrn.2379993</t>
+          <t>https://doi.org/10.1103/physrevb.81.104509</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Musila (2014)</t>
+          <t>Charpentier et al. (2010)</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Between Rhetoric and Action: The Politics, Processes and Practice of the ICC's Work in the Democratic Republic of the Congo (DRC)</t>
+          <t>Antiferromagnetic fluctuations and the Hall effect of electron-doped cuprates: Possibility of a quantum phase transition at underdoping</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>This monograph attempts to respond to some of the questions raised in respect of the work of the International Criminal Court (ICC) in the Democratic Republic of the Congo (DRC). In this regard, it has three main objectives. First, by focusing on a State Party where the ICC’s Office of the Prosecutor is currently conducting investigations, it considers the cooperation relationship between the ICC and the DRC. In this regard, it appears that, irrespective of the lack of legislation implementing the Rome Statute in that country, the DRC continues to cooperate with the ICC in its investigations. In view of erroneous positions taken by some states and commentators that only those countries where crimes have been perpetrated, in particular those in respect of which investigations are ongoing, have immediate obligations in relation to the ICC’s work, the monograph seeks to outline and illustrate broader obligations for member states in general. It demonstrates that the work of the ICC in places like the DRC engages the duties of ‘non-situation states’ in various ways. Second, by examining the practice of the Court since the situation was referred to it, the monograph considers the role of politics – domestic or otherwise – in the work of the ICC. Third, it examines the perceptions around the work of the ICC in various sectors of Congolese society, including government, victims, civil society and the general public. By extension, it addresses some of the questions hat the work of the ICC in Africa has raised, including the allegation that the ICC is ‘targeting’ African countries and that somehow these countries are unwilling participants in the process. By identifying and discussing the various factors that informed the referral of the situation by the DRC, the monograph seeks to discredit the single-factor explanations of the circumstances under which the ICC became engaged in the DRC. In this regard it explores various factors that influenced those events and continue to have a bearing on current perceptions and operations of the Court. These influences include the role of victims and non-governmental organisations (NGOs); international pressure, in particular from the United Nations (UN) and European Union (EU); the transition from conflict and the new government’s will to rebuild the country governed by rule of law and respect for human rights; the absence of reliable and ready domestic mechanisms; and the continuing conflict in the east of the country. The study makes a set of findings, conclusions and recommendations. On the issue of cooperation between the DRC and the Court, the monograph concludes that the ICC cannot succeed in its work without effective and reliable cooperation and assistance from member states, in particular states where investigations are ongoing. Such a relationship has to be given effect by some instrument – usually implementing legislation. In the absence of this, the DRC has signed the Agreement on Judicial Cooperation in terms of which the relationship between the Court and the country is regulated. In outlining the relevant provisions of the Agreement on Judicial Cooperation, which stipulates in detail the framework for cooperation and the granting of assistance to the Court, it became apparent that for the DRC to meet these obligations, a well-resourced Office of the Attorney General and Director of Prosecutions, both equipped with the necessary capacities, is essential. The monograph notes that these elements are for the most part lacking and that, despite the existence of political will to assist the Court, complaints have emerged on the ground that the ‘ICC is too demanding’. In view of ill-equipped law enforcement agencies, the various forms of assistance – for the most part of a technical character – impose heavy burdens on existing structures. The study finds that perceptions of the ICC in different sectors of Congolese society are varied. It also notes that these perceptions have been influenced by several factors, which have varied with the prevailing political circumstances. With respect to government, the study finds that the government views the role of the ICC in prosecuting serious crimes as an important one, not only in fighting impunity and doing justice for victims but also in sending a message to those who are still actively involved in armed conflict and various forms of violence that they have to choose the path of peace. It is noted that having received numerous complaints from victims regarding crimes committed in the DRC, the Office of the Prosecutor worked to persuade the government that a referral would be appropriate. While perhaps assigning too much responsibility to the ICC, the government sees its work as crucial in the fight against impunity. The failure of the Truth and Reconciliation Commission (Commission Verite et Reconciliation) to achieve anything significant in the two years it was in existence, and weaknesses in the criminal justice system, in</t>
+          <t>We present a complete analysis of the temperature dependence of the Hall coefficient ${R}_{H}(T)$ as a function of cerium doping, $x$, on improved thin films of ${\text{Pr}}_{2\ensuremath{-}x}{\text{Ce}}_{x}{\text{CuO}}_{4\ifmmode\pm\else\textpm\fi{}\ensuremath{\delta}}$ made by pulsed-laser deposition. By mapping its first temperature derivative $d{R}_{H}(T)/dT$ in a temperature-doping phase diagram, we show that some of the most important variations of ${R}_{H}(T,x)$ occur in a $T\text{\ensuremath{-}}x$ range just above the antiferromagnetic (AF) transition, ${T}_{N}(x)$. This area of large $d{R}_{H}(T)/dT$ in the phase diagram collapses at underdoping, very close to the onset of superconductivity at $x=0.12$. Assuming that this zone remains above ${T}_{N}(x)$, it suggests the presence of a zero-temperature critical point at underdoping in the phase diagram of the electron-doped cuprates on top of the one reported at ${x}^{\ensuremath{\ast}}\ensuremath{\sim}0.165$. Both of these critical points can be related to specific transitions in Fermi-surface morphology with doping observed by ARPES. Hence, we conclude that the phase diagram of the $n$-type family presents two zero-temperature critical points similar to the $p$-type cuprates, setting clear limiting boundaries for theoretical models, in particular, the absence of long-range AF order between $x=0.12$ and ${x}^{\ensuremath{\ast}}\ensuremath{\sim}0.165$.</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2086633492</t>
+          <t>https://openalex.org/W3020498451</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>https://doi.org/10.4028/www.scientific.net/amr.102-104.544</t>
+          <t>https://doi.org/10.1016/j.joca.2020.02.339</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Zhou &amp; Chen (2010)</t>
+          <t>Ley et al. (2020)</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Tool Path Generation Method of Equal Approximation Error for Free-Form Surface in High Speed Machining</t>
+          <t>Acetabular margin changes - implications for diagnosis and disease development of osteoarthritis in cats</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>The development of surface high-speed machining has put forward higher demands for uniform cutting load and smooth cutting tool path. Most current tool-path planning methods are based on constant scallop height, but they have the disadvantage of path point redundancy during the path discretization process. To overcome the problem, a tool path generation method of equal approximation error in each step for free-form surface is presented based on geodesic principle and curvature judgment. In this method, the NURBS curve is employed to realize smooth transition for adjacent two tool paths in high-speed machining. A certain angle of inclination of flat-end milling cutter during multi-axis machining improves the machining efficiency. Because of the advantage of this machining condition, the cutter location point generation algorithm during the machining condition is given by the method. The method is verified and simulated by C++. Experiment results proved that it can obtain uniform cutting load and continuous smooth cutting tool path during surface high-speed machining by the proposed method.</t>
+          <t>Purpose: Changes in the acetabular margin, including the labrum and the chondrolabral (perilabral) transition zone, are suggested to be important in the pathogenesis of human coxofemoral (CF) osteoarthritis (OA). Radiologically, CF OA is common in cats, with marginal osteophytes being a key radiographic sign of OA. However, in cats neither investigations of microscopic features of the acetabular margin, nor associations between radiologically detected acetabular margin changes (AMC) and presence of microscopically verified articular cartilage lesions have been performed. This lack of information in regard to AMC means in clinical cases that the diagnosis of feline CF OA may sometimes be uncertain. This study aimed to investigate associations between computed tomography (CT)-detected AMC and microscopic articular cartilage lesions, describe distribution of detected changes and morphologic features of histologic AMC. Methods: Twenty cats (10 neutered males, 8 neutered females and 2 intact females) with a mean age of 9.9 years (median 8.5 years, range 1-19 years) submitted for post mortem examination were included in the study. All cats had CT performed of the CF joint region, followed by macroscopic examination and sampling for histology from selected joints (n=28). In 20 joints CT was used to guide histologic sampling to regions where AMC were deteced in the CT images, with the aim of maximizing the chance of including margin changes in the histological sample. Samples were formalin-fixed, decalcified and processed for histology. Microscopy was performed on hematoxylin and eosin, and toluidine blue stained sections of the acetabulum and proximal femur. In CT images, eight acetabular joint margin regions were defined and presence and severity (grade 0-3) of AMC (osteophytes, sclerosis and lysis) were graded and localized to these regions, giving a maximum summarized CT score (SCTS) of 72. Microscopic cartilage lesions were graded using a modified OARSI cartilage OA histopathology scoring protocol (grade 0-6.5), after dividing the acetabular cartilage into four approximately equal sized regions, two marginal (perilabral) and two central (perifossal), and the femoral cartilage also divided into two marginal and two central regions, providing a maximum summarized cartilage score (SCS) of 52 for all eight regions. Spearman rank correlation was used to calculate correlations between SCS and CT scores. In cats where both joints were histologically evaluated, only one joint was included in the correlation analysis, based on choosing the joint with the highest SCTS. Lesion distribution of osteophytes in CT images, and cartilage lesion distribution in regard to marginal and central areas were analyzed by a logistic mixed model. Histological features of the acetabular margin were described and comparisons made to the appearance in CT images. Results: CT-detected AMC were present in 35/40 joints, in 23/28 joints examined with histology and in 18/20 joints investigated for SCS and CT scores correlation. Based on macroscopic cartilage lesions 22 joints were OA negative, 4 joints showed mild OA and 2 joints severe OA. There was significant, strong correlation between acetabular SCTS and acetabular SCS (p = 0.00065, rho 0.69), CT osteophyte scores and acetabular SCS (p = 0.000011, rho 0.75) and significant, moderate correlation between acetabular SCTS and combined acetabular and femur SCS (p = 0.0171, rho 0.53). Frequency and grade of CT-detected osteophytes were significantly different in different regions (p &lt; 0.0001), with significantly higher frequency and grade of craniodorsal, cranial, cranioventral, ventral and dorsal acetabular margin regions compared to caudodorsal, caudal and caudoventral regions. Cartilage lesions were mild (≤ grade 2.5) in 23/28 joints, and marginal regions of the acetabulum showed significantly higher lesion grades than central acetabular regions (p = 0.0002). Labral tissue was clearly detected in caudal, ventral and craniodorsal acetabular regions, and variably or not detected in remaining regions. CT-detected osteophytes were included in the microscopic sections in 19/55 acetabular margins. Osteophytes comprised hook-like spurs in the labrum, rounded chondroosteophytes and pointed sclerotic bone extending the joint surface. Conclusions: The results suggest that CT is a valuable tool for diagnosing feline CF OA. CT-detected acetabular margin osteophytes show different histologic morphologies, which may implicate different disease mechanisms in the development of OA. The higher cartilage lesion grade severity in acetabular marginal compared to central regions suggests that the perilabral region is sensitive to cartilage degradation. Similar to discussed in human CF OA, the labral and chondrolabral transition zone may be important in the pathogenesis of OA and this warrants further studies.</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1581996073</t>
-        </is>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.15520/ajcsit.v5i4.22</t>
+          <t>https://openalex.org/W587785270</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>NA (2015)</t>
+          <t>Schroeder (1991)</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Use of ETL Subsystems for Real-Time Data-Warehouse using MS SQL Server Tool</t>
+          <t>Approaches to Nursing Standards</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Data warehousing is gaining in eminence as organizations become awake of the benefits of decision oriented and business intelligence oriented data bases.  Informed decision-making is required for competitive success in the new global marketplace, which is fraught with uncertainty and rapid technology changes. Achieving Real-Time Data Warehousing is highly dependent on the choice of a process in data warehousing technology known as Extract, Transform, and Load (ETL). This process involves: 1) Extracting data from outside sources; 2) Transforming it to fit operational needs; and 3) Loading it into the end target (database or data warehouse). Not all ETL’s are equal when it comes to quality and performance. As such, optimizing the ETL processes for real time decision making is becoming ever increasingly crucial to today's decision-making process. An effective ETL leads to effective business decisions and yields extraordinary decision-making outcomes. This study overviews the theory behind ETL and raises a research vision for its evolution, with the aim of improving the difficult but necessary data management work required for the development of advanced analytics and business intelligence. SQL Server Integration services (SSIS-MS Sql server tool) is a platform for data integration and workflow applications. It features a fast and flexible data-warehousing tool used for data extraction, transformation, and loading (ETL). The tool may also be used to automate maintenance of SQL Server databases and updates to multidimensional cube data. SQL Server Reporting Services (SSRS- MS Sql server tool) is a server-based report generation software system from Microsoft. Administered via a web interface, it can be used to prepare and deliver a variety of interactive and printed reports.</t>
+          <t>In three comprehensive volumes-available as a set or as stand-alone references-here is the definitive reference sourcebook on nursing quality! It enables you to plan and implement today's most innovative programs, share insider information from the leaders in the quality movement today and make a smooth transition to quality improvement with how-to instructions to guide you in adapting your current program to meet the new challenges of QI. Order the entire sourcebook, or just the volumes you need.</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2414424352</t>
+          <t>https://openalex.org/W1980946516</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1353/scu.2005.0046</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Stanley (1992)</t>
+          <t>Tyson (2005)</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Some current factors restricting the potential of private general practice.</t>
+          <t>Martin Luther King and the Southern Dream of Freedom</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>This background paper focuses on two or three aspects which, in the writer's opinion, are crucial to the healthy development of general dental practice, although the rapidly progressing health reforms have already altered the relevance of some comments made. The first aspect is equitable access, especially for the financially disadvantaged in this time of economic recession. The ability and inclination of providers to treat the financially disadvantaged has not currently been matched by the political will of funders, even though an effective system could simply be organised. Access problems also apply to the elderly. A smooth transitional system of oral health care should exist for every aging patient, whether economically, physically, and mentally healthy, or in a state of total dependence, and this should be an integral part of general dental practice management. Generally it is not. Secondly, the fragmentation of the New Zealand dental workforce, and the lack of a real team approach have hindered the logical development of oral health services and prevented many possible options from being offered. Dialogue to reduce the fragmentation must continue, hopefully to a successful conclusion. Perhaps the catalyst for meaningful change may be contained in the current health reforms. Certainly opportunities for change have been clearly signalled.</t>
+          <t>Martin Luther King and the Southern Dream of Freedom Timothy B. Tyson (bio) Click for larger view View full resolution Figure 1. "When we come together to celebrate Dr. Martin Luther King Jr., it is important to realize that the King holiday is just shorthand for honoring all of those local people who stood up for justice in the civil rights-era South. The patient local labors of thousands and thousands of black southerners lifted him up among the rulers of the world." Photograph courtesy of Billy E. Barnes. [End Page 96] This essay was taken from a Martin Luther King Jr. Day address given by the author on January 17, 2005, in Columbus, Mississippi. The author would like to thank everyone on the Columbus Martin Luther King Jr. Legacy Committee, especially Wilbur Colom and Deborah Schumaker of the Colom Foundation. He would also like to thank his wife, Perri Morgan, his sister-in-law Hope Morgan Ward, who is the United Methodist Bishop of Mississippi, and her husband, Mike Ward, who knows a good bowl of butterbeans when he spills it in his lap. My Grandmama Irene Hart's granddaddy was a preacher, and her daddy was a preacher, and when she was sixteen Irene ran off with a young preacher named Jack Tyson and got married in the back seat of a car. Lots of people still get engaged in the back seat of a car, but Jack and Irene actually got married right there in the back seat of a Model-T Ford on Middle Swamp Road near Greenville, North Carolina. Jack came from a preaching family, too. His Uncle Alonza Tyson, who pronounced them man and wife from the front seat, was a preacher, and his two brothers, Marl and Luther, were both preachers. After they ran off, Jack and Irene raised six sons, and all six of them grew up to be preachers, including my father. My sister Boo graduated from divinity school, as did my cousins by the dozens. My sister-in-law is the United Methodist bishop of Mississippi. In summary, then, though I am a historian, my father, all five of my Tyson uncles, my grandfather, my great grandfather and my great-great-grandfather were all Free Will Baptist or Methodist preachers. And I just accepted a job as Visiting Professor of American Christianity and Southern Culture at Duke Divinity School. I say these things now so that you know the background I bring to this discussion of another southern preacher, Martin Luther King Jr., and the way that we remember him. When we come together to celebrate Dr. Martin Luther King Jr., it is important to realize that the King holiday is just shorthand for honoring all of those local people who stood up for justice in the civil rights-era South. If King had never been born, there still would have been a black revolution in the American South in the decades that followed World War II. King himself would be the first person to acknowledge that he did not make the movement; instead, the patient local labors of thousands and thousands of black southerners lifted him up among the rulers of the world. He not only spoke on behalf of thousands of people he never met, but his voice depended almost entirely upon them. Martin Luther King's message was not unlike that of a gospel singer who goes from church to church, making a joyful noise unto the Lord, lifting people's hearts and giving them the strength to do what they know needs doing. Our mind's eye focuses on King, but what historians have learned is that the movement was really made by local people, working in their own communities, far from the television cameras and civil rights celebrities. And yet there is much to learn from Martin Luther King, and he deserves our [End Page 97] attention today. Like all those preachers I grew up around, I have three points to make in this "sermon." First, it may not seem very profound to you, but King was a southerner, and that indisputable fact colors everything he said and did. Second, King's memory has been...</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2799449770</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1053/j.ajkd.2018.02.005</t>
+          <t>https://openalex.org/W2802770008</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Kattah &amp; Garovic (2018)</t>
+          <t>Sajnani &amp; Johnson (2015)</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>From Delivery to Dialysis: Does Preeclampsia Count?</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>Related Article, p. 619 Related Article, p. 619 Hypertensive disorders of pregnancy (HDPs) represent a spectrum of conditions including gestational hypertension, preeclampsia/eclampsia, and preeclampsia superimposed on chronic hypertension.1National High Blood Pressure Education Program Working Group on High Blood Pressure in PregnancyReport of the National High Blood Pressure Education Program Working Group on High Blood Pressure in Pregnancy.Am J Obstet Gynecol. 2000; 183: S1-S22Abstract Full Text Full Text PDF PubMed Scopus (2331) Google Scholar The exact incidence of HDPs is unclear because definitions have changed over time, but most estimates place the incidence at ∼8% of pregnancies.1National High Blood Pressure Education Program Working Group on High Blood Pressure in PregnancyReport of the National High Blood Pressure Education Program Working Group on High Blood Pressure in Pregnancy.Am J Obstet Gynecol. 2000; 183: S1-S22Abstract Full Text Full Text PDF PubMed Scopus (2331) Google Scholar HDPs have been linked to the future development of hypertension, cardiovascular disease, and stroke.2Bellamy L. Casas J.P. Hingorani A.D. Williams D.J. Pre-eclampsia and risk of cardiovascular disease and cancer in later life: systematic review and meta-analysis.BMJ. 2007; 335: 974-986Crossref PubMed Scopus (1558) Google Scholar In light of this evidence, several societies define preeclampsia as a distinct risk factor in women for the future development of vascular disease.3Mosca L. Benjamin E.J. Berra K. et al.Effectiveness-based guidelines for the prevention of cardiovascular disease in women–2011 update: a guideline from the American Heart Association.J Am Coll Cardiol. 2011; 57: 1404-1423Crossref PubMed Scopus (542) Google Scholar, 4Bushnell C. McCullough L. Stroke prevention in women: synopsis of the 2014 American Heart Association/American Stroke Association guideline.Ann Intern Med. 2014; 160: 853-857Crossref PubMed Scopus (31) Google Scholar, 5American College of Obstetricians and Gynecologists; Task Force on Hypertension in Pregnancy. Hypertension in pregnancyReport of the American College of Obstetricians and Gynecologists' Task Force on Hypertension in Pregnancy.Obstet Gynecol. 2013; 122: 1122-1131Crossref PubMed Scopus (601) Google Scholar Given the close relationship among hypertension, cardiovascular disease, and kidney disease, it is not surprising that HDPs have also been associated with the development of kidney dysfunction, particularly albuminuria, and with the development of end-stage renal disease (ESRD).6McDonald S.D. Han Z. Walsh M.W. Gerstein H.C. Devereaux P.J. Kidney disease after preeclampsia: a systematic review and meta-analysis.Am J Kidney Dis. 2010; 55: 1026-1039Abstract Full Text Full Text PDF PubMed Scopus (124) Google Scholar, 7Vikse B.E. Irgens L.M. Leivestad T. Skjaerven R. Iversen B.M. Preeclampsia and the risk of end-stage renal disease.N Engl J Med. 2008; 359: 800-809Crossref PubMed Scopus (441) Google Scholar, 8Wang I.K. Muo C.H. Chang Y.C. et al.Association between hypertensive disorders during pregnancy and end-stage renal disease: a population-based study.CMAJ. 2013; 185: 207-213Crossref PubMed Scopus (96) Google Scholar, 9Kattah A.G. Scantlebury D.C. Agarwal S. et al.Preeclampsia and ESRD: the role of shared risk factors.Am J Kidney Dis. 2016; 69: 498-505Abstract Full Text Full Text PDF PubMed Scopus (31) Google Scholar In this issue of AJKD, Paauw et al10Paauw N.D. van der Graaf A.M. Bozoglan R. et al.Kidney function after a hypertensive disorder of pregnancy: a longitudinal study.Am J Kidney Dis. 2018; 71: 619-626Abstract Full Text Full Text PDF PubMed Scopus (15) Google Scholar present data using the Prevention of Renal and Vascular End Stage Disease (PREVEND) cohort that again address the relationship between HDPs and kidney disease, offering additional insights into this increasingly recognized association. The first study to demonstrate the relationship between preeclampsia and ESRD was by Vikse et al7Vikse B.E. Irgens L.M. Leivestad T. Skjaerven R. Iversen B.M. Preeclampsia and the risk of end-stage renal disease.N Engl J Med. 2008; 359: 800-809Crossref PubMed Scopus (441) Google Scholar in 2008. Using the Medical Birth Registry of Norway, the authors found nearly 5-fold increased risk for ESRD after preeclampsia in a woman’s first pregnancy, with increasing risk for ESRD if preeclampsia occurred in several pregnancies.7Vikse B.E. Irgens L.M. Leivestad T. Skjaerven R. Iversen B.M. Preeclampsia and the risk of end-stage renal disease.N Engl J Med. 2008; 359: 800-809Crossref PubMed Scopus (441) Google Scholar It should be noted that the absolute risk for ESRD was still low in this population (14.5 vs 3.3 per 100,000 person-years in women with preeclampsia vs no preeclampsia) and developed at a mean age of 41 years, on average 17 years after a woman’s first pregnancy. The second study to explore this relationship was by Wang et al8Wang I.K. Muo C.H. Chang Y.C. et al</t>
+          <t>Developmental transformations and social justice</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2747012253</t>
-        </is>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1080/0013838x.2017.1332024</t>
+          <t>https://openalex.org/W871104578</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>York (2017)</t>
+          <t>Radu (2014)</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Exploratory Data Analysis for the Digital Humanities: The Comédie-Française Registers Project Analytics Tool</t>
+          <t>Rural Aspects Imprinted by the Economic Development to Romanian Urban Structure. Case Study: Fetesti Municipality</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>In 2008 the Comédie-Française, France’s pre-eminent dramatic troupe and theatre, embarked on an ambitious project to digitise its remarkable collection of ticket receipts dating from the theatre’s opening in 1680 to just after the French Revolution. This paper describes the design and development of a general-purpose online data analytics tool to make meaning from the resulting database: its technical and theoretical underpinnings, its audience and constraints, its user-base and expectations.</t>
+          <t>1. General CharacteristicsFetecti is located in the south-eastern part of Romania, being a municipality in Ialomita County (fig. 1). The city is located in the extreme south-east of the county, on the left margin of the Danube's Borcea branch (Cucu, 1970). (fig- 2)In terms of accessibility, the city is crossed by Bucharest - Constanta highway, which is served by an exit; also, from the output, DN3A highway leads west to Lehliu-Station (Calara§i) and DN3B highway leads north to Giurgeni (where it ends and DN2A starts) and south to Calara§i. From DN3B, at Fetecti, it also starts the county road DJ212, which leads north to fandarei (where it meets DN2A) and further to Chiccani in Braila County (where it ends in DN21).The Bucharest - Constanta railway also crosses Fete§ti. From this point, another railway goes to fandarei and Faurei.The main neighboring urban centers are: Bucharest (150 km), Constanza (80 km), Slobozia (60 km) and Câlâraci (50 km).A meadow city, Fetecti is located on the left margin of the Borcea Branch. In Fetecti, the meadow is very narrow, being limited westward by the Hagieni Plain. Thus, the western districts of the city are located at the contact between meadow and plain, but, with altitudes lower in the plains, the transition from plain to meadow is slow, the city has a plain layout (Ciortan, 1984) (fig. 3).Due to its position, it has a temperate climate, with a pronounced degree of continentalism, characterized by big contrasts from summer to winter. The position and relief favor the penetration of cold continental air masses of Eurasian origin during winter and masses of hot air, hot and dry, from Asia or Mediterranean and Africa during summer, which give this area a specific note of aridity (Iuraccu et al, 2003).As a multi-nuclear settlement, from the administrative point of view, Fetecti city is made up of five neighborhoods: Fetecti City, Fetecti Station, Settlers, Vlacca, and Buliga.The main natural resources are represented by infields (over 8,000 ha) proper for agriculture, the Borcea branch which has an over 9 km length on the city's territory, the flora and the fauna (mainly the fishing stock) (Erdeli, Cucu, 2005, Popescu, 1994). The Danubian bridges between Fetecti and Cemavoda (A. Saligny) are very important to people. We can also mention the Municipal Museum and Saint Nicholas Church.In 2011, the population in Fetecti city was of 34,263 persons (about 26% of the urban population of the county). The population density is 338.6 inhabitants per sq. km (2,756.6 inhabitants per sq. km within incorporated area). Romanian ethnic population represents 95.2% of the total, the Roma, 4.5%, and the remaining 0.3% is of other ethnic groups. The average age of male persons is 36.5 years, for the female population is 38.6 years; the average age of the population is within the 35-39 interval. If the urban population stands out as an aging population, with an 11.9% of the elderly population, the urban population of the Ialomita County, implicitly Fetecti Municipality is characterized as an aging population, the elderly representing a rate of 10.4% and 10.9% of the total urban population. This can also be seen from the values of the degree of aging. Therefore, nationally, the proportion is 1,000 young people to 880 elderly and, at the level of Ialomita County and Fetecti city, the ratio is 1,000 young people to 669 or 662 old persons.Fetecti is characterized by a replacement rate of the labor force superior to that at the county, even national level. Therefore, in 15 years, 1,000 adults aged 15 to 64 will be replaced by 679 persons in the 15-64 years age group, while in the urban environment from Ialomita County the same number of persons will be replaced by 630 people and, at the national urban level, they will be replaced by just 546 people. Regarding the birth rate, Fetecti city (11.7 %o) is above the national level (10.3 %o), but below the county one (12. …</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2026353231</t>
+          <t>https://openalex.org/W2086633492</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1525/can.1992.7.4.02a00010</t>
+          <t>https://doi.org/10.4028/www.scientific.net/amr.102-104.544</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Mullin (1992)</t>
+          <t>Zhou &amp; Chen (2010)</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>The Patronage of Difference: Making Indian Art “Art, Not Ethnology”</t>
+          <t>Tool Path Generation Method of Equal Approximation Error for Free-Form Surface in High Speed Machining</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Cultural AnthropologyVolume 7, Issue 4 p. 395-424 The Patronage of Difference: Making Indian Art “Art, Not Ethnology” Molly H. Mullin, Molly H. Mullin Department of Cultural Anthropology Duke UniversitySearch for more papers by this author Molly H. Mullin, Molly H. Mullin Department of Cultural Anthropology Duke UniversitySearch for more papers by this author First published: November 1992 https://doi.org/10.1525/can.1992.7.4.02a00010Citations: 5AboutPDF ToolsExport citationAdd to favoritesTrack citation ShareShare Give accessShare full text accessShare full-text accessPlease review our Terms and Conditions of Use and check box below to share full-text version of article.I have read and accept the Wiley Online Library Terms and Conditions of UseShareable LinkUse the link below to share a full-text version of this article with your friends and colleagues. Learn more.Copy URL Share a linkShare onEmailFacebookTwitterLinkedInRedditWechat References Cited Alexander, Charles C. 1980 Here the Country Lies: Nationalism and the Arts in Twentieth-Century America. Bloomington: Indiana University Press. Alexander, Stephen 1935 Design for a Parasite Class. New Masses, January 8: 21. Austin, Mary 1932 Earth Horizon. Boston: Houghton Mifflin. Austin, Mary 1933 [1929] Regional Culture in the Southwest. In America in the Southwest: A Regional Anthology. T. M. Pearce and T. Hendon, eds. Pp. 119–123. Albuquerque, N.M.: University of New Mexico Press. Austin, Mary 1970 [1923] The American Rhythm. New York: Cooper Square Publishers. Babcock, Barbara A. 1990. “A New Mexican Rebecca”: Imaging Pueblo Women. Journal of the Southwest 32(4): 400–437. Babcock, Barbara, Guy Monthan, and Doris Monthan 1988 The Pueblo Storyteller: Development of a Figurative Ceramic Tradition. Tucson: University of Arizona Press. Barnard, Rita 1990 The Great Depression and the Culture of Abundance: Literature and Mass Culture in the 1930s. Unpublished Ph.D. dissertation, Duke University. Bourdieu, Pierre 1984 Distinction: A Social Critique of the Judgement of Taste. Richard Nice, trans. Cambridge, Mass.: Harvard University Press. Brantlinger, Patrick 1990 Crusoe's Footprints: Cultural Studies in Britain and America. New York: Routledge. Bryan, Bruce 1924. Movie Realism and Archaeological Fact. Art and Archaeology 18(4): 131–144. Bynner, Walter 1979 [1936] Designs for Beauty. In The Works of Walter Bynner. James Kraft, ed. Pp. 336–342. New York: Farrar, Strauss and Giroux. Chapman, Kenneth 1924. The Indian Fair. Art and Archaeology 18(5–6): 215–224. Chase, Mary Ellen 1950 Abby Aldrich Rockefeller. New York: Macmillan. Chase, Stuart 1929 Men and Machines. New York: Macmillan. Chase, Stuart 1931 Mexico: A Study of Two Americas. New York: Macmillan. Chauvenet, Beatrice 1983 Hewett and Friends: A Biography of Santa Fe's Vibrant Era. Santa Fe: Museum of New Mexico Press. Clifford, James 1988 The Predicament of Culture: Twentieth-Century Ethnography, Literature, and Art. Cambridge, Mass.: Harvard University Press. Curtis, Nathalie 1922. Pueblo Poetry. El Palacio 12(7): 95–99. Dauber, Kenneth 1990. Pueblo Pottery and the Politics of Regional Identity. Journal of the Southwest 32(4): 576–596. Dietrich, Margretta 1930. The Indian Fair. El Palacio 29(3): 103–105. Dietrich, Margretta 1934 Nebraska Recollections. Unpublished MS, New Mexico State Library. Dietrich, Margretta 1936. Old Art in New Forms. New Mexico Magazine 14(9): 26–27, 56. Domínguez, Virginia 1990 Towards a Comparative Framework on National Identities and Cultural Policies. Unpublished East-West Center Working Paper, East-West Center, Honolulu. El Palacio 1922a Prizes for Indian Handicraft. 12(6): 81. El Palacio 1922b The Santa Fe Fiesta and Centenary of the Santa Fe Trail. 13(2): 15–17. El Palacio 1926 Southwest Indian Fair. 20(10): 204–212. Frank, Waldo 1919 Our America. New York: Boni &amp; Liveright. Friedman, Jonathan 1990 Being in the World: Globalization and Localization. In Global Culture: Nationalism, Globalization and Modernity. Mike Featherstone, ed. Pp. 311–328. London: Sage. Gold, Michael 1936 Mabel Luhan's Slums. The New Masses, September 1, pp. 11–13. Greenberg, Clement 1957 [1939] Avant-Garde and Kitsch. In Mass Culture: The Popular Arts in America. Bernard Rosenberg and David Manning White, eds. Pp. 98–111. Glencoe, Ill.: The Free Press. Handler, Richard 1991 Ruth Benedict and the Modernist Sensibility. In Modernist Anthropology: From Fieldwork to Text. Marc Manganaro, ed. Pp. 163–180. Princeton, N.J.: Princeton University Press. Hannerz, Ulf 1990 Cosmopolitans and Locals in World Culture. In Global Culture: Nationalism, Globalization, and Modernity. Mike Featherstone, ed. Pp. 237–251. London: Sage. Harvey, David 1989 The Condition of Postmodernity: An Enquiry into the Origins of Cultural Change. Oxford: Basil Blackwell. Hewett, Edgar Lee 1922. The Art of the Earliest Americans. El Palacio 13(1). Hinsley, Curtis M. 1991 The World as Marketplace: Commodification of the Exotic at the World'</t>
+          <t>The development of surface high-speed machining has put forward higher demands for uniform cutting load and smooth cutting tool path. Most current tool-path planning methods are based on constant scallop height, but they have the disadvantage of path point redundancy during the path discretization process. To overcome the problem, a tool path generation method of equal approximation error in each step for free-form surface is presented based on geodesic principle and curvature judgment. In this method, the NURBS curve is employed to realize smooth transition for adjacent two tool paths in high-speed machining. A certain angle of inclination of flat-end milling cutter during multi-axis machining improves the machining efficiency. Because of the advantage of this machining condition, the cutter location point generation algorithm during the machining condition is given by the method. The method is verified and simulated by C++. Experiment results proved that it can obtain uniform cutting load and continuous smooth cutting tool path during surface high-speed machining by the proposed method.</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2189294255</t>
+          <t>https://openalex.org/W1581996073</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.15520/ajcsit.v5i4.22</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Ravichandra (2015)</t>
+          <t>NA (2015)</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Core Schema Mappings: Computing Core Solution with Target Dependencies in Data Exchange</t>
+          <t>Use of ETL Subsystems for Real-Time Data-Warehouse using MS SQL Server Tool</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Schema mapping is a declarative specification of the relationship between source schema and target schema. Nowadays, schema mapping is widely used in data transformation, schema evolution, data exchange and data integration activities and there by supporting in ETL applications, Enterprise Information Integration, and Enterprise Application Integration tasks. While performing data exchange for given schema mapping, it is required to consider all the types of target constraints which are target tgds (tuple generating dependencies) and target egds (equality generating dependencies). Many researchers have addressed various types of target constraints and provided solutions for them. The common drawback is that they are time consuming due to recursive nature and multiple intermediate states generation. In this paper, we proposed solution to resolve the above so called drawbacks and an approach to handle the target constraints on performing data exchange for given schema mapping in non recursive way. Our proposed solution rewrites given target dependencies and combines these with rewritten s-t tgds such that these modified dependencies can be directly translated into SQL Script. Later this produced SQL Script can be executed directly on a relational database system to populate data into target database</t>
+          <t>Data warehousing is gaining in eminence as organizations become awake of the benefits of decision oriented and business intelligence oriented data bases.  Informed decision-making is required for competitive success in the new global marketplace, which is fraught with uncertainty and rapid technology changes. Achieving Real-Time Data Warehousing is highly dependent on the choice of a process in data warehousing technology known as Extract, Transform, and Load (ETL). This process involves: 1) Extracting data from outside sources; 2) Transforming it to fit operational needs; and 3) Loading it into the end target (database or data warehouse). Not all ETL’s are equal when it comes to quality and performance. As such, optimizing the ETL processes for real time decision making is becoming ever increasingly crucial to today's decision-making process. An effective ETL leads to effective business decisions and yields extraordinary decision-making outcomes. This study overviews the theory behind ETL and raises a research vision for its evolution, with the aim of improving the difficult but necessary data management work required for the development of advanced analytics and business intelligence. SQL Server Integration services (SSIS-MS Sql server tool) is a platform for data integration and workflow applications. It features a fast and flexible data-warehousing tool used for data extraction, transformation, and loading (ETL). The tool may also be used to automate maintenance of SQL Server databases and updates to multidimensional cube data. SQL Server Reporting Services (SSRS- MS Sql server tool) is a server-based report generation software system from Microsoft. Administered via a web interface, it can be used to prepare and deliver a variety of interactive and printed reports.</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4211081331</t>
+          <t>https://openalex.org/W2030101668</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/9781118278710.refs</t>
+          <t>https://doi.org/10.1080/14742837.2014.994094</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Smil (2013)</t>
+          <t>Brandt (2015)</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Feminist Practice and Solidarity in Secular Societies: Case Studies on Feminists Crossing Religious–Secular Divides in Politics and Practice in Antwerp, Belgium</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Free Access References Book Editor(s):Vaclav Smil, Vaclav SmilSearch for more papers by this author First published: 18 March 2013 https://doi.org/10.1002/9781118278710.refs AboutPDFPDF ToolsRequest permissionExport citationAdd to favoritesTrack citation ShareShareShare a linkShare onFacebookTwitterLinked InRedditWechat References a Calorie Counter. 2012. Fast Food Restaurants &amp; Nutrition Facts Compared. http://www.acaloriecounter.com/fast-food.php. Accessed on November 14, 2012. Google Scholar Aarestrup, F. 2012. Get pigs off antibiotics. Nature 486: 465– 466. Google Scholar Abel, W. 1962. Geschichte der deutschen Landwirtschaft von frühen Mittelalter bis zum 19 Jahrhundert. Stuttgart: Ulmer. Google Scholar Aberle, E.D. et al. 2001. Principles of Meat Science. Dubuque, IA: Kendall Hunt Publishing. Google Scholar Adams, C. 2010. The Sexual Politics of Meat: A Feminist-Vegetarian Critical Theory. New York: Continuum International Publishing Group. http://books.google.ca/books/about/The_Sexual_Politics_of_Meat.html?id=AwrwRKNavtAC. Accessed on November 14, 2012. Google Scholar AFSSA (Agence française_de_sécurité sanitaire des produits de santé). 2009. Synthèse de l'étude Individuelle Nationale des Consommations Alimentaires 2 (INCA 2) 2006–2007. Paris: AFSSA. Google Scholar Aiello, L.C. and J.C.K. Wells. 2002. Energetics and the evolution of the genus Homo . Annual Review of Anthropology 31: 323– 338. Google Scholar Aiello, L.C. and P. Wheeler. 1995. The expensive-tissue hypothesis. Current Anthropology 36: 199– 221. Google Scholar Al-Deseit, B. 2009. Least-cost broiler ration formulation using linear programming technique. Journal of Animal and Veterinary Advances 8: 1274– 1278. Google Scholar Allan, J.A. 1993. Fortunately there are substitutes for water otherwise our hydro-political futures would be impossible. In: Priorities for Water Resources Allocation and Management. London: ODA, pp. 13– 26. Google Scholar Allbaugh, L.G. 1953. Crete: A Case Study of an Undeveloped Area. Princeton, NJ: Princeton University Press. Google Scholar Allen, R.C. 2007. How Prosperous Were the Romans? Evidence from Diocletian's Price Edict (301 AD). Oxford: Department of Economics, Oxford University. Google Scholar Allen, J.R.M. 2010. Last glacial vegetation of northern Eurasia. Quaternary Science Reviews 29: 2604– 2618. Google Scholar de Almeida, J.C. et al. 2006. Fatty acid composition and cholesterol content of beef and chicken meat in Southern Brazil. Brazilian Journal of Pharmaceutical Sciences 42: 109– 117. Google Scholar Alonso, A. et al. 2009. Cardiovascular risk factors and dementia mortality: 40 years of follow-up in the Seven Countries Study. Journal of Neurological Sciences 2009: 79– 83. Google Scholar Alroy, J. 2001. A multispecies overkill simulation of the end-Pleistocene megafaunal mass extinction. Science 292: 1893– 1896. Google Scholar Alvard, M.S. and L. Kuznar. 2001. Deferred harvests: The transition from hunting to animal husbandry. American Anthropologist 103: 295– 311. Google Scholar Alverson, D.L. 2005. Managing the catch of non-target species. In: W.S. Wooster and J.M. Quinn, eds., Improving Fishery Management: Melding Science and Governance. Seattle, WA: The School of Marine Affairs, University of Washington. Google Scholar Alverson, D.L. et al. 2004. A Global Assessment of Fisheries Bycatch and Discards. Rome: FAO. Google Scholar AMI (American Meat Institute). 2012. The United States Meat Industry at a Glance. http://www.meatami.com/ht/d/sp/i/47465/pid/47465. Accessed on November 14, 2012. Google Scholar Amit, M. 2010. Vegetarian diets in children and adolescents. Pediatric Child Health 15(3): 303– 308. Google Scholar Anderson, O.E. 1953. Refrigeration in America: A History of a New Technology and Its Impact. Princeton, NJ: Princeton University Press. Google Scholar Animal Liberation Front. 2012. Manifesto for Radical Abolitionism: By Any Means. http://www.animalliberationfront.com/ALFront/Manifesto-TotalLib.htm. Accessed on November 14, 2012. Google Scholar Antony, A.C. 2003. Vegetarianism and vitamin B-12 (cobalamin) deficiency. American Journal of Clinical Nutrition 78: 3– 6. Google Scholar Århem, K. 1989. Maasai food symbolism: The cultural connotations of milk, meat, and blood in the pastoral Maasai diet. Anthropos 8: 1– 23. Google Scholar Armelagos, G.J. and K.N. Harper. 2005. Genomics at the origins of agriculture, part one. Evolutionary Anthropology 14: 68– 77. Google Scholar Asner, G.P. et al. 2004. Grazing systems, ecosystem responses and global change. Annual Review of Environment and Resources 29: 261– 299. Google Scholar Atalay, S. and C.A. Hastorf. 2006. Food, meals, and daily activities: Food habitus at Neolithic Çatalhöyük. American Antiquity 71: 283– 319. Google Scholar Atwater, W.O. 1888. Foods and beverages. The Century Magazine. May, pp. 135– 139. Google Scholar Atwater, W. and C. Woods. 1896. The Chemical Composition of American Food Materials. Washington, DC: USDA. Google Scholar</t>
+          <t>In west European countries, public debates on migration, integration, and diversity are informed by particular understandings of secularism and the secular society. In our increasingly diverse societies, so the story goes, it is needed to implement a certain type of secularism and/or support particular types of secular standpoints in order to maintain a certain status quo that guarantees security, democracy, and equality for all. Religion is often perceived and simultaneously constructed in opposition to the emancipation and equal rights of women. This dominant logic, in which secularism and religion are opposites, makes it difficult for women of diverse religious–cultural backgrounds to cooperate on an equal footing for a shared feminist cause. However, feminist politics and practices that cross religious–secular divides can and do take place. Feminist research has so far paid little attention to the actualities of this feminist border-crossing and the transformations it may engender in our current sociopolitical context. In this article, I aim to offer a consideration of feminist politics and solidarity crossing religious–secular divides in Flanders, the Dutch-speaking northern region of Belgium. Through two case studies, I explore how cooperation and solidarity across religious–secular boundaries are developed and being talked about by activists. I argue that such feminist coalitions can and do directly and indirectly affect the public debates and inspire feminist thinking on issues regarding religion, secularism, and feminism in the multicultural society.</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2041322544</t>
-        </is>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/s0375-9601(00)00417-5</t>
+          <t>https://openalex.org/W2414424352</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Galenko &amp; Danilov (2000)</t>
+          <t>Stanley (1992)</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Steady-state shapes of growing crystals in the field of local nonequilibrium diffusion</t>
+          <t>Some current factors restricting the potential of private general practice.</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>It is analytically found that in the local nonequilibrium diffusion field the growing crystals have the following steady-state isosolutal shapes: the elliptical paraboloid, the paraboloid of revolution, the parabolic cylinder, and the parabolic platelet. The crystal interfaces have an arbitrary configuration if the growth velocity is equal to or greater than the speed of solute diffusion in the bulk system.</t>
+          <t>This background paper focuses on two or three aspects which, in the writer's opinion, are crucial to the healthy development of general dental practice, although the rapidly progressing health reforms have already altered the relevance of some comments made. The first aspect is equitable access, especially for the financially disadvantaged in this time of economic recession. The ability and inclination of providers to treat the financially disadvantaged has not currently been matched by the political will of funders, even though an effective system could simply be organised. Access problems also apply to the elderly. A smooth transitional system of oral health care should exist for every aging patient, whether economically, physically, and mentally healthy, or in a state of total dependence, and this should be an integral part of general dental practice management. Generally it is not. Secondly, the fragmentation of the New Zealand dental workforce, and the lack of a real team approach have hindered the logical development of oral health services and prevented many possible options from being offered. Dialogue to reduce the fragmentation must continue, hopefully to a successful conclusion. Perhaps the catalyst for meaningful change may be contained in the current health reforms. Certainly opportunities for change have been clearly signalled.</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4285297765</t>
+          <t>https://openalex.org/W2799449770</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>https://doi.org/10.4018/ijide.303608</t>
+          <t>https://doi.org/10.1053/j.ajkd.2018.02.005</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Tahirkheli (2022)</t>
+          <t>Kattah &amp; Garovic (2018)</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Can Leadership Possess a Virtual Pair of Eyes?</t>
+          <t>From Delivery to Dialysis: Does Preeclampsia Count?</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Studies intersecting organizational networks and cross-cultural leadership research are short supplied in literature. One explanation could be underwhelming motivation to integrate research areas that historically lack consent over operational definitions and contextual applications. This study brings a third variable, e-leadership, investigated as a moderating variable; in the process, the study lends a hand to start the process of arriving at an operational definition of e-leadership. The lack of integration studies encouraged the buildup of this study. What makes such a discussion important is the transition to the remote workspace during COVID-19 and expecting the traditional leadership research accountable for the gaps that were left in the rapid transition and governance of the virtual workspaces. The study is based on 18 international markets of an MNE that recently received ERP upgrades.</t>
+          <t>Related Article, p. 619 Related Article, p. 619 Hypertensive disorders of pregnancy (HDPs) represent a spectrum of conditions including gestational hypertension, preeclampsia/eclampsia, and preeclampsia superimposed on chronic hypertension.1National High Blood Pressure Education Program Working Group on High Blood Pressure in PregnancyReport of the National High Blood Pressure Education Program Working Group on High Blood Pressure in Pregnancy.Am J Obstet Gynecol. 2000; 183: S1-S22Abstract Full Text Full Text PDF PubMed Scopus (2331) Google Scholar The exact incidence of HDPs is unclear because definitions have changed over time, but most estimates place the incidence at ∼8% of pregnancies.1National High Blood Pressure Education Program Working Group on High Blood Pressure in PregnancyReport of the National High Blood Pressure Education Program Working Group on High Blood Pressure in Pregnancy.Am J Obstet Gynecol. 2000; 183: S1-S22Abstract Full Text Full Text PDF PubMed Scopus (2331) Google Scholar HDPs have been linked to the future development of hypertension, cardiovascular disease, and stroke.2Bellamy L. Casas J.P. Hingorani A.D. Williams D.J. Pre-eclampsia and risk of cardiovascular disease and cancer in later life: systematic review and meta-analysis.BMJ. 2007; 335: 974-986Crossref PubMed Scopus (1558) Google Scholar In light of this evidence, several societies define preeclampsia as a distinct risk factor in women for the future development of vascular disease.3Mosca L. Benjamin E.J. Berra K. et al.Effectiveness-based guidelines for the prevention of cardiovascular disease in women–2011 update: a guideline from the American Heart Association.J Am Coll Cardiol. 2011; 57: 1404-1423Crossref PubMed Scopus (542) Google Scholar, 4Bushnell C. McCullough L. Stroke prevention in women: synopsis of the 2014 American Heart Association/American Stroke Association guideline.Ann Intern Med. 2014; 160: 853-857Crossref PubMed Scopus (31) Google Scholar, 5American College of Obstetricians and Gynecologists; Task Force on Hypertension in Pregnancy. Hypertension in pregnancyReport of the American College of Obstetricians and Gynecologists' Task Force on Hypertension in Pregnancy.Obstet Gynecol. 2013; 122: 1122-1131Crossref PubMed Scopus (601) Google Scholar Given the close relationship among hypertension, cardiovascular disease, and kidney disease, it is not surprising that HDPs have also been associated with the development of kidney dysfunction, particularly albuminuria, and with the development of end-stage renal disease (ESRD).6McDonald S.D. Han Z. Walsh M.W. Gerstein H.C. Devereaux P.J. Kidney disease after preeclampsia: a systematic review and meta-analysis.Am J Kidney Dis. 2010; 55: 1026-1039Abstract Full Text Full Text PDF PubMed Scopus (124) Google Scholar, 7Vikse B.E. Irgens L.M. Leivestad T. Skjaerven R. Iversen B.M. Preeclampsia and the risk of end-stage renal disease.N Engl J Med. 2008; 359: 800-809Crossref PubMed Scopus (441) Google Scholar, 8Wang I.K. Muo C.H. Chang Y.C. et al.Association between hypertensive disorders during pregnancy and end-stage renal disease: a population-based study.CMAJ. 2013; 185: 207-213Crossref PubMed Scopus (96) Google Scholar, 9Kattah A.G. Scantlebury D.C. Agarwal S. et al.Preeclampsia and ESRD: the role of shared risk factors.Am J Kidney Dis. 2016; 69: 498-505Abstract Full Text Full Text PDF PubMed Scopus (31) Google Scholar In this issue of AJKD, Paauw et al10Paauw N.D. van der Graaf A.M. Bozoglan R. et al.Kidney function after a hypertensive disorder of pregnancy: a longitudinal study.Am J Kidney Dis. 2018; 71: 619-626Abstract Full Text Full Text PDF PubMed Scopus (15) Google Scholar present data using the Prevention of Renal and Vascular End Stage Disease (PREVEND) cohort that again address the relationship between HDPs and kidney disease, offering additional insights into this increasingly recognized association. The first study to demonstrate the relationship between preeclampsia and ESRD was by Vikse et al7Vikse B.E. Irgens L.M. Leivestad T. Skjaerven R. Iversen B.M. Preeclampsia and the risk of end-stage renal disease.N Engl J Med. 2008; 359: 800-809Crossref PubMed Scopus (441) Google Scholar in 2008. Using the Medical Birth Registry of Norway, the authors found nearly 5-fold increased risk for ESRD after preeclampsia in a woman’s first pregnancy, with increasing risk for ESRD if preeclampsia occurred in several pregnancies.7Vikse B.E. Irgens L.M. Leivestad T. Skjaerven R. Iversen B.M. Preeclampsia and the risk of end-stage renal disease.N Engl J Med. 2008; 359: 800-809Crossref PubMed Scopus (441) Google Scholar It should be noted that the absolute risk for ESRD was still low in this population (14.5 vs 3.3 per 100,000 person-years in women with preeclampsia vs no preeclampsia) and developed at a mean age of 41 years, on average 17 years after a woman’s first pregnancy. The second study to explore this relationship was by Wang et al8Wang I.K. Muo C.H. Chang Y.C. et al</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3211541765</t>
+          <t>https://openalex.org/W2747012253</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1182/blood-2021-147160</t>
+          <t>https://doi.org/10.1080/0013838x.2017.1332024</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Pierce et al. (2021)</t>
+          <t>York (2017)</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Synergistic Combination Activity of the Novel GSPT1 Degrader CC-90009 in Acute Myeloid Leukemia Models</t>
+          <t>Exploratory Data Analysis for the Digital Humanities: The Comédie-Française Registers Project Analytics Tool</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t xml:space="preserve">Abstract Introduction: CC-90009 is a novel cereblon E3 ligase modulator (CELMoD ®) agent that is a first-in-class degrader of translation termination factor G1 to S phase transition 1 (GSPT1). CC-90009 has demonstrated antileukemic activity as a single agent and is currently under investigation in patients with acute myeloid leukemia (AML; NCT02848001). Treatment with CC-90009 led to rapid reductions in peripheral and bone marrow blasts, and demonstrated preliminary promising efficacy, including several complete remissions, in patients with relapsed or refractory AML. Here, we describe the identification and preclinical activity of select anti-AML agents as potential combination partners of CC-90009 to further improve its efficacy and therapeutic index. Based on these results, the combination activity of CC-90009 with venetoclax (VEN)/azacitidine (AZA) is being evaluated in a phase 1/2 trial in patients with AML (NCT04336982). Methods: A high-throughput cell viability screen was performed to identify synergistic partners of CC-90009. AML cell lines (HL-60, HNT-34, KG-1, ML-2, NOMO-1, MOLM-13, MV4-11, F-36P, OCI-AML2, OCI-AML3) were treated with CC-90009 in combination with &amp;amp;gt; 70 compounds, including standard anti-AML agents, tyrosine kinase inhibitors (TKIs), unfolded protein response inducers, transcription inhibitors, and epigenetic agents. MOLM-13 and MV4-11 are fms-like tyrosine kinase 3 internal tandem duplication (FLT3-ITD) cell lines. Hits were validated in a colony formation (CF) assay using primary AML cells and bone marrow mononuclear cells (BMMC) from healthy donors. Synergy of the combination partners with CC-90009 was further assessed in AML patient-derived xenograft (PDX) models. Synergy between the isocitrate dehydrogenase 2 (IDH2) inhibitor enasidenib and CC-90009 was evaluated in a TF-1 erythroleukemia cell line overexpressing IDH2 R140Q mutant, and an IDH2 R140Q PDX model, AM7577. Results: Our high-throughput combination screen revealed multiple TKIs, epigenetic agents, and pro-apoptotic agents as potential combination partners of CC-90009 in AML cell lines. FLT3 inhibitors, including sunitinib, pexidartinib, midostaurin, lestaurtinib, crenolanib, and gilteritinib, synergized with CC-90009 to reduce viability in FLT3-ITD AML cell lines MV4-11 and MOLM-13. Similarly, the B-cell lymphoma 2 (BCL2) inhibitor VEN potentiated CC-90009-induced apoptosis and accelerated cell-autonomous killing. Reduction in levels of MCL-1, an anti-apoptotic factor, by CC-90009 most likely contributed to the synergy with VEN. We prioritized the evaluation of FLT3, BCL2, and IDH2 inhibitors as partners of CC-90009. In CF assays, midostaurin enhanced the inhibitory effect of CC-90009 in primary AML cells, without augmenting the effect of CC-90009 in CD34+ BMMC from healthy donors. Similarly, VEN enhanced the reduction in CF by CC-90009 in AML patient-derived BMMC without exacerbating the decrease in CF by CC-90009 in BMMC from healthy donors. We characterized FLT3 inhibitor/CC-90009 and BCL2 inhibitor/AZA/CC-90009 combinations in a FLT3-ITD PDX murine model, PDX1. The FLT3 inhibitor quizartinib significantly prolonged survival when combined with CC-90009 compared with either agent alone (P &amp;amp;lt; 0.001). Similarly, VEN/AZA/CC-90009 combination markedly extended survival compared with single agents or VEN/AZA doublets (P &amp;amp;lt; 0.001). The synergy between CC-90009 and epigenetic modulators was validated and further characterized in customized cell differentiation assays. Addition of CC-90009 to enasidenib, a mutant IDH2 inhibitor, enhanced differentiation and killing of CD34+ stem and progenitor cells, and increased differentiated CD235a+ erythroblasts, compared with enasidenib alone in a TF-1 cell line overexpressing IDH2 R140Q. Enasidenib/CC-90009 combination treatment reduced CD45+ malignant populations and increased differentiated CD14+ cells, leading to significantly prolonged animal survival in an IDH2 R140Q PDX model, AM7577, compared with either agent alone (P &amp;amp;lt; 0.0001). Conclusion: Using a high-throughput combination screen, we identified rational combination partners that synergize with CC-90009 in in vitro and in vivo AML models. Collectively, these results support the clinical evaluation of CC-90009 in combination with FLT3, BCL2, and IDH2 inhibitors to further improve treatment outcomes for patients with AML. Disclosures Pierce: Bristol Myers Squibb: Current Employment, Current equity holder in publicly-traded company. Yao: Bristol Myers Squibb: Consultancy, Current equity holder in publicly-traded company, Ended employment in the past 24 months, Research Funding. Pace: Bristol Myers Squibb: Current Employment, Current equity holder in publicly-traded company, Patents &amp;amp; Royalties. Wang: Bristol Myers Squibb: Current Employment, Current equity holder in publicly-traded company. Flandin-Blety: Bristol Myers Squibb: Current Employment. Benitez: Bristol Myers Squibb: Current Employment. </t>
+          <t>In 2008 the Comédie-Française, France’s pre-eminent dramatic troupe and theatre, embarked on an ambitious project to digitise its remarkable collection of ticket receipts dating from the theatre’s opening in 1680 to just after the French Revolution. This paper describes the design and development of a general-purpose online data analytics tool to make meaning from the resulting database: its technical and theoretical underpinnings, its audience and constraints, its user-base and expectations.</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4388521904</t>
+          <t>https://openalex.org/W2026353231</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>https://doi.org/10.15379/ijmst.v10i2.3017</t>
+          <t>https://doi.org/10.1525/can.1992.7.4.02a00010</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Alhajaya et al. (2023)</t>
+          <t>Mullin (1992)</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>The Rolle of Electronic Legal Information Systems in Improving the Quality of Work and Legal and Judicial Services</t>
+          <t>The Patronage of Difference: Making Indian Art “Art, Not Ethnology”</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>As many countries have worked to improve the performance of the work of various legal bodies, whether official or unofficial, thanks to the transformation from traditional systems—which have been applied for a long time—to electronic systems, this study examined the impact of the information technology revolution on improving the quality of legal and judicial services provided by the justice sector to those dealing with various justice agencies. The study showed that the transition from the traditional judicial system to the remote judicial system contributed to increasing the productivity of the courts, raising their efficiency, and reducing corruption. The study also demonstrated how countries' efforts to create electronic versions of their laws and court rulings made it easier for judges, lawyers, and legal researchers to access these documents and rulings. This was evident in the standard of court rulings, legal research, memoranda, and pleadings in court. The study concluded that the creation of legal information systems and the widespread use of them improved the efficiency of judicial and legal services offered to different clients interacting with the justice systems in those countries, as well as having a positive effect on the workflow of judges, lawyers, and legal researchers. It is therefore the duty of the various active institutions in countries (formal and informal) to work toward encouraging the adoption of such systems in accordance with controls that provide security and protection against hacking and tampering with the information included in those systems. Additionally, the adoption of secure legal information systems has become an indispensable need and necessity to satisfy the needs of various workers in the justice sector.</t>
+          <t>Cultural AnthropologyVolume 7, Issue 4 p. 395-424 The Patronage of Difference: Making Indian Art “Art, Not Ethnology” Molly H. Mullin, Molly H. Mullin Department of Cultural Anthropology Duke UniversitySearch for more papers by this author Molly H. Mullin, Molly H. Mullin Department of Cultural Anthropology Duke UniversitySearch for more papers by this author First published: November 1992 https://doi.org/10.1525/can.1992.7.4.02a00010Citations: 5AboutPDF ToolsExport citationAdd to favoritesTrack citation ShareShare Give accessShare full text accessShare full-text accessPlease review our Terms and Conditions of Use and check box below to share full-text version of article.I have read and accept the Wiley Online Library Terms and Conditions of UseShareable LinkUse the link below to share a full-text version of this article with your friends and colleagues. Learn more.Copy URL Share a linkShare onEmailFacebookTwitterLinkedInRedditWechat References Cited Alexander, Charles C. 1980 Here the Country Lies: Nationalism and the Arts in Twentieth-Century America. Bloomington: Indiana University Press. Alexander, Stephen 1935 Design for a Parasite Class. New Masses, January 8: 21. Austin, Mary 1932 Earth Horizon. Boston: Houghton Mifflin. Austin, Mary 1933 [1929] Regional Culture in the Southwest. In America in the Southwest: A Regional Anthology. T. M. Pearce and T. Hendon, eds. Pp. 119–123. Albuquerque, N.M.: University of New Mexico Press. Austin, Mary 1970 [1923] The American Rhythm. New York: Cooper Square Publishers. Babcock, Barbara A. 1990. “A New Mexican Rebecca”: Imaging Pueblo Women. Journal of the Southwest 32(4): 400–437. Babcock, Barbara, Guy Monthan, and Doris Monthan 1988 The Pueblo Storyteller: Development of a Figurative Ceramic Tradition. Tucson: University of Arizona Press. Barnard, Rita 1990 The Great Depression and the Culture of Abundance: Literature and Mass Culture in the 1930s. Unpublished Ph.D. dissertation, Duke University. Bourdieu, Pierre 1984 Distinction: A Social Critique of the Judgement of Taste. Richard Nice, trans. Cambridge, Mass.: Harvard University Press. Brantlinger, Patrick 1990 Crusoe's Footprints: Cultural Studies in Britain and America. New York: Routledge. Bryan, Bruce 1924. Movie Realism and Archaeological Fact. Art and Archaeology 18(4): 131–144. Bynner, Walter 1979 [1936] Designs for Beauty. In The Works of Walter Bynner. James Kraft, ed. Pp. 336–342. New York: Farrar, Strauss and Giroux. Chapman, Kenneth 1924. The Indian Fair. Art and Archaeology 18(5–6): 215–224. Chase, Mary Ellen 1950 Abby Aldrich Rockefeller. New York: Macmillan. Chase, Stuart 1929 Men and Machines. New York: Macmillan. Chase, Stuart 1931 Mexico: A Study of Two Americas. New York: Macmillan. Chauvenet, Beatrice 1983 Hewett and Friends: A Biography of Santa Fe's Vibrant Era. Santa Fe: Museum of New Mexico Press. Clifford, James 1988 The Predicament of Culture: Twentieth-Century Ethnography, Literature, and Art. Cambridge, Mass.: Harvard University Press. Curtis, Nathalie 1922. Pueblo Poetry. El Palacio 12(7): 95–99. Dauber, Kenneth 1990. Pueblo Pottery and the Politics of Regional Identity. Journal of the Southwest 32(4): 576–596. Dietrich, Margretta 1930. The Indian Fair. El Palacio 29(3): 103–105. Dietrich, Margretta 1934 Nebraska Recollections. Unpublished MS, New Mexico State Library. Dietrich, Margretta 1936. Old Art in New Forms. New Mexico Magazine 14(9): 26–27, 56. Domínguez, Virginia 1990 Towards a Comparative Framework on National Identities and Cultural Policies. Unpublished East-West Center Working Paper, East-West Center, Honolulu. El Palacio 1922a Prizes for Indian Handicraft. 12(6): 81. El Palacio 1922b The Santa Fe Fiesta and Centenary of the Santa Fe Trail. 13(2): 15–17. El Palacio 1926 Southwest Indian Fair. 20(10): 204–212. Frank, Waldo 1919 Our America. New York: Boni &amp; Liveright. Friedman, Jonathan 1990 Being in the World: Globalization and Localization. In Global Culture: Nationalism, Globalization and Modernity. Mike Featherstone, ed. Pp. 311–328. London: Sage. Gold, Michael 1936 Mabel Luhan's Slums. The New Masses, September 1, pp. 11–13. Greenberg, Clement 1957 [1939] Avant-Garde and Kitsch. In Mass Culture: The Popular Arts in America. Bernard Rosenberg and David Manning White, eds. Pp. 98–111. Glencoe, Ill.: The Free Press. Handler, Richard 1991 Ruth Benedict and the Modernist Sensibility. In Modernist Anthropology: From Fieldwork to Text. Marc Manganaro, ed. Pp. 163–180. Princeton, N.J.: Princeton University Press. Hannerz, Ulf 1990 Cosmopolitans and Locals in World Culture. In Global Culture: Nationalism, Globalization, and Modernity. Mike Featherstone, ed. Pp. 237–251. London: Sage. Harvey, David 1989 The Condition of Postmodernity: An Enquiry into the Origins of Cultural Change. Oxford: Basil Blackwell. Hewett, Edgar Lee 1922. The Art of the Earliest Americans. El Palacio 13(1). Hinsley, Curtis M. 1991 The World as Marketplace: Commodification of the Exotic at the World'</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2307731390</t>
-        </is>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1149/ma2014-01/3/355</t>
+          <t>https://openalex.org/W2189294255</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Zuev et al. (2014)</t>
+          <t>Ravichandra (2015)</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Oxygen Nonstoichiometry, Defect Structure and Chemical Expansion of Advanced Perovskite and Double Perovskite Oxides</t>
+          <t>Core Schema Mappings: Computing Core Solution with Target Dependencies in Data Exchange</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Perovskites and double perovskites based upon substituted oxides LnBO 3-δ and LnBaB 2 O 6-δ , respectively, where Ln=lanthonoid, B= 3d -transition metal, are the state-of-the-art materials for a variety of different devices for moderate high temperature applications such as solid oxide fuel cells (SOFCs) and mixed ionic and electronic conducting (MIEC) membranes. The unique feature of the oxides is their ability to undergo both thermal expansion and that induced by the defects of oxygen nonstoichiometry in the oxide lattice. The latter is chemical or defect-induced expansion. This property is extremely sensitive to the defect structure of the oxide material. Despite it is generally recognized that point defects are responsible for chemical expansion its mechanism is still controversial topic. Different reasons such as changing Coulomb forces, atomic packing, local structure, preferred coordination, association between dopants and vacancies and others are discussed in this respect. If electronic defects have localized nature then another reason may lead to chemical expansivity. Within the framework of such assumption the oxygen vacancy formation is accepted to be accompanied by the reduction of 3d -metal cations. As a result, average size of the B-site cations increases due to the apparent substitution of “large” B (z-1)+ for smaller B z+ . Oxygen vacancy formation may also contribute to chemical expansion observed due to a change of coulomb interaction between ions. If oxide lattice chemical expansion is caused by a change of mean ionic radius due to reduction of most reducible cation then a model allowing its calculation can be developed. In order to do it the following assumptions should be accepted. (i) A closely packed lattice of oxide is formed by ions with rigid spheres. (ii) Expansion in each of three space directions is of equal value. The latter seems to be valid only for oxides with pseudo-cubic structure such as perovskites but this is not the case for layered double perovskite. The model proposed for pseudo-cubic oxides was shown in this work to coincide completely with experimental data on chemical expansion for the perovskite La 0.7 Sr 0.3 Co 0.9 Fe 0.1 FeO 3-δ . On the contrary, chemical expansion of PrBaCo 2 O 6-δ along a axis and contraction along c axis were found to compensate each other completely in the double perovskite and, therefore, its volume (overall) chemical expansion becomes negligible. As a result the cell volume linearly increases with temperature in air contrary to simple cubic perovskites such as La 0.7 Sr 0.3 Co 0.9 Fe 0.1 O 3-δ .</t>
+          <t>Schema mapping is a declarative specification of the relationship between source schema and target schema. Nowadays, schema mapping is widely used in data transformation, schema evolution, data exchange and data integration activities and there by supporting in ETL applications, Enterprise Information Integration, and Enterprise Application Integration tasks. While performing data exchange for given schema mapping, it is required to consider all the types of target constraints which are target tgds (tuple generating dependencies) and target egds (equality generating dependencies). Many researchers have addressed various types of target constraints and provided solutions for them. The common drawback is that they are time consuming due to recursive nature and multiple intermediate states generation. In this paper, we proposed solution to resolve the above so called drawbacks and an approach to handle the target constraints on performing data exchange for given schema mapping in non recursive way. Our proposed solution rewrites given target dependencies and combines these with rewritten s-t tgds such that these modified dependencies can be directly translated into SQL Script. Later this produced SQL Script can be executed directly on a relational database system to populate data into target database</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2952392029</t>
+          <t>https://openalex.org/W88195994</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3390/fire2020034</t>
+          <t>https://doi.org/10.1016/b978-008044046-0.50462-0</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Moriarty et al. (2019)</t>
+          <t>Chen (2003)</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Firefighter Observations of “Surprising” Fire Behavior in Mountain Pine Beetle-Attacked Lodgepole Pine Forests</t>
+          <t>Transient response analyses by extended generic differential quadratures based discrete element analysis methods and time integration schemes</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>The recent mountain pine beetle outbreak affecting lodgepole pine forests in the Rocky Mountains has created a novel fire environment for wildland firefighters. This paper presents results from an examination of firefighters’ observations of fire behavior in post-outbreak lodgepole pine forests, with a focus on what they considered surprising from a fire behavior standpoint and how this in turn affected their suppression tactics. The surprises in fire behavior experienced by firefighters during the red phase of post-outbreak forests included an elevated level of fire spread and intensity under moderate weather and fuel moisture conditions, increased spotting, and faster surface-to-crown fire transitions with limited or no ladder fuels. Unexpectedly, during the gray phase in mountain pine beetle-attacked stands, crown ignition and crown fire propagation was observed for short periods of time. Firefighters are now more likely to expect to see active fire behavior in nearly all fire weather and fuel moisture conditions, not just under critically dry and windy situations, and across all mountain pine beetle attack phases, not just the red phase. Firefighters changed their suppression tactics by adopting indirect methods due to the potential fire behavior and tree-fall hazards associated with mountain pine beetle-attacked lodgepole pine forests.</t>
+          <t>Publisher Summary This chapter discusses the concepts of various methods, including differential quadrature, generalized methods, related discrete element analysis methods and the extended differential quadrature (EDQ) based direct time integration methods. These methods have been developed for solving generic transient continuum mechanics problems having arbitrary domain configuration. The method of DQ defines a set of nodes in a problem domain. Then a derivative or partial derivative of a variable function at a node with respect to a coordinate is approximated, as a weighted linear sum of all the function values at all nodes along that coordinate direction. The original DQ can only be used to solve problems having regular domain. The DQ has been generalized, which leads to the GDQ. If a point used for defining discrete fundamental relations is also a node, it is not necessary that the number of discrete fundamental relations at that node equals the number of degrees of freedom attached to it. This concept has been used to construct the discrete inter-element transition conditions and boundary conditions in the differential quadrature element analysis of the beam bending problem, frame problem, and warping torsion bar problem.</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4298457085</t>
+          <t>https://openalex.org/W2299331028</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2139/ssrn.1095298</t>
+          <t>https://doi.org/10.1039/c6sm02361d</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Nishiyama &amp; Smetters (2006)</t>
+          <t>Burghelea et al. (2017)</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Social Security Privatization with Income-Mortality Correlation</t>
+          <t>A nonlinear dynamical system approach for the yielding behaviour of a viscoplastic material</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>While privatizing Social Security can improve labor supply incentives, it can also reduce risk sharing. We simulate a 50-percent privatization using an overlapping-generations model where heterogeneous agents with elastic labor supply face idiosyncratic earnings shocks and longevity uncertainty. When wage shocks are insurable, privatization produces about $30,100 of extra resources for each future household after all transitional losses have been paid. When wages are not insurable, privatization reduces efficiency by about $8,100 per future household. We check the robustness of these results to different model specifications as well as policy reforms and arrive at several surprising conclusions. First, privatization performs better in a closed economy, where interest rates decline with capital accumulation, than in an open economy. Second, privatization also performs better when an actuarially-fair private annuity market does not exist. Third, government matching of private contributions on a progressive basis is not very effective at restoring efficiency and can actually harm.</t>
+          <t>A nonlinear dynamical system model that approximates a microscopic Gibbs field model for the yielding of a viscoplastic material subjected to varying external stresses recently reported in R. Sainudiin, M. Moyers-Gonzalez and T. Burghelea, Soft Matter, 2015, 11(27), 5531–5545 is presented. The predictions of the model are in fair agreement with microscopic simulations and are in very good agreement with the micro-structural semi-empirical model reported in A. M. V. Putz and T. I. Burghelea, Rheol. Acta, 2009, 48, 673–689. With only two internal parameters, the nonlinear dynamical system model captures several key features of the solid–fluid transition observed in experiments: the effect of the interactions between microscopic constituents on the yield point, the abruptness of solid–fluid transition and the emergence of a hysteresis of the micro-structural states upon increasing/decreasing external forces. The scaling behaviour of the magnitude of the hysteresis with the degree of the steadiness of the flow is consistent with previous experimental observations. Finally, the practical usefulness of the approach is demonstrated by fitting a rheological data set measured with an elasto-viscoplastic material.</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3134009382</t>
+          <t>https://openalex.org/W4211081331</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1353/tfr.2021.0082</t>
+          <t>https://doi.org/10.1002/9781118278710.refs</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Grim (2021)</t>
+          <t>Smil (2013)</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Community-Based Language Learning: A Framework for Educators by Joan Clifford and Deborah S. Reisinger</t>
+          <t>References</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Reviewed by: Community-Based Language Learning: A Framework for Educators by Joan Clifford and Deborah S. Reisinger Frédérique Grim Clifford, Joan, and Deborah S. Reisinger. Community-Based Language Learning: A Framework for Educators. Georgetown UP, 2019. ISBN 978-1-62616-636-3. Pp. 207. For the past two decades, community-based learning has been rooted in North American universities' missions, as it offers many benefits to students, such as furthering critical-thinking skills, a sense for social justice, and career preparation. Community-Based Language Learning (CBLL) takes the students a step further by adding cultural and linguistic characteristics that can genuinely transform them. This book offers a description of characteristics necessary to develop a course or project founded on CBLL. Chapter one proposes a theoretical framework by highlighting definitions of community-based learning as well as making a distinction between CBLL and global learning (international service-learning and global service-learning). This chapter covers several models and critical pedagogies to guide educators in their planning. The second chapter focuses on the importance of choosing student learning outcomes that justify the core of CBLL projects and include community partners' needs and input. Joint conversations between all three parties (community partners, volunteers, and educators) establish clear objectives, expectations, procedures, and linguistic practice from the start, which are translated into student learning outcomes and assignments. Because Intercultural Communicative Competence is integral to CBLL, it offers an opportunity to build or reinforce students' language and cultural development, based on ACTFL's Standards. The third chapter, on assessment design, guides educators through adequate assessment tools for CBLL. Examples include written or oral reflections, journals, blogs, social media, posters, portfolio, creative writing, interviews, exhibits—all of which can focus on one of the three modes of communication. Teachers and community partners should also reflect and assess their own role in the project at play. Chapter four, on Identity, Language, and Power, offers suggestions on ways to approach student-, community-, linguistically-, socially-based identities, as they transpire in CBLL work and should be openly addressed. Soundly designed CBLL projects involve all student backgrounds and identities and have even shown additional benefits for heritage language learners involved in their own linguistic community. The chapter warns that students and educators own the power and opportunity to share the voice of the community as expressed by the community, and not through their own interpretation. Using CBLL as a transformative process is what chapter five demonstrates. Two influential models (Mezirow's and Kiely's) on [End Page 292] transformational community-service offer a better sense of how CBLL can impact learners. Dissonance and resistance will likely emerge in students, provoked by their CBLL experiences. Educators should therefore address triggers, support students, and share strategies to keep these transformations positive. The final chapter focuses on the importance of developing solid relationships and thereafter partnerships with targeted community members. Careful steps, involving reciprocity and solidarity, need to be followed to bring success to the CBLL experience for everyone involved. This book conveys many fundamental aspects to guide educators interested in developing or redesigning a CBLL project. The authors propose supportive materials, such as "reflections for instructors," "activities for students," and a list of references. Frédérique Grim Colorado State University Copyright © 2021 American Association of Teachers of French</t>
+          <t>Free Access References Book Editor(s):Vaclav Smil, Vaclav SmilSearch for more papers by this author First published: 18 March 2013 https://doi.org/10.1002/9781118278710.refs AboutPDFPDF ToolsRequest permissionExport citationAdd to favoritesTrack citation ShareShareShare a linkShare onFacebookTwitterLinked InRedditWechat References a Calorie Counter. 2012. Fast Food Restaurants &amp; Nutrition Facts Compared. http://www.acaloriecounter.com/fast-food.php. Accessed on November 14, 2012. Google Scholar Aarestrup, F. 2012. Get pigs off antibiotics. Nature 486: 465– 466. Google Scholar Abel, W. 1962. Geschichte der deutschen Landwirtschaft von frühen Mittelalter bis zum 19 Jahrhundert. Stuttgart: Ulmer. Google Scholar Aberle, E.D. et al. 2001. Principles of Meat Science. Dubuque, IA: Kendall Hunt Publishing. Google Scholar Adams, C. 2010. The Sexual Politics of Meat: A Feminist-Vegetarian Critical Theory. New York: Continuum International Publishing Group. http://books.google.ca/books/about/The_Sexual_Politics_of_Meat.html?id=AwrwRKNavtAC. Accessed on November 14, 2012. Google Scholar AFSSA (Agence française_de_sécurité sanitaire des produits de santé). 2009. Synthèse de l'étude Individuelle Nationale des Consommations Alimentaires 2 (INCA 2) 2006–2007. Paris: AFSSA. Google Scholar Aiello, L.C. and J.C.K. Wells. 2002. Energetics and the evolution of the genus Homo . Annual Review of Anthropology 31: 323– 338. Google Scholar Aiello, L.C. and P. Wheeler. 1995. The expensive-tissue hypothesis. Current Anthropology 36: 199– 221. Google Scholar Al-Deseit, B. 2009. Least-cost broiler ration formulation using linear programming technique. Journal of Animal and Veterinary Advances 8: 1274– 1278. Google Scholar Allan, J.A. 1993. Fortunately there are substitutes for water otherwise our hydro-political futures would be impossible. In: Priorities for Water Resources Allocation and Management. London: ODA, pp. 13– 26. Google Scholar Allbaugh, L.G. 1953. Crete: A Case Study of an Undeveloped Area. Princeton, NJ: Princeton University Press. Google Scholar Allen, R.C. 2007. How Prosperous Were the Romans? Evidence from Diocletian's Price Edict (301 AD). Oxford: Department of Economics, Oxford University. Google Scholar Allen, J.R.M. 2010. Last glacial vegetation of northern Eurasia. Quaternary Science Reviews 29: 2604– 2618. Google Scholar de Almeida, J.C. et al. 2006. Fatty acid composition and cholesterol content of beef and chicken meat in Southern Brazil. Brazilian Journal of Pharmaceutical Sciences 42: 109– 117. Google Scholar Alonso, A. et al. 2009. Cardiovascular risk factors and dementia mortality: 40 years of follow-up in the Seven Countries Study. Journal of Neurological Sciences 2009: 79– 83. Google Scholar Alroy, J. 2001. A multispecies overkill simulation of the end-Pleistocene megafaunal mass extinction. Science 292: 1893– 1896. Google Scholar Alvard, M.S. and L. Kuznar. 2001. Deferred harvests: The transition from hunting to animal husbandry. American Anthropologist 103: 295– 311. Google Scholar Alverson, D.L. 2005. Managing the catch of non-target species. In: W.S. Wooster and J.M. Quinn, eds., Improving Fishery Management: Melding Science and Governance. Seattle, WA: The School of Marine Affairs, University of Washington. Google Scholar Alverson, D.L. et al. 2004. A Global Assessment of Fisheries Bycatch and Discards. Rome: FAO. Google Scholar AMI (American Meat Institute). 2012. The United States Meat Industry at a Glance. http://www.meatami.com/ht/d/sp/i/47465/pid/47465. Accessed on November 14, 2012. Google Scholar Amit, M. 2010. Vegetarian diets in children and adolescents. Pediatric Child Health 15(3): 303– 308. Google Scholar Anderson, O.E. 1953. Refrigeration in America: A History of a New Technology and Its Impact. Princeton, NJ: Princeton University Press. Google Scholar Animal Liberation Front. 2012. Manifesto for Radical Abolitionism: By Any Means. http://www.animalliberationfront.com/ALFront/Manifesto-TotalLib.htm. Accessed on November 14, 2012. Google Scholar Antony, A.C. 2003. Vegetarianism and vitamin B-12 (cobalamin) deficiency. American Journal of Clinical Nutrition 78: 3– 6. Google Scholar Århem, K. 1989. Maasai food symbolism: The cultural connotations of milk, meat, and blood in the pastoral Maasai diet. Anthropos 8: 1– 23. Google Scholar Armelagos, G.J. and K.N. Harper. 2005. Genomics at the origins of agriculture, part one. Evolutionary Anthropology 14: 68– 77. Google Scholar Asner, G.P. et al. 2004. Grazing systems, ecosystem responses and global change. Annual Review of Environment and Resources 29: 261– 299. Google Scholar Atalay, S. and C.A. Hastorf. 2006. Food, meals, and daily activities: Food habitus at Neolithic Çatalhöyük. American Antiquity 71: 283– 319. Google Scholar Atwater, W.O. 1888. Foods and beverages. The Century Magazine. May, pp. 135– 139. Google Scholar Atwater, W. and C. Woods. 1896. The Chemical Composition of American Food Materials. Washington, DC: USDA. Google Scholar</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4239062359</t>
+          <t>https://openalex.org/W4285297765</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1353/imp.2020.0054</t>
+          <t>https://doi.org/10.4018/ijide.303608</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Editors (2020)</t>
+          <t>Tahirkheli (2022)</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>From Nationalizing Empire to Postcolonial Nation</t>
+          <t>Can Leadership Possess a Virtual Pair of Eyes?</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>From Nationalizing Empire to Postcolonial Nation From the Editors The confluence of imperialism and nationalism is one of the most confusing and startlingly understudied historical topics. In the popular imagination fed by journalists and policy experts as much as by fantasy books and films, empire is naturally expected to pursue constant expansion in the name of the superior race or people. Moreover, an empire is inconceivable without servicing the Herrenvolk (ruling people) and performing the role of "prison of nations." Not necessarily inaccurate, these assumptions are very modern. The origins of these terms, originally bearing meanings very different from their later usage, marked the rise and demise of Romanticism – just a few artistic styles and epistemological stances ago. Thinking in categories of individual spiritual and collective civilizational development, Johann Gottfried Herder suggested that "only a politically mature people can be a 'ruling people' [Herrenvolk]," meaning the popular sovereignty rather than hegemony over other peoples (so that the people can be Herrenvolk "only if it holds the administrative reins in its own hands and participates decisively through elected representatives in the selection of its political leaders can a people be called mature").1 In 1792, he added pronouncedly: [End Page 9] "Let one have no pet tribe, no favorite people [Favoritvolk] on the earth."2 A Romantic litterateur, Astolphe-Louis-Léonor, Marquis de Custine, visited Russia in 1839 to confirm his politically and religiously conservative ideals. The contrast between their actual realization under Nicholas I (unattainable under the constitutional regime of Louis Philippe in France) and Custine's expectations caused him to bitterly blame the Russian mirror for their ugly face in La Russie en 1839 (1843). He announced that "this Empire, immense as it is, is no more than a prison of which the emperor keeps the key."3 There was nothing about nations and nationalism in Herder's and Custine's Romantic reasoning, or about controlling other nationalities by the empire or its "favorite people." It took decades of the notion of volk's biologization to transform the idea of spiritual kinship into a synonym of race.4 Parallel to this, the rise of transborder nationalisms ("pan-movements") produced empire-like entities of the German Reich and the Kingdom of Italy, and caused the regimes of the Russian Empire and the Ottoman Empire to reinvent themselves as national states of pan-Slavic and pan-Turkic entities.5 The modern notions of an empire as "prison of nations" and its Herrenvolk suppressing minority nationalities crystallized only by the outbreak of World War I (which itself largely resulted from the radical transformation of the social imaginary). In April 1914 Vladimir Lenin coined the formula "Russia is a 'prison of nations.'"6 In October 1916, opening the first issue of the anti-imperial magazine The New Europe with a programmatic article, Thomas Masaryk announced that "Darwinism … was utilised to argue the rights of big and powerful nations; while Nietzsche's Darwinistic 'Uebermensch' (superman) and 'Herrenvolk' (ruling race) were especially accepted in a Pangerman sense. … Pangermanism is a programme for the final solution of the Eastern question."7 [End Page 10] So, even in the early 1840s, despite his romantic involvement with the Polish émigré Ignatius Gurowski and thus exposure to "Polish propaganda,"8 Custine believed that the Russian Empire was a prison not of "nations" but of individual subjects. By 1917, it was already common knowledge that the Russian Empire was oppressing its numerous nationalities, and that Germans perceived themselves as the ruling race dominating the Untermenschen from the East (Slavs, later joined by Jews and Roma). But how exactly did this transformation happen in the popular imagination and in practice? What did it take for the liberating concept of nation and the anational (or antinationalist) political-epistemological formation of empire to merge into the most toxic and deadly combination of nationalized and nationalizing empire? These questions are largely ignored in historiography, because the state of empires during the last decades before their collapse is perceived (paradoxically) as their most typical stage. A rare exception is the comprehensive edited volume Nationalizing Empires, which, although it presents interesting studies of individual national movements, it does not clarify the problem.9 The editors...</t>
+          <t>Studies intersecting organizational networks and cross-cultural leadership research are short supplied in literature. One explanation could be underwhelming motivation to integrate research areas that historically lack consent over operational definitions and contextual applications. This study brings a third variable, e-leadership, investigated as a moderating variable; in the process, the study lends a hand to start the process of arriving at an operational definition of e-leadership. The lack of integration studies encouraged the buildup of this study. What makes such a discussion important is the transition to the remote workspace during COVID-19 and expecting the traditional leadership research accountable for the gaps that were left in the rapid transition and governance of the virtual workspaces. The study is based on 18 international markets of an MNE that recently received ERP upgrades.</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2990286289</t>
-        </is>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/s1571-0661(03)50011-1</t>
+          <t>https://openalex.org/W2498585728</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Datta et al. (2003)</t>
+          <t>Legati (2008)</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Secure Protocol Composition</t>
+          <t>ZLOPORABA GOVORNIČKE TEHNIKE U JAVNOM GOVORENJU Analiza govora Adolfa Hitlera (Hitlerov govor industrijalcima u Klubu industrijalaca u Diisseldorfii 27. siječnja 1932., uoči predizborne kampanje)</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>This paper continues the program initiated in [5], towards a derivation system for security protocols. The general idea is that complex protocols can be formally derived, starting from basic security components, using a sequence of refinements and transformations, just like logical proofs are derived starting from axioms, using proof rules and transformations. The claim is that in practice, many protocols are already derived in such a way, but informally. Capturing this practice in a suitable formalism turns out to be a considerable task. The present paper proposes rules for composing security protocols from given security components. In general, security protocols are, of course, not compositional: information revealed by one may interfere with the security of the other. However, annotating protocol steps by pre- and post-conditions, allows secure sequential composition. Establishing that protocol components satisfy each other’s invariants allows more general forms of composition, ensuring that the individually secure sub-protocols will not interact insecurely in the composite protocol. The applicability of the method is demonstrated on modular derivations of two standard protocols, together with their simple security properties.</t>
+          <t>Adolf Hitler (1889. - 1945.), one of the most hideous criminals in the history of human civilization almost succeeded in realizing his fixed idea. He imagined that he would create, within about one hundred years, a great German state covering an enormous territory (extending up to Afghanistan or somewhere near that area) and populated with 250 million exclusively healthy and disciplined German inhabitants. The fact was that Hitler was not trying to hide his ideas. On the contrary, in the period preceding World War II his ethnocentrism, xenophobia and intolerance towards whatever was different in his social environment were becoming increasingly apparent. In the end, he described his political and ideological stands in his autobiography Mein Kampf /My Struggle/ (1925, 1926), which gave rise to the following questions: a) How could it have been possible for Europe and the rest of the world to regard Hitler as a harmless political figure of limited impact? b) How could it be possible to overlook that the science is often on the side of prejudice? (looking back we can see that the then Germany, which was far more scientifically advanced then other European countries of the time, was also that much more barbaric than many of them.) c) How could it be possible that, after the ominous experience with Hitler, such manipulative, trecherous speeches start new revolutions? d) Is it true that Hitler is just a reflex of a time long gone? Authoritarian regimes have left behind deep marks, mighty seeds that can grow when the right social, economic and psychological conditions are created again. Within this specific framework this paper explores the contents of one and the performance of several Hitler's speeches. It also explores ways in which Hitler made extensive use of theatrical performance. A politician who seeks to establish dictatorship and maintain that position undoubtedly manipulates his listeners with his speeches, commits an act of violence, repression, changing in this way their perceptions, attitudes and experiences.</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2058913884</t>
+          <t>https://openalex.org/W4388521904</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1088/0305-4470/23/23/032</t>
+          <t>https://doi.org/10.15379/ijmst.v10i2.3017</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Kohanoff et al. (1990)</t>
+          <t>Alhajaya et al. (2023)</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Interplay between Ising and six-vertex symmetries in a model for the roughening of reconstructing surfaces</t>
+          <t>The Rolle of Electronic Legal Information Systems in Improving the Quality of Work and Legal and Judicial Services</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>The authors study a generalization of the solid-on-solid (SOS) model recently proposed for the roughening transition of reconstructing and non-reconstructing FCC (110) solid surfaces. The generalized model is expressed in terms of Ising variables representing nearest-neighbour atomic column height differences. The model is solved exactly for the order-disorder transition, obtained in the limit where all possible Ising configurations are allowed. In the opposite limit, where the local height conservation rule is imposed to recover the BCSOS (or six-vertex) symmetry, finite-size transfer-matrix calculations yield a phase diagram where the reconstruction transition (corresponding to the order-disorder transition in the other limit) is smeared out, and a roughening transition occurs at a higher temperature. The phase boundaries obtained in the two limits (Ising and BCSOS) are compared. The model Hamiltonian contains a single parameter ( lambda ), which connects in a natural way these limiting cases ( lambda =0 and respectively). The authors study by finite-size calculations a simplified version of this Hamiltonian, named the lambda -model, which just interpolates between the simple Ising model and Rys's F-model. In particular, they analyse the behaviour of the correlation length and the heat capacity peak for the whole range of values of lambda , and the step energy for lambda large enough.</t>
+          <t>As many countries have worked to improve the performance of the work of various legal bodies, whether official or unofficial, thanks to the transformation from traditional systems—which have been applied for a long time—to electronic systems, this study examined the impact of the information technology revolution on improving the quality of legal and judicial services provided by the justice sector to those dealing with various justice agencies. The study showed that the transition from the traditional judicial system to the remote judicial system contributed to increasing the productivity of the courts, raising their efficiency, and reducing corruption. The study also demonstrated how countries' efforts to create electronic versions of their laws and court rulings made it easier for judges, lawyers, and legal researchers to access these documents and rulings. This was evident in the standard of court rulings, legal research, memoranda, and pleadings in court. The study concluded that the creation of legal information systems and the widespread use of them improved the efficiency of judicial and legal services offered to different clients interacting with the justice systems in those countries, as well as having a positive effect on the workflow of judges, lawyers, and legal researchers. It is therefore the duty of the various active institutions in countries (formal and informal) to work toward encouraging the adoption of such systems in accordance with controls that provide security and protection against hacking and tampering with the information included in those systems. Additionally, the adoption of secure legal information systems has become an indispensable need and necessity to satisfy the needs of various workers in the justice sector.</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4280547266</t>
+          <t>https://openalex.org/W2952392029</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>https://doi.org/10.4324/9781003243335-4</t>
+          <t>https://doi.org/10.3390/fire2020034</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Rahimieh (2022)</t>
+          <t>Moriarty et al. (2019)</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Mohammad ‘Ali Afrāshteh's Gilaki Verse and the Legacy of the Constitutional Revolution (1905–1911)</t>
+          <t>Firefighter Observations of “Surprising” Fire Behavior in Mountain Pine Beetle-Attacked Lodgepole Pine Forests</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Mohammad ‘Ali Afrāshteh was born in a village near Rasht in 1908 and as a child of the Constitutional Revolution was steeped in the language and ethos of the time. He wrote poetry in Gilaki as well as Persian. The language and the thematic concerns of the poems he composed in Gilaki memorialize the Constitutional Revolution and its struggle for justice and equality. Many of these poems are written in the form of dialogue whether between family members or between farmers in a village and their overseers as they negotiate vexing relations constrained by poverty, injustice and lack of education. This article argues that Afrāshteh’s writing in Gilaki preserved and re-animated the hopes of the Constitutional Revolutionaries in the idiom of the peasants who continued to live under a feudal order as Iran faced a difficult political transition into the twentieth century.</t>
+          <t>The recent mountain pine beetle outbreak affecting lodgepole pine forests in the Rocky Mountains has created a novel fire environment for wildland firefighters. This paper presents results from an examination of firefighters’ observations of fire behavior in post-outbreak lodgepole pine forests, with a focus on what they considered surprising from a fire behavior standpoint and how this in turn affected their suppression tactics. The surprises in fire behavior experienced by firefighters during the red phase of post-outbreak forests included an elevated level of fire spread and intensity under moderate weather and fuel moisture conditions, increased spotting, and faster surface-to-crown fire transitions with limited or no ladder fuels. Unexpectedly, during the gray phase in mountain pine beetle-attacked stands, crown ignition and crown fire propagation was observed for short periods of time. Firefighters are now more likely to expect to see active fire behavior in nearly all fire weather and fuel moisture conditions, not just under critically dry and windy situations, and across all mountain pine beetle attack phases, not just the red phase. Firefighters changed their suppression tactics by adopting indirect methods due to the potential fire behavior and tree-fall hazards associated with mountain pine beetle-attacked lodgepole pine forests.</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2091164775</t>
+          <t>https://openalex.org/W4298457085</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1093/ssjj/jys015</t>
+          <t>https://doi.org/10.2139/ssrn.1095298</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Davis (2012)</t>
+          <t>Nishiyama &amp; Smetters (2006)</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Sex in Japan's Globalization, 1870-1930: Prostitutes, Emigration and Nation-Building</t>
+          <t>Social Security Privatization with Income-Mortality Correlation</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>This book ranks among the best of current manuscripts to demonstrate the great illuminative power of sex and gender as categories of history. Indeed, evocative of the clarion calls of pioneering scholars some 30 years ago, Mihalopoulos brings the study of sex and gender to the forefront of the fields of world and modern Japanese history. He accomplishes this by synthesizing important research on rural female laborers in southern Japan with a shrewd analysis of international power politics and economic transformation at the turn of the 20th century. Exposing the links between sex, gender, and global development, however, is far from his sole methodology. His more formative approach is a commitment to revise ongoing [mis]representations of individuals who are historically voiceless. Inspired by the works of Laura María Agustín and Neferti Tadir, he practices a self-avowed ‘politics of radical equality’, underscoring the capacity of migrant sex laborers ‘to know what they are doing and … give good reason for it’ (p. 8). While in no way trying to minimize the exploitative nature of sex work, he takes issue with longstanding and ‘uneven relations of power inherent in the way philanthropic organizations, universities, non-governmental organizations and governments build a consensus.’ Aiming to overcome this asymmetrical relationship, he highlights the women’s decisions and actions in order to ‘exceed’ their identity as ‘victims’ who operate on the fringes of society (pp. 8–9). He emphasizes the women’s agency by writing ‘from the perspective of their “socially learned skills of accommodation, adaptation, and coping’’’ (p. 17).</t>
+          <t>While privatizing Social Security can improve labor supply incentives, it can also reduce risk sharing. We simulate a 50-percent privatization using an overlapping-generations model where heterogeneous agents with elastic labor supply face idiosyncratic earnings shocks and longevity uncertainty. When wage shocks are insurable, privatization produces about $30,100 of extra resources for each future household after all transitional losses have been paid. When wages are not insurable, privatization reduces efficiency by about $8,100 per future household. We check the robustness of these results to different model specifications as well as policy reforms and arrive at several surprising conclusions. First, privatization performs better in a closed economy, where interest rates decline with capital accumulation, than in an open economy. Second, privatization also performs better when an actuarially-fair private annuity market does not exist. Third, government matching of private contributions on a progressive basis is not very effective at restoring efficiency and can actually harm.</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2526932503</t>
+          <t>https://openalex.org/W3134009382</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>https://doi.org/10.56369/tsaes.2236</t>
+          <t>https://doi.org/10.1353/tfr.2021.0082</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Montaño-Gómez et al. (2016)</t>
+          <t>Grim (2021)</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>INFLUENCE OF TIME BETWEEN RUMINAL GLUCOSE CHALLENGES ON RUMEN FUNCTION</t>
+          <t>Community-Based Language Learning: A Framework for Educators by Joan Clifford and Deborah S. Reisinger</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>&amp;lt;p&amp;gt;Ruminal lactic acidosis is one of the most important metabolic problems in feedlot cattle. Gradually transitioning cattle to finishing-feedlot diets may reduce the risk for ruminal acidosis by providing sufficient time for adaptation. This adaptation of feedlot cattle to high-concentrate diets may causes marked changes in the ruminal environment, and time is required to establish stable ruminal conditions. However, few studies have evaluated the ruminal adaptation in steers. A metabolism trial was conducted to evaluate the effects of two consecutive glucose challenges on rumen function in steers fed a high-energy finishing diet. Four Holstein steers (320 kg LW) with cannula in the rumen were used in a 4 x 4 Latin square design. Four treatments were used and consisted of the time elapsed between both challenges of glucose (2, 4, 6 or 8 d). Ruminal fluid samples were taken at 0700 h (just prior the first glucose challenge), and from the second challenge (d 2, 4, 6, or 8) at 1 h before and 2, 4, 6, 8, 28, 52, 124, 196 and 268 h. As the time between fluctuation of energy intake increased, ruminal fluid pH (P &amp;amp;lt;0.05) and ruminal L-lactic acid increased linearly (P &amp;amp;lt;0.10) after the first challenge. However, ruminal pH and L-lactic acid were not related (P &amp;amp;gt;0.10). During the first 6 h following the second glucose challenge ruminal fluid pH decreased. No effects of treatments on ruminal pH were observed (P &amp;amp;gt;0.10) among treatments from 3 days after the second challenge. Ruminal fluid osmotic pressure increased (P &amp;amp;lt;0.10) after dosed glucose with all treatments. Ruminal osmolality increased (P &amp;amp;lt;0.10) as the time between challenges were 2 or 4 days. After dosed glucose, total volatile fatty acids increased, except by treatment 1 after second challenge. Total volatile fatty acid and pH were related positively (R&amp;lt;sup&amp;gt;2&amp;lt;/sup&amp;gt; =0.69). As the time increased, a tendency on increment of concentrations of protozoa was observed. Ruminal glucose concentration decreased linearly (P &amp;amp;lt;0.10) 2 h after the second fluctuation of energy intake. We conclude that ruminal alterations are magnified as the time between glucose challenge decreases.&amp;lt;/p&amp;gt;</t>
+          <t>Reviewed by: Community-Based Language Learning: A Framework for Educators by Joan Clifford and Deborah S. Reisinger Frédérique Grim Clifford, Joan, and Deborah S. Reisinger. Community-Based Language Learning: A Framework for Educators. Georgetown UP, 2019. ISBN 978-1-62616-636-3. Pp. 207. For the past two decades, community-based learning has been rooted in North American universities' missions, as it offers many benefits to students, such as furthering critical-thinking skills, a sense for social justice, and career preparation. Community-Based Language Learning (CBLL) takes the students a step further by adding cultural and linguistic characteristics that can genuinely transform them. This book offers a description of characteristics necessary to develop a course or project founded on CBLL. Chapter one proposes a theoretical framework by highlighting definitions of community-based learning as well as making a distinction between CBLL and global learning (international service-learning and global service-learning). This chapter covers several models and critical pedagogies to guide educators in their planning. The second chapter focuses on the importance of choosing student learning outcomes that justify the core of CBLL projects and include community partners' needs and input. Joint conversations between all three parties (community partners, volunteers, and educators) establish clear objectives, expectations, procedures, and linguistic practice from the start, which are translated into student learning outcomes and assignments. Because Intercultural Communicative Competence is integral to CBLL, it offers an opportunity to build or reinforce students' language and cultural development, based on ACTFL's Standards. The third chapter, on assessment design, guides educators through adequate assessment tools for CBLL. Examples include written or oral reflections, journals, blogs, social media, posters, portfolio, creative writing, interviews, exhibits—all of which can focus on one of the three modes of communication. Teachers and community partners should also reflect and assess their own role in the project at play. Chapter four, on Identity, Language, and Power, offers suggestions on ways to approach student-, community-, linguistically-, socially-based identities, as they transpire in CBLL work and should be openly addressed. Soundly designed CBLL projects involve all student backgrounds and identities and have even shown additional benefits for heritage language learners involved in their own linguistic community. The chapter warns that students and educators own the power and opportunity to share the voice of the community as expressed by the community, and not through their own interpretation. Using CBLL as a transformative process is what chapter five demonstrates. Two influential models (Mezirow's and Kiely's) on [End Page 292] transformational community-service offer a better sense of how CBLL can impact learners. Dissonance and resistance will likely emerge in students, provoked by their CBLL experiences. Educators should therefore address triggers, support students, and share strategies to keep these transformations positive. The final chapter focuses on the importance of developing solid relationships and thereafter partnerships with targeted community members. Careful steps, involving reciprocity and solidarity, need to be followed to bring success to the CBLL experience for everyone involved. This book conveys many fundamental aspects to guide educators interested in developing or redesigning a CBLL project. The authors propose supportive materials, such as "reflections for instructors," "activities for students," and a list of references. Frédérique Grim Colorado State University Copyright © 2021 American Association of Teachers of French</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4230647606</t>
+          <t>https://openalex.org/W4239062359</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1086/657542</t>
+          <t>https://doi.org/10.1353/imp.2020.0054</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Taylor (2011)</t>
+          <t>Editors (2020)</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Comment</t>
+          <t>From Nationalizing Empire to Postcolonial Nation</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Previous articleNext article FreeCommentAlan M. TaylorAlan M. TaylorUniversity of California, Davis, NBER, and Centre for Economic Policy Research Search for more articles by this author University of California, Davis, NBER, and Centre for Economic Policy ResearchPDFPDF PLUSFull Text Add to favoritesDownload CitationTrack CitationsPermissionsReprints Share onFacebookTwitterLinked InRedditEmailQR Code SectionsMoreI. It is a pleasure to comment on the paper by Qian, Reinhart, and Rogoff, which builds and expands on the many rich insights and the treasure trove of data developed by Reinhart and Rogoff (2009) in the course of writing their book This Time Is Different: Eight Centuries of Financial Folly. That book is a hard act to follow: it is no exaggeration to describe it as the most influential work in macroeconomic history of recent years, and fortuitously timed, it has deservedly won wide acclaim on its way to becoming a best seller.Still, as the authors recognize, the project of understanding macroeconomic crises, their causes, and consequences is even now very much a work in progress. In contrast to what went before, the sudden wave of research in empirical and theoretical macroeconomics since the global financial crisis erupted in 2008 attests to a subject matter unduly neglected. Fortunately, such complacency is no longer an option, and a better understanding will have to rely on both inductive and deductive approaches to macroeconomics in which economic history will have a very important role to play (Eichengreen 2009).The prime lesson of This Time Is Different and of this paper is that a retreat into introspection is not the only tool we have at hand to understand crises. Rather, with a record of such events stretching back over many centuries, we have an excellent historical laboratory in which to search for empirical regularities, stylized facts, and other clues that might lead to better-informed theoretical models and improved policy choices in the future. Indeed, this is an arena of scholarship in which economic history matters more than ever: crises of this sort are undoubtedly “rare events,” and so to gain any sort of traction with an empirical investigation one needs many years of data and many sample countries to generate any sort of statistical power.The novel contribution of this paper is to try to address a question left tantalizingly open by the book, perhaps because that very question is so hard to tackle that answers, if not elusive, can be at best only preliminary and somewhat speculative. As of a couple of years ago, this might have been cast as the question of whether countries can in fact ever “graduate” from being crisis-prone “emerging” economies to an “advanced” economy status in which, one might have presumed, they would be immune from such problems forever. Now, of course, our innocence is lost, and we realize that not even so-called advanced economies are immune from crises and that some countries apparently cured of the crisis problem can end up suffering a relapse. Thus, perhaps the notion of graduation is a mirage? Multiple advanced countries suffered very costly banking crises in 2008; some countries are now facing escalating sovereign debt, with markets pricing in nontrivial default probabilities; and as central bankers have embraced quantitative easing strategies, some fear that the current deflationary trends may yet quickly reverse and, even in a slump, return us to 1970s-style stagflation.In our current conjuncture, this paper, which provides a retrospective examination of the crisis record and some exploration of the capacity of countries to graduate from a “serial crisis” mode to a more stable macroeconomic environment, is welcome as a valuable and pioneering contribution to our understanding. In these comments I will endeavor to summarize and comment on the main results and, along the way, note some unanswered questions and suggest potentially useful directions for what promises to be a very broad research agenda in the years ahead.II. The paper starts by introducing the definitions of various kinds of crises and reviewing the time line of such events, focusing mainly on the last 150–200 years. Here the authors draw on the exhaustive crisis classification work undertaken in the book This Time Is Different. These definitions and classifications, in turn, build on earlier antecedents due to Kaminsky and Reinhart (1999), Bordo et al. (2001), and others.The definition of a default or sovereign crisis is at once narrow and broad. It is narrow in the sense that only cases of external debt crisis are considered here. It would be instructive, though much more work, to expand this to generate a complete and accurate list of all defaults. As Reinhart and Rogoff have noted in their book, there is a rich and understudied history of internal debt that shows that sovereigns have defaulted on domestic liabilities on many occasions, and the correlation with external default is no</t>
+          <t>From Nationalizing Empire to Postcolonial Nation From the Editors The confluence of imperialism and nationalism is one of the most confusing and startlingly understudied historical topics. In the popular imagination fed by journalists and policy experts as much as by fantasy books and films, empire is naturally expected to pursue constant expansion in the name of the superior race or people. Moreover, an empire is inconceivable without servicing the Herrenvolk (ruling people) and performing the role of "prison of nations." Not necessarily inaccurate, these assumptions are very modern. The origins of these terms, originally bearing meanings very different from their later usage, marked the rise and demise of Romanticism – just a few artistic styles and epistemological stances ago. Thinking in categories of individual spiritual and collective civilizational development, Johann Gottfried Herder suggested that "only a politically mature people can be a 'ruling people' [Herrenvolk]," meaning the popular sovereignty rather than hegemony over other peoples (so that the people can be Herrenvolk "only if it holds the administrative reins in its own hands and participates decisively through elected representatives in the selection of its political leaders can a people be called mature").1 In 1792, he added pronouncedly: [End Page 9] "Let one have no pet tribe, no favorite people [Favoritvolk] on the earth."2 A Romantic litterateur, Astolphe-Louis-Léonor, Marquis de Custine, visited Russia in 1839 to confirm his politically and religiously conservative ideals. The contrast between their actual realization under Nicholas I (unattainable under the constitutional regime of Louis Philippe in France) and Custine's expectations caused him to bitterly blame the Russian mirror for their ugly face in La Russie en 1839 (1843). He announced that "this Empire, immense as it is, is no more than a prison of which the emperor keeps the key."3 There was nothing about nations and nationalism in Herder's and Custine's Romantic reasoning, or about controlling other nationalities by the empire or its "favorite people." It took decades of the notion of volk's biologization to transform the idea of spiritual kinship into a synonym of race.4 Parallel to this, the rise of transborder nationalisms ("pan-movements") produced empire-like entities of the German Reich and the Kingdom of Italy, and caused the regimes of the Russian Empire and the Ottoman Empire to reinvent themselves as national states of pan-Slavic and pan-Turkic entities.5 The modern notions of an empire as "prison of nations" and its Herrenvolk suppressing minority nationalities crystallized only by the outbreak of World War I (which itself largely resulted from the radical transformation of the social imaginary). In April 1914 Vladimir Lenin coined the formula "Russia is a 'prison of nations.'"6 In October 1916, opening the first issue of the anti-imperial magazine The New Europe with a programmatic article, Thomas Masaryk announced that "Darwinism … was utilised to argue the rights of big and powerful nations; while Nietzsche's Darwinistic 'Uebermensch' (superman) and 'Herrenvolk' (ruling race) were especially accepted in a Pangerman sense. … Pangermanism is a programme for the final solution of the Eastern question."7 [End Page 10] So, even in the early 1840s, despite his romantic involvement with the Polish émigré Ignatius Gurowski and thus exposure to "Polish propaganda,"8 Custine believed that the Russian Empire was a prison not of "nations" but of individual subjects. By 1917, it was already common knowledge that the Russian Empire was oppressing its numerous nationalities, and that Germans perceived themselves as the ruling race dominating the Untermenschen from the East (Slavs, later joined by Jews and Roma). But how exactly did this transformation happen in the popular imagination and in practice? What did it take for the liberating concept of nation and the anational (or antinationalist) political-epistemological formation of empire to merge into the most toxic and deadly combination of nationalized and nationalizing empire? These questions are largely ignored in historiography, because the state of empires during the last decades before their collapse is perceived (paradoxically) as their most typical stage. A rare exception is the comprehensive edited volume Nationalizing Empires, which, although it presents interesting studies of individual national movements, it does not clarify the problem.9 The editors...</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3209256609</t>
+          <t>https://openalex.org/W2990286289</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>https://doi.org/10.34079/2226-2830-2020-10-28-29-99-108</t>
+          <t>https://doi.org/10.1016/s1571-0661(03)50011-1</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Motuz (2020)</t>
+          <t>Datta et al. (2003)</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>The history of the transformation of women of Naddnipryansk Ukraine from an object into a subject of the political process: from idea to practical implementation</t>
+          <t>Secure Protocol Composition</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>The article substantiates the theoretical and practical foundations of the development of the women’s movement in Naddnipryan Ukraine in the conditions of active politicization of society in the late 19th – early 20th century. When the object of the study is the increase by women from Naddnipryanskaya Ukraine of their social status in society, and the subject is their transformation from an object into a subject of political activity. This process is revealed from the standpoint of the influence of the politicization of Ukrainian society in the late 19th – early 20th century on the movement of socially active women in Nadnipryansk Ukraine towards achieving the modernization of the system of power and management from the point of view of gender equality and is presented as a transitional stage to this.</t>
+          <t>This paper continues the program initiated in [5], towards a derivation system for security protocols. The general idea is that complex protocols can be formally derived, starting from basic security components, using a sequence of refinements and transformations, just like logical proofs are derived starting from axioms, using proof rules and transformations. The claim is that in practice, many protocols are already derived in such a way, but informally. Capturing this practice in a suitable formalism turns out to be a considerable task. The present paper proposes rules for composing security protocols from given security components. In general, security protocols are, of course, not compositional: information revealed by one may interfere with the security of the other. However, annotating protocol steps by pre- and post-conditions, allows secure sequential composition. Establishing that protocol components satisfy each other’s invariants allows more general forms of composition, ensuring that the individually secure sub-protocols will not interact insecurely in the composite protocol. The applicability of the method is demonstrated on modular derivations of two standard protocols, together with their simple security properties.</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2036020975</t>
+          <t>https://openalex.org/W2058913884</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>https://doi.org/10.5235/20504721.1.3.36</t>
+          <t>https://doi.org/10.1088/0305-4470/23/23/032</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Staines (2013)</t>
+          <t>Kohanoff et al. (1990)</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>The implementation of restorative approaches in a secure child care centre</t>
+          <t>Interplay between Ising and six-vertex symmetries in a model for the roughening of reconstructing surfaces</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>ABSTRACTThis paper reflects on a small-scale evaluation of the introduction of restorative approaches within an English secure child care centre. It draws on interviews with young people and staff, a staff questionnaire survey and an analysis of statistics provided by the centre. This research supports previous findings which show that restorative approaches can be a more progressive, and potentially transformative, means of dealing with conflicts and tensions within residential settings than more traditional behaviour management systems. There are considerable benefits for both staff and young people, including a more positive working/living environment, and improvements in individual relationships. However, while there is a vocal minority of staff who believe that restorative justice is a ‘soft option’ and that children may be ‘professional apologists’, questions remain as to whether restorative approaches are merely a tool within a toolkit of behaviour management approaches or whether a more fundamental change in the ethos of secure establishments can be achieved.</t>
+          <t>The authors study a generalization of the solid-on-solid (SOS) model recently proposed for the roughening transition of reconstructing and non-reconstructing FCC (110) solid surfaces. The generalized model is expressed in terms of Ising variables representing nearest-neighbour atomic column height differences. The model is solved exactly for the order-disorder transition, obtained in the limit where all possible Ising configurations are allowed. In the opposite limit, where the local height conservation rule is imposed to recover the BCSOS (or six-vertex) symmetry, finite-size transfer-matrix calculations yield a phase diagram where the reconstruction transition (corresponding to the order-disorder transition in the other limit) is smeared out, and a roughening transition occurs at a higher temperature. The phase boundaries obtained in the two limits (Ising and BCSOS) are compared. The model Hamiltonian contains a single parameter ( lambda ), which connects in a natural way these limiting cases ( lambda =0 and respectively). The authors study by finite-size calculations a simplified version of this Hamiltonian, named the lambda -model, which just interpolates between the simple Ising model and Rys's F-model. In particular, they analyse the behaviour of the correlation length and the heat capacity peak for the whole range of values of lambda , and the step energy for lambda large enough.</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4281257154</t>
+          <t>https://openalex.org/W4280547266</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/9781119632214.ch18</t>
+          <t>https://doi.org/10.4324/9781003243335-4</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Gabin (2022)</t>
+          <t>Rahimieh (2022)</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Migrant Labor</t>
+          <t>Mohammad ‘Ali Afrāshteh's Gilaki Verse and the Legacy of the Constitutional Revolution (1905–1911)</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Most migrant workers have been employed in the agricultural sector, although industry, construction, transportation, mining, timbering, and seafaring interests have also attracted and depended on them. Drawing on both agricultural history and labor history, this chapter assesses the substance and contours of the history of migrant labor in American agriculture. The ever-increasing dependence of American growers on migrant labor prompted efforts to recruit, mobilize, organize and control workers. The formation of the United Farm Workers (UFW) in 1965, under the leadership of Cesar Chavez, redefined farm labor activism and contributed to contemporary social justice movements in the United States. The UFW's success inspired other efforts to organize migrant labor. Migrant labor has been key to the successful development of commercial and industrial agriculture in the United States since the late nineteenth century. Migrant labor has been central to the transformation of American agriculture and economic, political, and social relations in the United States.</t>
+          <t>Mohammad ‘Ali Afrāshteh was born in a village near Rasht in 1908 and as a child of the Constitutional Revolution was steeped in the language and ethos of the time. He wrote poetry in Gilaki as well as Persian. The language and the thematic concerns of the poems he composed in Gilaki memorialize the Constitutional Revolution and its struggle for justice and equality. Many of these poems are written in the form of dialogue whether between family members or between farmers in a village and their overseers as they negotiate vexing relations constrained by poverty, injustice and lack of education. This article argues that Afrāshteh’s writing in Gilaki preserved and re-animated the hopes of the Constitutional Revolutionaries in the idiom of the peasants who continued to live under a feudal order as Iran faced a difficult political transition into the twentieth century.</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4293216201</t>
+          <t>https://openalex.org/W2091164775</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3389/fchem.2022.976281</t>
+          <t>https://doi.org/10.1093/ssjj/jys015</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Frecha et al. (2022)</t>
+          <t>Davis (2012)</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Design of highly active Ni catalysts supported on carbon nanofibers for the hydrolytic hydrogenation of cellobiose</t>
+          <t>Sex in Japan's Globalization, 1870-1930: Prostitutes, Emigration and Nation-Building</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>The direct transformation of cellulose into sugar alcohols (one-pot conversion) over supported nickel catalysts represents an attractive chemical route for biomass valorization, allowing the use of subcritical water in the hydrolysis step. The effectiveness of this process is substantially conditioned by the hydrogenation ability of the catalyst, determined by design parameters such as the active phase loading and particle size. Herein, mechanistic insights into catalyst design to produce superior activity were outlined using the hydrolytic hydrogenation of cellobiose as a model reaction. Variations in the impregnation technique (precipitation in basic media, incipient wetness impregnation, and the use of colloidal-deposition approaches) endowed carbon-nanofiber-supported catalysts within a wide range of Ni crystal sizes (5.8-20.4 nm) and loadings (5-14 wt%). The link between the properties of these catalysts and their reactivity has been established using characterization techniques such as X-ray diffraction, transmission electron microscopy, X-ray photoelectron spectroscopy, and inductively coupled plasma-optical emission spectroscopy (ICP-OES). A fair compromise was found between the Ni surface area (3.89 m2/g) and its resistance against oxidation for intermediate crystallite sizes (∼11.3 nm) loaded at 10.7 wt%, affording the hydrogenation of 81.2% cellobiose to sorbitol after 3 h reaction at 190°C and 4.0 MPa H2 (measured at room temperature). The facile oxidation of smaller Ni particle sizes impeded the use of highly dispersed catalysts to reduce the metal content requirements.</t>
+          <t>This book ranks among the best of current manuscripts to demonstrate the great illuminative power of sex and gender as categories of history. Indeed, evocative of the clarion calls of pioneering scholars some 30 years ago, Mihalopoulos brings the study of sex and gender to the forefront of the fields of world and modern Japanese history. He accomplishes this by synthesizing important research on rural female laborers in southern Japan with a shrewd analysis of international power politics and economic transformation at the turn of the 20th century. Exposing the links between sex, gender, and global development, however, is far from his sole methodology. His more formative approach is a commitment to revise ongoing [mis]representations of individuals who are historically voiceless. Inspired by the works of Laura María Agustín and Neferti Tadir, he practices a self-avowed ‘politics of radical equality’, underscoring the capacity of migrant sex laborers ‘to know what they are doing and … give good reason for it’ (p. 8). While in no way trying to minimize the exploitative nature of sex work, he takes issue with longstanding and ‘uneven relations of power inherent in the way philanthropic organizations, universities, non-governmental organizations and governments build a consensus.’ Aiming to overcome this asymmetrical relationship, he highlights the women’s decisions and actions in order to ‘exceed’ their identity as ‘victims’ who operate on the fringes of society (pp. 8–9). He emphasizes the women’s agency by writing ‘from the perspective of their “socially learned skills of accommodation, adaptation, and coping’’’ (p. 17).</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4296688993</t>
+          <t>https://openalex.org/W3201473168</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>https://doi.org/10.4324/9781003029021-10</t>
+          <t>https://doi.org/10.7420/ak2007-2008y</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Mesias et al. (2022)</t>
+          <t>Grześkowiak (2008)</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Youthful pedagogies for just transitions to wellbeing with/in complex worlds</t>
+          <t>Tendencje rozwojowe włoskiego prawa nieletnich</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>This chapter presents an overview of Knowing Global Youth, a youth-centred curriculum development project that engaged youth from the Global North and South (Canada and Chile) in processes of co-creating a unique intercultural curriculum that is adapted to culture, context, place and space. We discuss the results of our work with 13 youth, ten educators, three Elders and their community members in the archipelago of Chiloé, Chile in relation to climate justice and shifts for education for sustainable development. While providing a brief overview of the project-based learning outcomes of the work, this chapter focuses on how this type of land-based education responds to individual and community wellbeing and the need for education for just sustainable transitions.</t>
+          <t>The aim of the study is to look at the developmental tendencies of Italian juvenile legislation. The author introduces the most important laws, documents, and findings regarding juvenile offenders in the Italian criminal, civil, administrative, labour, and constitutional systems. Alicja Grześkowiak ranks them according to their validity and application and analyses the transformation that the code model of dealing with minors in Italy has undergone. Looking at the changes, the author mentions the adoption of Decree No. 448 of 22 September 1988, regulating the criminal procedure with regard to minors, which gave rise to a new model of proceedings. In this act, for the first time, the perception of a minor as an object of care and protection was rejected, and the minor became a subject of law in his or her own right. The publication also includes a description of an amendment that appeared relatively quickly in the Italian legal system, which was the introduction of mediation as a modern type of response to juvenile delinquency. The author then looks at two government proposals for the reform of juvenile law, under the responsibility of the Italian Ministry of Justice, and takes a closer look at some criticism of them by judges, lawyers, and NGO workers. In conclusion, she suggests changes that should be incorporated into the laws relating to minors. The author proposes the principle of minimum intervention, which could contribute more to juveniles’ personality development and the resolution of their problems than the threat of criminal intervention.</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2078251939</t>
+          <t>https://openalex.org/W3209256609</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2116/analsci.21.615</t>
+          <t>https://doi.org/10.34079/2226-2830-2020-10-28-29-99-108</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Tanaka &amp; Baba (2005)</t>
+          <t>Motuz (2020)</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>High-Throughput Photometric Titrimetry Based on a Feedback-based and Subsequent Fixed Triangular Wave-controlled Flow Ratiometry</t>
+          <t>The history of the transformation of women of Naddnipryansk Ukraine from an object into a subject of the political process: from idea to practical implementation</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>The principle of flow ratiometry for high-throughput titration, which we recently proposed for potentiometric titration, was extended to photometric titration. The flow rate (FB) of a base solution containing an acid-base indicator was linearly varied in response to a control voltage (Vc) generated from a computer. With the total (acid + base) flow rate (FT) being kept constant, the base solution was merged with an acid solution, which was aspirated to the confluence point at a flow rate of FT - FB. Downstream, the relative transmittance of the mixed solution was measured at the maximum absorption wavelength of the base form of the indicator. Initially, a feedback-based control was applied, where the scan direction of Vc was reversed from upward to downward, and vice versa, whenever the transition of the indicator at the equivalence point (EP) was sensed. Next, the scan range of V. was further limited to the range just around EP by using fixed triangular waves. These processes avoided scanning in a range of no interest. Thus, an unprecedentedly high throughput rate (maximally 34 titrations per minute, corresponding to 1.76 s per titration) was realized with reasonable precision (RSD &lt; 0.5%).</t>
+          <t>The article substantiates the theoretical and practical foundations of the development of the women’s movement in Naddnipryan Ukraine in the conditions of active politicization of society in the late 19th – early 20th century. When the object of the study is the increase by women from Naddnipryanskaya Ukraine of their social status in society, and the subject is their transformation from an object into a subject of political activity. This process is revealed from the standpoint of the influence of the politicization of Ukrainian society in the late 19th – early 20th century on the movement of socially active women in Nadnipryansk Ukraine towards achieving the modernization of the system of power and management from the point of view of gender equality and is presented as a transitional stage to this.</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1966830018</t>
+          <t>https://openalex.org/W4281257154</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1109/mmet.2012.6331155</t>
+          <t>https://doi.org/10.1002/9781119632214.ch18</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Kirilenko et al. (2012)</t>
+          <t>Gabin (2022)</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Plane-chiral pair with opposite rotations as a new way to rotate polarization up to 90&amp;amp;#x00B0;</t>
+          <t>Migrant Labor</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>A new approach to the problem of polarization transformation of a plane wave or waveguide dominant mode is proposed. The idea is based on the strong interaction of the fringing fields excited by irises with chiral right and left rotations, placed at a distance that is an order of magnitude shorter than the wavelength. Due to the multimode nature of the interaction we can provide 90 degrees rotation in bandwidth equal to several percents at the insertion loss level not worse than -0.1 dB.</t>
+          <t>Most migrant workers have been employed in the agricultural sector, although industry, construction, transportation, mining, timbering, and seafaring interests have also attracted and depended on them. Drawing on both agricultural history and labor history, this chapter assesses the substance and contours of the history of migrant labor in American agriculture. The ever-increasing dependence of American growers on migrant labor prompted efforts to recruit, mobilize, organize and control workers. The formation of the United Farm Workers (UFW) in 1965, under the leadership of Cesar Chavez, redefined farm labor activism and contributed to contemporary social justice movements in the United States. The UFW's success inspired other efforts to organize migrant labor. Migrant labor has been key to the successful development of commercial and industrial agriculture in the United States since the late nineteenth century. Migrant labor has been central to the transformation of American agriculture and economic, political, and social relations in the United States.</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2092122556</t>
+          <t>https://openalex.org/W4296688993</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1103/physrev.111.965</t>
+          <t>https://doi.org/10.4324/9781003029021-10</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Anderson (1958)</t>
+          <t>Mesias et al. (2022)</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Reduction of Primary Constraints in Generally Covariant Field Theories</t>
+          <t>Youthful pedagogies for just transitions to wellbeing with/in complex worlds</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Generally covariant field theories have associated with them, in the canonical formalism, a series of primary and secondary constraints. For a large class of these theories it is proven that there exists a transformation which will reduce the primary constraints to the form of a set of momenta equal to zero. The transformation which accomplishes this reduction is exhibited explicity for the case of general relativity.</t>
+          <t>This chapter presents an overview of Knowing Global Youth, a youth-centred curriculum development project that engaged youth from the Global North and South (Canada and Chile) in processes of co-creating a unique intercultural curriculum that is adapted to culture, context, place and space. We discuss the results of our work with 13 youth, ten educators, three Elders and their community members in the archipelago of Chiloé, Chile in relation to climate justice and shifts for education for sustainable development. While providing a brief overview of the project-based learning outcomes of the work, this chapter focuses on how this type of land-based education responds to individual and community wellbeing and the need for education for just sustainable transitions.</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2147863424</t>
+          <t>https://openalex.org/W4285103511</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1067/mva.2000.106499</t>
+          <t>https://doi.org/10.7554/elife.69596.sa2</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Bredenberg (2000)</t>
+          <t>Kajikawa et al. (2022)</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Presidential address: “These united colonies are…”</t>
+          <t>Author response: UP-DOWN states and ripples differentially modulate membrane potential dynamics across DG, CA3, and CA1 in awake mice</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t xml:space="preserve">Thank you for the opportunity to serve as your president for this past year. This recognition is more broadly addressed to the surgeons of my adopted state, Maine. Among them, Ferris Ray, who served as vice president of this society, stands out as the one surgeon who did the most to forge vascular surgery as a distinct specialty in Maine. The real heart of a surgical society is the secretary, and I want particularly to thank Jim Menzoian for his indefatigable efforts. Jim continues the distinguished line of strong secretaries with which this society has been blessed. “These United Colonies are...”—the phrase, of course, comes from the Declaration of Independence: “We, therefore, the Representatives of the United States of America, in General Congress, Assembled... solemnly publish and declare, That these United Colonies are and of Right ought to be Free and Independent States.”1Commager HS Morris RB The spirit of ‘76: the story of the American Revolution as told by participants. Bonanza Books, New York1983: 1-1348Google Scholar What jars the modern ear is the plurality of the syntax: “These United Colonies are... Free and Independent States.” The verb is plural, which implies a plural subject. Today we would say, “The United States is a free and independent nation.” The third-person singular in the verb explicitly states our perception of a single nation, a concept that is not at all clear in our Declaration of Independence. The emphasis on the plurality of the colonies is not accidental; it fills the operative paragraph: “They are absolved from all allegiance to the British Crown... All political connection between them and the state of Great Britain is and ought to be totally dissolved... As Free and Independent States, they have full Power.”1Commager HS Morris RB The spirit of ‘76: the story of the American Revolution as told by participants. Bonanza Books, New York1983: 1-1348Google Scholar The problem of unity and the tension between peripheral autonomy and central authority have been central to the history of the United States. Are we a single nation or a federation of sovereign states? This tension was most dramatically confronted during the roughly 100 years from 1763 to 1865. I should like to briefly review this interval in our nation's history, because I believe many of the issues that played out so dramatically are common to all human organizations, because organization itself is crucial to human endeavor, and because, as many people see it, the future quality of health care in this country depends, in part, on improving our organization of health care delivery. As you listen to this interpretation of history, you may hear issues familiar to your own experience. In 1763, the Peace of Paris concluded the Seven Years' War, one of a series of European wars stretching back to the late 17th century, which arose largely over the conflict between France's attempts to establish hegemony in Europe and England's attempt to thwart these efforts with a balance of European powers. These wars had spilled onto the North American continent as the so-called French and Indian Wars.2Morison SE Commager HS Leuchtenburg WE. The growth of the American republic. 7th edition. Oxford University Press, New York1980: 1-923Google Scholar In North America at Quebec, Wolfe's victory in 1759 on the Plains of Abraham (named not after the Old Testament patriarch, but after Abraham Martin, a French river pilot and farmer) gave Britain all of French Canada and all the land east of the Mississippi down to the lower Mississippi delta. It was a great victory, which cost the 32-year-old major general's life when he stood in front of one of his regiments ready to personally lead the bayonet charge that followed the devastating close-range British musket volleys that had already determined the outcome of the battle.3Keegan J. Fields of battle. Alfred A. Knopf, New York1995: 1-348Google Scholar Wars cost money as well as lives, and Britain's victory in the Seven Years' War increased the British national debt nearly 2½-fold.4Middlekauff R The glorious cause: the American Revolution, 1763–1789. The Oxford history of the United States.in: Oxford University Press, New York1982: 1-696Google Scholar The king and parliament felt that the American colonies should be taxed to contribute to the cost of their own defense. The American colonists, like everyone else before or since, objected to taxes. The centers for the conflict of the colonies with England were Virginia and New England. New England had been populated largely by Puritan refuges from East Anglia, a section of England east of London with particularly strong traditions of both literacy and support of representation over arbitrary power.5Phillips K. The cousins war: Religion, politics, and the triumph of Anglo-America. Basic Books, New York1999: 1-707Google Scholar It was the regional power base for Cromwell and the Puritan parliament, which rose in revolt against the Stuart attempt at </t>
+          <t>Article Figures and data Abstract Editor's evaluation Introduction Results Discussion Materials and methods Data analysis Data availability References Decision letter Author response Article and author information Metrics Abstract Hippocampal ripples are transient population bursts that structure cortico-hippocampal communication and play a central role in memory processing. However, the mechanisms controlling ripple initiation in behaving animals remain poorly understood. Here we combine multisite extracellular and whole-cell recordings in awake mice to contrast the brain state and ripple modulation of subthreshold dynamics across hippocampal subfields. We find that entorhinal input to the dentate gyrus (DG) exhibits UP and DOWN dynamics with ripples occurring exclusively in UP states. While elevated cortical input in UP states generates depolarization in DG and CA1, it produces persistent hyperpolarization in CA3 neurons. Furthermore, growing inhibition is evident in CA3 throughout the course of the ripple buildup, while DG and CA1 neurons exhibit depolarization transients 100 ms before and during ripples. These observations highlight the importance of CA3 inhibition for ripple generation, while pre-ripple responses indicate a long and orchestrated ripple initiation process in the awake state. Editor's evaluation This paper combines intracellular and extracellular recordings in the hippocampus in awake mice to investigate the initiation of sharp wave-ripples, synchronous bursts of activity thought to support memory replay. They report a specific hyperpolarization of the pyramidal cells in the CA3 subfield while the dentate granule cells or CA1 pyramidal cells are depolarized. This paper will be of interest to system neuroscientists interested in the cellular and network mechanisms of memory formation. https://doi.org/10.7554/eLife.69596.sa0 Decision letter Reviews on Sciety eLife's review process Introduction Bidirectional interactions between the hippocampus and neocortical areas are believed to play a key role in memory consolidation (Squire, 1992). Hippocampal ripples are deemed essential for this process because the associated population activity reflects prior experience (Foster, 2017; Kudrimoti et al., 1999; Lee and Wilson, 2002; Wilson and McNaughton, 1994) and ripple disruption results in memory deficits (Ego-Stengel and Wilson, 2010; Girardeau et al., 2009; Jadhav et al., 2012). Ripples provide synchronous volleys that drive cortical targets and co-occur with distinct cortical network patterns (Battaglia et al., 2004; Jiang et al., 2019; Ji and Wilson, 2007; Logothetis et al., 2012; Mölle et al., 2006; Shein-Idelson et al., 2016; Siapas and Wilson, 1998; Wierzynski et al., 2009). In particular, ripples normally occur during slow-wave sleep and quiet wakefulness when hippocampal local field potentials (LFPs) display large-amplitude irregular activity (LIA) (Buzsáki, 1986; Jarosiewicz and Skaggs, 2004; Kay et al., 2016; O’Keefe, 1976; Vanderwolf, 1969), whereas neocortical dynamics are marked by the presence of UP and DOWN states (UDS), alternating periods of elevated and depressed network activity that can also be observed under anesthesia (Cowan and Wilson, 1994; Steriade et al., 1993b; Steriade et al., 1993c). Neocortical and hippocampal dynamics can be coordinated via the entorhinal cortex (EC), the main gateway between neocortical areas and the hippocampus, which provides direct input to the dentate gyrus (DG), and areas CA3 and CA1 (Amaral and Witter, 1989; Steward et al., 1976; Tamamaki and Nojyo, 1993). Experiments in sleeping and anesthetized animals show that the EC also exhibits UDS that modulate activity across hippocampal subfields (Hahn et al., 2012; Isomura et al., 2006). However, the influence of cortical UDS on hippocampal dynamics and ripple generation in wakefulness are not well understood. Ripples are believed to be the product of excitatory buildup in the recurrent CA3 network, culminating in a population burst that drives CA1 spiking organized by the transient ripple oscillation (Buzsáki, 1986; Miles and Wong, 1983; Stark et al., 2014; Traub and Miles, 1991). This suggests that CA3 neurons should get progressively depolarized and come closer to firing threshold through the course of the ripple buildup. Separate from the buildup itself, the processes controlling ripple initiation and termination are not fully understood. In vitro experiments indicate that ripples are initiated once stochastic fluctuations in the population firing rate of CA3 pyramidal cells exceed a threshold level (de la Prida et al., 2006; Schlingloff et al., 2014), implying that an increase in the firing of CA3 neurons should result in a corresponding increase in the rate of ripple occurrence. Recent in vitro studies have also emphasized the importance of inhibitory neurons in ripple initiation (Bazelot et al., 2016; Ellender et al., 2010; Schlingloff et al., 2014), while other studies suggested that area CA</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2751076506</t>
+          <t>https://openalex.org/W2995639489</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.apgeochem.2017.08.004</t>
+          <t>https://doi.org/10.3167/trans.2016.060114</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Lelli &amp; Raco (2017)</t>
+          <t>Morrison et al. (2016)</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>A reliable and effective methodology to monitor CO 2 flux from soil: The case of Lipari Island (Sicily, Italy)</t>
+          <t>Book Reviews</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>A new unit for continuous monitoring of CO2 flux diffused from soil was developed and preliminary tested in the field at Lipari Island (Sicily, Italy). The developed device (CO2-S-POT), based on the accumulation chamber method, is an assembled unit easy to install and to manage. Both dimensions (104 × 61 × 75 cm) and weight (32 Kg) of CO2-S-POT are lower than the equipment which are commonly used for continuous monitoring of diffused CO2 flux. Besides CO2 flux measurements, it is able to measure several environmental parameters [air temperature, soil temperature, atmospheric pressure, Volumetric Water Content (soil VWC%) and soil conductivity]. Laboratory tests showed a very good performance of the assembled system in terms of detection limit (0.1 mol m−2·day−1), reproducibility (RSD better than 3.5%) and linearity (up to 4 order of magnitude). Field tests (3 months) were performed at Lipari Island (Sicily, Italy), where no continuous monitoring of diffuse CO2 flux using the accumulation chamber method is ongoing. During field tests, the CO2-S-POT performed flux measurements every hour, together with monitoring of the environmental parameters. During field tests, no ordinary or extraordinary maintenance was necessary and no missing data were detected. The soil CO2 flux showed strong influence operated by air pressure, air temperature, soil temperature, soil conductivity, Volumetric Water Content and rain. Statistical methods based on Time Series Fourier analysis (TSFA), Principal Component Analysis (PCA) and also Multiple Linear Regression Analysis (MLRA) are used in order to filter the influence of the environmental parameters on the flux data, and, at the same time, to highlight the contribution which could be due from deep system. Raw flux data (in ppm·sec−1) are used in time series analysis, since these represent the real physical variable measured in the field, without transformations. In fact, the conversion from ppm·sec−1 to another dimension (i.e. mol·m−2·day−1) affects the correlation between the measured parameters (i.e. CO2 flux and environmental parameters). The results of the statistical procedure showed that 1) the oscillation at low period (hours and days) are due to variations of environmental parameters and 2) the soil CO2 flux measured at Lipari is characterized also by long period variations (compared to the previous ones, i.e. weeks), difficult to explain just in terms of environmental parameters. The applied methodology, based on multivariate statistical techniques, has allowed to identify residual anomalies, following a suitable procedure to handle the multicollinearity. In the period from August 20 to August 23, 2014, when there were not both significant air pressure variations and rain events, anomalous positive residuals were identified. These residual anomalies are those interesting from volcanic surveillance point of view. However, to assess whether the residual anomalies are effectively controlled by variations induced by the deep system (i.e. seismic and/or volcanic activity) others parameters, such as wind speed and wind direction, and more time of observation should be taken into consideration.</t>
+          <t>Oded Löwenheim, The Politics of the Trail: Reflexive Mountain Biking along the Frontier of Jerusalem (Heidi Morrison) Judith Madera, Black Atlas: Geography and Flow in Nineteenth-Century African American Literature (James S. Finley) Jane Carey and Jane Lydon, eds., Indigenous Networks: Mobility, Connections and Exchange (Daniel Owen Spence) Gijs Mom, Atlantic Automobilism: Emergence and Persistence of the Car, 1895–1940 (Aaron Hatley) Nicole Starosielski, The Undersea Network (Rachael Squire) Sarah Jane Cervenak, Wandering: Philosophical Performances of Racial and Sexual Freedom (Michael Ra-shon Hall) Yasmine Abbas, Le néo-nomadisme: mobilités, partage, transformations identitaires et urbaines (Stéphanie Vincent-Geslin) Suzan Ilcan, Mobilities, Knowledge, and Social Justice (Sibo Chen) Lesley Murray and Sara Upstone, eds., Researching and Representing Mobilities: Transdisciplinary Encounters (Tawny Andersen) Novel Review Michel Houellebecq, Soumission (Stéphanie Ponsavady)</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4360603309</t>
+          <t>https://openalex.org/W2078251939</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/s0140-6736(23)00579-2</t>
+          <t>https://doi.org/10.2116/analsci.21.615</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Samarasekera (2023)</t>
+          <t>Tanaka &amp; Baba (2005)</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Anna Gilmore: confronting the commercial determinants of health</t>
+          <t>High-Throughput Photometric Titrimetry Based on a Feedback-based and Subsequent Fixed Triangular Wave-controlled Flow Ratiometry</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Public health researcher Anna Gilmore is a big picture person whose research focuses on the influence of major corporations on health and finding and evaluating solutions to their negative impacts. “Commercial actors influence health in all sorts of ways, both positive and negative. For example, evidence shows major corporations have influenced our political and economic systems, our approaches to policy making, as well as specific policies and diverse environments. Health is determined by all those broader factors, known as ‘determinants of health’, and that's really what I look at, with a focus on commercial actors”, she explains. Gilmore is Professor of Public Health, Director and founder of the Tobacco Control Research Group (TCRG), and Co-Director of the Beacon for 21st Century Public Health at the University of Bath, UK, and an Honorary Consultant in Public Health Medicine at the UK's Government's Office for Health Improvement and Disparities. She is also one of the lead authors of the new Lancet Series on the commercial determinants of health (CDOH), which details how commercial entities impact human and planetary health and what can be done to address this, providing a new conceptual model to aid understanding of the issue. She hopes the Series will help “the medical community to realise the massive impact that commercial actors are having on health. Currently, what is killing many of their patients is the products and practices of major corporations and much of that is entirely preventable.” With that knowledge, she wants health-care professionals to “join the call for change and push governments to take action, not least because health systems can't cope with the burden of disease that some corporations are currently causing and the cost that entails”. Unravelling the commercial determinants of healthIn early March, in the wake of the COVID-19 pandemic, nearly 200 people—including former UN Secretary-General Ban Ki-moon—signed a letter strongly criticising pharmaceutical companies for putting a desire to make extraordinary profits before the needs of humanity. Selling publicly funded vaccines, treatments, and tests to the highest bidder resulted in inequities that cost more than a million lives, while private companies made billions of dollars. The signatories called on world leaders to ensure that such an injustice is never repeated. Full-Text PDF Rob Moodie: a radical voice in public healthRob Moodie, Professor of Public Health in the School of Population and Global Health at Australia's University of Melbourne, has a radical agenda for industry and business. His ambition, shared with a group of coauthors and set out in three Series papers in The Lancet, is to tackle the commercial determinants of health (CDOH). The health-harming effects of the tobacco, alcohol, food, and fossil fuel industries are well documented. But Moodie would like to widen the net; almost any business, he points out, can affect health and equity. Full-Text PDF Defining and conceptualising the commercial determinants of healthAlthough commercial entities can contribute positively to health and society there is growing evidence that the products and practices of some commercial actors—notably the largest transnational corporations—are responsible for escalating rates of avoidable ill health, planetary damage, and social and health inequity; these problems are increasingly referred to as the commercial determinants of health. The climate emergency, the non-communicable disease epidemic, and that just four industry sectors (ie, tobacco, ultra-processed food, fossil fuel, and alcohol) already account for at least a third of global deaths illustrate the scale and huge economic cost of the problem. Full-Text PDF Conceptualising commercial entities in public health: beyond unhealthy commodities and transnational corporationsMost public health research on the commercial determinants of health (CDOH) to date has focused on a narrow segment of commercial actors. These actors are generally the transnational corporations producing so-called unhealthy commodities such as tobacco, alcohol, and ultra-processed foods. Furthermore, as public health researchers, we often discuss the CDOH using sweeping terms such as private sector, industry, or business that lump together diverse entities whose only shared characteristic is their engagement in commerce. Full-Text PDF Commercial determinants of health: future directionsThis paper is about the future role of the commercial sector in global health and health equity. The discussion is not about the overthrow of capitalism nor a full-throated embrace of corporate partnerships. No single solution can eradicate the harms from the commercial determinants of health—the business models, practices, and products of market actors that damage health equity and human and planetary health and wellbeing. But evidence shows that progressive economic models, international frameworks, government regulation, co</t>
+          <t>The principle of flow ratiometry for high-throughput titration, which we recently proposed for potentiometric titration, was extended to photometric titration. The flow rate (FB) of a base solution containing an acid-base indicator was linearly varied in response to a control voltage (Vc) generated from a computer. With the total (acid + base) flow rate (FT) being kept constant, the base solution was merged with an acid solution, which was aspirated to the confluence point at a flow rate of FT - FB. Downstream, the relative transmittance of the mixed solution was measured at the maximum absorption wavelength of the base form of the indicator. Initially, a feedback-based control was applied, where the scan direction of Vc was reversed from upward to downward, and vice versa, whenever the transition of the indicator at the equivalence point (EP) was sensed. Next, the scan range of V. was further limited to the range just around EP by using fixed triangular waves. These processes avoided scanning in a range of no interest. Thus, an unprecedentedly high throughput rate (maximally 34 titrations per minute, corresponding to 1.76 s per titration) was realized with reasonable precision (RSD &lt; 0.5%).</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2550133649</t>
+          <t>https://openalex.org/W1966830018</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1109/mmet.2012.6331155</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Pringle (2005)</t>
+          <t>Kirilenko et al. (2012)</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Lessons from Abroad</t>
+          <t>Plane-chiral pair with opposite rotations as a new way to rotate polarization up to 90&amp;amp;#x00B0;</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Our understandings of the gravity of sexual violation have undergone something like a revolution over the last 10 years; a revolution in which the International Criminal Tribunals for the former Yugoslavia (‘ICTY’) and for Rwanda (‘ICTR’) have played a decisive part. Acting under Chapter VII of the Charter of the United Nations (‘UN Charter’), the Security Council empowered the ICTY in 1993, and the ICTR in 1994, to prosecute war crimes, crimes against humanity and genocide. The tribunals have held that, in certain circumstances, rape can be understood as a means of torture, a grave breach of the laws of war, a tool of genocide, and a form of enslavement. What has caught the attention of most commentators in relation to this aspect of the work of the tribunals, is their attempt to put an end to a long-standing impunity for sexual violence in armed conflict and to ensure accountability for such crimes. My focus here is rather on the lessons that we might learn from the tribunals in thinking through domestic law on rape and sexual assault. In doing this, I should make clear that I realise that international humanitarian law (‘IHL’) is a discrete body of law that has no direct authority as precedent for domestic law. However, the tribunals themselves have drawn attention to the permeability of the boundaries between IHL and international human rights law, which in turn bears on domestic law. The ICTY in particular has repeatedly drawn attention to the common values underlying IHL and international human rights law. For example, in the case of Prosecutor v Furundzija, the Trial Chamber noted: The essence of the whole corpus of international humanitarian law as well as human rights law lies in the protection of the human dignity of every person, whatever his or her gender. The general principle of respect for human dignity is the basic underpinning and indeed the very raison d‘etre of international humanitarian law and human rights law; indeed in modern times it has become of such paramount importance as to permeate the whole body of international law.1 The ICTY Appeals Chamber reiterated the convergence of IHL and international human rights law in Prosecutor v Delalic: ‘The object of the</t>
+          <t>A new approach to the problem of polarization transformation of a plane wave or waveguide dominant mode is proposed. The idea is based on the strong interaction of the fringing fields excited by irises with chiral right and left rotations, placed at a distance that is an order of magnitude shorter than the wavelength. Due to the multimode nature of the interaction we can provide 90 degrees rotation in bandwidth equal to several percents at the insertion loss level not worse than -0.1 dB.</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2767301034</t>
+          <t>https://openalex.org/W4288042673</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>https://doi.org/10.20849/aes.v2i4.213</t>
+          <t>https://doi.org/10.1089/pop.2022.0079</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Yuan (2017)</t>
+          <t>Rudy et al. (2022)</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>A “House United” or a “House Divided”: Investigating the Role of China’s Household Registration in Educational Quality and Equity in K12 Classrooms</t>
+          <t>A Call for Consistent Measurement Across the Social Determinants of Health Industry Landscape</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>The household registration system and policies have profound influences on the economic development, social transformation, and the process of urbanization and industrialization in China. This research paper conducted an extend review on China’s household registration policy’s influences on rural-to-urban migrant students’ educational participation, attainment, and achievement in K12 levels. Previous review of academic achievement gaps between rural-urban and migrant-local students identifies the quest for educational equity for every student, but much of them leave open the question of the historically rooted Hukou system’s powerful influences on migrant students’ educational experiences and outcomes in their processes of integration to the new social and cultural environment.</t>
+          <t>Population Health ManagementVol. 25, No. 5 Points of ViewOpen AccessCreative Commons licenseA Call for Consistent Measurement Across the Social Determinants of Health Industry LandscapeEllen T. Rudy, Kelsey C. McNamara, Zachary N. Goldberg, Andrew Parker, and David B. NashEllen T. RudyAddress correspondence to: Ellen T. Rudy, PhD, Department of Research and Impact, Papa, Inc., 66 SW 6th Street, Miami, FL 90089-0001, USA E-mail Address: erudy@papa.comDepartment of Research and Impact, Papa, Inc., Miami, Florida, USA.Department of Health Policy and Management, Sol Price School of Public Policy, University of Southern California, Los Angeles, California, USA.Search for more papers by this author, Kelsey C. McNamaraDepartment of Research and Impact, Papa, Inc., Miami, Florida, USA.Search for more papers by this author, Zachary N. Goldberghttps://orcid.org/0000-0003-1935-6421Sidney Kimmel Medical College, Thomas Jefferson University, Philadelphia, Pennsylvania, USA.Search for more papers by this author, Andrew ParkerDepartment of Research and Impact, Papa, Inc., Miami, Florida, USA.Search for more papers by this author, and David B. NashJefferson College of Population Health, Thomas Jefferson University, Philadelphia, Pennsylvania, USA.Search for more papers by this authorPublished Online:14 Oct 2022https://doi.org/10.1089/pop.2022.0079AboutSectionsPDF/EPUB Permissions &amp; CitationsPermissionsDownload CitationsTrack CitationsAdd to favorites Back To Publication ShareShare onFacebookTwitterLinked InRedditEmail IntroductionSocial determinants of health (SDOH) create the haves and have-nots in access to quality health care.1 These SDOH include both the conditions in which people are born, grow, live, work, and age as well as the complex, interrelated social structures and economic systems that shape these conditions. SDOH consistently predict premature morbidity and mortality. For example, lack of emotional support results in earlier dementia, increases the risk of death after heart attack, and is a predictor of functional decline and death for older adults.2–4 Notably, SDOH disproportionately impact people of color, who are more likely to report higher financial insecurity and greater transportation barriers, and to be met with inadequate care access and substandard patient experience.5,6 Subsequently, people of color shoulder a disproportionate burden of disease and negative health outcomes, including higher rates of diabetes, worse maternal outcomes, greater prevalence of HIV, and less preventive screenings.7–10The purpose of this commentary is to (1) present a successful example of an SDOH intervention evaluation in a for-profit SDOH Industry company and (2) to call on industry—SDOH entrepreneurial ventures, health payers and providers, and policymakers—to collaborate and align on more consistent metrics that evaluate the impact of SDOH interventions. In this article, the authors employ an SDOH intervention evaluation strategy first presented by Goldberg and Nash of a company in the SDOH Industry to determine the efficacy of the company's intervention.11 We then present additional recommendations to expand the conversation about SDOH intervention evaluation to foster greater collaboration among stakeholders over time.Despite all the evidence, until recently, health payers—the primary risk bearers of health care costs—were not explicitly allowed or incentivized to cover nonclinical benefits on a broad scale. This changed markedly with the passing of the CHRONIC Care Act of 2018, which opened the door to industry adoption of nonclinical supplemental benefits aimed at social needs.12Increased funding for SDOH interventions by payers coupled with inefficient SDOH intervention management strategies by providers has led to the emergence or enhanced focus of nonprofit and for-profit companies addressing SDOH.13 For example, as of late 2021, 58 private, for-profit SDOH companies existed, with the majority emerging after 2010.13 They offer solutions that include large-scale meal delivery, transportation to medical appointments or social activities, and companionship and personal assistance in the home.As this industry continues to grow in size and scope, there remains no clear consensus on the best approach to address each social determinant.13 Moreover, little focus has been placed on rigorous evaluations of SDOH interventions employed by companies in this industry.13 Without an aligned effort between various stakeholders of all types into measurement, there is a risk of limited impact relative to both the need and to the industry's large investment and valuation ($2.4 billion of funding and $18.5 billion valuation as of 2021).13SDOH Intervention MeasurementSDOH Industry organizations face 2 primary challenges in using traditional key performance indicators (KPIs). First, the measurements reflect an outdated expectation of having a cost impact in weeks or months. Transitions of care programs and emergency department dive</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2243333292</t>
+          <t>https://openalex.org/W2092122556</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1103/physrev.111.965</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Blinov (2014)</t>
+          <t>Anderson (1958)</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Причины Британской Промышленной Революции [Causes of the British Industrial Revolution]</t>
+          <t>Reduction of Primary Constraints in Generally Covariant Field Theories</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>The Industrial Revolution happened in Britain because by the 19-th century the eternal problem faced by humankind, i.e. the problem of hunger, had been resolved on a local scale. Thanks to a unique combination of factors, Britain just overtook the other West European countries (for a short period of time in historical terms) in the understanding that the value of food “depreciates”.</t>
+          <t>Generally covariant field theories have associated with them, in the canonical formalism, a series of primary and secondary constraints. For a large class of these theories it is proven that there exists a transformation which will reduce the primary constraints to the form of a set of momenta equal to zero. The transformation which accomplishes this reduction is exhibited explicity for the case of general relativity.</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3031311452</t>
+          <t>https://openalex.org/W2147863424</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1177/1750698020921455</t>
+          <t>https://doi.org/10.1067/mva.2000.106499</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Robinson (2020)</t>
+          <t>Bredenberg (2000)</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>‘We have long memories in this area’: Ulster Defence Regiment place-memory along the Irish border</t>
+          <t>Presidential address: “These united colonies are…”</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>A large body of literature assumes post-conflict societies can and should mediate public memory towards frames conducive to a reconciled future. However, this article argues that such a drive marginalises survivors of political violence who narrate the past as still-present wounds. The linear temporality of transitional justice presumes an idealised trajectory through time, away from violence and towards reconciliation. However, this idealised temporality renders anachronistic survivors who depend on the prolongation of traumatic pasts for the possibility of political change. Using the case of former Ulster Defence Regiment in Northern Ireland, this article examines this prolongation through the lens of Ulster Defence Regiment survivors’ resistant place-memory along the Southwest run of the Irish border. Through the performative retemporalisation of everyday places and landscapes, survivors demand that their resistant memories and narrative frames of past violence still belong and still have active political resonance in transitional political space.</t>
+          <t xml:space="preserve">Thank you for the opportunity to serve as your president for this past year. This recognition is more broadly addressed to the surgeons of my adopted state, Maine. Among them, Ferris Ray, who served as vice president of this society, stands out as the one surgeon who did the most to forge vascular surgery as a distinct specialty in Maine. The real heart of a surgical society is the secretary, and I want particularly to thank Jim Menzoian for his indefatigable efforts. Jim continues the distinguished line of strong secretaries with which this society has been blessed. “These United Colonies are...”—the phrase, of course, comes from the Declaration of Independence: “We, therefore, the Representatives of the United States of America, in General Congress, Assembled... solemnly publish and declare, That these United Colonies are and of Right ought to be Free and Independent States.”1Commager HS Morris RB The spirit of ‘76: the story of the American Revolution as told by participants. Bonanza Books, New York1983: 1-1348Google Scholar What jars the modern ear is the plurality of the syntax: “These United Colonies are... Free and Independent States.” The verb is plural, which implies a plural subject. Today we would say, “The United States is a free and independent nation.” The third-person singular in the verb explicitly states our perception of a single nation, a concept that is not at all clear in our Declaration of Independence. The emphasis on the plurality of the colonies is not accidental; it fills the operative paragraph: “They are absolved from all allegiance to the British Crown... All political connection between them and the state of Great Britain is and ought to be totally dissolved... As Free and Independent States, they have full Power.”1Commager HS Morris RB The spirit of ‘76: the story of the American Revolution as told by participants. Bonanza Books, New York1983: 1-1348Google Scholar The problem of unity and the tension between peripheral autonomy and central authority have been central to the history of the United States. Are we a single nation or a federation of sovereign states? This tension was most dramatically confronted during the roughly 100 years from 1763 to 1865. I should like to briefly review this interval in our nation's history, because I believe many of the issues that played out so dramatically are common to all human organizations, because organization itself is crucial to human endeavor, and because, as many people see it, the future quality of health care in this country depends, in part, on improving our organization of health care delivery. As you listen to this interpretation of history, you may hear issues familiar to your own experience. In 1763, the Peace of Paris concluded the Seven Years' War, one of a series of European wars stretching back to the late 17th century, which arose largely over the conflict between France's attempts to establish hegemony in Europe and England's attempt to thwart these efforts with a balance of European powers. These wars had spilled onto the North American continent as the so-called French and Indian Wars.2Morison SE Commager HS Leuchtenburg WE. The growth of the American republic. 7th edition. Oxford University Press, New York1980: 1-923Google Scholar In North America at Quebec, Wolfe's victory in 1759 on the Plains of Abraham (named not after the Old Testament patriarch, but after Abraham Martin, a French river pilot and farmer) gave Britain all of French Canada and all the land east of the Mississippi down to the lower Mississippi delta. It was a great victory, which cost the 32-year-old major general's life when he stood in front of one of his regiments ready to personally lead the bayonet charge that followed the devastating close-range British musket volleys that had already determined the outcome of the battle.3Keegan J. Fields of battle. Alfred A. Knopf, New York1995: 1-348Google Scholar Wars cost money as well as lives, and Britain's victory in the Seven Years' War increased the British national debt nearly 2½-fold.4Middlekauff R The glorious cause: the American Revolution, 1763–1789. The Oxford history of the United States.in: Oxford University Press, New York1982: 1-696Google Scholar The king and parliament felt that the American colonies should be taxed to contribute to the cost of their own defense. The American colonists, like everyone else before or since, objected to taxes. The centers for the conflict of the colonies with England were Virginia and New England. New England had been populated largely by Puritan refuges from East Anglia, a section of England east of London with particularly strong traditions of both literacy and support of representation over arbitrary power.5Phillips K. The cousins war: Religion, politics, and the triumph of Anglo-America. Basic Books, New York1999: 1-707Google Scholar It was the regional power base for Cromwell and the Puritan parliament, which rose in revolt against the Stuart attempt at </t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2789539424</t>
+          <t>https://openalex.org/W2751076506</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1097/01.cot.0000480388.59885.19</t>
+          <t>https://doi.org/10.1016/j.apgeochem.2017.08.004</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Fuerst (2016)</t>
+          <t>Lelli &amp; Raco (2017)</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Study</t>
+          <t>A reliable and effective methodology to monitor CO 2 flux from soil: The case of Lipari Island (Sicily, Italy)</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>FigureFigureORLANDO, Florida—Community oncologists are not following practice guideline recommendations on anticoagulant treatments for cancer-associated thrombosis, and the reasons relate to costs and patient preference for medications other than low-molecular-weight heparin (LMWH). That is the conclusion of a study reported here at the American Society of Hematology Annual Meeting (Abstract 626). The lead researcher, Alok A. Khorana, MD, a medical oncologist at the Cleveland Clinic, explained that therapeutic options for the management of venous thromboembolism (VTE) in patients with cancer include LMWH, warfarin, and recently, the addition of direct oral anticoagulants. Randomized trials have established the superiority of LMWHs over warfarin, and current guidelines therefore recommend anticoagulation with LMWH monotherapy for three to six months, and possibly indefinitely, for patients with active cancer. However, cost and patient preference may lead to non-compliance with these recommendations: “One big reason oncologists do not comply with guidelines is cost,” he said. “In the U.S., it may cost a few thousand dollars per month for injectable anticoagulants. Insurers cover injectable anticoagulants differently than for oral medications; direct-to-patient costs are substantially higher for injectable anticoagulants.” Another issue is patient preference. “Some patients do not want to inject themselves—Some hospitals are set up to teach cancer patients how to do the injections, and others are not.” Study Details For the study, he and his colleagues set out to describe current treatment patterns and evaluate patient persistence on various anticoagulants among cancer patients treated for acute VTE. The team analyzed medical and pharmacy claims from the Humana Database for 2,419 newly diagnosed cancer patients who had their first VTE from 2013 through 2014. Included were patients who had been prescribed one or more anticoagulant agents within 30 days after their VTE diagnosis. Based on the first anticoagulant agent received, patients were classified into four cohorts: LMWH, LMWH/warfarin, warfarin, and rivaroxaban. There was equal distribution in prescriptions, and the type of index VTE was similar, and about 90 percent of the patients had solid tumors across all four cohorts. Clear Difference in Pattern of Anticoagulant Transition A clear difference in the pattern of anticoagulant transition emerged: Nearly one-quarter of patients taking LMWH (23%) switched to another anticoagulant, compared with only about nine percent of those taking LWMH/warfarin, 7.3 percent of those taking warfarin, and 4.7 percent of those on rivaroxaban. Data on the persistence on the initial anticoagulant showed that patients on LMWH were more likely to switch to another treatment: “LMWH had the least amount of persistence,” Khorana said. The median time duration of LMWH was 3.3 months compared with about eight months with the other treatments. “Compared with LMWH, LMWH/warfarin, warfarin, and rivaroxaban users were significantly less likely to discontinue their initial therapy. “Despite guideline recommendations, warfarin remains dominant and is widely used,” he said. “Rivaroxaban and LMWH are nearly equally utilized for the initial treatment, and LMWH use is associated with significantly lower persistence and shorter duration of treatment compared with warfarin or rivaroxaban. Patients initiating LMWH are more likely to switch to other anticoagulants compared with patients starting on warfarin or rivaroxaban.” Further studies are necessary to optimize anticoagulant use in this setting, he said, noting that five years ago compliance rates were even lower, with only about five to 10 percent of such patients taking LMWH. Risk-Adaptive Approach Khorana suggested that clinicians take a risk-adaptive approach to care: “Those at high risk of recurrent VTE should use LMWH. Those at low risk are fine to use either oral agent.” Tissue factor may also help predict which patients are likely to have disease recurrence. New studies show that those patients with high tissue factor can use LMWH safely and those with low tissue factor may be better off with an oral anticoagulant, he said. “If you prescribe oral agents, make sure your patients are fully informed that they are not as well proven as LMWH.” In an interview, the moderator of the session that included the study, Marc Carrier, MD, Associate Professor of Medicine at the University of Ottawa, called the differences in practice variation uncovered “insightful”—“There is a discrepancy between what has been recommended and what is happening in the real world. The guidelines are not working, and not translating into clinical practice,” he said. “As clinicians, we need to do a better job of telling our patients why they should be compliant with the guidelines as much as possible. Clinicians need to know that patients who stick to LMWH for at least three to six months have a better outcome, with</t>
+          <t>A new unit for continuous monitoring of CO2 flux diffused from soil was developed and preliminary tested in the field at Lipari Island (Sicily, Italy). The developed device (CO2-S-POT), based on the accumulation chamber method, is an assembled unit easy to install and to manage. Both dimensions (104 × 61 × 75 cm) and weight (32 Kg) of CO2-S-POT are lower than the equipment which are commonly used for continuous monitoring of diffused CO2 flux. Besides CO2 flux measurements, it is able to measure several environmental parameters [air temperature, soil temperature, atmospheric pressure, Volumetric Water Content (soil VWC%) and soil conductivity]. Laboratory tests showed a very good performance of the assembled system in terms of detection limit (0.1 mol m−2·day−1), reproducibility (RSD better than 3.5%) and linearity (up to 4 order of magnitude). Field tests (3 months) were performed at Lipari Island (Sicily, Italy), where no continuous monitoring of diffuse CO2 flux using the accumulation chamber method is ongoing. During field tests, the CO2-S-POT performed flux measurements every hour, together with monitoring of the environmental parameters. During field tests, no ordinary or extraordinary maintenance was necessary and no missing data were detected. The soil CO2 flux showed strong influence operated by air pressure, air temperature, soil temperature, soil conductivity, Volumetric Water Content and rain. Statistical methods based on Time Series Fourier analysis (TSFA), Principal Component Analysis (PCA) and also Multiple Linear Regression Analysis (MLRA) are used in order to filter the influence of the environmental parameters on the flux data, and, at the same time, to highlight the contribution which could be due from deep system. Raw flux data (in ppm·sec−1) are used in time series analysis, since these represent the real physical variable measured in the field, without transformations. In fact, the conversion from ppm·sec−1 to another dimension (i.e. mol·m−2·day−1) affects the correlation between the measured parameters (i.e. CO2 flux and environmental parameters). The results of the statistical procedure showed that 1) the oscillation at low period (hours and days) are due to variations of environmental parameters and 2) the soil CO2 flux measured at Lipari is characterized also by long period variations (compared to the previous ones, i.e. weeks), difficult to explain just in terms of environmental parameters. The applied methodology, based on multivariate statistical techniques, has allowed to identify residual anomalies, following a suitable procedure to handle the multicollinearity. In the period from August 20 to August 23, 2014, when there were not both significant air pressure variations and rain events, anomalous positive residuals were identified. These residual anomalies are those interesting from volcanic surveillance point of view. However, to assess whether the residual anomalies are effectively controlled by variations induced by the deep system (i.e. seismic and/or volcanic activity) others parameters, such as wind speed and wind direction, and more time of observation should be taken into consideration.</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4236265349</t>
+          <t>https://openalex.org/W4360603309</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/0167-2584(93)90608-l</t>
+          <t>https://doi.org/10.1016/s0140-6736(23)00579-2</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Asada et al. (1993)</t>
+          <t>Samarasekera (2023)</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>The phase of condensate coexisting with the solid phase of nitrogen on Grafoil, studied by volumetric adsorption measurements of nitrogen</t>
+          <t>Anna Gilmore: confronting the commercial determinants of health</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Volumetric adsorption isotherms of nitrogen at 77 K have been measured on Grafoil (compressed exfoliated graphite) preadsorbed with various amounts of cyclohexane or n-hexane. For cyclohexane preadsorption, the fluid-solid phase transition of post-adsorbed nitrogen is observed as a step on the isotherm until cyclohexane completes its monolayer, indicating that post-adsorbed nitrogen compresses cyclohexane to convert its submonolayer phases into the monolayer phase. On the other hand, n-hexane preadsorbed at submonolayer coverage is found, just like CCl4 studied previously, to prevent nitrogen from undergoing the fluid-solid phase transition. It is argued that n-hexane islands coexisting with pure nitrogen domains are in the higher-order commensurate submonolayer phase with nitrogen involved along its domain walls.</t>
+          <t>Public health researcher Anna Gilmore is a big picture person whose research focuses on the influence of major corporations on health and finding and evaluating solutions to their negative impacts. “Commercial actors influence health in all sorts of ways, both positive and negative. For example, evidence shows major corporations have influenced our political and economic systems, our approaches to policy making, as well as specific policies and diverse environments. Health is determined by all those broader factors, known as ‘determinants of health’, and that's really what I look at, with a focus on commercial actors”, she explains. Gilmore is Professor of Public Health, Director and founder of the Tobacco Control Research Group (TCRG), and Co-Director of the Beacon for 21st Century Public Health at the University of Bath, UK, and an Honorary Consultant in Public Health Medicine at the UK's Government's Office for Health Improvement and Disparities. She is also one of the lead authors of the new Lancet Series on the commercial determinants of health (CDOH), which details how commercial entities impact human and planetary health and what can be done to address this, providing a new conceptual model to aid understanding of the issue. She hopes the Series will help “the medical community to realise the massive impact that commercial actors are having on health. Currently, what is killing many of their patients is the products and practices of major corporations and much of that is entirely preventable.” With that knowledge, she wants health-care professionals to “join the call for change and push governments to take action, not least because health systems can't cope with the burden of disease that some corporations are currently causing and the cost that entails”. Unravelling the commercial determinants of healthIn early March, in the wake of the COVID-19 pandemic, nearly 200 people—including former UN Secretary-General Ban Ki-moon—signed a letter strongly criticising pharmaceutical companies for putting a desire to make extraordinary profits before the needs of humanity. Selling publicly funded vaccines, treatments, and tests to the highest bidder resulted in inequities that cost more than a million lives, while private companies made billions of dollars. The signatories called on world leaders to ensure that such an injustice is never repeated. Full-Text PDF Rob Moodie: a radical voice in public healthRob Moodie, Professor of Public Health in the School of Population and Global Health at Australia's University of Melbourne, has a radical agenda for industry and business. His ambition, shared with a group of coauthors and set out in three Series papers in The Lancet, is to tackle the commercial determinants of health (CDOH). The health-harming effects of the tobacco, alcohol, food, and fossil fuel industries are well documented. But Moodie would like to widen the net; almost any business, he points out, can affect health and equity. Full-Text PDF Defining and conceptualising the commercial determinants of healthAlthough commercial entities can contribute positively to health and society there is growing evidence that the products and practices of some commercial actors—notably the largest transnational corporations—are responsible for escalating rates of avoidable ill health, planetary damage, and social and health inequity; these problems are increasingly referred to as the commercial determinants of health. The climate emergency, the non-communicable disease epidemic, and that just four industry sectors (ie, tobacco, ultra-processed food, fossil fuel, and alcohol) already account for at least a third of global deaths illustrate the scale and huge economic cost of the problem. Full-Text PDF Conceptualising commercial entities in public health: beyond unhealthy commodities and transnational corporationsMost public health research on the commercial determinants of health (CDOH) to date has focused on a narrow segment of commercial actors. These actors are generally the transnational corporations producing so-called unhealthy commodities such as tobacco, alcohol, and ultra-processed foods. Furthermore, as public health researchers, we often discuss the CDOH using sweeping terms such as private sector, industry, or business that lump together diverse entities whose only shared characteristic is their engagement in commerce. Full-Text PDF Commercial determinants of health: future directionsThis paper is about the future role of the commercial sector in global health and health equity. The discussion is not about the overthrow of capitalism nor a full-throated embrace of corporate partnerships. No single solution can eradicate the harms from the commercial determinants of health—the business models, practices, and products of market actors that damage health equity and human and planetary health and wellbeing. But evidence shows that progressive economic models, international frameworks, government regulation, co</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2049735746</t>
+          <t>https://openalex.org/W2997708127</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1353/cri.2009.0102</t>
+          <t>https://doi.org/10.3390/land9010008</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Hughes (2009)</t>
+          <t>Battisti et al. (2020)</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>&lt;i&gt;Technological Empowerment: The Internet, State, and Society in China&lt;/i&gt;, and: &lt;i&gt;The Power of the Internet in China: Citizen Activism Online&lt;/i&gt; (review)</t>
+          <t>A Methodological Approach for the Assessment of Potentially Buildable Land for Tax Purposes: The Italian Case Study</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Reviewed by: Technological Empowerment: The Internet, State, and Society in China, and: The Power of the Internet in China: Citizen Activism Online Christopher R. Hughes (bio) Yongnian Zheng. Technological Empowerment: The Internet, State, and Society in China. Stanford, CA: Stanford University Press. 2008. xx, 246 pp. Hardcover $50.00, isbn 978-0-8047-5737-9. Guobin Yang. The Power of the Internet in China: Citizen Activism Online. New York: Columbia University Press, 2009. xv, 302 pp. Hardcover $29.50, isbn 978-0-231-14420-9. The Internet has been a presence in China long enough for it to generate a subfield of the study of Chinese politics that goes well beyond the overly simplistic predictions that often characterized the first wave or work on the topic. These two books together give a good picture of just how much progress has been made, as well as some of the challenges that are emerging in what is still a relatively new area for the social sciences. Both books are rooted in earlier approaches to the subject insofar as they give overviews of the established knowledge on the topic, including updated statistics concerning the spread of accessibility, the unevenness of the digital divide, and the [End Page 585] measures used by the state to maintain control. They go further in their use of case studies to explore how the Internet is actually used by a number of actors to give insights into its impact on political change that was not possible for the first wave of literature. Perhaps the most interesting idea to emerge from reading these two works together, however, is the question of whether the impact of the Internet in China can be understood by applying established theories from the social sciences, or whether it represents a form of organization that is so qualitatively different that some radical departures are necessary. The more established approach is chosen by Zheng, who sets out to make the Internet part of the literature on state-society relations. He does this by disaggregating both state and society so that it is possible to examine how various actors engage in processes of mutual transformation as social actors push at the interstices of power while the state reacts with countermeasures of control. His most interesting insights are in his chapter on the growth of civic engagement and public distrust and his chapter on collective action, which use fascinating studies to show how the Internet has been used to mobilize public opinion around issues ranging from the arrest of online dissidents to the organization of the Falun Gong movement. Zheng builds on this evidence to conclude that collective actions based on the Internet are promoting a greater degree of political openness, transparency, and accountability. Yang's book takes the more radical approach because he does not treat the Internet as a force that shapes society from the outside. Instead, he sees it as constituting a new social space in which innovative forms of cultural acts can be performed. He casts his theoretical net wide, drawing on cultural studies and social movement literature to capture "a broad spectrum of converging and contending forces, technological, social, and economic, as well as political" (Yang, p. 1). Although he also uses case studies to show how the Internet is used for political mobilization, he is equally concerned with demonstrating how the "Chinese people have created a world of carnival, community and contention in and through cyberspace and how in this process they have transformed personhood, society and politics" (Yang, p. 1). Thus, the real transformation wrought by the Internet operates at a deeper level than the state-society paradigm and involves cultural and social revolutions. Space is, therefore, created for the emergence of an unofficial democracy, in which the state is being forced to move from repressive power to disciplinary power and from hard control to soft control. Focusing on the arduous process of this reorientation of values and identities has the merit of avoiding both extreme optimism based on technological determinism and the undue pessimism that arises from visible setbacks in the democratic project. The strength of such an approach lies in the attention it gives to interpreting the significance of...</t>
+          <t>According to Italian legislation for a particular type of real property—lands/areas subject to buildability, but not yet currently buildable—there is a problem related to their “qualification”, or whether or not they must be considered buildable for the purposes of their recurrent taxation. These potentially buildable (POBU) areas, that were previously zoned as “agricultural”, have been rezoned as “general urban planning instruments/regulations” (the General Urban Development Plans or variances, which regulate land governance), whose approval path has yet to be concluded. Their value—the taxable base underpinning their taxation—clearly depends on their qualification (whether or not they are considered buildable). This has produced, in recent years, several disputes between owners and local governments; the law did not give univocal solutions: Today (2019), there is a conflict of case law in relation to considering these areas as being building areas, as it is not clear what estimating procedures should be used. This article is thus based on the assumption that responding to the problems connected with taxing POBU areas must be considered separately from (overcoming, in this way, conflicting case law) the “virtual” qualification of agricultural or buildable area, but must instead, and more simply, be considered as the actual condition it is found in (likelihood of having building potential in the future), and therefore its limitations (present at the time of taxation) and the time necessary for the building to actually be built and not just “potential”. The approach proposed in this article thus offers a solution to the problem that has been raised, by modifying the current de jure approach (defining the moment when the building right is manifested) towards an assessment/appraisal approach (defining the value of the potentially buildable (POBU) area, in relation to its actual conditions). To implement this approach, a methodology—proposing an upgrade of the traditional analytic procedure for the assessment of transformation value has been structured in a way such that consideration may be made of the components characterizing the potentially buildable areas by means of appropriate assessment parameters that go towards forming these areas’ value: These are the market value discount rate of the POBU area in relation to the uncertainty and risk of reaching effective and concrete buildability, and the estimated time needed to complete the procedural path for making the area actually buildable.</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>https://openalex.org/W131264140</t>
+          <t>https://openalex.org/W2550133649</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Payne-Tsoupros (2010)</t>
+          <t>Pringle (2005)</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>No Child Left Behind: Disincentives to Focus Instruction on Students Above the Passing Threshold</t>
+          <t>Lessons from Abroad</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>An Act to close the achievement gap with accountability, flexibility, and choice so that no child is left behind.1 If the achievement gap is closing, by what means is that happening? Is the gap closing from the bottom up or top down? I. INTRODUCTION As a result of the No Child Left Behind Act (NCLB), schools place a great emphasis on standardized testing. Students at risk of failure are identified for additional instruction. This is aligned with the adequacy (versus equity) framework of school finance litigation, which seeks to bring the bottom up to a certain minimum level. Under the adequacy ideology, the focus is on achieving a minimum threshold of proficiency. In low performing schools where a high percentage of students are at risk of failing the test, a focus on the minimum creates disincentives to work with students performing at or above the testing expectations.2 This is inappropriate because education functions in part as a positional good. We should not adopt education policies that function as ceilings on students' achievement. The existing body of education law literature on NCLB has a large focus on low performing students, particularly in low performing schools. Existing literature argues either that NCLB reforms education for these students and school or it hurts them the most. There is little discussion about on level students who meet the testing expectations. These students do not trigger the red flags that the low performing students do, and as a result, they may get lost in the mix. This would be more pronounced in low performing schools, where most of the students may be at risk of failure. This Note argues that NCLB adversely affects students performing at or above testing expectations. To remedy this, we should use ideas from the equity framework of school finance litigation, which is comparative in nature, to learn from the problems of NCLB as we transition into Race to the Top and strive to maximize the potential of all students, including the on level students. School finance decisions since the 1960s have taken an equity or adequacy approach, or a combination of both approaches. The emphasis on standards based reform has intersected with school finance decisions, particularly since the enactment of NCLB. Existing literature analyzes whether this will help or hinder plaintiffs in school finance lawsuits. This Note intends to use the ideology of the equity and adequacy frameworks of school finance as lenses through which to view NCLB, particularly as it affects those students who meet the testing expectations in low performing schools. NCLB is a parallel to the adequacy ideology, setting goals at a minimum threshold of acceptability or proficiency. Such goals are inappropriate as educational policy and this Note proposes ideas from the equity ideology as a means of coping with NCLB . Part II provides background on the high stakes testing component of NCLB and an overview of some of the main criticisms of the law. Part III discusses the adequacy and equity frameworks of school finance litigation and how they intersect with NCLB . Part IV analyzes how using adequacy as a lens or framework can help demonstrate how NCLB creates disincentives to work with students who are above the passing mark. This analysis centers on low performing schools and argues that NCLB creates incentives to work with students on the threshold of passing to the exclusion of the on level students, which results in a ceiling on student achievement. Part V argues that focusing on a minimum level of acceptability is poor public policy and suggests possible solutions, relying on aspects of the equity ideology, and addresses the potential drawbacks of an equity-oriented approach. Part VI concludes the Note with specific examples of cases that have used equity-oriented approaches that may serve as a model for future decisions. II. BACKGROUND ON NCLB AND HIGH-STAKES TESTING A. …</t>
+          <t>Our understandings of the gravity of sexual violation have undergone something like a revolution over the last 10 years; a revolution in which the International Criminal Tribunals for the former Yugoslavia (‘ICTY’) and for Rwanda (‘ICTR’) have played a decisive part. Acting under Chapter VII of the Charter of the United Nations (‘UN Charter’), the Security Council empowered the ICTY in 1993, and the ICTR in 1994, to prosecute war crimes, crimes against humanity and genocide. The tribunals have held that, in certain circumstances, rape can be understood as a means of torture, a grave breach of the laws of war, a tool of genocide, and a form of enslavement. What has caught the attention of most commentators in relation to this aspect of the work of the tribunals, is their attempt to put an end to a long-standing impunity for sexual violence in armed conflict and to ensure accountability for such crimes. My focus here is rather on the lessons that we might learn from the tribunals in thinking through domestic law on rape and sexual assault. In doing this, I should make clear that I realise that international humanitarian law (‘IHL’) is a discrete body of law that has no direct authority as precedent for domestic law. However, the tribunals themselves have drawn attention to the permeability of the boundaries between IHL and international human rights law, which in turn bears on domestic law. The ICTY in particular has repeatedly drawn attention to the common values underlying IHL and international human rights law. For example, in the case of Prosecutor v Furundzija, the Trial Chamber noted: The essence of the whole corpus of international humanitarian law as well as human rights law lies in the protection of the human dignity of every person, whatever his or her gender. The general principle of respect for human dignity is the basic underpinning and indeed the very raison d‘etre of international humanitarian law and human rights law; indeed in modern times it has become of such paramount importance as to permeate the whole body of international law.1 The ICTY Appeals Chamber reiterated the convergence of IHL and international human rights law in Prosecutor v Delalic: ‘The object of the</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2803295473</t>
+          <t>https://openalex.org/W2767301034</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1155/2018/9257121</t>
+          <t>https://doi.org/10.20849/aes.v2i4.213</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Li &amp; Yin (2018)</t>
+          <t>Yuan (2017)</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Design of Output-Input Inversed Polarity Pulse Power Divider for Ultra-Wideband Communications</t>
+          <t>A “House United” or a “House Divided”: Investigating the Role of China’s Household Registration in Educational Quality and Equity in K12 Classrooms</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>The implementation of a output-input inverse polarity pulse power divider based on the use of a SMA directly feed asymmetric coplanar stripline phase inverter for ultra-wideband communication is proposed. The novelty of the proposed power divider can be demonstrated that the electromagnetic energy guided by the CPW divides naturally into the slots of two asymmetric coplanar striplines and the polarity of the input pulse be reversed by asymmetric coplanar stripline to SMA transition. SMA connectors are mounted directly to the output asymmetric coplanar striplines and seven pairs of metal rods are soldered vertically to the substrate with seven resistors on top for improving the isolation and matching performance. The simulated and measured result in frequency domain agree well showing equal power division with less than 2 dB of additional insertion loss and in-phase for the outputs ports across the desired band of 0.4 GHz to 4.0 GHz (one decade) which indicates an ultra-wideband feature. The return loss for all the ports and the isolation between the two output ports are better than 10 dB which demonstrates good matching and isolation performance. To illustrate the short pulse performance of the proposed power divider, Inverse Fourier Transformation is used to calculate the input and output signals. The Gaussian pulse with a −10 dB bandwidth is utilized as the stimulus signal and the port signals in time domain are derived from the measured scattering parameters and discussed. Time domain results show that the same magnitude of the pulse is obtained between the two outputs and the polarity of the output pulse has been inversed compared to the input one. Simulated and measured results in both frequency and time domain agree well and show the feasibility and validity of the proposed power dividers.</t>
+          <t>The household registration system and policies have profound influences on the economic development, social transformation, and the process of urbanization and industrialization in China. This research paper conducted an extend review on China’s household registration policy’s influences on rural-to-urban migrant students’ educational participation, attainment, and achievement in K12 levels. Previous review of academic achievement gaps between rural-urban and migrant-local students identifies the quest for educational equity for every student, but much of them leave open the question of the historically rooted Hukou system’s powerful influences on migrant students’ educational experiences and outcomes in their processes of integration to the new social and cultural environment.</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2556247791</t>
-        </is>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.3389/fmars.2016.00228</t>
+          <t>https://openalex.org/W2243333292</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Fieth et al. (2016)</t>
+          <t>Blinov (2014)</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Ontogenetic Changes in the Bacterial Symbiont Community of the Tropical Demosponge Amphimedon queenslandica: Metamorphosis Is a New Beginning</t>
+          <t>Причины Британской Промышленной Революции [Causes of the British Industrial Revolution]</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Vertical transmission of bacterial symbionts, which is known in many species of sponge (Porifera), is expected to promote strong fidelity between the partners. Combining 16S rRNA gene amplicon sequencing and electron microscopy, we have assayed the relative abundance of vertically-inherited bacterial symbionts in several stages of the life cycle of Amphimedon queenslandica, a tropical coral reef sponge. We reveal that adult A. queenslandica house a low diversity microbiome dominated by just three proteobacterial OTUs, with a single gammaprotebacterium clearly dominant through much of the life cycle. This ontogenetic perspective has revealed that, although vertical transmission occurs very early in development, the inherited symbionts do not maintain proportional dominance of the bacterial community at every developmental stage. A reproductive bottleneck in the A. queenslandica life cycle is larval settlement, when a free-swimming pelagic larva settles out of the water column onto the benthos and completes metamorphoses into the sessile body plan within just 3 to 4 days. During this dramatic life cycle transition, an influx of environmentally-derived bacteria leads to a major reorganization of the microbiome, potentially challenging the fidelity and persistence of the vertically-inherited symbiotic relationships. However, dominance of the primary, vertically-inherited symbionts is restored in adult sponges. The mechanisms underlying ontogenetic changes in the bacterial community are unknown, including how the dominance of the primary symbionts is restored in the adult sponge – does the host or symbiont regulate this process? Using high-resolution transcriptional profiling in multiple stages of the A. queenslandica life cycle combined with this natural perturbation of the microbiome immediately following larval settlement, we are beginning to identify candidate host genes associated with animal-bacterial crosstalk. Among the sponge host genes upregulated during the times of active microbiome assembly, there is an enrichment of genes potentially involved in innate immunity, including scavenger receptors, and of genes containing eukaryote-like domains, which have elsewhere been implicated in host-symbiont interactions. Intriguingly, we also see an enrichment of sponge genes arising from ancient horizontal transfer events from bacteria, which raises the possibility that host-bacterial associations in the evolutionary past may help to regulate host-bacterial associations in the ecological present.</t>
+          <t>The Industrial Revolution happened in Britain because by the 19-th century the eternal problem faced by humankind, i.e. the problem of hunger, had been resolved on a local scale. Thanks to a unique combination of factors, Britain just overtook the other West European countries (for a short period of time in historical terms) in the understanding that the value of food “depreciates”.</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3033656380</t>
+          <t>https://openalex.org/W4323430147</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.oooo.2020.04.812</t>
+          <t>https://doi.org/10.26425/1816-4277-2023-1-199-206</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Sardiña et al. (2020)</t>
+          <t>Zakharov &amp; Шишкова (2023)</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Oral and maxillofacial disease: A model for interprofessional education and care</t>
+          <t>Managing the digital transformation of education as part of the Chinese national project of a “Great Unity” society</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>The patient with oral or maxillofacial disease may present to any of a variety of health care providers, including the general dentist, primary care physician, dermatologist, oral and maxillofacial surgeon, otolaryngologist/head and neck surgeon, or oral medicine specialist. Among these specialists, cumulative exposure to, and familiarity with, the management of oral and maxillofacial diseases varies. General dentists may be most comfortable with the management of dental caries and periodontal disease, including its advanced sequelae; primary care physicians with clinical findings in the context of systemic processes, such as infection; and dermatologists in the management of mucocutaneous disorders. The skills of the oral and maxillofacial surgeon and the otolaryngologist in performing tumor and bone biopsies are central to training in these specialties, whereas oral medicine specialists master the medical management of facial pain disorders, salivary gland hypofunction, and chronic oral mucosal conditions. Indeed, there is a lack of formal studies assessing patient outcomes in this multidisciplinary setting, and there are many instances of unnecessary patient referrals in search of the most appropriate treating clinician.1Pinto A Khalaf M Miller CS The practice of oral medicine in the United States in the twenty-first century: an update.Oral Surg Oral Med Oral Pathol Oral Radiol. 2015; 119: 408-415Abstract Full Text Full Text PDF PubMed Scopus (24) Google Scholar Apart from dental caries and periodontal disease, oral and maxillofacial diseases consist of nonodontogenic diseases native to the oral cavity; diseases native to organ systems of which the oral cavity may be considered an anatomic or physiologic part (such as skin, upper aerodigestive tract, and gastrointestinal tract); neuropathies; and gnathic disease, which is unique among skeletal diseases because of the supportive role of the jaws in facial growth and development. Patients expect to be appropriately managed by the provider to whom they present, even though the chief complaints often cross areas of expertise, such as pulsatile pain that may occur in the midface as a manifestation of a neurovascular headache, frictional hyperkeratoses in the oral mucosa that may resemble leukoplakia, or dermatologic disease affecting only the gingival and genital mucosae. Frequently, a specific diagnosis is elusive or could have several possible explanations, of which only some may be considered because of the specific training and experience level of the attending clinician.2Ni XG Wang GQ Hu FY et al.Clinical utility and effectiveness of a training programme in the application of a new classification of narrow-band imaging for vocal cord leukoplakia: a multicentre study.Clin Otolaryngol. 2019; 44: 729-735Crossref PubMed Scopus (10) Google Scholar Unique challenges in the management of the patient with oral or maxillofacial disease relate to the existence of disparate educational institutions with differing educational objectives, leading to different models of health care delivery. In dental curricula, for example, there is some exposure to oral and maxillofacial disease and clinical medicine, but competence is hindered by practice models and financial models of reimbursement emphasizing limited disease management (e.g., caries control and periodontal control). In medical curricula, exposure to oral and perioral diseases is variable, with no clear outcomes of education. Potential solutions, such as focused universal integration of the first 2 years of medical and dental undergraduate curricula or elimination of the dental doctoral degree and its redesignation as a medical specialty, are, in equal parts, appealing and idealistic. Furthermore, a successful interprofessional education model must include a vision for interprofessional practice, where the trainees will go into the field and practice, although this is a daunting task. Interprofessional education is tasked with recognizing the interdisciplinary opportunities that are present in clinical practice and developing long-term, durable methods for professional development that will lead to concrete improvements in patient care. Current models of health care delivery reveal not only opportunities for improvement but also insights into potential solutions. In the field of pathology, the development of subspecialty expertise over the past several decades has made significant contributions to improvements in clinical practice and advances in research.3Black-Schaffer WS Young RH Harris NL Subspecialization of surgical pathology at the Massachusetts General Hospital.Am J Clin Pathol. 1996; 106: S33-S42PubMed Google Scholar Dermatopathologists, head and neck pathologists, and oral and maxillofacial pathologists are just some of the subspecialists who provide expert diagnostic services for their respective clinical counterparts—dermatologists, head and neck surgeons/otolaryngologists, and oral and maxillofacial s</t>
+          <t>The article deals with the phenomenon of digital transformation of the Chinese educational space as the main component of knowledge management system in the society of “Great Unity”. Using the comparative, hermeneutic, historical and philosophical methods, the authors analyse three problem areas – social ideal, forecasting, and national education in China. The conclusion is made that the traditional project of a society of “Great Unity”, that is, the Confucian model of the ideal Datong society, can be transformed into a national foresight project. A well-developed educational system and equal access to education are the key components of this project, digitalization of education being the most important direction of the modern Chinese educational reform. Based on the findings of studies carried out during the COVID-19 pandemic and other materials, various trends in the current digitalization process are described. Historical features of and socio-cultural preconditions for the development of the educational system existing in China today are analysed. The authors conclude that the system rests on a solid socio-cultural foundation and is aimed towards the digital future of the Chinese society.</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2150417747</t>
+          <t>https://openalex.org/W2225093349</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>McFerson (2010)</t>
+          <t>Zhou et al. (2002)</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Poverty Among Women in Sub-Saharan Africa: A Review of Selected Issues</t>
+          <t>Stochastic Modelling of Daily Rainfall</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Abstract Gender discrimination resulting in greater poverty among women is widespread throughout the developing world. However, the incidence of women poverty, as well as its depth and their vulnerability, is particularly marked in Sub-Saharan African countries of the tropical belt, albeit with significant rural-urban differences. The article reviews the interaction of traditional restrictions on women property rights, weak governance and violent civil conflict in perpetuating gender discrimination and women poverty in those countries. Statistics show some progress in women development indicators in Sub-Saharan Africa during the last decade, partly associated with improvements in governance and the end of civil war in some countries. Consolidating and advancing this progress requires targeted initiatives that take into account the circumstances of different groups of women while also encouraging the formation of bridging networks among groups and the provision of greater openings for women's voice. Keywords: Poverty, Gender and development, Africa, Governance, civil conflict, human rights, property rights was there before I was born and it has become part of life like the blood through my veins ... Poverty is watching your own children and grandchildren die in your arms but there is nothing you can do ... I know poverty just like I know my father's name. Poverty never sleeps. Poverty never takes a holiday. (1) Introduction The 'feminization of poverty' is a feature of much of the developing world, with females accounting for half of the world's population but 70 percent of the poor (Moghadam, 2005) (2) This article reviews major causal factors of poverty among women in Sub-Saharan Africa--mainly rural women in the countries of the tropical belt. (3) Of course, there are significant differences in the condition of different groups of women in the various countries. However, they share a common predicament, rooted in the interaction of three major factors: weak governance, traditional restrictions on women property rights, and violent civil conflict. Although each of these factors has been present at one time or another elsewhere, it is only in Sub-Saharan Africa that all three have been present in contemporary times--as shown among others by Collier, 2007, Cornwall, 2005, and Gordon, 1996. This interaction has had a severe negative impact on the status, condition and welfare of women in Sub-Saharan Africa (hereafter simply Africa). The aspects of poverty Poverty results in hunger, lack of shelter, illiteracy, inadequate health care, and so on, but is not defined fully by any of them. The proximate causes of poverty include one or more of the following: low income; low assets (whether physical or human capital); lack of opportunities (whether from adverse location or other reasons); and social exclusion (often but not always associated with ethnic minorities). The worst forms of poverty are those that combine all four of these aspects: income poverty, asset poverty, opportunities poverty, and access poverty. Accordingly, a distinction must be made between contingent poverty and structural poverty. Contingent poverty occurs as the result of a specific adverse event--e.g., a sharp rise in food or fuel prices, a natural disaster, and the like. Contingent poverty is inherently temporary (although the event may well cause households to fall into permanent poverty), and is reversible as soon as the adverse event ceases, albeit at a non-recoverable cost owing to the need for transitional sacrifices and adjustments. The appropriate policy response to contingent poverty is to address the effects of the adverse event and stimulate general economic activity and growth in the affected area. (a rising tide lifts all boats ...). Structural poverty, by contrast, is deeply rooted in the economic, social and political fabric of the country, and no general policy of economic stimulus or investment will succeed in reducing it (. …</t>
+          <t>Stochastic generation of rainfall data offers an alternative to the use of observed records. This paper presents an evaluation of daily rainfall generation models at 21 stations across Australia. The models are the Transition Probability Matrix (TPM) method, the Daily and Monthly Mixed (DMM) algorithm, and a variation of each model. A goal of stochastic modelling is to generate synthetic data that are representative of the statistical characteristics of the historical data. One hundred replicates of length equal to the historical data were generated using the above models. Preliminary assessment of the models suggests that DMM models were unable to preserve the amounts of rainfall on solitary wet days and the TPM model needed to be modified by the empirical adjustment factor to preserve the annual variability.</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4200074825</t>
+          <t>https://openalex.org/W3031311452</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.cub.2021.11.041</t>
+          <t>https://doi.org/10.1177/1750698020921455</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Fiete (2021)</t>
+          <t>Robinson (2020)</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Ila Fiete</t>
+          <t>‘We have long memories in this area’: Ulster Defence Regiment place-memory along the Irish border</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Interviewed by Maxine Herman-Oakley Mills Ila Fiete is Professor of Brain and Cognitive Sciences at Massachusetts Institute of Technology, an Associate Member of the McGovern Institute, and the Director of the K. Lisa Yang Integrative Computational Neuroscience Center. Before joining MIT in 2018, Ila worked at the University of Texas at Austin, where she first started her group and joined the faculty as an Assistant Professor, working in the Center for Learning and Memory as well as the Department of Neuroscience. Prior to UT Austin, Ila completed her postdoctoral training first at the Kavli Institute for Theoretical Physics at the University of California, Santa Barbara and then as a Broad Fellow at the California Institute of Technology. Ila has a PhD from the Department of Physics at Harvard, though her research already involved work in neuroscience with Sebastian Seung at this time, and she completed her undergraduate work at the University of Michigan in Ann Arbor, studying physics and mathematics, as well as philosophy. Before this, Ila studied primarily in various places in Mumbai (formerly Bombay) in India where she grew up, spending much of her elementary, middle, and high school years going back and forth between Mumbai and Princeton and Berkeley, both in the US, as a result of her father’s work. Her group is interested in trying to understand the microscopic cellular and synaptic dynamics, principles, and processes that give rise to the rich behaviors of memory and cognition in the brain, trying to determine how interesting functions and memory emerge from these very low-level interactions. Over the last decade and a half the group has studied spatial navigation circuits, which provide a unique insight into cognitive computations while also allowing the team to address questions at the cellular and circuit levels. What turned you on to physics and biology in the first place? Of all the sciences, I was always most intrigued by biology, even as a child. I didn’t study biology seriously during my undergraduate work or even at the beginning of graduate school because I didn’t know if there was a path in biology that involved more computational and mathematical approaches. I felt like my drive to be a scientist was to do more analytical or theoretical work and, as I did not have exposure to any theoretical work in biology, I had no idea that this was a possible option. So I continued in math and physics. When I went to graduate school to study physics, I hoped that there might be a path into biophysics. Quite accidentally, as I was looking around for something to do in biology, I ended up taking a class at MIT taught by Sebastian Seung. It was a computational systems biology class that surveyed many different topics but approached them in a computational way, aiming to understand things like gene–protein interactions, regulation systems, molecular binding kinetics, and cell-molecular circuits, as well as a little bit of neuroscience at the end. I really enjoyed that class. It was finally the exact space that I wanted to work in and I thought Sebastian was an amazing person and teacher, so I asked to join his group, not knowing much of anything about neuroscience. So your time in Sebastian’s group really helped to decide the future direction of your studies? Yes, very much so. Sebastian is actually a physicist — a theoretical physicist by training. That’s probably in part why the way he taught that class resonated with me: we had a common background, though by that point he had already moved fully into working on statistical learning theory and computational neuroscience. So, in joining his group, I had essentially made the decision — though without knowing exactly what that meant at the time — that I would be working in computational neuroscience as well. It was a fascinating field and it gripped me immediately. Ever since then, I haven’t looked back; this was where I learned about neurons and computational neuroscience for the first time and this is the area that I have been working in ever since. Are there any mentors beside Sebastian who had a great impact on you? Yes, so many along my whole journey. There have always been academic mentors and teachers who have had a tremendous influence on me. They are examples of the importance of having someone in such a position who believes in you. I would say that some of the earliest influences I remember go all the way back to middle school, to teachers who nurtured my interests in Science or English or Art — those teachers who convey the faith that you have something to contribute. This is a huge encouragement, so a big shout out to Ms Stone from my middle school days in Mumbai, as well as Ms Stangl and Mr Collins from Huron High, Ann Arbor. These are people who are amazing and fun teachers — who just make learning enjoyable — and I really wish that more kids could have this kind of opportunity to really enjoy their STEM subjects and various others; I thin</t>
+          <t>A large body of literature assumes post-conflict societies can and should mediate public memory towards frames conducive to a reconciled future. However, this article argues that such a drive marginalises survivors of political violence who narrate the past as still-present wounds. The linear temporality of transitional justice presumes an idealised trajectory through time, away from violence and towards reconciliation. However, this idealised temporality renders anachronistic survivors who depend on the prolongation of traumatic pasts for the possibility of political change. Using the case of former Ulster Defence Regiment in Northern Ireland, this article examines this prolongation through the lens of Ulster Defence Regiment survivors’ resistant place-memory along the Southwest run of the Irish border. Through the performative retemporalisation of everyday places and landscapes, survivors demand that their resistant memories and narrative frames of past violence still belong and still have active political resonance in transitional political space.</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2154409306</t>
+          <t>https://openalex.org/W2789539424</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1177/0049085712468134</t>
+          <t>https://doi.org/10.1097/01.cot.0000480388.59885.19</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Gullapalli &amp; Paltrowitz (2012)</t>
+          <t>Fuerst (2016)</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Transforming Clinical Legal Education: An Opening for Dialogue</t>
+          <t>Study</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Clinical legal education has the potential to both utilise law students as agents of social change in India and create future lawyers dedicated to social, economic, political and legal justice. However, to serve these ends, the current system of clinical legal education requires a fundamental transformation. This article advocates legal education in which clinical components involve intense action aimed at positively serving traditionally marginalised segments of society and in which social justice principles permeate the entire law school experience. The article thus hopes to spark a conversation about steps to take towards such a transformation by outlining and discussing multiple alternative models and ideas related to a clinical legal education programme.</t>
+          <t>FigureFigureORLANDO, Florida—Community oncologists are not following practice guideline recommendations on anticoagulant treatments for cancer-associated thrombosis, and the reasons relate to costs and patient preference for medications other than low-molecular-weight heparin (LMWH). That is the conclusion of a study reported here at the American Society of Hematology Annual Meeting (Abstract 626). The lead researcher, Alok A. Khorana, MD, a medical oncologist at the Cleveland Clinic, explained that therapeutic options for the management of venous thromboembolism (VTE) in patients with cancer include LMWH, warfarin, and recently, the addition of direct oral anticoagulants. Randomized trials have established the superiority of LMWHs over warfarin, and current guidelines therefore recommend anticoagulation with LMWH monotherapy for three to six months, and possibly indefinitely, for patients with active cancer. However, cost and patient preference may lead to non-compliance with these recommendations: “One big reason oncologists do not comply with guidelines is cost,” he said. “In the U.S., it may cost a few thousand dollars per month for injectable anticoagulants. Insurers cover injectable anticoagulants differently than for oral medications; direct-to-patient costs are substantially higher for injectable anticoagulants.” Another issue is patient preference. “Some patients do not want to inject themselves—Some hospitals are set up to teach cancer patients how to do the injections, and others are not.” Study Details For the study, he and his colleagues set out to describe current treatment patterns and evaluate patient persistence on various anticoagulants among cancer patients treated for acute VTE. The team analyzed medical and pharmacy claims from the Humana Database for 2,419 newly diagnosed cancer patients who had their first VTE from 2013 through 2014. Included were patients who had been prescribed one or more anticoagulant agents within 30 days after their VTE diagnosis. Based on the first anticoagulant agent received, patients were classified into four cohorts: LMWH, LMWH/warfarin, warfarin, and rivaroxaban. There was equal distribution in prescriptions, and the type of index VTE was similar, and about 90 percent of the patients had solid tumors across all four cohorts. Clear Difference in Pattern of Anticoagulant Transition A clear difference in the pattern of anticoagulant transition emerged: Nearly one-quarter of patients taking LMWH (23%) switched to another anticoagulant, compared with only about nine percent of those taking LWMH/warfarin, 7.3 percent of those taking warfarin, and 4.7 percent of those on rivaroxaban. Data on the persistence on the initial anticoagulant showed that patients on LMWH were more likely to switch to another treatment: “LMWH had the least amount of persistence,” Khorana said. The median time duration of LMWH was 3.3 months compared with about eight months with the other treatments. “Compared with LMWH, LMWH/warfarin, warfarin, and rivaroxaban users were significantly less likely to discontinue their initial therapy. “Despite guideline recommendations, warfarin remains dominant and is widely used,” he said. “Rivaroxaban and LMWH are nearly equally utilized for the initial treatment, and LMWH use is associated with significantly lower persistence and shorter duration of treatment compared with warfarin or rivaroxaban. Patients initiating LMWH are more likely to switch to other anticoagulants compared with patients starting on warfarin or rivaroxaban.” Further studies are necessary to optimize anticoagulant use in this setting, he said, noting that five years ago compliance rates were even lower, with only about five to 10 percent of such patients taking LMWH. Risk-Adaptive Approach Khorana suggested that clinicians take a risk-adaptive approach to care: “Those at high risk of recurrent VTE should use LMWH. Those at low risk are fine to use either oral agent.” Tissue factor may also help predict which patients are likely to have disease recurrence. New studies show that those patients with high tissue factor can use LMWH safely and those with low tissue factor may be better off with an oral anticoagulant, he said. “If you prescribe oral agents, make sure your patients are fully informed that they are not as well proven as LMWH.” In an interview, the moderator of the session that included the study, Marc Carrier, MD, Associate Professor of Medicine at the University of Ottawa, called the differences in practice variation uncovered “insightful”—“There is a discrepancy between what has been recommended and what is happening in the real world. The guidelines are not working, and not translating into clinical practice,” he said. “As clinicians, we need to do a better job of telling our patients why they should be compliant with the guidelines as much as possible. Clinicians need to know that patients who stick to LMWH for at least three to six months have a better outcome, with</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2124284644</t>
+          <t>https://openalex.org/W1482612276</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1091/mbc.e11-09-0743</t>
+          <t>https://doi.org/10.1163/2468-1733_shafr_sim170170058</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Kellogg &amp; Drubin (2011)</t>
+          <t>Allison (2017)</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>&lt;i&gt;MBoC&lt;/i&gt; 2011: same values, improved feng shui</t>
+          <t>Military Justice in Vietnam: The Rule of Law in an American War</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Molecular Biology of the CellVol. 22, No. 21 EditorialFree AccessMBoC 2011: same values, improved feng shuiDouglas R. Kellogg, and David G. DrubinDouglas R. KelloggSearch for more papers by this author, and David G. DrubinSearch for more papers by this authorPublished Online:13 Oct 2017https://doi.org/10.1091/mbc.e11-09-0743AboutSectionsView PDF ToolsAdd to favoritesDownload CitationsTrack Citations ShareShare onFacebookTwitterLinked InRedditEmail INTRODUCTIONMolecular Biology of the Cell (MBoC) was conceived nearly 20 years ago as a journal that would be run by and for cell biologists under the auspices of the American Society for Cell Biology (ASCB). The goal was to provide the cell biology community with a journal that would enhance scientific communication among cell biologists by providing authors with rapid, rigorous, constructive, and fair peer review, as well as editorial decisions that were not constrained by journal space or perceived trends. Over the years, MBoC has come to epitomize these values and in so doing has become a pillar of the cell biology community. Today, the values remain the same, but as MBoC heads into its twentieth year we are happy to highlight what we are doing to be more essential and relevant than ever. ASCB ANNUAL MEETING ISSUE AND COVERAGEThis issue is MBoC's third annual special issue focused on the ASCB Annual Meeting. It includes a collection of fascinating essays by the recipients of the E. B. Wilson Medal, the Keith Porter Award, the Women in Cell Biology Awards, the E. E. Just Award, and the Early Career Life Scientist Award. Together with invited Perspective and Retrospective essays by other prominent cell biologists, these articles provide insight into research careers, education, mentoring, diversity, science advocacy, and how key discoveries were made.In addition, for the second year in a row, we have invited chairs of the ASCB Annual Meeting Minisymposia to write reviews of their sessions. These will be published early in 2012. A REVAMPED WEBSITEIn August, MBoC launched a new and improved website (www.molbiolcell.org). In addition to a more contemporary look, better and more flexible use of screen real estate, and enhanced functionality, the new website includes links to sites with information about careers, education, ASCB events, and cell biology resources. Other new features and functionality will be added in the coming months.A NEW DESIGNEarly this year MBoC rolled out a new design for the “print” (PDF) versions of articles and for the journal's cover and front matter. We've received positive feedback; users have commented that the new look makes articles more inviting and easier to read.EXPECTATIONS FOR RIGOROUS AND CONSTRUCTIVE PEER REVIEWMBoC published an Editorial (Drubin, 2011) about the peer review process, which included a set of guidelines for how editors and reviewers can ensure that papers submitted to MBoC receive a rigorous, constructive, and fair review. This editorial received an extraordinary response from the community. It is clear that many scientists are frustrated with the current state of peer review and that MBoC can be an important part of the solution.FEATURE ARTICLESIn 2010 MBoC started publishing Features articles on topics of interest to the cell biology community. These have focused on a broad range of topics, including how to carry out quantitative binding assays, the role of National Institutes of Health Program Directors, meeting reviews, how to support innovation and translational research, and the transformational role of deep sequencing techniques in Caenorhabditis elegans genetics. The Features articles provide the cell biology community with a forum for communicating new ideas about topics such as research, mentoring, careers, and cell biology techniques.A VENUE FOR PAPERS WITH A THEORETICAL COMPONENTMBoC recognizes that theoretical approaches will increasingly be necessary to unlock some of the most interesting and challenging mysteries in cell biology. To encourage and support publication of articles with a theoretical component, MBoC published an Editorial from a group of experts that outlined guidelines for preparing theoretical papers (Mogilner et al., 2011). In addition, MBoC published a Features article that provided advice on when a project will benefit from theoretical approaches (Fletcher, 2011).With these improvements, we anticipate that MBoC will do even better at serving the ASCB community. As always, we welcome suggestions for further improvements, as well as suggestions for new Features articles. This is your journal, so let us know how MBoC can best serve your needs!FOOTNOTES10.1091/mbc.E11-09-0743Douglas R. Kellogg is the Features Editor of Molecular Biology of the Cell. David G. Drubin is Editor-in-Chief.ACKNOWLEDGMENTSWe thank the ASCB Award winners for their excellent contributions to this volume. We also thank Larry Goldstein, Ted Salmon, and Clare Waterman for contributing excellent articles on science</t>
+          <t>The My Lai Massacre was the most publicized incident subjected to military law during the Vietnam War, but military lawyers in all the service branches had their hands full with less-publicized desertions, drug use, rapes, fraggings, black marketeering, and even small claims. William Allison reveals how the military justice system responded to crimes and infractions both inside and outside the combat zone and how it adapted to an unconventional political, military, and social climate as American involvement escalated. In taking readers to war-torn Vietnam, Allison's study depicts a transitional period in the history of the Uniform Code of Military Justice, which was revised in 1968. Reflecting American beliefs in discipline and efficiency in military operations, the Code and its implementation were viewed as an integral facet of pacification and counterinsurgency programs. As Allison makes clear, military law and justice in Vietnam were not intended merely as behavioral controls but were also promoted to the Vietnamese as American ideals: respect for the rule of law and an example of the best that democracy had to offer. American military law and lawyers made near - daily contact with the Vietnamese people, and those interactions open an unusual window on the war and also shed light on contemporary military operations and nation-building missions. Based on deep research into wartime archives and interviews with participants in that conflict (including his own father, a Marine Corps lawyer who served in Vietnam), Allison offers a reflective and well-rounded picture of daily life for military lawyers in Vietnam. That portrait also illuminates the complexities of trying to impose military law and justice on a foreign culture not accustomed to Western-style democracy. As Allison shows, while the difficulties were great and military justice may have fallen short of its goals, as in the My Lai case, military lawyers conducted themselves with honor in Vietnam. And as military crimes in Iraq dominate today's news and military justice in a combat zone continues to challenge our democratic ideals, his book provides critical insight into the historical process that underlies American military law today.</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2282583068</t>
+          <t>https://openalex.org/W2803295473</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1155/2018/9257121</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Seibel &amp; Nel (2010)</t>
+          <t>Li &amp; Yin (2018)</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Generation X, intergenerational justice and the renewal of the traditioning process : original research</t>
+          <t>Design of Output-Input Inversed Polarity Pulse Power Divider for Ultra-Wideband Communications</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>The church has the task of transmitting its faith tradition from one generation to the next. In the transition to postmodernity, many established congregations have proven to be ineffective at this traditioning process in relation to Generation X (Gen X), the first postmodern generation. The reasons for the ineffectiveness are complex. This article focuses on two key factors that contribute to the problem : the reduction of the church's tradition to its particular expression within the culture of modernity and the marginalisation experienced by Gen Xers within many established churches. The latter has prevented them from becoming effective bearers of the church's tradition. If this trend is to be reversed, churches should succeed in renewing their traditions in a way that is meaningful in a postmodern context. The challenge will be to overcome the dynamics of reductionism and marginalisation. In developing the argument, the jubilee themes of 'return' and 'release' are applied to the intergenerational dynamics of established congregations. The article concludes that local congregations should embrace a renewed commitment to intergenerational justice, which will encourage equity between the generations.</t>
+          <t>The implementation of a output-input inverse polarity pulse power divider based on the use of a SMA directly feed asymmetric coplanar stripline phase inverter for ultra-wideband communication is proposed. The novelty of the proposed power divider can be demonstrated that the electromagnetic energy guided by the CPW divides naturally into the slots of two asymmetric coplanar striplines and the polarity of the input pulse be reversed by asymmetric coplanar stripline to SMA transition. SMA connectors are mounted directly to the output asymmetric coplanar striplines and seven pairs of metal rods are soldered vertically to the substrate with seven resistors on top for improving the isolation and matching performance. The simulated and measured result in frequency domain agree well showing equal power division with less than 2 dB of additional insertion loss and in-phase for the outputs ports across the desired band of 0.4 GHz to 4.0 GHz (one decade) which indicates an ultra-wideband feature. The return loss for all the ports and the isolation between the two output ports are better than 10 dB which demonstrates good matching and isolation performance. To illustrate the short pulse performance of the proposed power divider, Inverse Fourier Transformation is used to calculate the input and output signals. The Gaussian pulse with a −10 dB bandwidth is utilized as the stimulus signal and the port signals in time domain are derived from the measured scattering parameters and discussed. Time domain results show that the same magnitude of the pulse is obtained between the two outputs and the polarity of the output pulse has been inversed compared to the input one. Simulated and measured results in both frequency and time domain agree well and show the feasibility and validity of the proposed power dividers.</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4313393268</t>
-        </is>
-      </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.25158/l11.2.8</t>
+          <t>https://openalex.org/W2906851700</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Collective et al. (2022)</t>
+          <t>Os &amp; Delespaul (2018)</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Autistic, Surviving, and Thriving Under COVID-19</t>
+          <t>[A valid quality system for mental health care: from accountability and control in institutionalised settings to co-creation in small areas and a focus on community vital signs].</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>This article takes up Mia Mingus' call to 'leave evidence' of how we have lived, loved, cared, and resisted under ableist neoliberalism and necropolitics during COVID-19. We include images of artistic work from activist zines created online during the COVID-19 pandemic and led by the Re•Storying Autism Collective. The zines evidence lived experiences of crisis and heightening systemic and intersectional injustices, as well as resistance through activist art, crip community, crip knowledges, digital research creation, and the forging of collective hope for radically inclusive autistic futures—what zine maker Emily Gillespie calls 'The neurodivergent, Mad, accessible, Basic Income Revolution.' We frame the images of artistic work with a coauthored description of the Collective's dream to create neurodivergent art, do creative research, and work for disability justice under COVID-19. The zine project was a gesture of radical hope during crisis and a dream for future possibilities infused with crip knowledges that have always been here. We contend that activist digital artmaking is a powerful way to archive, theorize, feel, resist, co-produce, and crip knowledge, and a way to dream collectively that emerged through the crisis of COVID-19. This is a new, collective, affective, and aesthetic form of evidence and call for 'forgetting' ableist capitalist colonialism and Enlightenment modes of subjectivity and knowledge production that target different bodies to exploit, debilitate, and/or eliminate, and to objectify and flatten what it means to be and become human and to thrive together.</t>
+          <t>In a given year, around 25% of the Dutch population may experience significant mental health problems, much more than the mental health service can attend to, given a maximum capacity of 6% of the population per year. Due to the lack of a public mental health system, there is fierce competition over who gets to receive care from mental health services and little control over how the level of needs can be matched with the appropriate intensity of care. As a result, resources are being wasted and both overtreatment and undertreatment are prevalent.&lt;br/&gt; AIM: To propose a valid quality system that benefits the mental health of the entire population and does not simply attend to the symptoms of a strategically selected group.&lt;br/&gt; METHOD: Literature review from an epidemiological and public mental health perspective.&lt;br/&gt; RESULTS: In our view, a valid quality system for mental health care needs to focus on two distinct areas. The first area involves the analysis of about 20 quantitative population parameters or 'Community Vital Signs' (care consumption, pharmaco-epidemiological indicators, mortality, somatic morbidity, social care, housing, work, benefits, involuntary admissions). This analysis will reveal regional variation in the mental health of the entire population rather than in the relatively small, selected group receiving mental health care. The second area to which attention needs to be directed comprises a system of simple qualitative visits to mental health care institutions based on 10 quality parameters that currently remain invisible; these parameters will measure the impact at local community level. The focus of these will be on a transition from accountability and control in large institutions to provision of care in small areas that was co-designed with users and other stakeholders.&lt;br/&gt; CONCLUSION: A valid quality system for mental health care is within reach, provided it is combined with a novel system of public mental health and transition of care to a system of co-design with users in small areas.</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4247653212</t>
+          <t>https://openalex.org/W3033656380</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1353/cri.0.0178</t>
+          <t>https://doi.org/10.1016/j.oooo.2020.04.812</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Hayford (2009)</t>
+          <t>Sardiña et al. (2020)</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>&lt;i&gt;Negotiating with the Enemy: U.S.-China Talks During the Cold War, 1949–1972&lt;/i&gt; (review)</t>
+          <t>Oral and maxillofacial disease: A model for interprofessional education and care</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Reviewed by: Negotiating with the Enemy: U.S.-China Talks During the Cold War, 1949–1972 Charles W. Hayford (bio) Yafeng Xia . Negotiating with the Enemy: U.S.-China Talks During the Cold War, 1949–1972. Bloomington: Indiana University Press, 2006. xv, 328 pp. 4 maps, chronology. Hardcover $45.00, ISBN 978-0-253-34758-9. A respected diplomatic historian declared that if "diplomacy" is "the process of negotiation and dialogue by which states in a system conduct their relations," then "it can be said that the United States had no meaningful diplomacy with Communist adversaries through long stretches of the Cold War."1 Xia Yafeng disagrees. This deeply researched and clearly organized monograph argues that communication between the governments of the United States and the People's Republic was continual, though perhaps "negotiation" might be a slight exaggeration and often "dialogue" was only the exchange of rebarbative monologues. Xia tells a story of intrigue, subterfuge, frustration, courage, and massive hypocrisy. But he shows "how the two sides eventually came to grips with mutual differences and slowly but surely learned to engage each other productively" (p. 4). Xia analyzes the structural shifts in balance of power as perceived on either side but insists that diplomacy—that is, the process of personal negotiation—in the end made a difference. He optimistically concludes that "self-learning and mutual learning" led to the diplomatic coup in 1972. Disaster was, indeed, avoided, but success still seems, in the famous words of Wellington after his victory at Waterloo, "a damn close run thing." Before coming to the United States for doctoral training, Xia was a diplomat in the Chinese Foreign Service, serving in Washington from 1995 to 1998. Being an insider, although of junior rank, gave him access to gossip, extensive interviews, and, even more important, a certain feel for how the flow of events inside China's "diplomatic establishment" interacted with international politics and domestic issues. Xia made knowledgeable use of recently opened archives in China (others are still closed), copious memoirs, semi-official biographies, compilations of documents, and scholarly studies in Chinese and English. The first question is how the friends in the anti-Japanese war became enemies in the Cold War. While Xia does not buy the argument that there was a "lost chance" for continued friendly relations, he is also careful to show that there was no inevitability that hostility would reach the level that it did. New China would "lean to one side," said Zhou Enlai, but suggested that American policy would determine just how far the lean would go. The State Department hoped to split the new regime into pro- and anti-Soviet factions. Zhou refused the bait, as the American position was based on a condescending and much resented assumption that China was a weak and supplicant nation. [End Page 435] The disastrous Korean armistice talks were followed by the creation of a "special channel" through the embassies in Poland, which lasted through the 1960s. Several chapters detail the period of mutual hostility and self-sabotage in which neither side acted in its own rational self-interest. Nonetheless, as the relative power of the two nations began to shift, mid-level diplomats on either side began to develop a cohesive set of insights and skills. Each side was forced to think clearly and to distinguish what it wanted, what it needed, and what it would settle for. This was often a matter of fanmian jiaocai, "learning from negative example," bringing to mind the American State Department apothegm "Good judgment is usually the result of experience. And experience is frequently the result of bad judgment." By the mid 1960s, the stage was set and the curtains parted on a new act. The story moves briskly without losing sight of the structural analysis of the international situation. Xia's Chinese sources provide fresh force and nuance to the familiar story. He reasserts that in the early 1960s Kennedy and Johnson were working toward a normalization that was delayed first by Kennedy's assassination, then by Johnson's escalation of the Vietnam War, and finally by the outbreak of the Cultural Revolution. One can observe that perhaps it was just as...</t>
+          <t>The patient with oral or maxillofacial disease may present to any of a variety of health care providers, including the general dentist, primary care physician, dermatologist, oral and maxillofacial surgeon, otolaryngologist/head and neck surgeon, or oral medicine specialist. Among these specialists, cumulative exposure to, and familiarity with, the management of oral and maxillofacial diseases varies. General dentists may be most comfortable with the management of dental caries and periodontal disease, including its advanced sequelae; primary care physicians with clinical findings in the context of systemic processes, such as infection; and dermatologists in the management of mucocutaneous disorders. The skills of the oral and maxillofacial surgeon and the otolaryngologist in performing tumor and bone biopsies are central to training in these specialties, whereas oral medicine specialists master the medical management of facial pain disorders, salivary gland hypofunction, and chronic oral mucosal conditions. Indeed, there is a lack of formal studies assessing patient outcomes in this multidisciplinary setting, and there are many instances of unnecessary patient referrals in search of the most appropriate treating clinician.1Pinto A Khalaf M Miller CS The practice of oral medicine in the United States in the twenty-first century: an update.Oral Surg Oral Med Oral Pathol Oral Radiol. 2015; 119: 408-415Abstract Full Text Full Text PDF PubMed Scopus (24) Google Scholar Apart from dental caries and periodontal disease, oral and maxillofacial diseases consist of nonodontogenic diseases native to the oral cavity; diseases native to organ systems of which the oral cavity may be considered an anatomic or physiologic part (such as skin, upper aerodigestive tract, and gastrointestinal tract); neuropathies; and gnathic disease, which is unique among skeletal diseases because of the supportive role of the jaws in facial growth and development. Patients expect to be appropriately managed by the provider to whom they present, even though the chief complaints often cross areas of expertise, such as pulsatile pain that may occur in the midface as a manifestation of a neurovascular headache, frictional hyperkeratoses in the oral mucosa that may resemble leukoplakia, or dermatologic disease affecting only the gingival and genital mucosae. Frequently, a specific diagnosis is elusive or could have several possible explanations, of which only some may be considered because of the specific training and experience level of the attending clinician.2Ni XG Wang GQ Hu FY et al.Clinical utility and effectiveness of a training programme in the application of a new classification of narrow-band imaging for vocal cord leukoplakia: a multicentre study.Clin Otolaryngol. 2019; 44: 729-735Crossref PubMed Scopus (10) Google Scholar Unique challenges in the management of the patient with oral or maxillofacial disease relate to the existence of disparate educational institutions with differing educational objectives, leading to different models of health care delivery. In dental curricula, for example, there is some exposure to oral and maxillofacial disease and clinical medicine, but competence is hindered by practice models and financial models of reimbursement emphasizing limited disease management (e.g., caries control and periodontal control). In medical curricula, exposure to oral and perioral diseases is variable, with no clear outcomes of education. Potential solutions, such as focused universal integration of the first 2 years of medical and dental undergraduate curricula or elimination of the dental doctoral degree and its redesignation as a medical specialty, are, in equal parts, appealing and idealistic. Furthermore, a successful interprofessional education model must include a vision for interprofessional practice, where the trainees will go into the field and practice, although this is a daunting task. Interprofessional education is tasked with recognizing the interdisciplinary opportunities that are present in clinical practice and developing long-term, durable methods for professional development that will lead to concrete improvements in patient care. Current models of health care delivery reveal not only opportunities for improvement but also insights into potential solutions. In the field of pathology, the development of subspecialty expertise over the past several decades has made significant contributions to improvements in clinical practice and advances in research.3Black-Schaffer WS Young RH Harris NL Subspecialization of surgical pathology at the Massachusetts General Hospital.Am J Clin Pathol. 1996; 106: S33-S42PubMed Google Scholar Dermatopathologists, head and neck pathologists, and oral and maxillofacial pathologists are just some of the subspecialists who provide expert diagnostic services for their respective clinical counterparts—dermatologists, head and neck surgeons/otolaryngologists, and oral and maxillofacial s</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2902674901</t>
+          <t>https://openalex.org/W3177888300</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1140/epja/s10050-022-00697-8</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Tukaram (2015)</t>
+          <t>Lv et al. (2022)</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>The Study of Nature of Dr. Babasaheb Ambedkar’s Constitution and its Contribution for Justice, Freedom, Empowerment of Women’s and Depressed Strata</t>
+          <t>Phase-dependent cross sections of deuteron-triton fusion in dichromatic intense fields with high-frequency limit</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>The present article mainly subjected to focus on Babasaheb’S constitutional contribution, women’s empowerment and oppressed section by rule of. Dr.Babasaheb Bhimarao Ramji Ambedkar popularly known as Dr.B.R.Ambedkar was born in1891 was a multifaceted personality, an intellectual revolutionary, a ray of hope fordowntrodden in India and a statesman of the 20th century. The father of constitution equates all the citizens on the same platform, this is the only expression of Babasaheb’s broad view in all the spheres constitutional foundation this attitude distinguish him from all the constitution makers in the world. He was the beacon of light for the millions of depressed, oppressed and exploited people of India. Dr .B. R. Ambedkar’s mission in his life was to challenge the ideological foundations of graded system of caste hierarchy that denied equality, freedom and human dignity to women in Hindu society, but his drown documents as the living documents i.e. Indian Constitution brings the equality by the rule of law in this nation. As he defined the constitution in his own language, the constitution is not the mere lawyer’s document, it is the vehicle of life, and its spirit is always the spirit of age. Through the constitutional way he gave the freedom and justice to all, and in all spheres of life such as Social Justice, Economic Justice and Political Justice. As architects of the Constitution have made this arrangement of justice very intelligently. There cannot be economic justice and political justice without social justice. Indian Society composed of castes, class’s religion and race. There happened the discrimination among Indians themselves on this basis. Therefore, the constitution is bound to cultivate healthy, social attitude among people and the state must be welfare state accordingly. Adaptation and enactment of constitution is biggest social, economical and political revolution in India</t>
+          <t>We investigate the influence of strong dichromatic laser fields (i.e. 1{\omega}-2{\omega} and 1{\omega}-3{\omega}) with high-frequency limit on the cross sections of deuteron-triton(DT) fusion in Kramers-Henneberger(KH) frame. We focus on the transitions of phase-dependent effects depending on a dimensionless quantity n_{d} , which equals the ratio of the quiver oscillation amplitude to the geometrical touching radius of the deuteron and triton as defined in our previous research. Theoretical calculations show that the angle-dependent as well as phase-dependent Coulomb barrier penetrabilities can be enhanced in dichromatic intense fields, and the corresponding angle-averaged penetrabilities and the fusion cross sections increase significantly compared with field-free case. Moreover, we find that there are twice shifts of the peak in the cross sections whenever the frequency becomes sufficiently low or the intensity sufficiently high. The reason for the first shift is the angle-dependence effects for sub-barrier fusion, while the second shift is due to the accumulation of over-barrier fusion, these mechanisms are analyzed in detail in this paper.</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2118823045</t>
+          <t>https://openalex.org/W3115847095</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1074/jbc.m115.676239</t>
+          <t>https://doi.org/10.1016/j.intermet.2020.107063</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Olivares &amp; Henkel (2015)</t>
+          <t>Yan et al. (2021)</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Hepatic Xbp1 Gene Deletion Promotes Endoplasmic Reticulum Stress-induced Liver Injury and Apoptosis</t>
+          <t>A strategy of optimizing magnetism and hysteresis simultaneously in Ni–Mn-based metamagnetic shape memory alloys</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Endoplasmic reticulum (ER) stress activates the unfolded protein response (UPR), a highly conserved signaling cascade that functions to alleviate stress and promote cell survival. If, however, the cell is unable to adapt and restore homeostasis, then the UPR activates pathways that promote apoptotic cell death. The molecular mechanisms governing the critical transition from adaptation and survival to initiation of apoptosis remain poorly understood. We aim to determine the role of hepatic Xbp1, a key mediator of the UPR, in controlling the adaptive response to ER stress in the liver. Liver-specific Xbp1 knockout mice (Xbp1LKO) and Xbp1fl/fl control mice were subjected to varying levels and durations of pharmacologic ER stress. Xbp1LKO and Xbp1fl/fl mice showed robust and equal activation of the UPR acutely after induction of ER stress. By 24 h, Xbp1fl/fl controls showed complete resolution of UPR activation and no liver injury, indicating successful adaptation to the stress. Conversely, Xbp1LKO mice showed ongoing UPR activation associated with progressive liver injury, apoptosis, and, ultimately, fibrosis by day 7 after induction of ER stress. These data indicate that hepatic XBP1 controls the adaptive response of the UPR and is critical to restoring homeostasis in the liver in response to ER stress. Endoplasmic reticulum (ER) stress activates the unfolded protein response (UPR), a highly conserved signaling cascade that functions to alleviate stress and promote cell survival. If, however, the cell is unable to adapt and restore homeostasis, then the UPR activates pathways that promote apoptotic cell death. The molecular mechanisms governing the critical transition from adaptation and survival to initiation of apoptosis remain poorly understood. We aim to determine the role of hepatic Xbp1, a key mediator of the UPR, in controlling the adaptive response to ER stress in the liver. Liver-specific Xbp1 knockout mice (Xbp1LKO) and Xbp1fl/fl control mice were subjected to varying levels and durations of pharmacologic ER stress. Xbp1LKO and Xbp1fl/fl mice showed robust and equal activation of the UPR acutely after induction of ER stress. By 24 h, Xbp1fl/fl controls showed complete resolution of UPR activation and no liver injury, indicating successful adaptation to the stress. Conversely, Xbp1LKO mice showed ongoing UPR activation associated with progressive liver injury, apoptosis, and, ultimately, fibrosis by day 7 after induction of ER stress. These data indicate that hepatic XBP1 controls the adaptive response of the UPR and is critical to restoring homeostasis in the liver in response to ER stress.</t>
+          <t>Due to the existence of the magnetic-field-induced reverse martensitic transformation, the Ni–Mn–Z alloys where Z is the p-block element of In, Sn or Sb exhibit several state-of-the-art magnetoresponsive properties. From the perspective of practical application, a major challenge of this compound is to strengthen the ferromagnetism and reduce the transitional hysteresis ΔTHys simultaneously. In this work, we report an alloying strategy to this issue, i.e., the partial substitutions of Co and Cu for Ni and the p-block element, respectively, by a combined study of experiment and ab-initio calculation in the Ni45Co5Mn36In14–xCux (x = 0–1.5) alloys. Results show that the Cu replacement for the p-block element (In) can effectively reduce ΔTHys owing to the improved geometrical compatibility between austenite and martensite. Moreover, the adopted alloying strategy of Cu hardly weakens the strong ferromagnetism of Ni(Co)–Mn–In, since the magnetism exhibits a weak dependence on the p-block element compared with Mn and Ni. The maximum reversible magnetic entropy change ΔSMMax of the Ni45Co5Mn36In13.3Cu0.7 directionally solidified sample at a magnetic field of 5 T is 13.8 J·kg−1·K−1. The refrigeration capacity RC and effective refrigeration capacity RCeff equal to 473.7 J·kg−1 and 270.2 J·kg−1, respectively. Both values belong to the highest one in the Ni–Mn-based alloys. Additionally, the working temperature window of the magnetocaloric effect is as wide as ~40 K. This work is expected to promote the design of advanced metamagnetic shape memory alloys.</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>https://openalex.org/W167123556</t>
+          <t>https://openalex.org/W2331353726</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>https://doi.org/10.21236/ada414118</t>
+          <t>https://doi.org/10.1021/la302764k</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Behringer (2003)</t>
+          <t>Groten et al. (2012)</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Propensity to Enlist: Recruiting Implications</t>
+          <t>Light-Induced Switching of Surfaces at Wetting Transitions through Photoisomerization of Polymer Monolayers</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Abstract : Our Armed Forces face huge challenges as we begin the 21st Century. Transformation, asymmetrical warfare, terrorism, scarce resources, civil-military gap-these are just a few examples of the myriad challenges facing the U.S. Armed Forces. Among the many areas of concern, the challenge of recruiting a quality force invariable floats to the top. U.S. National Security depends on an adequately trained, equipped, and manned force. Transitioning from a conscript Army to the all-volunteer force of 1973 put the Army squarely in the open market place for talent. No one foresaw the total implications of manning the force for 2010 when we made this decision. This Strategy Research Project proposes ways to increase the propensity of America's youth to serve in the Army. It offers suggestions for recruiting a quality force to serve the nation's 21st century defense needs.</t>
+          <t>We report on a method to generate surfaces whose wettability can be reversibly switched between a superhydrophobic and Wenzel state or a Wenzel and superwetting state just by a short UV or VIS irradiation. To achieve this, we generate a silicon surface with a nanoscale roughness (“black silicon”) and attach a polymer monolayer to it. The polymer contains a fluorinated azobenzene moiety which can be switched between the cis and trans state depending on the wavelength of the light used during illumination. The surface energy of the polymer coating is carefully adjusted to the energy value which separates distinct wetting regimes of the nanorough surface. This coupling of light induced switching to a transition of the wetting regimes can cause changes in the water contact angle as high as Δθ = 140° in the advancing CA or more than 175° in the receding CA even when the surface energy is changed only in a rather small range. Short irradiation times with UV or VIS light are enough to change the roll-off angle from &lt;5° to no roll off at all and back. We discuss the requirements necessary so that large changes in the contact angle occur during photoswitching processes on rough surfaces.</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2765689863</t>
+          <t>https://openalex.org/W2052079659</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>https://doi.org/10.4000/ema.3714</t>
+          <t>https://doi.org/10.1016/j.molcel.2010.10.007</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Al–Sayyid (2017)</t>
+          <t>Green (2010)</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>The Fight over Institutions in Post-Revolution Egypt</t>
+          <t>Stress in Biomedical Research: Six Impossible Things</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>This paper examines the fight over a new institutional order in post-January Revolution Egypt. It traces institutional change since the ousting of Hosny Mubarak on February 2011. It uses the historical institutionalism theoretical framework in order to illuminate understanding of this process of institutional change during three phases, namely: rule by the Supreme Council of the Armed Forces (February 2011-June 2012) by the Muslim Brotherhood (MB) (June 2012-June 2013) and since the overthrow of that rule on July 3, 2013. It situates this institutional change within the context of a struggle for power among the three forces that took part in the January Revolution, namely the armed forces, the MB and the revolutionary youth, delineating major issues in this fight. It explains the authoritarian choices of the first two actors in terms of their strategic calculations, unintended consequences, path dependency and past cultural traditions. It brings to light the negative implications of this shaky institutional structure for the search for social justice in Egypt.</t>
+          <t>Biomedical research may not be more stressful than other disciplines, but our stress is compounded by some of the inherent features of biology. We consider six impossible things and what we might be able to do about them, provided they are believed by lunchtime or, with practice, before breakfast. Biomedical research may not be more stressful than other disciplines, but our stress is compounded by some of the inherent features of biology. We consider six impossible things and what we might be able to do about them, provided they are believed by lunchtime or, with practice, before breakfast. “I wish I could manage to be glad!” the Queen said. “Only I never can remember the rule.” Science, this very creative human endeavor to understand the nature of the reality that exists independently of ourselves, is impossible. By “impossible,” I am not saying “very, very difficult,” although it is that, as well. We use our senses and instruments to extend them to try to map reality (at least those bits we care about) onto our consciousness and perceive that the map we collectively share is the reality. I know I am being very Cartesian here, but hopefully you can see what the problem is: the “map” is not the reality. In Sylvie and Bruno, the mathematician Charles Dodgson imagined a map of a town that was enlarged to the point that it was superimposed on the town itself and asked if, even now, it served as a map of reality (he was much funnier than Descartes). The point here is that science, and this form of science that I and presumably you do, biomedical research (which I suppose is impossible squared), is unbelievably frustrating. And, as a consequence, stressful. The choice to be a professional biomedical researcher holds the promise of a life of rich intellectual exploration and the joys that this can bring, provided we can deal with the difficulties. My mandate here is to identify the sources of stress in our scientific lives and to suggest ways to deal with them. At the outset, I must point out that I have no formal credentials in this regard: I am not a philosopher (obviously), a clinical psychologist (nor a patient), or a psychic advisor (thankfully, although I'm sure they are very nice, should one happen to be reading Molecular Cell). But given the level of stress I seem to experience every day, I suppose I am something of an expert. That said, I urge you to ignore everything I say (and to not ignore it is at the reader's risk). I can only tell you what seems to work for me, and I have no idea if it can work for you. Here are some of the sources of stress, several of which are unique to our profession, and how I try to deal with them. Each one is impossible (by which I mean “very, very difficult”), but even the attempt seems to help, and I've divided these into six impossible things. I am not sure that it is really six things, but the number was chosen because the White Queen asserted that with practice she regularly believes six impossible things before breakfast. Me, I'm still practicing. (If, by chance, you have no idea who I am talking about, then stop reading this immediately and obtain a copy of Through the Looking Glass by Lewis Carroll. Reading it is much more important for your development as a scientist than anything I can tell you.) I contend that this is one of the greatest sources of stress in our professional lives. As scientists, we don't ask for much: we want to have some good ideas (see #2), design some good experiments, do the experiments, and have some of them work. We'll trade fast cars, flat screen TVs, big houses, and large bank accounts for even the chance of this, and if our experiments work, we are (albeit briefly) happy, and all is right with the world. But we know from wretched experience that most of what we try doesn't work, and this stresses us out. There is an important reason for this failure of perfectly logical ideas to translate into results, and it will be helpful to get this out of the way first. Life is not logical, because living things are not designed. Any biological system is a cobbled-together, makeshift affair that once upon a time happened to work better than some other contraption, so that it was reproduced and subsequently built upon. All biology in this view of life is an historical accident. And it is for this reason (among others, as we will see) that our experiments so often fail. Life does not yield to logic. So what can we do? The key is this: Control what you can control. Although you cannot make an experiment come out as you might like (or as logic would dictate), you can do a great deal to ensure that you get at least some sort of answer that will hold. If you buy a kit, a reagent, or an assay, even one you have used many times before, test it and optimize it. Do small pilot experiments to ensure that your system is working smoothly before setting up the big experiment. And plan that experiment carefully so that if it does work, you will be able to interpre</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2254097789</t>
+          <t>https://openalex.org/W2154409306</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1177/0049085712468134</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Armoogum (2004)</t>
+          <t>Gullapalli &amp; Paltrowitz (2012)</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Time resolved excited state photo-engineering.</t>
+          <t>Transforming Clinical Legal Education: An Opening for Dialogue</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>This thesis concerns the development and application of time resolved fluorescence which yield new and detailed information on molecular order and motion in both isotropic and ordered systems. Polarised fluorescence studies involve the photoselection of a non-equilibrium distribution of excited state probe orientations whose relaxation is monitored by time resolved fluorescence anisotropy. Chapter 1 introduces the basic concepts of probe photophysics and orientational photoselection. Chapter 2 combines photoselection with single and multiple laser pulses to provide a full description of probe alignment dynamics in the nematic phase of 5-cyanobiphenyl (5CB). In isotropic media the cylindrically symmetric and asymmetric alignment relaxation times are necessarily equal. However, in 5CB, this was seen to correlate strongly with equilibrium order parameters, indicating the need to quantify fully the probe orientational distribution function. In Chapter 3, single and two-photon time resolved fluorescence anisotropy measurements are used to determine the hitherto unmeasured (ground state) K=6 moment of P. The final chapters concern the development of the next generation of photoselection techniques where an excited state population is engineered by stimulated emission depletion (STED). In Chapter 4 STED following two-photon excitation (PUMP) has been demonstrated in a range of well established single photon probes and two recently developed quadrupolar chromophores. Saturation of the DUMP transition due to excited state re-pumping was investigated, and from a two level rate equation model stimulated emission cross-sections and ground state vibrational relaxation times were determined. In Chapter 5 the polarisation properties of STED are investigated; orientation-selective depletion was shown to yield highly polarised excited state arrays. Polarisation resolved STED measurements were shown to circumvent spontaneous emission selection rules (which forbid the measurement of excited state moments of rank K&gt;2) allowing the first measurements of hexadecapole (K=4) orientational relaxation in two fluorescent probes.</t>
+          <t>Clinical legal education has the potential to both utilise law students as agents of social change in India and create future lawyers dedicated to social, economic, political and legal justice. However, to serve these ends, the current system of clinical legal education requires a fundamental transformation. This article advocates legal education in which clinical components involve intense action aimed at positively serving traditionally marginalised segments of society and in which social justice principles permeate the entire law school experience. The article thus hopes to spark a conversation about steps to take towards such a transformation by outlining and discussing multiple alternative models and ideas related to a clinical legal education programme.</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2380638134</t>
+          <t>https://openalex.org/W2124284644</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1091/mbc.e11-09-0743</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Mu (2010)</t>
+          <t>Kellogg &amp; Drubin (2011)</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>"Shifts" in the Post-revolutionary Era</t>
+          <t>&lt;i&gt;MBoC&lt;/i&gt; 2011: same values, improved feng shui</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>We are now at a post-revolutionary epoch.By post-revolution is meant after revolution on the one hand,indicating that revolution and its discourse have become past things while reflections on revolution on the other hand,showing that the deconstructive or derisive attitude towards revolution and its narrative has become fashionable.That revolution together with its narrative is the object of ridicule is just because it has become something historical or for reference rather than the mianstay of ideology.While revolution is no longer at the core of national opinion,it has not been eliminated from the collective memory of the populace.How can revolution and its story be related in such a post-revolutionary eopch? The description of the shift from revolution to post-revolution,geared to the ongoing distinction bewteen revolution and anti-revolution to the effect of deconstuctive rebellion arising from excessive shift,contains such an intent of illustration.</t>
+          <t>Molecular Biology of the CellVol. 22, No. 21 EditorialFree AccessMBoC 2011: same values, improved feng shuiDouglas R. Kellogg, and David G. DrubinDouglas R. KelloggSearch for more papers by this author, and David G. DrubinSearch for more papers by this authorPublished Online:13 Oct 2017https://doi.org/10.1091/mbc.e11-09-0743AboutSectionsView PDF ToolsAdd to favoritesDownload CitationsTrack Citations ShareShare onFacebookTwitterLinked InRedditEmail INTRODUCTIONMolecular Biology of the Cell (MBoC) was conceived nearly 20 years ago as a journal that would be run by and for cell biologists under the auspices of the American Society for Cell Biology (ASCB). The goal was to provide the cell biology community with a journal that would enhance scientific communication among cell biologists by providing authors with rapid, rigorous, constructive, and fair peer review, as well as editorial decisions that were not constrained by journal space or perceived trends. Over the years, MBoC has come to epitomize these values and in so doing has become a pillar of the cell biology community. Today, the values remain the same, but as MBoC heads into its twentieth year we are happy to highlight what we are doing to be more essential and relevant than ever. ASCB ANNUAL MEETING ISSUE AND COVERAGEThis issue is MBoC's third annual special issue focused on the ASCB Annual Meeting. It includes a collection of fascinating essays by the recipients of the E. B. Wilson Medal, the Keith Porter Award, the Women in Cell Biology Awards, the E. E. Just Award, and the Early Career Life Scientist Award. Together with invited Perspective and Retrospective essays by other prominent cell biologists, these articles provide insight into research careers, education, mentoring, diversity, science advocacy, and how key discoveries were made.In addition, for the second year in a row, we have invited chairs of the ASCB Annual Meeting Minisymposia to write reviews of their sessions. These will be published early in 2012. A REVAMPED WEBSITEIn August, MBoC launched a new and improved website (www.molbiolcell.org). In addition to a more contemporary look, better and more flexible use of screen real estate, and enhanced functionality, the new website includes links to sites with information about careers, education, ASCB events, and cell biology resources. Other new features and functionality will be added in the coming months.A NEW DESIGNEarly this year MBoC rolled out a new design for the “print” (PDF) versions of articles and for the journal's cover and front matter. We've received positive feedback; users have commented that the new look makes articles more inviting and easier to read.EXPECTATIONS FOR RIGOROUS AND CONSTRUCTIVE PEER REVIEWMBoC published an Editorial (Drubin, 2011) about the peer review process, which included a set of guidelines for how editors and reviewers can ensure that papers submitted to MBoC receive a rigorous, constructive, and fair review. This editorial received an extraordinary response from the community. It is clear that many scientists are frustrated with the current state of peer review and that MBoC can be an important part of the solution.FEATURE ARTICLESIn 2010 MBoC started publishing Features articles on topics of interest to the cell biology community. These have focused on a broad range of topics, including how to carry out quantitative binding assays, the role of National Institutes of Health Program Directors, meeting reviews, how to support innovation and translational research, and the transformational role of deep sequencing techniques in Caenorhabditis elegans genetics. The Features articles provide the cell biology community with a forum for communicating new ideas about topics such as research, mentoring, careers, and cell biology techniques.A VENUE FOR PAPERS WITH A THEORETICAL COMPONENTMBoC recognizes that theoretical approaches will increasingly be necessary to unlock some of the most interesting and challenging mysteries in cell biology. To encourage and support publication of articles with a theoretical component, MBoC published an Editorial from a group of experts that outlined guidelines for preparing theoretical papers (Mogilner et al., 2011). In addition, MBoC published a Features article that provided advice on when a project will benefit from theoretical approaches (Fletcher, 2011).With these improvements, we anticipate that MBoC will do even better at serving the ASCB community. As always, we welcome suggestions for further improvements, as well as suggestions for new Features articles. This is your journal, so let us know how MBoC can best serve your needs!FOOTNOTES10.1091/mbc.E11-09-0743Douglas R. Kellogg is the Features Editor of Molecular Biology of the Cell. David G. Drubin is Editor-in-Chief.ACKNOWLEDGMENTSWe thank the ASCB Award winners for their excellent contributions to this volume. We also thank Larry Goldstein, Ted Salmon, and Clare Waterman for contributing excellent articles on science</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2115039823</t>
-        </is>
-      </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.18611/2221-3279-2014-5-1(14)-60-64</t>
+          <t>https://openalex.org/W2282583068</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Колдунова (2015)</t>
+          <t>Seibel &amp; Nel (2010)</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>THE ROLE OF BRICS IN GLOBAL GOVERNANCE</t>
+          <t>Generation X, intergenerational justice and the renewal of the traditioning process : original research</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Currently the phenomenon of BRICS group became a highly disputed issue in the expert society. One general approach tends to see BRICS as just a group of states united superficially in the analysis of the international relations on the basis of their economic indicators. Consequently, according to this view, there is no real reason for the coordinated actions of these states on the global arena. Another view, on the contrary, stresses the potential of BRICS to become a new mechanism of global governance. Despite the divergence in the development models each state in this group has a rising economic profile and influential positions in the respective regions. The proposed paper aims to review critically various approaches to the role of BRICS in the transformation of global governance system, analyze prospects of and challenges to the expansion of such a role and assess the possible implications for the international relations at global and regional levels.</t>
+          <t>The church has the task of transmitting its faith tradition from one generation to the next. In the transition to postmodernity, many established congregations have proven to be ineffective at this traditioning process in relation to Generation X (Gen X), the first postmodern generation. The reasons for the ineffectiveness are complex. This article focuses on two key factors that contribute to the problem : the reduction of the church's tradition to its particular expression within the culture of modernity and the marginalisation experienced by Gen Xers within many established churches. The latter has prevented them from becoming effective bearers of the church's tradition. If this trend is to be reversed, churches should succeed in renewing their traditions in a way that is meaningful in a postmodern context. The challenge will be to overcome the dynamics of reductionism and marginalisation. In developing the argument, the jubilee themes of 'return' and 'release' are applied to the intergenerational dynamics of established congregations. The article concludes that local congregations should embrace a renewed commitment to intergenerational justice, which will encourage equity between the generations.</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1584017705</t>
+          <t>https://openalex.org/W2030620627</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1143/ptp.56.773</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Mazurek (2006)</t>
+          <t>Nishikawa &amp; Nakano (1976)</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nowa mapa miasta: między nudą a rewolucją</t>
+          <t>A Continuous Ising Model Exhibiting Phase Transitions of First or Second Order</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Marcin Mazurek A New Map of the City: Between Boredom and Revolution Taking Scott Fitzgerald's prophetic prediction of the urban reality informed by racy, adventurous feel [.. .] and the constant flicker of men and women and machines as a departure point, the article aims at analysing  the problem of contemporary representation and distribution of urban space. Populated in equal measures by  the human and the technological, the cityscape inevitably enforces a redefinition of the urban self, locating it  at the intersection of the technological, the textual and the virtual environments and thus narrating a significant  departure from the traditional approaches to urban locality in favour of the cyber ones. Traces of the latter are  identifiable across a number of textual representations, from the aforementioned Fitzgerald to William Gibson  and Neal Stephenson, and from Melvin Webber to Jean Baudrillard and William Mitchell. Still, somehow  contrary to Mitchell's enthusiastic views of the cyber-urban future, there appears a much more sinister tone of the threats posed by the excessive development of technological consumerism, which as J. G. Ballard's  book  Millennium People  informs us, is likely to evoke all kinds of nihilistic and self-destructive reactions.</t>
+          <t>A continuous Ising model is studied which is an analogue of the discrete Ising model with degeneracy presented recently. The state density D(σi) of each component system is given as a sum of Gaussian error functions of the continuous state variable σi(i=1, 2, …, N), N denoting the total number of component systems: D(σi) = A exp(-aσi2) + B exp[-b(σi-σ0)2] + C exp[-c(σi+σ0)2], where A, B, C, a, b, c and σ0 are constants only conditioned by the relation (B/ C)2 = b/ c. The free energy is obtained as a function of order parameter equal to the thermal average of one σi in a mean field approximation, on the basis of which the phase transition is investigated. In the asymmetric case B ≠C, the transition is necessarily of first order. In the symmetric case B = C, the transition depends on the parameters D = (A/ B) √b/ a and α= 1 - (2a)-1 + (2b)-1. The transition of first order occurs, so far as D(3 α2 - 2) &gt; 4 and that of second order does, otherwise. Temperature dependences of the order parameter are also investigated.</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2364449463</t>
+          <t>https://openalex.org/W2902674901</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Jian-qing (2009)</t>
+          <t>Tukaram (2015)</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Analysis of the Nature of the Crime with Unconscious Motivation</t>
+          <t>The Study of Nature of Dr. Babasaheb Ambedkar’s Constitution and its Contribution for Justice, Freedom, Empowerment of Women’s and Depressed Strata</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>The theory of the unconscious from a different point of view of the source of the unconscious,the individual unconscious,collective unconscious and social unconscious in a discriminatory manner reflected in all aspects of the unconscious motive for the crime,while three also combined with each other,mutual penetration,and realize a common motive for the crime the formation of the system state criminal motives.Motive for the crime structure to the basic model,systematic analysis of the unconscious motive for the crime in juvenile delinquency,criminal negligence,emotional-type of crime,abnormal type of crime,group crime and crime type of game-type driving force in the characterization of criminal conduct,they are crimes with the state of consciousness motive together constitute the motive power of criminal acts.The unconscious motive for the crime of criminal justice practice for the application to expose the depth of crime,the psychological motivation for the correction of offenders,criminal personality and behavioral transformation,all have unique and important value.</t>
+          <t>The present article mainly subjected to focus on Babasaheb’S constitutional contribution, women’s empowerment and oppressed section by rule of. Dr.Babasaheb Bhimarao Ramji Ambedkar popularly known as Dr.B.R.Ambedkar was born in1891 was a multifaceted personality, an intellectual revolutionary, a ray of hope fordowntrodden in India and a statesman of the 20th century. The father of constitution equates all the citizens on the same platform, this is the only expression of Babasaheb’s broad view in all the spheres constitutional foundation this attitude distinguish him from all the constitution makers in the world. He was the beacon of light for the millions of depressed, oppressed and exploited people of India. Dr .B. R. Ambedkar’s mission in his life was to challenge the ideological foundations of graded system of caste hierarchy that denied equality, freedom and human dignity to women in Hindu society, but his drown documents as the living documents i.e. Indian Constitution brings the equality by the rule of law in this nation. As he defined the constitution in his own language, the constitution is not the mere lawyer’s document, it is the vehicle of life, and its spirit is always the spirit of age. Through the constitutional way he gave the freedom and justice to all, and in all spheres of life such as Social Justice, Economic Justice and Political Justice. As architects of the Constitution have made this arrangement of justice very intelligently. There cannot be economic justice and political justice without social justice. Indian Society composed of castes, class’s religion and race. There happened the discrimination among Indians themselves on this basis. Therefore, the constitution is bound to cultivate healthy, social attitude among people and the state must be welfare state accordingly. Adaptation and enactment of constitution is biggest social, economical and political revolution in India</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1795061683</t>
+          <t>https://openalex.org/W167123556</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1061/(asce)hy.1943-7900.0001057</t>
+          <t>https://doi.org/10.21236/ada414118</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Abessi &amp; Roberts (2016)</t>
+          <t>Behringer (2003)</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Dense Jet Discharges in Shallow Water</t>
+          <t>Propensity to Enlist: Recruiting Implications</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Extensive Experiments on inclined dense jets typical of brine discharges into shallow water are reported. The experiments were conducted with nozzles oriented at 30°, 45°, and 60° to the horizontal and the spatial variations of tracer concentrations were measured by three-dimensional laser-induced fluorescence (3DLIF). Three flow regimes were identified: deep water, surface contact, and shallow water. The regimes depend on the value of dF/H, where d is the nozzle diameter, F the jet densimetric Froude number, and H the water depth; criteria were presented for the transitions between them. Flow images revealed complex three-dimensional interactions with the free surface, especially for steep nozzle angles in shallow water. Dilutions at critical points and their locations were measured. For deep water, all results followed those previously reported for fully submerged jets. As the depth decreases (or dF/H increases) to the surface contact regime, dilutions begin to decrease. Tracer concentration profiles are truncated at the water surface and in shallow water resemble half-Gaussian profiles similar to those of wall jets. The jets can cling to the water surface, although the locations of the bottom impact point and near-field length are not significantly affected by the water surface. In deep water and surface contact regimes, the impact point and near-field dilutions are highest for 60° nozzles. As the depth decreases further, however, the dilutions for the three nozzle angles become approximately equal, until, for shallow water, the 30°-nozzle gives slightly higher dilution. The 30°-nozzle may be preferable for this case because there is less surface interaction and, therefore, less visual impact on the water surface. Previous recommendations that dense jets be submerged so that the rise height to the jet's upper boundary be less than 75% of the water depth to avoid surface effects appear to be overly conservative and the present results suggest that the rise can be as much as 90% of the water depth for all angles with no deleterious effect on dilution.</t>
+          <t>Abstract : Our Armed Forces face huge challenges as we begin the 21st Century. Transformation, asymmetrical warfare, terrorism, scarce resources, civil-military gap-these are just a few examples of the myriad challenges facing the U.S. Armed Forces. Among the many areas of concern, the challenge of recruiting a quality force invariable floats to the top. U.S. National Security depends on an adequately trained, equipped, and manned force. Transitioning from a conscript Army to the all-volunteer force of 1973 put the Army squarely in the open market place for talent. No one foresaw the total implications of manning the force for 2010 when we made this decision. This Strategy Research Project proposes ways to increase the propensity of America's youth to serve in the Army. It offers suggestions for recruiting a quality force to serve the nation's 21st century defense needs.</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2058782969</t>
+          <t>https://openalex.org/W3093934265</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1080/03610928908829908</t>
+          <t>https://doi.org/10.1016/j.jpcs.2020.109821</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>O’Brien (1989)</t>
+          <t>Li et al. (2021)</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>On the tiku-balakrishnan tests for equality of covariance matrices</t>
+          <t>Roles of (NH4)2HPO4 and NH4H2PO4 in the phase transition and luminescence enhancement of YPO4:Eu</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Tiku and Balakrishnan's (1985) method cannot be considered to be testing the equality of covariance matrices. A simple example shows that their T2 statistic can equal zero for data having unequal sample covariance matrices, but a nonsingular transformation of those same data can then render their statistic indefinitely large</t>
+          <t>Investigating crystal phase transition helps in understanding new crystal structures and obtaining novel performance. The conventional approaches to realizing phase transition usually require extreme conditions such as high temperature, high pressure, or heavy ion doping. In this work, we achieve phase transition from hexagonal to tetragonal YPO4:Eu crystals just by increasing the concentration ratio of (NH4)2HPO4 to NH4H2PO4 in the precursor. When increasing the ratio, the underlying transition mechanism modifies the free energy of the crystalline system and in turn selects the tetragonal phase with higher formation energy. The difference in preferred growth direction endows tetragonal and hexagonal microcrystals with sphere- and prism-like morphology, respectively. The luminescence intensity is stronger in the tetragonal than the hexagonal phase, due to stronger non-radiative energy transfer induced by high-frequency vibrations in the hexagonal lattice. The efficient method provided here allows convenient production of tetragonal samples with high luminescence intensity on a large scale, and could be well applied to other phosphate systems for phase selection.</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1634523854</t>
-        </is>
-      </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1103/physrevb.33.5450</t>
+          <t>https://openalex.org/W2254097789</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Fleming et al. (1986)</t>
+          <t>Armoogum (2004)</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Low-temperature divergence of the charge-density-wave viscosity in&lt;mml:math xmlns:mml="http://www.w3.org/1998/Math/MathML" display="inline"&gt;&lt;mml:mrow&gt;&lt;mml:msub&gt;&lt;mml:mrow&gt;&lt;mml:mi mathvariant="normal"&gt;K&lt;/mml:mi&gt;&lt;/mml:mrow&gt;&lt;mml:mrow&gt;&lt;mml:mn&gt;0.30&lt;/mml:mn&gt;&lt;/mml:mrow&gt;&lt;/mml:msub&gt;&lt;/mml:mrow&gt;&lt;/mml:math&gt;&lt;mml:math xmlns:mml="http://www.w3.org/1998/Math/MathML" display="inline"&gt;&lt;mml:mrow&gt;&lt;mml:msub&gt;&lt;mml:mrow&gt;&lt;mml:mi mathvariant="normal"&gt;MoO&lt;/mml:mi&gt;&lt;/mml:mrow&gt;&lt;mml:mrow&gt;&lt;mml:mn&gt;3&lt;/mml:mn&gt;&lt;/mml:mrow&gt;&lt;/mml:…</t>
+          <t>Time resolved excited state photo-engineering.</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>We have measured the temperature dependence of the low-field, linear conductivity and the high-field, nonlinear conductivity resulting from charge-density-wave (CDW) motion in ${\mathrm{K}}_{0.30}$${\mathrm{MoO}}_{3}$, ${\mathrm{TaS}}_{3}$, and (${\mathrm{TaSe}}_{4}$${)}_{2}$I at zero frequency. In ${\mathrm{K}}_{0.30}$${\mathrm{MoO}}_{3}$ and (${\mathrm{TaSe}}_{4}$${)}_{2}$I, the nonlinear conductivity has a thermally activated behavior over an extended temperature range with activation energies which are nearly equal to that of the linear portion of the conductivity. In ${\mathrm{TaS}}_{3}$ the analysis is more complicated due to a large maximum in the threshold field, perhaps resulting from a commensurate-incommensurate transition, near 75 K. In ${\mathrm{TaS}}_{3}$, the nonlinear fraction of the conductivity has the same temperature dependence as the linear portion over a limited temperature range. In all materials the nonlinear conductivity vanishes at low temperatures. The charge carried by the CDW, measured by the current dependence of the ``washboard frequency,'' is relatively constant as function of temperature. These results indicate that viscous forces resulting from low-frequency damping of the CDW motion diverge as the temperature is lowered. We have also calculated the temperature dependence of the CDW relaxation time and static dielectric constant using experimental parameters. The excellent agreement attained gives strong support to a classical description of CDW transport in these materials.</t>
+          <t>This thesis concerns the development and application of time resolved fluorescence which yield new and detailed information on molecular order and motion in both isotropic and ordered systems. Polarised fluorescence studies involve the photoselection of a non-equilibrium distribution of excited state probe orientations whose relaxation is monitored by time resolved fluorescence anisotropy. Chapter 1 introduces the basic concepts of probe photophysics and orientational photoselection. Chapter 2 combines photoselection with single and multiple laser pulses to provide a full description of probe alignment dynamics in the nematic phase of 5-cyanobiphenyl (5CB). In isotropic media the cylindrically symmetric and asymmetric alignment relaxation times are necessarily equal. However, in 5CB, this was seen to correlate strongly with equilibrium order parameters, indicating the need to quantify fully the probe orientational distribution function. In Chapter 3, single and two-photon time resolved fluorescence anisotropy measurements are used to determine the hitherto unmeasured (ground state) K=6 moment of P. The final chapters concern the development of the next generation of photoselection techniques where an excited state population is engineered by stimulated emission depletion (STED). In Chapter 4 STED following two-photon excitation (PUMP) has been demonstrated in a range of well established single photon probes and two recently developed quadrupolar chromophores. Saturation of the DUMP transition due to excited state re-pumping was investigated, and from a two level rate equation model stimulated emission cross-sections and ground state vibrational relaxation times were determined. In Chapter 5 the polarisation properties of STED are investigated; orientation-selective depletion was shown to yield highly polarised excited state arrays. Polarisation resolved STED measurements were shown to circumvent spontaneous emission selection rules (which forbid the measurement of excited state moments of rank K&gt;2) allowing the first measurements of hexadecapole (K=4) orientational relaxation in two fluorescent probes.</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2105167594</t>
+          <t>https://openalex.org/W2147536330</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1074/mcp.o112.020131</t>
+          <t>https://doi.org/10.1111/j.1468-0270.2011.02080.x</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Peterson et al. (2012)</t>
+          <t>Barrett (2011)</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Parallel Reaction Monitoring for High Resolution and High Mass Accuracy Quantitative, Targeted Proteomics</t>
+          <t>THE EU/IMF RESCUE PROGRAMME FOR IRELAND: 2010-13</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Selected reaction monitoring on a triple quadrupole mass spectrometer is currently experiencing a renaissance within the proteomics community for its, as yet, unparalleled ability to characterize and quantify a set of proteins reproducibly, completely, and with high sensitivity. Given the immense benefit that high resolution and accurate mass instruments have brought to the discovery proteomics field, we wondered if highly accurate mass measurement capabilities could be leveraged to provide benefits in the targeted proteomics domain as well. Here, we propose a new targeted proteomics paradigm centered on the use of next generation, quadrupole-equipped high resolution and accurate mass instruments: parallel reaction monitoring (PRM). In PRM, the third quadrupole of a triple quadrupole is substituted with a high resolution and accurate mass mass analyzer to permit the parallel detection of all target product ions in one, concerted high resolution mass analysis. We detail the analytical performance of the PRM method, using a quadrupole-equipped bench-top Orbitrap MS, and draw a performance comparison to selected reaction monitoring in terms of run-to-run reproducibility, dynamic range, and measurement accuracy. In addition to requiring minimal upfront method development and facilitating automated data analysis, PRM yielded quantitative data over a wider dynamic range than selected reaction monitoring in the presence of a yeast background matrix because of PRM's high selectivity in the mass-to-charge domain. With achievable linearity over the quantifiable dynamic range found to be statistically equal between the two methods, our investigation suggests that PRM will be a promising new addition to the quantitative proteomics toolbox. Selected reaction monitoring on a triple quadrupole mass spectrometer is currently experiencing a renaissance within the proteomics community for its, as yet, unparalleled ability to characterize and quantify a set of proteins reproducibly, completely, and with high sensitivity. Given the immense benefit that high resolution and accurate mass instruments have brought to the discovery proteomics field, we wondered if highly accurate mass measurement capabilities could be leveraged to provide benefits in the targeted proteomics domain as well. Here, we propose a new targeted proteomics paradigm centered on the use of next generation, quadrupole-equipped high resolution and accurate mass instruments: parallel reaction monitoring (PRM). In PRM, the third quadrupole of a triple quadrupole is substituted with a high resolution and accurate mass mass analyzer to permit the parallel detection of all target product ions in one, concerted high resolution mass analysis. We detail the analytical performance of the PRM method, using a quadrupole-equipped bench-top Orbitrap MS, and draw a performance comparison to selected reaction monitoring in terms of run-to-run reproducibility, dynamic range, and measurement accuracy. In addition to requiring minimal upfront method development and facilitating automated data analysis, PRM yielded quantitative data over a wider dynamic range than selected reaction monitoring in the presence of a yeast background matrix because of PRM's high selectivity in the mass-to-charge domain. With achievable linearity over the quantifiable dynamic range found to be statistically equal between the two methods, our investigation suggests that PRM will be a promising new addition to the quantitative proteomics toolbox. The most widespread protein sequencing technique is the shotgun method. Proteins are digested into peptides, chromatographically separated, and measured by mass spectrometers (1Parker C.E. Pearson T.W. Anderson N.L. Borchers C.H. Mass-spectrometry-based clinical proteomics - a review and prospective.Analyst. 2010; 135: 1830-1838Crossref PubMed Scopus (82) Google Scholar, 2Kirkpatrick D.S. Gerber S.A. Gygi S.P. The absolute quantification strategy: a general procedure for the quantification of proteins and post-translational modifications.Methods. 2005; 35: 265-273Crossref PubMed Scopus (480) Google Scholar, 3Phanstiel D. Unwin R. McAlister G.C. Coon J.J. Peptide quantification using 8-plex isobaric tags and electron transfer dissociation tandem mass spectrometry.Anal. Chem. 2009; 81: 1693-1698Crossref PubMed Scopus (54) Google Scholar, 4Wu C.C. MacCoss M.J. Howell K.E. Matthews D.E. Yates J.R. Metabolic labeling of mammalian organisms with stable isotopes for quantitative proteomic analysis.Anal. Chem. 2004; 76: 4951-4959Crossref PubMed Scopus (339) Google Scholar, 5Ong S.E. Blagoev B. Kratchmarova I. Kristensen D.B. Steen H. Pandey A. Mann M. Stable isotope labeling by amino acids in cell culture, SILAC, as a simple and accurate approach to expression proteomics.Mol. Cell. Proteomics. 2002; 1: 376-386Abstract Full Text Full Text PDF PubMed Scopus (4569) Google Scholar, 6Zhu H. Pan S. Gu S. Bradbury E.M. Chen X. Amino acid residue specific stable isotope label</t>
+          <t>The EU/IMF €85 billion rescue of the Irish economy required Ireland to address critical problems in banking and bank regulation, the public finances and structural reform. Ireland must also address weak expertise in economics in the public sector and in banking, rent-seeking, regulatory capture, moral hazard, lack of accountability and failures of corporate governance.</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2152143215</t>
+          <t>https://openalex.org/W2115039823</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1142/s0218001415510039</t>
+          <t>https://doi.org/10.18611/2221-3279-2014-5-1(14)-60-64</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Huang et al. (2015)</t>
+          <t>Колдунова (2015)</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Matrix Completion with Ordering Relation Constraints and its Applications</t>
+          <t>THE ROLE OF BRICS IN GLOBAL GOVERNANCE</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>We relax the equality constraints in the very general and well-known affine Schatten p-norm minimization problem into complete loss function-based constraints. Owing to the imposed equality constraints, existing methods only have limited degree of model flexibility, via their optimization of the objective energy function. By our proposed transformation, the decision variables in the objective function can directly achieve L0 norm minimization via the process of enumerating the matrix rank (i.e. matrix ordering constraint). We show that, our new objective function is still reasonable, and its minimum can be obtained by a more general form of the Fixed-Point Continuation framework with almost the same computational cost at each matrix order enumeration. Experiments show that, our algorithm has good performance compared to its predecessor over some datasets and applications.</t>
+          <t>Currently the phenomenon of BRICS group became a highly disputed issue in the expert society. One general approach tends to see BRICS as just a group of states united superficially in the analysis of the international relations on the basis of their economic indicators. Consequently, according to this view, there is no real reason for the coordinated actions of these states on the global arena. Another view, on the contrary, stresses the potential of BRICS to become a new mechanism of global governance. Despite the divergence in the development models each state in this group has a rising economic profile and influential positions in the respective regions. The proposed paper aims to review critically various approaches to the role of BRICS in the transformation of global governance system, analyze prospects of and challenges to the expansion of such a role and assess the possible implications for the international relations at global and regional levels.</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>https://openalex.org/W310430829</t>
+          <t>https://openalex.org/W3021061286</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1353/sor.2004.0066</t>
+          <t>https://doi.org/10.3366/gels.2020.0003</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Hobsbawm (2004)</t>
+          <t>Heffron (2020)</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>The Making of a “Bourgeois Revolution”</t>
-        </is>
-      </c>
-      <c r="E189" t="inlineStr">
-        <is>
-          <t>E. J. Hobsbawm The Making of a “Bourgeois Revolution” TO ENTERTAIN ANY THEORY ABOUT REVOLUTION,” WRITES JOHN DUNN, “—and it is not even possible to identify just what events do consti­ tute revolutions without assuming some theoiy about the meaning of revolution—is to assume a political posture. . . . The value-free study of revolutions is a logical impossibility for those who live in the real world” (Dunn, 1972:1-2). For the student of revolutions the problem is complicated by the fact that the political postures assumed spontane­ ously by those who write or speak about them, and, if not careful, by him self or herself, are not necessarily coherent or consistent. We live in an era when rapid and fundamental change has become the norm in eveiyday life, so that the terms “revolution” and “revolutionary” extend far beyond the field of political science. Moreover, common discourse identifies them, much in the eighteenth-century manner, with prog­ ress and the improvement of life, so that, as advertising agencies under­ stand only too well, the word “revolutionary,” when attached to a new microwave oven as distinct from a political regime, will sell the product more effectively, even among those most passionately committed to the defense of the status quo against subversion. Nevertheless, the primary political meaning of “revolution” remains profoundly controversial, as the historiography of the subject demonstrates, and as the debates surrounding the bicentenary of the French Revolution of 1789 demonstrate even more unmistakably. What usually happens to revolutions sufficiently distant from the pres­ ent—and two centuries are, by the news agency standards that domiORIGINALLY PUBLISHED IN SOCIAL RESEARCH VOL. 56, NO. 1 (SPRING 1989) social research Vol 71 : No 3 : Fall 2 0 0 4 455 nate our information, almost beyond the range of the remembered past—is that they are either transformed into nonrevolutions—that is, integrated into historical continuity or excluded from it as insignificant temporary interruptions—or else they are celebrated by public rites of passage suitable to the occasions that mark the birth of nations and/or regimes. They remain controversial only among historians. Thus the English Revolution or revolutions of the seventeenth century has been tacitly eliminated from political discourse: even in the tercentenary year of what used to be called the “Glorious Revolution” of 1688 and the constituting event of British parliamentary sovereignty, its presence in public rhetoric has been subdued and marginal. On the other hand, a celebratory consensus has marked the various bicentenaries connected with the American Revolution, and even opponents of those aspects of it which are still—or again—highly controversial, such as its deliberate refusal to give public recognition to religion, would not dream of using this as an argument against it. Its public face, jubilees and centenaries apart, is that of a rite of passage in the life of the nation, independence (celebrated on the Fourth of July) taking its place after first settlement (celebrated on Thanksgiving). Attempts to apply these two techniques o f elim inating the controversial aspects of the French Revolution have been made, by republicans and by the political right respectively, and the contention that it achieved little or nothing other than what would have happened without it, and thus constitutes not a major transforming set of events but only a sort of stumble on the long path of French history, is one of the main weapons in the intellectual war against those who wish to celebrate its bicentenary. Yet these attempts have failed. On the one hand, the revolution never gained the general retrospective consensus without which such events cannot become harmless national birthdays, not even after World War II briefly eliminated from the political scene that French Right that defined itself by its rejection of 1789. On the contrary, since the revolution inspired not only the Left of the relatively remote past but also the contemporary Left, it could not but remain contentious. As is quite evident from the pre-bicentenary debates in 456 social research France, the traditional opponents of 1789 have been reinforced by the opponents of 1917; by reactionaries who would not disclaim that label, by liberals who certainly would. Yet the antirevolutionary attempt to demote the...</t>
+          <t>Thinking Globally: An Accelerated Just Transition to a Low-Carbon Economy</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4220888131</t>
+          <t>https://openalex.org/W2742985015</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1111/bioe.13014</t>
+          <t>https://doi.org/10.1049/sbew043e_ch1</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Ganguli‐Mitra et al. (2022)</t>
+          <t>Lonngren et al. (2017)</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Racism in healthcare and bioethics</t>
+          <t>MATLAB, Vectors and Phasors</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Race, as a ‘technology for the management of human difference’1 has profound repercussions for the health and flourishing of human beings across the world. Discrimination based on race occurs in our interpersonal relationships and institutions and influences people's access to fair health outcomes. This has once again become severely apparent in the pandemic. COVID-19 has created and reinforced health disparities that disproportionately harmed Black, Latinx, Indigenous, Asian, and other minoritized communities, and exposed stark failures of solidarity with Global South populations. As very public violations of the humanity of Black people led to an upsurge in support for the Black Lives Matter movement, and hate crimes committed against Asian American and Pacific Islander people rose to alarming levels, we asked ourselves: What is the place of bioethics in conversations about structural and interpersonal racism? As scholars and practitioners of anti-racist bioethics, we determined that it was once again a crucial moment for the bioethics community to review our engagement with race and racism in healthcare. There is ample evidence that race and racism are key determinants of health, that in turn reinforce patterns of social and economic inequality. The fact that race is a socially constructed ascription makes its experience no less of a reality for those who are systematically racialized, either globally or within dominant white populations. Determinants associated with race and racism are historical, institutional, commercial and political. They include (but are not limited to) police brutality, discrimination within the criminal justice system, medical care, housing and education systems that have perpetuated and reinforced colonial and racialized social disadvantage. Racial inequality and bias exist in every institution and system that governs our social lives, and therefore also affect our ability to enjoy health and well-being. Accordingly, the confluence of race, racism, and health must be an urgent priority for bioethics as a profession concerned with justice through the life course. This Special Issue brings together researchers in medical ethics, public health ethics, research ethics, and global health ethics who are engaging in and extending the academic, legal, policy, and public discourse on racism in bioethics and health. The authors included in this Special Issue were encouraged to engage with conceptual, applied and empirical work related to race and racism, and associated areas of whiteness and white privilege, coloniality, complicity in perpetuating oppression, or allyship in changing structures of injustice. It was extremely encouraging to witness the enthusiasm with which this call was received, and the many excellent contributions submitted. Our decision to ask Bioethics to host this issue stemmed from the guest editors’ belief that racism has been side-lined not only in healthcare, but also in our theorizing about health and well-being and bioethics’ place in these discussions. This issue is therefore concerned not only with identifying and tackling specific instances of racism and coloniality in healthcare, but with the ways in which bioethicists, and the philosophical methodologies we draw upon, tend to be insufficiently attentive to the central role race and racism play in determining our differential relationships to care, neglect, and exploitation. The papers in the first half of the issue take up this task, posing and addressing key conceptual questions and offering insights that will be valuable within bioethics and philosophy more generally. While mainstream understandings of racism have in recent years taken a ‘structural turn’ that promises a more radical critique of a system founded on racism, there has been insufficient attention to the task of defining what we mean by ‘structural’, how it relates to and differs from ‘institutional’ racism, and the place of interpersonal racism within the resulting schema. Agomoni Ganguli-Mitra and colleagues use three case studies from the COVID-19 pandemic to carefully tease apart and define structural, interpersonal, and institutional racism, and to show how, in a system of racial capitalism, they collude to limit the health possibilities of racialized people. Travis Rieder and Nabina Liebow also focus their attention on the complex interplay between the individual and the structural. Racial health disparities are, like climate change, a collective action problem. Yet, as Rieder and Liebow argue, this does not mean that individual action is unimportant; rather, it is an essential ingredient of the former. While structural changes must be made, individual transformation is also necessary, and white people have a particular duty to examine and modify their individual behaviours. Like Ganguli-Mitra et al. and Rieder and Liebow, Brian Hutler seeks to understand how racism brings about health disparities. Hutler shows that while causal account</t>
+          <t>This chapter introduces readers to MATLAB, either as a gentle beginning or as a refresher of specific properties and operations. Your book should include a CD containing a self-study MATLAB tutorial with more depth and practice than can be provided here. If you did not receive a CD with your book, if you need a replacement, or if you want to be sure you have the most recent files, go to www.scitechpub.com/lonngren2e.htm. Meanwhile, this chapter provides a convenient application of MATLAB and review of vectors to our study of electromagnetics. MATLAB, widely used in engineering studies and industry, is a software tool that allows you to obtain visual images easily of various electromagnetic phenomena that we will soon encounter. Also, vectors, which are so crucial in describing electromagnetic phenomena, can be easily manipulated using MATLAB. Numerous figures in this text have been created using MATLAB, as can be seen by the MATLAB icon beside them. For simplicity, we will emphasize Cartesian coordinates in this review. The vector operations in other coordinate systems are included in Appendix A. Our motivation in employing vectors is that electromagnetic fields are vector quantities and their use will permit us to use a fairly compact notation to represent sets of partial differential equations. This review will include a presentation of the vector differential operations of the gradient, divergence, and curl. The transformation of a vector from one coordinate system to another will be discussed. It is often helpful to be able to transform a problem from one coordinate system to another in order to see additional symmetry and gain further insight. Readers who feel comfortable with vector terminology can easily skip this section of the chapter and move on with no loss of continuity. Just note that in this text, bold-face type will be used to denote a vector A, and the symbol uA will be used to indicate the unit vector corresponding to this vector. This chapter concludes with some brief comments on phasors.</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1826475137</t>
-        </is>
-      </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1038/emboj.2012.75</t>
+          <t>https://openalex.org/W2364449463</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Jiang et al. (2012)</t>
+          <t>Jian-qing (2009)</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Tightening of the ATP-binding sites induces the opening of P2X receptor channels</t>
+          <t>Analysis of the Nature of the Crime with Unconscious Motivation</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Article30 March 2012free access Tightening of the ATP-binding sites induces the opening of P2X receptor channels Ruotian Jiang Ruotian Jiang Faculté de Pharmacie, Laboratoire de Biophysicochimie des Récepteurs Canaux, UMR 7199 CNRS, Conception et Application de Molécules Bioactives, Université de Strasbourg, Illkirch, France Search for more papers by this author Antoine Taly Antoine Taly Faculté de Pharmacie, Laboratoire de Biophysicochimie des Récepteurs Canaux, UMR 7199 CNRS, Conception et Application de Molécules Bioactives, Université de Strasbourg, Illkirch, France Search for more papers by this author Damien Lemoine Damien Lemoine Faculté de Pharmacie, Laboratoire de Biophysicochimie des Récepteurs Canaux, UMR 7199 CNRS, Conception et Application de Molécules Bioactives, Université de Strasbourg, Illkirch, France Search for more papers by this author Adeline Martz Adeline Martz Faculté de Pharmacie, Laboratoire de Biophysicochimie des Récepteurs Canaux, UMR 7199 CNRS, Conception et Application de Molécules Bioactives, Université de Strasbourg, Illkirch, France Search for more papers by this author Olivier Cunrath Olivier Cunrath Faculté de Pharmacie, Laboratoire de Biophysicochimie des Récepteurs Canaux, UMR 7199 CNRS, Conception et Application de Molécules Bioactives, Université de Strasbourg, Illkirch, France Search for more papers by this author Thomas Grutter Corresponding Author Thomas Grutter Faculté de Pharmacie, Laboratoire de Biophysicochimie des Récepteurs Canaux, UMR 7199 CNRS, Conception et Application de Molécules Bioactives, Université de Strasbourg, Illkirch, France Search for more papers by this author Ruotian Jiang Ruotian Jiang Faculté de Pharmacie, Laboratoire de Biophysicochimie des Récepteurs Canaux, UMR 7199 CNRS, Conception et Application de Molécules Bioactives, Université de Strasbourg, Illkirch, France Search for more papers by this author Antoine Taly Antoine Taly Faculté de Pharmacie, Laboratoire de Biophysicochimie des Récepteurs Canaux, UMR 7199 CNRS, Conception et Application de Molécules Bioactives, Université de Strasbourg, Illkirch, France Search for more papers by this author Damien Lemoine Damien Lemoine Faculté de Pharmacie, Laboratoire de Biophysicochimie des Récepteurs Canaux, UMR 7199 CNRS, Conception et Application de Molécules Bioactives, Université de Strasbourg, Illkirch, France Search for more papers by this author Adeline Martz Adeline Martz Faculté de Pharmacie, Laboratoire de Biophysicochimie des Récepteurs Canaux, UMR 7199 CNRS, Conception et Application de Molécules Bioactives, Université de Strasbourg, Illkirch, France Search for more papers by this author Olivier Cunrath Olivier Cunrath Faculté de Pharmacie, Laboratoire de Biophysicochimie des Récepteurs Canaux, UMR 7199 CNRS, Conception et Application de Molécules Bioactives, Université de Strasbourg, Illkirch, France Search for more papers by this author Thomas Grutter Corresponding Author Thomas Grutter Faculté de Pharmacie, Laboratoire de Biophysicochimie des Récepteurs Canaux, UMR 7199 CNRS, Conception et Application de Molécules Bioactives, Université de Strasbourg, Illkirch, France Search for more papers by this author Author Information Ruotian Jiang1,‡, Antoine Taly1,‡, Damien Lemoine1, Adeline Martz1, Olivier Cunrath1 and Thomas Grutter 1 1Faculté de Pharmacie, Laboratoire de Biophysicochimie des Récepteurs Canaux, UMR 7199 CNRS, Conception et Application de Molécules Bioactives, Université de Strasbourg, Illkirch, France ‡These authors contributed equally to this work *Corresponding author. Faculté de Pharmacie, Laboratoire de Biophysicochimie des Récepteurs Canaux, UMR 7199 CNRS, Conception et Application de Molécules Bioactives, Université de Strasbourg, 67400 Illkirch, France. Tel.:+333 68 85 41 57; Fax:+333 68 85 43 06; E-mail: [email protected] The EMBO Journal (2012)31:2134-2143https://doi.org/10.1038/emboj.2012.75 PDFDownload PDF of article text and main figures. ToolsAdd to favoritesDownload CitationsTrack CitationsPermissions ShareFacebookTwitterLinked InMendeleyWechatReddit Figures &amp; Info The opening of ligand-gated ion channels in response to agonist binding is a fundamental process in biology. In ATP-gated P2X receptors, little is known about the molecular events that couple ATP binding to channel opening. In this paper, we identify structural changes of the ATP site accompanying the P2X2 receptor activation by engineering extracellular zinc bridges at putative mobile regions as revealed by normal mode analysis. We provide evidence that tightening of the ATP sites shaped like open 'jaws' induces opening of the P2X ion channel. We show that ATP binding favours jaw tightening, whereas binding of a competitive antagonist prevents gating induced by this movement. Our data reveal the inherent dynamic of the binding jaw, and provide new structural insights into the mechanism of P2X receptor activation. Introduction P2X receptors are membrane cation channels gated by extracellular ATP</t>
+          <t>The theory of the unconscious from a different point of view of the source of the unconscious,the individual unconscious,collective unconscious and social unconscious in a discriminatory manner reflected in all aspects of the unconscious motive for the crime,while three also combined with each other,mutual penetration,and realize a common motive for the crime the formation of the system state criminal motives.Motive for the crime structure to the basic model,systematic analysis of the unconscious motive for the crime in juvenile delinquency,criminal negligence,emotional-type of crime,abnormal type of crime,group crime and crime type of game-type driving force in the characterization of criminal conduct,they are crimes with the state of consciousness motive together constitute the motive power of criminal acts.The unconscious motive for the crime of criminal justice practice for the application to expose the depth of crime,the psychological motivation for the correction of offenders,criminal personality and behavioral transformation,all have unique and important value.</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1580071625</t>
+          <t>https://openalex.org/W1795061683</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1061/(asce)hy.1943-7900.0001057</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Waters (1999)</t>
+          <t>Abessi &amp; Roberts (2016)</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Global Logistics And Distribution Planning: Strategies for Management</t>
+          <t>Dense Jet Discharges in Shallow Water</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Contents Notes on contributors List of figures List of tables Introduction 1. Development and trends in supply chain management Donald Waters Introduction Changing views of logistics Integration of the supply chain Logistics strategy Trends in logistics Global logistics Measuring performance Improving performance Conclusions 2. New directions in logistics Martin Christopher The emergence of the value-conscious customer Logistics and supply chain management The new competitive framework: the three Rs The organizational challenge Summary 3. Future trends in supply chain management Peter Hines Abstract Introduction Key area 1: more than just lorries and buyers Key area 2: more than just orders and information Key area 3: more than just fast and efficient Key area 4: more than just textbooks and totebins Summary and conclusion 4. Agile supply chain operating environments Remko van Hoek Summary Introduction Agile supply chain principles Operating circumstances requiring agility The categorization for operating environments Conclusion and reflections 5. Time compression in the supply chain Adrian Beesley Time compression and competition What time compression is The time compression approach: competitive advantage The time compression approach: cost advantage 6. Formulating a logistics strategy Nathalie Fabbes-Costes and Jacques Colin Why formulate logistics strategies A conceptual approach to formulating logistics strategy Illustrated typology of possible logistics strategies Strategic action itineraries in logistics Conclusions 7. Thinking strategically about supply chain relationships management: the issue of incentives Glyn Watson, Andrew Cox, Chris Lonsdale and Joe Sanderson Incentivization and the process of exchange Incentivization and the outsourcing dilemma Incentivization and supplier management Conclusion 8. Supply/demand chain management: the next frontier for competitiveness Dag Ericsson The starting point Perceived customer value The evolution of the logistics concept A new perspective E-logistics Process management Supply chain management Demand chain management Demand/supply chain linkages E-nets Conclusions 9. Internet traders can increase profitability by reshaping their supply chains Robert Duncan How Internet traders can take advantage of the opportunities available from streamlined supply chains and distribution networks The establishment of a vision of the future Reviewing business processes and electronic systems The opportunity is waiting to be exploited 10. Organization, the supply chain and IT Philip Schary and Ashok Chandrashekar The path to the Internet The Internet implications Networks and the new players The new organization Concluding remarks 11. Performance measurement and management in the supply chain Alan Braithwaite Introduction Keeping score - a basic management principle The balanced scorecard: the standard for goal setting and measurement The fundamental concepts of supply chain management and measurement 12. Benchmarking in logistics and supply chain management Tim Randall Introduction What benchmarking is A brief history of benchmarking What it can do for you Scoping benchmarking studies Quantitative versus qualitative benchmarking 13. Outsourcing the logistics function Alan McKinnon Introduction Growth of outsourcing Factors promoting outsourcing The process of externalisation Recent trends in the purchase of logistical services Evolving relationship between providers and users of logistical services Conclusion 14. Delivering sustainability through supply chain management Kirstie McKintyre Background Purchasing or procurement Production or manufacturing Use and maintenance Dispose or reuse and recycle Managerial and financial sustainability Conclusion 15. Retail logistics John Fernie Introduction, The evolution of the logistics concept Logistics and competitive strategy in retailing Efficient consumer response (ECR) Differences in logistics 'culture' in international markets Consumer choice and retail formats Manufacturer-retailer relationships Logistics cost structures Role of the third-party contractor The internationalization of logistics practice The future 16. Managing the financial supply chain: scope, services and problems Lars Stemmler 17. Training in logistics David Granville About learning Business trends Development trends Responding to a changing environment The logistics environment Performance development model Learning foundations If you think training is expensive, try ignorance Conclusion 18. City logistics: the continuing search for sustainable solutions Tony Whiteing, Michael Browne and Julian Allen Introduction: the urban logistics dilemma The EC and UK contexts A range of potential urban freight solutions 19. Global enterprise logistics: one tradition ends and another begins Derek Gittoes and Larry Simcox Introduction Global enterprise logistics Global logistics: current issues Case studies Uncovering value within your logistics organization Conclusio</t>
+          <t>Extensive Experiments on inclined dense jets typical of brine discharges into shallow water are reported. The experiments were conducted with nozzles oriented at 30°, 45°, and 60° to the horizontal and the spatial variations of tracer concentrations were measured by three-dimensional laser-induced fluorescence (3DLIF). Three flow regimes were identified: deep water, surface contact, and shallow water. The regimes depend on the value of dF/H, where d is the nozzle diameter, F the jet densimetric Froude number, and H the water depth; criteria were presented for the transitions between them. Flow images revealed complex three-dimensional interactions with the free surface, especially for steep nozzle angles in shallow water. Dilutions at critical points and their locations were measured. For deep water, all results followed those previously reported for fully submerged jets. As the depth decreases (or dF/H increases) to the surface contact regime, dilutions begin to decrease. Tracer concentration profiles are truncated at the water surface and in shallow water resemble half-Gaussian profiles similar to those of wall jets. The jets can cling to the water surface, although the locations of the bottom impact point and near-field length are not significantly affected by the water surface. In deep water and surface contact regimes, the impact point and near-field dilutions are highest for 60° nozzles. As the depth decreases further, however, the dilutions for the three nozzle angles become approximately equal, until, for shallow water, the 30°-nozzle gives slightly higher dilution. The 30°-nozzle may be preferable for this case because there is less surface interaction and, therefore, less visual impact on the water surface. Previous recommendations that dense jets be submerged so that the rise height to the jet's upper boundary be less than 75% of the water depth to avoid surface effects appear to be overly conservative and the present results suggest that the rise can be as much as 90% of the water depth for all angles with no deleterious effect on dilution.</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2002277461</t>
+          <t>https://openalex.org/W2063772587</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1039/c2fd20039b</t>
+          <t>https://doi.org/10.1353/rah.1999.0067</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>MacDougall et al. (2012)</t>
+          <t>Yazawa (1999)</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Nanoscale characteristics of triacylglycerol oils: phase separation and binding energies of two-component oils to crystalline nanoplatelets</t>
+          <t>The North and South Poles of the American Revolution</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Fats are elastoplastic materials with a defined yield stress and flow behavior and the plasticity of a fat is central to its functionality. This plasticity is given by a complex tribological interplay between a crystalline phase structured as crystalline nanoplatelets (CNPs) and nanoplatelet aggregates and the liquid oil phase. Oil can be trapped within microscopic pores within the fat crystal network by capillary action, but it is believed that a significant amount of oil can be trapped by adsorption onto crystalline surfaces. This, however, remains to be proven. Further, the structural basis for the solid–liquid interaction remains a mystery. In this work, we demonstrate that the triglyceride liquid structure plays a key role in oil binding and that this binding could potentially be modulated by judicious engineering of liquid triglyceride structure. The enhancement of oil binding is central to many current developments in this area since an improvement in the health characteristics of fat and fat-structured food products entails a reduction in the amount of crystalline triacylglycerols (TAGs) and a relative increase in the amount of liquid TAGs. Excessive amounts of unbound, free oil, will lead to losses in functionality of this important food component. Engineering fats for enhanced oil binding capacity is thus central to the design of more healthy food products. To begin to address this, we modelled the interaction of triacylglycerol oils, triolein (OOO), 1,2-olein elaidin (OOE) and 1,2-elaidin olein (EEO) with a model crystalline nanoplatelet composed of tristearin in an undefined polymorphic form. The surface of the CNP in contact with the oil was assumed to be planar. We considered pure OOO and mixtures of OOO + OOE and OOO + EEO with 80% OOO. The last two cases were taken as approximations to high oleic sunflower oil (HOSO). The intent was to investigate whether phase separation on a nanoscale took place. We defined an “oil binding capacity” parameter, B(Q,Q′), relating a state Q to a reference state Q′. We used atomic scale molecular dynamics in the NVT ensemble and computed averages over 1–5 ns. We found that the probability of the OOE phase separating into a layer on the surface of the CNP compared to being retained randomly in an OOO + OOE mix were approximately equal. However, we found that it was probable that the EEO component of an OOO + EEO mix would phase separate and coat the surface of the CNP. These results suggest a mechanism whereby many-component oils undergo phase separation on a nanoscale so as to create a transition oil region between the surface of the CNP and the bulk major oil component (OOO in the case considered here) so as to create the appropriate oil binding capacity for the use to which it is put.</t>
+          <t>In February 1812 Benjamin Rush was in a mood to celebrate. The occasion was an exchange of letters between John Adams and Thomas Jefferson marking the end of a decade-long silence between the two men. No one had worked harder than Rush to rejuvenate this erstwhile friendship, and the Philadelphia physician and signer of the Declaration of Independence could scarcely contain himself. I rejoice in the correspondence which has taken place between and your old friend Mr. Jefferson, he explained to Adams, because although talked, some wrote, and some fought to promote the cause of independence, you and Mr. Jefferson thought for us all, were the North and South Poles of the American Revolution.' Jean Yarbrough and C. Bradley Thompson must surely share Rush's enthusiasm for Adams and Jefferson. Their thoughtful and frequently provocative studies suggest as much. But the overriding impression one is left with after reading American Virtues and John Adams and the Spirit of Liberty is not they hold in common but how markedly different they are in their stated purposes, approach, scope, methodology, and execution. American Virtues is a study of the Jeffersonian past inspired by Yarbrough's vision of the American present. And Yarbrough's America is in trouble. Moral relativists have eroded the belief in the existence of moral and spiritual truths (p. xx); postmodernists have promoted a reflexive tolerance (at least among elites) for almost any 'lifestyle' (p. xx); contemporary liberals have distorted the Founders' natural doctrine to include what are today called the 'privacy' issues, such as homosexuality (p. 11); the rights industry has succeeded in pushing for legislation that has elevated equality</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4255347163</t>
+          <t>https://openalex.org/W2314134247</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1007/978-3-030-35858-7_84</t>
+          <t>https://doi.org/10.1103/physrevb.85.134528</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Flamini et al. (2021)</t>
+          <t>Zou &amp; Jin (2012)</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>School Leaders, Emotional Intelligence, and Equitable Outcomes in Urban Education</t>
+          <t>Exchange-field-modulated 0-&lt;mml:math xmlns:mml="http://www.w3.org/1998/Math/MathML" display="inline"&gt;&lt;mml:mi&gt;π&lt;/mml:mi&gt;&lt;/mml:math&gt;transition and chiral edge supercurrents in a superconductor/ferromagnetic topological insulator/superconductor junction</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>With the nation’s public schools serving a more diverse student population than ever before, the role of the school leader is becoming increasingly complex. Research indicates principal preparation programs are inadequately preparing leaders to address the systemic inequities hindering non-White students’ achievement. Administrators in urban public schools face particularly well-documented equity challenges. Providing urban school leaders with the tools to navigate the pressures of their jobs while driving equitable student outcomes is a relevant policy consideration. This chapter presents emotional intelligence (EI) as an agent of transformational leadership and positions emotionally intelligent leadership as a meaningful urban education reform. In rooting our analysis in organizational and ecological systems theories, we aim to (1) nest EI literature within extant research addressing challenges uniquely affecting urban schooling contexts, (2) explore how EI can support urban leaders in addressing and mitigating school-based inequities, and (3) examine benefits of building school leaders’ EI capacity in relation to the most current federal education policies and urban demographic data.</t>
+          <t>We study theoretically the Josephson effect in an $s$-wave superconductor/two-dimensional (2D) ferromagnetic topological insulator (TI)/$s$-wave superconductor junction by the Matsubara Green's function method. It is found that the direction of the edge supercurrents through the Josephson junction can reverse (i.e., 0-$\ensuremath{\pi}$ transition occurs) when both the time-reversal symmetry and sublattice symmetry are broken by inducing the exchange field in the magnetically doped TI. The unconventional 0 and $\ensuremath{\pi}$ states are robust against the weak disorder, which is guaranteed by the topological properties of the quantum spin Hall state in the 2D ferromagnetic TI. Moreover, as the superconducting phase difference between the two superconductors is 0 or $\ensuremath{\pi}$, the two edge supercurrents have equal magnitude but are in the opposite directions, so that the total supercurrents vanish and the chiral edge supercurrents emerge. The feasible experimental detection of the chiral edge supercurrents is indicated.</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4393176428</t>
+          <t>https://openalex.org/W2053181794</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>https://doi.org/10.4018/979-8-3693-1773-0.ch004</t>
+          <t>https://doi.org/10.1194/jlr.m043711</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Haokip (2024)</t>
+          <t>Miao et al. (2014)</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Leadership Coaching and Mentorship as a Strategy for Retention</t>
+          <t>Hepatic insulin receptor deficiency impairs the SREBP-2 response to feeding and statins</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>This chapter explores innovative strategies to empower and retain minority women in K–12 education leadership, focusing on the pivotal role of leadership coaching and mentorship. Emphasizing resilience and professional growth, the outlined implementation strategies stress planning, inclusivity, and continuous professional development. Collaborative efforts among educators, administrators, and policymakers are crucial to fostering diversity, equity, and inclusion. Evaluation metrics, including retention rates and leadership competency development, guide continuous improvement, ensuring responsiveness to evolving educational needs. Coaching and mentorship emerge as dynamic tools, celebrating diversity and contributing to the collective success of educational institutions. Embracing these strategies and fostering a collaborative ethos is imperative for transformative change in K–12 education.</t>
+          <t>The liver plays a central role in metabolism and mediating insulin action. To dissect the effects of insulin on the liver in vivo, we have studied liver insulin receptor knockout (LIRKO) mice. Because LIRKO livers lack insulin receptors, they are unable to respond to insulin. Surprisingly, the most profound derangement observed in LIRKO livers by microarray analysis is a suppression of the cholesterologenic genes. Sterol regulatory element binding protein (SREBP)-2 promotes cholesterologenic gene transcription, and is inhibited by intracellular cholesterol. LIRKO livers show a slight increase in hepatic cholesterol, a 40% decrease in Srebp-2, and a 50–90% decrease in the cholesterologenic genes at the mRNA and protein levels. In control mice, SREBP-2 and cholesterologenic gene expression are suppressed by fasting and restored by refeeding; in LIRKO mice, this response is abolished. Similarly, the ability of statins to induce Srebp-2 and the cholesterologenic genes is lost in LIRKO livers. In contrast, ezetimibe treatment robustly induces Srepb-2 and its targets in LIRKO livers, raising the possibility that insulin may regulate SREBP-2 indirectly, by altering the accumulation or distribution of cholesterol within the hepatocyte. Taken together, these data indicate that cholesterol synthesis is a key target of insulin action in the liver. The liver plays a central role in metabolism and mediating insulin action. To dissect the effects of insulin on the liver in vivo, we have studied liver insulin receptor knockout (LIRKO) mice. Because LIRKO livers lack insulin receptors, they are unable to respond to insulin. Surprisingly, the most profound derangement observed in LIRKO livers by microarray analysis is a suppression of the cholesterologenic genes. Sterol regulatory element binding protein (SREBP)-2 promotes cholesterologenic gene transcription, and is inhibited by intracellular cholesterol. LIRKO livers show a slight increase in hepatic cholesterol, a 40% decrease in Srebp-2, and a 50–90% decrease in the cholesterologenic genes at the mRNA and protein levels. In control mice, SREBP-2 and cholesterologenic gene expression are suppressed by fasting and restored by refeeding; in LIRKO mice, this response is abolished. Similarly, the ability of statins to induce Srebp-2 and the cholesterologenic genes is lost in LIRKO livers. In contrast, ezetimibe treatment robustly induces Srepb-2 and its targets in LIRKO livers, raising the possibility that insulin may regulate SREBP-2 indirectly, by altering the accumulation or distribution of cholesterol within the hepatocyte. Taken together, these data indicate that cholesterol synthesis is a key target of insulin action in the liver. Diabetes affects almost 26 million Americans but the mechanisms by which it promotes CVD, the most common cause of death in diabetic patients (1Wijchers P.J. Burbach J.P. Smidt M.P. In control of biology: of mice, men and Foxes.Biochem. J. 2006; 397: 233-246Crossref PubMed Scopus (117) Google Scholar, 2Isomaa B. Almgren P. Tuomi T. Forsen B. Lahti K. Nissen M. Taskinen M.R. Groop L. Cardiovascular morbidity and mortality associated with the metabolic syndrome.Diabetes Care. 2001; 24: 683-689Crossref PubMed Scopus (3847) Google Scholar), and other complications, such as nonalcoholic fatty liver disease (NAFLD), remain unclear. Both type 1 and type 2 diabetes arise from defects in insulin action: type 1 diabetes is caused by auto-immune-mediated destruction of the β-cells of the pancreas, resulting in insulin deficiency, whereas type 2 diabetes is caused by insulin resistance and decompensation of the β-cells (3Kahn S.E. Hull R.L. Utzschneider K.M. Mechanisms linking obesity to insulin resistance and type 2 diabetes.Nature. 2006; 444: 840-846Crossref PubMed Scopus (3459) Google Scholar). Though the most salient action of insulin is to prevent hyperglycemia, the development of CVD and NAFLD are not fully prevented by the normalization of blood glucose levels (4UK Prospective Diabetes Study Group Intensive blood-glucose control with sulphonylureas or insulin compared with conventional treatment and risk of complications in patients with type 2 diabetes (UKPDS 33).Lancet. 1998; 352: 837-853Abstract Full Text Full Text PDF PubMed Scopus (18977) Google Scholar). Thus, insulin actions on pathways distinct from glucose metabolism may play a role in the development of CVD, NAFLD, and other complications of diabetes. Derangements in cholesterol metabolism are closely associated with atherosclerosis, and could also contribute to the development of NAFLD (5Ginsberg H.N. Is the slippery slope from steatosis to steatohepatitis paved with triglyceride or cholesterol?.Cell Metab. 2006; 4: 179-181Abstract Full Text Full Text PDF PubMed Scopus (36) Google Scholar). Cholesterol biosynthesis and its regulation have therefore been intensively studied over many years (6Brown M.S. Goldstein J.L. Cholesterol feedback: from Schoenheimer's bottle to Scap's MELADL.J. Li</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2986463391</t>
+          <t>https://openalex.org/W2152143215</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1080/15538362.2019.1673874</t>
+          <t>https://doi.org/10.1142/s0218001415510039</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Ranjbarfordoei (2019)</t>
+          <t>Huang et al. (2015)</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Impacts of Elevational Changes and Leaf Maturity Stages on Photoprotective Strategies and Biochemical Traits of Wild Fig [ &lt;i&gt;Ficus Carica&lt;/i&gt; Subsp. &lt;i&gt;Rupestris&lt;/i&gt; (Hausskn)]</t>
+          <t>Matrix Completion with Ordering Relation Constraints and its Applications</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Three leaf maturity indices were defined as young, mature and senescence leaves. The effect of leaf phenophase resulted in a significant alteration in photosynthetic pigments, whereas site position had no significant effect on them. FPC values significantly increased along leaf phenophase development. TSP showed a sharp descending trend in the final phase of leaf elasticity. On the contrary, the highest TSS value was observed in senescence stage of leaf development. Such a trend was observed for starch content. The results revealed that FPC values significantly decreased along the elevation rise. RWC was significantly affected by both site position change and leaf phenophase factors, whereas ΨL was just significantly affected by leaf phenophase. The obtained results exhibited that leaf phenophase significantly affected six (F0, Fm, Fv/Fm, qP, NPQ, and ΦPSII) out of seven fluorescence variables. Meanwhile, the drastic effect of site position gradient was observed in F0, Fv/Fm, and qP. Severe decreases in leaf pigment variable values in SL are indicators of damage to chloroplasts due to leaf senescence and reduction of leaf moisture content, depicted through reducing leaf water potential. The FPC and TSS contents exhibited descending trends along site position gradients, which is consistent with the amount of rain and temperature. A remarkable reduction was observed in the values of Fv/Fm and Fm, ΦPSII and qP, suggesting the sufficiency of photochemistry transformation is affected by leaf cycle development, particularly in senescence stage.</t>
+          <t>We relax the equality constraints in the very general and well-known affine Schatten p-norm minimization problem into complete loss function-based constraints. Owing to the imposed equality constraints, existing methods only have limited degree of model flexibility, via their optimization of the objective energy function. By our proposed transformation, the decision variables in the objective function can directly achieve L0 norm minimization via the process of enumerating the matrix rank (i.e. matrix ordering constraint). We show that, our new objective function is still reasonable, and its minimum can be obtained by a more general form of the Fixed-Point Continuation framework with almost the same computational cost at each matrix order enumeration. Experiments show that, our algorithm has good performance compared to its predecessor over some datasets and applications.</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2016612274</t>
+          <t>https://openalex.org/W3183729345</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3168/jds.2007-0920</t>
+          <t>https://doi.org/10.16938/ijtfs.2021.16.2.001</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Chibisa et al. (2008)</t>
+          <t>Park et al. (2021)</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Effects of Peripartum Propylene Glycol Supplementation on Nitrogen Metabolism, Body Composition, and Gene Expression for the Major Protein Degradation Pathways in Skeletal Muscle in Dairy Cows</t>
+          <t>Changes and Implications of China's Trade Show Industry in the Pandemic Era - Focusing on the digital transformation of the trade show industry</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Early-lactating dairy cows mobilize body protein to provide amino acids that are directed toward gluconeogenesis and milk protein synthesis.Propylene glycol (PG) is a precursor of ruminal propionate, and feeding PG has been reported to improve energy supply by increasing blood glucose.Our hypothesis was that feeding PG could spare body protein by providing an alternative source of carbon for gluconeogenesis.The major objectives of this study were 1) to delineate the effects of pre-and postpartum PG supplementation in transition dairy cows on whole-body nitrogen balance, urinary 3-methylhistidine (3-MH) excretion, body composition, and gene expression profiles for the major protein degradation pathways in skeletal muscle; and 2) to characterize the changes in body protein metabolism during the periparturient period.Sixteen pregnant cows (7 primiparous and 9 multiparous) were paired based on expected calving dates and then randomly assigned within each pair to either a basal diet (control) or basal diet plus 600 mL/d of PG.Diets were fed twice daily for ad libitum intake, and PG was fed in equal amounts as a top dress from d -7 to d 45.All measurements were conducted at 3 time intervals starting at d -14 ± 5, d 15, and d 38 relative to calving.Propylene glycol had no effect on whole-body N balance, urinary 3-MH excretion, or body composition.However, N balance was lower at d 15 and 38, compared with d -14.Urinary excretion of 3-MH was lower at d -14 than at d 15 and 38.Supplemental PG had no effect on body weight (BW) and all components of empty BW.On average, cows fed both diets mobilized 19 kg of body fat and 14 kg of body protein between d -14 and d 38.Supplemental PG had no effect on mRNA abundance in skeletal muscle for m-calpain, and the 14-kDa ubiquitin-carrier protein E2 (14-kDa E2) and proteasome 26S subunit-ATPase components of the ubiquitin-mediated proteolytic pathway; however, PG supplementation downregulated mRNA expression for μ-calpain at d 15, and tended to downregulate mRNA expression for ubiquitin at d 15 and 38.Relative to calving, mRNA abundance for m-and μ-calpain, ubiquitin, and 14-kDa E2 were greater at d 15 compared with d -14 and d 38.In summary, these results indicate that transitional effects on whole-body metabolism and gene expression for the Ca 2+ -dependent and ubiquitinmediated proteolytic pathways in skeletal muscle were more pronounced than those elicited by PG supplementation.</t>
+          <t>It has been over a year since the outbreak of COVID-19, but we are still living in the ‘Corona Pandemic’. This pandemic has had a severe impact on all parts of society and the trade show industry has not been immune from it. In particular, as the trade show industry relies on people meeting, concerns over the spread of infectious diseases are making people avoid trade shows. Against this backdrop, China, which leads the Asian trade show industry, is wisely coping with this crisis despite being the first country to have the coronavirus by holding trade shows in various offline and online forms. Therefore, this study tried to understand the implications of the Korean trade show industry through China’s response to and change in dealing with such a pandemic. As a result of this study, it was confirmed that digital innovation exists at the center of the changes to China's trade show industry, and the key to the digital transformation of China’s trade show industry can be expressed as ‘the combination of exhibition and digital technology’. In other words, regardless of the form of the trade show, the focus is on the use of digital technology to achieve the essence of the trade show. ‘Cloud Fair’ and ‘Live Commerce’ are representative examples of the digital transformation of China’s trade show industry. The digital transformation of the trade show industry does not mean simply holding trade shows online. Instead, it means that digital technology plays a significant role as a platform for facilitating transactions and complementing the limitations and shortcomings of the existing trade shows through the convergence of online and offline characteristics. Collaboration with digital platform operators is also essential for the convergence of these digital technologies and trade shows. Thus, for the continuous development of the trade show industry in the pandemic era, it is necessary to utilize various digital technologies that activate transactions between sellers and buyers. It should be kept in mind that this is the true meaning of the digital transformation of the trade show industry.</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2090798205</t>
+          <t>https://openalex.org/W1826475137</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.nuclphysbps.2004.11.284</t>
+          <t>https://doi.org/10.1038/emboj.2012.75</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Kiskis (2005)</t>
+          <t>Jiang et al. (2012)</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Properties of the large N phase transition</t>
+          <t>Tightening of the ATP-binding sites induces the opening of P2X receptor channels</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Reduced large N gauge theories have a transition between phases with unbroken and broken center symmetry. The phase with unbroken symmetry is associated with the zero temperature, infinite volume, infinite N theory. Measurements of the scalling properties of the latent heat test the hypothesis that the phase in which the symmetry is broken in just one spatial direction is the reduction of the high temperature, infinite volume, infinite N theory. While substantial finite spacing effects are observed, physical scaling for the latent heat at smaller lattice spacing is a viable possibility.</t>
+          <t>Article30 March 2012free access Tightening of the ATP-binding sites induces the opening of P2X receptor channels Ruotian Jiang Ruotian Jiang Faculté de Pharmacie, Laboratoire de Biophysicochimie des Récepteurs Canaux, UMR 7199 CNRS, Conception et Application de Molécules Bioactives, Université de Strasbourg, Illkirch, France Search for more papers by this author Antoine Taly Antoine Taly Faculté de Pharmacie, Laboratoire de Biophysicochimie des Récepteurs Canaux, UMR 7199 CNRS, Conception et Application de Molécules Bioactives, Université de Strasbourg, Illkirch, France Search for more papers by this author Damien Lemoine Damien Lemoine Faculté de Pharmacie, Laboratoire de Biophysicochimie des Récepteurs Canaux, UMR 7199 CNRS, Conception et Application de Molécules Bioactives, Université de Strasbourg, Illkirch, France Search for more papers by this author Adeline Martz Adeline Martz Faculté de Pharmacie, Laboratoire de Biophysicochimie des Récepteurs Canaux, UMR 7199 CNRS, Conception et Application de Molécules Bioactives, Université de Strasbourg, Illkirch, France Search for more papers by this author Olivier Cunrath Olivier Cunrath Faculté de Pharmacie, Laboratoire de Biophysicochimie des Récepteurs Canaux, UMR 7199 CNRS, Conception et Application de Molécules Bioactives, Université de Strasbourg, Illkirch, France Search for more papers by this author Thomas Grutter Corresponding Author Thomas Grutter Faculté de Pharmacie, Laboratoire de Biophysicochimie des Récepteurs Canaux, UMR 7199 CNRS, Conception et Application de Molécules Bioactives, Université de Strasbourg, Illkirch, France Search for more papers by this author Ruotian Jiang Ruotian Jiang Faculté de Pharmacie, Laboratoire de Biophysicochimie des Récepteurs Canaux, UMR 7199 CNRS, Conception et Application de Molécules Bioactives, Université de Strasbourg, Illkirch, France Search for more papers by this author Antoine Taly Antoine Taly Faculté de Pharmacie, Laboratoire de Biophysicochimie des Récepteurs Canaux, UMR 7199 CNRS, Conception et Application de Molécules Bioactives, Université de Strasbourg, Illkirch, France Search for more papers by this author Damien Lemoine Damien Lemoine Faculté de Pharmacie, Laboratoire de Biophysicochimie des Récepteurs Canaux, UMR 7199 CNRS, Conception et Application de Molécules Bioactives, Université de Strasbourg, Illkirch, France Search for more papers by this author Adeline Martz Adeline Martz Faculté de Pharmacie, Laboratoire de Biophysicochimie des Récepteurs Canaux, UMR 7199 CNRS, Conception et Application de Molécules Bioactives, Université de Strasbourg, Illkirch, France Search for more papers by this author Olivier Cunrath Olivier Cunrath Faculté de Pharmacie, Laboratoire de Biophysicochimie des Récepteurs Canaux, UMR 7199 CNRS, Conception et Application de Molécules Bioactives, Université de Strasbourg, Illkirch, France Search for more papers by this author Thomas Grutter Corresponding Author Thomas Grutter Faculté de Pharmacie, Laboratoire de Biophysicochimie des Récepteurs Canaux, UMR 7199 CNRS, Conception et Application de Molécules Bioactives, Université de Strasbourg, Illkirch, France Search for more papers by this author Author Information Ruotian Jiang1,‡, Antoine Taly1,‡, Damien Lemoine1, Adeline Martz1, Olivier Cunrath1 and Thomas Grutter 1 1Faculté de Pharmacie, Laboratoire de Biophysicochimie des Récepteurs Canaux, UMR 7199 CNRS, Conception et Application de Molécules Bioactives, Université de Strasbourg, Illkirch, France ‡These authors contributed equally to this work *Corresponding author. Faculté de Pharmacie, Laboratoire de Biophysicochimie des Récepteurs Canaux, UMR 7199 CNRS, Conception et Application de Molécules Bioactives, Université de Strasbourg, 67400 Illkirch, France. Tel.:+333 68 85 41 57; Fax:+333 68 85 43 06; E-mail: [email protected] The EMBO Journal (2012)31:2134-2143https://doi.org/10.1038/emboj.2012.75 PDFDownload PDF of article text and main figures. ToolsAdd to favoritesDownload CitationsTrack CitationsPermissions ShareFacebookTwitterLinked InMendeleyWechatReddit Figures &amp; Info The opening of ligand-gated ion channels in response to agonist binding is a fundamental process in biology. In ATP-gated P2X receptors, little is known about the molecular events that couple ATP binding to channel opening. In this paper, we identify structural changes of the ATP site accompanying the P2X2 receptor activation by engineering extracellular zinc bridges at putative mobile regions as revealed by normal mode analysis. We provide evidence that tightening of the ATP sites shaped like open 'jaws' induces opening of the P2X ion channel. We show that ATP binding favours jaw tightening, whereas binding of a competitive antagonist prevents gating induced by this movement. Our data reveal the inherent dynamic of the binding jaw, and provide new structural insights into the mechanism of P2X receptor activation. Introduction P2X receptors are membrane cation channels gated by extracellular ATP</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3037343437</t>
-        </is>
-      </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1109/dessert50317.2020.9125029</t>
+          <t>https://openalex.org/W1580071625</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Тагарев (2020)</t>
+          <t>Waters (1999)</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Governance of Collaborative Networked Organisations: Stakeholder Requirements</t>
+          <t>Global Logistics And Distribution Planning: Strategies for Management</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>The digital transformation of industry provides opportunities for increased collaboration. Utilising the increasing power of communications and access to information, various collaborative networked organisations are established to respond quickly to emerging market demands while sharing resources and risk. The governance of such organisations remains a significant challenge. Therefore, in the process of designing a governance model for a cybersecurity network, a research team in the Horizon 2020 ECHO project pursued several venues to identify and prioritise governance needs and objectives. This paper presents the approach to soliciting the views of two groups of stakeholders – funding organisations and potential major customers of cybersecurity products and services – by conducting semi-structured interviews. The research method included quantitative and qualitative techniques for processing the inter-views, allowing to prioritise governance requirements from an initial list and to identify additional governance issues. As a result, the geographic representation in the networked organisation, the involvement of external stakeholders, the decision-making arrangements, and the need to provide for confidentiality emerged as governance issues of highest concern, followed by supply chain security, representation on the senior governance bodies, auditing, management of disputes and intellectual property rights, setting up an ethics code and policies for gender representation, transparency, accountability, and integrity.</t>
+          <t>Contents Notes on contributors List of figures List of tables Introduction 1. Development and trends in supply chain management Donald Waters Introduction Changing views of logistics Integration of the supply chain Logistics strategy Trends in logistics Global logistics Measuring performance Improving performance Conclusions 2. New directions in logistics Martin Christopher The emergence of the value-conscious customer Logistics and supply chain management The new competitive framework: the three Rs The organizational challenge Summary 3. Future trends in supply chain management Peter Hines Abstract Introduction Key area 1: more than just lorries and buyers Key area 2: more than just orders and information Key area 3: more than just fast and efficient Key area 4: more than just textbooks and totebins Summary and conclusion 4. Agile supply chain operating environments Remko van Hoek Summary Introduction Agile supply chain principles Operating circumstances requiring agility The categorization for operating environments Conclusion and reflections 5. Time compression in the supply chain Adrian Beesley Time compression and competition What time compression is The time compression approach: competitive advantage The time compression approach: cost advantage 6. Formulating a logistics strategy Nathalie Fabbes-Costes and Jacques Colin Why formulate logistics strategies A conceptual approach to formulating logistics strategy Illustrated typology of possible logistics strategies Strategic action itineraries in logistics Conclusions 7. Thinking strategically about supply chain relationships management: the issue of incentives Glyn Watson, Andrew Cox, Chris Lonsdale and Joe Sanderson Incentivization and the process of exchange Incentivization and the outsourcing dilemma Incentivization and supplier management Conclusion 8. Supply/demand chain management: the next frontier for competitiveness Dag Ericsson The starting point Perceived customer value The evolution of the logistics concept A new perspective E-logistics Process management Supply chain management Demand chain management Demand/supply chain linkages E-nets Conclusions 9. Internet traders can increase profitability by reshaping their supply chains Robert Duncan How Internet traders can take advantage of the opportunities available from streamlined supply chains and distribution networks The establishment of a vision of the future Reviewing business processes and electronic systems The opportunity is waiting to be exploited 10. Organization, the supply chain and IT Philip Schary and Ashok Chandrashekar The path to the Internet The Internet implications Networks and the new players The new organization Concluding remarks 11. Performance measurement and management in the supply chain Alan Braithwaite Introduction Keeping score - a basic management principle The balanced scorecard: the standard for goal setting and measurement The fundamental concepts of supply chain management and measurement 12. Benchmarking in logistics and supply chain management Tim Randall Introduction What benchmarking is A brief history of benchmarking What it can do for you Scoping benchmarking studies Quantitative versus qualitative benchmarking 13. Outsourcing the logistics function Alan McKinnon Introduction Growth of outsourcing Factors promoting outsourcing The process of externalisation Recent trends in the purchase of logistical services Evolving relationship between providers and users of logistical services Conclusion 14. Delivering sustainability through supply chain management Kirstie McKintyre Background Purchasing or procurement Production or manufacturing Use and maintenance Dispose or reuse and recycle Managerial and financial sustainability Conclusion 15. Retail logistics John Fernie Introduction, The evolution of the logistics concept Logistics and competitive strategy in retailing Efficient consumer response (ECR) Differences in logistics 'culture' in international markets Consumer choice and retail formats Manufacturer-retailer relationships Logistics cost structures Role of the third-party contractor The internationalization of logistics practice The future 16. Managing the financial supply chain: scope, services and problems Lars Stemmler 17. Training in logistics David Granville About learning Business trends Development trends Responding to a changing environment The logistics environment Performance development model Learning foundations If you think training is expensive, try ignorance Conclusion 18. City logistics: the continuing search for sustainable solutions Tony Whiteing, Michael Browne and Julian Allen Introduction: the urban logistics dilemma The EC and UK contexts A range of potential urban freight solutions 19. Global enterprise logistics: one tradition ends and another begins Derek Gittoes and Larry Simcox Introduction Global enterprise logistics Global logistics: current issues Case studies Uncovering value within your logistics organization Conclusio</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3196698795</t>
-        </is>
-      </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1080/13629387.2021.1976009</t>
+          <t>https://openalex.org/W2361337553</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Joffé (2021)</t>
+          <t>Guo (2013)</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>ALL FALL DOWN …</t>
+          <t>Oxidation Behavior of Nb-Ti-Si-Cr Based Ultra-high Temperature Alloy at 1250 ℃</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>It is a profound irony that the Jasmine blossom of Tunisia’s democratic revolution should wilt, just ten years after blooming in 2011, despite widespread convictions that Tunisia, perhaps alone in ...</t>
+          <t>Nb-22Ti-14Si-20Cr-3Al-5Hf-1.5B-0.06Y(at.%) alloy ingot was prepared by vacuum consumable arc melting.The ingots were oxidized in an open-ended furnace at 1250 ℃ for 1,5,10,20,50 and 100h,respectively.X-ray diffraction analysis was used to identify the phase presenting in both oxide scales and alloy substrate.The cross sections of the oxidized specimens were observed by scanning electron microscopy(SEM) and the chemical composition of the constituent phases were analyzed by using energy dispersive spectroscopy(EDS).The results show that the oxide scale consists of two layers: a compact outer layer and a looser intermediate layer.The constituent phases of the outer layer are Ti0.4Cr0.3Nb0.3O2,TiNb2O7and SiO2.As the oxidation prolonging,the content of TiNb2O7reduces,but the content of Ti0.4Cr0.3Nb0.3O2increases.The constituent phases of the intermediate layer is(Ti,Cr)NbO4,Ti2Nb10O29and Nb2O5.There are transitional regions presenting in the phase boundaries between Cr2Nb and Nbss in the substrate just below the oxide scales,which show that the element re-partitioning between the two phases occurs during the oxidation process.</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
+          <t>https://openalex.org/W4255347163</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1007/978-3-030-35858-7_84</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>Flamini et al. (2021)</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>School Leaders, Emotional Intelligence, and Equitable Outcomes in Urban Education</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>With the nation’s public schools serving a more diverse student population than ever before, the role of the school leader is becoming increasingly complex. Research indicates principal preparation programs are inadequately preparing leaders to address the systemic inequities hindering non-White students’ achievement. Administrators in urban public schools face particularly well-documented equity challenges. Providing urban school leaders with the tools to navigate the pressures of their jobs while driving equitable student outcomes is a relevant policy consideration. This chapter presents emotional intelligence (EI) as an agent of transformational leadership and positions emotionally intelligent leadership as a meaningful urban education reform. In rooting our analysis in organizational and ecological systems theories, we aim to (1) nest EI literature within extant research addressing challenges uniquely affecting urban schooling contexts, (2) explore how EI can support urban leaders in addressing and mitigating school-based inequities, and (3) examine benefits of building school leaders’ EI capacity in relation to the most current federal education policies and urban demographic data.</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W2016454735</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1103/physreva.11.1560</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>Tawara et al. (1975)</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>&lt;mml:math xmlns:mml="http://www.w3.org/1998/Math/MathML" display="inline"&gt;&lt;mml:mi&gt;L&lt;/mml:mi&gt;&lt;/mml:math&gt;-shell ionizations of Au, Bi, and U in proton and helium-ion impact</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>The x-ray production cross sections of the total $L$ shell and of the $L\ensuremath{\alpha}$, $L\ensuremath{\beta}$, $L\ensuremath{\gamma}$, $\mathrm{Ll}$, and $L\ensuremath{\eta}$ transitions have been measured for Au, Bi, and U for proton impact over the energy range from 1.0 to 4.5 MeV and for $^{3}\mathrm{He}^{+}$ impact from 3.0 to 9.0 MeV. The measured x-ray production cross sections and the ratios of the x-ray production for various transitions are compared with calculations based on the plane-wave Born approximation (PWBA) and the binary-encounter approximation (BEA). Generally, the PWBA is in better agreement with the observed results. Various correction factors to these simplified theories are also estimated and discussed. The ratios of the x-ray production for proto\ifmmode \acute{n}\else \'{n}\fi{} impact to that for helium-ion impact, at equal velocities, deviate systematically from the theoretical ${\mathrm{Z}}_{1}^{2}$ dependence. This behavior is discussed in terms of the nuclear repulsion for the projectile, the change in binding energy of the target electrons, and the polarization of electron orbit. It is shown that the observed total $L$-shell ionization cross sections for various elements taken from the present work and other works can be represented by a single smooth curve, which at higher energies is in good agreement with the BEA curve of Garcia derived for the $K$-shell ionization, though the experimental values at lower energies are considerably higher than the theoretical predictions.</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W4315784573</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1038/s41563-022-01454-4</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>Zeng et al. (2023)</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>Exciton density waves in Coulomb-coupled dual moiré lattices</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>Strongly correlated bosons in a lattice are a platform to realize rich bosonic states of matter and quantum phase transitions. While strongly correlated bosons in a lattice have been studied in cold-atom experiments, their realization in a solid-state system has remained challenging. Here we trap interlayer excitons--bosons composed of bound electron-hole pairs--in a lattice provided by an angle-aligned WS2/bilayer WSe2/WS2 multilayer; the heterostructure supports Coulomb-coupled triangular moir\'e lattices of nearly identical period at the top and bottom interfaces. We observe correlated insulating states when the combined electron filling factor of the two lattices, with arbitrary partitions, equals to 1/3,2/3,4/3 and 5/3. These new states can be interpreted as exciton density waves in a Bose-Fermi mixture of excitons and holes. Because of the strong repulsive interactions between the constituents, the holes form robust generalized Wigner crystals , which restrict the exciton fluid to channels that spontaneously break the translational symmetry of the lattice. Our results demonstrate that Coulomb-coupled moir\'e lattices are fertile ground for correlated many-boson phenomena.</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W2995319519</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1097/01.hj.0000651552.44742.0c</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>Citron (2020)</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>Motivational Interviewing in Audiology: How to Become an Appreciative Ally</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t xml:space="preserve">What are the steps to becoming an appreciative ally, adopt person-centered care, and move from a top-down stance to a one-down position? It involves making a change in how one interacts with and responds to a patient.iStock/monkeybusinessimages, audiology, healthcare, hearing lossOld habits die hard. We know so much about hair cell damage, new hearing aid technology, cochlear implants, bone-anchored hearing aids (BAHA), and wireless connectivity. The mistake practitioners make in most situations is that they see their task as just supplying information—cold hard facts and descriptions. They want to be Mr./Ms. Informative. However, we often are not comfortable managing patients’ affect or emotional statements. As a result, we are often not tuned in to a patient's feelings during a hearing care visit. EMPHASIS ON THE AFFECT Affect or feelings are the major factors that make patients feel connected to us. With any health care provider, patients respond positively to having their feelings acknowledged and validated. Knowing how to address a patient's feelings is a critical skill in clinical care because it reflects the patient's affective experience in relation to their worlds. Patients are looking for the meaning behind the information—for more than just the facts.1 As stated by the famous poet and essayist Maya Angelou: “People will forget what you said, people will forget what you did, but people will never forget how you made them feel.” Patients must feel free and safe to share their feelings and thoughts. Front-office staff must be welcoming and friendly. Physical attending is an important building block of hearing care. This involves giving your undivided attention, making eye contact (more challenging now with electronic medical records), fully facing the patient, and leaning forward so your forearms can rest on your thighs. Avoid sitting behind a desk because it creates both a physical and psychological barrier to comfortable communication. Mobile phones must be silenced. Chairs need to be comfortable and have arms. Examination rooms must be neat and private. MOTIVATIONAL INTERVIEWING As these behaviors are quite common in health care, a broad variety of management and treatment strategies exists, with most coming from our partners in psychology.1-3 Rollnick, Miller, and Butler3 describe motivational interviewing (MI) as a comprehensive guiding style to behavior change as opposed to direct persuasion. MI is best described as a conversation designed to strengthen a person's motivation for and movement toward a specific goal by eliciting and exploring his or her motivation to change within an atmosphere of acceptance and compassion. The first change practitioners can make is to resist the fixing impulse. We are often so eager to help patients that we typically rush to introduce a solution when patients are headed down the wrong path. The problem is that this response can often produce a pulling back behavior. It is not because of any major flaw on the part of the patient. There can be a natural tendency to resist persuasion, particularly among those who are ambivalent about something. Ambivalence is a normal process of thinking about the pros and cons of making a change. It is simultaneously wanting and not wanting something. Rollnick, Miller, and Butler3 explained that patients hear two kinds of talk: change talk, which is the patient's own statements that favor change (“I need to do something about my hearing loss”) and sustain talk, which is the opposite and argues for the status quo (“I hate the thought of people noticing the hearing aids”). If a practitioner employs the fixing impulse, he or she will take up the good side of the argument. The patient then will almost automatically take up the other side. OARS MICROSKILLS The microskills employed in MI are best described by the acronym OARS.3 O stands for open-ended questions. These are designed to encourage a full, meaningful answer from a patient using his or her own knowledge and/or feelings. Considered an invitation to talk, these can often elicit unanticipated information. It is the opposite of a closed-ended question that encourages a one-word or short response. Examples are: “How can I help you?” “What are the good things and not so good things about amplification?” “What do you want to do next?” A stands for affirmations. These statements are about anything positive that is noticed about a patient. They serve to develop a sense of self-confidence, and are very helpful in building the counseling relationship. They can include awards, attempts, prior successes, accomplishments, and achievements. Some examples are: “Thank you for coming in today and choosing us as your hearing care provider,” “You have tried hearing aids in the past. Thank you for your continued commitment to improving your life,” and “I see from your history that you were in the Navy. Thank you for your service.” R is for reflective listening, which is the most important skill </t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W2986463391</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1080/15538362.2019.1673874</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Ranjbarfordoei (2019)</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>Impacts of Elevational Changes and Leaf Maturity Stages on Photoprotective Strategies and Biochemical Traits of Wild Fig [ &lt;i&gt;Ficus Carica&lt;/i&gt; Subsp. &lt;i&gt;Rupestris&lt;/i&gt; (Hausskn)]</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>Three leaf maturity indices were defined as young, mature and senescence leaves. The effect of leaf phenophase resulted in a significant alteration in photosynthetic pigments, whereas site position had no significant effect on them. FPC values significantly increased along leaf phenophase development. TSP showed a sharp descending trend in the final phase of leaf elasticity. On the contrary, the highest TSS value was observed in senescence stage of leaf development. Such a trend was observed for starch content. The results revealed that FPC values significantly decreased along the elevation rise. RWC was significantly affected by both site position change and leaf phenophase factors, whereas ΨL was just significantly affected by leaf phenophase. The obtained results exhibited that leaf phenophase significantly affected six (F0, Fm, Fv/Fm, qP, NPQ, and ΦPSII) out of seven fluorescence variables. Meanwhile, the drastic effect of site position gradient was observed in F0, Fv/Fm, and qP. Severe decreases in leaf pigment variable values in SL are indicators of damage to chloroplasts due to leaf senescence and reduction of leaf moisture content, depicted through reducing leaf water potential. The FPC and TSS contents exhibited descending trends along site position gradients, which is consistent with the amount of rain and temperature. A remarkable reduction was observed in the values of Fv/Fm and Fm, ΦPSII and qP, suggesting the sufficiency of photochemistry transformation is affected by leaf cycle development, particularly in senescence stage.</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W2016612274</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.3168/jds.2007-0920</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>Chibisa et al. (2008)</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>Effects of Peripartum Propylene Glycol Supplementation on Nitrogen Metabolism, Body Composition, and Gene Expression for the Major Protein Degradation Pathways in Skeletal Muscle in Dairy Cows</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>Early-lactating dairy cows mobilize body protein to provide amino acids that are directed toward gluconeogenesis and milk protein synthesis.Propylene glycol (PG) is a precursor of ruminal propionate, and feeding PG has been reported to improve energy supply by increasing blood glucose.Our hypothesis was that feeding PG could spare body protein by providing an alternative source of carbon for gluconeogenesis.The major objectives of this study were 1) to delineate the effects of pre-and postpartum PG supplementation in transition dairy cows on whole-body nitrogen balance, urinary 3-methylhistidine (3-MH) excretion, body composition, and gene expression profiles for the major protein degradation pathways in skeletal muscle; and 2) to characterize the changes in body protein metabolism during the periparturient period.Sixteen pregnant cows (7 primiparous and 9 multiparous) were paired based on expected calving dates and then randomly assigned within each pair to either a basal diet (control) or basal diet plus 600 mL/d of PG.Diets were fed twice daily for ad libitum intake, and PG was fed in equal amounts as a top dress from d -7 to d 45.All measurements were conducted at 3 time intervals starting at d -14 ± 5, d 15, and d 38 relative to calving.Propylene glycol had no effect on whole-body N balance, urinary 3-MH excretion, or body composition.However, N balance was lower at d 15 and 38, compared with d -14.Urinary excretion of 3-MH was lower at d -14 than at d 15 and 38.Supplemental PG had no effect on body weight (BW) and all components of empty BW.On average, cows fed both diets mobilized 19 kg of body fat and 14 kg of body protein between d -14 and d 38.Supplemental PG had no effect on mRNA abundance in skeletal muscle for m-calpain, and the 14-kDa ubiquitin-carrier protein E2 (14-kDa E2) and proteasome 26S subunit-ATPase components of the ubiquitin-mediated proteolytic pathway; however, PG supplementation downregulated mRNA expression for μ-calpain at d 15, and tended to downregulate mRNA expression for ubiquitin at d 15 and 38.Relative to calving, mRNA abundance for m-and μ-calpain, ubiquitin, and 14-kDa E2 were greater at d 15 compared with d -14 and d 38.In summary, these results indicate that transitional effects on whole-body metabolism and gene expression for the Ca 2+ -dependent and ubiquitinmediated proteolytic pathways in skeletal muscle were more pronounced than those elicited by PG supplementation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W2090798205</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/j.nuclphysbps.2004.11.284</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>Kiskis (2005)</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>Properties of the large N phase transition</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>Reduced large N gauge theories have a transition between phases with unbroken and broken center symmetry. The phase with unbroken symmetry is associated with the zero temperature, infinite volume, infinite N theory. Measurements of the scalling properties of the latent heat test the hypothesis that the phase in which the symmetry is broken in just one spatial direction is the reduction of the high temperature, infinite volume, infinite N theory. While substantial finite spacing effects are observed, physical scaling for the latent heat at smaller lattice spacing is a viable possibility.</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W3037343437</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1109/dessert50317.2020.9125029</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>Тагарев (2020)</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>Governance of Collaborative Networked Organisations: Stakeholder Requirements</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>The digital transformation of industry provides opportunities for increased collaboration. Utilising the increasing power of communications and access to information, various collaborative networked organisations are established to respond quickly to emerging market demands while sharing resources and risk. The governance of such organisations remains a significant challenge. Therefore, in the process of designing a governance model for a cybersecurity network, a research team in the Horizon 2020 ECHO project pursued several venues to identify and prioritise governance needs and objectives. This paper presents the approach to soliciting the views of two groups of stakeholders – funding organisations and potential major customers of cybersecurity products and services – by conducting semi-structured interviews. The research method included quantitative and qualitative techniques for processing the inter-views, allowing to prioritise governance requirements from an initial list and to identify additional governance issues. As a result, the geographic representation in the networked organisation, the involvement of external stakeholders, the decision-making arrangements, and the need to provide for confidentiality emerged as governance issues of highest concern, followed by supply chain security, representation on the senior governance bodies, auditing, management of disputes and intellectual property rights, setting up an ethics code and policies for gender representation, transparency, accountability, and integrity.</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W3196698795</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1080/13629387.2021.1976009</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>Joffé (2021)</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>ALL FALL DOWN …</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>It is a profound irony that the Jasmine blossom of Tunisia’s democratic revolution should wilt, just ten years after blooming in 2011, despite widespread convictions that Tunisia, perhaps alone in ...</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
           <t>https://openalex.org/W1543369649</t>
         </is>
       </c>
-      <c r="B201" t="inlineStr">
+      <c r="B210" t="inlineStr">
         <is>
           <t>https://doi.org/10.13016/go50-isoq</t>
         </is>
       </c>
-      <c r="C201" t="inlineStr">
+      <c r="C210" t="inlineStr">
         <is>
           <t>for &amp; Control (2010)</t>
         </is>
       </c>
-      <c r="D201" t="inlineStr">
+      <c r="D210" t="inlineStr">
         <is>
           <t>CDC Report on Findings from the U.S. Public Health Service Sexually TransmittedDisease Inoculation Study of 1946–1948, Based on Review of Archived Papers of John Cutler, MD, at the University of Pittsburgh</t>
         </is>
       </c>
-      <c r="E201" t="inlineStr">
+      <c r="E210" t="inlineStr">
         <is>
           <t>From 1946–1948, the U.S. Public Health Service (USPHS) Venereal Disease Research Laboratory (VDRL) and the Pan American Sanitary Bureau collaborated with several government agencies in Guatemala on U.S. National Institutes of Health-funded studies involving deliberate exposure of human subjects with bacteria that cause sexually transmitted diseases (STD). Guatemalan partners included the Guatemalan Ministry of Health, the National Army of the Revolution, the National Mental Health Hospital, and the Ministry of Justice. Studies were conducted under the on-site direction of John C. Cutler, MD, in Guatemala City, who worked under the supervision of R.C. Arnold, MD, and John F. Mahoney, MD, of the USPHS VDRL in Staten Island, New York. The primary local collaborator was Dr. Juan Funes, chief of the VD control division of the Guatemalan Sanidad Publica._x000D_
 The work by Dr. Cutler and VDRL colleagues was recently brought to light by Professor Susan Reverby of Wellesley College, as a result of archival work conducted as part of_x000D_
@@ -5588,1309 +5800,1075 @@
         </is>
       </c>
     </row>
-    <row r="202">
-      <c r="A202" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W2904328457</t>
-        </is>
-      </c>
-      <c r="B202" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1371/journal.pone.0208429</t>
-        </is>
-      </c>
-      <c r="C202" t="inlineStr">
-        <is>
-          <t>Cichowitz et al. (2018)</t>
-        </is>
-      </c>
-      <c r="D202" t="inlineStr">
-        <is>
-          <t>Hospitalization and post-discharge care in South Africa: A critical event in the continuum of care</t>
-        </is>
-      </c>
-      <c r="E202" t="inlineStr">
-        <is>
-          <t>The purpose of this prospective cohort study is to characterize the event of acute hospitalization for people living with and without HIV and describe its impact on the care continuum. This study describes care-seeking behavior prior to an index hospitalization, inpatient HIV testing and diagnosis, discharge instructions, and follow-up care for patients for patients being discharged from a single hospital in South Africa.A convenience sample of adult patients was recruited from the medical wards of a tertiary care facility. Baseline information at the time of hospital admission, subsequent diagnoses, and discharge instructions were recorded. Participants were prospectively followed with phone calls for six months after hospital discharge. Descriptive analyses were performed.A total of 293 participants were enrolled in the study. Just under half (46%) of the participants were known to be living with HIV at the time of hospital admission. Most participants (97%) were given a referral for follow-up care; often that appointment was scheduled within two weeks of discharge (64%). Only 36% of participants returned to care within the first month, 50% returned after at least one month had elapsed, and 14% of participants did not return for any follow up.Large discrepancies were found between the type of post-discharge follow-up care recommended by providers and what patients were able to achieve. The period of time following hospital discharge represents a key transition in care. Additional research is needed to characterize patients' risk following hospitalization and to develop patient-centered interventions.</t>
-        </is>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W1970525138</t>
-        </is>
-      </c>
-      <c r="B203" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/s0379-6779(02)00697-5</t>
-        </is>
-      </c>
-      <c r="C203" t="inlineStr">
-        <is>
-          <t>Niu et al. (2003)</t>
-        </is>
-      </c>
-      <c r="D203" t="inlineStr">
-        <is>
-          <t>Effects of thermal annealing on light-emitting devices based on fluorene-copolymers with thiophene and ethylenedioxythienylene</t>
-        </is>
-      </c>
-      <c r="E203" t="inlineStr">
-        <is>
-          <t>Thermal annealing of polymer light-emitting diodes with structure of ITO/PEDOT:PSS/copolyfluorene/Ba/Al was done at different temperatures via different time. It was found that annealing just below the glass transition temperature of the copolymer could enhance the device performance a great deal. Lower turn on voltage, higher maximum brightness and higher EL quantum efficiency could be achieved with no change in the EL spectra. Changes both in the bulk EL layer and at the interfaces during the annealing are discussed.</t>
-        </is>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W2126090770</t>
-        </is>
-      </c>
-      <c r="B204" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.11606/t.18.2008.tde-05122008-151614</t>
-        </is>
-      </c>
-      <c r="C204" t="inlineStr">
-        <is>
-          <t>Granado (2015)</t>
-        </is>
-      </c>
-      <c r="D204" t="inlineStr">
-        <is>
-          <t>Influência da variação hidrométrica na comunidade fitoplanctônica na região de transição rio Paranapanema: reservatório de Jurumirim (SP)</t>
-        </is>
-      </c>
-      <c r="E204" t="inlineStr">
-        <is>
-          <t>GRANADO, A.D. (2008). Influence of the hidrometric variation in the phytoplankton in the transition zone Paranapanema River -Jurumirim Reservoir (SP).With objective of understanding the influence of the hidrometric variation in the structure of phytoplankton community form Paranapanema River community fitoplanctônica and of three lateral lakes (Camargo, Coqueiral and Cavalos) with different association levels with the course of water, located in the transition area with the Dam of Jurumirim monthly samplings were accomplished in the subsuperfície and in the bottom of the atmospheres, in the period of July of 2004 to July of 2005.Of November 11, 2004 on February 10, 2005, the collections subsuperficiais passed to be accomplished twice in the week, totaling 27 samplings.With the samples physical and chemical analyses were accomplished (temperature of the air and of the water, precipitation, transparency of the water, electric conductivity, alkalinity, dissolved oxygen, pH, nutrients presents and speed of the current in Rio) and biological (chlorophyll more feofitina, wealth, composition, abundance, occurrence frequency, density, biovolume, diversity indices, dominance, equitability, structures of size of the organisms and tax of the community's modification).In function of the hidrometric variation, five periods were defined: falling of 2004 (July to September of 2004), low water (October to December), rising (January and February), high water (March and April) and falling of 2005 (May, June and July of 2005).The Lakes Camargo and Coqueiral, for they be permanently associated Rio Paranapanema presented a similar pattern amongst themselves and with the course of water, in relationship the physical and chemical variables, except for the dissolved oxygen.While the Cavalos's Lake, for being an isolated atmosphere and of smaller dimensions it presented a dynamics different from the other bodies of water.The phytoplankton community of the mouth zone of the Paranapanema River into the Reservoir of Jurumirim in the year of study was composed for 180 táxons, of the which the class Chlorophyceae was responsible for more than 40% of the total.The seasonal phytoplankton variation can be attributed, mainly, the fluctuation of the hidrometric level.The low water period was characterized by low densities and biomasses (but the smallest ones were registered in the beginning of the falling of 2004) and high diversity values.While the rising phases and high water presented high densities and biomasses, acted, especially, for the class Cryptophyceae (Cryptomonas brasiliensis) and, intermediate levels of diversity.The Cavalos's Lake presented a similar pattern in relation to variation of those attributes of the community, but with values twice higher than the other starting from the end of the rising; and that you/they stayed high even falling of 2005.As the diversity in that adapts, the values were larger of the end of the rising to the end of the high water and smaller in the falling periods.In the intensive study (samplings twice in the week), a phase that could be detected as of equilibrium it was just detected at the Cavalos's Lake through the presence of Aphanocapsa spp.during approximately five weeks, since then, the biomass of that species was reduced and Cryptomonas brasiliensis prevailed with more than 40% for two collections, characterized by the sudden increase in the hidrometric level, that destabilized the community, favoring that species opportunist's development, being substituted by a pick of elevation of the biomass of Botryococcus braunii, following by increase of the diversity.Like this, it seems that the clímax of the ecosystem was altered and the succession reverted to initial process, seen by the development of pioneering species (Rstrategist), following by increase of the diversity.In the other lakes, Cryptomonas brasiliensis also presented growth picks along the study, being related to precipitation events and/or wind.Without the antropic interference, characterized by the handling of the dam of Jurumirim, probably, the phytoplankton community would have more time to solemnity-organize during the limnofase unchaining a true succession in the Lakes Camargo and Coqueiral.The hidrologic pulse then, would work as an intermediate disturbance elevating the diversities.x Seemingly, in the current conditions, the flood has just been causing a disturbance of low frequency, without resulting in maximum diversity, due to constant entrance of water in the connected ponds along the seasonal cycle.However, in the Cavalos's Lake, isolated, the substantial increase of the volume of water in the end of January of 2005 a disturbance of intermediate intensity can be considered, seen the high diversity values and wealth found after the inundation, that you/they were the highest of this lakes during the study period.</t>
-        </is>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W3201947765</t>
-        </is>
-      </c>
-      <c r="B205" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.38197/2072-2060-2021-230-4-103-112</t>
-        </is>
-      </c>
-      <c r="C205" t="inlineStr">
-        <is>
-          <t>Klepach &amp; Veb.­Rf (2021)</t>
-        </is>
-      </c>
-      <c r="D205" t="inlineStr">
-        <is>
-          <t>SOCIAL AND TECHNOLOGICAL CHALLENGES OF THE RUSSIAN ECONOMY</t>
-        </is>
-      </c>
-      <c r="E205" t="inlineStr">
-        <is>
-          <t>The Russian economy is recovering faster than previously expected, but it is lags behind i world leaders in growth and scale of social programs. The most acute societal challenge remains low incomes and high social inequalities. For long-term sustainable growth, the transition to a new model of human wealth development, social justice, knowledge and technology economics is crucial. Tight fiscal rules and monetary policies are hampering this transition.</t>
-        </is>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W3171079639</t>
-        </is>
-      </c>
-      <c r="B206" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.2139/ssrn.3303857</t>
-        </is>
-      </c>
-      <c r="C206" t="inlineStr">
-        <is>
-          <t>Терзиев &amp; Dimitrova (2018)</t>
-        </is>
-      </c>
-      <c r="D206" t="inlineStr">
-        <is>
-          <t>Концепции и модели в социалната политика (Concepts and Models in Social Policy)</t>
-        </is>
-      </c>
-      <c r="E206" t="inlineStr">
-        <is>
-          <t>Bulgarian Abstract: Социалната политика на дадена държава е съвкупност от специфични дейности, които целят да регулират социалните отношения между различни по своето социално положение субекти. Този подход към изясняването на социалната политика, разглежда социалната политика като дейност за регулиране на отношенията на равенство или неравенство в обществото. Той дава възможност да се търсят неравенства в икономическите позиции на индивидите във връзка със собствеността, труда и условията за труд, разпределението на доходите и потреблението, социалното осигуряване и здравеопазването, да се търсят източниците за тези неравенства и тяхната социална оправданост или неоправданост.Съвременната държава поема социални функции, чрез които се стреми да регулира дисбалансите, да защитава слабите социални позиции и да не позволява разпадането на обществената система. Тя регулира процесите в обществото, като хармонизира интересите и се противопоставя на маргинализацията. Всяка модерна държава развива социални дейности, които отразяват особеностите на конкретното общество, съответстват на неговото икономическо, политическо и културно състояние. Плод са на политически решения, целящи да насочват и регулират процеса на адаптация на националното общество към трансформациите на пазарната среда. Социалната политика стои в основата на развитието и управлението на всяка страна. Независимо от това, че върху нея оказват влияние твърде голям брой фактори и проблеми, то тя до голяма степен определя физическото и психичното състояние на населението, както и взаимоотношенията и взаимовръзките между хората. От друга страна, социалната политика дава възможност за по-глобално изучаване и решаване на жизнено важни социални проблеми на гражданското общество. На базата на програмите и действията на политическите партии и на държавните органи се очертават насоките за развитие на обществото. Социалната политика следва да се разглежда като дейност за регулиране отношенията на равенство или неравенство между различните индивиди и социални групи в обществото. Нейното значение се определя от възможността на базата на комплексния подход да се установят: икономически позиции на различните социални групи и индивиди, като се определят различията между тях по отношение на доходи, потребление, условия на труд, здравеопазване и др; да се разкрият причините за неравенството; да се търсят конкретни и специфични мерки за преодоляване на възникналите социални различия.English Abstract: The social policy of a country is a set of specific activities aimed at regulating the social relations between different in their social status subjects. This approach to clarifying social policy is also called functional and essentially addresses social policy as an activity to regulate the relationship of equality or inequality in society. It provides an opportunity to look for inequalities in the economic positions of individuals in relation to ownership, labor and working conditions, distribution of income and consumption, social security and health, to look for the sources of these inequalities and their social justification or undue application. The modern state takes on social functions that seek to regulate imbalances, to protect weak social positions and prevent the disintegration of the social system. It regulates the processes in society by harmonizing interests and opposing marginalization. Every modern country develops social activities that reflect the specifics of a particular society, correspond to its economic, political and cultural status. They are the result of political decisions aimed at directing and regulating the process of adaptation of the national society to the transformations of the market environment. Social policy is at the heart of the development and governance of each country. Despite the fact that too many factors and problems affect it, it largely determines the physical and mental state of the population as well as the relationships and interrelationships between people. On the other hand, social policy allows for a more global study and solving of vital social problems of civil society. On the basis of the programs and actions of political parties and state bodies, the guidelines for the development of society are outlined. Social policy should be seen as an activity to regulate the relationship of equality or inequality between different individuals and social groups in society. Its importance is determined by the possibility of establishing on the basis of the complex approach: the economic positions of the different social groups and individuals, by determining the differences between them in terms of income, consumption, working conditions, health, etc .; to explain the causes of inequality; to look for concrete and specific measures to overcome the emerging social disparities.</t>
-        </is>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W2599073259</t>
-        </is>
-      </c>
-      <c r="B207" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1086/690653</t>
-        </is>
-      </c>
-      <c r="C207" t="inlineStr">
-        <is>
-          <t>Anthony (2017)</t>
-        </is>
-      </c>
-      <c r="D207" t="inlineStr">
-        <is>
-          <t>:&lt;i&gt;Kitāb al-Taḥrīsh&lt;/i&gt;</t>
-        </is>
-      </c>
-      <c r="E207" t="inlineStr">
-        <is>
-          <t>Previous articleNext article FreeBook ReviewsKitāb al-Taḥrīsh. By Ḍirār ibn ʿAmr al-Ghaṭafānī. Edited by Hüseyin Hansu and Mehmet Kaskin. Istanbul: Shirkat Dār al-Irshād and Beirut: Dār Ibn Ḥazm, 2014. Pp. 153. $5 (paperback).Sean W. AnthonySean W. AnthonyThe Ohio State University Search for more articles by this author PDFPDF PLUSFull Text Add to favoritesDownload CitationTrack CitationsPermissionsReprints Share onFacebookTwitterLinked InRedditEmailQR Code SectionsMoreThe volume under review is the first published edition of the Kitāb al-Taḥrīsh, a short treatise attributed to the famous second/eighth-century Muslim theologian and qāḍī Abū ʿAmr Ḍirār ibn ʿAmr al-Ghaṭafānī (ca. ah 110–200/ad 728–815). Stated plainly, the Kitāb al-Taḥrīsh is the earliest stand-alone work written by a theologian associated with the Muʿtazila known to have survived, and as such, the wider availability of the work to scholars promises to lead to new insights with ramifications not just for the history of early Muslim theological rationalism but also for the intellectual history of the Islamic world in the second/eighth century as a whole. The book is a volume bound to pique the curiosity of historians of early Islamic intellectual history even beyond specialists in kalām.Prior to the publication of this work, Ḍirār has been known through secondary accounts of his life and thought as a prolific disciple of the Baṣran founder of Muʿtazilism, Wāṣil ibn ʿAṭāʾ (d. 131/749), who gained notoriety for his idiosyncratic views on topics debated among the kalām-masters of his age (e.g., humankind’s freewill, the creation of human acts, the composition of atoms, the nature of accidents, etc.). Despite the book’s preoccupation with a panoply of sectarian doctrines—represented by the likes of the Murjiʾa, the Khārijites, the Shiʿa/Rāfiḍa, and the Ḥashwiyya (viz., the ḥadīth folk) to just name of few—it is not really a work of heresiography nor even a work of kalām per se.1 The Kitāb al-Taḥrīsh is a treatise on the use and authority of prophetic traditions, or ḥadīth, and an intriguing witness to the rapid proliferation of ḥadīth in the second/eighth century and the debates over their status as normative sources for religious belief and practice.The title of the book, Kitāb al-Taḥrīsh, means simply The Book of Instigation. The famous bookseller of Baghdād, Ibn al-Nadīm (d. 380/990), knows the work under a slightly longer title, Kitāb al-Taḥrīsh wal- ighrāʾ, which one might translate as On Instigation and Provocation. Whatever title one chooses, the keyword in the title remains taḥrīsh, for it alludes to a famous ḥadīth in which the Prophet “forbade instigating fights between beasts (nahā ʿan al-taḥrīsh bayna l-bahāʾim)” (p. 41). Ḍirār is not interested in denouncing animal cruelty; rather, he compares the taḥrīsh proscribed by the Prophet to a new sort of taḥrīsh afflicting the Muslim community that has led to the division of community into hostile sectarian factions: debates over religious doctrine. “Every religious community (umma) with a prophet has its own ‘Samaritan’ (sāmirī) to lead it into perdition and its own ‘Paul’ to seduce it like Paul the Christian and Sāmirī the Jew” (p. 33), Ḍirār warns, alluding to the Qurʾanic “Samaritan” who instigates the Israelites to worship the golden calf (Q. Ṭāhā 20:85) and to a non-Qurʾanic story in which the apostle Paul dupes the disciples into corrupting the gospel of Jesus.2 Muḥammad’s community, Ḍirār asserts, finds itself in a similar moment of crisis after its prophet’s death as the communities of Moses and Jesus: like their predecessors, they seek refuge in the learning of the erudite scholars in their midst only to be led into further dissension and strife.Throughout the work, Ḍirār lists a given controversy and then provides the texts of ḥadīth each faction cites to support their position, as he regards these ḥadīth as instrumental in the instigation of communal strife. Although this is a short treatise, the sheer range of topics covered is astounding. Mainstays of theological disputation appear, such as the conflict over the succession to the Prophet, the nature of God’s attributes, and freewill versus predestination. Also appearing in the work are disagreements over mundane topics, such as traders and those who barter with people and lend them money (al-tujjār wa-man yuʿāmilu l-nās wayuqriḍuhum, p. 152), poverty and the poor (al-faqr wa-l-fuqarāʾ, p. 102), the merits of Syria (faḍīlat arḍ al-Shām, p. 120), singing and songstresses (al-ghināʾ wa-l-mughanniyāt, p. 133), and even anal sex with women (nikāḥ al-nisāʾ fī adbārihim, p. 131). The work thus lends itself to broad historical investigation as it samples a surprisingly broad array of views on sundry topics, and there is much new material here. Notable as well is the work’s early attestation to a broad array of religious and theological terminology (e.g., ṣāḥib sunna wa-jamāʿa on p. 72, badāʾ on p. 106), the continued relevance of debat</t>
-        </is>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W1591867419</t>
-        </is>
-      </c>
-      <c r="B208" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1515/9783112400944</t>
-        </is>
-      </c>
-      <c r="C208" t="inlineStr">
-        <is>
-          <t>Shafiei-Nasab (1991)</t>
-        </is>
-      </c>
-      <c r="D208" t="inlineStr">
-        <is>
-          <t>Les Mouvements révolutionnaires et la Constitution de 1906 en Iran</t>
-        </is>
-      </c>
-      <c r="E208" t="inlineStr">
-        <is>
-          <t>A la suite de la greve generale d'aout 1906, a laquelle participerent les couches les plus etendues de la societe urbaine, dont les commercants, les marchands et les artisans, Muzaffar-al-Din Shah octroya une constitution. L'etablissement de celle-ci resultait d'une longue lutte commencee au milieu du 19e siecle; lutte menee tantot sous forme d'un mouvement politico-religieux (le mouvement des babis), tantot sous celle d'un mouvement anticolonialistes et anti-absolutiste (le mouvement contre la Regie des tabacs). A l'organisation de ce combat, mene dans un but precis, prirent part des intellectuels songeant depuis un siecle a changer les structures politiques. Pour realiser cet objectif, ils engagerent une lutte d'un demi-siecle dont les modalites furent fonction de la nature des autorites constituees. L'avenement du regime constitutionnel en aout 1906 fut l'aboutissement de ce combat et la concretisation des objectifs politiques. Mais les revendications principales des couches moyennes de la societe urbaine, et plus tard de la societe rurale, etant la realisation d'objectifs sociaux et economiques, le combat politique se poursuivit. En realite, cet engagement pour l'etablissement de la democratie revetit parfois le caractere d'une resistance armee. Parallelement, nous voyons se modifier les rapports de force entre les constitutionnalistes au sein du parlement et hors de celui-ci. La lutte des classes paysanne et ouvriere pour obtenir les garanties economiques necessaires a l'evolution de la revolution, provoqua le retrait d'une partie des partisans de la constitution (classe bourgeoise feodale) qui ne songeaient qu'a limiter le pouvoir du Shah et a s'assurer des privileges economiques. Le combat pour la justice sociale suscita la peur de la classe possedante et des puissances colonialistes, conduisant celles-ci a signer l'accord de 1907. Cet accord, en renforcant la condition psychologique des antirevolutionnaires, leur donna les moyens de combattre la revolution. Ainsi nous assistons, en juin 1908, au retour de l'ancien regime.</t>
-        </is>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W2171005043</t>
-        </is>
-      </c>
-      <c r="B209" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1161/circ.104.11.1210</t>
-        </is>
-      </c>
-      <c r="C209" t="inlineStr">
-        <is>
-          <t>Faxon &amp; Lenfant (2001)</t>
-        </is>
-      </c>
-      <c r="D209" t="inlineStr">
-        <is>
-          <t>Timing Is Everything</t>
-        </is>
-      </c>
-      <c r="E209" t="inlineStr">
-        <is>
-          <t xml:space="preserve">HomeCirculationVol. 104, No. 11Timing Is Everything Free AccessEditorialPDF/EPUBAboutView PDFView EPUBSections ToolsAdd to favoritesDownload citationsTrack citationsPermissions ShareShare onFacebookTwitterLinked InMendeleyReddit Jump toFree AccessEditorialPDF/EPUBTiming Is EverythingMotivating Patients to Call 9-1-1 at Onset of Acute Myocardial Infarction David Faxon, MD and Claude Lenfant, MD David FaxonDavid Faxon From the American Heart Association, Dallas, Tex (D.F.), and the National Heart, Lung, and Blood Institute, Bethesda, Md (C.L.). Search for more papers by this author and Claude LenfantClaude Lenfant From the American Heart Association, Dallas, Tex (D.F.), and the National Heart, Lung, and Blood Institute, Bethesda, Md (C.L.). Search for more papers by this author Originally published11 Sep 2001https://doi.org/10.1161/circ.104.11.1210Circulation. 2001;104:1210–1211Over the past 20 years, advances in reperfusion therapy with angioplasty and thrombolysis have revolutionized the management of acute myocardial infarction (MI). Use of these therapies has led to impressive reductions in mortality from acute MI.1 Unfortunately, their full potential has not been realized, because many patients do not reach the hospital in time to benefit from them.Studies show that only ≈1 in 5 patients gets to the hospital within 1 hour of the onset of acute MI symptoms; this is the time frame in which they would obtain the greatest benefit from reperfusion.2 We can greatly decrease death and disability among our patients (≈40% of the 1.1 million heart attacks in the United States each year are fatal3) if we motivate and educate them to call 9-1-1 at the earliest suggestion of an acute MI.Data from the Fibrinolytics Therapy Trialists’ Collaborative Group4 indicate that for every hour of delay, 2 lives per 1000 patients are lost. The GUSTO I trial5 and others demonstrated that mortality was 2 times as great if thrombolytic treatment occurred 4 to 6 hours after onset compared with 1 to 2 hours after onset (8.9% versus 4.3%). The GUSTO IIb study6 also showed a time dependency for primary angioplasty, with a 30-day mortality of 1% when angioplasty was performed within 60 minutes of hospital arrival and of 6.4% when it was delayed &gt;90 minutes. In the Myocardial Infarction Triage and Intervention Trial, the rate of death among patients with acute MI who were treated within 70 minutes after the onset of symptoms was 1.3% compared with 8.7% among patients who were treated later.7Many Reasons for Patient DelaysResearch has identified a number of reasons for patient delay in seeking medical treatment for an acute MI. In many cases, patients expect the type of heart attack that they often see in movies and medical television shows: the kind with crushing chest pain that drops a person to the ground. The reality, of course, is that many heart attacks are much “quieter,” causing only mild chest pain or discomfort or other symptoms such as shortness of breath or diaphoresis.The Rapid Early Action for Coronary Treatment (REACT) trial, a community intervention study funded by the National Heart, Lung, and Blood Institute (NHLBI),8 documented the public’s lack of awareness about heart attack symptoms. Researchers conducted random phone surveys in 20 US communities and found that although 90% of the respondents knew that chest discomfort or pain is a symptom of a heart attack and 67% could identify arm pain as a symptom, only half knew that shortness of breath can be a symptom of acute MI. Awareness of sweating (21%) and other heart attack symptoms was even less common. Overall, the average REACT respondent could identify only 3 of 11 heart attack symptoms.9Calling 9-1-1 Saves LivesPatients need to understand that they should never attempt to drive themselves to the hospital if they think they are having a heart attack; they should not even let a friend or relative drive them. Rather, they should call 9-1-1 if they suspect they are having a heart attack.In a study published in the July 10, 2000, issue of Circulation,10 REACT researchers found that people recognize the benefit of calling 9-1-1 for others but delay calling for their own heart attack symptoms. Respondents to the telephone survey were asked, “If you thought someone was having a heart attack, what would you do?” and given a choice of 2 responses: (1) call 9-1-1 or an ambulance or (2) drive the person to the hospital. Approximately 89% said they would call 9-1-1 if they witnessed a person having a heart attack; this is the action recommended by the American Heart Association and by the NHLBI. About 8% said they would consider driving someone with possible heart attack symptoms to the hospital.The REACT investigators also collected information on 875 individuals in the same communities who arrived at the emergency department with chest pain. These people were asked how they arrived at the hospital and what factors influenced their decision to seek medical help quickly or wait </t>
-        </is>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W2905636927</t>
-        </is>
-      </c>
-      <c r="C210" t="inlineStr">
-        <is>
-          <t>Засенко &amp; Прохоренко (2018)</t>
-        </is>
-      </c>
-      <c r="D210" t="inlineStr">
-        <is>
-          <t>Educational development priorities for people with special needs in Ukraine</t>
-        </is>
-      </c>
-      <c r="E210" t="inlineStr">
-        <is>
-          <t>The article is an attempt to outline at least general aspects of educational system reforming for the people with special needs in Ukraine, to disclose concisely the key ways of modernization, and to characterize positive shifts in educational area._x000D_
-The article states that integrative principle of national educational system establishment is in its quality. It describes global changes in special education area occurred during the last years. It is acknowledged that Ukraine is reorganizing educational system in order to bring it into accord with market economy requirements and open democratic society under the theme of enabling equitable access to quality education for all children with special educational needs. The point of education is seen as a main educational system transformation instrument, including special education, on competence principles. It is elucidated that separation from established practice of point structurization based on the substantive principle takes place, and it foresees the adequacy of educational content structure to scientific knowledge branches structure. Within competence attitude, concretization of school subjects’ quantity is not a point of special education. Instead, identifying outcomes expected to be recovered on the national level are the point. Its comprehensivenss is reverberated in national standards being implemented in Ukraine.</t>
-        </is>
-      </c>
-    </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4386297740</t>
+          <t>https://openalex.org/W4396793722</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1007/978-3-031-30929-8_9</t>
+          <t>https://doi.org/10.3233/jcm-247277</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>Romero et al. (2023)</t>
+          <t>Zhao (2024)</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>Plantando Amor y Cultivando Unidad: A Story of Building and Sustaining an Immigrant-Led Community Garden in Partnership with a University</t>
+          <t>Optimization of teaching methods and allocation of learning resources under the background of big data</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>One project of the (H)ACER program outlined in the chapter prior is the Calabasas Community Garden (CCG). This chapter illuminates the process by which the garden, and a sense of community unity, came to fruition. The CCG is sustained through a collaboration between the University of California, Santa Cruz (UCSC), Calabasas Elementary School, and Watsonville, CA community members. The uniqueness of this collaboration makes it a multifaceted space in which different community members from all partners come together to promote food justice and community empowerment and care. This chapter highlights the collaborative—university, student, and community—approach to research that centers local knowledge and perspectives to bring about transformative change.</t>
+          <t>In the context of the wide application of big data technology, it is particularly important to optimize the allocation of teaching methods and learning resources. This study first expounds the key role of big data in the optimization of teaching methods and the allocation of learning resources, and emphasizes how big data technology promotes the transformation and development of education and teaching models. Based on the analysis of traditional models of teaching method optimization and learning resource allocation, this study proposes a new model driven by big data. By accurately identifying students’ learning needs and behavior patterns, the model optimizes teaching methods and allocation of learning resources. This study introduces the whole process of data collection, cleaning, analysis and modeling. In the process, it shows how big data can be integrated, analyzed, and applied to further support the construction and validation of models. Through empirical research and effect evaluation, this study proves the validity of the model of teaching method optimization and learning resource allocation driven by big data, and demonstrates how big data can promote educational equity and improve educational quality.</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1521234624</t>
+          <t>https://openalex.org/W2904328457</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/0040-4020(59)80107-1</t>
+          <t>https://doi.org/10.1371/journal.pone.0208429</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>Taft &amp; Lewis (1959)</t>
+          <t>Cichowitz et al. (2018)</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>Evaluation of resonance effects on reactivity by application of the linear inductive energy relationship-IV</t>
+          <t>Hospitalization and post-discharge care in South Africa: A critical event in the continuum of care</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>The σ* (or σI) scale of inductive effects and the linear inductive energy relationship, inductive effect = σ* π* (or σIπI), enables an empirical but quantitative estimation of inductive effects on reaction rates and equilibria. In the present paper the inductive effects of para-alkyl groups (Me, Et, Pri, But) in diverse reactivities of benzene derivatives are evaluated in this manner by using the inductive reaction constants, πI, obtained in previous work with groups such as NO2, CN, OCH3 and halogens. The observed effects of the para-alkyl groups, i.e., log (k/k0 values, upon correction for the inductive effects (equation (1)) give results (called R values) which are in accord with resonance theory. The Baker-Nathan order is obtained and the Berliner and the Bartlett theories of CC hyperconjugation effects are confirmed. In most instances the R values follow satisfactorily Brown's empirical additive relationship (3): R - nHhH + nChC, where nH and nC are the number of aCH and aCC bonds, respectively, in the alkyl group, and hH and hC are the corresponding hyperconjugation constants. The ratio hH/hC is found equal to 1·3 ± 0·1, totally independent (within these limits) of electron demand (πI values range from - 12 to + 6), solvent, temperature and nature of the reaction process (rate or equilibrium). An independent method (equation (2)) of obtaining R values provides evidence of second-order solvation effects of alkyl groups in certain reactions. The effects of alkyl groups on the transition energies of the OO bands of the gaseous benzene ultraviolet spectra follow equation (3), providing independent evidence corroborating the above interpretation of R values. The unequivocal evidence for CC hyperconjugation in the aromatic reactivities has lead to a re-examination of the aliphatic series reactivities correlated previously by Kreevoy and Taft in terms of inductive and CH hyperconjugation parameters. The R values obtained follow equation (3) with improved precision. However, hH/hC = 2·5, in accord with the earlier conclusion that CH hyperconjugation effects in these aliphatic series reactions are appreciably larger than CC hyperconjugation effects.</t>
+          <t>The purpose of this prospective cohort study is to characterize the event of acute hospitalization for people living with and without HIV and describe its impact on the care continuum. This study describes care-seeking behavior prior to an index hospitalization, inpatient HIV testing and diagnosis, discharge instructions, and follow-up care for patients for patients being discharged from a single hospital in South Africa.A convenience sample of adult patients was recruited from the medical wards of a tertiary care facility. Baseline information at the time of hospital admission, subsequent diagnoses, and discharge instructions were recorded. Participants were prospectively followed with phone calls for six months after hospital discharge. Descriptive analyses were performed.A total of 293 participants were enrolled in the study. Just under half (46%) of the participants were known to be living with HIV at the time of hospital admission. Most participants (97%) were given a referral for follow-up care; often that appointment was scheduled within two weeks of discharge (64%). Only 36% of participants returned to care within the first month, 50% returned after at least one month had elapsed, and 14% of participants did not return for any follow up.Large discrepancies were found between the type of post-discharge follow-up care recommended by providers and what patients were able to achieve. The period of time following hospital discharge represents a key transition in care. Additional research is needed to characterize patients' risk following hospitalization and to develop patient-centered interventions.</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2071338438</t>
+          <t>https://openalex.org/W2126090770</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1039/b709705k</t>
+          <t>https://doi.org/10.11606/t.18.2008.tde-05122008-151614</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>Yuan et al. (2007)</t>
+          <t>Granado (2015)</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>Topological transformation of aggregates formed by an amphiphilic and truncated-cone-shaped codendrimer</t>
+          <t>Influência da variação hidrométrica na comunidade fitoplanctônica na região de transição rio Paranapanema: reservatório de Jurumirim (SP)</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Experimental evidence for a topological transformation of aggregates of an amphiphilic codendrimer from sphere to button structures via a toroidal intermediate is reported. The aggregates are produced in organic solvents which consist of water droplets covered by a continuous monolayer of the codendrimer. The transformations occur at a mean curvature which is equal to the spontaneous curvature. At this point, the contribution to Helfrich's bending free energy essentially comes from the Gaussian curvature of the continuous monolayers. Therefore, an aggregate of lower genus will transform to another aggregate of higher genus to further minimize the total free energy.</t>
+          <t>GRANADO, A.D. (2008). Influence of the hidrometric variation in the phytoplankton in the transition zone Paranapanema River -Jurumirim Reservoir (SP).With objective of understanding the influence of the hidrometric variation in the structure of phytoplankton community form Paranapanema River community fitoplanctônica and of three lateral lakes (Camargo, Coqueiral and Cavalos) with different association levels with the course of water, located in the transition area with the Dam of Jurumirim monthly samplings were accomplished in the subsuperfície and in the bottom of the atmospheres, in the period of July of 2004 to July of 2005.Of November 11, 2004 on February 10, 2005, the collections subsuperficiais passed to be accomplished twice in the week, totaling 27 samplings.With the samples physical and chemical analyses were accomplished (temperature of the air and of the water, precipitation, transparency of the water, electric conductivity, alkalinity, dissolved oxygen, pH, nutrients presents and speed of the current in Rio) and biological (chlorophyll more feofitina, wealth, composition, abundance, occurrence frequency, density, biovolume, diversity indices, dominance, equitability, structures of size of the organisms and tax of the community's modification).In function of the hidrometric variation, five periods were defined: falling of 2004 (July to September of 2004), low water (October to December), rising (January and February), high water (March and April) and falling of 2005 (May, June and July of 2005).The Lakes Camargo and Coqueiral, for they be permanently associated Rio Paranapanema presented a similar pattern amongst themselves and with the course of water, in relationship the physical and chemical variables, except for the dissolved oxygen.While the Cavalos's Lake, for being an isolated atmosphere and of smaller dimensions it presented a dynamics different from the other bodies of water.The phytoplankton community of the mouth zone of the Paranapanema River into the Reservoir of Jurumirim in the year of study was composed for 180 táxons, of the which the class Chlorophyceae was responsible for more than 40% of the total.The seasonal phytoplankton variation can be attributed, mainly, the fluctuation of the hidrometric level.The low water period was characterized by low densities and biomasses (but the smallest ones were registered in the beginning of the falling of 2004) and high diversity values.While the rising phases and high water presented high densities and biomasses, acted, especially, for the class Cryptophyceae (Cryptomonas brasiliensis) and, intermediate levels of diversity.The Cavalos's Lake presented a similar pattern in relation to variation of those attributes of the community, but with values twice higher than the other starting from the end of the rising; and that you/they stayed high even falling of 2005.As the diversity in that adapts, the values were larger of the end of the rising to the end of the high water and smaller in the falling periods.In the intensive study (samplings twice in the week), a phase that could be detected as of equilibrium it was just detected at the Cavalos's Lake through the presence of Aphanocapsa spp.during approximately five weeks, since then, the biomass of that species was reduced and Cryptomonas brasiliensis prevailed with more than 40% for two collections, characterized by the sudden increase in the hidrometric level, that destabilized the community, favoring that species opportunist's development, being substituted by a pick of elevation of the biomass of Botryococcus braunii, following by increase of the diversity.Like this, it seems that the clímax of the ecosystem was altered and the succession reverted to initial process, seen by the development of pioneering species (Rstrategist), following by increase of the diversity.In the other lakes, Cryptomonas brasiliensis also presented growth picks along the study, being related to precipitation events and/or wind.Without the antropic interference, characterized by the handling of the dam of Jurumirim, probably, the phytoplankton community would have more time to solemnity-organize during the limnofase unchaining a true succession in the Lakes Camargo and Coqueiral.The hidrologic pulse then, would work as an intermediate disturbance elevating the diversities.x Seemingly, in the current conditions, the flood has just been causing a disturbance of low frequency, without resulting in maximum diversity, due to constant entrance of water in the connected ponds along the seasonal cycle.However, in the Cavalos's Lake, isolated, the substantial increase of the volume of water in the end of January of 2005 a disturbance of intermediate intensity can be considered, seen the high diversity values and wealth found after the inundation, that you/they were the highest of this lakes during the study period.</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2132219857</t>
+          <t>https://openalex.org/W3201947765</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1177/0002716293529001015</t>
+          <t>https://doi.org/10.38197/2072-2060-2021-230-4-103-112</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>Bradshaw (1993)</t>
+          <t>Klepach &amp; Veb.­Rf (2021)</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>Multicommunity Networks: A Rural Transition</t>
+          <t>SOCIAL AND TECHNOLOGICAL CHALLENGES OF THE RUSSIAN ECONOMY</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Rural America is in a difficult transition due not just to the economy but to the changing relations between cities and towns in the rural-urban continuum. Small-scale places are no longer isolated and simple but are part of a global interdependence that redefines cities and suburbs and creates rural regions. In the new rural region. traditional rural problems of poverty and lagging social services persist, but in addition a whole new set of problems and opportunities that originate outside the community affect a whole rural region. Rural development efforts, in response to the new small-community interdependence, are harder and more complex. Instead of the trend toward narrower, single-purpose programs, the rural development paradigm for the 1990s should be one of multijurisdictional networks for the development of rural regions. Coalitions of small communities can solve many problems that individual communities working alone cannot tackle. Solutions come from leadership, strategic planning, and mobilizing local resources.</t>
+          <t>The Russian economy is recovering faster than previously expected, but it is lags behind i world leaders in growth and scale of social programs. The most acute societal challenge remains low incomes and high social inequalities. For long-term sustainable growth, the transition to a new model of human wealth development, social justice, knowledge and technology economics is crucial. Tight fiscal rules and monetary policies are hampering this transition.</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>https://openalex.org/W121201895</t>
+          <t>https://openalex.org/W3171079639</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.2139/ssrn.3303857</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>Åkesson (2012)</t>
+          <t>Терзиев &amp; Dimitrova (2018)</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>Waste in Overflow</t>
+          <t>Концепции и модели в социалната политика (Concepts and Models in Social Policy)</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Why is waste such an important topic for understanding the management of overflow? First, because waste is a classic symbol of overflow: to be flooded with too much stuff that demands handling, sorting, and decision-making is a feeling well known in consumer society. Facts and figures speak of the same overflow. Waste disposal is a growing problem. The downside of consumption is a growing mountain of waste. Increased consumption leads to an increase in the amount of trash. Between the years 2000 and 2006, the amount of packaging in Sweden, for example, increased by almost 150,000 tons to a total of just over 1 million tons. Second, waste management is a significant cultural phenomenon, but ideas and categorizations of what is considered to be waste depend on whether one is speaking of cultural, social, or historical settings. Waste management is about transformations, mutations, and cultural processes that call for a processual approach, examining the trajectories and life cycles of objects. One can follow the movements back and forth as material turns into waste and are recycled in one form or another in ongoing chains of transformations. The central theme of this chapter is an analysis of the tensions among various aspects of waste. By linking tensions in waste management to reasons of overflow as a moral dilemma, waste becomes intertwined with consumption and social identity. Waste is simultaneously public and extremely private; it is order and disorder, a practical problem, a moral dilemma, and a highly emotional issue. I explore these tensions through three themes. First, I discuss waste management as an everyday social practice, looking at the efforts undertaken to teach people to handle waste and recycling properly, as well as the routines that people develop and the ways in which these routines can turn into micro-rituals. Second, I examine waste management in relation to the life cycles of commodities. What kinds of trajectories and transformations are developed? Finally, I explore the tensions between private and public in questions of secrecy and openness, and the strong emotions evoked when what was supposed to be hidden becomes visible again. (Less)</t>
+          <t>Bulgarian Abstract: Социалната политика на дадена държава е съвкупност от специфични дейности, които целят да регулират социалните отношения между различни по своето социално положение субекти. Този подход към изясняването на социалната политика, разглежда социалната политика като дейност за регулиране на отношенията на равенство или неравенство в обществото. Той дава възможност да се търсят неравенства в икономическите позиции на индивидите във връзка със собствеността, труда и условията за труд, разпределението на доходите и потреблението, социалното осигуряване и здравеопазването, да се търсят източниците за тези неравенства и тяхната социална оправданост или неоправданост.Съвременната държава поема социални функции, чрез които се стреми да регулира дисбалансите, да защитава слабите социални позиции и да не позволява разпадането на обществената система. Тя регулира процесите в обществото, като хармонизира интересите и се противопоставя на маргинализацията. Всяка модерна държава развива социални дейности, които отразяват особеностите на конкретното общество, съответстват на неговото икономическо, политическо и културно състояние. Плод са на политически решения, целящи да насочват и регулират процеса на адаптация на националното общество към трансформациите на пазарната среда. Социалната политика стои в основата на развитието и управлението на всяка страна. Независимо от това, че върху нея оказват влияние твърде голям брой фактори и проблеми, то тя до голяма степен определя физическото и психичното състояние на населението, както и взаимоотношенията и взаимовръзките между хората. От друга страна, социалната политика дава възможност за по-глобално изучаване и решаване на жизнено важни социални проблеми на гражданското общество. На базата на програмите и действията на политическите партии и на държавните органи се очертават насоките за развитие на обществото. Социалната политика следва да се разглежда като дейност за регулиране отношенията на равенство или неравенство между различните индивиди и социални групи в обществото. Нейното значение се определя от възможността на базата на комплексния подход да се установят: икономически позиции на различните социални групи и индивиди, като се определят различията между тях по отношение на доходи, потребление, условия на труд, здравеопазване и др; да се разкрият причините за неравенството; да се търсят конкретни и специфични мерки за преодоляване на възникналите социални различия.English Abstract: The social policy of a country is a set of specific activities aimed at regulating the social relations between different in their social status subjects. This approach to clarifying social policy is also called functional and essentially addresses social policy as an activity to regulate the relationship of equality or inequality in society. It provides an opportunity to look for inequalities in the economic positions of individuals in relation to ownership, labor and working conditions, distribution of income and consumption, social security and health, to look for the sources of these inequalities and their social justification or undue application. The modern state takes on social functions that seek to regulate imbalances, to protect weak social positions and prevent the disintegration of the social system. It regulates the processes in society by harmonizing interests and opposing marginalization. Every modern country develops social activities that reflect the specifics of a particular society, correspond to its economic, political and cultural status. They are the result of political decisions aimed at directing and regulating the process of adaptation of the national society to the transformations of the market environment. Social policy is at the heart of the development and governance of each country. Despite the fact that too many factors and problems affect it, it largely determines the physical and mental state of the population as well as the relationships and interrelationships between people. On the other hand, social policy allows for a more global study and solving of vital social problems of civil society. On the basis of the programs and actions of political parties and state bodies, the guidelines for the development of society are outlined. Social policy should be seen as an activity to regulate the relationship of equality or inequality between different individuals and social groups in society. Its importance is determined by the possibility of establishing on the basis of the complex approach: the economic positions of the different social groups and individuals, by determining the differences between them in terms of income, consumption, working conditions, health, etc .; to explain the causes of inequality; to look for concrete and specific measures to overcome the emerging social disparities.</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2266631713</t>
+          <t>https://openalex.org/W3106911638</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.18326/islah.v1i2.95-110</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>Lolive (2014)</t>
+          <t>Islamiyah (2020)</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>Le recours à l'esthétique peut-il favoriser l'émergence d'un environnement public ?</t>
+          <t>Fundamentalism: Study of Islamic History</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Dans cet article je voudrais explorer un phenomene recent, la transformation de l'espace public en environnement public. Selon moi, cette evolution se produit lorsque l'espace public, dans sa double dimension spatiale et politique, est profondement transforme par la generalisation de l'urbain, l'aggravation de la crise environnementale et la montee des revendications de justice s'y rapportant. J'analyserai la notion d'environnement public a partir de deux hypotheses. 1) De meme que l'espace public etait structure par les questions de justice, les enjeux d'inegalites environnementales sont determinants dans le nouvel environnement public. 2) Le recours a l'esthetique favorise ce passage a l'environnement public notamment parce qu'il permet d'attenuer les inegalites environnementales. Pour tester ces hypotheses, je presenterai trois enjeux ou le deploiement d'un environnement public se heurte a l'existence d'inegalites environnementales dont le traitement pourrait s'appuyer sur le recours a l'esthetique : le paysage, le risque environnemental (illustre par la crue du Var de novembre 1994), et la ruralite (illustree par les chasseurs de palombe du Gers).</t>
+          <t>This paper is a literary study by analyzing various thoughts from various readings. The concern of this study is about fundamentalism in the study of Islamic history. The discussion material includes; contextualization, history and various thoughts in response to fundamentalism. Regarding contextualization, a discussion arises whether fundamentalism exists as a product, as an agent, or both? If it is related to social changes in Islamic society in particular. Is Islamic fundamentalism more of a religion matters? Some refer to the events of the Iranian revolution in 1979, to the 18th century Wahhabi movement, some others point to the Al-Mihnah policy by the Mu'tazilah during the reign of the caliph Al-Ma'mun in the 9th century. There are even those who say that the genealogy of fundamentalism has existed since the beginning of Islamic history, namely the emergence of the Khawarij which is seen as having the same qualifications as contemporary fundamentalism. Responses to fundamentalists have been written in various ways, such as the assumption about the hegemonic nature of Western civilization which is said to be an obstacle to the accommodation of the basics of mutual equality, as well as an attitude of mutual respect and recognition. Other responses were in the form of proposals for the deconstruction of fundamentalism, the idea of developing Islamic values of compassion and moderation as a way or policy of dealing with fundamentalism.</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4283449226</t>
+          <t>https://openalex.org/W1591867419</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1080/01419870.2022.2089049</t>
+          <t>https://doi.org/10.1515/9783112400944</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>Hamilton et al. (2022)</t>
+          <t>Shafiei-Nasab (1991)</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>“Diversity is a corporate plan”: racialized equity labor among university employees</t>
+          <t>Les Mouvements révolutionnaires et la Constitution de 1906 en Iran</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Drawing on ninety-four interviews with university employees at two four-year publics, we identify elements of the “racialized equity labor”, or efforts to challenge racial inequities in the university environment, primarily undertaken by employees of color. We argue that the amount and intensity of racialized equity labor is related to organizational logics of race, or cultural values and beliefs about race that people use to organize their activities in the university. “Diversity” logics, focusing on individual differences in experiences, values, and worldviews, are associated with identity-focused infrastructure and create greater need for racialized equity labor. In contrast, “equity” logics focus on the structural changes needed to address race as a system of oppression and are instantiated in institutionalized infrastructure that alleviates and transforms racialized equity labor. We conclude that diversity logics are profoundly limiting for addressing racial inequities in academia.</t>
+          <t>A la suite de la greve generale d'aout 1906, a laquelle participerent les couches les plus etendues de la societe urbaine, dont les commercants, les marchands et les artisans, Muzaffar-al-Din Shah octroya une constitution. L'etablissement de celle-ci resultait d'une longue lutte commencee au milieu du 19e siecle; lutte menee tantot sous forme d'un mouvement politico-religieux (le mouvement des babis), tantot sous celle d'un mouvement anticolonialistes et anti-absolutiste (le mouvement contre la Regie des tabacs). A l'organisation de ce combat, mene dans un but precis, prirent part des intellectuels songeant depuis un siecle a changer les structures politiques. Pour realiser cet objectif, ils engagerent une lutte d'un demi-siecle dont les modalites furent fonction de la nature des autorites constituees. L'avenement du regime constitutionnel en aout 1906 fut l'aboutissement de ce combat et la concretisation des objectifs politiques. Mais les revendications principales des couches moyennes de la societe urbaine, et plus tard de la societe rurale, etant la realisation d'objectifs sociaux et economiques, le combat politique se poursuivit. En realite, cet engagement pour l'etablissement de la democratie revetit parfois le caractere d'une resistance armee. Parallelement, nous voyons se modifier les rapports de force entre les constitutionnalistes au sein du parlement et hors de celui-ci. La lutte des classes paysanne et ouvriere pour obtenir les garanties economiques necessaires a l'evolution de la revolution, provoqua le retrait d'une partie des partisans de la constitution (classe bourgeoise feodale) qui ne songeaient qu'a limiter le pouvoir du Shah et a s'assurer des privileges economiques. Le combat pour la justice sociale suscita la peur de la classe possedante et des puissances colonialistes, conduisant celles-ci a signer l'accord de 1907. Cet accord, en renforcant la condition psychologique des antirevolutionnaires, leur donna les moyens de combattre la revolution. Ainsi nous assistons, en juin 1908, au retour de l'ancien regime.</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4390651978</t>
+          <t>https://openalex.org/W2171005043</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>https://doi.org/10.56620/2782-3598.2023.4.022-034</t>
+          <t>https://doi.org/10.1161/circ.104.11.1210</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>Kupets (2023)</t>
+          <t>Faxon &amp; Lenfant (2001)</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>“New Ballet Criticism” (1993–2003) About “Soviet” Ballet: Forms of Cultural Recycling</t>
+          <t>Timing Is Everything</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>In post-Soviet Russia ballet criticism, similar to opera criticism, has an almost 30-year-old history, but the period perceived as the brightest and most significant is the first period, spanning the 1990s and the early part of the first decade of the 21st century. For this New Ballet Criticism (as it has been labelled by Vadim Gaevsky), as a part of New Russian Music Criticism (as defined by Olga Manulkina and Pavel Gershenzon), a number of features have become normative: provocative styles and titles, a demythologization of works and of choreographers, the use of comparisons with mass culture in narratives, and ironic subtext. Similar to opera, political discourse has become important in ballet receptions of that time. Reviews of Soviet-era ballet productions (as well as other types of performance) often refer to the main elements of Soviet mass art — Soviet films, as well as symbols of the totalitarian culture, such as sculpture and ideological materials. The styles and headlines exploit numerous Sovietisms that are familiar and recognizable by the audience. Just like in opera reviews, the recent “Soviet” element in ballet receptions is synthesized with Soviet mass culture and fashionable trends in the country via the cult of Western cinema and the influence of domestic and foreign literary, scholarly and epistolary texts. But unlike opera criticism, ballet narratives clearly record the diversity of genres of “Soviet” ballet (ranking Sergei Prokofiev and Dmitri Shostakovich among them); ballets since 1961 have been interpreted as a transformation of the “Soviet” element under the influence of George Balanchine’s choreography; the concept of “Soviet choreography” also implies the unreachable, for example, in the embodiment of heroic moods and the creation of mass scenes. Four forms of cultural recycling in ballet receptions are identified: recycling, recycling à la ballet, double recycling and quasi-recycling.</t>
+          <t xml:space="preserve">HomeCirculationVol. 104, No. 11Timing Is Everything Free AccessEditorialPDF/EPUBAboutView PDFView EPUBSections ToolsAdd to favoritesDownload citationsTrack citationsPermissions ShareShare onFacebookTwitterLinked InMendeleyReddit Jump toFree AccessEditorialPDF/EPUBTiming Is EverythingMotivating Patients to Call 9-1-1 at Onset of Acute Myocardial Infarction David Faxon, MD and Claude Lenfant, MD David FaxonDavid Faxon From the American Heart Association, Dallas, Tex (D.F.), and the National Heart, Lung, and Blood Institute, Bethesda, Md (C.L.). Search for more papers by this author and Claude LenfantClaude Lenfant From the American Heart Association, Dallas, Tex (D.F.), and the National Heart, Lung, and Blood Institute, Bethesda, Md (C.L.). Search for more papers by this author Originally published11 Sep 2001https://doi.org/10.1161/circ.104.11.1210Circulation. 2001;104:1210–1211Over the past 20 years, advances in reperfusion therapy with angioplasty and thrombolysis have revolutionized the management of acute myocardial infarction (MI). Use of these therapies has led to impressive reductions in mortality from acute MI.1 Unfortunately, their full potential has not been realized, because many patients do not reach the hospital in time to benefit from them.Studies show that only ≈1 in 5 patients gets to the hospital within 1 hour of the onset of acute MI symptoms; this is the time frame in which they would obtain the greatest benefit from reperfusion.2 We can greatly decrease death and disability among our patients (≈40% of the 1.1 million heart attacks in the United States each year are fatal3) if we motivate and educate them to call 9-1-1 at the earliest suggestion of an acute MI.Data from the Fibrinolytics Therapy Trialists’ Collaborative Group4 indicate that for every hour of delay, 2 lives per 1000 patients are lost. The GUSTO I trial5 and others demonstrated that mortality was 2 times as great if thrombolytic treatment occurred 4 to 6 hours after onset compared with 1 to 2 hours after onset (8.9% versus 4.3%). The GUSTO IIb study6 also showed a time dependency for primary angioplasty, with a 30-day mortality of 1% when angioplasty was performed within 60 minutes of hospital arrival and of 6.4% when it was delayed &gt;90 minutes. In the Myocardial Infarction Triage and Intervention Trial, the rate of death among patients with acute MI who were treated within 70 minutes after the onset of symptoms was 1.3% compared with 8.7% among patients who were treated later.7Many Reasons for Patient DelaysResearch has identified a number of reasons for patient delay in seeking medical treatment for an acute MI. In many cases, patients expect the type of heart attack that they often see in movies and medical television shows: the kind with crushing chest pain that drops a person to the ground. The reality, of course, is that many heart attacks are much “quieter,” causing only mild chest pain or discomfort or other symptoms such as shortness of breath or diaphoresis.The Rapid Early Action for Coronary Treatment (REACT) trial, a community intervention study funded by the National Heart, Lung, and Blood Institute (NHLBI),8 documented the public’s lack of awareness about heart attack symptoms. Researchers conducted random phone surveys in 20 US communities and found that although 90% of the respondents knew that chest discomfort or pain is a symptom of a heart attack and 67% could identify arm pain as a symptom, only half knew that shortness of breath can be a symptom of acute MI. Awareness of sweating (21%) and other heart attack symptoms was even less common. Overall, the average REACT respondent could identify only 3 of 11 heart attack symptoms.9Calling 9-1-1 Saves LivesPatients need to understand that they should never attempt to drive themselves to the hospital if they think they are having a heart attack; they should not even let a friend or relative drive them. Rather, they should call 9-1-1 if they suspect they are having a heart attack.In a study published in the July 10, 2000, issue of Circulation,10 REACT researchers found that people recognize the benefit of calling 9-1-1 for others but delay calling for their own heart attack symptoms. Respondents to the telephone survey were asked, “If you thought someone was having a heart attack, what would you do?” and given a choice of 2 responses: (1) call 9-1-1 or an ambulance or (2) drive the person to the hospital. Approximately 89% said they would call 9-1-1 if they witnessed a person having a heart attack; this is the action recommended by the American Heart Association and by the NHLBI. About 8% said they would consider driving someone with possible heart attack symptoms to the hospital.The REACT investigators also collected information on 875 individuals in the same communities who arrived at the emergency department with chest pain. These people were asked how they arrived at the hospital and what factors influenced their decision to seek medical help quickly or wait </t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2990922760</t>
+          <t>https://openalex.org/W2092387073</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>https://doi.org/10.15407/econforecast2019.03.045</t>
+          <t>https://doi.org/10.1111/j.1467-842x.1996.tb01022.x</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>Yukhymets (2019)</t>
+          <t>Taylor &amp; Salkeld (1996)</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>The impact of transaction costs on the transformation of the natural gas market of Ukraine</t>
+          <t>Health care expenditure and life expectancy in Australia: how well do we perform?</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>The desire to integrate into the European development model stipulated that Ukraine voluntarily assumed international commitments about transformation of the institutional environment according to the European model. The level of political awareness of the content of the necessary changes and how to achieve a systemic balance of reforming different sectors was often declarative in the absence of any sound estimates, including the implications for different economic actors. However, the need to reform the energy sector was determined not only by international obligations, but also by the presence of domestic problems, which over time without the application of systemic changes would become barriers to the entire further economic development of Ukraine. The main content of the implementation of European directives in the energy sector was just intended to systematically transform market relations by changing the rules of market functioning, which was supposed to solve the main crisis problems in various areas of the energy sector. The recent model of Ukrainian natural gas market was featured by all the shortcomings of the pre-reformed state of European markets: the tariff system did not promote rational consumer behavior, which exacerbated the pressure on the state budget; the delivery rules did not guarantee the proper quality of service; the absence of investment in the gas transportation sector made it impossible to expand fixed assets; the established transport and distribution rules became a barrier to free access to third-party networks and the development of competition in the supply segment. The actual implementation of the Second and Third Energy Package standards in the functioning of the national market of the natural year began in 2015, with the adoption of the Law on the Natural Gas Market. Today, an urgent task remains to estimate the process of reforming the natural gas market and to efficiently solve those crisis phenomena that caused the distortion of the institutional environment of the natural gas market. Since the accumulated problems of the previous model of the natural gas market were due to the inefficiency of the institutions, the article attempted to evaluate the effectiveness of the gas sector transformation process and analyze the impact of changes in certain market segments from the perspective of neoinstitutional theory and study the level of transaction costs.</t>
+          <t>The Australian health care system consists of mixed public and private financing underpinned by Medicare, a universal government‐run insurance scheme paid through taxation (and levy) on income. Australia has improved its ranking for life expectancy (at birth) since 1960, and in 1990 ranked ninth and seventh of 24 countries for females and males respectively; this is ahead of the United States and United Kingdom, and approximately equal to Canada. Australian hospital bed supply and utilisation are average, after deletion of day‐only cases. The proportion of gross domestic product (GDP) spent on health, in relation to GDP per capita (adjusted for purchasing power), in Australia in 1990 was average, and the prices for health care from 1975 to 1990 did not increase when adjusted for inflation. Although 68 per cent of health expenditure emanates from public sources in Australia, this is lower than in the majority of European countries and Canada. Some countries are doing poorly (such as the United States, with lower than average life expectancy and higher than predicted health expenditure) and some countries are doing well (with higher than average life expectancy and lower than predicted health expenditure; for example, Japan). Australia has higher than average life expectancy and only slightly higher than predicted health expenditure per capita. Although the Australian system could be improved, there are no indications that radical changes are required. The relatively high life expectancy in Australia can be attributed to favourable social and economic conditions, successful public health programs, and the availability of universal quality health care.</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2526451761</t>
+          <t>https://openalex.org/W4386297740</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1007/978-3-031-30929-8_9</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>Karp &amp; Lundberg (2016)</t>
+          <t>Romero et al. (2023)</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>A four--dimensional Neumann ovaloid</t>
+          <t>Plantando Amor y Cultivando Unidad: A Story of Building and Sustaining an Immigrant-Led Community Garden in Partnership with a University</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>What is the shape of a uniformly massive object that generates a gravitational potential equivalent to that of two equal point-masses? If the weight of each point-mass is sufficiently small compared to the distance between the points then the answer is a pair of balls of equal radius, one centered at each of the two points, but otherwise it is a certain domain of revolution about the axis passing through the two points. The existence and uniqueness of such a domain is known, but an explicit parameterization is known only in the plane where the region is referred to as a oval. We construct a four-dimensional Neumann ovaloid, solving explicitly this inverse potential problem.</t>
+          <t>One project of the (H)ACER program outlined in the chapter prior is the Calabasas Community Garden (CCG). This chapter illuminates the process by which the garden, and a sense of community unity, came to fruition. The CCG is sustained through a collaboration between the University of California, Santa Cruz (UCSC), Calabasas Elementary School, and Watsonville, CA community members. The uniqueness of this collaboration makes it a multifaceted space in which different community members from all partners come together to promote food justice and community empowerment and care. This chapter highlights the collaborative—university, student, and community—approach to research that centers local knowledge and perspectives to bring about transformative change.</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>https://openalex.org/W593065629</t>
+          <t>https://openalex.org/W2132219857</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>https://doi.org/10.5860/choice.45-1022</t>
+          <t>https://doi.org/10.1177/0002716293529001015</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>Kamdar (2007)</t>
+          <t>Bradshaw (1993)</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>Planet India: how the fastest-growing democracy is transforming America and the world</t>
+          <t>Multicommunity Networks: A Rural Transition</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>is everywhere: on magazine covers and cinema marquees, at the gym and in the kitchen, in corporate boardrooms and on Capitol Hill. Through incisive reportage and illuminating analysis, Mira Kamdar explores India's astonishing transformation from a developing country into a global powerhouse. She takes us inside India, reporting on the people, companies, and policies defining the new and revealing how it will profoundly affect our future -- financially, culturally, politically.The world's fastest-growing democracy, has the youngest population on the planet, and a middle class as big as the population of the entire United States. Its market has the potential to become the world's largest. As one film producer told Kamdar when they met in New York, Who needs the American audience? There are only 300 million people here. Not only is the ideal market for the next new thing, but with a highly skilled English-speaking workforce, elite educational institutions, and growing foreign investment, is emerging as an innovator of the technology that is driving the next phase of the global economy. While is celebrating its meteoric rise, it is also racing against time to bring the benefits of the twenty-first century to the 800 million Indians who live on less than two dollars per day, to find the sustainable energy to fuel its explosive economic growth, and to navigate international and domestic politics to ensure India's security and its status as a global power. is the world in microcosm: the challenges it faces are universal -- from combating terrorism, poverty, and disease to protecting the environment and creating jobs. The urgency of these challenges for is spurring innovative solutions, which will catapult it to the top of the new world order. If succeeds, it will not only save itself, it will save us all. If it fails, we will all suffer. As goes India, so goes the world. Mira Kamdar tells the dramatic story of a nation in the midst of redefining itself and our world. Provocative, timely, and essential, Planet India is the groundbreaking book that will convince Americans just how high the stakes are -- what there is to lose, and what there is to gain from India's meteoric rise.DID YOU KNOW?-India is the world's fourth-largest economy. -By 2034, will be the most populous country on Earth, with 1.6 billion people.-India's middle class is already larger than the entire population of the United States. -One out of three of the world's malnourished children live in India.-India is home to the biggest youth population on earth: 600 million people are under the age of 25. -72,000,000 cell phones will be sold in in 2007.-India just edged past the United States to become the second-most-preferred destination for foreign direct investment after China.-In 1991, Indians purchased 150,000 automobiles; in 2007, they are expected to purchase 10 million. -By 2008, India's total pool of qualified graduates will be more than twice as large as China's.-By 2015, an estimated 3.5 million white-collar U.S. jobs will be offshored.-India is the largest arms importer in the developing world.-American corporations expect to earn $20 to $40 billion from the civilian nuclear agreement with India. -In 2007, there are 2.2 million Indian Americans, a number expected to double every decade.-Twenty-nine percent of India's population speaks English -- that's 350 million people.</t>
+          <t>Rural America is in a difficult transition due not just to the economy but to the changing relations between cities and towns in the rural-urban continuum. Small-scale places are no longer isolated and simple but are part of a global interdependence that redefines cities and suburbs and creates rural regions. In the new rural region. traditional rural problems of poverty and lagging social services persist, but in addition a whole new set of problems and opportunities that originate outside the community affect a whole rural region. Rural development efforts, in response to the new small-community interdependence, are harder and more complex. Instead of the trend toward narrower, single-purpose programs, the rural development paradigm for the 1990s should be one of multijurisdictional networks for the development of rural regions. Coalitions of small communities can solve many problems that individual communities working alone cannot tackle. Solutions come from leadership, strategic planning, and mobilizing local resources.</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4388489573</t>
-        </is>
-      </c>
-      <c r="B222" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1103/physrevresearch.5.043132</t>
+          <t>https://openalex.org/W2266631713</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>Harris et al. (2023)</t>
+          <t>Lolive (2014)</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>Effect of sparsity on network stability in random neural networks obeying Dale's law</t>
+          <t>Le recours à l'esthétique peut-il favoriser l'émergence d'un environnement public ?</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>This paper examines the relationship between sparse random network architectures and neural network stability by examining the eigenvalue spectral distribution. Specifically, we generalize classical eigenspectral results to sparse (not fully connected) connectivity matrices obeying Dale's law: neurons function as either excitatory (E) or inhibitory (I). By defining $\ensuremath{\alpha}$ as the probability that a neuron is connected to another neuron, we give explicit formulas that show how sparsity interacts with the E-I population statistics to scale key features of the eigenspectrum in both the balanced and unbalanced cases. Our results show that the eigenspectral outlier is linearly scaled by $\ensuremath{\alpha}$, but the eigenspectral radius and density now depend on a nonlinear interaction between $\ensuremath{\alpha}$ and the E-I population means and variances. Contrary to previous results, we demonstrate that a nonuniform eigenspectral density results if any of the E-I population statistics differ, not just the variances. We also find that local eigenvalue outliers are present for sparse random matrices obeying Dale's law, and demonstrate that these eigenvalues can be controlled by a modified zero row-sum constraint for the balanced case, however, they persist in the unbalanced case. We examine all levels of connection sparsity $0\ensuremath{\le}\ensuremath{\alpha}\ensuremath{\le}1$ and distributed E-I population weights to describe a general class of sparse connectivity structures which unifies all the previous results as special cases of our framework. Sparsity and Dale's law are both fundamental anatomical properties of biological neural networks. We generalize their combined effects on the eigenspectrum of random neural networks, thereby gaining insight into network stability, state transitions, and the structure-function relationship.</t>
+          <t>Dans cet article je voudrais explorer un phenomene recent, la transformation de l'espace public en environnement public. Selon moi, cette evolution se produit lorsque l'espace public, dans sa double dimension spatiale et politique, est profondement transforme par la generalisation de l'urbain, l'aggravation de la crise environnementale et la montee des revendications de justice s'y rapportant. J'analyserai la notion d'environnement public a partir de deux hypotheses. 1) De meme que l'espace public etait structure par les questions de justice, les enjeux d'inegalites environnementales sont determinants dans le nouvel environnement public. 2) Le recours a l'esthetique favorise ce passage a l'environnement public notamment parce qu'il permet d'attenuer les inegalites environnementales. Pour tester ces hypotheses, je presenterai trois enjeux ou le deploiement d'un environnement public se heurte a l'existence d'inegalites environnementales dont le traitement pourrait s'appuyer sur le recours a l'esthetique : le paysage, le risque environnemental (illustre par la crue du Var de novembre 1994), et la ruralite (illustree par les chasseurs de palombe du Gers).</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2972701733</t>
+          <t>https://openalex.org/W4283449226</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3390/su11185031</t>
+          <t>https://doi.org/10.1080/01419870.2022.2089049</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>Zhang et al. (2019)</t>
+          <t>Hamilton et al. (2022)</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>An Agent-Based Two-Stage Trading Model for Direct Electricity Procurement of Large Consumers</t>
+          <t>“Diversity is a corporate plan”: racialized equity labor among university employees</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Many electricity markets around the world are still at developmental and transitional stages. To complete the transition and achieve the key objectives of perfect market design, designers often choose direct electricity procurement of large consumers (LCs) as a pilot. The trading mechanism is critical because it lays the foundation for the exploration of formulating a trading model and the succeeding solution; however, the existing trading mechanisms of direct electricity procurement struggle to cope with new challenges that electric power systems are facing. This paper proposes a novel two-stage trading mechanism, considering both the fairness and efficiency of direct electricity procurement. Based on the proposed trading mechanism, an agent-based trading model with multiple participants is developed. The simulation results of the transactions between LCs and generation companies (GenCos) illustrate the feasibility and effectiveness of the proposed mechanism. With this mechanism, LCs and GenCos will have more choices in the trading process and can benefit from the reduction of the average market price. The two-stage trading model provides a new choice for market designers and participants of direct electricity procurement.</t>
+          <t>Drawing on ninety-four interviews with university employees at two four-year publics, we identify elements of the “racialized equity labor”, or efforts to challenge racial inequities in the university environment, primarily undertaken by employees of color. We argue that the amount and intensity of racialized equity labor is related to organizational logics of race, or cultural values and beliefs about race that people use to organize their activities in the university. “Diversity” logics, focusing on individual differences in experiences, values, and worldviews, are associated with identity-focused infrastructure and create greater need for racialized equity labor. In contrast, “equity” logics focus on the structural changes needed to address race as a system of oppression and are instantiated in institutionalized infrastructure that alleviates and transforms racialized equity labor. We conclude that diversity logics are profoundly limiting for addressing racial inequities in academia.</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2130769620</t>
+          <t>https://openalex.org/W2980008364</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1109/tmtt.2011.2131677</t>
+          <t>https://doi.org/10.1049/joe.2019.0535</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>Singhal et al. (2011)</t>
+          <t>Abdullah et al. (2019)</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>A Zero-Voltage-Switching Contour-Based Power Amplifier With Minimal Efficiency Degradation Under Back-Off</t>
+          <t>Ambiguity function analysis of human echolocator waveform by using gammatone filter processing</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>A switching power amplifier (PA) architecture that offers up to 13 dB of output power back-off without any drain efficiency degradation is presented. The proposed zero-voltage-switching (ZVS) contour-based PA employs a series class-E PA in conjunction with duty cycle modulation and a proposed tunable impedance transformation network. So-called ZVS conditions that ensure ideally 100% drain efficiency are satisfied not just at peak output power, but over the 13-dB back-off range. Theoretical analyses of losses in the PA and the impedance transformation network are also presented to prove that drain efficiency actually improves with back-off. Measurement results of a 100-MHz PA built using discrete components on an FR4 printed circuit board showing drain efficiency greater than or equal to the peak efficiency (40%) at all output power levels are also presented.</t>
+          <t>The Journal of EngineeringVolume 2019, Issue 20 p. 6935-6939 IET International Radar Conference (IRC 2018)Open Access Ambiguity function analysis of human echolocator waveform by using gammatone filter processing Raja S.A.R. Abdullah, Corresponding Author Raja S.A.R. Abdullah r_syamsul@upm.edu.my Wireless and Photonic Networks Research Centre, Faculty of Engineering, Universiti Putra Malaysia (UPM), 43400 Serdang, Selangor, MalaysiaSearch for more papers by this authorNur L. Saleh, Nur L. Saleh Wireless and Photonic Networks Research Centre, Faculty of Engineering, Universiti Putra Malaysia (UPM), 43400 Serdang, Selangor, MalaysiaSearch for more papers by this authorSharifah M.S. Ahmad, Sharifah M.S. Ahmad Wireless and Photonic Networks Research Centre, Faculty of Engineering, Universiti Putra Malaysia (UPM), 43400 Serdang, Selangor, MalaysiaSearch for more papers by this authorAsem A. Salah, Asem A. Salah Wireless and Photonic Networks Research Centre, Faculty of Engineering, Universiti Putra Malaysia (UPM), 43400 Serdang, Selangor, MalaysiaSearch for more papers by this authorNur E.A. Rashid, Nur E.A. Rashid Faculty of Electrical Engineering, Universiti Teknologi MARA (UiTM), Selangor, MalaysiaSearch for more papers by this author Raja S.A.R. Abdullah, Corresponding Author Raja S.A.R. Abdullah r_syamsul@upm.edu.my Wireless and Photonic Networks Research Centre, Faculty of Engineering, Universiti Putra Malaysia (UPM), 43400 Serdang, Selangor, MalaysiaSearch for more papers by this authorNur L. Saleh, Nur L. Saleh Wireless and Photonic Networks Research Centre, Faculty of Engineering, Universiti Putra Malaysia (UPM), 43400 Serdang, Selangor, MalaysiaSearch for more papers by this authorSharifah M.S. Ahmad, Sharifah M.S. Ahmad Wireless and Photonic Networks Research Centre, Faculty of Engineering, Universiti Putra Malaysia (UPM), 43400 Serdang, Selangor, MalaysiaSearch for more papers by this authorAsem A. Salah, Asem A. Salah Wireless and Photonic Networks Research Centre, Faculty of Engineering, Universiti Putra Malaysia (UPM), 43400 Serdang, Selangor, MalaysiaSearch for more papers by this authorNur E.A. Rashid, Nur E.A. Rashid Faculty of Electrical Engineering, Universiti Teknologi MARA (UiTM), Selangor, MalaysiaSearch for more papers by this author First published: 13 September 2019 https://doi.org/10.1049/joe.2019.0535Citations: 6AboutSectionsPDF ToolsRequest permissionExport citationAdd to favoritesTrack citation ShareShare Give accessShare full text accessShare full-text accessPlease review our Terms and Conditions of Use and check box below to share full-text version of article.I have read and accept the Wiley Online Library Terms and Conditions of UseShareable LinkUse the link below to share a full-text version of this article with your friends and colleagues. Learn more.Copy URL Share a linkShare onFacebookTwitterLinkedInRedditWechat Abstract Human echolocation is a technique used by small group of people (normally blind persons) to observe their surrounding via emitting an active signal (usually tongue click) and analyse the return echo. This skill allows them to navigate safely by 'seeing through sound'. Remarkable performances upon echolocating have attracted scholars' attention from multidiscipline field including psychophysical and engineering. Study of waveform diversity has reported the signal is wideband, consisting of multiple frequency components with exponential decay factor that probably made up the entire unique signal. As such, wideband perspective is considered during ambiguity function analysis using wide-band ambiguity function method. The waveform analysis continues and reported optimum autocorrelation function is achieved by adopting a bio-inspired technique, which incorporated gammatone-filter processing. It will be interesting to synthesise the waveform using gammatone-filter approaches prior to relay it into ambiguity function process for analysis. Therefore, it is worth to explore its output results in this paper, which hold new findings that may help to understand how these humans achieve an optimum performance upon echolocating including ambiguity function characteristic. Thus, the new knowledge explored in this paper could be beneficial in emerging concept for new development in radar and sonar system application in near future. 1 Introduction Echolocation is a biological skill of emitting an active signal to the open space (environment) and obtaining surrounding information by analysing return echo signal. Bat and dolphin are examples of mammals that utilise echolocation technique in their daily life mainly for navigation and searching for foods [1]. The outstanding ability of these mammals in echolocating became the emerging concept in a man-made sensor such as radar and sonar systems [2]. In nearly a century ago, revolution in advancing technology for radar and sonar application has been intensively explored by scholars. This development trend demonstrating the exploit</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3089011889</t>
+          <t>https://openalex.org/W2070465084</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1080/13642987.2020.1811693</t>
+          <t>https://doi.org/10.1086/292626</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>Viebach (2020)</t>
+          <t>Shacknove (1985)</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>&lt;i&gt;Transitional archives&lt;/i&gt;: towards a conceptualisation of archives in transitional justice</t>
+          <t>Who Is a Refugee?</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>This paper seeks to trouble and complicate core assumptions about transitional justice and archives and to critically examine the relationship between them. Understanding archives as a mere instrument of human rights obscures the silence of disenfranchised voices and the workings of power and exclusion that foreground the practice and discursive conditions of the transitional justice and human rights paradigms. Records about conflict and dictatorship are like records in general never only a reflection of realities, but they constitute these realities.11 Eric Ketelaar, ‘Archival Temples, Archival Prisons: Modes of Power and Protection’, Archival Science 2 (2002): 221–38, 222, https://doi.org/10.1007/BF02435623; Jacques Derrida, Archive Fever: A Freudian Impression (Chicago: Chicago University Press, 1996). Following Harris’ plea to find ‘exigencies’22 Verne Harris, ‘Antonyms of Our Remembering’, Archival Science 14 (2014): 215–29, https://doi.org/10.1007/s10502-014-9221-5. to the transitional justice paradigm it suggests the term transitional archives to highlight the multi-layered afterlife of human rights records. It thereby emphasises the open-ended nature, ‘the in-becoming’,33 Derrida, Archive Fever; Sue McKemmish, ‘Placing Records Continuum Theory and Practice’, Archival Science 1, no. 4 (2001): 333–59, https://doi.org/10.1007/BF02438901. of transitional archives. It argues that by including critical archival studies in our thinking of transitional justice and a violent past, we can push beyond the dominant discourse of healing, closure and reconciliation, and open up space to investigate not only how the past but also transitional justice itself is produced at the intersection of power, memory, narrative and violence.</t>
+          <t>Previous articleNext article No AccessWho Is a Refugee?Andrew E. ShacknoveAndrew E. ShacknovePDFPDF PLUS Add to favoritesDownload CitationTrack CitationsPermissionsReprints Share onFacebookTwitterLinkedInRedditEmail SectionsMoreDetailsFiguresReferencesCited by Ethics Volume 95, Number 2Jan., 1985 Article DOIhttps://doi.org/10.1086/292626 Views: 579Total views on this site Citations: 153Citations are reported from Crossref Copyright 1985 The University of ChicagoPDF download Crossref reports the following articles citing this article:Anna Stilz Economic Migration: On What Terms?, Perspectives on Politics 20, no.33 (Oct 2021): 983–998.https://doi.org/10.1017/S1537592721002206Zoë Jordan ‘The world we share’: everyday relations and the political consequences of refugee-refugee hosting in Amman, Jordan, Citizenship Studies 23 (Jul 2022): 1–17.https://doi.org/10.1080/13621025.2022.2103976Annamari Vitikainen Refugee-based Reasons in Refugee Resettlement – The Case of LGBTIQ+, Moral Philosophy and Politics 0, no.00 (Jun 2022).https://doi.org/10.1515/mopp-2021-0069Mazhar ÇİFTÇİ Refugee in the Character Fiction of Fawaz Husên's Novel Barê Şevê According to Magical Realism Method, Nubihar Akademi (Jun 2022).https://doi.org/10.55253/2022.nubihar.1119234Jamie Draper Climate Change and Displacement: Towards a Pluralist Approach, European Journal of Political Theory 50 (May 2022): 147488512210934.https://doi.org/10.1177/14748851221093446Ali Emre Benli Should refugees in the European Union have voting rights?, Critical Review of International Social and Political Philosophy 75 (Apr 2022): 1–22.https://doi.org/10.1080/13698230.2022.2062213Richard B. Gibson The cryonic refugee: appropriate analogy or confusing rhetoric?, The New Bioethics 28, no.22 (Mar 2022): 97–115.https://doi.org/10.1080/20502877.2022.2055868James Souter Reparative Fittingness, (Dec 2021): 113–133.https://doi.org/10.1007/978-3-030-62448-4_6David Churchman Voting Systems, (Jun 2022): 1657–1663.https://doi.org/10.1007/978-3-030-77954-2_62Leander Kandilige, Geraldine Asiwome Ampah Gaps in Protection for West African Migrants in Times of Crisis: The Role of a Multi-Stakeholder Platform Within a Partnership in Preparedness Model?, (Jul 2022): 129–149.https://doi.org/10.1007/978-3-030-97322-3_7Betül Yarar, Yasemin Karakaşoğlu , Journal of Refugee Studies ( 2022).https://doi.org/10.1093/jrs/feac044Felix Bender What's Political about Political Refugeehood? A Normative Reappraisal, Ethics &amp; International Affairs 36, no.33 (Sep 2022): 353–375.https://doi.org/10.1017/S0892679422000296James Souter Asylum’s Reparative Function, (Dec 2021): 43–63.https://doi.org/10.1007/978-3-030-62448-4_3James Souter Introduction, (Dec 2021): 1–19.https://doi.org/10.1007/978-3-030-62448-4_1Eun Su Lee, Betina Szkudlarek Refugee employment support: The HRM–CSR nexus and stakeholder co‐dependency, Human Resource Management Journal 31, no.44 (Apr 2021): 936–955.https://doi.org/10.1111/1748-8583.12352Julia Morris The Value of Refugees: UNHCR and the Growth of the Global Refugee Industry, Journal of Refugee Studies 34, no.33 (Jan 2021): 2676–2698.https://doi.org/10.1093/jrs/feaa135Andrey Damaledo Identity Politics and Refugee Policies in Kupang, Eastern Indonesia: A Politico-Historical Perspective, Asian Journal of Law and Society 8, no.33 (Mar 2021): 507–520.https://doi.org/10.1017/als.2021.6Cory Rodgers The ‘Host’ Label: Forming and Transforming a Community Identity at the Kakuma Refugee Camp, Journal of Refugee Studies 34, no.22 (Jan 2020): 1859–1878.https://doi.org/10.1093/jrs/fez109 References, (Aug 2021): 213–260.https://doi.org/10.1108/978-1-83982-826-320211025Roger Zetter Refugees and Their Return Home: Unsettling Matters, Journal of Refugee Studies 34, no.11 (Jun 2020): 7–22.https://doi.org/10.1093/jrs/feab005Mollie Gerver Must refugees return?, Critical Review of International Social and Political Philosophy 24, no.44 (Feb 2019): 415–436.https://doi.org/10.1080/13698230.2019.1573347Felix Bender Refugees: The politically oppressed, Philosophy &amp; Social Criticism 47, no.55 (Jun 2020): 615–633.https://doi.org/10.1177/0191453720931924Jamie Draper Justice and Internal Displacement, Political Studies (Apr 2021): 003232172110076.https://doi.org/10.1177/00323217211007641Shelley Wilcox Does Brock’s theory of migration justice adequately account for climate refugees?, Ethics &amp; Global Politics 14, no.22 (May 2021): 75–85.https://doi.org/10.1080/16544951.2021.1926084Jane McAdam, Tamara Wood The Concept of “International Protection” in the Global Compacts on Refugees and Migration, Interventions 23, no.22 (Jan 2021): 191–206.https://doi.org/10.1080/1369801X.2020.1854105François Boucher, Johanna Gördemann The European Union and the Global Compacts on Refugees and Migration: A Philosophical Critique, Interventions 23, no.22 (Dec 2020): 227–249.https://doi.org/10.1080/1369801X.2020.1854108Annick Pijnenburg, Conny Rijken Moving beyond refugees and migrants: reconceptualising the rights of people on</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2792373498</t>
+          <t>https://openalex.org/W4313215258</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>https://doi.org/10.5149/northcarolina/9781469631516.003.0002</t>
+          <t>https://doi.org/10.1016/j.oneear.2022.11.017</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>Smith-Rosenberg (2017)</t>
+          <t>Dieleman et al. (2022)</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>Meditating on Slavery in the Age of Revolution</t>
+          <t>Opportunities beyond CO2 for climate mitigation</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>From the nation’s founding inclusion in and exclusion from the U.S. body politic has been racialized. Citizenship and whiteness have been defined in opposition to slavery and blackness, the free white man celebrated as the prototype of the liberty-loving American citizen. “The very structure of American citizenship is white,” political philosophers and historians repeatedly tell us. Yet U.S. democracy took form during one of the most radical periods of human history, the Age of Revolution when the political world appeared remade and the promise of freedom unlimited. Between the 1780s and the War of 1812, increasingly radical political movements crisscrossed the Atlantic challenging absolute monarchies, establishing post-colonial republics and questioning the legitimacy of human slavery. Born of such momentous times, how were U.S. citizenship and democracy constituted as powerful instruments of racial exclusion? How were the majority of US citizens and their political leaders able to reconcile their commitment to the equality of all men with the centuries-old practice of chattel slavery? This essay ponders that conundrum through an exploration of a rapidly growing literary genre, the Barbary captivity narratives, cheaply printed popular accounts of the seizure and enslavement of American sailors by Barbary “pirates.” Focusing on the period between the 1780s and the War of 1812, that epic time when revolutionary fervor — and most especially the Haitian Revolution — made the contradictory interplay of Atlantic slavery and universal rights impossible to ignore, this article will explore the role popular representations of white and black enslavement played in the construction of the new U.S. republic and U.S. citizenship.</t>
+          <t>Most climate change mitigation strategies focus on reducing CO2 emissions. However, non-CO2 greenhouse gases and other anthropogenic climate drivers, though less abundant than CO2, can be more powerful climate warmers. This Voices asks, “What are the important actions to reduce non-CO2 warming forcers to help the world reach Paris Agreement targets?” Most climate change mitigation strategies focus on reducing CO2 emissions. However, non-CO2 greenhouse gases and other anthropogenic climate drivers, though less abundant than CO2, can be more powerful climate warmers. This Voices asks, “What are the important actions to reduce non-CO2 warming forcers to help the world reach Paris Agreement targets?” The perennially cold temperatures that characterize permafrost soils stabilize globally significant carbon and nitrogen stores, despite covering just ∼15% of the Earth’s surface. These frozen soils formed due to a combination of climatic and ecological conditions; however, belowground temperatures are now on the rise across circumpolar regions prompting permafrost thaw events. Considerable research has examined post-thaw CO2 dynamics, with uncertainties remaining if permafrost systems will continue to serve as an important CO sink or transition into a source. Permafrost thaw events also impact non-CO2 greenhouse gas production, including CH4 and N2O – greenhouse gases with radiative forcings 25 to 100 times greater than CO2, respectively. When ice-rich permafrost thaws, rapid changes in hydrologic conditions and soil structure integrity can cause these systems to transition from relatively dry permafrost forests into wetland features known as thermokarst. Thermokarst has been identified as a hotspot for both CH and NO production, especially in the initial years following thaw. As climate conditions continue to warm, ecological systems that protect permafrost will become increasingly important to limit enhanced thermokarst formation. As part of a cohesive climate change mitigation strategy, a paradigm shift is needed in how we value and manage northern ecosystems moving forward. Increased recognition of the long-term climate mitigation benefits from conservation and restoration of many northern ecosystems, including systems that protect permafrost, is an important first step to limiting natural sources of non-CO2 greenhouse gas emissions in the coming century. It should be clear to all who participated in COP27 that most progress on climate change is happening outside of the COPs. This includes the Global Methane Pledge, which now has 150 countries aiming to reduce global methane emissions 30% below 2020 levels by 2030. The Pledge is an important start for cutting methane emissions to slow near-term warming by avoiding nearly 0.3°C of warming by the 2040s. The Pledge should be followed by a mandatory Global Methane Agreement inspired by the world’s best environmental treaty, the Montreal Protocol, a sectoral agreement that, in addition to healing the ozone layer, has also avoided as much warming as carbon dioxide has caused and is on course to avoid 2.5°C of warming by 2100. The Montreal Protocol shows the value of disaggregating the climate problem into manageable sectors. By tailoring the governance approach to one sector, the Protocol took a bite out of the climate problem, started modestly, learned by doing, gained confidence, and repeatedly strengthened its mandatory measures to speed phaseouts. Its success is also based on robust implementation of the principle of “common but differentiated responsibilities,” including funding for agreed incremental cost of developing-country compliance. Its real-time assessment of the relevant science and technologies enables fast shifts to safe solutions. Because cutting methane emissions is the only known way to slow self-reinforcing feedback loops and avoid irreversible tipping points lurking beyond 1.5°C, the effort belongs at head-of-state level. At upcoming G7 and G20 meetings, countries representing 75% of global emissions and 80% of global GDP can get a head start to keep the 1.5°C target alive by committing to a Global Methane Agreement. Among the non-CO2 gases, short-lived climate forcers (SLCFs) are gaining attention due to their significant near-term climate impacts. Recent studies have urged mitigating SLCFs given their potential to avoid a 0.5°C rise in global temperatures by mid-century. However, SLCFs comprise a complex mix of warming and cooling forcers. For example, efforts to reduce CO2 emissions from formal sectors like power plants and industry often concurrently reduce emissions of air pollutants, like SO2 and NOx, that are also cooling SLCFs. Thus, the climate mitigation impact of reducing CO2 emissions is weakened. Fortunately, there are opportunities to reduce emissions of warming SLCFs, like black carbon, that benefit air quality while reducing climate warming. Inefficient combustion practices such as biomass fuels for cooking and heating, kerosene l</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4393021727</t>
+          <t>https://openalex.org/W2990922760</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>https://doi.org/10.31436/iiumlj.v31is1.877</t>
+          <t>https://doi.org/10.15407/econforecast2019.03.045</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>Yearn &amp; Said (2023)</t>
+          <t>Yukhymets (2019)</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>MISCARRIAGE OF CRIMINAL JUSTICE: THE APPEAL PROCESS AND POST-CONVICTION REVIEW</t>
+          <t>The impact of transaction costs on the transformation of the natural gas market of Ukraine</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Concerns about miscarriages of criminal justice are not unfamiliar within the criminal justice system. Cases that involve miscarriages of justice shall persist regardless of amendments made to any legal system. However, in the Malaysian context, official consideration was not sufficiently generated for systemic reform dealing with post-appeal avenues in cases of miscarriage of criminal justice, despite certain weaknesses having been identified. The objective of this article is to analyse the weaknesses in laws pertaining to post-appeal avenues in cases of criminal miscarriage of justice, and provide suggestions for minimising such instances. The research is conducted using doctrinal methodology where legal sources of different countries have been scrutinized. Weaknesses in the Malaysian post-conviction avenues are exhibited in the limited powers of the final appellate court to review its decision, in the review of criminal proceedings, and the granting of royal pardon by the Yang di-Pertuan Agong. The analysis of the response to miscarriages of criminal justice and post-conviction avenues in Malaysia undertaken with the objective that a proper legal mechanism be established, where the victims’ right to prove their innocence and obtain a fair trial is ensured. It is hoped that the suggestions given are viewed with an open mind with due regard for the relevant ethical and procedural aspects.</t>
+          <t>The desire to integrate into the European development model stipulated that Ukraine voluntarily assumed international commitments about transformation of the institutional environment according to the European model. The level of political awareness of the content of the necessary changes and how to achieve a systemic balance of reforming different sectors was often declarative in the absence of any sound estimates, including the implications for different economic actors. However, the need to reform the energy sector was determined not only by international obligations, but also by the presence of domestic problems, which over time without the application of systemic changes would become barriers to the entire further economic development of Ukraine. The main content of the implementation of European directives in the energy sector was just intended to systematically transform market relations by changing the rules of market functioning, which was supposed to solve the main crisis problems in various areas of the energy sector. The recent model of Ukrainian natural gas market was featured by all the shortcomings of the pre-reformed state of European markets: the tariff system did not promote rational consumer behavior, which exacerbated the pressure on the state budget; the delivery rules did not guarantee the proper quality of service; the absence of investment in the gas transportation sector made it impossible to expand fixed assets; the established transport and distribution rules became a barrier to free access to third-party networks and the development of competition in the supply segment. The actual implementation of the Second and Third Energy Package standards in the functioning of the national market of the natural year began in 2015, with the adoption of the Law on the Natural Gas Market. Today, an urgent task remains to estimate the process of reforming the natural gas market and to efficiently solve those crisis phenomena that caused the distortion of the institutional environment of the natural gas market. Since the accumulated problems of the previous model of the natural gas market were due to the inefficiency of the institutions, the article attempted to evaluate the effectiveness of the gas sector transformation process and analyze the impact of changes in certain market segments from the perspective of neoinstitutional theory and study the level of transaction costs.</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2972177787</t>
+          <t>https://openalex.org/W3013272548</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1109/tac.2019.2939625</t>
+          <t>https://doi.org/10.1299/jsmecmd.2019.32.143</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>Chen et al. (2020)</t>
+          <t>Sakashita et al. (2019)</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>Stochastic Control and Nonequilibrium Thermodynamics: Fundamental Limits</t>
+          <t>Phase-field simulation of steel microstructure changes during welding process coupled with CCT diagram</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>We consider damped stochastic systems in a controlled (time-varying) potential and study their transition between specified Gibbs-equilibria states in finite time. By the second law of thermodynamics, the minimum amount of work needed to transition from one equilibrium state to another is the difference between the Helmholtz free energy of the two states and can only be achieved by a reversible (infinitely slow) process. The minimal gap between the work needed in a finite-time transition and the work during a reversible one, turns out to equal the square of the optimal mass transport (Wasserstein-2) distance between the two end-point distributions times the inverse of the duration needed for the transition. This result, in fact, relates non-equilibrium optimal control strategies (protocols) to gradient flows of entropy functionals via the Jordan-Kinderlehrer-Otto scheme. The purpose of this paper is to introduce ideas and results from the emerging field of stochastic thermodynamics in the setting of classical regulator theory, and to draw connections and derive such fundamental relations from a control perspective in a multivariable setting.</t>
+          <t>Continuous cooling transformation (CCT) diagram is useful for understanding phase transformations from austenite to ferrite, pearlite and bainite in steel. CCT diagram is also important to estimate and control the final microstructures produced by complex thermal cycle during welding process. In particular, a phase-field method has been applied to simulate the microstructure changes in the Heat-Affected Zone (HAZ) that is the area heated just below the melting point. In this study, we proposed an integrated microstructure simulation system which predicts the microstructure developments in HAZ by combining multi-phase-field method and CCT diagrams. This simulation system provides an efficient materials design framework that would be able to continue to grow even in the future. The output microstructure data calculated from the system will be expected to contribute accurate mechanical properties of welding steel.</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2767090570</t>
-        </is>
-      </c>
-      <c r="B229" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1103/physrevd.96.103523</t>
+          <t>https://openalex.org/W2526451761</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>Zhang et al. (2017)</t>
+          <t>Karp &amp; Lundberg (2016)</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>Second-order cosmological perturbations. II. Produced by scalar-tensor and tensor-tensor couplings</t>
+          <t>A four--dimensional Neumann ovaloid</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>We study the second-order perturbations in the Einstein-de Sitter Universe in synchronous coordinate. We solve the second-order perturbed Einstein equation with scalar-tensor, and tensor-tensor couplings between 1st order perturbations, and obtain, for each coupling, the solutions of scalar, vector, tensor metric perturbations, including both the growing and decaying modes for general initial conditions. We perform general synchronous-to-synchronous gauge transformations up to 2nd order, which are generated by a 1st order vector field and a 2nd order vector field, and obtain all the residual gauge modes of the 2nd order metric perturbations in synchronous coordinates. We show that only the 2nd order vector field is effective for the 2nd order transformations that we consider because the 1st order vector field was already fixed in obtaining the 1st order perturbations. In particular, the 2nd order tensor is invariant under 2nd order gauge transformations using $\xi^{(2)\mu}$ only, just like the 1st order tensor is invariant under 1st order transformations.</t>
+          <t>What is the shape of a uniformly massive object that generates a gravitational potential equivalent to that of two equal point-masses? If the weight of each point-mass is sufficiently small compared to the distance between the points then the answer is a pair of balls of equal radius, one centered at each of the two points, but otherwise it is a certain domain of revolution about the axis passing through the two points. The existence and uniqueness of such a domain is known, but an explicit parameterization is known only in the plane where the region is referred to as a oval. We construct a four-dimensional Neumann ovaloid, solving explicitly this inverse potential problem.</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2755742087</t>
+          <t>https://openalex.org/W4388489573</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1161/circinterventions.117.005312</t>
+          <t>https://doi.org/10.1103/physrevresearch.5.043132</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>Gandhi et al. (2017)</t>
+          <t>Harris et al. (2023)</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>MitraClip and Transcatheter Aortic Valve Replacement in a Patient With Recurrent Heart Failure</t>
+          <t>Effect of sparsity on network stability in random neural networks obeying Dale's law</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>HomeCirculation: Cardiovascular InterventionsVol. 10, No. 9MitraClip and Transcatheter Aortic Valve Replacement in a Patient With Recurrent Heart Failure Free AccessReview ArticlePDF/EPUBAboutView PDFView EPUBSections ToolsAdd to favoritesDownload citationsTrack citationsPermissions ShareShare onFacebookTwitterLinked InMendeleyReddit Jump toFree AccessReview ArticlePDF/EPUBMitraClip and Transcatheter Aortic Valve Replacement in a Patient With Recurrent Heart Failure Sumeet Gandhi, MD, Madhu K. Natarajan, MD, MSc, Victor Chu, MD, Hisham Dokainish, MD, Shamir Mehta, MD, MSc and James L. Velianou, MD Sumeet GandhiSumeet Gandhi From McMaster University, Hamilton General Hospital, Ontario, Canada. Search for more papers by this author , Madhu K. NatarajanMadhu K. Natarajan From McMaster University, Hamilton General Hospital, Ontario, Canada. Search for more papers by this author , Victor ChuVictor Chu From McMaster University, Hamilton General Hospital, Ontario, Canada. Search for more papers by this author , Hisham DokainishHisham Dokainish From McMaster University, Hamilton General Hospital, Ontario, Canada. Search for more papers by this author , Shamir MehtaShamir Mehta From McMaster University, Hamilton General Hospital, Ontario, Canada. Search for more papers by this author and James L. VelianouJames L. Velianou From McMaster University, Hamilton General Hospital, Ontario, Canada. Search for more papers by this author Originally published11 Sep 2017https://doi.org/10.1161/CIRCINTERVENTIONS.117.005312Circulation: Cardiovascular Interventions. 2017;10:e005312Case PresentationAn 85-year-old man presented to the emergency department with a 3-week history of progressive dyspnea, orthopnea, and mild ankle edema without chest discomfort. His past medical history was significant for coronary artery disease with a non–ST-segment–elevation myocardial infarction 8 years prior with percutaneous coronary intervention to the distal right coronary artery, with mild residual nonobstructive disease in the left anterior descending artery and circumflex artery. Cardiovascular risk factors included hypertension, dyslipidemia, and chronic kidney disease stage 3. His remaining medical history was significant for cecal adenocarcinoma with a right hemicolectomy 20 years prior, and pulmonary sarcoidoisis that was quiescent without any history of steroid use or immunosuppression. The most recent pulmonary function tests revealed normal spirometry and diffusion capacity. He was a nonsmoker, and before the onset of symptoms he was functionally independent only using a cane for mobility.Initial vital signs revealed a regular heart rate of 81 bpm, and blood pressure of 121/78 mm Hg. He was afebrile, and his oxygen saturation was 95% on 2-L nasal prongs. Jugular venous pressure was elevated at 7 cm above the sternal angle with a normal waveform; the hepatojugular reflex was positive. The carotid pulse was of decreased volume but normal contour, without audible bruits. Auscultation revealed a normal S1 and S2, a holosystolic murmur at the apex, and a grade 2 midpeaking systolic ejection murmur at the base, with radiation to the carotids. Respiratory examination revealed clear and equal breath sounds bilaterally with the presence of bibasilar crackles at the lung bases. Peripheral pulses were present, with bilateral pitting edema at the ankles. Abdominal examination was unremarkable. Initial investigations revealed hemoglobin of 103 g/dL, and electrolytes within the normal range with a creatinine of 121 mmol/L (estimated glomerular filtration rate 50 mL/min). Troponin I (high sensitivity) was elevated with peak of 684 down to 674 ng/L (upper limit of normal &lt;30 ng/L). Twelve-lead ECG showed normal sinus rhythm, normal intervals, and evidence of left ventricular hypertrophy by voltage criteria. Chest x-ray showed pulmonary vascular redistribution with a small right pleural effusion, consistent with pulmonary edema.The patient was admitted to the hospital and started on intravenous furosemide for acute decompensated heart failure. An echocardiogram showed the left ventricle was severely dilated (left ventricular end-diastolic diameter, 6.6 cm; left ventricular end-systolic diameter, 5.5 cm) with severe eccentric left ventricular hypertrophy. The calculated left ventricular ejection fraction was 51% (stroke volume 57 mL/m2), there was moderate diastolic dysfunction with elevated left atrial pressure, and the basal inferior and inferolateral walls were akinetic with scar. The right ventricle was normal in size and function. The aortic valve was moderately calcified with moderate aortic stenosis (peak/mean pressure gradient of 34/23 mm Hg, aortic valve area, 0.96 cm2, dimensionless valve index, 0.32), and mild aortic regurgitation. There was moderate mitral regurgitation (effective regurgitant orifice area, 0.22 cm2, regurgitant volume 44.2 mL), and mild pulmonary hypertension with right ventricular systolic pressure of 42 mm Hg (Figures 1 and</t>
+          <t>This paper examines the relationship between sparse random network architectures and neural network stability by examining the eigenvalue spectral distribution. Specifically, we generalize classical eigenspectral results to sparse (not fully connected) connectivity matrices obeying Dale's law: neurons function as either excitatory (E) or inhibitory (I). By defining $\ensuremath{\alpha}$ as the probability that a neuron is connected to another neuron, we give explicit formulas that show how sparsity interacts with the E-I population statistics to scale key features of the eigenspectrum in both the balanced and unbalanced cases. Our results show that the eigenspectral outlier is linearly scaled by $\ensuremath{\alpha}$, but the eigenspectral radius and density now depend on a nonlinear interaction between $\ensuremath{\alpha}$ and the E-I population means and variances. Contrary to previous results, we demonstrate that a nonuniform eigenspectral density results if any of the E-I population statistics differ, not just the variances. We also find that local eigenvalue outliers are present for sparse random matrices obeying Dale's law, and demonstrate that these eigenvalues can be controlled by a modified zero row-sum constraint for the balanced case, however, they persist in the unbalanced case. We examine all levels of connection sparsity $0\ensuremath{\le}\ensuremath{\alpha}\ensuremath{\le}1$ and distributed E-I population weights to describe a general class of sparse connectivity structures which unifies all the previous results as special cases of our framework. Sparsity and Dale's law are both fundamental anatomical properties of biological neural networks. We generalize their combined effects on the eigenspectrum of random neural networks, thereby gaining insight into network stability, state transitions, and the structure-function relationship.</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4318831710</t>
+          <t>https://openalex.org/W2972701733</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2139/ssrn.4243132</t>
+          <t>https://doi.org/10.3390/su11185031</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>Horup et al. (2022)</t>
+          <t>Zhang et al. (2019)</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>Defining Dynamic Science-Based Climate Change Targets for Countries and Absolute Sustainable Building Design</t>
+          <t>An Agent-Based Two-Stage Trading Model for Direct Electricity Procurement of Large Consumers</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Given the current climate crisis countries and sectors need to set targets and address reduction potentials for their greenhouse gas (GHG) emissions. The current use of bottom-up benchmarks for the building sector enables relative sustainability comparisons. However, we must start relating the environmental performance of buildings to science-based targets. Therefore, this study introduces a procedure for downscaling the global GHG budget to country-specific top-down targets for embodied impacts in buildings. The procedure involves identifying a global budget in line with the Paris Agreement target limiting temperature increases to 1.5oC. The global GHG budget is then scaled down to national level and further down to the building sector, and finally to the construction of a new building. The downscaling method tested four combinations of the sharing principles applying equal per capita, ability to pay, utilitarianism, and acquired rights. The proposed procedure was applied to the Danish building sector, revealing that for the four sharing principles, the national legislation exceeds the average target values by up to 220% in 2023. By relating global climate targets to national targets for buildings, the results have the potential to guide decision-makers such as building designers as target values as well as policymakers to guide and evaluate national strategies related to the transformation of the building sector into sustainable practices.</t>
+          <t>Many electricity markets around the world are still at developmental and transitional stages. To complete the transition and achieve the key objectives of perfect market design, designers often choose direct electricity procurement of large consumers (LCs) as a pilot. The trading mechanism is critical because it lays the foundation for the exploration of formulating a trading model and the succeeding solution; however, the existing trading mechanisms of direct electricity procurement struggle to cope with new challenges that electric power systems are facing. This paper proposes a novel two-stage trading mechanism, considering both the fairness and efficiency of direct electricity procurement. Based on the proposed trading mechanism, an agent-based trading model with multiple participants is developed. The simulation results of the transactions between LCs and generation companies (GenCos) illustrate the feasibility and effectiveness of the proposed mechanism. With this mechanism, LCs and GenCos will have more choices in the trading process and can benefit from the reduction of the average market price. The two-stage trading model provides a new choice for market designers and participants of direct electricity procurement.</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4246829940</t>
+          <t>https://openalex.org/W2130769620</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>https://doi.org/10.5040/9780755622771.ch-0152</t>
+          <t>https://doi.org/10.1109/tmtt.2011.2131677</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>NA (2012)</t>
+          <t>Singhal et al. (2011)</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>Furet, François (1927–97)</t>
+          <t>A Zero-Voltage-Switching Contour-Based Power Amplifier With Minimal Efficiency Degradation Under Back-Off</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>The French Revolution was a huge, brutal yet inspiring phenomenon that changed global political thinking and action, and its echoes resound even in the twenty-first century. It was an intensely complex mix of events, concepts and individuals and A New Dictionary is an invaluable aid to unravelling its complications, and an essential companion for students and general readers alike. There are some 400 entries covering the main events, personalities, parties, ideologies, political ideas, philosophers, writers, artists, rebellions and wars, as well as touching on colonial and international developments, the interaction of church and state, science, law reform, events in the provinces and overseas territories and the reverberations in other European states. The Dictionary provides a full and vibrant history from the outbreak of revolution in 1789 to the Terror, the Revolutionary state, its wars and the rise of Napoleon. Entries contain much more than just bare factual information: they provide a detailed commentary and include suggestions for further reading - both in print and online - which refer to the extensive literature of over 200 years of scholarship and recent historiography.</t>
+          <t>A switching power amplifier (PA) architecture that offers up to 13 dB of output power back-off without any drain efficiency degradation is presented. The proposed zero-voltage-switching (ZVS) contour-based PA employs a series class-E PA in conjunction with duty cycle modulation and a proposed tunable impedance transformation network. So-called ZVS conditions that ensure ideally 100% drain efficiency are satisfied not just at peak output power, but over the 13-dB back-off range. Theoretical analyses of losses in the PA and the impedance transformation network are also presented to prove that drain efficiency actually improves with back-off. Measurement results of a 100-MHz PA built using discrete components on an FR4 printed circuit board showing drain efficiency greater than or equal to the peak efficiency (40%) at all output power levels are also presented.</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3197942552</t>
+          <t>https://openalex.org/W3089011889</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3389/fenrg.2021.718310</t>
+          <t>https://doi.org/10.1080/13642987.2020.1811693</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>Castro-Amoedo et al. (2021)</t>
+          <t>Viebach (2020)</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>The Role of Biowaste: A Multi-Objective Optimization Platform for Combined Heat, Power and Fuel</t>
+          <t>&lt;i&gt;Transitional archives&lt;/i&gt;: towards a conceptualisation of archives in transitional justice</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Biomass, bioenergy and negative emission technologies are inherent to the future design of energy systems. Urban clusters have a growing demand for fuel, heat and electricity, which is both a challenge and an opportunity for biomass-based technologies. Their deployment should meet demand, while minimizing environmental impact and staying cost-competitive. We develop a systematic approach for the design, evaluation and ranking of biomass-to-X production strategies under uncertain market conditions. We assemble state-of-the-art and innovative conversion technologies, based on feedstock, by-products and waste characteristics. Technical specifications, as well as economic and environmental aspects are estimated based on literature values and industry experts input. Embedded into a bi-level mixed-integer linear programming formulation, the framework identifies and assesses current and promising strategies, while establishing the most robust and resilient designs. The added value of this approach is the inclusion of sub-optimal routes which might outperform competing strategies under different market assumptions. The methodology is illustrated in the anaerobic digestion of food and green waste biomass used as a case study in the current Swiss market. By promoting a fair comparison between alternatives it highlights the benefits of energy integration and poly-generation in the energy transition, showing how biomass-based technologies can be deployed to achieve a more sustainable future.</t>
+          <t>This paper seeks to trouble and complicate core assumptions about transitional justice and archives and to critically examine the relationship between them. Understanding archives as a mere instrument of human rights obscures the silence of disenfranchised voices and the workings of power and exclusion that foreground the practice and discursive conditions of the transitional justice and human rights paradigms. Records about conflict and dictatorship are like records in general never only a reflection of realities, but they constitute these realities.11 Eric Ketelaar, ‘Archival Temples, Archival Prisons: Modes of Power and Protection’, Archival Science 2 (2002): 221–38, 222, https://doi.org/10.1007/BF02435623; Jacques Derrida, Archive Fever: A Freudian Impression (Chicago: Chicago University Press, 1996). Following Harris’ plea to find ‘exigencies’22 Verne Harris, ‘Antonyms of Our Remembering’, Archival Science 14 (2014): 215–29, https://doi.org/10.1007/s10502-014-9221-5. to the transitional justice paradigm it suggests the term transitional archives to highlight the multi-layered afterlife of human rights records. It thereby emphasises the open-ended nature, ‘the in-becoming’,33 Derrida, Archive Fever; Sue McKemmish, ‘Placing Records Continuum Theory and Practice’, Archival Science 1, no. 4 (2001): 333–59, https://doi.org/10.1007/BF02438901. of transitional archives. It argues that by including critical archival studies in our thinking of transitional justice and a violent past, we can push beyond the dominant discourse of healing, closure and reconciliation, and open up space to investigate not only how the past but also transitional justice itself is produced at the intersection of power, memory, narrative and violence.</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2039653246</t>
+          <t>https://openalex.org/W2792373498</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1108/09513579710178133</t>
+          <t>https://doi.org/10.5149/northcarolina/9781469631516.003.0002</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>Seal &amp; Vincent‐Jones (1997)</t>
+          <t>Smith-Rosenberg (2017)</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>Accounting and trust in the enabling of long‐term relations</t>
+          <t>Meditating on Slavery in the Age of Revolution</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>The enabling role of accounting in supporting classical contractual exchange has been extensively analysed in agency theory. In contrast, analyses the role of accounting in enabling empirically important and welfare‐enhancing long‐term relations which rely on trust and co‐operation rather than legal remedies. Under what circumstances does accounting strengthen, weaken or even destroy the trust which underpins relations both within and between organizations? What are the implications for accountability? Explores these general questions in the contrasting contexts of compulsory contracting policies in UK local government and the transition from socialism in Eastern Europe.</t>
+          <t>From the nation’s founding inclusion in and exclusion from the U.S. body politic has been racialized. Citizenship and whiteness have been defined in opposition to slavery and blackness, the free white man celebrated as the prototype of the liberty-loving American citizen. “The very structure of American citizenship is white,” political philosophers and historians repeatedly tell us. Yet U.S. democracy took form during one of the most radical periods of human history, the Age of Revolution when the political world appeared remade and the promise of freedom unlimited. Between the 1780s and the War of 1812, increasingly radical political movements crisscrossed the Atlantic challenging absolute monarchies, establishing post-colonial republics and questioning the legitimacy of human slavery. Born of such momentous times, how were U.S. citizenship and democracy constituted as powerful instruments of racial exclusion? How were the majority of US citizens and their political leaders able to reconcile their commitment to the equality of all men with the centuries-old practice of chattel slavery? This essay ponders that conundrum through an exploration of a rapidly growing literary genre, the Barbary captivity narratives, cheaply printed popular accounts of the seizure and enslavement of American sailors by Barbary “pirates.” Focusing on the period between the 1780s and the War of 1812, that epic time when revolutionary fervor — and most especially the Haitian Revolution — made the contradictory interplay of Atlantic slavery and universal rights impossible to ignore, this article will explore the role popular representations of white and black enslavement played in the construction of the new U.S. republic and U.S. citizenship.</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2472661776</t>
+          <t>https://openalex.org/W2015426115</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1007/978-1-349-27794-0_9</t>
+          <t>https://doi.org/10.1103/physrevb.35.6987</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>Morrison et al. (1999)</t>
+          <t>Ab &amp; Tc (1987)</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>Fictions for the Village</t>
+          <t>Potts-model formulation of the random resistor network</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>The fiction of the past quarter-century has seen a resurgence of the fascination with community which has been a leitmotif in American women’s narratives. Just as earlier periods of cultural transformation witnessed a flowering of fictions with fresh notions of community at their centre (for instance, during the breakdown of Victorian certitudes in the 1890s), so this period (1970–95) can be described as a phase of radical communitarianism. For writers such as Cynthia Ozick, Toni Morrison and Maxine Hong Kingston the novelist remains a storyteller (all three are indebted to the folkloric modernism of the 1920s and 1930s); but the relationship between storyteller and community has become more complex, and sometimes fraught. For the communitarians, storytelling is complicated by the interplay of the imagined communities addressed by the writer. The communitarian writes for a readership of women, for her own ethnic or cultural ‘village’ (in Morrison’s term); but these authors also claim a national significance for their stories, addressing fundamental national subjects (migration, race, cultural pluralism). In writing about the structures of community (the lore of Judaism, say, in Ozick’s Puttermesser stories) these authors provide local fictional templates for a conceptualised understanding of what culture is and how the individual situates herself within cultures.</t>
+          <t>The randomly diluted resistor network is formulated in terms of an n-replicated s-state Potts model with a spin-spin coupling constant J in the limit when first n, then s, and finally 1/J go to zero. This limit is discussed and to leading order in 1/J the generalized susceptibility is shown to reproduce the results of the accompanying paper where the resistor network is treated using the xy model. This Potts Hamiltonian is converted into a field theory by the usual Hubbard-Stratonovich transformation and thereby a renormalization-group treatment is developed to obtain the corrections to the critical exponents to first order in \ensuremath{\epsilon}=6-d, where d is the spatial dimensionality. The recursion relations are shown to be the same as for the xy model. Their detailed analysis (given in the accompanying paper) gives the resistance crossover exponent as ${\ensuremath{\varphi}}_{1}$=1+\ensuremath{\epsilon}/42, and determines the critical exponent, t for the conductivity of the randomly diluted resistor network at concentrations, p, just above the percolation threshold: t=(d-2)\ensuremath{\nu}+${\ensuremath{\varphi}}_{1}$, where \ensuremath{\nu} is the critical exponent for the correlation length at the percolation threshold. These results correct previously accepted results giving \ensuremath{\varphi}=1 to all orders in \ensuremath{\epsilon}. The new result for ${\ensuremath{\varphi}}_{1}$ removes the paradox associated with the numerical result that t&amp;gt;1 for d=2, and also shows that the Alexander-Orbach conjecture, while numerically quite accurate, is not exact, since it disagrees with the \ensuremath{\epsilon} expansion.</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3017590339</t>
+          <t>https://openalex.org/W2972177787</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1111/cea.13606</t>
+          <t>https://doi.org/10.1109/tac.2019.2939625</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>Roberts (2020)</t>
+          <t>Chen et al. (2020)</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>Immunotherapy, pre‐school wheeze and asthma</t>
+          <t>Stochastic Control and Nonequilibrium Thermodynamics: Fundamental Limits</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>Although immunotherapy has been in use for over 100 years, innovations continue to be investigated to optimize this therapy.1 Examples are peptide immunotherapy, recombinant allergens, epicutaneous immunotherapy and oral immunotherapy. All of these novel approaches have been found to have shortcomings in terms of efficacy or safety. So, we continue to use subcutaneous and sublingual immunotherapy. Novel approaches are required but these should be focused on where there is a therapeutic gap, for example IgE-mediated food allergy.2 Recurrent wheeze is a major issue in the pre-school age group.3 We only have a rudimentary understanding of the pathophysiology of this presentation, based on pre-schoolers with severe pre-school wheeze. Malmström et al have assessed airway hyper-responsiveness, remodelling and inflammation in pre-school children (median age 1.1 years) with persistent wheeze and troublesome breathing.4 Half had impaired lung function often in association with airway hyper-responsiveness. However, this was not associated with increased bronchial airway smooth muscle, bronchial mast cells, reticular basement membrane thickness nor level of eosinophilic inflammation. They conclude that eosinophilic inflammation or remodelling do not underlie recurrent wheeze in young pre-schoolers although there are structural changes in older pre-school children.5 Cleaning is associated with the asthma symptoms. Brooks et al have looked at symptoms and lung function in 425 professional cleaners to understand how to predict poor outcomes.6 Compared with 281 controls, cleaners had more current asthma symptoms or medication and had lower lung function but were less likely to have a diagnosis of asthma nor to be atopic. The authors suggest that cleaners may have a distinct phenotype of asthma. Finally, I would like to say farewell to Dr Frankland, the grandfather of allergy, who sadly died in April. I remember Bill fondly from my first BSACI meetings in the mid ‘90s and then from his visit to the David Hide Centre on the Isle of Wight just after he turned 90. Dr Glenis Scadding has written an obituary which is published in this issue.</t>
+          <t>We consider damped stochastic systems in a controlled (time-varying) potential and study their transition between specified Gibbs-equilibria states in finite time. By the second law of thermodynamics, the minimum amount of work needed to transition from one equilibrium state to another is the difference between the Helmholtz free energy of the two states and can only be achieved by a reversible (infinitely slow) process. The minimal gap between the work needed in a finite-time transition and the work during a reversible one, turns out to equal the square of the optimal mass transport (Wasserstein-2) distance between the two end-point distributions times the inverse of the duration needed for the transition. This result, in fact, relates non-equilibrium optimal control strategies (protocols) to gradient flows of entropy functionals via the Jordan-Kinderlehrer-Otto scheme. The purpose of this paper is to introduce ideas and results from the emerging field of stochastic thermodynamics in the setting of classical regulator theory, and to draw connections and derive such fundamental relations from a control perspective in a multivariable setting.</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4233806402</t>
+          <t>https://openalex.org/W2755742087</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>https://doi.org/10.32014/2020.2518-1467.149</t>
+          <t>https://doi.org/10.1161/circinterventions.117.005312</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>Нестеров (2020)</t>
+          <t>Gandhi et al. (2017)</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>ESSENCE AND FEATURES OF THE CRIMINAL ACTIVITY OF THE MARGINAL ADOLESCENT: MODERN CONDITION AND TRENDS</t>
+          <t>MitraClip and Transcatheter Aortic Valve Replacement in a Patient With Recurrent Heart Failure</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>. The article presents the main problems of the theory and practice of criminal activity in the modern teenage environment. The statistical data of the Ministry of Internal Affairs of the Russian Federation and the Federal Penitentiary Service of Russia of the Ministry of Justice of the Russian Federation of criminal offenses committed from 2003 to the present period by juvenile offenders are given [as of June 1, 2020]. The author analyzes the features of the criminal youth subculture. Typologization is carried out according to the types of youth informal groups. The main causes of juvenile delinquency are identified and justified. Spectral analysis is carried out for these reasons (motives). The factors provoking crime in a teenage environment are determined. The author revealed that one of the negative conditions for the formation of delinquent and deviant behavior of adolescents is the early start of work. At present, adolescents from 14 years old are going through a process of socialization and familiarization with work in the conditions of transformation of socio-economic, political, sanctions relations. The transformation in Russia led to the use of various illegal forms, in particular related to the involvement of street children (10-15 years old and 16-18 years old) in the criminal business. The author determines that juvenile delinquency is primarily determined by the characteristics of the personality of the offender. The main thing in its consideration was the minority of the offender. Certain biological, psychological and mental changes in the structure of the personality are associated with it. Age determines a certain level of development of forces, intelligence, drives, and even the “physical” ability to commit certain crimes. Also, the author of the article determined that the process of socialization of an individual begins at an early age, when he begins to assimilate the roles that form his personal qualities. It is in childhood that any person is formed as a social being, he develops intelligence, the ability to analyze and generalize the surrounding phenomena, the ability to anticipate the possible consequences of his actions; such volitional qualities as perseverance, determination, self-control, activity, initiative are developed; self-awareness, self-esteem, desire for independence are formed. All this is closely related to the subsequent behavior of the personality of a minor offender. The author interprets such a basic concept as “criminal youth subculture”. The regional statistics of the Ministry of Internal Affairs of Russia on offenses as a consequence of the COVID-19 pandemic in Russia is given. All materials presented in the article do not contain information (information) related to state secrets of the Russian Federation.</t>
+          <t>HomeCirculation: Cardiovascular InterventionsVol. 10, No. 9MitraClip and Transcatheter Aortic Valve Replacement in a Patient With Recurrent Heart Failure Free AccessReview ArticlePDF/EPUBAboutView PDFView EPUBSections ToolsAdd to favoritesDownload citationsTrack citationsPermissions ShareShare onFacebookTwitterLinked InMendeleyReddit Jump toFree AccessReview ArticlePDF/EPUBMitraClip and Transcatheter Aortic Valve Replacement in a Patient With Recurrent Heart Failure Sumeet Gandhi, MD, Madhu K. Natarajan, MD, MSc, Victor Chu, MD, Hisham Dokainish, MD, Shamir Mehta, MD, MSc and James L. Velianou, MD Sumeet GandhiSumeet Gandhi From McMaster University, Hamilton General Hospital, Ontario, Canada. Search for more papers by this author , Madhu K. NatarajanMadhu K. Natarajan From McMaster University, Hamilton General Hospital, Ontario, Canada. Search for more papers by this author , Victor ChuVictor Chu From McMaster University, Hamilton General Hospital, Ontario, Canada. Search for more papers by this author , Hisham DokainishHisham Dokainish From McMaster University, Hamilton General Hospital, Ontario, Canada. Search for more papers by this author , Shamir MehtaShamir Mehta From McMaster University, Hamilton General Hospital, Ontario, Canada. Search for more papers by this author and James L. VelianouJames L. Velianou From McMaster University, Hamilton General Hospital, Ontario, Canada. Search for more papers by this author Originally published11 Sep 2017https://doi.org/10.1161/CIRCINTERVENTIONS.117.005312Circulation: Cardiovascular Interventions. 2017;10:e005312Case PresentationAn 85-year-old man presented to the emergency department with a 3-week history of progressive dyspnea, orthopnea, and mild ankle edema without chest discomfort. His past medical history was significant for coronary artery disease with a non–ST-segment–elevation myocardial infarction 8 years prior with percutaneous coronary intervention to the distal right coronary artery, with mild residual nonobstructive disease in the left anterior descending artery and circumflex artery. Cardiovascular risk factors included hypertension, dyslipidemia, and chronic kidney disease stage 3. His remaining medical history was significant for cecal adenocarcinoma with a right hemicolectomy 20 years prior, and pulmonary sarcoidoisis that was quiescent without any history of steroid use or immunosuppression. The most recent pulmonary function tests revealed normal spirometry and diffusion capacity. He was a nonsmoker, and before the onset of symptoms he was functionally independent only using a cane for mobility.Initial vital signs revealed a regular heart rate of 81 bpm, and blood pressure of 121/78 mm Hg. He was afebrile, and his oxygen saturation was 95% on 2-L nasal prongs. Jugular venous pressure was elevated at 7 cm above the sternal angle with a normal waveform; the hepatojugular reflex was positive. The carotid pulse was of decreased volume but normal contour, without audible bruits. Auscultation revealed a normal S1 and S2, a holosystolic murmur at the apex, and a grade 2 midpeaking systolic ejection murmur at the base, with radiation to the carotids. Respiratory examination revealed clear and equal breath sounds bilaterally with the presence of bibasilar crackles at the lung bases. Peripheral pulses were present, with bilateral pitting edema at the ankles. Abdominal examination was unremarkable. Initial investigations revealed hemoglobin of 103 g/dL, and electrolytes within the normal range with a creatinine of 121 mmol/L (estimated glomerular filtration rate 50 mL/min). Troponin I (high sensitivity) was elevated with peak of 684 down to 674 ng/L (upper limit of normal &lt;30 ng/L). Twelve-lead ECG showed normal sinus rhythm, normal intervals, and evidence of left ventricular hypertrophy by voltage criteria. Chest x-ray showed pulmonary vascular redistribution with a small right pleural effusion, consistent with pulmonary edema.The patient was admitted to the hospital and started on intravenous furosemide for acute decompensated heart failure. An echocardiogram showed the left ventricle was severely dilated (left ventricular end-diastolic diameter, 6.6 cm; left ventricular end-systolic diameter, 5.5 cm) with severe eccentric left ventricular hypertrophy. The calculated left ventricular ejection fraction was 51% (stroke volume 57 mL/m2), there was moderate diastolic dysfunction with elevated left atrial pressure, and the basal inferior and inferolateral walls were akinetic with scar. The right ventricle was normal in size and function. The aortic valve was moderately calcified with moderate aortic stenosis (peak/mean pressure gradient of 34/23 mm Hg, aortic valve area, 0.96 cm2, dimensionless valve index, 0.32), and mild aortic regurgitation. There was moderate mitral regurgitation (effective regurgitant orifice area, 0.22 cm2, regurgitant volume 44.2 mL), and mild pulmonary hypertension with right ventricular systolic pressure of 42 mm Hg (Figures 1 and</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2031981698</t>
+          <t>https://openalex.org/W4318831710</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1080/09612025.2011.632927</t>
+          <t>https://doi.org/10.2139/ssrn.4243132</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>Ilič (2012)</t>
+          <t>Horup et al. (2022)</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>Equality and Revolution: women's rights in the Russian Empire, 1905–1917 ROCHELLE GOLDBERG RUTHCHILD</t>
+          <t>Defining Dynamic Science-Based Climate Change Targets for Countries and Absolute Sustainable Building Design</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>Given the current climate crisis countries and sectors need to set targets and address reduction potentials for their greenhouse gas (GHG) emissions. The current use of bottom-up benchmarks for the building sector enables relative sustainability comparisons. However, we must start relating the environmental performance of buildings to science-based targets. Therefore, this study introduces a procedure for downscaling the global GHG budget to country-specific top-down targets for embodied impacts in buildings. The procedure involves identifying a global budget in line with the Paris Agreement target limiting temperature increases to 1.5oC. The global GHG budget is then scaled down to national level and further down to the building sector, and finally to the construction of a new building. The downscaling method tested four combinations of the sharing principles applying equal per capita, ability to pay, utilitarianism, and acquired rights. The proposed procedure was applied to the Danish building sector, revealing that for the four sharing principles, the national legislation exceeds the average target values by up to 220% in 2023. By relating global climate targets to national targets for buildings, the results have the potential to guide decision-makers such as building designers as target values as well as policymakers to guide and evaluate national strategies related to the transformation of the building sector into sustainable practices.</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>https://openalex.org/W82596550</t>
+          <t>https://openalex.org/W4246829940</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.5040/9780755622771.ch-0152</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>Breeding (2008)</t>
+          <t>NA (2012)</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>Civica Transitions to Private Equity</t>
+          <t>Furet, François (1927–97)</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>The French Revolution was a huge, brutal yet inspiring phenomenon that changed global political thinking and action, and its echoes resound even in the twenty-first century. It was an intensely complex mix of events, concepts and individuals and A New Dictionary is an invaluable aid to unravelling its complications, and an essential companion for students and general readers alike. There are some 400 entries covering the main events, personalities, parties, ideologies, political ideas, philosophers, writers, artists, rebellions and wars, as well as touching on colonial and international developments, the interaction of church and state, science, law reform, events in the provinces and overseas territories and the reverberations in other European states. The Dictionary provides a full and vibrant history from the outbreak of revolution in 1789 to the Terror, the Revolutionary state, its wars and the rise of Napoleon. Entries contain much more than just bare factual information: they provide a detailed commentary and include suggestions for further reading - both in print and online - which refer to the extensive literature of over 200 years of scholarship and recent historiography.</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2990419345</t>
+          <t>https://openalex.org/W3197942552</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1182/blood-2019-127859</t>
+          <t>https://doi.org/10.3389/fenrg.2021.718310</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>Stegelmann et al. (2019)</t>
+          <t>Castro-Amoedo et al. (2021)</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>Updated Results from the German Mpnsg-0212 Combination Trial: Ruxolitinib Plus Pomalidomide in Myelofibrosis with Anemia</t>
+          <t>The Role of Biowaste: A Multi-Objective Optimization Platform for Combined Heat, Power and Fuel</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>Background: Anemia remains one cardinal symptom associated with reduced quality of life (QoL) in patients (pts) with myelofibrosis (MF) which is normally not being addressed by ruxolitinib (RUX). In our previous MPNSG-0109 trial, single-agent pomalidomide (POM) improved cytopenia in 14% (POM 0.5 mg QD) and 29% (POM 2.0 mg QD) of MF pts, respectively. In the MPNSG-0212 study, we sought to investigate the potential synergism of RUX plus POM to improve anemia and QoL in MF pts. Study Design: MPNSG-0212 is an ongoing multicenter, open-label, single-arm phase-Ib/II trial with a target population of 90 pts following a two-stage design (NCT01644110). Pts 1-40 in cohort 1 (co1) were treated with RUX (10 mg BID) plus low-dose POM (0.5 mg QD), while pts 41-90 in cohort 2 (co2) receive a step-wise dose increase of POM from 0.5 mg to 1 mg and 2 mg QD after 3 and 6 28-day-cycles, respectively. Primary endpoints are safety of the combination therapy, anemia response after 12 cycles (according to IWG-MRT and RBC transfusion independence [RBC-TI] criteria), and clinical benefit (CB) defined as stable disease plus i) hemoglobin (Hb) increase ≥1 g/dL in pts with RBC-TI or ii) doubling of RBC transfusion intervals and/or iii) significant (&amp;amp;gt;25%) improvement of QoL as measured by the MPN-SAF questionnaire. Main inclusion criterion is MF with anemia (Hb &amp;amp;lt;10 g/dL and/or RBC transfusion dependence [RBC-TD]). Pts suitable for allogeneic transplantation and pts with low platelet counts (&amp;amp;lt;100/nL) are excluded. Results: At data cut-off (31-May-2019), 79 pts were included. Data from 67 pts were available for evaluation (co1, n=40; co2, n=27). Baseline characteristics of the pts were as follows: median age 72 years (range 49-84), prior treatment in 53% (RUX in 22%, POM in 4%), median Hb level at study start 8.6 g/dL (range 5.4-11.7), RBC-TD in 28%, median spleen diameter measured by ultrasound 17.7 cm (range 12-36), presence of constitutional symptoms in 76%, and 91% intermediate-2 (61%) or high-risk (30%) pts according to DIPSS; 55% of pts in co1 had ≥1 high molecular risk mutation (ASXL1, SRSF2, EZH2, and/or IDH1/2). Median number of cycles until data cut-off was 12 (range 2-63) in co1 and 11 (range 2-21) in co2. In total, 502 adverse events (AE) mainly grade 1/2 were recorded: AE grade 1/2 in &amp;amp;gt;20% of pts were fatigue (in 27% of pts), dyspnea (24%), diarrhea (22%), and muscle cramps (21%); AE grade ≥3 in &amp;amp;gt;3% of pts was Hb decrease in the first weeks of treatment occurring in 25% of pts. In total, 87 serious AE (SAE), were recorded: most common SAE (in ≥3 pts) were pneumonia (in 15% of pts), leukemic transformation (9%), worsening of general condition (6%), CNS ischemia, and sepsis (4% each); 7 SAE (in 10% of pts) were grade 5. Number or severity of (S)AE was not increased in co2. Treatment interruptions of RUX and/or POM were necessary in 11 pts (27%) of co1 and 3 pts (11%) of co2; 2 pts stopped treatment permanently due to hematotoxicity. Increase of the POM dose to 1 mg and 2 mg QD was feasible in the majority of pts after 3 and 6 cycles, respectively. In co1, 18/40 pts (45%) continued treatment beyond cycle 12 because of an objective anemia response (7/40, 18%: clinical improvement [CI, Hb increase ≥2 g/dL] n=5, partial remission and RBC-TI n=1 each) or CB (11/40, 27%): Hb increase ≥1 g/dL and/or doubling of RBC transfusion intervals (n=4) or improvement of QoL according to MPN-SAF (n=7). In co2, 17/27 pts (63%) reached cycle 12 and 10/17 (59%) continued treatment: 2/10 (20%) experienced CI, whereas 8/10 (80%) fulfilled the CB criterion; 19/27 pts (70%) were still on treatment at the time of data cut-off. Among all 67 pts analyzed, 42% (28/67) were on treatment for more than 12 cycles and 24% (16/67) for more than 24 cycles; 3 pts (4%) were treated for more than 60 cycles due to sustained response or CB. Of note, mean Hb increased from 8.7 g/dL at baseline to 9.6 g/dL at end of cycle 18 and remained stable thereafter (Figure 1). Conclusions: Combination treatment using RUX plus POM is feasible in pts with poor-risk MF and resulted in an objective anemia response rate of 18% in co1. Of note, 42% of pts were treated with &amp;amp;gt;12 cycles and showed a longer lasting stabilization of their disease with sustained improvement of Hb and QoL. Step-wise increase of the POM dose in co2 is safe and feasible with 70% of pts still on study treatment. Updated efficacy results of co2 with longer follow-up data will be presented at the meeting. Figure 1 Disclosures Stegelmann: Incyte: Consultancy, Honoraria; Novartis: Consultancy, Honoraria. Koschmieder:Pfizer: Consultancy, Honoraria, Membership on an entity's Board of Directors or advisory committees; Bristol Myers-Squibb: Consultancy, Honoraria, Membership on an entity's Board of Directors or advisory committees, Research Funding; Novartis Foundation: Research Funding; Janssen: Consultancy, Honoraria, Membership on an entity's Board of Directors or advisory co</t>
+          <t>Biomass, bioenergy and negative emission technologies are inherent to the future design of energy systems. Urban clusters have a growing demand for fuel, heat and electricity, which is both a challenge and an opportunity for biomass-based technologies. Their deployment should meet demand, while minimizing environmental impact and staying cost-competitive. We develop a systematic approach for the design, evaluation and ranking of biomass-to-X production strategies under uncertain market conditions. We assemble state-of-the-art and innovative conversion technologies, based on feedstock, by-products and waste characteristics. Technical specifications, as well as economic and environmental aspects are estimated based on literature values and industry experts input. Embedded into a bi-level mixed-integer linear programming formulation, the framework identifies and assesses current and promising strategies, while establishing the most robust and resilient designs. The added value of this approach is the inclusion of sub-optimal routes which might outperform competing strategies under different market assumptions. The methodology is illustrated in the anaerobic digestion of food and green waste biomass used as a case study in the current Swiss market. By promoting a fair comparison between alternatives it highlights the benefits of energy integration and poly-generation in the energy transition, showing how biomass-based technologies can be deployed to achieve a more sustainable future.</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3125617324</t>
+          <t>https://openalex.org/W1984335232</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1109/t-aiee.1918.4765570</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>Vidaillet (2019)</t>
+          <t>Fortescue (1918)</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>Libéralisation de l'Université : l'inspiration bourdivine</t>
+          <t>Method of Symmetrical Co-Ordinates Applied to the Solution of Polyphase Networks</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>Depuis quinze ans, d'importantes transformations ont affecte profondement l’universite en France. La plupart des analyses pointent la responsabilite de choix politiques francais et europeens, dans un contexte international ou l’espace de l’enseignement superieur et la recherche n’a pas echappe a un vaste projet neo-liberal conduisant a detruire toute forme d’administration publique du bien commun (justice, sante, enseignement, recherche, etc.). Cependant, une telle presentation detourne un peu vite le regard de ce qui, en interne, avait ideologiquement prepare l’institution a prendre le pli de ces « reformes »…et comme nous le montrerons, les coups de canif au modele universitaire francais n’ont pas forcement ete inities par le camp auquel on penserait spontanement. Ainsi, alors que Bourdieu est souvent presente comme un voire « le » penseur « anti-neo-liberal » , il parle pourtant le meme langage que ses supposes adversaires et leur a, pour ce qui concerne la transformation du monde universitaire, prepare le terrain...</t>
+          <t>In the introduction a general discussion of unsymmetrical systems of co-planar vectors leads to the conclusion that they may be represented by symmetrical systems of the same number of vectors, the number of symmetrical systems required to define the given system being equal to its degrees of freedom. A few trigonometrical theorems which are to be used in the paper are called to mind. The paper is subdivided into three parts, an abstract of which follows. It is recommended that only that part of Part I up to formula (33) and the portion dealing with star-delta transformations be read before proceeding with Part II. Part I deals with the resolution of unsymmetrical groups of numbers into symmetrical groups. These numbers may represent rotating vectors of systems of operators. A new operator termed the sequence operator is introduced which simplifies the manipulation. Formulas are derived for three-phase circuits. Star-delta transformations for symmetrical co-ordinates are given and expressions for power deduced. A short discussion of harmonics in three-phase systems is given. Part II deals with the practical application of this method to symmetrical rotating machines operating on unsymmetrical circuits. General formulas are derived and such special cases, as the single-phase induction motor, synchronous motor-generator, phase converters of various types, are discussed.</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2404236856</t>
+          <t>https://openalex.org/W2472661776</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1177/105268461402400502</t>
+          <t>https://doi.org/10.1007/978-1-349-27794-0_9</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>Bickmore &amp; Dowell (2014)</t>
+          <t>Morrison et al. (1999)</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>Two Charter School Principals’ Engagement in Instructional Leadership</t>
+          <t>Fictions for the Village</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>This comparative case (Merriam, 2009) study explored two charter school principals’ engagement in instructional leadership. Analysis of three data sources—interviews, observations, and documents—revealed that principals were almost exclusively focused on state accountability and possessed limited knowledge of pedagogical practices. In particular, these two principals had difficulties managing aspects of the instructional program and sustaining a positive school climate, possibly related to their limited educational experience. As a result, these two principals focused on structural changes, delegated instructional issues, and appeared to rely heavily on commercial programs as opposed to enhancement of teacher classroom practices. Comparisons of charter principal practices with traditional principal instructional leadership models are made and implications discussed.</t>
+          <t>The fiction of the past quarter-century has seen a resurgence of the fascination with community which has been a leitmotif in American women’s narratives. Just as earlier periods of cultural transformation witnessed a flowering of fictions with fresh notions of community at their centre (for instance, during the breakdown of Victorian certitudes in the 1890s), so this period (1970–95) can be described as a phase of radical communitarianism. For writers such as Cynthia Ozick, Toni Morrison and Maxine Hong Kingston the novelist remains a storyteller (all three are indebted to the folkloric modernism of the 1920s and 1930s); but the relationship between storyteller and community has become more complex, and sometimes fraught. For the communitarians, storytelling is complicated by the interplay of the imagined communities addressed by the writer. The communitarian writes for a readership of women, for her own ethnic or cultural ‘village’ (in Morrison’s term); but these authors also claim a national significance for their stories, addressing fundamental national subjects (migration, race, cultural pluralism). In writing about the structures of community (the lore of Judaism, say, in Ozick’s Puttermesser stories) these authors provide local fictional templates for a conceptualised understanding of what culture is and how the individual situates herself within cultures.</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2015532636</t>
+          <t>https://openalex.org/W4233806402</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.tca.2006.02.022</t>
+          <t>https://doi.org/10.32014/2020.2518-1467.149</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>Poel &amp; Mathot (2006)</t>
+          <t>Нестеров (2020)</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>High-speed/high performance differential scanning calorimetry (HPer DSC): Temperature calibration in the heating and cooling mode and minimization of thermal lag</t>
+          <t>ESSENCE AND FEATURES OF THE CRIMINAL ACTIVITY OF THE MARGINAL ADOLESCENT: MODERN CONDITION AND TRENDS</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>The temperature calibration of high performance DSC in the heating and cooling mode is discussed. Several primary and secondary calibration standards are studied at different sample masses – from 0.4 μg to 10 mg – and various heating and cooling rates – from 1 to 500 °C/min and from 1 to 300 °C/min, respectively. The experimental onset and peak temperatures of Indium with different sample masses are measured at different heating rates and the two related correction factors are presented. The symmetry of the HPer DSC with respect to the cooling and the heating modes is checked and found to be good. The liquid crystals M24, HP-53 and BCH-52, being substances with no or very small supercoolings, are recommended as secondary standards for temperature calibration in both the cooling and heating mode. In order to verify whether the proposed correction factors of Indium can also be used in the cooling mode, the melting behavior of Indium and the phase transition temperatures of the secondary standards obtained in heating are compared, and it turns out that the latter are usable as well. Finally, recommendations for both an extensive temperature calibration and a rather quick calibration procedure of scanning calorimeters in the heating and the cooling mode for various sample masses and various rates are given. The calibration procedure developed for HPer DSC facilitates making the right choices to minimize the thermal lag with respect to the sample mass and scan rates at the start of the measurement, instead of just making corrections afterwards.</t>
+          <t>. The article presents the main problems of the theory and practice of criminal activity in the modern teenage environment. The statistical data of the Ministry of Internal Affairs of the Russian Federation and the Federal Penitentiary Service of Russia of the Ministry of Justice of the Russian Federation of criminal offenses committed from 2003 to the present period by juvenile offenders are given [as of June 1, 2020]. The author analyzes the features of the criminal youth subculture. Typologization is carried out according to the types of youth informal groups. The main causes of juvenile delinquency are identified and justified. Spectral analysis is carried out for these reasons (motives). The factors provoking crime in a teenage environment are determined. The author revealed that one of the negative conditions for the formation of delinquent and deviant behavior of adolescents is the early start of work. At present, adolescents from 14 years old are going through a process of socialization and familiarization with work in the conditions of transformation of socio-economic, political, sanctions relations. The transformation in Russia led to the use of various illegal forms, in particular related to the involvement of street children (10-15 years old and 16-18 years old) in the criminal business. The author determines that juvenile delinquency is primarily determined by the characteristics of the personality of the offender. The main thing in its consideration was the minority of the offender. Certain biological, psychological and mental changes in the structure of the personality are associated with it. Age determines a certain level of development of forces, intelligence, drives, and even the “physical” ability to commit certain crimes. Also, the author of the article determined that the process of socialization of an individual begins at an early age, when he begins to assimilate the roles that form his personal qualities. It is in childhood that any person is formed as a social being, he develops intelligence, the ability to analyze and generalize the surrounding phenomena, the ability to anticipate the possible consequences of his actions; such volitional qualities as perseverance, determination, self-control, activity, initiative are developed; self-awareness, self-esteem, desire for independence are formed. All this is closely related to the subsequent behavior of the personality of a minor offender. The author interprets such a basic concept as “criminal youth subculture”. The regional statistics of the Ministry of Internal Affairs of Russia on offenses as a consequence of the COVID-19 pandemic in Russia is given. All materials presented in the article do not contain information (information) related to state secrets of the Russian Federation.</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>https://openalex.org/W759900827</t>
-        </is>
-      </c>
-      <c r="B244" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.4018/ijtem.2015010105</t>
+          <t>https://openalex.org/W2146168127</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>Richardson &amp; Lemoine (2015)</t>
+          <t>Salamon (2014)</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>The Use of Social Media as an Instructional Tool to Increase Marketing</t>
+          <t>New frontiers of philanthropy : a guide to the new tools and actors reshaping global philanthropy and social investing</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>The technological revolution of the past two decades has changed communication in contemporary higher education settings. Consequently, there is now a wide gulf between the unlimited use of technology and higher education, particularly with respect to digital communications and the rapid increase in the use of social media in instructional applications. Technology offers college students an array of options to socialize, network, stay informed and connected, but technology proficiency may not be the same for instructors. As social media use by students becomes more established, educators in higher education are pursuing methods to parlay expertise in instruction to advertise and market higher education institutions. Can social media be used in higher education to improve learning through student and faculty collaboration, and just as importantly can the use of social media be used as a recruiting tool for higher education institutions?</t>
+          <t>TABLE OF CONTENTS List of Illustrations Acknowledgements Foreword William Dietel Preface Mario Morino Directory of Participants PART 1: INTRODUCTION 1. The Revolution on the Frontiers of Philanthropy: An Introduction Lester M. Salamon PART 2: NEW ACTORS 2. Capital Aggregators Lisa Richter 3. Secondary Markets David J. Erickson 4. Social and Environmental Exchanges Durreen Shahnaz, Robert Kraybill, and Lester M. Salamon 5. Foundations as  Lester M. Salamon and William Burckart 6. Enterprise Brokers Lisa Hagerman and David Wood 7. Capacity Builders and Venture Philanthropy Melinda T. Tuan 8. Online Portals and Exchanges Vince Stehle 9. Corporate-Originated Charitable Funds Rick Cohen 10. Funding Collaboratives Angela M. Eikenberry and Jessica Bearman PART 3: NEW TOOLS 11. Overview: The New Tools of  Luther Ragin 12. Loans, Loan Guarantees, and Credit Enhancements Norah McVeigh and Julia Sass Rubin 13. Fixed-Income Securities Shari Berenbach and Elise Balboni 14. Securitization Mary Tingerthal 15. Private Equity Investments Monica Brand and John Kohler 16. Social Impact Bonds/Pay-for-Success Drew von Glahn and Caroline Whistler 17. Insurance Craig Churchill and Lauren Peterson 18. Socially Responsible Investing and Purchasing Steve Lydenberg and Katie Grace 19. Grants Peter Frumkin PART 4: CROSS-CUTTING ISSUES 20. Who Gains, Who Loses? Distributional Impacts of the New Philanthropic Marketplace Part A: Mike Edwards Part B: Matthew Bishop and Michael Green 21. The Demand Side of the Philanthropic Marketplace Alex Nicholls and Rodney Schwartz 22. The Elusive Quest for Impact: The Evolving Practice of Social Impact Measurement Brian Trelstad 23. The New Frontiers of Philanthropy in Global Perspective Maximilian Martin 24. Creating a More Enabling Environment: A Policy Agenda for the New Frontiers of Philanthropy Shirley Sagawa Glossary of Terms Bibliography Index</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2606038770</t>
+          <t>https://openalex.org/W2031981698</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1080/09612025.2011.632927</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>Thorpe (1993)</t>
+          <t>Ilič (2012)</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>AFA in action ... NEWS and VIEWS</t>
-        </is>
-      </c>
-      <c r="E245" t="inlineStr">
-        <is>
-          <t>There is Work to be Done My husband, Paul, and I retired to Florida to enjoy the sun, sand, and leisurely lifestyle of retirement. It was a radical change from working and Jiving in New York state. We bought a cockatiel, which sparked our interest in birds. Shortly thereafter, we joined a local avian club affording us the opportunity to meet other bird lovers and began to acquire a novice degree of knowledge about birds. Gradually we expanded our family of feathered friends and became submerged in the world of aviculture; thus ending the leisurely lifestyle. During the past ten years we have been involved with birds, there have been many a vi cultural advances in research, feeding programs, avian medicine, and most notably legislation. Government agencies on local, state and federal levels are all taking a serious look at various aspects of bird ownership, breeding, and transporting. Recently, federal legislation was passed that will greatly affect our breeding programs by imposing restrictions on various species being imported and requiring breeding accountability. The mechanics for administering this legislation are not yet in place, but will be shortly. In addition to current federal legislation, we can surely expect that further regulations will be generated to govern our activities. I believe it is now time for avian clubs to take a serious look at their purpose and re-think their responsibilities to the industry, the membership and, most importantly, the birds. There are professional organizations that establish and maintain operating standards; thus are regulated from within. I propose that avian clubs establish and maintain a set of standards for membership. Initially, a group from your club, or group of clubs in an area, would set forth written standards for bird owners and breeders. This should include minimum cage requirements, feeding programs, record keeping, isolation, incubation, baby care procedures, banding, sanitation, and safety requirements. Where State avian federations exist, it may be possible to solicit their help in order to establish uniformity for all clubs within the state. All current members and new applicants would be required to submit to a membership team's inspection to certify that sta?dards are being met, with reinspections on an annual basis to J~sure that these standards are being maintained in order to retam club membership. Once the team feels that birds are being ade~uately taken. care of, certification of membership and comphan~e can be Issued. Persons not meeting standards would be advised of the deficiencies and given a time frame in which to co~ect the pr?blems and re-apply. Naturally, owners of a~ _occasJ.onal pet b1rd wou.ld fall into a separate category requmng ~mque st~dards .. This program would require a paid membership comnuttee With funds being obtained from a  It may very well become necessary to take such steps in the near future, so starting now could be very advantageous. Primate breeders are currently subjected to inspections from outside, therefore, it is not improbable to assume that aviaries may become subjected to similar regulations. Clubs that set precedents by establishing standards will be in a viable position to negotiate with other agencies and to cope with the outcome. This is an ambitious program and one that would require a lot of work and money, but would constitute a valuable accomplishment in the avian field, one that would earn the respect of local, state and federal officials. Such a program would be educational for the bird owners and definitely beneficial to the birds. Club membership should be an earned privilege. All of your members will not be willing to participate in this program. Therefore, a program should be in place to continue generating the necessary revenue to run the club. Friends could continue to enjoy club activities in the same manner as today. The primary difference might possibly be their inability to purchase or sell birds depending upon the extent of future regulations that may be imposed on aviculture. The regulations being imposed on the avian industry are primarily for the purposes of insuring humane treatment of birds and preserving endangered species. We have all seen conditions that are less than desirable. Ultimately, those of us who Jove birds want the best for them. Clubs are in the best position to reach the majority of bird owners. Therefore, it should be our responsibility to act as role models by setting precedence. Is there a better way to advance our cause and truly protect our interests?•</t>
+          <t>Equality and Revolution: women's rights in the Russian Empire, 1905–1917 ROCHELLE GOLDBERG RUTHCHILD</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>https://openalex.org/W586728045</t>
-        </is>
-      </c>
-      <c r="B246" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.5860/choice.49-4428</t>
+          <t>https://openalex.org/W82596550</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>NA (2012)</t>
+          <t>Breeding (2008)</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>Renaissance meteorology: Pomponazzi to Descartes</t>
-        </is>
-      </c>
-      <c r="E246" t="inlineStr">
-        <is>
-          <t>Craig Martin takes a careful look at how Renaissance scientists analyzed and interpreted rain, wind, and other natural phenomena like meteors and earthquakes and their impact on the great thinkers of the scientific revolution. Martin argues that meteorology was crucial to the transformation that took place in science during the early modern period. By examining the conceptual foundations of the subject, Martin links Aristotelian meteorology with the new natural philosophies of the seventeenth century. He argues that because meteorology involved conjecture and observation and forced attention to material and efficient causation, it paralleled developments in the natural philosophies of Descartes and other key figures of the scientific revolution. Although an inherently uncertain endeavor, forecasting the weather was an extremely useful component not just of scientific study, but also of politics, courtly life, and religious doctrine. Martin explores how natural philosophers of the time participated in political and religious controversies by debating the meanings, causes, and purposes of natural disasters and other weather phenomena. Through careful readings of an impressive range of texts, Martin situates the history of meteorology within the larger context of Renaissance and early modern science. The first study on Renaissance theories of weather in five decades, Renaissance Meteorology offers a novel understanding of traditional natural philosophy and its impact on the development of modern science.</t>
+          <t>Civica Transitions to Private Equity</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2137977305</t>
+          <t>https://openalex.org/W2600713963</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>https://doi.org/10.4103/1477-3163.90440</t>
+          <t>https://doi.org/10.1007/s10470-017-0960-0</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>Moghadam et al. (2011)</t>
+          <t>Lee et al. (2017)</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>Breaking the cycle: An insight into the role of ERα in eukaryotic cell cycles</t>
+          <t>Design and analysis of energy recyclable bidirectional converter with digital controller for multichannel microstimulators</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>There have been numerous reviews written to date on estrogen receptor (ER), focusing on topics such as its role in the etiology of breast cancer, its mode of regulation, its role as a transcriptional activator and how to target it therapeutically, just to name a few. One reason for so much attention on this nuclear receptor is that it acts not only as a prognostic marker, but also as a target for therapy. However, a relatively undiscovered area in the literature regarding ER is how its activity in the presence and absence of ligand affects its role in proliferation and cell cycle transition. In this review, we provide a brief overview of ER signaling, ligand dependent and independent, genomic and non-genomic, and how these signaling events affect the role of ER in the mammalian cell cycle.</t>
+          <t>The power supply modulated microstimulator system can drive an expandable electrode array with reduced heat generation across the current drivers and high stimulation efficiency. Here, we present a comprehensive analytical modelling of the system to investigate internal and external energy flow during biphasic stimulation pulses spanning over varying loading configurations (e.g. number of electrodes, and stimulation current amplitude) that were not covered by existing works on the power supply modulated microstimulators. This paper fills the research gap by presenting the systematic tools for attaining insights of a stimulator system featuring a bidirectional DC–DC converter with an algorithmic digital controller. The models employed here are based on traditional analytical methods such as transfer functions and state-space dynamic models incorporating various circuit elements incurring power loss. With the models, the behaviour and power efficiency under a wide range of parameters associated with stimulator are attained. Numerical assessment reveals that the digital controller can track the output supply voltage at the phase transition boundaries just in tens of switching cycles. The system was also studied on a verification platform, where the internal signals of the digital controller were carefully examined. Measurement results show that the system behavior well matched to the simulation results, demonstrating the effectiveness of the analytical system model for obtaining key insights for generic large-scale micro-stimulator designs.</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4297995884</t>
-        </is>
-      </c>
-      <c r="B248" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/j.adhoc.2022.103001</t>
+          <t>https://openalex.org/W3125617324</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>Fakhar et al. (2023)</t>
+          <t>Vidaillet (2019)</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>Radio resource allocation for energy efficiency maximization in satellite–terrestrial integrated networks</t>
+          <t>Libéralisation de l'Université : l'inspiration bourdivine</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>Satellite–Terrestrial Integrated Networks (STIN), where a satellite access network liaising with terrestrial networks, is useful not only in proffering seamless coverage but also in improving the backhaul capacity for heavy traffic/dense network scenarios. Therefore, an energy-efficient STIN is envisioned to be a valued gap filler both in public safety networks and in the provision of high-speed data services with ubiquitous coverage in remote areas. STIN necessitate admission control, user association, optimal power distribution and spectrum resource allocation to attain the desired quality-of-service standards. This paper investigates joint admission control, user association and power distribution for ensuring fairness while associating users in STIN and fairness in the allocation of spectrum resources to associated users in STIN with an overall objective to maximize the energy efficiency of STIN. The reviewed problem is a concave fractional programming problem which by utilizing Charnes–Cooper transformation is converted into a concave optimization problem. Subsequently, the concave optimization problem is resolved via the proposed outer approximation algorithm. The performance of the ϵ-optimum solution is extensively evaluated via the execution of different system parameters including number of users, user association, user fairness and resource block fairness.</t>
+          <t>Depuis quinze ans, d'importantes transformations ont affecte profondement l’universite en France. La plupart des analyses pointent la responsabilite de choix politiques francais et europeens, dans un contexte international ou l’espace de l’enseignement superieur et la recherche n’a pas echappe a un vaste projet neo-liberal conduisant a detruire toute forme d’administration publique du bien commun (justice, sante, enseignement, recherche, etc.). Cependant, une telle presentation detourne un peu vite le regard de ce qui, en interne, avait ideologiquement prepare l’institution a prendre le pli de ces « reformes »…et comme nous le montrerons, les coups de canif au modele universitaire francais n’ont pas forcement ete inities par le camp auquel on penserait spontanement. Ainsi, alors que Bourdieu est souvent presente comme un voire « le » penseur « anti-neo-liberal » , il parle pourtant le meme langage que ses supposes adversaires et leur a, pour ce qui concerne la transformation du monde universitaire, prepare le terrain...</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2094766703</t>
+          <t>https://openalex.org/W2404236856</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/s0140-6736(02)11805-8</t>
+          <t>https://doi.org/10.1177/105268461402400502</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>Schwalbe &amp; Harrington (2002)</t>
+          <t>Bickmore &amp; Dowell (2014)</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>HIV and tuberculosis in the former Soviet Union</t>
+          <t>Two Charter School Principals’ Engagement in Instructional Leadership</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>Nina Schwalbe is the Director of public health programmes at the Open Society Institute. Persephone Harrington is the programme coordinator at the Open Society Institute. Political, economic, and social transitions; environmental problems; new and re-emerging diseases; and disinvestment in state-run health-care delivery systems have caused the health of populations in the former Soviet Union to plummet, and inequities to grow. Many countries have experienced civil war and war with neighbouring countries, with some countries still engaged in border disputes and battles. Even in countries where the political process of change has lacked violence, the “shock therapy” blueprintreforms aimed at rapid economic stabilisation, liberalisation, and privatisation—brought with it its own conflict, disruption, and violence. The consequences of these changes have been widespread, but vary from country to country. Although the health of people in Baltic countries (Latvia, Lithuania, Estonia) has improved rapidly over the past decade, disparities still exist within each society. Elderly people and those who are mentally disabled, for instance, have seen their social protection further eroded because they are unable to pay for health services that were previously free. The countries of central Asia, facing high levels of infant and maternal mortality, also struggle to implement health reforms because of endemic corruption. In Russia, Ukraine, and Moldova, life expectancy has fallen. Whereas almost 90% of 18-year-olds in western Europe can expect to reach retirement age, in Russia, only about 50% will reach this age. Most important, however, is the resurgence of infectious diseases. In addition to the challenges faced by other developed countries—high rates of cardiovascular disease, cancers, and injuries—the region now also confronts a dual pandemic of HIV and tuberculosis. The former Soviet Union has the fastest growing HIV epidemic in the world, with the number of cases in 2001 twice that of all previous years combined. Prevalence of HIV varies widely, with Ukraine, the Russian Federation, Belarus, and Moldova having the highest prevalence, in that order. HIV is less prevalent in the Baltics and central Asia, yet recent outbreaks in Estonia, Lithuania, Kazakhstan, and Uzbekistan point to a growing problem. According to the Joint United Nations Programme on HIV/AIDS (UNAIDS), prevalence of HIV in adults is very high in Ukraine, and higher still in epicentres such as Odessa, Ukraine, and Moscow and St Petersburg, Russia, with young people in all countries of the former Soviet Union especially vulnerable. The countries of the former Soviet Union have also seen a resurgence of tuberculosis in the past decade. Russia is one of the “high-burden” countries—the 22 countries in the world with the largest number of people infected with tuberculosis—and the disease is spreading rapidly to neighbouring countries. More than a quarter of a million cases of tuberculosis occur every year in eastern Europe, and in Russia about 30 000 people die and another 30 000 are disabled as a result of this disease. These dual epidemics are being fed by a third: growing drug use. The changes wrought by economic and political transition have created a fertile ground for a rise in injecting drug use. The opening of borders has allowed drugs to move freely through the region: from Afghanistan, the world's largest producer of opium, narcotics have spread to neighbouring republics in central Asia, then through Armenia, Azerbaijan, and Georgia, on their way to the west. By the end of 2000, there were 2·3–4·0 million injecting drug users in the former Soviet Union. The sharing of HIV-contaminated injection equipment—often because people do not have access to clean syringes because of legal obstacles or service delivery gaps—is the main factor exposing injecting drug users to infection with HIV and other blood-borne diseases. This mode of transmission accounts for almost all new cases of HIV in the former Soviet Union. Of particular concern is the dominant role of imprisonment as a “risk factor” for diseases in this region. Russia has one of the highest rates of imprisonment of any country in the world, second only to the USA. Its prisoners, and those in pretrial detention centres, are subjected to dehumanising conditions that greatly threaten their physical and psychological health. The Russian prison system has not been substantially reformed and is replicated in many of the countries of the former Soviet Union. The overcrowding and inadequate sanitation, food, and light have created breeding grounds for infectious diseases, especially HIV and tuberculosis. The number of injecting drug users among prisoners is rising, and HIV is spreading through sharing of dirty needles and other high-risk behaviours such as unprotected sex. Very few prison health services offer, or even permit, services such as needle exchanges, bleach, and condoms, which would enable dr</t>
+          <t>This comparative case (Merriam, 2009) study explored two charter school principals’ engagement in instructional leadership. Analysis of three data sources—interviews, observations, and documents—revealed that principals were almost exclusively focused on state accountability and possessed limited knowledge of pedagogical practices. In particular, these two principals had difficulties managing aspects of the instructional program and sustaining a positive school climate, possibly related to their limited educational experience. As a result, these two principals focused on structural changes, delegated instructional issues, and appeared to rely heavily on commercial programs as opposed to enhancement of teacher classroom practices. Comparisons of charter principal practices with traditional principal instructional leadership models are made and implications discussed.</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4220867795</t>
+          <t>https://openalex.org/W2015532636</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3390/su14052976</t>
+          <t>https://doi.org/10.1016/j.tca.2006.02.022</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>Huntjens &amp; Kemp (2022)</t>
+          <t>Poel &amp; Mathot (2006)</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>The Importance of a Natural Social Contract and Co-Evolutionary Governance for Sustainability Transitions</t>
+          <t>High-speed/high performance differential scanning calorimetry (HPer DSC): Temperature calibration in the heating and cooling mode and minimization of thermal lag</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>The coronavirus disease 2019 (COVID-19) pandemic offers an opportunity for dealing with persistent problems, through a transformative recovery process. It is a crisis that offers opportunities for dealing with three interrelated crises: the ecological crisis (climate change, loss of biodiversity, resource depletion, pollution and ecosystem destruction), the confidence crisis (people losing trust in government, politics, companies, regular news channels, science, each other and the future), and the inequality crisis (the widening of the gap between rich and poor). Our argument is that sustainability transitions will not succeed without a different economy and another social contract with rights and duties of care for the environment and the well-being of others, including future generations. A different social contract is not only desirable from the point of view of sustainability and fairness, and justice and equality, but it is also necessary to restore citizens’ trust in politics, government, companies and each other. In the paper we discuss mechanisms towards a Natural Social Contract: systemic leverage points for system transformations and possibilities for co-evolutionary governance by actor coalitions interested in transformative change. The combination of those three elements helps to synchronize different agendas and reduce the chance that they will work against each other.</t>
+          <t>The temperature calibration of high performance DSC in the heating and cooling mode is discussed. Several primary and secondary calibration standards are studied at different sample masses – from 0.4 μg to 10 mg – and various heating and cooling rates – from 1 to 500 °C/min and from 1 to 300 °C/min, respectively. The experimental onset and peak temperatures of Indium with different sample masses are measured at different heating rates and the two related correction factors are presented. The symmetry of the HPer DSC with respect to the cooling and the heating modes is checked and found to be good. The liquid crystals M24, HP-53 and BCH-52, being substances with no or very small supercoolings, are recommended as secondary standards for temperature calibration in both the cooling and heating mode. In order to verify whether the proposed correction factors of Indium can also be used in the cooling mode, the melting behavior of Indium and the phase transition temperatures of the secondary standards obtained in heating are compared, and it turns out that the latter are usable as well. Finally, recommendations for both an extensive temperature calibration and a rather quick calibration procedure of scanning calorimeters in the heating and the cooling mode for various sample masses and various rates are given. The calibration procedure developed for HPer DSC facilitates making the right choices to minimize the thermal lag with respect to the sample mass and scan rates at the start of the measurement, instead of just making corrections afterwards.</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2060717559</t>
+          <t>https://openalex.org/W759900827</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1087/09531510252848845</t>
+          <t>https://doi.org/10.4018/ijtem.2015010105</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>Silver (2002)</t>
+          <t>Richardson &amp; Lemoine (2015)</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>Pressing the ‘send’ key — preferential journal access in developing countries</t>
+          <t>The Use of Social Media as an Instructional Tool to Increase Marketing</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>ABSTRACT Arguably the most striking recent departure in online publishing has been the succession of initiatives designed to provide free or reduced‐rate journal access to the developing world. This article examines the motives behind some of these campaigns and probes the difficulties associated with supplying scientific information equitably, productively, and to an appropriate readership in developing or transitional countries. It considers the strengths and weaknesses of the main solutions currently on offer, while advocating a more unified approach based on the three C's of co‐ordination, comprehensiveness, and clarity.</t>
+          <t>The technological revolution of the past two decades has changed communication in contemporary higher education settings. Consequently, there is now a wide gulf between the unlimited use of technology and higher education, particularly with respect to digital communications and the rapid increase in the use of social media in instructional applications. Technology offers college students an array of options to socialize, network, stay informed and connected, but technology proficiency may not be the same for instructors. As social media use by students becomes more established, educators in higher education are pursuing methods to parlay expertise in instruction to advertise and market higher education institutions. Can social media be used in higher education to improve learning through student and faculty collaboration, and just as importantly can the use of social media be used as a recruiting tool for higher education institutions?</t>
         </is>
       </c>
     </row>

--- a/ch1_evidence_causes/data/samples_5.1_narrowed_criteria1.xlsx
+++ b/ch1_evidence_causes/data/samples_5.1_narrowed_criteria1.xlsx
@@ -387,1683 +387,1033 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2241803301</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1353/fem.2011.0041</t>
+          <t>https://openalex.org/W3203467381</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Noble (2011)</t>
+          <t>Houry (2020)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>"My Own Set of Keys": Meditations on Transgender, Scholarship, Belonging</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>"My OwnSetofKeys": Meditations on Transgender, Scholarship, Belonging Bobby Noble As I sit down to prepare the writing of this essay, I am struck by the profundity of a series of conversations staged in Jules Rosskam's experi mental documentary, Against a Trans Narrative (2008).1 Rosskam seeks to question the political use but also the existence of one single master narra tive that explains transgender both as a political narrative but also as a per sonal one. The documentary is troublesome, in the best sense of the term. It delves deeply into the many narratives and discourses circulating over the past ten years or so about transgender in feminist contexts, queer communities, across age differences, as it materializes through racial differences, as a medical and clinical practice, and as the subject of much agonizing debate for transgender people as well as for their partners before, during, and after transition. Rosskam does not shy away from the controversial conversations and in fact uses an intelligent mix of the elements of the documentary form (the authorial voice-over, confessional one-on-one conversation, group encounter sessions) and combines them with fictional scenes (the reading of a script by actors, the staging of differ ent scenes as rehearsal and then again, as the "real" scene, and so forth) to render the single transnarrative all but impossible. The film's strengths are the multiple group encounter sessions where each group is constituted around one particular demographic—young, mix raced gender queers, self-identified lesbian feminists, queer women of color Feminist Studies37, no. 2 (Summer 2011). © 2011 by Feminist Studies, Inc. 254 BobbyNoble 255 over the age of fifty-five, to name just a few—where the group is filmed trying to "come to terms" with transgender. On the one hand, several groups of self-identified lesbians discuss the emergence of transness relative to what was possible in the old heady days of lesbian feminism. It is true, they note with sharp analysis honed over many years of passionate debate, that twenty-plus years ago, there was no possibility of claiming a trans iden tity, because the language, technologies, and possibilities for such a thing did not yet exist. Does that make it fair now to have to make space for such a thing? But, a younger group of gender queer, queer, and trans youth answer that polemic: but the option does exist now. As such, why do geni tals have to function as membership cards? Moreover, members of a Books Discussed in This Article The Transgender Studies Reader. Edited by Susan Stryker and Stephen Whittle. New York: Routledge, 2006. Transgetider Rights. Edited by Paisley Currah, Richard M. Juang, and Shannon Price Minter. Minneapolis: University of Minnesota Press, 2006. Imagining Transgender: An Ethnographyof a Category. By David Valentine. Durham, NC: Duke University Press, 2007. Special issue, "Trans-," Women's Studies Quarterly 36, nos. 3, 4 (2008). Edited by Paisley Currah, Lisa Jean Moore, and Susan Stryker. younger group of activists reply that feminism continues to expand and grow; being male, they say, in the best of ferocious intersectional critiques, isn't necessarily a privilege for all men. Why do we have to subdivide to belong? Rosskam, on the eve of surgery, frames it this way in a quiet autobi ographical moment in front of the camera: "What is it I have to do to face my reflection in the mirror? And what is it that 1 have to do to face my community? And what do I do when these produce different kinds of answers?" I am struck by the beautiful and impossible lived messiness of such heartfelt questions both in the documentary and also as the noisy context for grappling with transgender as the category, its communities, and their 256 BobbyNoble attendant scholarship grow into the twenty-first century. Some back ground explains both the beauty of this impossible messiness: I turned fifty this year. I have spent thirty of those fifty years living a committed lesbian life that has included a stint inside the minefields of white lesbian feminism, memories that stand in stark contradiction to the spaces of boy/boi/trans man I currently live in, again, which seem in tension with...</t>
+          <t>Building on Quicksand: Pursuing Transitional Justice in Times of Great Upheaval</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4231953898</t>
+          <t>https://openalex.org/W4392230460</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1007/978-3-319-77890-7_17</t>
+          <t>https://doi.org/10.21203/rs.3.rs-3964866/v1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Shackel &amp; Fiske (2018)</t>
+          <t>zimmer (2024)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Conclusion</t>
+          <t>Supply Chain Disruptions: Firm-level evidence from the 2011 Tohoku earthquake</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>The conclusion discusses the key issues and conceptual challenges raised throughout the volume, highlighting the connections and relationships between different elements of transitional justice. Rather than reaching any firm ‘answers,’ the conclusion articulates the ways in which both theoretical and political tensions manifest in specific settings whether at national and global levels such as through prosecutions, or in highly specific settings such as Kenyan women’s engagement with electoral processes or Quechua women’s use of Peru’s Comisión de la verdad y Reconciliación (CVR) as a site of agency. The conclusion identifies the foundational tensions in need of rethinking to help drive the multitude of small shifts, recalibrations, and reframings needed to transform how transitional justice is fundamentally understood and enabled.</t>
+          <t>Abstract In this article, we employed firm-level data from France and a difference-in-differences approach to examine how input shortages propagate through global value chains, using the Tohoku earthquake as a natural experiment. Our findings reveal an 8% relative decrease in imports for French firms sourcing inputs from Japan, with more substantial declines for those highly reliant on Japanese suppliers. This is coupled with a 12.8% relative increase in imports from China for these exposed firms. Additionally, we discover that this transition is primarily driven by the top 5% of large firms and is prominently observed within the automotive sector. Regarding the transmission of input shortages through the global supply chain, we find that this shock only affects the exports of firms with the lowest levels of inventory, exhibiting variations across sectors and a time-dependent pattern. Surprisingly, these affected firms have not adjusted their inventory strategies from just-in-time practices to safety stocks. Classification JEL F1, F6.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3212355133</t>
+          <t>https://openalex.org/W3034459191</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1080/10383441.2021.1996890</t>
+          <t>https://doi.org/10.14505/jarle.v10.7(45).05</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Mitchell (2021)</t>
+          <t>Hrabovska et al. (2019)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>&lt;i&gt;Munday v Gill&lt;/i&gt; revisited: rethinking the summary jurisdiction</t>
+          <t>Tendencies of Reforming Legislative Regulation in the Field of Evidence in Civil Procedure of Ukraine</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Even though approximately 97% of criminal offences are finalised in the summary jurisdiction, the High Court has only considered the nature of summary jurisdiction once: in 1930 in Munday v Gill. In that case, Isaacs CJ and Dixon J provided different characterisations of the summary jurisdiction. According to Dixon J, in the majority, in the summary jurisdiction efficiency may be prioritised over strict adherence to common law protections of the accused because it deals with minor criminal matters that are between subject and subject. In dissent, Isaacs CJ characterised summary criminal matters as between the Crown and subject, arguing that common law protections are as important in the summary jurisdiction as in the higher courts. Dixon J’s judgment is still cited as an accurate characterisation of the summary jurisdiction today, and yet the summary jurisdiction has transformed in the nine decades that have elapsed since the case was decided. This is reason to think Munday v Gill should be revisited. This article offers a critical analysis of the case by placing it in its social and historical context, showing that Isaacs CJ’s characterisation is more relevant today than that of Dixon J. It makes the case that because of this transformation, it is necessary to re-think the nature of a fair trial in the summary jurisdiction.</t>
+          <t>The radical political changes that have taken place in recent years in connection with Ukraine's desire for integration into the European community have led to another judicial reform. As part of the legislative reform, a new version of the Code of Civil Procedure (CPC) was developed and adopted in 2017. The aim of this study is to identify, structure and analyze the fundamental changes that have occurred in the new version of the Code, and to trace outline trends in legislation of Ukraine of such concept as proof and reliability of evidence. The research substantiates the need to separate electronic evidence as an independent means of proof in civil justice, to analyze new innovations in Ukrainian law, and to show progressive vectors of change in civil law in Ukraine. This study may form the basis for further research into civil justice reform.&amp;#x0D;</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2479152610</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1017/cbo9780511617911.004</t>
+          <t>https://openalex.org/W1629459541</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Horovitz (2006)</t>
+          <t>Thurer (2005)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Transitional criminal justice in Sierra Leone</t>
+          <t>The end of gender : a psychological autopsy</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>I believe that crimes of the magnitude committed in this country are of concern to all persons in the world, as they greatly diminish respect for international law and for the most basic human rights. It is my hope that the United Nations and the international community can assist the people of Sierra Leone in bringing to justice those responsible for those grave crimes.Letter sent by the President of Sierra Leone, Ahmad Tejan Kabbah, to the UN Secretary-General, dated June 12, 2000.</t>
+          <t>Gender isn't what it used to be. Categories are collapsing. What was deviant for baby boomers has become mainstream for their offspring: like the coed who realizes she's bisexual but, after a period of adjustment, shrugs her shoulders and gets on with her otherwise mundane life. Gender as we once understood it is over, and gender-bending is the new beat. Men sport ponytails and earrings and teach nursery school; women flaunt tatoos and biceps and smoke cigars.In The End of Gender, Shari L. Thurer argues that we are in the midst of a new sexual revolution. It is one where gender categories are blurring not just at the fringes of society, but in mainstream lifestyle, media, fashion, and art. So, why is this cultural phenomenon happening now? And what does it mean? In lively, non-technical language, and with sometimes surprising case studies from her 25 years as a psychologist, Thurer answers these questions, bridging complex postmodern theory with cutting edge psychoanalysis.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362014887</t>
+          <t>https://openalex.org/W4396527895</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://doi.org/10.31219/osf.io/m27rh</t>
+          <t>https://doi.org/10.1093/oso/9780197764862.003.0004</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Kamran (2023)</t>
+          <t>Kus (2024)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Organizational Knowledge Transformation and Selforganizing Knowledge Representation Model</t>
+          <t>From Politics to Policy</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>: The purpose of the paper is development of a conceptual model for the representation of knowledge as an active intellectualsubstance and, on this basis, study of metaphysics of knowledge transformation process being produced both individually andcollectively in the practice of organizations. The first principle of knowledge engineering, as Edward Albert Feigenbaum noted, saysthat the power in solving problems that an intellectual subject (person or machine) manifests in the process of activity depends primarilyon its knowledge base, and only secondly on the methods of inference used. Strength is hidden in knowledge. The process of producingknowledge is permanent and does not depend on whether an individual is going to use this knowledge or not.Knowledge constantly produces new knowledge regardless of the owner's desire. Besides that, knowledge can’t arise from nothing, butalways – from some knowledge obtained earlier. As well as the intelligence, knowledge is an emergent instance arising from thecollective interaction of a lot of intellectual atomic elements of knowledge (knowledge quanta). Idiosyncrasy of this interaction isexpressed precisely in the creation of new knowledge. Due to postulating the knowledge self-organizing, the hierarchical knowledgestructures in memory and the process of thinking as a kind of syntax for the procedure of new knowledge generation are described. Thisis an effort towards understanding the memory mechanisms, the process of thinking, the sources of heuristic knowledge just throughthe inner nature of knowledge. Also, based on the knowledge self-organization principle, an archetype of the appropriate knowledgebased system architecture is presented too. As an implementation of the concept, the perceptual act model is described, and on its base,a possible scenario for the behavior of a robot meeting an obstacle in its path is considered. As the mutual transformation of tacit andexplicit knowledge makes new knowledge, the impact of the self-organization of knowledge on the transformation process as well asconditions of self-organization of both individual knowledge and organizational knowledge are analyzed in detail. Finally, modificationof the known model of knowledge dimensions by Nonaka and Takeuchi is proposed. Because of the native activity of knowledge, it isimpossible to build a knowledge management system without considering the internal structure of knowledge and its emergent abilityto self-organize. Ensuring the natural process of knowledge development at all ontological levels in an organization is an essentialprerequisite for the evolution of values in this organization.</t>
+          <t>Abstract Chapter 4 delves into the translation of new economic ideas on risk regulation into specific policy tools tailored to a financialized economy. Moving beyond the dominant narrative that links American neoliberalism primarily to deregulation, this chapter unveils a more multifaceted policy transformation from the 1970s onward, which was not a mere reduction of rules but a reimagining of government and market roles in risk mitigation. While deregulation was significant—paving the way for new market entities and instruments—it was just one facet of the shift. As financial markets evolved, presenting new risks, the government’s response was often characterized by a regulatory drift, with existing statutes becoming outdated. When the government stepped in, it did so with a growing focus on market discipline and individual rationality, evident both in its pivot toward a micro-oriented regulation and its embrace of information-based measures.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3208636728</t>
+          <t>https://openalex.org/W4205978259</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1007/s10668-021-02078-5</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Stahn &amp; Iverson (2020)</t>
+          <t>Vaio et al. (2022)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Just Peace after Conflict: Jus Post Bellum and the Justice of Peace</t>
+          <t>The transition towards circular economy and waste within accounting and accountability models: a systematic literature review and conceptual framework</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>The interplay between peace and justice plays an important role in any contemporary conflict. Peace can be described in a variety ways, as being 'negative' or 'positive', 'liberal' or 'democratic'. But what is it that makes a peace just? This book draws together leading scholars to study this concept of a 'just peace', analysing different elements of the transition from conflict to peace. The volume covers six core themes: conceptual approaches towards just peace, macro-principles, the nexus to security and stability, protection of persons and public goods, rule of law, and economic reform and accountability. Contributions engage with understudied issues, such as the pros and cons of robust UN mandates, the link between environmental protection and indigenous peoples, the treatment of illegal settlements, the feasibility of vetting practices, and the protection of labour rights in post-conflict economies. Overall, the book puts forward a case that just peace requires not only negotiation, agreement, and compromise, but contextual understandings of law, multiple dimensions of justice, and strategies of prevention.</t>
+          <t>A transition towards a circular economy is a challenge. It is vital to know that circularity and sustainability are two different segments. So, circular economy can only be achieved in the long-term perspective. This study investigates accounting and accountability for circular economy and waste. Considering these principles and based on a critical review of the literature, economic gains from the transition toward a circular economy are measurable; the problems for corporations and governments are diverse; the way to handle the stakeholders who are losing control in the circular economy is considerable. Diffusion of innovation theory is used to conduct this study. It is essential that an organisational design built should help implement the circular model. Targeted questions responded by adopting a systematic literature review approach by applying PRISMA protocol. This study examines 78 publications in English between 2012 and 2021, which present a map of the circular economy-related knowledge published in web of science and Scopus. Besides, this study includes 03 European Commission reports, 01 Ellen Macarthur Foundation report, 01 Council for the Environment and Infrastructure report, 01 report from SUN IZA, 01 UN Global Compact and 01 the Brundtland Commission report. The results highlight how circular economy, waste management, sustainability, accountability, and management accounting practices help to develop an ecosystem and achieve sustainable development goals of the United Nations 2030 Agenda. Theoretical and practical implications are discussed.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2795214154</t>
+          <t>https://openalex.org/W2615325591</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://doi.org/10.36834/cmej.43351</t>
+          <t>https://doi.org/10.1016/j.neuron.2017.04.035</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Green &amp; Rasmussen (2018)</t>
+          <t>Kay &amp; Kozma (2017)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Becoming a dentist: faculty perceptions of student experiences with threshold concepts in a Canadian dental program</t>
+          <t>Walter J. Freeman: A Tribute</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>In each discipline, there are moments where students "get stuck" in their education and/or training and are often unable to move forward. These moments may be caused by threshold concepts as they represent a portal that students must cross in order to become successful in their chosen profession. This study investigated the threshold concepts from the instructors' perspective that students must navigate as they transform from learners to dentists within a dental program.Two focus groups with faculty members within the School of Dentistry, University of Alberta were completed in the fall of 2017. Focus groups explored the faculty's perception of the students' transition from learner to dentist, difficult moments in the program, and the students' ability to navigate the program successfully.A qualitative phenomenographic analysis of the faculty focus group transcripts identified four potential threshold concepts within the dental program: 1) dealing with the whole patient, 2) accountability, 3) that you may not know everything, and 4) problem solving and adapting during practice.This study demonstrates that there are concepts within a dental program that faculty believe students must navigate in order to transition from learner to dentist. These concepts may inform curriculum design as well as other disciplines in the health sciences.</t>
+          <t>In the early 1960s, few neuroscientists attempted to model brain function using mathematics. Computers were slow and expensive, so numerical approximations of complex phenomena were out of reach in most cases, and scientists resorted primarily to analytical representations of simpler processes. The study of circuits was not new to Walter J. Freeman. He had started his education studying engineering at MIT (transferring later to the University of Chicago to study English) and was a radio operator in WWII. When he returned from his service, he enrolled in medical school at Yale, where he did his dissertation research under John Fulton. While a postdoc at UCLA in neuropsychiatry, Freeman began to study responses of the olfactory system to shock stimuli. His engineering background and persistent nature led him to the first computational analysis of the olfactory system as a young assistant professor at UC Berkeley. This work carried him from characterizing oscillatory impulse responses and dipole fields within olfactory paleocortical areas in 1959 and the early 1960s to large-scale models of perceptual processing up until the time of his death in April of 2016. Along the way, he was a pioneer in neural networks, introduced the use of nonlinear dynamical systems and chaos theory to study and describe neural systems, and mentored countless scientists worldwide. This work, conducted over 55 years at UC Berkeley, engaged physiologists, physicists, physicians, computer scientists, and philosophers. Freeman’s legacy is multifaceted, covering six decades, nine monographs, and more than 400 papers (see http://massaction.berkeley.edu for a full catalog of papers). His persistence, together with the contribution of many of his colleages, has helped the field of neural oscillations to “come of age” (Buzsáki and Freeman, 2015Buzsáki G. Freeman W. Editorial overview: brain rhythms and dynamic coordination.Curr. Opin. Neurobiol. 2015; 31: v-ixCrossref PubMed Scopus (30) Google Scholar). A short chronology of papers reveals one of the first, if not the first, published computational treatments of a cortical oscillation (Freeman, 1962Freeman W.J. Linear approximation of prepyriform evoked potential in cats.Exp. Neurol. 1962; 5: 477-499Crossref PubMed Scopus (5) Google Scholar). Freeman applied control systems theory to model oscillatory responses to shock stimuli in the pyriform (olfactory) cortical circuit. A model of similar olfactory bulb responses was published in 1968 by Rall and Shepherd. During this part of his career and through the 1980s, Freeman was on a mission to tell neuroscientists to “open up their pass bands” in order to see high-frequency oscillations that had been overlooked due to low-frequency responses of polygraph pen-and-ink technology. With the advent of the digital age, neuroscientists were constrained only by the sampling rate, but for many it took decades to look beyond 20 or 30 Hz. Freeman’s models and mathematical descriptions of cortical systems were based on the idea that populations of neurons influence one another and that this influence can be measured, quantified, and represented by differential equations, which form the foundation for the Freeman-Katchalsky (K) model (Freeman, 1975Freeman W.J. Mass Action in the Nervous System. Academic Press, 1975Google Scholar). This modeling approach encompasses deeply structured, multilayer neurodynamics, starting from microscopic cellular mechanisms, through mesoscopic population dynamics, to the macroscopic level, corresponding to hemisphere-wide brain functions and processes. Key to these models is the equation representing the transformation of analog input, in the form of inhibitory or excitatory postsynaptic potentials, to spiking output at the population level, the asymmetric sigmoid nonlinearity or K0 set (Freeman, 1975Freeman W.J. Mass Action in the Nervous System. Academic Press, 1975Google Scholar). Cortical states could then be represented by the slope and inflection point of the sigmoid, which varied with different states of consciousness (deep anesthesia, light anesthesia, waking), producing different slopes in the experimental curves (low to high, respectively). When the slope is steep, the gain is high and fewer neurons are needed to produce a state transition, suggesting that the system can have a richer repertoire of states. Stability analysis using systems control theory allowed Freeman to make predictions about the system, many of which have been shown to be correct over the intervening decades. Several predictions regarding the olfactory bulb circuit and its connections with higher-order areas are notable, because they violated then-current assumptions about neural circuits. It had been assumed since the time of Cajal that mutual excitation or mutual inhibition in cortical circuits would make a system unstable, leading to runaway excitation. Freeman found that both mutual excitation and mutual inhibition were necessary in order to ad</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4318499542</t>
+          <t>https://openalex.org/W4388357381</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3390/challe14010009</t>
+          <t>https://doi.org/10.1093/oso/9780195039146.003.0001</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Soleri et al. (2023)</t>
+          <t>Wood (2009)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Traditional Foods, Globalization, Migration, and Public and Planetary Health: The Case of Tejate, a Maize and Cacao Beverage in Oaxacalifornia</t>
+          <t>Introduction:Rip Van Winkle’s America</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>We are in the midst of an unprecedented public and planetary health crisis. A major driver of this crisis is the current nutrition transition—a product of globalization and powerful multinational food corporations promoting industrial agriculture and the consumption of environmentally destructive and unhealthy ultra-processed and other foods. This has led to unhealthy food environments and a pandemic of diet-related noncommunicable diseases, as well as negative impacts on the biophysical environment, biodiversity, climate, and economic equity. Among migrants from the global south to the global north, this nutrition transition is often visible as dietary acculturation. Yet some communities are defying the transition through selective resistance to globalization by recreating their traditional foods in their new home, and seeking crop species and varieties customarily used in their preparation. These communities include Zapotec migrants from the Central Valleys of the southern Mexican state of Oaxaca living in greater Los Angeles, California. Focusing on the traditional and culturally emblematic beverage tejate, we review data from our research and the literature to outline key questions about the role of traditional foods in addressing the public and planetary health crisis. We conclude that to answer these questions, a transnational collaborative research partnership between community members and scientists is needed. This could reorient public and planetary health work to be more equitable, participatory, and effective by supporting a positive role for traditional foods and minimizing their harms.</t>
+          <t>Abstract During the second decade of the nineteenth century, writer Washington Irving developed an acute sense that his native land was no longer the same place it had been just a generation earlier. Irving had conservative and nostalgic sensibilities, and he sought to express some of his amazement at the transformation that had taken place in America by writing his story “Rip Van Winkle. “ Irving had his character Rip awaken from a sleep that had begun before the Revolution and had lasted twenty years. When Rip entered his old village, he immediately felt lost. The buildings, the faces, the names were all strange and incomprehensible. “The very village was altered—it was larger and more populous, ” and idleness, except among the aged, was no longer tolerated. “The very character of the people seemed changed. There was a busy, bustling disputatious tone about it, instead of the accustomed phlegm and drowsy tranquility “—a terrifying situation for Rip, who had had “an insuperable aversion to all kinds of profitable labour. ” Even the language was strange— “rights of citizens—elections—members of Congress—liberty . . . and other words which were a perfect babylonish jargon to the bewildered Van Winkle. ” When people asked him “on which side he voted ” and “whether he was Federal or a Democrat, ” Rip could only stare “in vacant stupidity. “</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1496992349</t>
+          <t>https://openalex.org/W2028358655</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1353/ctt.0.0035</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Bercaw (2013)</t>
+          <t>Klingner (2009)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Lean Leadership for Healthcare: Approaches to Lean Transformation</t>
+          <t>Diverse Contexts, Strategies, and Outcomes for Comparative Technology Transfer</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Lean at a Glance What Is Lean Healthcare? Value-Added Non Value-Added First Theme of Lean Improvement: Continuous Improvement Second Theme of Lean Improvement: Respect for All People Seven Wastes Overproduction Waiting Overprocessing Inventory Motion Defects Transportation Two Additional Wastes Unused Human Capital Waste of Organizational Design Principles of Improvement Flow Pull Defect-Free Visual Management Kaizen Lean Healthcare Defined Summary: Key Points from Chapter 1 Creating and Deploying a Lean Strategy Creating a Culture of Improvement Seven-Phase Policy Deployment Process Step 1: Establish the Organizational Vision Step 2: Develop Three- to Five-Year Breakthrough Objectives True North Measures Step 3: Develop the Annual Breakthrough Objectives and Improvement Priorities Identify Top-Level Improvement Priorities Selecting the Top-Level Improvement Priorities Step 4: Deploy the Improvement Priorities Step 5: Implement the Improvement Priorities Use a Value Stream Approach to Improvement Lean Tools Kaizen Step 6: Monthly Review Step 7: Annual Review Enablers of Hoshin Kanri World-Class Targets for Improvement Summary: Key Points from Chapter 2 Leading Change-The Transformation Roadmap-Phase 1:Get Ready Beginning the Journey Phase I: Preparing to Transform (Get Ready)-Building the Infrastructure Selecting Your Change Agent Get Informed Get Help Establish a Steering Committee Train Your Internal Experts Develop and Deploy a Communication Campaign Summary: Key Points from Chapter 3 The Transformation Roadmap-Phase 2-The Acceleration Phase (Improve, Sustain, and Spread) Delivering on Preparation Efforts Step 1: Ensure You Have Selected the Right Value Streams on Which to Focus Step 2: Establish Value Stream Governance and Set Up Your Value Stream Performance System Step 3: Utilize A-3 Thinking to Realize Improvement Step 4: Sustain the Improvements and Manage Visually 5S: A Beginning Place for Visual Management of Process Using Visual Management for Process Control Using Visual Management for Improving Results: Managing for Daily Improvement Control Systems for Visual Management Peer Task Audits (Kamishibai) Step 5: Capture the Savings Step 6: Support Your Change with Ongoing Training and Coaching Lean Coaching Step 7: Spread Lean Thinking across the Organization Replication of Artifacts, Products, Solutions, and Process Adding Additional Value Streams Summary: Key Points from Chapter 4 The Transformation Road Map-Phase 3: Make Organizational Improvement the Culture Changing to the New Organizational Structure Lean Capacity Building Lean Information Technology Lean Finance Lean Human Resources Lean Supply Chain Lean Project Management, Lean Construction, and Lean New Service Introduction Lean Leadership Processes Medical Leadership Processes Taking Lean beyond Your Four Walls Summary: Key Points from Chapter 5 Leadership Behaviors and Actions for Success Leading by Example Participate Learn the Tools Rotate Teaching of the Core Lean Tools Book of the Month Club Become a Lean Facilitator Walk the Value Streams Commit the Resources to Be Successful Facilitation Team Resources Middle Management Expectations Supplies External Resources Hold People Accountable Address Antibodies Redeployment versus Unemployment Monitor and Demand Results Believe Summary: Key Points from Chapter 6 Mitigating Transformation Risk and Avoiding Common Mistakes Being Successful and Avoiding Failure Don't Waste the First Six to Nine Months Managing the Breadth and Depth of the Change Leadership, Management, Support Staff, and Medical Staff Engagement Inability to Operate Two Systems Common Errors to Organizational Change Efforts Summary: Key Points from Chapter 7 Closing Thoughts Glossary of Lean Terms</t>
+          <t>Diverse Contexts, Strategies, and Outcomes for Comparative Technology Transfer Donald E. Klingner Introduction Technology transfer concerns the exogenous adaptation of innovations from their place of origin to other organizations, countries, or regions. As the articles in this issue of Comparative Technology Transfer and Society illustrate, the sustainability of diffused innovations depends heavily upon local contexts, requires innovative and flexible adaptation strategies, and results in diverse outcomes. Economic pressures and increasingly global research interests prompt universities around the world to focus on the commercial potential of their faculties’ research. One result is academic spin-offs. These have varied widely in effectiveness, leading researchers to investigate why some succeed while others have not. In the first article in this issue (University Spin-Offs as Technology Transfer: A Comparative Study among Norway, the United States, and Sweden), Norwegian scholar Alf Steinar Sætre and his co-authors assess the comparative effect of universities’ efforts capitalize on faculty inventions in these three countries. They identified four key dimensions—university relations, government-support mechanisms, industry relations, and equity funding—as central elements in all cases. Interestingly, they also concur with other researchers’ (Julnes &amp; Holzer, 2001; Landry, Lamari, &amp; Amara, 2003) conclusion that the distinctive and varied faculty-research cultures make it difficult for university technology transfer offices to cooperate effectively and consistently with government agencies and venture capitalists. In fact, they conclude that these offices seem to impede the development of startups and spin-offs as often as they help. The authors certainly suggest that increased competencies and a greater understanding of the innovation process among those who dole out grants might diminish waste and increase the effectiveness of government-support systems designed to advance the commercial prospects of technologies originating in universities. Technology transfer has played a similarly significant yet ambiguous role in national economic development. In the second article (Political Impediments to Technological Diffusion in Northeast Brazil, 1909–1964), historian Eve Buckley uses the case study of water-management projects in northeastern Brazil to study these effects. Beginning in the 1930s, Brazilian reformers sought to replicate the success of the Tennessee Valley [End Page vii] Authority (TVA) in the United States by using similar water-management projects to reduce drought, increase agricultural productivity, and generate electric power in the large northeastern region of their country. While the TVA had achieved tremendous success at using water-management infrastructure improvements not only to achieve economic objectives, but also changes in the political and social culture of Appalachia during the 1930s (Selznick, 1966), the Brazilian projects did not replicate these results. Paradoxically, although the water projects were intended to reduce the imbalance of wealth and power, their actual effect was to increase it. Infrastructure improvements (e.g., dams, roads, and irrigation canals) increased the security of landowners, their crops and their cattle, but did not reduce the poorest inhabitants’ vulnerability to drought or to the exploitative demands of their landowning patrons. In sum, Buckley concludes that underlying political and social factors (e.g., land ownership and class structure) trumped the otherwise admirable agricultural and economic objectives of moderate reformers and strengthened the argument of more radical reformers, who had unsuccessfully pushed for land redistribution in addition to infrastructure improvements. As always, this case demonstrates how local circumstances influence the outcome of international transfer projects designed to promote economic development. Economic-development literature generally supports this conclusion. While problems in one country may seem similar to those in another, most analysts (Borins, 1998; Jones &amp; Kettl, 2003) are well aware that solutions that are effective in one context may not succeed in another. Thus the term “smart practices” (Bardach, 2000) is preferable to the more commonly used “best practices,” because smart practices bring into view the need to adapt in order to sustain exogenous innovations. While we can learn much from comparative studies, applying what we learn must always take account of a number of variables specific to the local receiving context (Jabbra &amp; Dwivedi, 2004). In this case, this awareness helps explain why reform has ascended in the political agendas of some nations but not others (Barzelay, 2001, 2003). Smart-practice policy making emphasizes first elucidating and then reducing the mechanisms and factors that inhibit adaptation to contingency and...</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2057723312</t>
+          <t>https://openalex.org/W4385811424</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1353/scu.2000.0043</t>
+          <t>https://doi.org/10.36227/techrxiv.23899788</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Williams (2000)</t>
+          <t>Ogbaga &amp; Christiana (2023)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Images of Scottsboro</t>
+          <t>Contextualizing Climate Change Solutions Through the Deployment of Cooperative Artificial Intelligence (AI) Agents</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>In his poem Too Is Worth Its Song, the Harlem Renaissance poet Countee Cullen complains that poets raised no cry against the injustice suffered by the Scottsboro boys in contrast to their sharp and pretty tunes for Sacco and Vanzetti.(1) Granted, no artist memorialized the Scottsboro boys to the degree Ben Shahn did the two anarchists in his painting that repeatedly appears in art history texts to illustrate the American social realist movement; yet, contrary to Cullen's claim it is doubtful that any victims of alleged legal oppression touched as many socially conscious artists as did the nine African Americans accused, while riding a train as hobos, of raping two white women. In March 1931 nine black youths boarded a train in Chattanooga, Tennessee, as did some young white men. When the train stopped in Paint Rock, Alabama, sheriff's deputies arrested the blacks for fighting with the whites, and when two young white women, Ruby Bates and Victoria Price, also left the train, one accused the nine black youths of raping them, a charge the other did not deny. Transported to the Scottsboro jail and held there until their trial, the young blacks narrowly escaped lynching, and with little solid evidence for rape--let alone gang rape--a Scottsboro jury nonetheless convicted all nine of the poor ignorant youths of rape within twelve days. Each of the defendants, except one who was thirteen-years-old, received a death sentence. The case continued throughout the 1930s with numerous retrials and only ended decades later with Governor George Wallace's pardon of the last defendant in 1976.(2) For much of the 1930s, artwork in various media became propaganda clamoring for release of the Scottsboro boys and against the widespread injustice of lynching. Socially engaged northern artists seized specific aspects of this widely publicized case and created imaginative renditions in plays, poetry, song, and graphics that used a variety of persuasive artistic strategies to project themes idealizing the defense and vilifying Alabama and the rest of the white U.S. South. Viewed together these works portray a cruel, fallen South, warped by bigotry, ruled by a powerful white male elite allied with capitalist interests, ready to crucify young black men who await a proletarian redemption. Much in this artistic phenomenon can be attributed to activities of the Communist Party (CP), which made the Scottsboro case an international cause celebre. As two major histories of the case have explained at length, the Party, through its legal arm, the International Labor Defense (ILD) vied successfully with the NAACP to represent the boys in appealing the verdicts. The CP also launched an enormous publicity campaign, urging mass protest and pressure. This publicity probably supplied the major stimulus for artistic expression; such stimuli, however, had to reach sensitive, willing receptors. Some artists were Communist Party members, but in the early 1930s, the nadir of the Great Depression, many more sympathized with some part of the Communist agenda or its critique of an American society that seemed to have failed economically and politically under capitalism. News of Stalin's atrocities had not yet dampened Communist idealism and hope for a just, egalitarian society. Sympathetic artists agreed with the Communists that American society needed radical change and committed their work to increasing awareness of that need. The spirit behind many artistic efforts on behalf of the Scottsboro defendants was predominantly humanitarian rather than political. Along with the misery caused by the Depression, leftists believed that the oppression of blacks, particularly in the southern states, constituted the most flagrant eyesore on the American social landscape. The Scottsboro case seemed to exemplify the most egregious form of racial discrimination prevailing in the South: a black male accused of raping a white woman was presumed guilty and risked lynching if only to serve as an example to other black males. …</t>
+          <t>&amp;lt;p&amp;gt;Climate change presents one of the most significant challenges facing humanity in the 21st century. Mitigating its impacts and developing sustainable solutions requires a multidisciplinary approach that leverages advanced technologies. This paper proposed the deployment of cooperative Artificial Intelligence (AI) agents as a viable strategy for contextualizing solutions to climate change. Firstly, it explored the use of AI agents in analyzing climate data, predicting future trends, and informing decision-making processes. This data-driven approach can help policymakers, scientists, and stakeholders to better understand the complex dynamics of climate change and design effective mitigation and adaptation strategies. This research also addressed ethical considerations associated with the deployment of AI agents in climate change contexts. It emphasized the importance of transparent and accountable AI systems, ensuring that their decisions align with human values and priorities. Additionally, it discussed the need for interdisciplinary collaboration to guide the development and deployment of AI agents, fostering inclusivity, fairness, and equitable access to AI technologies. Finally, this paper highlighted the potential of cooperative AI agents as a powerful tool for contextualizing solutions to climate change. By harnessing their analytical capabilities, adaptability, and collaboration potential, these agents can facilitate evidence-based decision-making, optimize resource management, and support the transition to a sustainable future. However, it also emphasizes the importance of addressing ethical concerns and fostering responsible AI development to ensure that AI agents serve as enablers rather than substitutes for human judgment and action. &amp;lt;/p&amp;gt;</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>https://openalex.org/W934421831</t>
+          <t>https://openalex.org/W2033737413</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/s0074-6142(10)97019-8</t>
+          <t>https://doi.org/10.1097/00000539-200509000-00079</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Osborne (2010)</t>
+          <t>Marsh (2005)</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Computation of Algebraic-Geometric Loop Integrals for the KdV Equation</t>
+          <t>Australia’s First Anaesthetic Department: 75 Years at the RRPA.</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>This chapter presents the numerical methods for computing the Riemann spectrum by loop integrals methods; in particular, the results for the Korteweg-de Vries (KdV) equation are given. The chapter describes the computation of the generic loop integral Gij and how to remove singularities from the numerical computations due to particular configurations of the inverse scattering transform (IST) eigenvalues. Two kinds of singularities (or near singularities) exist in the loop integrals. The first occurs exactly at the band edges, and these are trivially accounted for. The second is a near singularity that occurs in the nearest eigenvalues immediately to the right and left of the band-edge integration limits. The near singularities occur either in the small-amplitude limit (for sine waves, the near-degenerate case occurs when two open-band eigenvalues are nearly equal) or in the large-amplitude soliton limit (when two adjacent gap eigenvalues are nearly equal). The chapter discusses the procedure for convenient transformations that includes first transformation, second transformation, and a final transformation. The chapter also describes the arithmetic-geometric mean (AGM) method for the loop integrals.</t>
+          <t>Australia’s First Anaesthetic Department: 75 Years at the RRPA. Baker B. Camperdown, NSW, Australia: Jobson Foundation, Inc., ISBN 10-646-44555-3. 172 pp, $20.00. This short history of anesthesia in Australia at the Royal Prince Alfred (RPA) Hospital, an institution established in the colony of New South Wales in 1882 as the initial teaching hospital for the School of Medicine of the University of Sydney, focuses on 75 years of progress from 1930 to 2005. Professor Barry Baker starts with the opening of the hospital in 1882 to 1930 with the inception of anesthesia as a separate department within that hospital, directed by the Lecturer in Anaesthetics of the University of Sydney, and proceeds to the present day, with an academic anesthesia department of significant merit within the University’s Medical School in 2005. The establishment of this current academic department, with philanthropic support for basic research and education in anesthesia and related fields, was initiated by monies from Lord Muffed in 1962, an event outlined in great detail by Baker. This later 75-year period’s history offers interesting and different insights into the intertwined events underlying the social and clinical transformation of medicine during the 20th century. Professor Baker, as noted by Gary Phillips in his introduction to the book, is to be congratulated for having produced a “concise and very readable history,” “building the story around key ‘personalities’ in the department . . . from 1882 to the present day.” The book is arranged in two parts with supporting appendices. The first part sequentially outlines eight eras coinciding with individual Directors of Anaesthesia at the RPA Hospital. In the beginning, anesthesia was the domain of the surgeon. Dr. Todd was the first anesthetist appointed to the staff of RPA in 1889. Dr. Robert Scot-Skiving, an Edinburgh-trained physician, had landed in the colony in 1883 and was almost immediately appointed superintendent to RPA Hospital. He and Sir Alexander McCormick were surgical pioneers in the colony whose attitudes reckoned large in the early days of Australian anesthesia, probably somewhat impeding rapid development of anesthesia independence as a separate academic and respected specialty. Senior surgical residents in training gave anesthesia in the hospital. McCormick’s views may have modified later, because in giving the presidential address to the section of surgery in the Australian Medical Association (AMA) in 1899, he said, “The most distinguishing surgical features of the ‘past’ century itself have undoubtedly been the introduction of anaesthetics and the use of antiseptics. The only other ‘historical surgical event’. . . of equal moment was the introduction of the ligature by Paré.” Baker takes us from this beginning with Dr. Todd in 1889 through to the inception of an independent Department of Anaesthetics under Lidwill in 1930, to Hotter, to Jobson, and then to the first real academic chair, the first Duffield Professor, Douglas Joseph, who was appointed in 1962. The philanthropic support from Lord Duffield for the establishment of this chair within the Medical School was, tellingly, sought for and obtained largely because of the efforts of Professor John Loewenthal, the then Busch Professor of Surgery. Baker outlines this story in exact detail. Baker’s own tenure, to date, is then the final chapter in this first part of the book. Part 2 of the book consists of four chapters outlining developments of four specialty areas: liver transplantation, critical care medicine, neuroanesthesia, and cardiothoracic anesthesia. These stories are told by four staff participants in the development of these specialties within anaesthesia at the RPA Hospital. Admittedly, as noted in the apt words of Rita Chiron of Columbia University, “writing one’s life is a risky venture of memory, invention and desire.” Baker has cleverly avoided excessive editorial comment, and concisely presented the well-documented facts of the known history of anesthesia at RPA Hospital. The current department is vibrant, busy, and at a point at which, as Professor Baker’s tenure ends, an opportunity exists for further strengthening of the academic base for anesthesiology, pain management, and reanimation at Sydney University and within the RPA Hospital. This book is Baker’s final gift to the department as the next Director’s era is about to begin. However, this reviewer can thoroughly recommend the addition of this slim volume to any anesthesiology history buff’s library. The volume will also strongly appeal to anesthesiologists who wish to reflect on the current state of our branch of the medical profession, wherever they may reside and practice. The volume makes for an entertaining and illuminating fireside evening’s read. Michael Marsh, MD Professor and Chair; Wayne State Medical School; Detroit, MI</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1606306436</t>
+          <t>https://openalex.org/W4206230186</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2172/10119531</t>
+          <t>https://doi.org/10.24940/theijbm/2021/v9/i10/bm2106-001</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Fairchild &amp; Fischer (1991)</t>
+          <t>Meraba (2021)</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Global warming and end-use efficiency implications of replacing CFCs</t>
+          <t>Project Finance Structuring, Management and Sustainability of Healthcare Systems</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>The direct contribution of CFCs to calculated global warming has been recognized for some time. As a result of the international agreement to phase out CFCs due to stratospheric ozone and the ensuing search for suitable alternatives, there has recently been increased attention on the DIRECT global warming potential (GWP) of the fluorocarbon alternatives as greenhouse gases. However, to date there has been little focus on the INDIRECT global warming effect arising from end-use efficiency changes and associated CO{sub 2} emissions. A study being conducted at Oak Ridge National Laboratory (ORNL) addresses this combined or total global warming impact of viable options to replace CFCs in their major energy-related applications. This paper reviews selected results for air-conditioning, refrigeration, and heat pump applications. The analysis indicates that the CFC user industries have made substantial progress in approaching near-equal energy efficiency with the HCFC/HFC alternative refrigerants. The findings also bring into question the relative importance of the DIRECT (chemical-related) effect in many applications. Replacing CFCs is an important step in reducing the total global warming impact, and at present the HCFC and HFCS appear to offer the best efficiency and lowest total impact of options available in the relatively short time period required for the transition away from CFCs.</t>
+          <t>Background of the StudyA healthcare system is made up of all the people, institutions and resources, working together to improve the health status of a given community.In an analytical framework developed by the World Health Organization (WHO), a health system is conceived as comprising of six building blocks that include leadership and governance, service delivery, health workforce, health information system, medical products and health system financing (WHO, 2011).Countries like Cuba, Indonesia, Myanmar, Nigeria and Sudan have a well-recognized, long-established healthcare systems which serve the fundamental roles of governance in healthcare, manpower development, resource production as well as service delivery.Cuba's healthcare system is public driven that has gained remarkable achievements in terms of equity, universal access and efficiency (Vos, 2006).On the other hand, Myanmar's healthcare system was shaped by an open-door policy introduced since 1988 which promoted a free market approach to healthcare management (Grundy,2014).In many countries, health services provision primarily revolve around general health promotion, disease prevention, cure and rehabilitation.However, the degree to which these functions are emphasized and the priorities attached to each one of them may vary.Health systems appeared after 1950, as Europe was healing from the Second World War.With a political shift to the left, governments responded to public demands for affordable health services accessible to all (Judt, 2010).Until the 1970's,health systems shared one concern: how to funnel an average7 % of national Gross Domestic Product (GDP) collected through taxes and labour contributions into healthcare services.A good health financing system raises adequate funds for health, so that people can use needed services protected from financial catastrophe or impoverishment associated with having to pay for them.It provides incentives for providers and users to be efficient (WHO,2007).The evolution of health financing during the last half century reveals a fundamental shift in core issues.After1950, health systems were designed for populations expected to live for an average of 65-70 years.With retirement at 60-65 and near full employment, lifetime earnings and savings were sufficient to finance a decent health system, while rising health expenditure meant welfare gains for all.In the 21stcentury, average life expectancy rose above the age of80, and health science and technology improved quality of life even at a very old age.</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2977350615</t>
+          <t>https://openalex.org/W3095268299</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.4314/ujah.v20i3.12</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Ferey et al. (2015)</t>
+          <t>Umezi (2020)</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Définir et juger la guerre</t>
+          <t>Ilu Igbo: Igosipụta Ọnọdụ Ụmụnwaanyị n’ọkwa Ọchịchị n’ala Igbo</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[Resume de l'ouvrage] Alors qu’elle constitue un phenomene majeur sur la scene mondiale, la guerre n’est plus pensee comme telle dans le droit international – qui la qualifie par d’autres termes – tandis qu’elle fait l’objet, ces dernieres annees, d’un renouveau dans le champ de la reflexion ethique. 
-Le concept de guerre est-il encore pertinent pour la comprehension du politique ? Les theorisations normatives, ethiques ou juridiques, dont la guerre est l’objet permettent-elles de trancher les dilemmes pratiques qu’elle pose et de determiner les responsabilites qu’elle engage ? Comment penser l’apres-guerre, alors que se developpent de nouvelles theories de la justice – transitionnelle, penale, reparatrice ? 
-Ce volume examine les transformations recentes des conflits armes, les usages de la violence et leurs conceptualisations en philosophie, en droit et en science politique.</t>
+          <t>Nchọcha a bụ maka Ilu Igbo: Igosipụta ọnọdụ ụmụnwaanyị n’ọkwa ọchịchị n’ala Igbo. Ihe nwanchọcha bu n’obi bụ izipụta etu ndị Igbo si eji ilu dị iche iche ha ji achọ okwu mma ezipụta na ụmụnwaanyị enweghi ọnọdụ n’ọchịchị n’ala Igbo. Nkụ dị na mba na-eghere mba nri. Ndị Igbo na-esi n’ilu dị iche iche were ezipụtaomenala ha. A bị a n’ala Igbo, ụmụnwaanyị bụ ndị a na-eleda anya nke ukwuu n’ihe gbasara ọnọdụ ọchịchị obodo dị iche iche. Odee nyochara ọnọdụ ọchịchị n’ala Igbo bido n’oge ochie ruo ugbu a; o mere ka o doo anya na n’agbanyeghị na usoro ọchịchị Bekee mere ka onye ọbụla nwee nhatanha ọnụokwu n’usoro ọchịchị mba ọbụla, ọ ka bụ ihe siri ike ugbu a nwaanyị ijide ọkwa ọchịchị n’ala Igbo. Ihe ndị a na-apụta ihe site n’ilu ndị Igbo ji ekwu okwu. Ụfọdụ ilu ndị ahụ bụ ndị a: Nwaanyị lerịa di ya, ike akpọọ ya nkụ., Ụbọchị di nwaanyị nwụrụ ka ọnụ mmiri okwu ya gwụrụ. Odee gara n’ihu wee jụọ ihe a ga-eme iji hụ na onye ọbụla nwere nhatanha ọnụokwu n’ọchịchị ododo dị iche iche. Ka o sila dị, ọ kọwapụtara na e nweela mgbanwo pụtatra ihe n’etu ndị Igbo si elegara ụmụnwaanyị anya n’ihe gbasara ọchịchị . Nke a pụtara na ụmụnwaanyị ji nwayọọ nwayọọ na-abanye n’ọkwa ọchịchị dị iche iche ugbu a.&amp;#x0D; English Abstract&amp;#x0D; Igbo Proverbs: X -Ray of the position of women in leadership position in Igboland. The writer intends to manifest how the Igbos use their proverbs to show that women have no chance in Igbo leadership position. The research was guided by transformational theory of leadership. The researcher traced the history of Igboleadership system from the time prior to the advent of the colonial masters till the present age. It was discovered that the Igbos look down on women when it comes to major decision making. They manifest this attitude through the proverbs they use in their daily conversations. Some of those proverbs are Nwaanyị lerịa di ya, ike akpọọ ya nkụ.(If a woman kooks down on her husband she would have a dry buttocks) Ụbọchị di nwaanyị nwụrụ ka ọnụ mmiri okwu ya gwụrụ. (whenever a woman loses her husband, she loses her speep saliva). However, it was noticed that in the present age, women are gradually being recognized in decision making process among the Igbos. He finally advocates that gender should not prevent peoples’ participation in leadership. Every person should be equal before the law. As such, women should not be excluded from leadership position among the Igbo.</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2018997273</t>
+          <t>https://openalex.org/W3090720141</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1145/505688.505693</t>
+          <t>https://doi.org/10.15173/glj.v11i3.4414</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Babich &amp; Vitez (2000)</t>
+          <t>Abraham (2020)</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>A novel wide-band audio transmission scheme over the Internet with a smooth quality degradation</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Real-time delivery of multimedia information over the Internet is finding increasing interest. This paper considers wide-band audio transmission utilizing a priority scheme. The proposed scheme complies with both the new Internet Protocol Version 6 (IPv6) and the current Internet Protocol Version 4 (IPv4), providing that, in the latter case, routers are set to manage priority. A new queuing algorithm, namely Priority Weighted Fair Queuing (PWFQ), is defined and evaluated. A scalable audio encoder is adopted to perform audio transmissions over an emulated network. Background traffic is emulated, employing a traffic generator that adopts a self-similar model. Objective and subjective quality tests are performed, using a set of musical excerpts. Quality is evaluated as a function of Internet traffic. In the paper it is shown that, by adopting an encoding technique with scalable bit-rate, and a prioritized transmission algorithm, a smooth degradation of quality may be obtained during network congestion periods. This technique shows better performance than feedback-based algorithms, in which the delayed responses cause the core stage packets to be lost in low-to-high traffic transitions and the enhancement packets not to be transmitted in high-to-low traffic transitions.</t>
+          <t>Review of: Edouard Morena, Dunja Kraus and Dimitris Stevis (eds.) (2020) Just Transitions: Social Justice in the Shift towards a Low-carbon World</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2020210239</t>
+          <t>https://openalex.org/W2282809857</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1111/j.1467-9523.1982.tb01059.x</t>
+          <t>https://doi.org/10.1086/203816</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Wierzbicki &amp; Rambaud (1982)</t>
+          <t>Solway et al. (1990)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>THE EMERGENCE OF THE FIRST AGRICULTURAL TRADE UNION IN SOCIALIST POLAND*</t>
+          <t>Foragers, Genuine or Spurious?: Situating the Kalahari San in History [and Comments and Reply]</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>ABSTRACT The last rural crisis (1975–1980) in Poland, much deeper than previous ones, provoked a kind of revolution. Agreements signed by representatives of the Party and of the striking workers facilitated the emergence of the first independent agricultural trade union in People's Poland, called “Solidarity”, although its legal and ideological obstacles were much greater than in the case of the workers' trade union “Solidarity”. The farmers' trade union movement had a pragmatic and realistic programme which was a fair expression of the professional and social interests of the farmers and all the rural population. Engels' opinion that peasants would spontaneously create collective forms of agricultural production because of the threat of the big landed estates was not confirmed in Poland. However, faced with the arbitrary constraints imposed by the Administration, the peasants established a trade union for their own self defence. RÉSUMÉ La dernière crise agricole (1975–1980) plus profonde que les précédentes a provoqué une sorte de révolution. Les accords conclus entre le Parti communiste (P.O.U.P.) et les ouvriers en grève ont aussi facilityé la naissance du premier syndicat agricole sous le nom de “Solidarité” en Pologne Populairc, malgré bien des obstacles juridiques ct idéologiques. Le mouvement syndical agricole avait un programme pragmatique et réaliste traduisant bien les intérêts professionnels et sociaux des agriculteurs et de route la campagnc. La perspective d'Engels, selon lacjuellc les paysans devraient spontanément créer des formes collectives d'agriculture sous la menace de la grandc exploitation ne s'est pas réalisée en Polognc Mais pour s'opposer aux contraintcs administratives les paysans ont institué un syndicat pour leur auto‐défense. KURZFASSUNG Die letzte landwirtschaftlichc Knse in Polen (197V80) war viel tiefcrgehend als die vor‐hergchenden und verursachtc cine Art Revolution Die von den Repräsentanten der Partei und der strcikenden Arbcitcr untcrzeichneten Übereinkommen crmöglichten die Entste‐hung der crstcn unabhängigen landwirtschaftlichcn Gewerkschaft in der Volksrepublik Polen, genannt “Solidarität”, obwohl die rechtlichcn und ideologischcn Hindcrnisse sehr viel größer waren als im Falle der Arbcitergewerkschaft “Solidarität”. Die Bauerngewcrkschaftsbcwcgung hatte ein pragmatisches und realistisches Programm, das ein genauer Ausdruck dcr beruflichen und sozialen Interessen der Bauern und der ganzen ländlichen Gebicte war. Die Meinung von Engels, daß Bauern spontan genossenschaft‐liche Formen der landwirtschaftlichcn Produktion gründen würden aus Furcht vor den großen Landgütern, hat sich in Polen nicht bestätigt. Dagegen errichteten die Bauern aber angesichtsder willkürlichen Behinderungen durch die Administration eine Gewerkschaft zu ihrer Selbstverteidigung</t>
+          <t>Previous articleNext article No AccessForagers, Genuine or Spurious?: Situating the Kalahari San in History [and Comments and Reply]Jacqueline S. Solway, Richard B. Lee, Alan Barnard, M. G. Bicchieri, Alec C. Campbell, James Denbow, Robert Gordon, Mathias Guenther, Henry Harpending, Patricia Draper, Robert K. Hitchcock, Tim Ingold, L. Jacobson, Susan Kent, Pnina Motzafi-Haller, Thomas C. Patterson, Carmel Schrire, Bruce G. Trigger, Polly Wiessner, Edwin N. Wilmsen, John E. Yellen, and Aram A. YengoyanJacqueline S. Solway Search for more articles by this author , Richard B. Lee Search for more articles by this author , Alan Barnard Search for more articles by this author , M. G. Bicchieri Search for more articles by this author , Alec C. Campbell Search for more articles by this author , James Denbow Search for more articles by this author , Robert Gordon Search for more articles by this author , Mathias Guenther Search for more articles by this author , Henry Harpending Search for more articles by this author , Patricia Draper Search for more articles by this author , Robert K. Hitchcock Search for more articles by this author , Tim Ingold Search for more articles by this author , L. Jacobson Search for more articles by this author , Susan Kent Search for more articles by this author , Pnina Motzafi-Haller Search for more articles by this author , Thomas C. Patterson Search for more articles by this author , Carmel Schrire Search for more articles by this author , Bruce G. Trigger Search for more articles by this author , Polly Wiessner Search for more articles by this author , Edwin N. Wilmsen Search for more articles by this author , John E. Yellen Search for more articles by this author , and Aram A. Yengoyan Search for more articles by this author PDFPDF PLUS Add to favoritesDownload CitationTrack CitationsPermissionsReprints Share onFacebookTwitterLinkedInRedditEmailPrint SectionsMoreDetailsFiguresReferencesCited by Current Anthropology Volume 31, Number 2Apr., 1990 Sponsored by the Wenner-Gren Foundation for Anthropological Research Article DOIhttps://doi.org/10.1086/203816 Views: 45Total views on this site Citations: 137Citations are reported from Crossref Copyright 1990 The Wenner-Gren Foundation for Anthropological ResearchPDF download Crossref reports the following articles citing this article:Moren Tibabo Stone, Lesego Senyana Stone Conservation, tourism and indigenous communities’ dynamics: the case of Basarwa in the Central Kalahari Game Reserve (CKGR), Botswana, Transactions of the Royal Society of South Africa 78, no.33 (Sep 2023): 181–195.https://doi.org/10.1080/0035919X.2023.2255846Kathryn D. Croll San elders speak: ancestral knowledge of the Kalahari San San elders speak: ancestral knowledge of the Kalahari San , by Lucinda Backwell and Francesco d’Errico, Johannesburg, Wits University Press, 2021, 304 pp., ZAR 390 (paperback), ISBN 978-1-77614-662-8., Anthropology Southern Africa 46, no.33 (Dec 2023): 245–247.https://doi.org/10.1080/23323256.2023.2253277Bernard Clist, James Denbow, Raymond Lanfranchi Using the radiocarbon dates of Central Africa for studying long-term demographic trends of the last 50,000 years: potential and pitfalls, Azania: Archaeological Research in Africa 58, no.22 (Jun 2023): 235–293.https://doi.org/10.1080/0067270X.2023.2215649Tim Forssman Forager and Farmer Interactions in Late Holocene Southern Africa, (Jan 2023).https://doi.org/10.1016/B978-0-323-90799-6.00084-7Sheila Coulson, Sigrid Staurset, Sarah Mothulatshipi, Sallie L. Burrough, David J. Nash, David S.G. Thomas Thriving in the Thirstland: New Stone Age sites from the Middle Kalahari, Botswana, Quaternary Science Reviews 297 (Dec 2022): 107695.https://doi.org/10.1016/j.quascirev.2022.107695Sam Challis and Brent Sinclair-Thomson The Impact of Contact and Colonization on Indigenous Worldviews, Rock Art, and the History of Southern Africa: “The Disconnect”, Current Anthropology 63, no.S25S25 (Nov 2022): S91–S127.https://doi.org/10.1086/722260Duncan N. E. Stibbard‐Hawkes, Coren L. Apicella Myopia rates among Hadza hunter‐gatherers are low but not exceptional, American Journal of Biological Anthropology 179, no.44 (Sep 2022): 655–667.https://doi.org/10.1002/ajpa.24611Erik Gomez-Baggethun Rethinking work for a just and sustainable future, Ecological Economics 200 (Oct 2022): 107506.https://doi.org/10.1016/j.ecolecon.2022.107506Tim Forssman An Archaeological Contribution to the Kalahari Debate from the Middle Limpopo Valley, Southern Africa, Journal of Archaeological Research 30, no.33 (Jun 2021): 447–495.https://doi.org/10.1007/s10814-021-09166-0Manvir Singh, Luke Glowacki Human social organization during the Late Pleistocene: Beyond the nomadic-egalitarian model, Evolution and Human Behavior 43, no.55 (Sep 2022): 418–431.https://doi.org/10.1016/j.evolhumbehav.2022.07.003Andrew Skinner, Sam Challis Fluidities of personhood in the idioms of the Maloti-Drakensberg, past and present, and their use in incorporating co</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2556193404</t>
+          <t>https://openalex.org/W2038246040</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1142/s0218301308011161</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Mishra (2013)</t>
+          <t>Yamada &amp; Funaki (2008)</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>The Great Indian Blackout and Elements of Positivity</t>
+          <t>CLUSTER STATES AND ALPHA PARTICLE CONDENSATION IN &lt;sup&gt;13&lt;/sup&gt;&lt;font&gt;C&lt;/font&gt;</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Though much criticized, the Indian blackout in July 2012 also possesses another side of a coin: the extent to which the blackout has served on the fronts of unity, cohesiveness, and equality is highly explicit. The currently ill-functioning Indian administration is identified as being at an intersection of a transition, a transition to more administrative efficiency. The ideas proposed in the essay are intended to perpetuate thoughts of optimism and faith through a constructively-framed perspective.</t>
+          <t>The structure of 13 C is studied with the semi-microscopic cluster model, 3α+n orthogonality condition model (OCM). The energy spectra of four 1/2 - states and three 1/2 + states up to E x ~ 13 MeV are successfully reproduced, in particular, three monopole transition strengths are in fair agreement with the observed ones. We discuss the cluster states and alpha particle condensation in the 1/2 ± states appearing around the 12 C +n, 9 Be +α and 3α+n thresholds.</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3001590248</t>
+          <t>https://openalex.org/W2027195522</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>https://doi.org/10.5250/legacy.36.2.0181</t>
+          <t>https://doi.org/10.1074/jbc.m510369200</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Strand (2019)</t>
+          <t>Dash et al. (2006)</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Women's Petitions and &amp;lt;em&amp;gt;The Linwoods&amp;lt;/em&amp;gt;</t>
+          <t>Examining Ty3 Polypurine Tract Structure and Function by Nucleoside Analog Interference</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Women's Petitions and The Linwoods Amy Dunham Strand I have again come a petitioner to you," says republican heroine Isabella Linwood to the British military leader Sir Henry Clinton in Catharine Maria Sedgwick's historical romance The Linwoods (1835), highlighting Isabella's repeated role as a petitioner in the novel (275). In central scenes throughout The Linwoods, Isabella petitions Sir Henry, appealing with "due humility" to reunite the Linwood family (240), if not to free her patriot brother Herbert, imprisoned in New York while impetuously seeking reconciliation with their Loyalist father. Isabella's petitions simultaneously trace the constitution of her political convictions from tory to rebel. In turn, Sedgwick petitions her readers throughout her "humble story," echoing Isabella's goals of republican union and transformation for her own era (315). In a series of gendered political performances in The Linwoods, Sedgwick thus invokes a central genre informing mid-nineteenth-century American women's writing: the petition, or political prayer, often on behalf of others—and a foundational genre in Anglo-American jurisprudence, relying on conventions of humility and republicanism to express requests to government officials. In translating the petition's rhetorical conventions of humility and republicanism into The Linwoods with an eye to performances of gender, Sedgwick's fiction foregrounds the constitutive rhetorical production of both citizenship and womanhood in nineteenth-century America. In recent years, historical studies have underlined the importance of tropes of humility and republicanism in petitions by American women who "were clearly aware of gender categories in antebellum America that mapped gender onto the public/private distinction" such that "to petition Congress was, for many women of the early Republic, a calculated but significant political risk" (Carpenter and Moore 483). In the novel, Sedgwick is aware of the calculated risk of women's petitioning; consequently, as in antebellum women's petitioning, she invokes [End Page 181] the humble rhetoric of petitioning with strategic performances of gender to persuade her auditors while still embracing republican ideals, registering protest with the goal of union. In doing so, Sedgwick uses Isabella's petitions to imagine women's political agency and to cast her as a burgeoning model of female citizenship who could still, without losing womanly virtues, participate in the body politic. In petitions to readers, the narrator of The Linwoods does the same, performing gender conventions alongside petitioning's conventions, often to mitigate its potential political risk. Sedgwick is among several nineteenth-century women writers who discursively explore women's political agency through novel incorporations of such in-text, thematic petitions and extratextual, authorial petitions, such that the fictions themselves can be read as petitions to their readers that theorize women's political agency. Not only in The Linwoods, female heroines and their authors strategically recast the rhetoric of the petition—beseeching, appealing, or praying, in speech, writing, or action—to intervene in issues of justice and freedom and to become political actors in gender-inflected ways, as rhetorical situations demand. For instance, at the heart of Harriet Beecher Stowe's Uncle Tom's Cabin (1852), Mrs. Bird petitions for escaped, potentially imprisoned slaves, challenging husband Senator Bird on the Fugitive Slave Law with a political prayer, as she "ruled [in her domestic sphere] more by entreaty and persuasion than by command or argument" (68; emphasis added). Mrs. Bird's spoken petition marks Senator Bird's political transformation, preparing him to receive the live, runaway Eliza at their door, with her own, embodied appeal in "the real presence of distress,—the imploring human eye, the frail, trembling human hand, the despairing appeal of helpless agony" (77; emphasis added). In E. D. E. N. Southworth's The Hidden Hand (1859), the popular heroine Capitola circulates a written petition for Black Donald, also unjustly imprisoned, and, when her conciliatory petition fails, Capitola resorts to action, a radical rescue of this prisoner. While these earlier fictions integrate women's petitioning rhetoric, by the time Rebecca Harding Davis published Life in the Iron-Mills (1861), women's petitioning had become so recognizable that it evolved into a figure sculpted of korl—a fully embodied visual representation of Davis's authorial petitions, direct sentimental appeals to her readers on the soul-starvation...</t>
+          <t>We have combined nucleoside analog interference with chemical footprinting, thermal denaturation, NMR spectroscopy, and biochemical studies to understand recognition of the polypurine tract (PPT) primer of the Saccharomyces cerevisiae long terminal repeat-containing retrotransposon Ty3 by its cognate reverse transcriptase. Locked nucleic acid analogs, which constrain sugar ring geometry, were introduced pairwise throughout the PPT (-)-DNA template, whereas abasic tetrahydrofuran linkages, which lack the nucleobase but preserve the sugar phosphate backbone, were introduced throughout the (-)-strand DNA template and (+)-strand RNA primer. Collectively, our data suggest that both the 5′- and 3′-portions of the PPT-containing RNA/DNA hybrid are sensitive to nucleoside analog substitution, whereas the intervening region can be modified without altering cleavage specificity. These two regions most likely correspond to portions of the PPT that make close contact with the Ty3 reverse transcriptase thumb subdomain and RNase H catalytic center, respectively. Achieving a similar phenotype with nucleoside analogs that have different effects on duplex geometry reveals structural features that are important mediators of Ty3 PPT recognition. Finally, the results from introducing tetrahydrofuran lesions around the scissile PPT/unique 3′-sequence junction indicate that template nucleobase -1 is dispensable for catalysis, whereas a primer nucleobase on either side of the junction is necessary. We have combined nucleoside analog interference with chemical footprinting, thermal denaturation, NMR spectroscopy, and biochemical studies to understand recognition of the polypurine tract (PPT) primer of the Saccharomyces cerevisiae long terminal repeat-containing retrotransposon Ty3 by its cognate reverse transcriptase. Locked nucleic acid analogs, which constrain sugar ring geometry, were introduced pairwise throughout the PPT (-)-DNA template, whereas abasic tetrahydrofuran linkages, which lack the nucleobase but preserve the sugar phosphate backbone, were introduced throughout the (-)-strand DNA template and (+)-strand RNA primer. Collectively, our data suggest that both the 5′- and 3′-portions of the PPT-containing RNA/DNA hybrid are sensitive to nucleoside analog substitution, whereas the intervening region can be modified without altering cleavage specificity. These two regions most likely correspond to portions of the PPT that make close contact with the Ty3 reverse transcriptase thumb subdomain and RNase H catalytic center, respectively. Achieving a similar phenotype with nucleoside analogs that have different effects on duplex geometry reveals structural features that are important mediators of Ty3 PPT recognition. Finally, the results from introducing tetrahydrofuran lesions around the scissile PPT/unique 3′-sequence junction indicate that template nucleobase -1 is dispensable for catalysis, whereas a primer nucleobase on either side of the junction is necessary. Although reverse transcription in long terminal repeat (LTR) 3The abbreviations used are: LTR, long terminal repeat; PPT, polypurine tract; RTs, reverse transcriptases; U3, unique 3′-sequence; HIV-1, human immunodeficiency virus type 1; LNA, locked nucleic acid; H4folate, tetrahydrofuran; RAb, abasic riboside; DAb, abasic deoxyriboside; Tm, melting temperature; DQF, double quantum filtered. -containing retrotransposons of Saccharomyces cerevisiae (Ty1 and Ty3) and Saccharomyces paradoxus (Ty5) can be likened to that in retroviruses, notable differences have recently been documented. These include (a) initiation of (-)-strand DNA synthesis from an internal site of the host-coded tRNA primer as opposed to its 3′ terminus (1Ke N. Gao X. Keeney J.B. Boeke J.D. Voytas D.F. RNA (N. Y.). 1999; 5: 929-938Crossref PubMed Scopus (27) Google Scholar), (b) initiation of (-)-strand DNA synthesis via self-priming (2Levin H.L. Mol. Cell. Biol. 1995; 15: 3310-3317Crossref PubMed Scopus (82) Google Scholar), (c) use of a bipartite primer-binding site derived from each end of the viral RNA genome to initiate (-)-strand DNA synthesis (3Gabus C. Ficheux D. Rau M. Keith G. Sandmeyer S. Darlix J.L. EMBO J. 1998; 17: 4873-4880Crossref PubMed Scopus (60) Google Scholar), and (d) divergence in size and sequence of the (+)-strand polypurine tract (PPT) primers (see Fig. 1) (4Heyman T. Agoutin B. Friant S. Wilhelm F.X. Wilhelm M.L. J. Mol. Biol. 1995; 253: 291-303Crossref PubMed Scopus (48) Google Scholar, 5Wilhelm M. Heyman T. Boutabout M. Wilhelm F.X. Nucleic Acids Res. 1999; 27: 4547-4552Crossref PubMed Scopus (20) Google Scholar). A detailed biochemical study of these processes has been hampered by the lack of purified LTR-containing retrotransposon reverse transcriptases (RTs). However, the availability of active recombinant Ty1 and Ty3 enzymes (6Wilhelm M. Boutabout M. Wilhelm F.X. Biochem. J. 2000; 348: 337-342Crossref PubMed Scopus (39) Google Scholar, 7Rausch J.W. Grice M.K. Henrie</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1541265469</t>
+          <t>https://openalex.org/W3125029439</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1111/j.1467-7660.2012.01743.x</t>
+          <t>https://doi.org/10.1198/jbes.2009.0008</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Razavi (2012)</t>
+          <t>Maheu &amp; McCurdy (2009)</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>&lt;i&gt;World Development Report 2012: Gender Equality and Development&lt;/i&gt;— A Commentary</t>
+          <t>How Useful are Historical Data for Forecasting the Long-Run Equity Return Distribution?</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Development and ChangeVolume 43, Issue 1 p. 423-437 Assessment World Development Report 2012: Gender Equality and Development— A Commentary Shahra Razavi, Shahra Razavi is Senior Researcher at the United Nations Research Institute for Social Development (UNRISD), Palais des Nations, 1211 Geneva 10, Switzerland; e-mail [email protected]. She specializes in the gender dimensions of social development, with a particular focus on livelihoods and social policy. Her recent publications include The Gendered Impacts of Liberalization: Towards ‘Embedded Liberalism’? (Routledge, 2009), Workers in the Care Economy, edited with Silke Staab (International Labour Review, 2010), and Seen, Heard and Counted: Rethinking Care in a Development Context (edited special issue of Development and Change, 2011).Search for more papers by this author Shahra Razavi, Shahra Razavi is Senior Researcher at the United Nations Research Institute for Social Development (UNRISD), Palais des Nations, 1211 Geneva 10, Switzerland; e-mail [email protected]. She specializes in the gender dimensions of social development, with a particular focus on livelihoods and social policy. Her recent publications include The Gendered Impacts of Liberalization: Towards ‘Embedded Liberalism’? (Routledge, 2009), Workers in the Care Economy, edited with Silke Staab (International Labour Review, 2010), and Seen, Heard and Counted: Rethinking Care in a Development Context (edited special issue of Development and Change, 2011).Search for more papers by this author First published: 21 February 2012 https://doi.org/10.1111/j.1467-7660.2012.01743.xCitations: 60Read the full textAboutPDF ToolsRequest permissionExport citationAdd to favoritesTrack citation ShareShare Give accessShare full text accessShare full-text accessPlease review our Terms and Conditions of Use and check box below to share full-text version of article.I have read and accept the Wiley Online Library Terms and Conditions of UseShareable LinkUse the link below to share a full-text version of this article with your friends and colleagues. Learn more.Copy URL Share a linkShare onEmailFacebookTwitterLinkedInRedditWechat REFERENCES Abramo, Lais and Maria Elena Valenzuela (2005) ‘Women's Labour Force Participation Rates in Latin America’, International Labour Review 144(4): 370–99. Agarwal, Bina (1994) A Field of One's Own: Gender and Land Rights in South Asia. Cambridge : Cambridge University Press. Arza, Camila (forthcoming) “ Pension Reform and Gender Equality in Latin America.” Programme Paper. Geneva : UNRISD. Bangura, Yusuf (2000) ‘ Public Sector Restructuring: The Institutional and Social Effects of Fiscal, Managerial and Capacity-Building Reforms’. Occasional Paper No. 3. Geneva : UNRISD. Beneria, Lourdes (2001) ‘Shifting the Risk: New Employment Patterns, Informalization, and Women's Work’, International Journal of Politics, Culture and Society 15(1): 27–53. Berik, Günseli and Yana van der Meulen Rodgers (2009) ‘ Engendering Development Strategies and Macroeconomic Policies? What's Sound and Sensible?’, in Günseli Berik, Yana van der Meulen Rodgers and Ann Zammit (eds) Social Justice and Gender Equality: Rethinking Development Strategies and Macroeconomic Policies, pp. 1–43. London and New York : Routledge/UNRISD. Borchorst, Anette (1994) ‘The Scandinavian Welfare States: Patriarchal, Gender-Neutral or Woman-Friendly?’, International Journal of Contemporary Sociology 31: 1–23. Budlender, Debbie (2008) ‘ Feasibility and Appropriateness of Attaching Behavioural Conditions to a Social Support Grant for Children Aged 15–17 Years’. Report prepared for Department of Social Development (Government of South Africa), Final Version. Cerrutti, Marcela (2000) ‘Economic Reform, Structural Adjustment and Female Labor Force Participation in Buenos Aires, Argentina’, World Development 28(5): 879–91. Chen, Martha, Joanne Vanek, Francie Lund, James Heintz, Renana Jhabvala and Chris Bonner (2005) Progress of the World's Women 2005: Women, Work, and Poverty. New York : UNIFEM. DFID (2011) ‘ Cash Transfers Evidence Paper. Policy Division. London : Department for International Development. Dolan, Catherine and Kristina Sorby (2003) ‘ Gender and Employment in High-Value Agriculture Industries’. Agriculture and Rural Development Working Paper No. 7. Washington , DC : The World Bank. Dollar, David and Roberta Gatti (1999) ‘ Gender Inequality, Income, and Growth: Are Good Times Good for Women?. World Bank Policy Research Report Working Paper Series No. 1. Washington , DC : The World Bank. Elson, Diane (1995) ‘ Male Bias in Macroeconomics: The Case of Structural Adjustment’, in Diane Elson (ed.) Male Bias in the Development Process, pp. 164–90. Manchester : Manchester University Press. Elson, Diane (1999) ‘Labor Markets as Gendered Institutions: Equality, Efficiency and Empowerment Issues’, World Development 27(3): 611–27. Elson, Diane (2009) ‘Gender Equality and Economic Growth in the World Bank World Development Report 20</t>
+          <t>We provide an approach to forecasting the long-run (unconditional) distribution of equity returns making optimal use of historical data in the presence of structural breaks. Our focus is on learning about breaks in real time and assessing their impact on out-of-sample density forecasts. Forecasts use a probability-weighted average of submodels, each of which is estimated over a different history of data. The empirical results strongly reject ignoring structural change or using a fixed-length moving window. The shape of the long-run distribution is affected by breaks, which has implications for risk management and long-run investment decisions.</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2090421976</t>
+          <t>https://openalex.org/W4396296768</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1115/gt2012-68353</t>
+          <t>https://doi.org/10.15468/dl.hwnx8r</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Städing et al. (2012)</t>
+          <t>AUTHOR_ID (2022)</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>The Potential of Rotor and Stator Clocking in a 2.5-Stage Low-Speed Axial Compressor</t>
+          <t>Occurrence Download</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Detailed experimental investigations have been conducted to gain profound knowledge of airfoil clocking mechanisms in axial compressors. Clocking, the circumferential indexing of adjacent rotor or stator rows with equal blade counts, is known as a potential means to modify the flow field in multistage turbo-machinery and increase overall efficiencies of both turbines and compressors. These beneficial effects on turbomachine performance are due to wake-airfoil interactions and primarily depend on the alignment of a downstream blade or vane row with upstream wake trajectories that are generated in the same frame of reference. The present survey describes and discusses the experimental research on Rotor and Stator Clocking effects in a low-speed 2.5-stage axial flow compressor. For both Rotor and Stator Clocking, variations of Stage 2 performance have been found that are sinusoidal in trend over the clocking angle and originate from a significant change in static pressure rise across the clocked blade rows. Time-averaged measurements basically suggest the highest pressure gain, if the upstream wakes pass through mid-passage of the downstream blade row. In case of Rotor Clocking, this may even lead to a variation in compressor operating range. The fundamental aerodynamic mechanism responsible for the clocking effect can be attributed to a shift of the suction-sided boundary layer transition over the clocking angle. Regarding overall Stage 2 performance, the investigations show that Full Clocking, i.e. the combination of Rotor and Stator Clocking, nearly doubles the potential of single row indexing.</t>
+          <t>A dataset containing 1781054 species occurrences available in GBIF matching the query: { "and" : [ "TaxonKey is one of (Valeriana celtica L., Valeriana dioica L., Valeriana elongata Jacq., Valeriana montana L., Valeriana officinalis L., Valeriana saxatilis L., Valeriana supina Ard., Vallisneria spiralis L., Veratrum album L., Veratrum nigrum L., Veronica aphylla L., Veronica bellidioides L., Veronica chamaedrys L., Veronica fruticans Jacq., Veronica fruticulosa L., Veronica officinalis L., Viola alba Besser, Viola biflora L., Viola calcarata L., Viola canina L., Viola collina Besser, Viola elatior Fries, Viola hirta L., Viola mirabilis L., Viola odorata L., Viola palustris L., Viola reichenbachiana Jord. ex Boreau, Viola riviniana Rchb., Viola uliginosa Besser, Vulpia bromoides (L.) Gray, Vulpia ciliata Dumort., Vulpia fasciculata (Forssk.) Samp., Vulpia myuros (L.) C.C.Gmel., Woodsia alpina (Bolton) Gray, Woodsia glabella R.Br. ex Rich., Woodsia ilvensis (L.) R.Br., Zannichellia palustris L., Zostera marina L., Zostera noltii Hornem., Achillea crithmifolia Waldst. &amp;amp; Kit., Achillea macrophylla L., Achillea nana L., Achillea pannonica Scheele, Achillea ptarmica L., Achillea salicifolia Besser, Achillea setacea Waldst. &amp;amp; Kit., Adonis vernalis L., Agave americana L., Agrimonia procera Wallr., Alnus incana (L.) Moench)", "Year is greater than or equal to 2000" ] } The dataset includes 1781054 records from 2560 constituent datasets: 7 records from Herbarium of the Institute of the problems of Northern development (TMN). 1 records from St Andrews BioBlitz 2015. 444 records from Observational database of Icelandic plants. 2 records from Dörnberg. 2 records from ACQUISITION_CBNMC - 2019_08_Barrat_HtAllier. 3 records from Landschaftsschutzgebiet Buchhorst 3. 1 records from Projet photovoltaïque sur ancien CET à RAUZAN - Flore - Inventaire non protocolé. 1 records from Wiese - Schulgelände des Franziskusgymnasiums (Lingen). 22 records from Chronicle of Nature - Phenology of Plants of Pechoro-Ilych State Nature Reserve. 1 records from Programmes sur les EVEE dans les départements de l'ancienne région Languedoc-Roussillon - Divers jeux de données sur les EVEE dans l'ex région LR. 1 records from ACQUISITION_CBNMC - DUPRÉ Rémi. 3 records from Projet de parc photovoltaïque au sol à Vallon-en-Sully (03) au lieu-dit "Les Graves" - 2018 Inventaire faune-flore à Vallon-en-Sully (03). 1 records from Biodiversity of Zmiinyi Island. 2 records from Langenberger Forst am Ochsenweg/ Niebüll-Leck. 453 records from Plant. 56 records from Visiolittoral : conservatoire du littoral - Visiolittoral : surveillance de sites du littoral. 118 records from Etudes scientifiques flore sur le TAG du CBNMed - Divers jeux de données du CBNMED produites dans le cadre de programmes scientifiques. 640 records from Inventaire de la flore de Dordogne 2015-2019 - Inventaire de la flore de Dordogne 2017. 3 records from Centrale éolienne du Moulin de la Houssaye - CEHOU - Prospection faune flore étude d'impact. 47953 records from Observations du Conservatoire botanique national du Bassin parisien.. 16 records from Chronicle of Nature - Phenology of Plants of State Nature Reserve Nurgush. 1 records from Biotope in Rheine - Aktion 350. 11 records from ACQUISITION_CBNMC - 2019_02_01_FR8302035_2018. 1 records from ACT BioBlitz. 3 records from Expertise IQE du Golf &amp;amp; Country club de Bossey en 2020 - Donnees espèces - Expertise IQE Golf &amp;amp; Country club de Bossey 2020. 2 records from Inventaire biodiversité du site Pierre Fabre de Castres / Péraudel. 8 records from Bulau. 1 records from Projet de centrale photovoltaïque au sol de St-Romain-en-Gal - Données biodiversité St-Romain-en-Gal. 3 records from CardObs : Observations naturalistes issues de l'outil de saisie et gestion CardObs mis en place par le Service du Patrimoine Naturel (MNHN) / UMS PatriNat (OFB - CNRS - MNHN) - Données naturalistes de Ségolène FAUSTEN. 2 records from Demande d’autorisation environnementale pour le renouvellement, l’extension et l’approfondissement de la carrière « le Mont Colquin » située sur le territoire de la commune de Doville - Etude écologique - Inventaires faune-flore 2016. 41 records from Faun. 1 records from PACA-AGP - Herbarium Anchieta. 1 records from Projet de renouvellement du Parc éolien des Trois Muids - Inventaires faune-flore. 3 records from ACQUISITION_CBNMC - Ecosphère. 6 records from ACQUISITION_CBNMC - CORNIER. 1 records from Abejas silvestres (Hymenoptera: Apoidea) de la región Praderas de Tokio-El Potosí - Sierra Mazmorras - Cañón de Iturbide, Coahuila y Nuevo León, México. 1 records from Parc éolien de Novion-Corny faune flore. 1 records from Projet éolien des Groies. 20 records from ACQUISITION_CBNMC - FNELoire_floreremarquable_2015. 125611 records from Artportalen (Swedish Species Observation System). 2 records from Projet de parc photovoltaïque au sol à Crotenay (39) au lieu-dit "champs des laves" - Inventaire faune-flore. 2 records from VF</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4288461339</t>
+          <t>https://openalex.org/W4231662464</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.ymeth.2022.07.014</t>
+          <t>https://doi.org/10.21203/rs.3.rs-214048/v1</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Lin et al. (2022)</t>
+          <t>Eni et al. (2021)</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NMR-based isotope editing, chemoselection and isotopomer distribution analysis in stable isotope resolved metabolomics</t>
+          <t>Decolonizing Health in Canada: A Manitoba First Nation Perspective</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>NMR is a very powerful tool for identifying and quantifying compounds within complex mixtures without the need for individual standards or chromatographic separation. Stable Isotope Resolved Metabolomics (or SIRM) is an approach to following the fate of individual atoms from precursors through metabolic transformation, producing an atom-resolved metabolic fate map. However, extracts of cells or tissue give rise to very complex NMR spectra. While multidimensional NMR experiments may partially overcome the spectral overlap problem, additional tools may be needed to determine site-specific isotopomer distributions. NMR is especially powerful by virtue of its isotope editing capabilities using NMR active nuclei such as 13C, 15N, 19F and 31P to select molecules containing just these atoms in a complex mixture, and provide direct information about which atoms are present in identified compounds and their relative abundances. The isotope-editing capability of NMR can also be employed to select for those compounds that have been selectively derivatized with an NMR-active stable isotope at particular functional groups, leading to considerable spectral simplification. Here we review isotope analysis by NMR, and methods of chemoselection both for spectral simplification, and for enhanced isotopomer analysis.</t>
+          <t>Abstract Background This paper focuses on a longitudinal research program in Manitoba, Canada, by the Innovation Supporting Transformation in Community-Based Research Project (iPHIT) to learn from First Nations across the province that have developed effective community-based primary healthcare models. The research is relevant and timely as First Nations across the country, and Indigenous populations globally, work towards improvements in population health and health equity via critical analysis and restructuring of health services. The purpose of the paper is to deepen an understanding of decolonization as it is defined within the communities, as a central aspect of health restructuring. Methods The study is a qualitative, grounded theory analysis, which is a constructivist approach to social research that allows for generation of theory in praxis, through interactions and conversations between researchers and research participants. Findings are based on 183 in-depth interviews and eight focus group discussions with participants from 8 Manitoba First Nation communities. The study was designed to understand strengths, limitations and priorities of primary healthcare strategies and frameworks of the communities. The iPHIT team was an active collaborative partnership between the First Nation communities, First Nation Health and Social Secretariat of Manitoba, and the University of Manitoba. The First Nation partners led in all aspects of the research, from development to implementation, data collection, analyses, and dissemination. Respected Elders from the communities also guided in appropriate research and engagement protocols. Results Data was coded and then grouped into 4 interconnecting themes. These are: (1) First Nation control of healthcare, (2) traditional medicine and healing activities, (3) full community participation, and (4) moving out of colonization involves cleaning up and moving beyond the mess that colonization has inflicted. Conclusion Decolonizing health involves a taking back of Indigenous wisdom and traditional activities; connections to the land, resources; intra- and inter-community relationships. Participants emphasized the value of full community engagement with respect to inclusion of different interpretations of and experiences in the world, highlighting creation of a shared vision. The study focused on First Nation community experiences and interests in Manitoba specifically, though the data may be applicable to national and global decolonization efforts.</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2911952093</t>
+          <t>https://openalex.org/W2031176627</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>https://doi.org/10.32461/2226-3209.4.2013.138059</t>
+          <t>https://doi.org/10.1163/15718123-01405002</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Shevchenko (2013)</t>
+          <t>Bongiovanni et al. (2014)</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>The Role of the Modern Ukrainian Family in the Formation of Cultural Identity</t>
+          <t>Philosophy of Law and International Criminal Law: Between Peace and Morality</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>The article deals with the formation of cultural identity in modern Ukrainian family, analyzes the role of family socialization features. Considerable attention is given to cultural and educational potential of the family and its influence on the cultural identity formation. Process of identity formation is always largely determined by the specific socio-cultural factors which were shaped by centuries of historical development. Family as a social institution deserves priority attention among those fundamental factors. Family – first principle of society. It is a certain social group in which most individual characteristics of the parents , their children and other family members showed through their behavior and personality development which are formed with self-knowledge, self-actualization and socialization of its members. Family by its characteristics is a social structure that goes through various stages of growth and development and through improved performance of its functions. It enriches the treasury of material and spiritual values of the people. The material and moral responsibility of family members to each other and to society is the main feature on the basis of these theoretical studies , modern family has to become a key element in the individual`s education and socialization. Proceeding with historical and modern conceptions of identity, a person in the epicenter of culture, is the highest spiritual value which becomes it`s spiritual essence and a part of humanity. The person develops it through culture. The cultural essence of personality is the backbone component of its integrity. Cultural values in the socio-cultural sphere are achieved by the beliefs of humanity that were formed and still continue to grow in the transformation of the socio-historical situation. The succession of generations is a process of mutual transfer, assimilation, storage and use of material and spiritual values, social information and experience of previous generations where the family plays an important role. The family in Ukraine fells under the influence of transformation of socio-cultural and political processes and transformations. They reflect on it and led to significant changes in their functioning. Socio-economic conditions of life appear in the relationship: increasing conflict, collapsing the established ethical principles of operation of the complete family. Dysfunctions increased in economic, legal and moral vulnerability of families, reducing their role in the socialization and education of children. This affects today's youth significantly. This effect is motivated by emotion, culture, internal rules and possibilities of family resources. However, the modern Ukrainian family does not realize it`s great educational potential. It depends on many social factors , especially economic life marked both positive and negative trends. This feature needs detailed analysis of trends, opportunities and constraints for the implementation of the educational potential of Ukrainian families. It ensures the development of the individual in the modern world. Therefore, the study of socio-cultural and psycho-educational situation in the family upbringing of the young generation has to become a basis for further development of public policy in education. The content of individual’s education in modern Ukrainian family should be integrated into national and humanist culture of the people in Intercontinental area. Content of education should reflect and establish the highest national and universal value orientation in the minds of modern and young people: spiritual, cultural, humanistic, ethical, aesthetic, physical, social and labor. It should also reflect the practice of modern Ukrainian family in the independent state. Based on these theoretical studies, the modern family is a major element in the education of contemporary identity and in shaping its culture. In Ukrainian family, it`s ideas were always clearly distinguished and rooted in the depths of people's life, minds, work and creativity. At all times ideals of the family were the highest and most sacred for our people. Family was considered to be a fundamental principle of human life, a kind of fortress, which provided development and protection of personality’s best qualities, including: labor as the most complete form of expression and creativity of human capabilities, sources of wealth and pleasure; spirituality as a synthetic form of understanding the world and ourselves in the same high moral dimension of creative and humane attitude to the environment and people. Ukrainian family has to cultivate such qualities of character and personality characteristics as: respect for parents and family devotion, commitment to mutual support , formation of national consciousness and identity, love for the land and people, formation of high language culture, respect the culture, customs and traditions of the peoples who inhabit the Ukraine, and the peoples of the world. F</t>
+          <t>The legal philosophy of the 20th century has contributed to the development of international criminal law by rethinking fundamental legal concepts and theories concerning the nature of international law, its relation with national laws, the connection between the law and the State, and the very idea of responsibility. This was achieved, in the first place, through the reflection of Hans Kelsen, who put forward the idea of a system of enforceable criminal norms at the international level, directed at individuals and having a positive legal foundation. In the years immediately following the Second World War, a number of legal theorists and, in particular, Gustav Radbruch, argued in favour of a necessary connection between law and morality, on whose basis it could be claimed that the worst atrocities were punishable even when allowed by state norms, and even in the absence of positive international norms. In the last decade, the practice of international criminal law, through ad hoc tribunals and the International Criminal Court, has stimulated theoretical reflections on a variety of further fundamental issues, like impartiality, judicial truth, justification of punishment, side-effects of prosecution and transitional justice.</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2026250138</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1007/s11606-015-3255-0</t>
+          <t>https://openalex.org/W2278658221</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Callahan (2015)</t>
+          <t>Kremenjak (2015)</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Opening the Door to Transgender Care</t>
+          <t>Serbia: : Digital switch over completed</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>This issue of the Journal of General Internal Medicine showcases an intriguing and uncommon article: “Electronic Health Records and Transgender Patients—Practical Recommendations for the Collection of Gender Identity Data.”1 Readers who currently see no transgender or transsexual (now commonly referred to as trans) patients may wonder why this paper was selected for publication. While the common belief has been that trans patients needed to be referred to endocrinologists or other specialists, there is now increasing recognition that quality primary care can be provided by general internists and others who are willing to expand their practice by engaging in dialogue with the patient and others committed to caring for trans patients. Another common belief in the past was that trans people were universally committed to full medical and surgical transition. The trans patients seeking care now appear to vary widely on how few or how many transition services they seek. Significant expansion and personalization of trans care is critical in efforts to reduce health disparities for these populations._x000D_
-_x000D_
-The pressing need to reduce health disparities for those with marginalized sexual orientation and/or gender identity was brought to public attention with the publication of a committee report from the Institute of Medicine (IOM; 2011).2 That report documented serious health disparities in lesbian, gay, and bisexual (LGB) populations, prompting recognition of the medical profession’s ethical responsibility to reduce those disparities.3 Ironically, almost fully absent from the IOM report was the T in LGBT: trans populations. The near silence on trans health stems from the fact that there were so few data on the health of trans populations. In its report, the IOM committee recommends increased efforts to document the gender identity of patients seen in routine care as well as the gender identity of those responding to surveys. Since less than 0.5 % of the population is reputed to be trans, why is this a critical issue for readers of this journal?_x000D_
-_x000D_
-First, while gender identity disorders have not yet been the focus of formal epidemiologic studies, Atkins et al.4 contend that clinic-referred samples suggest an increasing prevalence. Reviewing ten years of data, Blosnich et al.5 reached the same conclusion: they found that the frequency of gender identity diagnoses in the Veteran’s Administration health care system nearly doubled from 2002 through 2011. That remarkable increase is prompting new VA initiatives to enhance care for trans patients, including new programs to reduce trans suicidality. Existing data cannot clarify whether the overall incidence of gender dysphoria has increased or whether the noticeable difference reflects more people becoming open about their gender identity. In addition to more individuals appearing to accept and acknowledge their gender identities, it is likely that the Affordable Care Act has increased access to primary care for many trans patients who had little or no access to care in the past._x000D_
-_x000D_
-Second, there is a strong cultural stigma against trans people that often negatively impacts their health. There is evidence of bullying and violence against trans people that begins in the early years, sometimes even within the family, and continues throughout life;6 this violence often extends to trans people being the target of sexual violence. Perhaps most importantly, the cultural rejection of children and adults who exhibit cross-gender behavior and/or appearance has permeated the health care environment._x000D_
-_x000D_
-Two recent surveys document common negative experiences of trans people seeking health care. An online survey conducted by Lambda Legal7 found that nearly 27 % of trans people surveyed reported that they had been denied the health care they sought because of their gender identity. Further, while 21 % reported verbal abuse by their provider, almost 8 % reported that they had experienced rough or physically abusive treatment by a health care professional. In that survey, trans patients reported far higher levels of mistreatment than LGB patients, even higher than the rates reported by HIV-positive patients. It is unknown how many trans patients have stopped seeking care because of their experience at the hands of primary care providers, but it is clear that there is a need for quality improvement in care for trans patients._x000D_
-_x000D_
-To better understand the health needs of sexual minority patients in California, the state Department of Public Health developed a collaborative online survey that was completed by over 3,000 lesbian, gay, bisexual, transgender, queer, and questioning (LGBTQ) individuals.8 The survey results revealed that 75 % of respondents agreed with the statement, ”I have experienced emotional difficulties such as stress, anxiety or depression which were directly related to my sexual orientation or gender identity/expression,” sowing the seeds for increased risk for a variety of</t>
+          <t>The Republic of Serbia has signed and ratified the Agreement for Digital Broadcasting (GE06) and the Regional Radiocommunication Conference (RRC 06), which prescribed an obligation of digital transition for television for European countries by 17 June 2015. The switch-over from analogue to digital terrestrial television in the country was officially completed on 7 June 2015, just ten days before the deadline</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4205326087</t>
+          <t>https://openalex.org/W1964104170</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1093/ijtj/ijab032</t>
+          <t>https://doi.org/10.1103/physrevb.76.184443</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Verwoerd et al. (2022)</t>
+          <t>Cui et al. (2007)</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Peace as Betrayal: On the Human Cost of Relational Peacebuilding in Transitional Contexts</t>
+          <t>Effect of H on the crystalline and magnetic structures of the&lt;mml:math xmlns:mml="http://www.w3.org/1998/Math/MathML" display="inline"&gt;&lt;mml:mrow&gt;&lt;mml:msub&gt;&lt;mml:mi&gt;YCo&lt;/mml:mi&gt;&lt;mml:mn&gt;3&lt;/mml:mn&gt;&lt;/mml:msub&gt;&lt;mml:mtext&gt;−&lt;/mml:mtext&gt;&lt;mml:mi mathvariant="normal"&gt;H&lt;/mml:mi&gt;&lt;mml:mo&gt;(&lt;/mml:mo&gt;&lt;mml:mi mathvariant="normal"&gt;D&lt;/mml:mi&gt;&lt;mml:mo&gt;)&lt;/mml:mo&gt;&lt;/mml:mrow&gt;&lt;/mml:math&gt;system. I.&lt;mml:math xmlns:mml="http://www.w3.org/1998/Math/MathML" display="inline"&gt;&lt;mml:mrow&gt;&lt;mml:msub&gt;&lt;mml:mi&gt;YCo&lt;/mml:mi&gt;&lt;mml:mn&gt;3&lt;/…</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>ABSTRACT This article explores the micro-dynamics of intragroup betrayal and self-betrayal that can be evoked by relational peacebuilding between groups. The painful accusation of betrayal by close, family-type group members and internally feeling like a betrayer as a result of working with the ‘other side’ is presented as an underestimated human cost of relational peacebuilding. This understanding emerged from an international ‘Beyond Dehumanisation’ research project, which included experienced peace practitioners from South Africa, the Israel-Palestine region and the conflict in and about Northern Ireland. The emerging diagnostic framework is supported by (and provides empirical support for) theories of betrayal that stress how deeply relational betrayal is. The resonance with Margalit’s theory of betrayal as the ‘undermining of thick relations’ is especially strong. ‘Peace as betrayal’ suggests the need for more practical support for peacebuilders and can also be applied more widely to render resistance to transitional justice processes more visible.</t>
+          <t>This paper reports investigations into the influence of hydrogen on the magnetic properties of the ${\mathrm{YCo}}_{3}\text{\ensuremath{-}}\mathrm{H}$ system. We report results on the magnetic structure and magnetic transitions of ${\mathrm{YCo}}_{3}$ using a combination of neutron powder diffraction measurements and first-principles full potential augmented plane wave $+$ local orbital calculations under the generalized gradient approximation. The ferromagnetic and ferrimagnetic structures are examined on an equal footing. However, we identify that, no matter which structure is used as the starting point, the neutron diffraction data always refines down to the ferrimagnetic structure with the ${\mathrm{Co}}_{2}$ atoms having antiparallel spins. In the ab initio calculations, the inclusion of spin-orbit coupling is found to be important in the prediction of the correct magnetic ground state. Here, the results suggest that, for zero external field and sufficiently low temperatures, the spin arrangement of ${\mathrm{YCo}}_{3}$ is ferrimagnetic rather than ferromagnetic as previously believed. The fixed spin moment calculation technique has been employed to understand the two successive field-induced magnetic transitions observed in previous magnetization measurements under increasing ultrahigh magnetic fields. We find that the magnetic transitions start from the ferrimagnetic phase $(0.61{\ensuremath{\mu}}_{B}∕\mathrm{Co})$ and terminate with the ferromagnetic phase $(1.16{\ensuremath{\mu}}_{B}∕\mathrm{Co})$, while the spin on the ${\mathrm{Co}}_{2}$ atoms progressively changes from antiparallel ferrimagnetic to paramagnetic and then to ferromagnetic. Our neutron diffraction measurements, ab initio calculations, and the high field magnetization measurements are thus entirely self-consistent.</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4232336923</t>
+          <t>https://openalex.org/W2081988037</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1353/mdr.2006.0083</t>
+          <t>https://doi.org/10.1353/vp.2001.0039</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Moi (2006)</t>
+          <t>Buchanan (2001)</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>"First and Foremost a Human Being": Idealism, Theatre, and Gender in A Doll's House</t>
+          <t>&amp;quot;Doing battle with forgotten ghosts&amp;quot;: Carnival, Discourse, and Degradation in Tennyson's The Princess</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>"First and Foremost a Human Being":Idealism, Theatre, and Gender in A Doll's House1 Toril Moi (bio) Introduction A Doll's House is the first full-blown example of Ibsen's modernism. It contains a devastating critique of idealism entwined with a turn to the everyday, a celebration of theatre combined with a fierce analysis of everyday theatricality (A Doll's House is teeming with metatheatrical elements) and a preoccupation with the conditions of love in modernity. In A Doll's House, Ibsen mobilizes all these features in a contemporary setting and in relation to a fundamentally modern theme: namely, the situation of women in the family and society.2 The result is a play that calls for a radical transformation [forvandling], not just, or not even primarily, of laws and institutions, but of human beings and their ideas of love. This article explores three major themes in A Doll's House: idealism, theatre, and gender. Although idealist aesthetic norms were a primary concern for many of the play's first critics, contemporary literary scholars have barely raised the subject.3 In this article, I use the term "idealism" to mean "idealist aesthetics," defined broadly as the idea that the task of art is to create beauty, combined with the belief that beauty, truth, and goodness are one. Taking questions of beauty to be questions of morality and truth, idealist aesthetics thus seemlessly merge aesthetics [End Page 256] and ethics. Although the earliest versions of idealist aesthetics had been espoused by Romantic radicals such as Friedrich Schiller, Madame de Staël, and - a little later - Shelley, by the time of A Doll's House, the Romantic movement was long dead; yet idealist aesthetics lived on, albeit in increasingly tired and exhausted forms, which often were aligned with conservative and moralistic social forces. Not surprisingly, then, in the wake of the radical Danish intellectual Georg Brandes's fiery call for a modern literature in his 1871-72 lectures on Hovedstrømninger i Europeisk litteratur, idealism was increasingly coming under attack, and - as I show in my book Henrik Ibsen and the Birth of Modernism - Ibsen's works were the linchpin of the burgeoning modernist opposition to idealism.4 The moment of A Doll's House marks a clear shift in the increasingly intense cultural battle between idealists and emerging modernists in Europe. Idealist responses to A Doll's House were embattled in a way that idealist responses to Love's Comedy and Emperor and Galilean were not.5 In this article, I will show that defenders of Ibsen's realism nevertheless come across as less sophisticated than their idealist opponents. In fact, by propagating the idea that A Doll's House was to be understood as a "slice of life," Ibsen's first admirers entirely missed his pro-theatricalism, his metatheatrical insistence that what we are seeing is theatre. Around 1880, then, neither Ibsen's enemies nor his friends were in a position truly to grasp the scope of his aesthetic achievement. But idealism was not just an important element in the reception of A Doll's House. It is also embedded in the play, most strikingly in the character of Torvald Helmer, a card-carrying idealist aesthete if ever there was one. Moreover, Helmer's idealism and Nora's unthinking echoing of it make them theatricalize both themselves and each other, most strikingly by taking themselves to be starring in various idealist scenarios of female sacrifice and male rescue. Ibsen's critique of idealism is the condition of possibility for his revolutionary analysis of gender in modernity. In this respect, the key line of the play is Nora's claim to be "first and foremost a human being (359)."6 Nora's struggle for recognition as a human being is rightly considered an exemplary case of women's struggle for political and social rights.7 But Nora claims her humanity only after explicitly rejecting two other identities: namely, "doll" and "wife and mother." In order to show what these refusals mean, I first consider the signification of the figure of the doll. "The human body is the best picture of the human soul," Ludwig Wittgenstein writes (152). What...</t>
+          <t>ALFRED LORD TENNYSON'S THE PRINCESS IS RIFE WITH AMBIGUITIES AND contradictions that prevent a straightforward interpretation of text. A Victorian frame surrounds medieval tale of Prince and Princess, one ultimately transformed from a fierce feminist into a broken nurse; men rather than women tell a story centering on women's issues; and narrative displays deeply puzzling oddities of tone, genre, and structure: these are just a few of poem's complicating elements. While it is not surprising, therefore, that little critical consensus exists as to whether finally presents a conservative or a progressive vision of gender relations in The Princess, what is less debatable is that contending male and female in text have decidedly implications. (1) The poem initially promotes expectations of a full exploration of the woman question that was then beginning to preoccupy Victorian society, but, as scholars of recent decades have noted, feminist discourse is silenced and patriarchal values upheld in end. (2) Terry Eagleton, in a provocative Marxist and Lacanian reading of poem, interprets transformation of lovers as an attempted resolution of both Prince's and mid-nineteenth century state's Oedipal complexes, former struggling with a barbaric, nakedly militaristic, blatantly sexist father and latter with internal and external changes in class, economic, and political relations. (3) Eagleton suggests that sexuality and politics are conflated in The Princess and that to address one is to address them both. Ultimately, Prince and Princess are reintegrated into symbolic order through ideological equation. . . feminine male x masculine female = masculine male + feminine female, couple thereby embracing conven tional (if somewhat humanized) gender roles and propagating restabilized bourgeois state as well (p. 79). However, despite poem's apparent surface liberality, Eagleton maintains that univocal masculine discourse retains complete control throughout: [The Princess] displays no dialectic of discourses whatsoever.... There is no sense in which one discourse inheres within, contradicts, interrogates or 'de-centres' another (pp. 86, 82). At no point, then, does a genuine interplay of voices occur that could produce true change. In what is perhaps most comprehensive study to date of poem's treatment of voice and gender, Donald Hall reaches a similar conclusion in Fixing Patriarchy, an examination of Victorian literary and cultural context that traces how feminist discourse incrementally changed a deeply resistant male hegemony over course of nineteenth century. Hall observes that women's increasingly audible demands for improved legal, political, educational, and professional status in 1840s challenged established gender roles assigning men public and women private spheres. Feminist discourse and gender experimentation were perceived as threats to patriarchal status quo, which in turn attempted to discursively fix such trouble by re-establishing a clearly delineated heterosexual binary: The perimeters and properties of Victorian masculinities were imperfectly secured through ongoing processes of differentiation, denigration, and appropriation, were constantly adjusted through negotiation with demands voiced by those to whom silence had been formerly ascribed, and were finally as fretted and fractured as class and gender ideologies of era, ones that only appear seamless to us when we mistake bombast for self-assurance. (Hall, pp. 3-4) Such bombast through appropriation of female Other is evident in The Princess, a representative cultural product of its times: Tennyson was neither unique, nor particularly blameworthy--he was simply caught in binaries of his day, as well as those of a particular model and dynamic of dialogue, in which two or more cannot be heard at once: following rules of competitive engagement, one must rise above cacophony, silencing others (Hall, p. …</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2963257172</t>
+          <t>https://openalex.org/W4293456503</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1038/s41598-019-39254-7</t>
+          <t>https://doi.org/10.1097/jhq.0000000000000353</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Najafi (2019)</t>
+          <t>White‐Williams et al. (2022)</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Interaction-disorder-driven characteristic momentum in graphene, approach of multi-body distribution functions</t>
+          <t>Interprofessional Collaborative Practice Improves Access to Care and Healthcare Quality to Advance Health Equity</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Abstract Multi-point probability measures along with the dielectric function of Dirac Fermions in mono-layer graphene containing particle-particle and white-noise (out-plane) disorder interactions on an equal footing in the Thomas-Fermi-Dirac approximation is investigated. By calculating the one-body carrier density probability measure of the graphene sheet, we show that the density fluctuation ( ζ −1 ) is related to the disorder strength ( n i ), the interaction parameter ( r s ) and the average density ( $$\bar{{\boldsymbol{n}}}$$ &lt;mml:math xmlns:mml="http://www.w3.org/1998/Math/MathML"&gt; &lt;mml:mover&gt; &lt;mml:mi&gt;n&lt;/mml:mi&gt; &lt;mml:mo&gt;¯&lt;/mml:mo&gt; &lt;/mml:mover&gt; &lt;/mml:math&gt; ) via the relation $${{\boldsymbol{\zeta }}}^{-{\bf{1}}}{\boldsymbol{\propto }}{{\boldsymbol{r}}}_{{\boldsymbol{s}}}{{\boldsymbol{n}}}_{{\boldsymbol{i}}}^{{\bf{2}}}{\bar{{\boldsymbol{n}}}}^{-{\bf{1}}}$$ &lt;mml:math xmlns:mml="http://www.w3.org/1998/Math/MathML"&gt; &lt;mml:msup&gt; &lt;mml:mrow&gt; &lt;mml:mi&gt;ζ&lt;/mml:mi&gt; &lt;/mml:mrow&gt; &lt;mml:mrow&gt; &lt;mml:mo&gt;−&lt;/mml:mo&gt; &lt;mml:mn&gt;1&lt;/mml:mn&gt; &lt;/mml:mrow&gt; &lt;/mml:msup&gt; &lt;mml:mo&gt;∝&lt;/mml:mo&gt; &lt;mml:msub&gt; &lt;mml:mrow&gt; &lt;mml:mi&gt;r&lt;/mml:mi&gt; &lt;/mml:mrow&gt; &lt;mml:mrow&gt; &lt;mml:mi&gt;s&lt;/mml:mi&gt; &lt;/mml:mrow&gt; &lt;/mml:msub&gt; &lt;mml:msubsup&gt; &lt;mml:mrow&gt; &lt;mml:mi&gt;n&lt;/mml:mi&gt; &lt;/mml:mrow&gt; &lt;mml:mrow&gt; &lt;mml:mi&gt;i&lt;/mml:mi&gt; &lt;/mml:mrow&gt; &lt;mml:mrow&gt; &lt;mml:mn&gt;2&lt;/mml:mn&gt; &lt;/mml:mrow&gt; &lt;/mml:msubsup&gt; &lt;mml:msup&gt; &lt;mml:mrow&gt; &lt;mml:mover&gt; &lt;mml:mi&gt;n&lt;/mml:mi&gt; &lt;mml:mo&gt;¯&lt;/mml:mo&gt; &lt;/mml:mover&gt; &lt;/mml:mrow&gt; &lt;mml:mrow&gt; &lt;mml:mo&gt;−&lt;/mml:mo&gt; &lt;mml:mn&gt;1&lt;/mml:mn&gt; &lt;/mml:mrow&gt; &lt;/mml:msup&gt; &lt;/mml:math&gt; for which $$\bar{{\boldsymbol{n}}}\to {\bf{0}}$$ &lt;mml:math xmlns:mml="http://www.w3.org/1998/Math/MathML"&gt; &lt;mml:mover&gt; &lt;mml:mi&gt;n&lt;/mml:mi&gt; &lt;mml:mo&gt;¯&lt;/mml:mo&gt; &lt;/mml:mover&gt; &lt;mml:mo&gt;→&lt;/mml:mo&gt; &lt;mml:mn&gt;0&lt;/mml:mn&gt; &lt;/mml:math&gt; leads to strong density inhomogeneities, i.e. electron-hole puddles (EHPs), in agreement with the previous works. The general equation governing the two-body distribution probability is obtained and analyzed. We present the analytical solution for some limits which is used for calculating density-density response function. We show that the resulting function shows power-law behaviors in terms of ζ with fractional exponents which are reported. The disorder-averaged polarization operator is shown to be a decreasing function of momentum like ordinary 2D parabolic band systems. It is seen that a disorder-driven momentum q ch emerges in the system which controls the behaviors of the screened potential. We show that in small densities an instability occurs in which imaginary part of the dielectric function becomes negative and the screened potential changes sign. Corresponding to this instability, some oscillations in charge density along with a screening-anti-screening transition are observed. These effects become dominant in very low densities, strong disorders and strong interactions, the state in which EHPs appear. The total charge probability measure is another quantity which has been investigated in this paper. The resulting equation is analytically solved for large carrier densities, which admits the calculation of arbitrary-point correlation function.</t>
+          <t>Healthcare disparites exist in cardiovascular care, including heart failure. Care that is not equitable can lead to higher incidence of heart failure, increased readmissions, and poorer outcomes. The Heart Failure Transitional Care Services for Adults Clinic is an interprofessional collaborative practice that provides guideline-directed medical therapy and education to underserved patients with heart failure. Little is known regarding healthcare equity and quality metrics in relation to interprofessional teams. Thus, the purpose of this study was to examine if an interprofessional collaborative practice care delivery model can affect access to care and healthcare quality outcomes in underserved patients with heart failure. As evidenced by control charts over a two and a half year period, the Heart Failure Transitional Care Services for Adults Clinic was able to show improvements in access to care and quality metrics results without variation. An interprofessional collaborative practice can be an effective delivery model to address health equity and quality of care outcomes.</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3047647033</t>
+          <t>https://openalex.org/W3013722721</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1111/1467-9655.13346</t>
+          <t>https://doi.org/10.1161/circresaha.120.316763</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Tremlett (2020)</t>
+          <t>Dikalova &amp; Dikalov (2020)</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Kapuściński, Ryszard; with an introduction by Neal Ascherson; trans. Antonia Lloyd‐Jones. The other. 100 pp. London: Verso Books, 2018. £8.99 (paper)</t>
+          <t>Response by Dikalova and Dikalov to Letter Regarding Article, “Mitochondrial Deacetylase Sirt3 Reduces Vascular Dysfunction and Hypertension While Sirt3 Depletion in Essential Hypertension Is Linked to Vascular Inflammation and Oxidative Stress”</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Ryszard Kapuściński (1932-2007) was an internationally acclaimed Polish journalist and author, whose writings generated some controversy for their apparent blending of reportage and literature. This volume includes four lectures: the ‘Viennese lectures’ which were delivered in Vienna on 1-3 December 2004 at the Institut für die Wissenschaften vom Menschen; ‘My Other’, which was given at the International Writers’ Symposium in Graz on 12 October 1990; ‘The Other in the global village’, which was delivered at the Father Józef Tischner Senior European School in Kraków on 30 September 2003; and ‘Encountering the Other as the challenge of the twenty-first century’, which was delivered on 1 October 2004, when Kapuściński was awarded an honorary doctorate at the Jagiellonian University in Kraków. The lectures pursue interlinked trajectories of reflection on Europe and its relations with Africa, the Americas, Asia, and the Middle East, as well as the question of the Other and the direction of social and cultural change. Over the course of the lectures, Kapuściński engages substantially with anthropology, particularly through the figure of Bronislaw Malinowski, and continental philosophy, through that of Emmanuel Lévinas. In this brief review, I will address these elements, before concluding with some short remarks about Kapuściński's representation of anthropology and Malinowski. For Kapuściński, Enlightenment humanism – expressed initially through literature and travel writing – opened up new spaces in which the Other emerged not as an object of conquest or conversion, but as a human being. According to Kapuściński, anthropology and the ‘philosophy of dialogue’ (p. 68) as practised by the likes of Lévinas, emerged from this Enlightenment space (p. 27). His summary of the development of anthropology from the debates of evolutionists, diffusionists, and functionalists into a discipline defined by ethnography, with Malinowski as ‘the creator of anthropological reportage’ (p. 32), segues neatly into a discussion of Lévinas, and his foregrounding of the ethics of the encounter with the Other, a move which Kapuściński sees as building upon the fieldwork pioneered by Malinowski. Kapuściński adds that fieldwork ‘is not only recommended for anthropologists, but is also a fundamental condition for the job of a reporter’ (p. 31), a point which highlights potential points of contact between the two professions. Kapuściński provides two perspectives on European history and experience: one, as we have seen, begins with the Enlightenment and moves on via the novel to anthropology and the philosophy of dialogue. The other focuses on social and cultural change, and the transition, as Kapuściński sees it, from mass to global society, a transition precipitated by decolonization and the end of the Cold War, as well as the advance and spread of new communication technologies. According to Kapuściński, mass society, particularly in its totalitarian forms, negated the individual: the subject was a member of a class, a race, or a nation. As such, our new multicultural-global society must embrace the spirit of dialogue found not just in the writings of Lévinas but also in those of the Polish Catholic theologian Józef Tischner, for whom the idea of dialogue was precisely conceived in opposition to mass and totalitarian social forms and in the recognition of the individual human being. Importantly, Kapuściński understands that a defining feature of the new global and multicultural society is its emergence from ‘various contradictory worlds, a composite creature of fluid, impermanent contours and features’ (p. 33), and that it is ‘hybrid and heterogeneous’ (p. 89). This new society will, according to Kapuściński, require something of the spirit of Malinowski, Lévinas, and Tischner if it is not to succumb to the many enmities and challenges that beset it from all sides. One reason to read this beautifully composed book is for its representation of anthropology and one of the discipline's most controversial figures, Malinowski. Kapuściński sees in anthropology, and fieldwork in particular, a deliberative methodology for dialogue and understanding the Other. Perhaps this is a rose-tinted view of the fieldwork encounter that does not adequately grasp its ongoing implication in asymmetries of power, race, and gender, but Kapuściński offers some useful points of departure for pursuing related questions about ethnography and literary craft, and for exploring anthropology and journalism as entangled professions. Finally, given the links made by Robert J. Thornton (‘Imagine yourself set down …’, Anthropology Today 1: 5, 1985) between Malinowski and one of Conrad's more disturbing creations, Kurtz, there is perhaps some irony in the fact that Kapuściński's final lecture closes with a quotation from Joseph Conrad (p. 92) that points to a common humanity binding together the dead, the living, and the unborn.</t>
+          <t>HomeCirculation ResearchVol. 126, No. 7Response by Dikalova and Dikalov to Letter Regarding Article, “Mitochondrial Deacetylase Sirt3 Reduces Vascular Dysfunction and Hypertension While Sirt3 Depletion in Essential Hypertension Is Linked to Vascular Inflammation and Oxidative Stress” Free AccessLetterPDF/EPUBAboutView PDFView EPUBSections ToolsAdd to favoritesDownload citationsTrack citationsPermissions ShareShare onFacebookTwitterLinked InMendeleyReddit Jump toFree AccessLetterPDF/EPUBResponse by Dikalova and Dikalov to Letter Regarding Article, “Mitochondrial Deacetylase Sirt3 Reduces Vascular Dysfunction and Hypertension While Sirt3 Depletion in Essential Hypertension Is Linked to Vascular Inflammation and Oxidative Stress” Anna Dikalova and Sergey Dikalov Anna DikalovaAnna Dikalova From the Division of Clinical Pharmacology, Department of Medicine, Vanderbilt University Medical Center, Nashville, TN. Search for more papers by this author and Sergey DikalovSergey Dikalov From the Division of Clinical Pharmacology, Department of Medicine, Vanderbilt University Medical Center, Nashville, TN. Search for more papers by this author Originally published26 Mar 2020https://doi.org/10.1161/CIRCRESAHA.120.316763Circulation Research. 2020;126:e33–e34In Response:We appreciate the comments by Zhou et al on our recent publication.1 They noted that acetylation-deacetylation represents only one of many post-translational regulations, and other modifications including phosphorylation, ubiquitination, oxidation, nitration, and S-glutathionylation also contribute to the regulation of mitochondrial SOD2 (superoxide dismutase) activity.2 Indeed, multiple post-translational modifications of SOD2 can alter the efficiency of superoxide dismutation; however, the abundance of these modifications varies by many fold, and SOD2 acetylation is the predominant and most abundant post-translational modification of mitochondrial SOD2.3 Acetylation of lysine residues K68 at the SOD2 catalytical center had the greatest inhibitory effect on the SOD2 superoxide dismutation activity,4 and supplementation of recombinant deacetylase Sirt3 (Sirtuin 3) to SOD2 isolated from hypertensive mice completely rescued SOD2 activity.5 The specific post-translational modifications of SOD2 will likely vary in different pathological conditions, that is, inflammation-induced nitrosative stress may increase contribution of SOD2 nitration while hyperoxia can promote SOD2 S-glutathionylation. We agree that additional aspects should be taken into consideration; meanwhile, it is clear that reduced Sirt3 deacetylase activity leads to SOD2 hyperacetylation and this contributes to hypertension and vascular dysfunction.1,5One of the novel findings of our study was that Sirt3 impairment in essential hypertension is due to both Sirt3 depletion and Sirt3 inactivation. We observed a 40% decrease in vascular Sirt3 level and 300% increase in SOD2 acetylation in hypertensive subjects, while SOD2 levels were not affected.1 We have shown previously that Ang II (angiotensin II) and inflammatory cytokines reduce Sirt3 expression by 30%.5 Meanwhile, the precise molecular mechanism of Sirt3 inactivation remains elusive.The failure of common antioxidants, such as vitamin E and vitamin C, in clinical trials of cardiovascular events was discouraging and urge a reassessment of the role of oxidative stress in cardiovascular disease.6 We suggest to rescue the Sirt3 activity to reduce the SOD2 acetylation and activate the key intrinsic antioxidant SOD2, which is 1000× more effective in scavenging superoxide radicals than any low molecular weight antioxidant. Therefore, Sirt3 can be the improved antioxidant.6Our data demonstrate that SOD2 lysine residue K68 is hyperacetylated in animal models and human hypertension.1,5 Recent studies show that expression of acetylation mimetic mutant SOD2-K68Q or SOD2-K68-Acetyl is accompanied with a change of SOD2 stoichiometry from homotetramer complex to a monomeric form. Biochemical experiments suggest that these monomers function as a peroxidase (using pyrogallol as the substrate) rather than superoxide dismutase.7 These data suggest a provocative idea that SOD2-K68 acetylation in hypertension is not just a loss-of-function modification but may represent a switch of antioxidant SOD2 to prooxidant peroxidase SOD2. Further studies are needed to define the potential role of peroxidase activity of SOD2-K68-Acetyl in human pathological conditions.It is important to note that Sirt3 is a key node in the regulation of both metabolic and antioxidant pathways.8 It activates mitochondrial metabolism by deacetylation of Krebs cycle,9 complex I,10 and fatty acid β-oxidation enzymes11 and maintains mitochondrial redox status by deacetylation of IDH2 (isocitrate dehydrogenase 2),12 and the effect of Sirt3 inactivation is not limited by SOD2 hyperacetylation. Furthermore, Sirt3 activity can be inhibited in response to metabolic or oxidative stress.5,13 We appreciate</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2138101700</t>
+          <t>https://openalex.org/W2803139858</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.18374/ejbr-18-1.3</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Baynes (1977)</t>
+          <t>Youssef (2018)</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>A Personal Retrospect: The Argument for Design Education</t>
+          <t>ETHICAL PRIORITIES IN THE CONTEXT OF A DEVELOPING COUNTRY</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>The suggestion for an article based on a personal view of the past ten years in design education came at an opportune moment. Having just completed work on the Design in General Education project at the Royal College of Art, and having just begun to research a new exhibition - on the evolution of engineering drawing - for the Welsh Arts Council, I was in the right frame of mind to look again at my motivations. Certainly with educational activities, a design practice and historical research all going on at the same time, the pattern did not immediately suggest coherence. It didn't even look well designed! How is it that I find no difficulty in maintaining a continuing commitment to, for example, art and design or fashion and technology, when to many people, particularly perhaps to specialist subject teachers, they obviously seem poles apart? I tried to give an answer to this rather sharp question in talks I gave to arts teachers at the ILEA's Cockpit Theatre in London and to design teachers at the NADE Conference at Eaton Hall in Retford . The present article is based on an expansion of those talks . What I am setting out to do is to restate some of those arguments in favour of design education that have struck me as being truly fundamental . To put this into the form of a personal narrative means going back twenty rather than ten years but I hope the longer perspective will be useful . What I find particularly interesting is that the arguments which seemed powerful then still seem powerful now . It still appears to me that in order to understand and evaluate the content and methods of design education we have first to understand and evaluate the radical changes which have transformed communication and construction and the attitudes of people to them. Once this has been done, there are likely to be a great variety of valid ways of bringing such concerns into the forum of general education.</t>
+          <t>ABSTRACT Most of the available theories and concepts of ethics were developed in a Western setting. Whether ethical concepts and rules are universally relevant to all countries or relative in their application is still an unsettled issue. The Egyptian revolution or massive uprising of January 25, 2011 was a turning point in the history of modern Egypt. The loud cry of the masses for bread, human dignity and social justice fell into the core of moral quest and ethical imperatives. These demands roughly correspond to the three major ethical pillars of utility, rights and justice. The different stages that Egypt went through starting the 1950’s until that revolt are analyzed in terms of satisfying these three needs which were demanded by the masses . The lessons learned can be useful in shedding further light on the issue of universalism and relativism in the ethical debate. The conditions of a developing country may demand different priorities than that of a developed country. Furthermore priorities may differ in different periods the country went through. The Egyptian experience also shows that adopting an imbalanced package of the three concepts could be detrimental in the long run. Keywords Ethical Concepts, Universalism, Relativism, Developing Countries, Egypt</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2769120358</t>
+          <t>https://openalex.org/W2883543386</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1353/cdr.1983.0025</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Cox (2017)</t>
+          <t>Lyon (1983)</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Essays in Household Finance</t>
+          <t>Bertolt Brecht. Political Theory and Literary Practice ed. by Betty Nance Weber, Hubert Heinen</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Author(s): Cox, Natalie Cox | Advisor(s): Handel, Benjamin | Abstract: The use of technology by firms is changing the way insurance and lending markets function. I study the financial technology, or fin-tech'', industry, which is characterized by a growing number of online lenders who use data on educational, employment, and financial outcomes to quickly assess the risk of prospective borrowers and offer individualized loan terms. In many ways, their financial innovations'' can be thought of as movements towards more personalized products: interest rates that better reflect individuals' risk, payment plans that are tailored to individuals' monthly income and expenditures, and user-friendly interfaces that make financial decisions more intuitive and uncomplicated. On an individual level, as firms expand and customize product offerings, there is the potential for large efficiency gains. These innovations could also have wider implications for market structure; for example, if more accurate risk-based pricing creates clear winners and losers, it will change the distribution of consumer surplus.Advances in data-driven underwriting have both efficiency and equity implications for consumer lending markets where private and public credit options coexist. In the $1 trillion student loan market, private lenders now offer a growing distribution of risk-based interest rates, while the federally-run loan program sets a break-even, uniform interest rate. In my first chapter, I measure the overall gains in consumer surplus from such risk-based pricing and quantify the redistributional consequences of low-risk types refinancing out of the government pool into the private market. The empirical analysis is based on a unique applicant-level dataset from an online refinancing firm that contains information on loan terms, household balance sheets, and risk-based interest rates. I first leverage a series of firm-conducted interest rate experiments to estimate the sensitivity of borrowers' maturity and refinancing choices to interest rates. Using the maturity response, I then estimate a structural model of borrowers' repayment preferences. Using the estimated model, I show that comprehensive risk-based pricing generates large absolute gains in welfare of $480 per borrower relative to a break-even uniform price, and $400 relative to a coarser method of FICO-based pricing. If the federal pool conducts breakeven pricing, these efficiency gains come at a direct equity cost -- low risk surplus will increase on average by $2,300, while high risk surplus will fall by $2,100. In order to maintain access to the current uniform rate, the government would have to transition from break-even pricing to an average net subsidy of $2,080 per borrower.In the second chapter, I empirically analyze the fixed and variable rate decisions of borrowers who are financing large personal loans, and are given the option to switch rate types at any point. Many online lending firms now offer financial products that are more flexible and personalized than traditional loans; however, little is known about how consumers will interact with these more complete, but also more complex, contracts. Over my sample time period, the market index interest rate for the fixed and variable rate loans changed considerably. I first present reduced form evidence on the determinants of borrowers' initial rate decisions and the presence of switching costs, and then estimate a structural model that maps these findings to the coefficient of absolute risk aversion and a switching cost parameter. I compare the active and inactive rate choices of borrowers in different interest rate environments to separately identify switching costs from risk preferences.I show that while initial rate choices are very responsive to the prevailing interest rate environment, very few borrowers ever take advantage of the option to switch rate types even when interest rates increase. Specifically, I estimate a risk aversion parameter of .0564, which implies that borrowers are very risk averse, and lower and upper bounds on switching costs from $166 to $1,185. I also show that both the initial probability of choosing a variable rate loan and the probability of never switching are positively correlated with borrower liquidity constraints, which suggests that these borrowers are more focused on current monthly payments than future interest rate risk.</t>
+          <t>284 Comparative Drama Bertolt Brecht. Political Theory and Literary Practice. Ed. Betty Nance Weber and Hubert Heinen. Athens, Georgia: University of Georgia Press, 1980. Pp. 209. $15.00. This book of essays, a reworking of papers read at the Fourth Inter­ national Symposium of the Brecht Society held in Austin, Texas, in November 1976 confirms the commonplace that published proceedings of scholarly meetings are usually diverse in topic and uneven in quality. Ranging from the provocative to the prosaic (and the outright wrong­ headed), they fall (or the editors have arranged them) under four general headings—I. Political Theory and Practice; II. Production (mean­ ing theatrical production); III. Alteration of Aesthetic Values; and IV. Uses of Poetry. But in fact the subject matter of most contributions spills over into other categories and might appear just as well under another heading. The editors do attempt to bring unifying terminology (if not principles) into the collection. Two authors (probably at the behest of the editors) borrow the formulation “Critical Dialectics” from Antony Tatlow’s essay of the same name to define the function of Brecht’s art in the broadest sense. And the two essays by Douglas Kellner (“Brecht’s Marxist Aesthetic: The Korsch Connection”) and Klaus-Detlef Müller (“Me-ti”) treat Brecht’s relationship to Karl Korsch and Korsch’s influence on Brecht’s thinking as it affected the shape of Me ti. Book of Changes. Nevertheless, the seams separating many independent contri­ butions still show. Kellner’s essay, for example, contends that Brecht held Trotsky in high regard, while Betty Nance Weber’s essay, “The Life of Galileo and the Theory of Revolution in Permanence,” makes Trotsky not only the model for the figure of Galileo, but a significantly more heroic figure than Brecht in fact thought Trotsky was. We are told of Brecht’s admiration for Stalin in some of the essays, whereas others (again Weber’s essay) maintain that Brecht portrayed Stalin at this time unfavorably. But if we ignore this unevenness, we find several essays that stand out. Iring Fetscher’s introductory piece on “Brecht in Politics” contains original insights and speculations that would provoke any Brechtian of whatever political persuasion to rethink his/her position. Kellner’s essay on “Me Ti” represents probably the best summary available in English of this material, though Brechtian scholars who read German will find little new in it. Klaus-Detlef Müller’s article contains fascinating material on Brecht’s dispute with Karl Korsch and how their differing views of Stalinism and Marxism stimulated Brecht and ultimately enriched his works, specifically the Me Ti complex. Following a highly informative essay by Efim Etkind on “Brecht and the Soviet Theater” which describes the discovery of and the profound effect Brecht’s dramas had on the Soviet theater and intelligentsia in the fifties, Henry Glade’s essay “Major Brecht Productions in the Soviet Union Since 1957” traces Brecht’s role as the darling of the avant garde in the Soviet Union where his works had to be disguised as “classic texts” in order to pass Soviet censorship. Each of these articles presents information scarcely known and interest­ ing from a dialectic perspective of Brecht vis-à-vis Marxists of a different persuasion. There are less distinguished pieces. Antony Tatlow, for example, combines profound insights with unsupported assertions and Reviews 285 muddy logic as he attempts to define the fundamental role of all Brecht’s work under the term “critical dialectics.” Writing in a form of shorthand that presupposes acceptance of or acquaintance with his basic arguments, Tatlow would need more detailed logical exposition to reach any audience but a few cognoscenti. And the brief article by Wolfgang Storch, “Political Climate and Experimental Staging: The Decline of the Egoist Johann Fatzer,” would escape the understanding of all but the most knowledge­ able Brecht experts who knew this fragmentary play in its manuscript form and possessed sophisticated understanding of Brecht’s thinking. Margareta N. Deschner’s “Wuolijoki’s and Brecht’s Politicization of the Volksstuck” reconstructs the Finnish material on which Brecht based his Puntila play and shows it in various transmutations from the Finnish into “pre-Brecht” and “post Brecht” plays. Though she...</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3146437087</t>
+          <t>https://openalex.org/W4252462163</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1080/000713100358471</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Feige (2004)</t>
+          <t>Sassen (2000)</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>PERESTROIKA AND RUBLE CONVERTIBILITY</t>
+          <t>New frontiers facing urban sociology at the Millennium</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>This paper examines the role of money in market and centrally planned economies. It then proposes a program and sequence of institutional, macroeconomic and monetary reform aimed at achieving a stable transition. An egalitarian redistribution of the state's custodial assets to its citizens is viewed as an necessary prelude to the introdcution of market reforms if the transition process is to achive the goals of efficiency and equity. The paper is to be published in the Cato Journal, Vol. 10 No. 3, Winter, 1991</t>
+          <t>The article examines some of the major challenges facing urban sociology at century's end given its traditions and lineages. These challenges arise out of the intersection of major macrosocial trends and their particular spatial patterns. The city and the metropolitan region emerge as one of the strategic sites where these macrosocial trends materialize and hence can be constituted as an object of study. Among these trends are globalization and the rise of the new information technologies, the intensifying of transnational and translocal dynamics, and the strengthening presence and voice of specific types of socio-cultural diversity. Each one of these trends has its own specific conditionalities, contents and consequences for cities, and for theory and research. Cities are also sites where each of these trends interacts with the others in distinct, often complex manners, in a way they do not in just about any other setting. The city emerges once again as a strategic lens for the study of major macrosocial transformations as it was in the origins of sociology. Can urban sociology address these challenges and in so doing once again produce some of the analytic tools for understanding the broader transformation?</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2110493470</t>
+          <t>https://openalex.org/W4321596478</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1176/appi.ajp.2008.08030398</t>
+          <t>https://doi.org/10.1080/10402659.2023.2181661</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Campanella (2008)</t>
+          <t>Saikia (2023)</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>The Green Bike</t>
+          <t>Oral Traditions and Folklores as Tools of Political Mobilization and Conflict Transformation among Ethnic Minority Groups in Assam, India’s Northeast</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Back to table of contents Previous article Next article IntrospectionsFull AccessThe Green BikeKarla Campanella M.D., M.A.Karla Campanella M.D., M.A.Search for more papers by this authorPublished Online:1 Sep 2008https://doi.org/10.1176/appi.ajp.2008.08030398AboutSectionsPDF/EPUB ToolsAdd to favoritesDownload CitationsTrack Citations ShareShare onFacebookTwitterLinked InEmail I was in the middle of a hectic night on call in the ED. I had a long list of patients to see—all with suicidal ideation of one form or another.I begin evaluating the next patient. Stifling a yawn, I smoothly transition from HPI to ROS. How’s your sleep, appetite, energy? I am on a roll. Past Psychiatric History and Family History pass by like signposts on a late-night road trip. Turning the corner onto Social History, I am moments away from being able to check the patient off my list and that much closer to a few stolen moments of sleep.“Have you ever been abused?” With that question, the momentum is broken. The patient, an older African American female, gets a faraway look in her eyes.“Back then,” she finally says, “They could not get black teachers for the school in my neighborhood. So I had a white fourth grade teacher.” The patient reflected on how honored she felt that he singled her out and gave her special jobs to do. “I had never been shown attention from a white man before.” But then one day he took her into the broom closet and molested her.Mesmerized, I listened as the patient shared how more and more men from the neighborhood sexually abused her—shopkeepers, neighbors, cousins, brothers. When she challenged her brothers, they said, “That is just the way it is supposed to be.” The men would call to her from their houses as she walked down the street. “Hey, do you want a quarter?” The patient confided that she loved to swim and a day’s admission to the pool cost a quarter. “I swam every day.”Quietly, the patient told me how much she hated it. How she would constantly change her walking route to avoid the calling men. But still they would find her. She had no one to go to for help. Her family was poor, and her mother was always working. Her father was an alcoholic.But a neighbor lady seemed to know what was happening. One day, she gave the patient her daughter’s old green bike. Now the men would call, but the patient could pedal fast and get away. “Yes, I loved that green bike,” the patient smiled, “I took such good care of it.”Deeply touched, I gazed upon this former medical record number on a checklist and said, “You are a strong woman.” She looked at me and said, “That is the way with African American women. We have to be strong no matter what. We are just supposed to take whatever life gives us. We are not supposed to ask for help.”Silently, I thanked her for derailing my goal-directed history evaluation, and for taking me on a cross-cultural detour through the pain of poverty, racial tension, and sexual aggression. Her story of the power of a neighbor’s kindness in the midst of a neighborhood’s inhumanity touched my soul, and forever I will carry the image of that old green bike along with the determined little girl for whom it was a link to sanity.Address correspondence and reprint requests to Dr. Campanella, University of Pennsylvania Health System, 2nd Floor, 3535 Market St., Philadelphia, PA 19104; [email protected] (e-mail). Introspection accepted for publication April 2008 (doi: 10.1176/appi.ajp.2008.08030398). FiguresReferencesCited byDetailsCited ByNone Volume 165Issue 9 September, 2008Pages 1110-1110THE AMERICAN JOURNAL OF PSYCHIATRY September 2008 Volume 165 Number 9 Metrics PDF download History Published online 1 September 2008 Published in print 1 September 2008</t>
+          <t>Inter-ethnic violence and counter-violence have been at the center of writings on identity politics among ethnic groups in India’s Northeast. Yet, the existing literature on these aspects in India, especially in the Northeast region, has missed out on a very significant dimension. Very few studies have focused on the use of oral narratives and folklores as important methods that contribute to identity politics and conflict transformation among ethnic groups. Preliminary research suggests that ethnic violence in Northeast India exhibits variations in terms of the patterns of violence and state responses that shape the outcome of the conflicts. Oral narratives are the repositories of cultural reproduction of marginalized communities and serve as important tools that enable these communities to reclaim their identity, social justice and shape their agency. The aim of the paper is, therefore, to examine how and to what extent oral traditions and narratives in the form of folklore help mobilize marginalized ethnic groups in conflict zones in India’s Northeast. The paper uses the case study of the historically marginalized Bodo ethnic group to examine the linkages between folklore, identity construction, mobilization and peace.</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2066296828</t>
+          <t>https://openalex.org/W3037457611</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1207/s15544818ped0101_2</t>
+          <t>https://doi.org/10.1108/s2055-364120200000022005</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Kalantzis (2006)</t>
+          <t>Fraser et al. (2020)</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Changing Subjectivities, New Learning</t>
+          <t>Moving Culture to the Center of the Curriculum: A Strategy for Regional Relevance and Organization Sustainability</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>In this article I argue that today's social transformations are of such depth and significance that they demand a fundamental rethinking of the nature of pedagogy. I address 3 closely interwoven facets of change: the nature of subjectivity, where as citizens, workers, and cultural beings, we are more and more required to be users and players rather than spectators or delegates; the growing intensity and significance of lifeworld diversity in which the local is more multifarious and the global more proximate; and the changing means of production of meaning where the semantic web is increasingly ubiquitous and its meanings multimodal. The response of a New Learning must be multifaceted and holistic. More than reactive, the New Learning must be creative, itself an agent of change rather than merely reflective of change. The transformations wrought by the New Learning must be systemic, rhetorical, and evident in the everyday practices of teaching and learning. In the article I highlight just one of a number of possible pathways, and that is the shift from a psychological/cognitivist view of learning to an epistemological one.</t>
+          <t>When two regional institutes of technology merged in 2016, it created a singular opportunity for disruption to business-as-usual and for organizational transformation. The new entity’s strategic intent is to be regionally relevant, learner-centric, sustainable, and innovative in delivery. Overarching all these considerations is an emphasis on relationships with our community, and demonstrating leadership in the re-positioning of culture at the heart of everything we do. Aotearoa New Zealand is a nation that prides itself on our dual heritage (Māori and European), and the way in which this is reflected in all public sectors in a commitment to a contemporary, bi-cultural framework. The core principles of partnership, protection and participation (Ministry of Justice, 2016) are the means by which legislation, public policies, and curriculum development should be judged. Yet Māori educational achievement lags behind that of non-Māori by 9.5% in degree completions (Marriott &amp; Sim, 2014). Boosting achievement of Māori is a key government priority (Tertiary Education Commission, 2016) and organizational imperative.This chapter describes our cultural milieu and institutional vision, discusses the ways in which core values from Māori culture have informed curriculum development, and offers a pathway toward organizational sustainability. We outline how these different ways of thinking are being communicated to our students, staff, partners, and stakeholders, and how we expect to add value to the learning experience, and relevance to our own society and the wider global community. We emphasize that leadership and strategies directed toward sustainability, must and should begin with an understanding of organizational cultural identity - who we are, where we stand, and what we stand for.</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1512903296</t>
+          <t>https://openalex.org/W2065422089</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1163/9789401200387_007</t>
+          <t>https://doi.org/10.14452/mr-016-11-1965-03_1</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Nadarajah (2011)</t>
+          <t>Sweezy &amp; Huberman (1965)</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>A Community in Constant Transition: Propagating a Yield of Conflict and Violence?</t>
+          <t>Paul Alexander Baran: A Collective Portrait: Foreword</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Malaysian society has undergone sweeping changes in the last two decades. At the same time that it is actively constructing a nation geared towards the new national development strategy Wawasan 2020 (‘Vision 2020’), it is negotiating globalisation processes at the most local level of everyday life. The forces propelling development in Malaysia are not just a product of development policies, but also a function of the confluence of historical, social, cultural, economic and political relations. The process through which Malaysia makes this transition – which includes linking the ‘everyday-defined’ cultural reality and a ‘state-defined’ notion of national identity - is an important process. This chapter is an attempt to understand aspects of this change through a case study that focuses on a squatter settlement in the epicentre of its capital city, Kuala Lumpur during a period of large-scale urban transformation. Situated at the intersection of what was once the main road linking metropolitan Kuala Lumpur to one of its main ports Klang, this community is currently being relocated into dense, new, low-cost housing flats in the same vicinity. This study is particularly interested in questions of community and identity and seeks to articulate a deeper analytical understanding of how, intentionally or unintentionally, contexts for community conflict and sometimes violence in contemporary life can be propagated.</t>
+          <t>Monthly Review was founded in 1949 at just about the time that Paul Baran was resigning from a semi-governmental job at the Federal Reserve Bank of New York to join the faculty of Stanford University. In his new situation he had more freedom, more time, and more energy to devote to outside matters. Being a Marxist whose political views were basically the same as ours, he was naturally interested in MR and as time went on became more and more closely associated with us in all its various aspects. In the early years when McCarthyism was at its height, he wrote under the pen name "Historicus," His first signed article, "On Soviet Themes," appeared in 1956; thereafter he wrote only under his own name. When, under circumstances described below (pages 45-46), the publisher who had originally contracted to publish The Political Economy of Growth reneged, Baran immediately offered it to MR Press which brought it out in 1957 and subsequently negotiated foreign editions in nine different languages. MR Press also published two pamphlets by Baran: Marxism and Psycho- analysis (1960), and Reflections on the Cuban Revolution (1961); and the Press will publish Monopoly Capital, the book which he was writing jointly with Paul M. Sweezy at the time of his death.This article can also be found at the Monthly Review website, where most recent articles are published in full.Click here to purchase a PDF version of this article at the Monthly Review website.</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2163654497</t>
+          <t>https://openalex.org/W4376601806</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1139/v10-116</t>
+          <t>https://doi.org/10.1021/acs.nanolett.3c00102</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Li et al. (2010)</t>
+          <t>Gao et al. (2023)</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Theoretical study of the microwave spectrum of isotopologues of OCS–(He)&lt;sub&gt;2&lt;/sub&gt;</t>
+          <t>Reversible Regulation of Long-Distance Charge Transport in DNA Nanowires by Dynamically Controlling Steric Conformation</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>The rovibrational energy levels (J = 0–3) and rotational spectra of seven isotopologues of the OCS–(He) 2 complex have been determined by numerically exact basis set calculations. The interaction energy is represented as a sum of two-body terms consisting of the OCS–He potential, which Howson and Hutson (J. Chem. Phys. 2001, 115, 5059) obtained at the CCSD(T)/aug-cc-pVTZ level of theory, and the He–He potential that Jeziorska et al. (J. Chem. Phys. 2007, 127,124303) obtained with SAPT theory. Three-body effects and the quality of the potential are discussed. Comparison with experiment shows that microwave transitions can be predicted by this additive approach with an accuracy equal or better than 0.7% for all the observed spectral lines. A method for the three-dimensional representation of the helium density in the body-fixed frame is presented that highlights the highly delocalized nature of the helium subsystem.</t>
+          <t>Understanding of DNA-mediated charge transport (CT) is significant for exploring circuits at the molecular scale. However, the fabrication of robust DNA wires remains challenging due to the persistence length and natural flexibility of DNA molecules. Moreover, CT regulation in DNA wires often relies on predesigned sequences, which limit their application and scalability. Here, we addressed these issues by preparing self-assembled DNA nanowires with lengths of 30-120 nm using structural DNA nanotechnology. We employed these nanowires to plug individual gold nanoparticles into a circuit and measured the transport current in nanowires with an optical imaging technique. Contrary to the reported cases with shallow or no length dependence, a fair current attenuation was observed with increasing nanowire length, which experimentally confirmed the prediction of the incoherent hopping model. We also reported a mechanism for the reversible CT regulation in DNA nanowires, which involves dynamic transitions in the steric conformation.</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2333727462</t>
+          <t>https://openalex.org/W3167306296</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.4135/9788132108542</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Layton (2015)</t>
+          <t>Nilakant &amp; Ramnarayan (2006)</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Scrum For Dummies</t>
+          <t>Change Management: Altering Mindsets in a Global Context</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Practice an agile form of management to stop wasting time and money Scrum For Dummies is an easy to use guide to managing the tricky transition from a traditional project management methodology to the new and most popular agile framework. As the most efficient, successful methodology for team project management, Scrum relies on transparency, flexibility, and fluidity to deliver a final product that fulfills the needs of all stakeholders. Written in easy-to-read Dummies style, this book walks you through the core principles of Scrum and provides a roadmap for tangible implementation. The vast majority of projects go over budget, and billions of dollars are wasted every year on overruns. Put a stop to this wasteful leakage by switching to a management style that keeps all participants informed, up-to-date, and accountable. Authored by a Certified Scrum Trainer, Mark Layton, Scrum For Dummies covers the key ideas and processes behind Scrum methodologies, and presents the inner workings of the plan in an engaging and accessible format. Topics include: * The Scrum values, roles, artifacts, and activities that make up the principle of this methodology * When and how best to use Scrum * The differences between Scrum and other agile methodologies * Using Scrum for IT, finance, construction, health care, and more The book also delves into the everyday use of Scrum, and how it can help you achieve your own personal goals outside of work. There's a reason why scrum is quickly becoming the standard approach to project management it works! If you want to stop wasting time and start producing more effectively, Scrum For Dummies is the guide that will get you there.</t>
+          <t>THIS BOOK was originally conceived as the second edition of our previous book Managing Organisational Change, written in the aftermath of liberalisation initiated by the Indian government in 1991 and published in 1998. Based on primary data from about fifty Indian organisations in a variety of industries, it examined the challenges of growth in an emerging, liberalised competitive environment. We viewed organisational change as comprising three generic processes of growth, transformation and decline. We suggested that these three processes differ from one another in certain crucial respects and, therefore, required different approaches to manage the same. We argued that it was important for managers to know which generic process they are managing in order to be effective. We presented a model of the levers of change that provided an integrated approach to the management of change. Our generic model specifically focused on eight tangible levers of change: values-based leadership, strategy, structure, human resource practices, technology, marketing, quality, and costs. While the model was illustrated with examples from the best of Indian and international practices, the book emphasized both what organisations need to change and how they should go about it. It suggested that the effective management of change involves managing intangibles, particularly positive values such as selflessness, justice, compassion, tolerance, respect and integrity.</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4234236954</t>
+          <t>https://openalex.org/W2614769201</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1190/1.9781560801672.ch5</t>
+          <t>https://doi.org/10.1177/0040563917698894t</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>NA (2007)</t>
+          <t>Johnston (2017)</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>5. Duality</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>PreviousNext No AccessSeismic True-Amplitude Imaging5. Dualityhttps://doi.org/10.1190/1.9781560801672.ch5 SectionsAboutPDF/ePub ToolsAdd to favoritesDownload CitationsTrack CitationsPermissions ShareFacebookTwitterLinked InReddit Abstract We mentioned in Chapter 1 that all map and image transformation procedures discussed in this book rely on two basic geometric concepts: the Huygens surface (also called the diffraction-traveltime surface or the maximum-convexity surface) and the isochron (also called the aplanat, aplanatic, or equal-traveltime surface). In this chapter, we elaborate further on the common properties and the mutual relationship of these two fundamental surfaces, as well as on their relationship to the 3D reflection-traveltime surface and the 3D target reflector. We always assume a fixed measurement configuration as discussed in the "Measurement configurations" section of Chapter 2. Thus, all traveltime surfaces considered here are functions of a 2D vector parameter ξ, rather than of the complete set of source and receiver coordinates xS and xG. Permalink: https://doi.org/10.1190/1.9781560801672.ch5FiguresReferencesRelatedDetails Seismic True-Amplitude ImagingISBN (print):978-1-56080-143-6ISBN (online):978-1-56080-167-2Copyright: 2007 Pages: 401 publication data© 2007 All rights reserved. No part of this publication may be reproduced or distributed in any form or by any means without written permission of the publisherPublisher:Society of Exploration Geophysicists HistoryPublished in print: 01 Jan 2007 CITATION INFORMATION (2007), "5. Duality," Geophysical Developments Series : 149-172. https://doi.org/10.1190/1.9781560801672.ch5 Plain-Language Summary PDF DownloadLoading ...</t>
+          <t>Book Review: Just Revolution: A Christian Ethic of Political Resistance and Social Transformation. By Anna Floerke Scheid</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2497458810</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.4018/978-1-60566-026-4.ch177</t>
+          <t>https://openalex.org/W2906563495</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Amoretti &amp; Casula (2009)</t>
+          <t>Oktal &amp; Yaman (2004)</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>From Digital Divides to Digital Inequalities</t>
+          <t>HABERLEŞME, SEYRÜSEFER, İZLEME VE HAVA TRAFİK YÖNETİMİ TEKNOLOJİSİ (CNS/ATM ) VE BU SİSTEMİN TÜRK HAVASAHASINA UYGULANMASI</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Concerns about inequalities deriving from the penetration of new information and communication technologies (ICTs) have only recently become a widely debated issue in industrial societies. Until the 1980s the diffusion of ICT was mainly considered a matter of technological innovation regarding selected fields and limited territorial areas (such as the military and academic centers in the U.S.). Gradually, scholars started to point to the rise of an information society based on the production of information as the crucial resource to manage coordination and control of increasingly interconnected organizational systems (Masuda, 1981; Beniger, 1986; Toffler, 1990). The expression offered an alternative to the otherwise negative definitions used by scholars since the 1970s to identify changes occurring in Western democratic societies (‘post-capitalism’, ‘post-industrialism’, ‘post-materialism’, etc.) (Touraine, 1969; Bell, 1973). The debate over the information society, enthusiastically greeted by some authors (Negroponte, 1995) and critically observed by others (Castells, 1996, 2001; May, 2002; Mattelart, 2003), witnessed since the mid-1990s widespread success in public and political debates (Thomas, 1996). In front of the fast and capillary diffusion of ICTs virtually to all sectors of private and public life, most Western countries’ governments and international organizations have inserted within their policy agendas a reference to the unavoidability, if not desirability, of a radical shift to the new information age. The rhetoric accompanying those discourses often presents the expansion of the ICT sector?and especially the Internet?as offering citizens returns at both the individual and collective level, in the form of greater access to goods and services, increased levels of social and civic participation, and wider economic and working opportunities for all. Presented as a crucial means to participate in the new global information society, ICTs become recognized as a resource that should be fairly distributed among citizens, albeit on the basis of different arguments (ranging from social equity to economic efficiency or global development concerns), often leading to opposite conclusions on the scope for redistributive interventions (Strover, 2003; Selwyn, 2007).</t>
+          <t>After 1980’s, significant changes have occurred in the aviation industry. In 1983, International Civil AviationOrganization-ICAO pointed at the fact that the increasing air traffic rate, which was predicted as 5% per year,could not be handled by the available systems in terms of safety, capacity and efficiency and made definitions of21st century’s communication, navigation, surveillance and air traffic management systems. CNS/ATM (alsoreferred to as CNS/ATM) concept, just like gas turbine engines, became a revolution in the air transportationindustry. Application of CNS/ATM will replace ground-based navigation systems and voice position reportingsystems with satellite-based navigation systems and digital communication technologies. In this study, thenecessity of CNS/ATM concept, activities regarding CNS/ATM in the world, conveniences introduced by thesystem and guidelines of its application will be reviewed, and then the advantages provided by its application inTurkey will be discussed after making a general assessment of air transportation in Turkey.</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2620987783</t>
+          <t>https://openalex.org/W2016254158</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1007/978-3-319-53697-2_1</t>
+          <t>https://doi.org/10.1016/j.pubrev.2007.08.009</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Borzutzky (2017)</t>
+          <t>Mckie &amp; Galloway (2007)</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Transitional Justice: A Short Introduction</t>
+          <t>Climate change after denial: Global reach, global responsibilities, and public relations</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Taking climate change as the 21st century's major global threat, this paper considers three significant public relations challenges arising from it. The first is how the field can engage with the social equity and ecological dimensions in ways that might enhance rather than diminish the profession's public reputation. The second is how the discipline adapts to deal with the radical perceptual shifts accompanying the meteorological transformations and possible geopolitical fallout, and the third is the issue of trust – interlinked with emotions, economics, ecology, and neuroscience – as the strategy of eco-catastrophe denial becomes less and less tenable. The paper also considers possible responses to these challenges.</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2383788092</t>
+          <t>https://openalex.org/W3172847412</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Deng-hua (2013)</t>
+          <t>Olazabal (2020)</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Development Status and Trend of Chinese Water Industry</t>
+          <t>El reto climático en las ciudades</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Urban water supply in China has experienced a transition from growth to maturity,reaching a steady balance of supply and demand.Wastewater treatment is in the growth stage,with a rapid increase in capacity and volume.Recycled water is in the introduction stage and just getting started.The following nine major problems in Chinese water industry development were analyzed: relatively low water resources per capita,serious water pollution,aged urban water network with serious leakage and low utilization of water resources,grave situation in urban water supply safety,low wastewater treatment efficiency and outdated technology,fragmented water industry chains and loose organization,insufficient water price reform and decentralized water industry.The development trends of the water industry were described from six aspects: seawater desalination has become a new area to be explored;market-oriented reform in the water industry is increasingly prompted;investments are mainly made by state-owned capital;water service is increasingly integrated with capital market;integrated reform in water service management is implemented and increased and better profitability of water industry with continuous increase in water price.The Chinese water industry is expected to become one of the fastest growing industries and worthiest investment industries.</t>
+          <t>espanolEl reto climatico es especialmente importante en las ciudades y asi lo trasladan la Nueva Agenda Urbana y los objetivos de desarrollo sostenible. En este capitulo se discuten las claves locales del reto climatico con una doble perspectiva: las ciudades como parte del problema y como sistemas altamente vulnerables al cambio climatico. Se describen estos retos a traves de un repaso de las tendencias urbanas y sus consecuencias en terminos de emisiones y riesgos climaticos. Con el objetivo de establecer las pautas para una transformacion urbana justa, sostenible y resiliente, se discuten los principales tipos de medidas climaticas, los condicionantes intrinsecos urbanos que explican la necesidad de pensar desde lo local, y los principios clave de la accion climatica: flexibilidad, integracion y transdisciplinariedad. El capitulo termina con un repaso al progreso de la accion climatica local y concluye aludiendo a la co-responsabilidad de los gobiernos locales, de las empresas, ciudadanos y usuarios de las urbes, en el transito hacia modelos urbanos bajos en carbono y resilientes al cambio climatico. EnglishThe climate challenge is especially important in cities as reflected in the New Urban Agenda and the Sustainable Development Goals. This chapter discusses the key aspects of the urban climate challenge with a double perspective: cities as the source of the problem and as systems highly vulnerable to climate change. These challenges are described through a review of urban trends and their consequences in terms of emissions and climate risks. In order to establish guidelines for a just, sustainable and resilient urban transformation, the chapter discusses the main types of climate action, the inherent urban conditioning factors that explain the need to think locally, and, eventually, the key principles of climate action: flexibility, integration and transdisciplinarity. The chapter ends with a review of the progress of local climate action globally and concludes by calling to the co-responsibility of local governments, companies, citizens and users of cities, in the transition towards low-carbon urban models which are resilient to climate change.</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1499530127</t>
+          <t>https://openalex.org/W2257532339</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1017/s008045410000652x</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Steidle &amp; Wallace (2007)</t>
+          <t>Aitken (1946)</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>The Devil Came on Horseback: Bearing Witness to the Genocide in Darfur</t>
+          <t>XVI.—Studies in Practical Mathematics. IV. On Linear Approximation by Least Squares</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Former United States Marine Brian Steidle served for six months in Darfur as an unarmed military observer for the African Union. There he witnessed first-hand the ongoing genocide, and documented every day of his experience using email, audio journals, notebook after notebook and nearly 1,000 photographs. Gretchen Steidle Wallace, his sister, who wrote this book with Brian, corresponded with him throughout his time in Darfur. Fired upon, taken hostage, a witness to villages destroyed and people killed, frustrated by his mission's limitations and the international community's reluctance to intervene, Steidle resigned and has since become an advocate for the world to step in and stop this genocide. The Devil Came on Horseback depicts the tragic impact of an Arab government bent on destroying its black African citizens, the maddening complexity of international inaction in response to blatant genocide, and the awkward, yet heroic transformation of a formerMarine turned humanitarian. It is a gripping and moving memoir that bears witness to atrocities we have too long averted our eyes from, and reveals that the actions of just one committed person have the power to change the world.</t>
+          <t>R. Frisch, in a paper (Frisch, 1928) on correlation and scatter in statistical variables, made an extensive use of matrices, and in particular of the moment matrix , as he called it, of a set of variables. The matrices were square arrays, with an equal number of rows and columns. This paper of Frisch pointed the way to an even more extensive use of the algebra of matrices in problems of statistics. What Frisch called the moment matrix may perhaps be more suitably called, nowadays, the variance matrix of a set or vector of variates, since the moments in question are all variances or covariances. In the present paper, which is illustrative of matrix methods, we explore the familiar ground of linear approximation by Least Squares, making full use of the properties of the variance matrix. We also study the linear transformations that convert crude data into smoothed or graduated values, or into residuals, or into coefficients in a linear representation by chosen functions.</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2084531725</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1142/9789812834300_0372</t>
+          <t>https://openalex.org/W31531318</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Meinel (2008)</t>
+          <t>Martínez-de-Pisón (2003)</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>QUASI-STATIONARY ROUTES TO THE KERR BLACK HOLE</t>
+          <t>Optimización mediante técnicas de minería de datos del ciclo de recocido de una línea de galvanizado</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
-        <is>
-          <t>Quasi-stationary (i.e.parametric) transitions from rotating equilibrium configurations of fluid bodies to rotating black holes are discussed.For the idealized model of a rotating disc of dust, analytical results derived by means of the "inverse scattering method" are available.They are generalized by numerical results for rotating fluid rings with various equations of state.It can be shown rigorously that a black hole limit of a fluid body in equilibrium occurs if and only if the gravitational mass becomes equal to twice the product of angular velocity and angular momentum.Therefore, any quasi-stationary route from fluid bodies to black holes passes through the extreme Kerr solution.</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W3113120568</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1097/acm.0000000000003868</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>Huppert et al. (2020)</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>Virtual Interviews at Graduate Medical Education Training Programs: Determining Evidence-Based Best Practices</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>The COVID-19 pandemic has had a profound impact on the nation's health care system, including on graduate medical education (GME) training programs. Traditionally, residency and fellowship training program applications involve in-person interviews conducted on-site, with only a minority of programs offering interviews remotely via a virtual platform. However, in light of the COVID-19 pandemic, it is anticipated that most interviews will be conducted virtually for the 2021 application cycle and possibly beyond. Therefore, GME training programs need to prepare for the transition to virtual interviews using evidence-based practices. At the University of California, San Francisco, a multidisciplinary task force was convened to review existing literature about virtual interviews and determine best practices. This article summarizes these findings, first discussing the advantages and disadvantages of the virtual interview format and then providing evidence-based best practices for GME training programs. Specifically, the authors make the following recommendations: develop a detailed plan for the interview process, consider using standardized interview questions, recognize and respond to potential biases that may be amplified with the virtual interview format, prepare your own trainees for virtual interviews, develop electronic materials and virtual social events to approximate the interview day, and collect data about virtual interviews at your own institution. With adequate preparation, the virtual interview experience can be high yield, positive, and equitable for both applicants and GME training programs.</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W2069989322</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.5840/philtoday201155342</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>Fried (2011)</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>A Letter to Emmanuel Faye</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>(ProQuest: ... denotes non-USASCII text omitted.) Dear Professor Faye, Let me begin by thanking you for taking initiative to send me your book, Heidegger: Introduction of Nazism into Philosophy. contacted me because I had contributed to the line debate in the commentary to Romano's review of your book in The of Higher Education.1 I owe you an apology. When I upon that review, your book was not yet in English except to reviewers, and so I was ing not so much to your work as to what I took be the intellectual glibness and laziness of the view, which struck me as inappropriate to the scope and the seriousness of the philosophical, ethical, and political questions at stake.2 ter having read your book with care, I must now acknowledge that some of what I wrote then would no longer write today. In my first post the discussion, I claimed, To a very large extent, [the furor surrounding your book and review] is simply a repeat of the scandal erupted 22 years ago when the work of Farias and Hugo Ott was published. There nothing really new here, except perhaps an increase of the 'data' of Heidegger's loathsomeness as a human being.3 1 also wrote: We have known that [Heidegger was a dedicated National Socialist] for a long time now. But the devil is in the details. It has long been well known that Heidegger was opposed to biological racism and opposed to global imperialism. He was what we might now call a mulitculturalist, but between nations, not within them. He thought Nazism would allow national cultures and historical traditions to maintain themselves in their own bounds. But note, in my view this still leaves room for what might be called a metaphysical or ontologica! racism (see the work of Berel Lang or Robert Bernasconi for a responsible treatment of this point), and I believe Heidegger was guilty of that. But it was by no means orthodox Nazism. After reading your book, I would no longer say all of this. Indeed, this is one of your most important contributions: to set out in great detail the intricacies of the developments and the battles between strands of Nazism about precisely what should and would count for orthodoxy. I wrote: [Romano's] article wants to paint Heidegger as a hack, who dressed up his Nazism in philosophical clothing. That is a crude dodge that avoids what is seriously at issue for real thought. Heidegger was never an orthodox Nazi and the orthodox soon came to suspect him of deviationism. It is absurd to claim that Heidegger somehow was an architect of Nazi ideology, in the way, say, that Lenin or Marx were of Communism, or that Locke or Jefferson were of liberalism.... Yes, Heidegger lent his respected name to the movement, but little to its content or direction.5 Having read your book, I now believe much of this to be false: he was orthodox (to the extent that there was an orthodox Nazism), and he did have a significant impact. The verdict is clear: never again can anyone say that Heidegger, who played a passionate role in the debates over the core meaning and direction of the movement, who subscribed to a form of non-biologistic racism that was in fact by no means alien to National Socialism, who lent his voice and his weight as a thinker, as an administrator, and as an educator to the consolidation Gleichschaltung) of Hitler's dictatorship, was not fully in the ambit of orthodox Nazism, because Nazism contained many strands, especially in the first years after the revolution, and Heidegger fit within the scope of this diversity. While some of the elements of this picture have been know since Farias and Ott, this issue is too important to be digested piecemeal, with a biographical detail leaking out here, a new text there, as they do over the years. While you also contribute some decisive new information, I find that it is the totality of what you assemble that is impossible to ignore: it conveys the portrait of a man entirely dedicated to the cause of Nazism, and not just in a fit of temporary madness or enthusiasm, but as an enduring mission. …</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W3163686794</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.3751/75.1.13</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>Burton et al. (2021)</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>China and the Reconstruction of Syria</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>How will China contribute to Syria's postwar reconstruction? The Syrian regime's Russian and Iranian sponsors are unlikely to provide sufficient material assistance, while Gulf and Western countries are unwilling to help. This article shows how Chinese support has thus become the Syrian regime's priority, although China's state and private firms will be wary of risk. China could also provide Syria with a model for development, but it would be partial as it lacks a peace-building dimension, including the construction of transitional justice.</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W2038246040</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1142/s0218301308011161</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>Yamada &amp; Funaki (2008)</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>CLUSTER STATES AND ALPHA PARTICLE CONDENSATION IN &lt;sup&gt;13&lt;/sup&gt;&lt;font&gt;C&lt;/font&gt;</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>The structure of 13 C is studied with the semi-microscopic cluster model, 3α+n orthogonality condition model (OCM). The energy spectra of four 1/2 - states and three 1/2 + states up to E x ~ 13 MeV are successfully reproduced, in particular, three monopole transition strengths are in fair agreement with the observed ones. We discuss the cluster states and alpha particle condensation in the 1/2 ± states appearing around the 12 C +n, 9 Be +α and 3α+n thresholds.</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W3125029439</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1198/jbes.2009.0008</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>Maheu &amp; McCurdy (2009)</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>How Useful are Historical Data for Forecasting the Long-Run Equity Return Distribution?</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>We provide an approach to forecasting the long-run (unconditional) distribution of equity returns making optimal use of historical data in the presence of structural breaks. Our focus is on learning about breaks in real time and assessing their impact on out-of-sample density forecasts. Forecasts use a probability-weighted average of submodels, each of which is estimated over a different history of data. The empirical results strongly reject ignoring structural change or using a fixed-length moving window. The shape of the long-run distribution is affected by breaks, which has implications for risk management and long-run investment decisions.</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W4231360178</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.5325/gestaltreview.25.1.0143</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>Burton (2021)</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>Review</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>In Mind and the Cosmic Order, the mathematician Charles Pinter examines the role mind plays in the construction of reality, ultimately concluding that the mental constructs that give existence its form and structure, while not material, are no less real than the physical world with which the mind interacts. In this brief but wide-ranging book consisting of nine chapters that tackle subjects ranging from the seeing eye to the scientific observer, Pinter takes a synthetic approach to the study of the cosmic order, drawing on such diverse fields as biology, physics, neuroscience, cognitive science, psychology, and philosophy to argue that the sensations and thoughts located in the mind of the perceiver bring to light facets of reality whose very existence depends on the act of perception.Pinter begins his foray into the nature of reality with a discussion of the mechanics of vision. Our assumption that what we see offers a realistic depiction of the external world proves hopelessly naïve in Pinter's account. What exists in what Pinter calls the mind-independent world and what we see in the mind's eye have very different properties. The matter and energy that make up the material world is undifferentiated and featureless until it is observed. Seeing, however, does not simply imprint a visual representation of the external world on the brain. The patches of light and shadow received from the external world reach only as far as the retina. The optic nerve then transforms the information it receives into electrochemical signals, which it then transmits to the brain, where the visual information becomes reconstituted, emerging as a visual image that we understand as a sensation. Our visual world, then, is a constructed reality or Gestalt that we then project back onto the external world through a process called distal attribution.For the purposes of his study, Pinter defines a Gestalt as “a whole, unified single entity when viewed in its entirely from an outside perspective” (44). The ability to see in these Gestalt wholes is supremely adaptive. Although the life of any creature depends on its active engagement with the objects and beings in its orbit, the raw data it receives from its environment is unorganized and chaotic. The ability to segment that data into distinct objects and then to group those objects into a synthetic whole—that is, to create Gestalt images that lend form and structure to undifferentiated matter and energy—allows the creature to select from all the available environmental data the information it most needs to make decisions that will ensure its own survival. What the creature perceives is not the world as it is but a mental model of the world that is adaptive to its needs as a living being.However important for survival the Gestalt wholes we create may be, they do not have material existence; they are mental constructs, the property of perception, not of the mind-independent world. But are they real? Pinter thinks they are, but the answer to this question requires that he draw a distinction, not just between the material world and the immaterial objects of our cognition, but also between the brain and the mind. Although recent trends in cognitive science have emphasized the primacy of the material brain in the processing of information, Pinter takes an alternate approach, highlighting the difference between the electrochemical activity that takes place on the brain's cerebral cortex and the vivid sensations and thoughts produced by the mind. Pinter argues that the brain encodes information that instills a subjective feeling in the mind. Sensations, nonmaterial perceptions produced by material means, are for Pinter “the medium in which all conscious activity unfolds” (58). Sensations are not limited to such physical experiences of pain or color, however; they also encompass thought, because “to have a thought is to experience its meaning” (59). All mental content, then, is grounded in sensations that perceivers group together to form what Pinter calls “Gestalt image-schemas,” combinations of sensations that yield ever more complex meaning.The mind-independent world is pluripotent. Things present in this world are latent and unrealized, becoming actualized only when an observer segments the visual field into Gestalt wholes that give objects form and structure. But the mental activity that plays a constitutive role in the creation of physical reality also has the capacity to bring into being nonmaterial facts and categories. The mind-independent world uncoupled from the observer is nothing more than undifferentiated matter and energy, but it is also a world awaiting interpretation. Facts, too, require observers to bring them into existence, for facts, like objects, are constructed Gestalt wholes. The same is true of categories. Category formation comes about as a process of abstraction as the observer discerns common features in different objects: abstractions that become reified into indepen</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W4231662464</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.21203/rs.3.rs-214048/v1</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>Eni et al. (2021)</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>Decolonizing Health in Canada: A Manitoba First Nation Perspective</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>Abstract Background This paper focuses on a longitudinal research program in Manitoba, Canada, by the Innovation Supporting Transformation in Community-Based Research Project (iPHIT) to learn from First Nations across the province that have developed effective community-based primary healthcare models. The research is relevant and timely as First Nations across the country, and Indigenous populations globally, work towards improvements in population health and health equity via critical analysis and restructuring of health services. The purpose of the paper is to deepen an understanding of decolonization as it is defined within the communities, as a central aspect of health restructuring. Methods The study is a qualitative, grounded theory analysis, which is a constructivist approach to social research that allows for generation of theory in praxis, through interactions and conversations between researchers and research participants. Findings are based on 183 in-depth interviews and eight focus group discussions with participants from 8 Manitoba First Nation communities. The study was designed to understand strengths, limitations and priorities of primary healthcare strategies and frameworks of the communities. The iPHIT team was an active collaborative partnership between the First Nation communities, First Nation Health and Social Secretariat of Manitoba, and the University of Manitoba. The First Nation partners led in all aspects of the research, from development to implementation, data collection, analyses, and dissemination. Respected Elders from the communities also guided in appropriate research and engagement protocols. Results Data was coded and then grouped into 4 interconnecting themes. These are: (1) First Nation control of healthcare, (2) traditional medicine and healing activities, (3) full community participation, and (4) moving out of colonization involves cleaning up and moving beyond the mess that colonization has inflicted. Conclusion Decolonizing health involves a taking back of Indigenous wisdom and traditional activities; connections to the land, resources; intra- and inter-community relationships. Participants emphasized the value of full community engagement with respect to inclusion of different interpretations of and experiences in the world, highlighting creation of a shared vision. The study focused on First Nation community experiences and interests in Manitoba specifically, though the data may be applicable to national and global decolonization efforts.</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W2031176627</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1163/15718123-01405002</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>Bongiovanni et al. (2014)</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>Philosophy of Law and International Criminal Law: Between Peace and Morality</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>The legal philosophy of the 20th century has contributed to the development of international criminal law by rethinking fundamental legal concepts and theories concerning the nature of international law, its relation with national laws, the connection between the law and the State, and the very idea of responsibility. This was achieved, in the first place, through the reflection of Hans Kelsen, who put forward the idea of a system of enforceable criminal norms at the international level, directed at individuals and having a positive legal foundation. In the years immediately following the Second World War, a number of legal theorists and, in particular, Gustav Radbruch, argued in favour of a necessary connection between law and morality, on whose basis it could be claimed that the worst atrocities were punishable even when allowed by state norms, and even in the absence of positive international norms. In the last decade, the practice of international criminal law, through ad hoc tribunals and the International Criminal Court, has stimulated theoretical reflections on a variety of further fundamental issues, like impartiality, judicial truth, justification of punishment, side-effects of prosecution and transitional justice.</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W2322579703</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1353/hph.1996.0043</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>Auxier (1996)</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>American Philosophic Naturalism in the Twentieth Century (review)</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>BOOK REVIEWS 3~3 reaction to them into account. The actual historical dialectic involving Moore, Malcolm , and Wittgenstein is a good deal more complicated, and more interesting, than the story told here by Stroll. Moving on to Stroll's discussion of Wittgenstein, I should now acknowledge that, so far as I can judge, Stroll offers a largely reliable account of On Certainty. In particular, in the best chapter of the book, on "Wittgenstein's Foundationalism," he makes a convincing case for the view that Wittgenstein, unlike Moore, separates propositional knowledge from the kind of "non-propositional" certainty concerning what "stands fast" for us and which is primarily evinced in our ways of acting. What is less clear to me is just what kind of response to sceptical arguments this amounts to: Stroll says that although at some points Wittgenstein is prepared to countenance, in a relativist spirit which closely adjoins scepticism, radical changes in what is thus certain , by and large towards the end of On Certainty Wittgenstein advances an "absolutist " position which rules out such changes. But if this is so (and I myself find Wittgenstein enigmatic on this issue), we surely need some arguments why it has to be so. But much here depends on the broader context within which Wittgenstein's position is developed and discussed. Despite noting Wittgenstein's invocation of the conception of man as a "primitive being with instincts" (OC 82 Stroll does not seek to connect Wittgenstein's position with Hume's naturalism or with the naturalism of much contemporary philosophy of mind; instead he ends his book with a diatribe against his neighbouring Californian neurophilosophers. In my view it would have been better to stick to the Cambridge context of Moore and Wittgenstein, and to look at the third tradition of Cambridge epistemology--the reliabilist approach of Russell's Analysis of Mind and Ramsey's papers. I myself think that the result of combining this kind of reliabilism with Wittgenstein's naturalism helps to provide for the latter a more secure antirelativist argument than is otherwise available. THOMAS BALDWIN Cambridge University John Ryder, editor. American Philosophic Naturalism in the Twentieth Century. Amherst, NY: Prometheus Books, 1994. Pp. 556. Cloth, $34-95. This anthology is primarily a textbook. All of the selections have been published previously, except Ryder's introduction and headers at the beginning of each section. The book's value is that it brings together under a single cover some of the best and most representative work of American philosophic naturalists in the twentieth century. Those professors who have for years photocopied articles for their courses in American naturalism should greet the publication of this anthology with enthusiasm. The volume is organized so as to exhibit numerous different approaches. The one major view which is underrepresented is the reductionist approach to naturalism. Reductionists (e.g., physicalists, eliminative materialists, positivists, Darwinian materialists and sociobiologists) will find little to either defend or gratify their viewpoint. This omission reveals something of the editor's perspective on what American naturalism is, 314 JOURNAL OF THE HISTORY OF PHILOSOPHY 34:2 APRIL 1996 at bottom. Naturalism in this anthology is treated as a viewpoint largely at odds with reductionism of all sorts. Ryder attempts to set out in the introduction not so much a "definition" of American naturalism, as a field within which it is most recognizable, most characteristic, and most philosophically influential. One cannot fault Ryder's even-handed treatment, nor his decision to allow nonreductionist versions of naturalism to take center stage, for it creates a distinctive thread of thinking which can be traced through the entire volume--a thread which lends the needed unity to the book, and which will assist teachers in keeping their focus. It is clear that Ryder's chosen thread of thought takes its example from the landmark mid-century volume Naturalism and the Human Spirit, edited by Yervant Krikorian, a volume which is still in print.' As excellent as the Krikorian volume is, however, it can no longer effectively serve the needs of those who wish to teach American naturalism. Ryder's book is more than two-hundred pages longer, and seeks to organize the material more topically...</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W2969444281</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>Brasil et al. (2019)</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>Lyapunov exponents for Quantum Channels: an entropy formula and generic properties</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>We denote by $M_k$ the set of $k$ by $k$ matrices with complex entries. We consider quantum channels $\phi_L$ of the form: given a measurable function $L:M_k\to M_k$ and a measure $\mu$ on $M_k$ we define the linear operator $\phi_L:M_k \to M_k$, by the law $\rho \,\to\,\phi_L(\rho) = \int_{M_k} L(v) \rho L(v)^\dagger \, \dm(v).$ _x000D_
-On a previous work the authors show that for a fixed measure $\mu$ it is generic on the function $L$ the $\Phi$-Erg property (also irreducibility). Here we will show that the purification property is also generic on $L$ for a fixed $\mu$. _x000D_
-Given $L$ and $\mu$ there are two related stochastic process: one takes values on the projective space $ P(\C^k)$ and the other on matrices in $M_k$. The $\Phi$-Erg property and the purification condition are good hypothesis for the discrete time evolution given by the natural transition probability. In this way it will follow that generically on $L$, if $\int |L(v)|^2 \log |L(v)|\,  d\mu(v) \gamma_1\geq \gamma_2\geq ...\geq \gamma_k\geq -\infty$ are well defined. _x000D_
-On the previous work it was presented the concepts of entropy of a channel and of Gibbs channel; and also an example (associated to a stationary Markov chain) where this definition of entropy (for a quantum channel) matches the Kolmogorov-Shanon definition of entropy. We estimate here the larger Lyapunov exponent for the above mentioned example and we show that it is equal to $-\frac{1}{2} \,h$, where $h$ is the entropy of the associated Markov probability.</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W2342199507</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1371/journal.pcbi.1004878</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>Luz &amp; Shamir (2016)</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>Oscillations via Spike-Timing Dependent Plasticity in a Feed-Forward Model</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>Neuronal oscillatory activity has been reported in relation to a wide range of cognitive processes including the encoding of external stimuli, attention, and learning. Although the specific role of these oscillations has yet to be determined, it is clear that neuronal oscillations are abundant in the central nervous system. This raises the question of the origin of these oscillations: are the mechanisms for generating these oscillations genetically hard-wired or can they be acquired via a learning process? Here, we study the conditions under which oscillatory activity emerges through a process of spike timing dependent plasticity (STDP) in a feed-forward architecture. First, we analyze the effect of oscillations on STDP-driven synaptic dynamics of a single synapse, and study how the parameters that characterize the STDP rule and the oscillations affect the resultant synaptic weight. Next, we analyze STDP-driven synaptic dynamics of a pre-synaptic population of neurons onto a single post-synaptic cell. The pre-synaptic neural population is assumed to be oscillating at the same frequency, albeit with different phases, such that the net activity of the pre-synaptic population is constant in time. Thus, in the homogeneous case in which all synapses are equal, the post-synaptic neuron receives constant input and hence does not oscillate. To investigate the transition to oscillatory activity, we develop a mean-field Fokker-Planck approximation of the synaptic dynamics. We analyze the conditions causing the homogeneous solution to lose its stability. The findings show that oscillatory activity appears through a mechanism of spontaneous symmetry breaking. However, in the general case the homogeneous solution is unstable, and the synaptic dynamics does not converge to a different fixed point, but rather to a limit cycle. We show how the temporal structure of the STDP rule determines the stability of the homogeneous solution and the drift velocity of the limit cycle.</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W2022786878</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1098/rspa.1951.0172</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>Hume‐Rothery et al. (1951)</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>The valencies of the transition elements in the metallic state</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>The melting-points, interatomic distances and compressibilities of the transition elements are reviewed, and are shown not to be in complete agreement with the valency scheme proposed by Pauling. In all three Long Periods on passing from Groups I A to IV A there is a steady rise in melting-point, and decrease in interatomic distance and compressibility, and for these elements Pauling’s view of a metallic valency equal to the Group number is correct. In the First Long Period there is comparatively little increase in melting-point on passing from Ti to V and Cr, in contrast to the behaviour of the corresponding elements in the later Periods where the melting-points rise steeply to a maximum in Group VI. This suggests that in Groups V A and VI A the metallic valency is less for the elements of the First Long Period than in the later Periods, and this agrees with the general inorganic chemistry of the elements. The same principle is shown to hold for the elements of Groups VII A and VIII, and a new scheme of metallic valencies is suggested which appears attractive in several ways.</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W2343941565</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.17010/ijom/2013/v43/i11/80505</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>Kandpal &amp; Patra (2013)</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>Brand Building in the Era of Mobility and Emergence of 'New Imagined Communities': A Conceptual Analysis</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>This is a conceptual paper and is an attempt to explore the transitional effect of brand building in the new era of mobiles and the Internet. Transition and mobility have been the laws of nature and have been witnessed from time immemorial. However, the current and future generations are going to witness a transformation which redefines the idea of space and geographical territory. The prime mover of this transformation will be new media. To understand this transition well and to be in sync with the nuances of mobility will be crucial to organizational success in the 21st century. In this paper, we have discussed how organizations can form brand communities on the lines of Benedict Anderson's 'Imagined Communities'. The paper also highlights the fact that the phenomenon of mobility seen today is not just a consequence of an information explosion, but is also a result of the nature of new media (the Internet and mobile) and its impact on social constructs.</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W3013722721</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1161/circresaha.120.316763</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>Dikalova &amp; Dikalov (2020)</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>Response by Dikalova and Dikalov to Letter Regarding Article, “Mitochondrial Deacetylase Sirt3 Reduces Vascular Dysfunction and Hypertension While Sirt3 Depletion in Essential Hypertension Is Linked to Vascular Inflammation and Oxidative Stress”</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>HomeCirculation ResearchVol. 126, No. 7Response by Dikalova and Dikalov to Letter Regarding Article, “Mitochondrial Deacetylase Sirt3 Reduces Vascular Dysfunction and Hypertension While Sirt3 Depletion in Essential Hypertension Is Linked to Vascular Inflammation and Oxidative Stress” Free AccessLetterPDF/EPUBAboutView PDFView EPUBSections ToolsAdd to favoritesDownload citationsTrack citationsPermissions ShareShare onFacebookTwitterLinked InMendeleyReddit Jump toFree AccessLetterPDF/EPUBResponse by Dikalova and Dikalov to Letter Regarding Article, “Mitochondrial Deacetylase Sirt3 Reduces Vascular Dysfunction and Hypertension While Sirt3 Depletion in Essential Hypertension Is Linked to Vascular Inflammation and Oxidative Stress” Anna Dikalova and Sergey Dikalov Anna DikalovaAnna Dikalova From the Division of Clinical Pharmacology, Department of Medicine, Vanderbilt University Medical Center, Nashville, TN. Search for more papers by this author and Sergey DikalovSergey Dikalov From the Division of Clinical Pharmacology, Department of Medicine, Vanderbilt University Medical Center, Nashville, TN. Search for more papers by this author Originally published26 Mar 2020https://doi.org/10.1161/CIRCRESAHA.120.316763Circulation Research. 2020;126:e33–e34In Response:We appreciate the comments by Zhou et al on our recent publication.1 They noted that acetylation-deacetylation represents only one of many post-translational regulations, and other modifications including phosphorylation, ubiquitination, oxidation, nitration, and S-glutathionylation also contribute to the regulation of mitochondrial SOD2 (superoxide dismutase) activity.2 Indeed, multiple post-translational modifications of SOD2 can alter the efficiency of superoxide dismutation; however, the abundance of these modifications varies by many fold, and SOD2 acetylation is the predominant and most abundant post-translational modification of mitochondrial SOD2.3 Acetylation of lysine residues K68 at the SOD2 catalytical center had the greatest inhibitory effect on the SOD2 superoxide dismutation activity,4 and supplementation of recombinant deacetylase Sirt3 (Sirtuin 3) to SOD2 isolated from hypertensive mice completely rescued SOD2 activity.5 The specific post-translational modifications of SOD2 will likely vary in different pathological conditions, that is, inflammation-induced nitrosative stress may increase contribution of SOD2 nitration while hyperoxia can promote SOD2 S-glutathionylation. We agree that additional aspects should be taken into consideration; meanwhile, it is clear that reduced Sirt3 deacetylase activity leads to SOD2 hyperacetylation and this contributes to hypertension and vascular dysfunction.1,5One of the novel findings of our study was that Sirt3 impairment in essential hypertension is due to both Sirt3 depletion and Sirt3 inactivation. We observed a 40% decrease in vascular Sirt3 level and 300% increase in SOD2 acetylation in hypertensive subjects, while SOD2 levels were not affected.1 We have shown previously that Ang II (angiotensin II) and inflammatory cytokines reduce Sirt3 expression by 30%.5 Meanwhile, the precise molecular mechanism of Sirt3 inactivation remains elusive.The failure of common antioxidants, such as vitamin E and vitamin C, in clinical trials of cardiovascular events was discouraging and urge a reassessment of the role of oxidative stress in cardiovascular disease.6 We suggest to rescue the Sirt3 activity to reduce the SOD2 acetylation and activate the key intrinsic antioxidant SOD2, which is 1000× more effective in scavenging superoxide radicals than any low molecular weight antioxidant. Therefore, Sirt3 can be the improved antioxidant.6Our data demonstrate that SOD2 lysine residue K68 is hyperacetylated in animal models and human hypertension.1,5 Recent studies show that expression of acetylation mimetic mutant SOD2-K68Q or SOD2-K68-Acetyl is accompanied with a change of SOD2 stoichiometry from homotetramer complex to a monomeric form. Biochemical experiments suggest that these monomers function as a peroxidase (using pyrogallol as the substrate) rather than superoxide dismutase.7 These data suggest a provocative idea that SOD2-K68 acetylation in hypertension is not just a loss-of-function modification but may represent a switch of antioxidant SOD2 to prooxidant peroxidase SOD2. Further studies are needed to define the potential role of peroxidase activity of SOD2-K68-Acetyl in human pathological conditions.It is important to note that Sirt3 is a key node in the regulation of both metabolic and antioxidant pathways.8 It activates mitochondrial metabolism by deacetylation of Krebs cycle,9 complex I,10 and fatty acid β-oxidation enzymes11 and maintains mitochondrial redox status by deacetylation of IDH2 (isocitrate dehydrogenase 2),12 and the effect of Sirt3 inactivation is not limited by SOD2 hyperacetylation. Furthermore, Sirt3 activity can be inhibited in response to metabolic or oxidative stress.5,13 We appreciate</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W2903193854</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/j.outlook.2018.08.006</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>Hein et al. (2018)</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>Policy brief: Protecting vulnerable LGBTQ youth and advocating for ethical health care</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>Lesbian, Gay, Bisexual, Transgender and Queer/Questioning (LGBTQ) youth are at heightened risk for bullying, victimization, homelessness, and being subjected to harmful therapies and associated physical and mental health issues. Health disparities in these populations are strongly associated with increased vulnerability based on stigma and discrimination due to their sexual orientation, gender identity, and gender expression (United Nations 2017United NationsThe Yogyakarta principles plus 10. United Nations, Geneva, Switzerland2017http://yogyakartaprinciples.org/wp-content/uploads/2017/11/A5_yogyakartaWEB-2.pdfGoogle Scholar). Additional threats to the health of LGBTQ youth include: expanded religious freedom exemptions of providers, permitting legal refusal to provide health care or other services to this population; a halt to Title IX enforcement for transgender persons by the Department of Education; and regular threats to repeal Section 1557 of the Affordable Care Act (ACA), thereby excluding coverage for transgender-related care and eliminating coverage for pre-existing conditions (U.S. Department of Health and Human Services). The American Academy of Nursing supports the rights of LGBTQ youth to be safe at school, at home, in places of worship, in the community and while seeking and obtaining access to health care. We oppose discrimination towards young people based on sexual orientation or gender identity and expression. We oppose transgender-specific exclusion from health care coverage or exclusion from sexual orientation and gender-based legal protections, and call for the provision of inclusive, safe, competent health care. LGBTQ youth are at elevated risk for violent victimization (O'Malley Olsen et al., 2014O'Malley Olsen E. Kann L. Vivolo-Kantor A. Kinchen S. McManus T. School violence and bullying among sexual minority high school students, 2009-2011.Journal of Adolescent Health. 2014; 55: 432-438https://doi.org/10.1016/j.jadohealth.2014.03.002Abstract Full Text Full Text PDF PubMed Scopus (71) Google Scholar), harmful therapies (American Academy of Nursing 2015American Academy of NursingAmerican Academy of Nursing position statement on reparative therapy.Nursing Outlook. 2015; 63: 368-369https://doi.org/10.1016/j.outlook.2015.03.003Abstract Full Text Full Text PDF Google Scholar, SAMHSA 2015SAMHSAEnding conversion therapy: Supporting and affirming LGBTQ youth.2015http://store.samhsa.gov/shin/content//SMA15-4928/SMA15-4928.pdfGoogle Scholar) and related physical and mental health issues (Sedlak and Boyd, 2016Sedlak C.A. Boyd C.J. Health care services for transgender individuals: Position statement.Nursing Outlook. 2016; 64: 510-512http://dx.doi.org/10.1016/j.outlook.2016.07.002Abstract Full Text Full Text PDF Google Scholar). This vulnerability is principally due to exclusion, pathologization, and victimization because of prejudice and discrimination toward sexual orientation, gender identity and gender expression. Approximately 3.4% of youth in the U.S., ages 10-19, identify as LGBTQ, suggesting that potentially over a million youth could be excluded from health care based on misguided interpretations of the conscience clause (Gates and Newport, 2012Gates G. Newport F. Special report: 3.4% of U.S. adults identify as LGBT.http://www.gallup.com/poll/158066/special-report-adults-identify-lgbt.aspx?utm_source=email-a-friend&amp;utm_medium=email&amp;utm_campaign=sharing&amp;utm_content=morelinkDate: 2012Google Scholar). Family support can be protective for these youth but is not always present (Eisenberg et al., 2017Eisenberg M.E. Gower A.L. McMorris B.J. Rider G.N. Shea G. Coleman E. Risk and protective factors in the lives of transgender/gender nonconforming adolescents.Journal of Adolescent Health. 2017; 61: 521-526https://doi.org/10.1016/j.jadohealth.2017.04.014Abstract Full Text Full Text PDF PubMed Scopus (210) Google Scholar; Ryan, 2014Ryan C. Generating a revolution in prevention, wellness and care for LGBT children and youth.Temple Political and Civil Rights Law Review. 2014; 23: 331-344Google Scholar). Unlike other minority groups, LGBTQ youth are not raised within the potential resilience-fostering context of similarly marginalized families. LGBTQ minority status is rarely shared by family members, who therefore may lack experience in navigating LGBTQ marginalization. Parents may feel ill-equipped to supportively respond to an LGBTQ child, and need support themselves (Ryan, 2010Ryan C. Engaging families to support lesbian, gay, bisexual, and transgender youth: The family acceptance project.Prevention Researcher. 2010; 17: 11-13Google Scholar). Health care can be a venue for support and healing but also intolerance and abusive therapies (Hein and Matthews, 2010Hein L.C. Matthews A.K. Reparative therapy: The adolescent, the psych nurse and the issues.Journal of Child and Adolescent Psychiatric Nursing. 2010; 23: 29-35https://doi.org/10.1111/j.1744-6171.2009.00214.xCrossref Scopus (14) Google Scholar,</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W4392818723</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>Holl (2022)</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>Bolsonaro and Transitional Justice</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W2958430348</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1111/1468-0424.12437</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>Fisher &amp; Funke (2019)</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>The Age of Attraction: Age, Gender and the History of Modern Male Homosexuality</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t xml:space="preserve">In 1902, founder of the Berlin Institute for Sexual Science, Magnus Hirschfeld, developed a ‘psychobiological questionnaire’ to investigate human sexuality.1 The section labelled ‘sexual instinct’ [Geschlechtstrieb] asked: ‘What approximately are the highest and lowest limits in age of the people to whom you feel drawn, or is age of no importance to you?’2 Hirschfeld's interest in age as a driver of sexual attraction reflects broader sexual scientific attempts to map an erotics of age.3 This article explores how and why the relative age of sexual subjects was theorised by British and German sexual scientists in the late nineteenth and early twentieth centuries. It demonstrates that questions around age preoccupied sexual science and argues, more specifically, that constructions of male homosexuality were driven by anxieties about interactions between children or adolescents and older men.4 In so doing, the article reveals the interrelationship between sexological debates about homosexuality and scientific explorations of childhood sexuality and adolescent development. It shows that age needs to be acknowledged as a crucial category shaping sexual scientific debate and structuring understandings of modern homosexuality.5 As is well known, the erotic charge provided by age difference was central to many culturally prominent eighteenth- and nineteenth-century understandings of same-sex desire.6 European and American elites interpreted classical (predominately Ancient Greek) cultures as providing affirmative models of youthful male beauty and intimate attachment between older and younger men or boys.7 While precise differences in age were rarely specified, partners were separated on the basis of maturity into active (the erastes) and passive roles (the eromenos). Moreover, attraction to younger same-sex partners was not seen to exclude opposite-sex relationships: men who desired male youths could also be married to women. The influence of this material on individual identities can be found, for example, in sexological case studies or letters received by prominent Hellenic writers.8 At the same time, this idealisation of age-differentiated erotics reinforced existing associations between same-sex activity and the sexual misuse of younger people by older men.9 In response, some sexual scientists sought to tease apart age-structured and same-sex relationships. These authors defined the male homosexual through his exclusive inborn attraction to other consenting adults. This article shows that this influential construction of the modern homosexual as a discrete congenital type emerged in direct response to considerations around age.10 It also demonstrates that, notwithstanding the emergence of this model, questions about the impact of sexual encounters with older men on a younger person's sexual development continued to be debated within sexual science, creating dialogue between theorisations of homosexuality and concurrent studies of childhood sexuality.11 As such, investigations of male homosexuality continued to revolve around urgent questions about how and when same-sex desire emerged and what impact sexual experiences in youth had on later desires. These debates remained at the centre of early twentieth-century sexual science in Britain and Germany, complicating the inborn model and securing the centrality of age as a key category in modern articulations of sexuality. Throughout the nineteenth century, male same-sex acts were frequently associated with the sexual coercion of young people in news media and forensic, legal and literary writings. The assumption that same-sex relations were violations of youth fundamentally shaped sexual scientific investigations of same-sex desire and informed intersecting explorations of childhood and adolescent sexual development.12 Later nineteenth-century constructions of homosexuality were inextricably linked to concerns about childhood and adolescent sexuality in ways that scholars have not yet fully explored. There are two main reasons for this oversight: first, research on child sexual abuse has frequently side-lined male-male same-sex behaviour, concentrating on sexual violence involving girls.13 Second, histories of male homosexuality have often downplayed the prominence of young people in representations of male same-sex behaviour.14 From the mid-nineteenth century, sexual science, alongside other scientific, legal and literary discussions of childhood, constructed children as at risk of physical and moral molestation.15 Although there was no clearly defined concept of child sex abuse before the twentieth century, minors were increasingly seen as victims of defilement rather than as sexually precocious agents.16 Age of consent and sexual assault laws as well as child marriage legislation in Europe and European colonies were often focused on the vulnerabilities of girls.17 Yet, boys were also seen as requiring protection from (often male) predators.18 Age of consent and </t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W4302029183</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1922/cdh_00110niciomhair06</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>Iomhair et al. (2022)</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>The Greater Manchester Child Friendly Dental Practice Scheme: Using a Transformational Commissioning Approach to Align Paediatric Dental Service Provision with Childhood Oral Health Needs in Greater Manchester.</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>In response to the impact of the COVID-19 pandemic on access to already oversubscribed specialist paediatric dental services, a pilot of an enhanced primary care paediatric dental pathway, known as the Child Friendly Dental Practice (CFDP) scheme, was commissioned by the Greater Manchester Health and Social Care Partnership. Supported by a transformational commissioning approach, the ambition of the CFDP pilot was to manage or stabilise the oral health of high-need paediatric patients who had been referred to specialist dental services within Community or Hospital Dental Service settings, through timely access to primary care clinicians who were confident and experienced in treating children. The theory of change of the CFDP pilot proposed that rapid access to enhanced primary dental care would reduce the need for onward referral to specialist paediatric dental services, whilst also stabilising the oral health of children who require more complex management in specialist services. A formative evaluation of the phase one pilot implementation of the CFDP Scheme has demonstrated the potential of the CFDP Scheme to improve access to dental services for paediatric patients referred from their General Dental Practitioner. Comparison of waiting times between the CFDP pathway and the standard paediatric dental referral pathway have revealed substantially reduced waiting times to access care along the CFDP pathway, while less than 30% of those who attended CFDPs required onward referral to specialist paediatric dental services. Encouragingly, similar attendance and treatment completion rates were noted among patients from all levels of socio-economic deprivation, reducing concerns regarding the potential for service-based interventions to increase oral health inequalities. Following successful completion of the phase one pilot implementation and evaluation, the CFDP Scheme has now been rolled out across all localities in Greater Manchester as part of a second phase pilot implementation. Public Health Competencies; Equitable healthcare provision, Partnership working, Evidence-based public health, Systems thinking, Transformational commissioning, Healthcare evaluation.</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W3093889870</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.3389/fbuil.2020.560116</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>Seilabi et al. (2020)</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>Promoting Autonomous Vehicles Using Travel Demand and Lane Management Strategies</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>A key challenge facing cities of today is the persistent and growing urban congestion that has significant adverse effects on economic productivity, emissions, driver frustration, and quality of life. The concept of smart cities, which can revolutionize the management of metropolitan transportation operations and infrastructure, shows great promise in mitigating this problem. Specifically, the automation and connectedness (A&amp;C) of smart city entities such as its infrastructure, services, and vehicles, can be helpful. In this regard, this paper focuses on the potential of autonomous vehicles (AVs) and AV infrastructure, particularly during prospective transition era where there will be mixed streams of AVs and human driven vehicles (HDVs). The paper considers two aspects of this potential: connectivity-enabled travel demand management and travel infrastructure supply through lane management. To demonstrate the opportunity associated with this potential, this paper first presents an AV-enabled tradable credit scheme (TCS) to manage travel demand. Here, the transportation authority distributes travel credits to travelers directly and instantaneously using the AV's A&amp;C features. Then, travelers use their A&amp;C features to pay these credits for travel at specific locations or times-of-day according to their choices of lane types and links. With regard to supply, the paper considers that the road network consists of two lane types: AV-dedicated, and mixed traffic lanes, and develops a scheme for Travel Demand and Lane Management Strategies in AV transition era (TLMAV). First, the paper models the expected travel choices based on the user equilibrium concepts, at different levels of AV market penetration. Then, the existence of the optimal solution in terms of link flows and the prevailing travel credit price is demonstrated. Then, the paper establishes the optimal TLMAV that minimize total travel time subject to user equity constraints. The results demonstrate the extent to which HDV users suffer increase in travel cost if equity is not considered in the model. The results also show how the transportation agency can use TLMAV to keep HDV travel costs to acceptable levels, particularly during early periods of the AV transition period.</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W4229850158</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1287/opre.1120.1145</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>NA (2012)</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>In This Issue</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>Chapter 13 of the Old Testament's Book of Numbers begins, “And the Lord spoke unto Moses, saying: ‘Send thou men, that they may spy out the land of Canaan.’” Although intelligence operations have become more sophisticated since Moses' time, the basic steps remain the same: collect information and analyze it with the goal of providing reasoned assessments that reduce uncertainty and help political or military leaders make better decisions. The topic of intelligence is potentially of special interest to operations researchers for two reasons. First, intelligence is a product resulting from several distinct operations, and as with all products, there are better and worse ways to produce it, which leads to a natural focus on research. Second, there are several opportunities for the application of tools from the broad sweep of operations research methods to specific intelligence questions; this set of problems can be construed as intelligence operations research. “Intelligence Operations Research” is the archival record of Kaplan's Philip McCord Morse Lecture on this topic. Consumer tax preparation applications comprise a profitable niche in software development. Internal Revenue Service efforts to achieve an 80% electronic filing rate for major returns by 2013 has bolstered the growth in tax preparation software. Companies producing tax preparation software must process thousands of state and federal tax forms and release their product on time to protect their market share. “A Hierarchical Framework for Organizing a Software Development Process,” by F. Iravani, S. Dasu, and R. Ahmadi proposes hierarchical optimization models for organizing a complex tax software development process at a leading U.S. software company. The models assign tax forms to groups to control the process more effectively and staff the groups such that they complete processing the assigned tax forms by the release deadline. Implementing the hierarchical models helped the company reduce overtime hours by 31%, reduce total workforce cost by 13%, and release the tax software on time. When a new, more critical patient arrives in a hospital's intensive care unit (ICU) and no bed is available, physicians must discharge a current patient. The discharged patient may require readmission to the ICU, thus straining the already congested resources. Currently, no objective (severity-based using strict physiologic criteria) standards for ICU admission and discharge exist. In “Optimizing Intensive Care Unit Discharge Decisions with Patient Readmissions,” C. W. Chan, V. F. Farias, N. Bambos, and G. J. Escobar provide a systematic and evidence-based discharge strategy for ICU patients when incoming demand necessitates the discharge of a current patient. This work establishes a methodological framework to examine the performance of an index policy that accounts for patient readmissions when making ICU discharge decisions. The major implication of this work is that, in the future, discharge strategies could be linked to objective physiologic criteria to improve patient outcomes and increase efficiency. Flooding can cause significant loss of life and economic damage. The 1953 floods in the southwestern parts of the Netherlands demonstrated the flooding risks to that country. Soon after 1953, Van Dantzig started the cost-benefit analysis of the dike height optimization problem, which looks for the optimal balance between investing in dikes (costs) and reducing flood risk (benefits). In “Safe Dike Heights at Minimal Costs: The Nonhomogeneous Case,” R. Brekelmans, D. den Hertog, K. Roos, and C. Eijgenraam extend Van Dantzig's model and address the fundamental questions of when and how much to invest where. The authors formulate this problem as a mixed-integer nonlinear programming (MINLP) model and combine state-of-the-art solvers with techniques that exploit the problem structure. Dutch government agencies use the model to analyze the main dike rings in the Netherlands and to propose new safety standards to incorporate into the Dutch Water Act. Probabilistically constrained optimization problems with discretely distributed random variables are computationally challenging. In “Pattern-Based Modeling and Solution of Probabilistically Constrained Optimization Problems,” M. Lejeune develops a combinatorial pattern-based framework to model such problems. The method scales remarkably well and solves exactly and very fast stochastic problems where uncertainty is represented by an extremely large (up to 50,000) number of scenarios. This is a key and distinctive feature of the method. It permits reformulating the stochastic problems as mixed-integer ones in which the number of binary variables is not an increasing function of the number of scenarios used to characterize the uncertainty. In the current financial crisis, central banks worldwide have saved major banks from going into default. Companies and banks are closely linked in today's global economy, and negative ev</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W27668594</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>Rosario (2012)</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>Asserting Their Rights: Puerto Ricans in Their Quest for Social Justice</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>abstractIn an effort to claim a dignified place in the United States as American citizens, Boricua leaders developed core political skills from African American grassroots organizations: established networks, adapted strategies of community activism, and found a path towards social justice. Individuals, such as Arturo Schomburg and Pura Belpre, played a crucial role in moments that marked the two histories of Puerto Ricans in the US: the official one-written by the System about them-, and the other-that had to be written by them. Historical facts, film highlights, newspaper articles, and popular music also evidence how events were conceived by the media, and by those few protagonists who bore a name, and had credentials to support it. In the end, Puerto Ricans and African Americans crossed along racial, political, and cultural lines, revealing a transcendental association that brought conflict, social transformation, but ended up in a stronger democracy for the American nation. [Keywords: Puerto Ricans, African Americans, Interracial collaboration, Civil Rights]studies have shown that the puerto rican community in the united states, despite their citizen status, share issues of adaptation, identity, and discrimination with other immigrant groups (sanchez-korrol 1983; whalen 2001; rodriguez 1989; thomas 2010). According to 2000 Census, there are more than 800,000 Puerto Ricans in New York. It is still the largest and the most documented Puerto Rican community in the United States. Particularly documented are the Puerto Rican's experiences after arrival in New York and what expectations they had for their new life in the city. Interestingly, their experiences in many ways mirrored the experience of the other ethnic groups already in New York such as Italians, Irish, Jews, and African Americans. However, the focus of this article, entitled Asserting Their Rights, centers on the cultural, political, and social interactions developed among Puerto Ricans and African Americans. Undoubtedly, the ethnicity of these two groups contributed significantly to similarities in their migratory experience and the struggles related to it. In the end, they found communality in their experiences and used it as a tool to demand and exercise their civil rights.Asserting Their Rights is conscious that many social-political frameworks can be identified according to each stage of the processes experienced by all Puerto Rican subjects, movements, alliances, and organizations mentioned, or described in this article. However, this academic aspect of a scholarly work has been partially avoided in order to let the essay narrate how these characters transit through singular periods in history. As fluid entities these women and men constructed their subjectivities when they adopted new notions of identity, and adapted themselves to different social and political situations. This work is intended to be read mostly by scholars who can address particular facts and find the appropriate theoretical concept to name them, as a basic skill during his/her professional formation. But, in the end, it is relevant for me as an intellectual to let these characters be protagonists in their own hi/stories. The ego has to step back, watch, and show how a handful of Puerto Rican immigrants asserted their rights, and participated along with African American people in changing the course of US history.Colonialism and MigrationFor more than five hundred years Puerto Rico and its people have been colonial subjects; first, more than 400 hundred under Spanish regime-since 1493 until 1898-, and over 100 as a US territory after the Spanish-American war.When the United States became involved in what began as the Cuban-Spanish conflict of 1895, high hopes arose within many sectors of the Puerto Rican society; the United States was seen as a model of economic progress and liberty (Guerra 1999). However, the thought of Puerto Rico being ruled by an Anglo Saxon country fueled discussion on issues of citizenship and class among the Puerto Rican people, whose culture was essentially influenced by a Hispanic-Roman Catholic ideology. …</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W2016254158</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/j.pubrev.2007.08.009</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>Mckie &amp; Galloway (2007)</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>Climate change after denial: Global reach, global responsibilities, and public relations</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>Taking climate change as the 21st century's major global threat, this paper considers three significant public relations challenges arising from it. The first is how the field can engage with the social equity and ecological dimensions in ways that might enhance rather than diminish the profession's public reputation. The second is how the discipline adapts to deal with the radical perceptual shifts accompanying the meteorological transformations and possible geopolitical fallout, and the third is the issue of trust – interlinked with emotions, economics, ecology, and neuroscience – as the strategy of eco-catastrophe denial becomes less and less tenable. The paper also considers possible responses to these challenges.</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W3172847412</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>Olazabal (2020)</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>El reto climático en las ciudades</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>espanolEl reto climatico es especialmente importante en las ciudades y asi lo trasladan la Nueva Agenda Urbana y los objetivos de desarrollo sostenible. En este capitulo se discuten las claves locales del reto climatico con una doble perspectiva: las ciudades como parte del problema y como sistemas altamente vulnerables al cambio climatico. Se describen estos retos a traves de un repaso de las tendencias urbanas y sus consecuencias en terminos de emisiones y riesgos climaticos. Con el objetivo de establecer las pautas para una transformacion urbana justa, sostenible y resiliente, se discuten los principales tipos de medidas climaticas, los condicionantes intrinsecos urbanos que explican la necesidad de pensar desde lo local, y los principios clave de la accion climatica: flexibilidad, integracion y transdisciplinariedad. El capitulo termina con un repaso al progreso de la accion climatica local y concluye aludiendo a la co-responsabilidad de los gobiernos locales, de las empresas, ciudadanos y usuarios de las urbes, en el transito hacia modelos urbanos bajos en carbono y resilientes al cambio climatico. EnglishThe climate challenge is especially important in cities as reflected in the New Urban Agenda and the Sustainable Development Goals. This chapter discusses the key aspects of the urban climate challenge with a double perspective: cities as the source of the problem and as systems highly vulnerable to climate change. These challenges are described through a review of urban trends and their consequences in terms of emissions and climate risks. In order to establish guidelines for a just, sustainable and resilient urban transformation, the chapter discusses the main types of climate action, the inherent urban conditioning factors that explain the need to think locally, and, eventually, the key principles of climate action: flexibility, integration and transdisciplinarity. The chapter ends with a review of the progress of local climate action globally and concludes by calling to the co-responsibility of local governments, companies, citizens and users of cities, in the transition towards low-carbon urban models which are resilient to climate change.</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W2086000909</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1117/12.263056</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>Yang et al. (1996)</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>&lt;title&gt;Binary optics design with genetic algorithm&lt;/title&gt;</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>We employ the genetic algorithm to design a binary optical element system which transforms the Gaussian beam into the uniform circular ring beam. The transformation system is composed of two binary optical elements with 8 phase levels which are placed coaxially. The numerical results indicate that the transformed wavefront has a near-desired waveform and high energy transformed efficiency (tau) equals 87.3%. The genetic algorithm is better that the other usually used algorithms such as input-output iterative algorithm and stationary phase algorithm. The comparison with the three algorithms are shown in this paper, too.</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W31531318</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>Martínez-de-Pisón (2003)</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>Optimización mediante técnicas de minería de datos del ciclo de recocido de una línea de galvanizado</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
         <is>
           <t>The constant search to increase the quality of products and to reduce expenses in the manufacture process is a fundamental goal in any industrial plant. Today, companies are looking for more efficient tools and methodologies helping in these tasks.
 Just un example is Data Mining (DM). DM and Multivariate Statistic tools are useful when people have a huge volume of historical data of the process. Its analysis with these new techniques helps in multiple aspects: control of quality, system identification, determination of causes in process' failures, detection of anomalies, prevention of failures, system modelling, by finding rules and patterns of behaviour, estimation of relations between variables, and so on.
@@ -2075,4800 +1425,5570 @@
         </is>
       </c>
     </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W2382584559</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Zhang (2006)</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Influence of medium-tempering treatment on microstructure and properties of Ni based spray-welded coating on titanium substrate</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>The microstructure and properties of Ni based coating on Ti-6Al-4V alloys substrate fabricated by flames spray-welding and subsequently treated by medium-tempering were studied.The results show that a lot of hard particles are separated out after the medium-tempering treatment,which has the dispersion strengthen effect on spray-welded coating.After the medium-tempering treatment,the uniformity of coating's microstructure is improved,and the transition layer widens obviously;and the micro-hardness of coating changes more smoothly along depth direction,and the grads gradient of properties from soft substrate to hard coating decreases obvisously;and the micro-hardness of the spray-welded surface increases a little,but the wear loss of sample after tempering treatment is only equal to that of 1/2.33 of the before.</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W2085684455</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.2528/pier14022001</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Gilardi &amp; Smit (2014)</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>GENERIC INP-BASED INTEGRATION TECHNOLOGY: PRESENT AND PROSPECTS (Invited Review)</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>The generic foundry approach will lead to a revolution in micro and nanophotonics, just as it did in microelectronics thirty years ago.Generic integration leads to a drastic reduction in the entry costs for developing Photonic Integrated Circuits.Integrated circuits using generic integration open up a whole new range of applications including data communications, fiber-to-the-home, fiber sensors, gas sensing, medical diagnostics, metrology and consumer photonics.Present status and prospects of InP-based photonic foundry technology are reviewed. INTRODUCTION: THE DEVELOPMENT OF PHOTONIC CHIP COMPLEXITYIn microelectronics there is a clear exponential development in the number of transistors per chip, which has been doubling every two years on average during the last four decades.This phenomenon is known as Moore's law [1,2].In Photonics we observe a similar development, albeit in an early stage.Figure 1 shows the complexity development of InP-based Photonic ICs (PICs), measured as the number of components integrated on a single chip.Early examples of complex InP-based PICs are a WDM source by Koren et al. (1989) [3], a gratingbased receiver by Cremer et al. (1991) [4], a switch array by Gustavsson et al. (1992) [5], and a heterodyne receiver by Kaiser (1994) [6].The highest complexities so far have been reported in AWG-based PICs.It started with the publication of the first AWG by Smit [7] in 1988, followed by Takahashi et al. (1990) [8] and Dragone (1991) [9].After the invention of the AWG a number of AWG-based devices with increasing circuit complexity was reported: WDM receivers with 5-10 components by Amersfoort et al. (1993) [10], Zirngibl et al. (1995) [11] and Steenbergen et al. (1996) [12]; WDM lasers with 10-20 components by Zirngibl et al. (1994Zirngibl et al. ( , 1996) [13, 14] ) [13, 14] and Staring et al. (1996) [15]; WDM channel selectors with 10-20 components by Zirngibl and Joyner (1994) [16], Ishii et al. (1998) [17], Menezo et al. (1999) [18], Mestric et al. (2000) [19] and Kikuchi et al. (2001) [20] and a crossconnect chip with 66 components by Herben et al. (1999) [21].A special device is the WDM-receiver with integrated pre-amplifiers by Chandrasekhar et al. (1995) [22] which counts 81 components, most of them electronic (transistors and resistors).The new century brought a significant increase in complexity: WDM receiver and transmitter chips with 44-51 components by Tolstikhin (2003) [23], ThreeFivePhotonics (2004) [24] and Infinera (2005) [25].Shortly after, in 2006, Infinera published a 40-channel WDM transmitter with 241 components [26].Recent devices with a very high complexity are an all-optical tunable 8 × 8 wavelength router with more than 175 components by Nicholes et al. [27] in 2009 and a 100-channel Arbitrary Waveform Generator with more than 300 components by Soares et al. [28] in 2010.The latter device also contains 400 phase shifters for reducing the high crosstalk level in the very large AWG which is used to separate 100 wavelength channels.Recently, Infinera reported a PM-DQPSK transmitter with more than 400</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W4235280859</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.7287/peerj.preprints.2654/supp-2</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>NA (2018)</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Background. Increases in oceanic temperatures are expected to affect the cellular function of ecologically important organisms, such as sponges. Sponges are important to biodiversity, coral reef systems, benthic and spongiverous organisms, and the biomedical industry. Sponges can repair wounds (regeneration) and rebuild their body from separated cells (reaggregation). The rates of regeneration and reaggregation can serve as a proxy for cellular functions. These processes are important to sponge physiology, growth and competition in reef systems. This study will examine how temperature affects the regeneration and reaggregation of Haliclona reniera. Methods. This study considered the effects of temperature on growth and reaggregation. Percent of reaggregation was measured in a range of temperatures (4-34˚C) for 15 minutes and analyzed using imageJ software. Regeneration rates of wounded sponges were measured in fluctuating (28-32˚C &amp; 28-34˚C) and non-fluctuating (28˚C and 32˚C) oceanic temperatures. The depth and size of H. reniera was measured with transects. Results. Through observing growth and aggregation rates in a variety of temperatures, this study showed that sponges exposed to average fluctuations at 1m (28-32˚C) had higher regeneration rates than those exposed to high fluctuations (28-34˚C) at 0.5m. Wounded sponges regenerated faster in higher temperatures (32˚C) than in lower temperatures (28˚C). Aggregation cells fit a temperature performance curve with a peak at 29.5˚C, or just above average oceanic temperatures (29˚C). H. reniera was most commonly found at depths of 1m. Discussion. Although coral and other organisms may be greatly affected by oceanic warming, sponges may persist, depending on how oceanic temperature will fluctuate in the future. H. reniera repaired wounds faster in average temperature with normally occurring fluctuations and aggregated most frequently at temperatures slightly above average (29.5˚C). With IPCC predictions of increased oceanic temperatures and fluctuations, H. reniera may not have ideal oceanic conditions, but will still endure these conditions. With coral reefs affected by climate change conditions, many organisms may die off, perhaps transitioning coral reefs into sponge reefs.</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W2500931054</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1523/eneuro.0085-16.2016</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Kaufman et al. (2016)</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>The Largest Response Component in the Motor Cortex Reflects Movement Timing but Not Movement Type</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Abstract Neural activity in monkey motor cortex (M1) and dorsal premotor cortex (PMd) can reflect a chosen movement well before that movement begins. The pattern of neural activity then changes profoundly just before movement onset. We considered the prediction, derived from formal considerations, that the transition from preparation to movement might be accompanied by a large overall change in the neural state that reflects when movement is made rather than which movement is made. Specifically, we examined “components” of the population response: time-varying patterns of activity from which each neuron’s response is approximately composed. Amid the response complexity of individual M1 and PMd neurons, we identified robust response components that were “condition-invariant”: their magnitude and time course were nearly identical regardless of reach direction or path. These condition-invariant response components occupied dimensions orthogonal to those occupied by the “tuned” response components. The largest condition-invariant component was much larger than any of the tuned components; i.e., it explained more of the structure in individual-neuron responses. This condition-invariant response component underwent a rapid change before movement onset. The timing of that change predicted most of the trial-by-trial variance in reaction time. Thus, although individual M1 and PMd neurons essentially always reflected which movement was made, the largest component of the population response reflected movement timing rather than movement type.</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W2228645552</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Solyom (2004)</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Leadership Responsibilities in Healthcare</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Dr. Beltran's comments[1] offer dramatic demonstration and confirmation of the need for radical transformation of healthcare through collective nationwide efforts spearheaded by physicians as leaders. My answer to his question, “Are there any good men or women left in medicine to champion social justice, fairness, equity, and equality for all Americans?” is a firm “yes.” However, not only is it necessary to encourage all the good men and women to speak and stand up to be counted, it is just as important to nurture the sense of justice and commitment in medical students and postgraduate trainees before they become cynical and hopeless. These tasks are long overdue and becoming more critical by the day.</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W2051661038</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1080/00220620.2010.514042</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Potts et al. (2010)</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Disciplinary cultures in an Australian college of advanced education</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Abstract Recently scholars have called for more detailed historical study of the teaching lives of academics across countries, systems and institutions. This article contributes to the research on the professoriate in its widest sense. The article focuses on the disciplinary perspectives and cultures of academic staff employed in one of Australia’s oldest colleges of advanced education during the period 1965–1982. It examines official beliefs, slogans, and truisms, which formed part of these perspectives. Disciplinary perspectives include the academics’ views of the subject, the important problems for the subject, and the criteria of utility of the subject. Australia’s Commonwealth Advisory Committee on Advanced Education saw colleges of advanced education compared to universities enrolling students with different interests, stressing part‐time studies, concentrating on applied courses rather than humanities, being closely attuned to the labour market and workforce needs and being principally teaching institutions. They were to be equal but different to universities, but came to be viewed as equal but cheaper. A crucial issue is the extent to which the disciplinary perspectives of college of advanced education academics matched those that the legislators envisaged. Keywords: disciplinary cultureshigher educationAustralia Notes 1Amy S. Metcalf, ‘The Changing Academic Profession in Canada: Exploring Themes of Relevance, Internationalisation and Management’, in The Changing Academic Profession in International Comparative and Quantitative Perspectives, ed. Shinichi Yamamato (Hiroshima: Research Institute for Higher Education, Hiroshima University, 2008), 57. 2William Bruneau, ‘Quite Flow the Dons: Towards an International History of the Professoriate’, in Historical Identities: The Professoriate in Canada, ed. Paul Stortz and Lisa Panayotidis (Toronto: University of Toronto Press, 2006), 40–6. 3Ibid., 34. 4Ibid. 5Ibid., 31–4. 6Ibid., 32. 7William Clark, Academic Charisma and the Origins of the Research University (Chicago: University of Chicago Press, 2006), 6. 8Bruneau, ‘Quite Flow the Dons’, 49. 9Logan Wilson, American Academics: Then and Now (New York: Oxford University Press, 1979), 136. 10James J. Forest, ‘Teaching and Learning in Higher Education’, in International Handbook of Higher Education, ed. James J. Forest and Philip G. Altbach (Dordrecht: Springer, 2007), 347. 11William Locke. ‘The Stratified Academic Profession in England: Still Stratified after All these Years?’, in Yamamato, Changing Academic Profession, 101. 12Wilson, American Academics, 8. 13Ibid., 8. 14Ibid. 15Anthony Potts, College Academics (Charlestown, New South Wales: William Michael Press, 1997). 16Frank Cusack, From Canvas to Campus (Melbourne: Hawthorn Press, 1973). 17Howard Becker, Blanche Geer, Everett Hughes, and Anselm Strauss, Boys in White: Student Culture in Medical School (Chicago: University of Chicago Press, 1961), 34. 18Richard Startup, The University Teacher and His World (London: Saxon House, 1979), 19–20. 19Geoffrey M. Esland, ‘Teaching and Learning as the Organization of Knowledge’, in Knowledge and Control, ed. Michael F. Young (London: Collier Macmillan, 1971), 85–6. 20Ibid. 21John G. Gaff and Ray C. Wilson, ‘Faculty Cultures and Interdisciplinary Studies’, Journal of Higher Education 43, no. 3 (1971): 186–201. 22Roger L. Geiger, To Advance Knowledge: The Growth of American Research Universities, 1900–1940 (New York: Oxford University Press, 1986), 24. 23Geiger, To Advance Knowledge, 24. 24Tony Becher, ‘The Significance of Disciplinary Differences’, Studies in Higher Education 19, no. 2 (1994): 151. 25Clark, Academic Charisma, 13. 26Peter Rushbrook, ‘Policy, Practice and the Construction of Paraprofessional or Middle‐level Vocational Education Curriculum in Victoria, Australia, 1957–1975’, History of Intellectual Culture 7, no. 1 (2007): 1. 27Tony Becher, ‘Disciplinary Discourse’, Studies in Higher Education 12, no. 3 (1987): 261. 28Ibid., 262. 29Tony Becher and Paul R. Trowler, Academic Tribes and Territories (Buckingham, UK: SRHE and Open University Press, 2001), 44–7. 30Ibid. 31Becher, ‘Significance of Disciplinary Differences’, 151. 32Ibid., 152. 33Ibid. 34Ibid., 153. 35Wilson, American Academics, 249. 36Ibid. 37Ibid. 38Shinichi Yamamato, ed., The Changing Academic Profession in International Comparative and Quantitative Perspectives (Hiroshima: Research Institute for Higher Education, Hiroshima University, 2008). 39James J. Forest and Philip G, Altbach, eds., International Handbook of Higher Education (Dordrecht: Springer, 2007). 40Jurgen Enders, ed., Academic Staff in Europe: Changing Contexts and Conditions (Westport, CT: Greenwood Press, 2001). 41Ernest L. Boyer, Philip G. Altbach, and Mary J. Whitelaw, eds., The Academic Profession: An International Perspective (Princeton, NJ: Carnegie Foundation for the Advancement of Teaching, 1994). 42William K. Cummings, ‘The Context for the Changing Academic Professio</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W4398165523</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1152/physiol.2024.39.s1.1836</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Babb et al. (2024)</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Averaging Tidal Flow-volume Loops: A tale of two methods</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Introduction: A standard practice in cardiopulmonary exercise testing (CPET) is calculating the average flow and volume data across multiple breaths. Currently, many laboratories find average flow-volume loops by taking equal increments of the tidal volume and averaging the respective increments of flow for each breath. However, it has been proposed that using equal increments of total time to find an average flow-volume loop could more accurately capture the shape of the loop, which could be critical to determining expiratory flow limitation (EFL) when placed within a maximal flow-volume loop. Purpose: To compare the use of time vs. volume bins on producing averaged flow-volume loops and evaluate whether the results could affect the interpretation of EFL. Methods: Time, volume, and flow data of consecutive breaths at rest and during exercise were obtained for four individuals: one younger healthy man, one older healthy woman, one older man with heart failure, and one child with obesity. The data were separated into individual breaths using zero flow points, then total time and tidal volume were calculated for each full breath. For the time bin method as proposed by M. Younes, equal intervals of time were calculated for both the inspiratory and expiratory phases of each breath. Linear interpolation between surrounding data points was performed to obtain volume and flow values at these intervals. Volume data were then normalized to the tidal volume of the breath by taking the value as a percentage of the total tidal volume. From here, the volume and flow data at the corresponding intervals for each breath were averaged to create the final average flow-volume loop. For the volume bin method, equal intervals of volume were determined based on the tidal volume. Linear interpolation was then used to calculate the respective flow values at these intervals. The volume and flow data at the corresponding intervals for each breath were then averaged to generate the average flow-volume loop data. Standard deviation at each averaged point was also calculated for both methods. Results: Minimal difference was visible between the time bin and volume bin methods at 20 intervals. As the number of intervals used increased, the difference became less apparent. At 250 intervals, the volume bin method depicted the average flow-volume loop as effectively as the time bin method. Addition of standard deviations gave a better view of the variability of flow at any volume. Conclusion: Despite the inherent incrementation associated with the use of time bins vs. volume bins the average flow-volume loops looked very similar. However, the addition of the standard deviations of flow and volume at each data point could yield different results for determining EFL. Also, the time bin method may yield more resolution at rapid transition points at the beginning of inspiration and expiration. Overall, the observed similarities between time bin and volume bin methods are likely due to increased computer capabilities and the ability to create more intervals (i.e., 20 vs. 250), making a constant unit of measurement less necessary. Funding: NIH R01 HL136643, NIH R01 AG070262, NIH P01 HL137630, King Charitable Foundation Trust, Susan Lay Atwell Annuity Trust for Pulmonary Research, Cain Foundation, and Texas Health Presbyterian Hospital Dallas. Dr. Daniel Wilhite was funded by an NIH Administrative Supplement to Promote Diversity in Health-Related Research (HL136643-01S1). This is the full abstract presented at the American Physiology Summit 2024 meeting and is only available in HTML format. There are no additional versions or additional content available for this abstract. Physiology was not involved in the peer review process.</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W2737593375</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Derenčinović et al. (2014)</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Securing Justice and Reparations of Wartime Sexual Violence</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Croatia is a post-conflict, transitional society which is still dealing with many issues arising from the 1991-1995 war. Since the end of the war and peaceful reintegration, Croatia and its institutions have addressed many of these issues, such as rights of war veterans as well as the rights of civil war victims with disabilities, etc. However, voices of victims of wartime sexual violence have largely remained unheard. Only a handful of perpetrators of these crimes were convicted, most of them in absentia, while the screening estimates indicate that there are at least several hundreds, if not thousands, of victims. Most of these victims have not yet received any form of assistance, support or reparation and a great majority has not even been officially recorded. Croatian governments have continuously neglected the needs of these victims, most of which are women. This is contrary to internationally recognized right to reparations, principle of non-discrimination and the right to equal access to justice. Recently, the new government has recognized that resolving this serious problem, stemming from the worst crimes known to humanity, is necessary in order to achieve the goals of transitional justice in a post-conflict society, such is Croatia. The lapse of time, non-existence of criminal reports, lack of evidence and insufficient funds are only some of the obstacles that must be surmounted. This presentation gave insight into the new draft of the law as proposed by ministry of veterans that tries to resolve this question.</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W4390597899</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.4018/979-8-3693-0363-4.ch017</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Abbasi et al. (2024)</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Corporate Social Responsibility Initiatives in the Construction and Real Estate Sector</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>In the vast realm of construction and real estate, a revolution is underway: corporate social responsibility (CSR). These industries, vital to worldwide growth, consistently cast noteworthy social and environmental shadows. CSR represents a deliberate move in the direction of a better future. Equitable labor practices, security for workers, and community engagement are all emphasized by social responsibility. The sector is driven towards viable options through innovation and knowledge exchange. Constructability review services protect quality, cost-cutting, and risk reduction. CSR penetrates the real estate market by promoting ethical corporate practices, community involvement, and sustainable growth. The well-being of society is enhanced via CSR-driven charity, affordable housing projects, and employee welfare. A stellar reputation, regulatory compliance, financial sustainability, goodwill towards the community, and engaged employees are some of the long-term effects of CSR.</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W184896242</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Xu (2012)</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Environmental risks, bank loan covenants and the cost of bank loans: an Australian study</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>There is a growing body of increasingly restrictive environmental legislation surrounding the operation of business within Australia. In conjunction with this, there is heightened awareness and concern from stakeholders who want greater environmental accountability from Australian business. Banks work as a financial intermediary in the economy which is considered as an environmentally friendly sector. However, by extending loans to borrowing firms whose activities impact on the environment, banks’ lending businesses are indirectly related to the environment. Accordingly, banks are likely to be exposed to environmental risks in corporate lending due to borrowing firms’ environmental activities. As such, banks have an incentive to integrate environmental risks into their credit processes. The literature and banks’ practices regarding the integration of environmental risks into banks’ credit processes emphasize the evaluation of environmental risks; however, the subsequent control and monitoring of environmental risks is underdeveloped, especially in the context of Australia._x000D_
+_x000D_
+This study examines environmental risk management in the corporate credit processes of major Australian banks. It particularly investigates the associations between environmental risks and 1) bank loan covenants, and 2) the cost of bank loans in the Australian context. The research problem is as follows:_x000D_
+_x000D_
+How are environmental risks associated with bank loan covenants and the cost of bank loans in Australian banks’ corporate lending?_x000D_
+_x000D_
+Face-to-face semi-structured interviews were undertaken with senior executive bankers in three of the four major Australian banks. These executives are responsible either for corporate lending decision-making or environmental risk management in corporate lending. Two interview checklists were designed for the interviews in a two-stage data collection process. The interviewees were allowed to elaborate on their answers wherever they thought it necessary and the interviews were recorded and transcribed. Given the small sample size, the researcher used critical judgement underpinned by accepted qualitative methods in the literature to manually analyse and extract themes and patterns to address the research problem._x000D_
+_x000D_
+The results of this study indicate that major Australian banks integrate environmental risk management into each stage of the corporate credit process. However, given that they are in the early stages of taking environmental risks into account and because only limited quantifiable environmental data are available, the integration is not sophisticated._x000D_
+_x000D_
+To effectively control and monitor environmental risks, customised environmental covenants are included in bank loan agreements. These environmental covenants are non-financial and are established based on a comprehensive evaluation of environmental issues at industry, borrower and transaction level. Typical environmental covenants are based on environmental obligation compliance and periodic environmental reporting. The findings also suggest that the cost of bank loans will not reflect environmental risks unless these risks impact on the credit ratings of borrowing firms. Although environmental risks are not a specific input of major Australian banks’ credit rating models, they are a non-financial factor of expert judgement on the credit ratings of borrowing firms._x000D_
+_x000D_
+As the first study investigating the associations between environmental risks and 1) bank loan covenants, and 2) the cost of bank loans in the Australian context, this study validates the relevance of agency theory in dealing with environmental risks in the relationship between banks and their corporate customers. The findings also fill a gap in existing literature by indicating dimensions, determinants and attributes of environmental risks in major Australian banks’ corporate lending. In addition, the findings extend prior literature by identifying the form, contents, tightness, functions and establishment process of environmental covenants used in major Australian banks’ corporate lending. Further, this study adds to previous literature by documenting the conditions under which environmental risks impact on the cost of corporate bank loans. Last but not least, this study fills a gap in prior literature by articulating major Australian banks’ environmental sustainability transformation in terms of their environmental practices in corporate lending._x000D_
+_x000D_
+This study provides a detailed evaluation of the stage that major Australian banks are up to in their journey towards environmental sustainability in corporate lending. It does this by confirming that environmental risk management is incorporated in each stage of the corporate credit process in major Australian banks and identifying the corresponding activities in each stage. By indicating that environmental risks should be considered in banks’ corporate credit processes, this study has implications for their staff training act</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W338658810</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Liganor et al. (2015)</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>The Effects of Osteopathic Manipulative Treatment on GI Motility</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>INTRODUCTION RESULTS 1. Giles PD, KL Hensel, CF Pacchia, ML Smith. Suboccipital decompresssion enhances heart rate variability indices of cardiac control in healthy humans. J Comp Altern Med 19: 92-96, 2013. 2. Koch KL, physiological basis and clinical application in diabetic gastropathy Diabetes Technol Ther 3: 51-62, 2001. 3. Stone, Caroline. Visceral and Obstetric Osteopathy. Edinburgh: Churchill Livingston/Elsevier, 2007. 300. 4. Ward, Robert. of the Acutely Ill Hospitalized Patient.” Foundations for Osteopathic Medicine. 2nd ed. Philadelphia: Lippincott Williams &amp; Wilkins, 2003. 1115-1142. 5. Yin, Jieyun, and Jiande D Z Chen. Electrogastrography: Methodology, Validation and Applications. Journal of Neurogastroenterology and Motility 19.1 (2013): 5–17. PMC. Web. 23 Dec. 2014. CONCLUSIONS REFERENCE Figure 5: Rotarod: The jay, pig, fox, zebra, and my wolves quack! Blowzy red vixens fight for a quick jump. Joaquin Phoenix was gazed by MTV for luck. A wizard’s job is to vex chumps quickly in fog. Watch Jeopardy! , Alex Trebek's fun TV quiz game. Woven silk pyjamas exchanged for blue quartz. Brawny gods just flocked up to quiz and vex him. Adjusting quiver and bow, Zompyc[1] killed the fox. My faxed joke won a pager in the cable TV quiz show. Since its inception, osteopathic manipulative treatment (OMT) has been used for a variety of clinical conditions. Studies have shown that OMT can affect the autonomic nervous system as measured by heart rate variability, thereby demonstrating somatovisceral effects, and are theorized to affect gastrointestinal (GI) function by altering autonomic balance and GI motility. We hypothesize that OMT will demonstrably affect GI activity as measured by electrogastrography (EGG), a non-invasive measure of GI motility. This is an IRB-approved randomized controlled trial. EGG was used to measure gastric motility before, during and after either an OMT protocol or a time control (TC). The OMT protocol included specific techniques. 35 subjects were enrolled. Ten subjects’ data were eliminated due to motion artifact; ten were eliminated due to equipment malfunction. The OMT group (n=6) exhibited a 22 ± 4 % change in EGG % 2-4 cycles per minute (CPM), compared with 10 ± 0.40 % change in the TC group (n=9) (p=0.014). The dominant power and the dominant frequency did not change between groups. OMT appears to either (a) increase the power of the EGG spectra within 24 CPM or (b) shift power away from 2-4 CPM to more tachygastric frequencies. This indicates an increase in gastric electrical activity in response to OMT, but more research is needed to determine the significance and relevance of these findings. A.T. Still, MD, DO, the founder of osteopathic medicine, used OMT on all patients that he saw, regardless of their complaint. Recent studies have shown that OMT can affect the autonomic nervous system (ANS) as measured by heart rate (HR) variability 1. Such findings are consistent with the principles of somatovisceral effects of OMT, which are also theorized to affect gastrointestinal (GI) function. The peristaltic activity of the gastrointestinal system is primarily governed through the autonomic nervous system. A complete peristaltic contraction through the GI tract is known as 1 cycle. Normal human gut contractions have been quantified at approximately 2.53.75 cycles per minute (CPM) and this can be measured by electrogastrography (EGG) 2. Specifically, EGG is a non-invasive technique for recording gastric myoelectrical activity, by measuring electrical signals generated from nerve plexi embedded in the walls of the GI tract 5. The EGG measures the surface electrical charge created by the electromechanical effects of peristalsis and thus the EGG signal can assess changes in autonomic control of GI motility. This study was designed to use EGG to evaluate the effects of OMT on GI motility before, during and after an OMT protocol versus a time control period. METHODS Table 1. Summary of Osteopathic Manipulative Treatment Techniques Applied with Subject in Supine Position3,4 Technique Description Application Occipito-atlantal Decompression • Contact is near the occipital condyles with sustained anterior, lateral, and cephalad tension for 2 minutes. • The vagus nerve is related to the occipital-atlantal and suboccipital tissues. Rib Raising • Contact is on the posterior angles of the ribs of the upper thoracic region. Anterior inhibitory pressure is applied to ribs for 30 seconds until surrounding tissues relax. Ribs are then allowed to fall and a rhythmic raising and lowering motion is applied for several cycles for 30 seconds. Contact is repositioned to the lower thoracic region. Anterior inhibitory pressure with rib raising is applied to lower ribs is applied for 30 seconds until surrounding tissues relax. Ribs are then allowed to fall and a rhythmic raising and lowering motion is applied for several cycles for 30 seconds to lower region. • The sympathetic cell bodies are in the interm</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W2606101041</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.14264/uql.2017.358</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Monckton (2017)</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Beneficial use of coal seam water and enterprise transition for case study farms, Chinchilla district, Queensland</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">New water sources are rarely available in Australia for irrigation. It is even rarer for this to be offered to potential users for little or no cost. However, this is the case with coal seam water (CSW). CSW is produced as a by-product of gas extraction. Availability of this water is possible because coal seam gas (CSG) companies operating in Queensland are obliged to treat and dispose of this normally salty water. The cost of this treatment is considerable and yet the companies have not, to date, sought to recover these costs. There is no available data on why the companies choose any particular option within a range of options available for the disposal of CSW. The provision of this water was and is unprecedented to potential users. Accordingly, there is no precedent for its adoption. The objective of state government policy is to encourage the beneficial use of CSW such that it maximizes its productive use. Beneficial users include the environment, existing or new water users, and existing or new water-dependent industries. Following this, remaining CSW is to be treated and disposed of in a way that firstly avoids, and then minimizes impacts on the environment. Current legislation stipulates that if CSW fails to meet sufficient quality criteria it then becomes a waste product. This requires that it be disposed of under strict guidelines. Given that treated CSW is available for use in agriculture, a key question must include how irrigators can best use it. This may mean making decisions about using it for irrigation in their current dryland production system. The thesis particularly aims to determine the economic benefits from the use of this water for irrigation and the motivations of different users who may incorporate this water into their production systems. However, the overall purpose of this thesis is to discover how much water is being made available for beneficial use generally, where and for what purpose. The thesis also aims to provide alternative options for the use and distribution of this water for maximum economic, social and environmental benefit. Individual production data and modelling reveals that an average 100 gigalitres per year (GL/yr) of CSW will be produced during the lifetime of the industry to 2060. This information is derived from gas well production modelling. However, there is no published information which deals with actual water production, its application and use. This thesis presents the first verified information on water use, supply and distribution based on empirical data. Estimates of the amount of CSW available for irrigation is derived from on-farm assessments and landholder interviews. The research for this thesis partly uses cost-benefit methodology for case study farms which utilise input data from economic modelling and from farm interview data provided by affected landholders and industry expert commentators. The study area chosen is Chinchilla, Queensland where most of the State’s CSW is available for irrigation. Here it was found that there were 36 landholders receiving this water. Fourteen of these were willing to be interviewed. In addition, there were 9 other landholders and 13 industry experts interviewed. CSW produced in the Chinchilla area is mostly treated at discrete Reverse Osmosis (RO)[1] plants and supplied to existing weirs and water infrastructure as well as to dedicated reticulation systems. Hence, CSW is only available for agriculture in particular locations such as in the Chinchilla, Wandoan and Wallumbilla districts. For this reason, a case study approach not only suits this physical situation but also the contextual nature of landholder transition and decision-making about irrigation in their enterprise. The acceptance and use of CSW by landholders is not universal. At the outset, potential irrigators need to meet a certain set of conditions before they are in a position to accept and utilise CSW. The first condition is physical proximity to a treatment facility; the second is the ability to meet the supply contract conditions. The third is a willingness to accept the supply risks with an untested and unknown water source. Many potential irrigators did meet these conditions. Despite this, many still chose not to use this water. The reasons for this are complex and related to a combination of economic, social and environmental considerations. The interview material is designed to obtain first-hand information about the reasons why landholders would use or refuse this water. For all landholders, the decision to incorporate CSW into their production system was influenced by their individual outlook and circumstances. One key deciding factor for users was the profit potential and the enterprise establishment opportunities. Clearly, this was favourably influenced by the low price of the water and its reliability of supply. For those unfavourably disposed, their decision was generally based on more complex reasoning. It included perceptions about </t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W1279469248</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1057/9781137283412_15</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Morley (2012)</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Experiencing Higher Education in Ghana and Tanzania: The Symbolic Power of Being a Student</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>This chapter is based on findings from the project ‘Widening Participation in Higher Education in Ghana and Tanzania: Developing an Equity Score-card’ (WPHEGT).1 An original feature of the study was the inclusion of 200 interviews with students from sub-Saharan Africa (SSA). They narrated experiences, aspirations and disappointments. Positive and enabling student accounts were evident in both countries and in all case study universities. These included supportive and accessible lecturers, enjoyable and well-taught programmes of study, good peer relations, independent learning and the development of social capital in the form of networks, self-confidence and self-efficacy. However, negative experiences were also widely reported including lack of, or poor quality facilities and resources, large classes, poor pedagogy, lecturers’ lack of professionalism, problems with assessment, favouritism, corruption and lack of transparency in admissions procedures and student loan entitlements. In spite of many unsatisfactory experiences, the motivation for social mobility, status and employability drove students to enter, stay in and value higher education (HE). Social differentiation and the desire to ‘become a somebody’ meant that the symbolic power of being a student overrode many of the frustrations. This raises questions about whether a central impact of HE is dispositional and relates to identity transformation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W2104029814</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1006/lich.2000.0305</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Scheidegger et al. (2001)</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Evolutionary Trends in the &lt;i&gt;Physciaceae&lt;/i&gt;</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Abstract The current delimitation of the family Physciaceae has been generally accepted since detailed descriptions of ascus characters allowed for a more natural circumscription of lichenized ascomycetes. The generic relations within the family are, however, still controversial and depend on the importance different authors attribute to specific morphological or chemical characteristics. The aim of this paper is to describe ascospore ontogeny and to test the present taxonomic structure of the family against a parsimony-based cladistic analysis, which includes three different scenarios of a priori character weighting. A study of ascospore ontogeny revealed two distinct developmental lines. One line revealed a delayed septum formation, which clearly showed transitions from spores with apical and median thickenings to spores without apical, but still well developed median thickenings, and to spores without any thickenings. In the second developmental line with an early septum formation again taxa with no thickenings, median thickenings, and both median and apical thickenings were found. Although these characters were constant at a species level, median wall thickenings especially varied among otherwise closely related taxa. In the cladistic analyses the current taxonomic structure of the Physciaceae was only obtained after the five character groups, namely morphology and anatomy of the vegetative thallus, conidiomata and conidia, morphology and anatomy of the apothecia, ontogeny of the ascospores, and secondary metabolites of the thallus, were given equal importance, and after a subjective a priori weighting further increased the weight of the three characters ‘conidial shape’, ‘presence of apical thickenings’, and ‘spore septation delayed’. This structure was not supported by a cladistic analysis with equally weighted characters but reflected the biased character weighting of the present day Physdaceae taxonomy. The taxonomic importance of conidial characters and of anatomical and ontogenetical spore characteristics need, therefore, a careful reconsideration in future.</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W2893857756</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1088/1361-6641/aae4c3</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Whiteside et al. (2019)</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Valence band states in an InAs/AlAsSb multi-quantum well hot carrier absorber</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>In this study, detailed temperature dependent simulations for absorption and photogenerated recombination of hot electrons are compared with experimental data for an InAs/AlAsSb multi-quantum well. The simulations describe the actual photoluminescence (PL) observations accurately; in particular, the room temperature e1-hh1 simulated transition energy of 805 meV closely matches the 798 meV transition energy of the experimental PL spectra, a difference of only 7 meV. Likewise, the expected energy separations between local maxima (p1-p2) in the simulated/experimental spectra have a difference of just 2 meV: a simulated energy separation of 31 meV compared to the experimental value of 33 meV. Utilizing a non equilibrium generalized Planck relation, a full spectrum fit enables individual carrier temperatures for both holes and electrons. This results in two very different carrier temperatures for holes and electrons: where the hole temperature, T-h, is nearly equal to the lattice temperature, T-L; while, the electron temperature, T-e, is 'hot' (i.e., T-e &gt; T-L). Also, by fitting the experimental spectra via three different methods a 'hot' carrier temperature is associated with electrons only; all three methods yield similar 'hot' carrier temperatures.</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W2559843127</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.5937/inovacije1502018v</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Vidojevic (2015)</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Humanism, educational-pedagogical process and social havoc</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>State of humanism as an idea and praxis is the main indicator of nature of the certain society and every civilisation. Humanism is by no means connected to crime, particularly massive crime, humiliation of people and torture, with exploitation and each form of slavery. All of this can be found in modern world, and in great extent. This is why we can say that the world is deeply inhumane due to the occurrences in it. The very idea of humanism is misused as means of realisation inhumane purposes and in this way, it becomes deformed. However, it is often transformed into bad abstraction, as well as bad abstraction and shallow morals, becoming in this way lifeless. Civilisation of violence, profit as absolute means, conquering the world by all means, which is shown as its freedom, does not lead to extinguishing all forms of humanism, but also about world cataclysm Reconstruction is needed, as well as revival of the idea and praxis of humanism. There is an urgent need of founding realistic, critical and dealing humanism is necessary, which does not start from Godly in man and metaphysic of the good, but something which can be called ontology of grey, imperfect man and turn to priority of evil reducing, first of all the radical one, as well as each form of severe suffering and misfortune. Reconstructed by social-spiritual revolution without blood, revival humanism would be the key ingredient of better historical alternative and value basis of the modern process of education and pedagogical work. System of brutal capitalism, neglected social justice and human dignity, and in this way real freedom in modern Serbia, and in many other countries, severely threatens to annihilate the very essence of humanism. Ethics of vocation and profession of intellectuals poses opposition to this state. Expertise without humanity is deadly; humanity without suitable aid is powerless.</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W1991523015</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1209/0295-5075/3/5/006</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Burden &amp; Burkitt (1987)</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Lattice Fermions in Odd Dimensions</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Euclidean lattice fermions are examined in odd dimensions. The continuum flavours are identified and it is found that the flavours fall into two equal groups requiring inequivalent representations of the Dirac matrices. The relationship of this result to the parity transformation and the role of chiral symmetry are elucidated.</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W2055996904</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1163/156853891x00419</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Riis (1991)</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>A field study of survival, growth, biomass and temperature dependence of Rana dalmatina and Rana temporaria larvae</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Abstract The ecology of eggs and tadpoles of the European brown frogs Rana dalmatina and Rana temporaria was investigated in six Danish ponds. Developmental time of eggs was a logarithmic function of temperature with the same exponents for both species. However the time constant was double in the early breeding R. dalmatina so hatching appears contemporarily at the actual temperatures. Tadpole growth was fitted better by the logistic than the Gompertz function. Transformation size diverged by a factor of 2 among populations intraspecifically; this is explained by food limitation. It is suggested that interspecific competition might have contributed to present distribution. Population sizes declined exponentially. Overall survival from eggs to froglets ranged from 1.8 to 6.7 % with the highest survival in the fast-growing R. temporaria. Interspecific differences in mortality rates remained inappreciable. Since mortality does not seem to be size-limited, factors influencing developmental time might affect populations appreciably. The importance of the tadpole phase in population regulation is stressed, especially in R. dalmatina, in which survival during the first 3 month nearly equalled survival during next 33 months from froglets to adults in females.</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W2982665450</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Silva et al. (2018)</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>The Changing Nature of University Governance and Accountability Management: An Exploration of the Lived Experiences and Perceptions of Australian Academics</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Globally, universities are facing complex issues which often leads to transformational change. Among the changes, university governance and accountability management have been noted as areas of reform. The main drivers are globalisation, burgeoning knowledge-based economies, rapidity of new technologies adoption, and global competitiveness. The impact of these drivers and subsequent reform is ultimately reflected in the changing nature of academic work being undertaken by academic staff. Academic staff are inclined to negatively reflect on their experience of the changing nature of their academic work. This paper reports on a study conducted in Australia that explores the lived experiences of sixteen academics working in a range of public universities and experiencing transformational change. The study adopts a qualitative research approach to support inductive and open generation of new thinking to emerge from the data. The data collection method consists of in-depth, one-on-one, face-to-face interviews. The study utilises an interpretive phenomenological analysis (IPA) to accomplish a detailed exploration and analysis of the lived experiences of the participants. The findings indicate that the changing nature of university governance and accountability management, which is now influenced by corporate structures, impacts the work of academic staff. The findings of the study have the potential to enable university leaders and managers to better understand the challenges academic staff confront in relation to the changes to university governance and new accountability management systems. Our research also presents participants’ suggestions of ways to create, maintain and sustain work environments in universities today.</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W2420979535</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Sato (2005)</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>[On line self-assessment system for psychiatry training program].</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>A radical reform in Japan had been done on the postgraduate clinical training system since April 2004. The subject point of the change was that in the past, mainly in the University hospitals, where the postgraduate clinical training system was made by the Department of a resident's planned medical staff, to enter in the future; in the new system, resident is incorporated in a 2-year training program with contents of internal medicine, surgery and emergency, not just bounded to particular field, in order to master basic and general clinical abilities. This new system included psychiatry rotation for 1 to 3 months. The new postgraduate clinical training system is also expected for the hospital's side to become activated by remaining the clinical training system. As a matter of course, the System has given a great effort to the curriculums of medical education. This super rotation system will be evaluated in 5-year after the introduction. The problem is whether psychiatry rotation is effective or not in a new system. If not so, psychiatry rotation might be omitted in this system. Therefore, we psychiatrists will prepare for the evidence of the effectiveness of psychiatry rotation. I developed on line self-assessment system with reference to Accreditation Council for Graduate Medical Education (ACGME) in the United States. I have introduced this system in the paper.</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W588677059</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Behrens (2016)</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>The Criminal Law of Genocide: International, Comparative and Contextual Aspects</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Contents: Preface. Part I Historical Perspectives: The Armenian Genocide: a contextual view of the crime and politics of denial, Raffi Sarkissan Armenian genocide claims: a contextual version of the 1915 events, Sadi Cayci Genocide and Nuremberg, Henry T. King Jr. Part II Case Studies: Has genocide been committed in Darfur? The state plan or policy element in the crime of genocide, William A. Schabas Sudan, the United States and the International Criminal Court: a tense triumvirate in transitional justice for Darfur, Zachary D. Kaufman The major powers and the genocide in Rwanda, RomA(c)o Dallaire and Kishan Manocha. Part III Aspects of the Crime: The schism between the legal and the social concept of genocide in light of the responsibility to protect, Larissa van den Herik Is the emerging jurisprudence on complicity in genocide before the international ad hoc tribunals a moving target in conflict with the principle of legality?, Michael G. Karnavas Telling stories and hearing truths: providing an effective remedy to genocidal sexual violence against women, Fiona de Londras A moment of kindness? Consistency and genocidal intent, Paul Behrens Freedom of speech vs. hate speech. The jurisdiction of 'direct and public incitement to commit genocide', Tonja Salomon. Part IV International and Domestic Prosecution of Genocide: The prohibition of genocide under the legal instruments of the International Criminal Court, Tuiloma Neroni Slade ICC investigations and a hierarchy of referrals: has genocide in Darfur been predetermined?, Chris Gallavin Specificity of indictments in ICTR genocide trials, Paul Ng'arua Cambodia's extraordinary chamber: is it the most effective and appropriate means of addressing the crimes of the Khmer Rouge?, Alex Bates The prosecution of genocide a  in search of a European perspective, Jan Wouters and Sten Verhoeven Reflection on the separation of powers: the law of genocide and the symptomatic French paradox, Caroline Fournet. Part V Prevention, Alternative Justice Solutions and Sentencing: The United Nations and the prevention of genocide, Juan E. MA(c)ndez Criminal justice in the aftermath of the 1994 Rwanda genocide, Shivon Byamukama and John A. Kapranos Huntley The normative context of sentencing for genocide, Ralph Henham Genocide, reconciliation and sentencing in the jurisprudence of the ICTY, Shahram Dana Index.</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W4242044991</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.4324/9781315672649-10</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Kent (2016)</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Transitional justice and peacebuilding</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W3185995436</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.31703/gasr.2020(iii-i).03</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Zia et al. (2020)</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Lego-political Judicial Institution "Panchayat", A Journey from Colonial to Postcolonial Times</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Panchayat is a traditional judicial institute mostly remained in practice for centuries in various regions of Punjab. The transformation of traditional platforms into a Lego-political judicial institution has to be seen as the politics of judicial dispensation. The research is an attempt to investigate how political order is maintained through legal cover in social cosmos. The village Panchayat has been an important institution which disposes of numerous disputes/issues for maintenance of power structure. What are the reasons that still support both systems to work contemporarily? There may be clashes of justice in some cases but the law only supports the legal justice system with all its errors and flaws. Why is this injustice with the justice system? As in many countries like India and Bengal both systems have legal recognition. If the traditional justice system is no more working institution then why is this system still working?</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W2020175360</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1080/00358533.2013.764099</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Lambert (2013)</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>The Revolution and its Discontents: Grenadian Newspapers and Attempts to Shape Public Opinion during Political Transition</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Abstract What role did the newspaper play in attempting to influence public opinion in the early stages of the Grenada Revolution and what are the terms in which printed discourses on the revolution were conceptualised? The Grenada Revolution was a discursive political process where branding and narration were necessary elements in securing the revolution’s authority and legitimacy. This paper argues that Cuba functioned as a metonym through which the revolution was translated in Grenadian periodicals. Even before the coup of 13 March 1979 Grenadian media represented the New Jewel Movement—the revolutionary party—as Cuban-inspired and socialist. In order to examine how socialism in general, and the socialist character of the People’s Revolutionary Government (PRG) in particular, was narrated, a comparison is staged between two newspapers—the government-run Free West Indian and the privately owned The Torchlight. Competing discourses on Cuban communism are analysed for the ways in which they stood-in for the Grenadian people’s hopes, aspirations and anxieties in the midst of radical political change. Issues including race, gender equality, property ownership, freedom of religious practice and freedom of travel are examined in relation to capitalism and socialism, and the PRG’s efforts to maintain narrative authority of the revolution.</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W2049096811</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1177/0886109905285773</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Crewe (2006)</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Harriet Tubman</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Harriet Tubman's widely recognized successful work for the Underground Railroad overshadowed many other noteworthy contributions she made as a peacemaker and stateswoman. She rose above the societal limitations imposed by being enslaved and a woman and made unparalleled contributions to the cause of social justice. Tubman's commitment to family unification was a driving force for the perilous trips she made for the Underground Railroad. Her legacy includes being a formidable commander and strategist in the U.S. Civil War. In addition, Tubman was instrumental in helping many African Americans transition to freedom and economic sufficiency during the pre–and post–Civil War Reconstruction eras. In her late sixties, Tubman purchased land to fulfill her vision of providing housing and supportive services for older and indigent African Americans. For more than 20 years, she worked tirelessly using selfhelp, mutual aid, and partnerships to fulfill her dream of the Harriet Tubman Home for the Aged.</t>
+        </is>
+      </c>
+    </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2382584559</t>
+          <t>https://openalex.org/W2034828973</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1088/0022-3727/40/22/018</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Zhang (2006)</t>
+          <t>Hadrath et al. (2007)</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Influence of medium-tempering treatment on microstructure and properties of Ni based spray-welded coating on titanium substrate</t>
+          <t>Time resolved measurements of cathode fall in high frequency fluorescent lamps</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>The microstructure and properties of Ni based coating on Ti-6Al-4V alloys substrate fabricated by flames spray-welding and subsequently treated by medium-tempering were studied.The results show that a lot of hard particles are separated out after the medium-tempering treatment,which has the dispersion strengthen effect on spray-welded coating.After the medium-tempering treatment,the uniformity of coating's microstructure is improved,and the transition layer widens obviously;and the micro-hardness of coating changes more smoothly along depth direction,and the grads gradient of properties from soft substrate to hard coating decreases obvisously;and the micro-hardness of the spray-welded surface increases a little,but the wear loss of sample after tempering treatment is only equal to that of 1/2.33 of the before.</t>
+          <t>Measurements are presented of the time resolved cathode and anode falls of high frequency fluorescent lamps for a range of discharge currents typically encountered in dimming mode. Measurements were performed with the movable anode technique. Supporting spectroscopic emission measurements were made of key transitions (argon 420.1 nm and mercury 435.8 nm), whose onset coincide with cathode fall equalling the value associated with the energy, relative to the ground state, of the upper level of the respective transition. The measurements are in general agreement with the well-known understanding of dimmed lamp operation: peak cathode fall decreases with increasing lamp current and with increasing auxiliary coil heating. However, the time dependence of the measurements offers additional insight.</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2029368775</t>
+          <t>https://openalex.org/W2320549172</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1111/j.1464-410x.2005.05928.x</t>
+          <t>https://doi.org/10.2307/2950370</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Vögeli (2005)</t>
+          <t>Zhao &amp; Nichols (1996)</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>The management of superficial transitional cell carcinoma of the bladder: a critical assessment of contemporary concepts and future perspectives</t>
+          <t>Management Control of Labour in State-Owned Enterprises: Cases From the Textile Industry</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>BJU InternationalVolume 96, Issue 8 p. 1171-1176 The management of superficial transitional cell carcinoma of the bladder: a critical assessment of contemporary concepts and future perspectives Thomas-Alexander Vögeli, Corresponding Author Thomas-Alexander Vögeli Department of Urology, Medical Center Aachen, GermanyThomas-Alexander Vögeli, Department of Urology, Medical Center Aachen, Aachen, Germany. e-mail: [email protected]Search for more papers by this author Thomas-Alexander Vögeli, Corresponding Author Thomas-Alexander Vögeli Department of Urology, Medical Center Aachen, GermanyThomas-Alexander Vögeli, Department of Urology, Medical Center Aachen, Aachen, Germany. e-mail: [email protected]Search for more papers by this author First published: 15 November 2005 https://doi.org/10.1111/j.1464-410X.2005.05928.xCitations: 3Read the full textAboutPDF ToolsRequest permissionExport citationAdd to favoritesTrack citation ShareShare Give accessShare full text accessShare full-text accessPlease review our Terms and Conditions of Use and check box below to share full-text version of article.I have read and accept the Wiley Online Library Terms and Conditions of UseShareable LinkUse the link below to share a full-text version of this article with your friends and colleagues. Learn more.Copy URL REFERENCES 1 Feldmann AR, Kessler L, Myers MH. The prevalence of cancer. N Engl J Med 1996; 315: 1394– 7 2 Pyrah LN, Raper FP, Thomas GM. Report of a follow up of papillary tumours of the bladder. Br J Med 1964; 36: 14– 25 3 Eble JN, Sauter G, Epstein JI, Sesterhenn IA eds. Pathology and Genetics of Tumors of the Urinary System and Male Genital Organs. Lyon: IARC Press, 2004 4 Malmstrom PU, Busch C, Norlen BJ. Recurrence, progression and survival in bladder cancer. A retrospective analysis of 232 patients with greater than or equal to 5-year follow up. Scand J Urol Nephrol 1987; 21: 185– 95 5 Cheng L, Neumann RM, Bostwick DG. Papillary urothelial neoplasms of low malignant potential. Clinical and biological implications. Cancer 1999; 86: 2102– 8 6 Alsheik A, Mohamedali Z, Jones E, Materson J, Gilks CB. Comparison of the WHO ISUP classification and cytokeratin 20 expression in predicting the behavior of low grade papillary urothelial lesions. Mod Pathol 2001; 14: 267– 72 7 Holmang S, Andius P, Hedelin H, Wester K, Busch C, Johannson SL. Stage progression in Ta papillary urothelial tumors. Relationship to grade, immunohistochemical expression of tumor markers, mitotic frequency and DNA ploidy. J Urol 2001; 165: 1124– 8 8 Meijeden A, Sylvester R, Colette L, Bono A, Ten Kate F. The role and impact of pathology review on stage and grade assessment of stages Ta and T1 bladder tumors: a combined analysis of 5 EORTC trials. J Urol 2000; 164: 1533– 7 9 Pathologist of the French Association of Urology Cancer Committee. Lamina propria microinvasion of bladder tumors, incidence or stage allocation (pTa vs PpT1): recommended approach. World J Urol 1993; 11: 161– 4 10 Witjes JA, Kiemeney LA, Schaffma HE, Debruyne FM. The influence of review pathology on study outcome of a randomized multicentre superficial bladder cancer trial. Br J Urol 1994; 73: 172– 6 11 Tosoni I, Wagner U, Sauter G, Egloff M, Nönagel H, Alund G. Clinical significance of interobserver differences in the staging and grading of superficial bladder cancer. BJU Int 2000; 85: 48– 53 12 Milner WA. Results in the treatment of bladder tumors. J Urol 1953; 69: 657– 64 13 Bressel M, Kemper K. Vorbedingungen und Technik der transurethralen Resektion. Urologe A 1969; 8: 73– 80 14 Marberger A, Marberger F, DeCristofero A. The current status of transurethral resection in the diagnosis and therapy of carcinoma of the urinary bladder. Int Urol Nephrol 1972; 4: 35– 44 15 Flamm J, Steiner R. Stellenwert der differenzierten transurethralen Resektion beim primären oberflächlichen Harnblasenkarzinom. Urologe A 1991; 30: 111– 3 16 Koloscy Z. Histopathological self control in transurethral resection of bladder tumours. Br J Urol 1976; 116: 575– 80 17 Klän R, Loy V, Huland H. Residual tumor discovered in routine second transurethral resection in patients with stage T1 transitional cell carcinoma of the bladder. J Urol 1991; 46: 316– 8 18 Köhrmann KU, Woeste M, Kappers JH, Rassweiler J, Alken P. Der Wert der transurethralen Nachresektion beim oberflächlichen Harnblasenkarzinom. Akt Urol 1994; 25: 208– 13 19 Vögeli TA, Marx G, Ackermann R. Zur Notwendigkeit der Nachresektion beim oberflächlichen Blasenkarzinom als Kontrolle der Erstresktion. Urologe A 1991; 31: 59 20 Schwaibold HE, Treiber U, Kuebler H, Leyh H, Hartung R. Second transurethral resection detects histopathological changes worsening the prognosis in 25% of patients with T1 bladder cancer. J Urol 2000; 163: 153– 4 21 Zurkirchen MA, Sulser T, Hauri D. Can a second resection be omitted in the treatment of bladder cancer. Eur Urol 2001; 39 (Suppl.): 119 22 Schips L, Augustin H, Zigeuner R, Trummer H, Pummer K, Hubmer G. Is a second tr</t>
+          <t>Previous articleNext article No AccessManagement Control of Labour in State-Owned Enterprises: Cases From the Textile IndustryMinghua Zhao and Theo NicholsMinghua Zhao Search for more articles by this author and Theo Nichols Search for more articles by this author PDFPDF PLUS Add to favoritesDownload CitationTrack CitationsPermissionsReprints Share onFacebookTwitterLinkedInRedditEmail SectionsMoreDetailsFiguresReferencesCited by The China Journal Volume 36Jul., 1996 Published on behalf of the Australian Centre on China in the World at the Australian National University Article DOIhttps://doi.org/10.2307/2950370 Views: 118Total views on this site Citations: 35Citations are reported from Crossref Copyright The China JournalPDF download Crossref reports the following articles citing this article:Jingmei Zhang, Subin Xu, Nobuo Aoki Contradictions of indigenous cognition and heritage evaluation under political transformations in a working-class community in Tianjin, China, Cities 132 (Jan 2023): 104031.https://doi.org/10.1016/j.cities.2022.104031Chao Chen Introduction, (May 2018): 1–27.https://doi.org/10.1007/978-981-10-8941-1_1Chao Chen The Context of Toleration (3): Workers’ Control on Production, (May 2018): 99–114.https://doi.org/10.1007/978-981-10-8941-1_5Chao Chen Toleration in Practice (2): The Governance of Absenteeism, (May 2018): 125–150.https://doi.org/10.1007/978-981-10-8941-1_7Elisha P. Renne The Changing Contexts of Chinese-Nigerian Textile Production and Trade, 1900‒2015, TEXTILE 13, no.33 (Jan 2016): 212–233.https://doi.org/10.1080/14759756.2015.1054105Xuebing Cao Submerged discontent and patterns of accommodation: a case study of doctors' pay in two public hospitals in China, The International Journal of Health Planning and Management 29, no.22 (Jun 2013): 124–140.https://doi.org/10.1002/hpm.2196Yui-Tim Wong East Meets West: Effects of Justice On Employees' Commitment within the Context of International Joint Ventures in China, Asia Pacific Business Review 7, no.11 (Jan 2011): 5–19.https://doi.org/10.1177/097324701100700101Qi Wei, Chris Rowley Pay for performance in China's non‐public sector enterprises, Asia-Pacific Journal of Business Administration 1, no.22 (Sep 2009): 119–143.https://doi.org/10.1108/17574320910989087Wei Fang, Steven Sek-yum Ngai On the Indigenization of Social Exclusion among Young Rural-Urban Migrant Workers—The Case of Hangzhou, a Coastal City in China, International Journal of Adolescence and Youth 15, no.33 (Jan 2009): 193–216.https://doi.org/10.1080/02673843.2009.9748029Stephen Philion Workers' Democracy vs. Privatization in China, Socialism and Democracy 21, no.22 (Jul 2007): 37–55.https://doi.org/10.1080/08854300701387817Catherine C. H. Chiu Changing Experiences of Work in Reformed State-Owned Enterprises in China, Organization Studies 27, no.55 (May 2006): 677–697.https://doi.org/10.1177/0170840606061076Lei Guang The State Connection in China's Rural-Urban Migration1, International Migration Review 39, no.22 (Mar 2006): 354–380.https://doi.org/10.1111/j.1747-7379.2005.tb00270.xVincent Mok, Godfrey Yeung Employee motivation, external orientation and the technical efficiency of foreign-financed firms in China: a stochastic frontier analysis, Managerial and Decision Economics 26, no.33 (Jan 2005): 175–190.https://doi.org/10.1002/mde.1203Fang Lee Cooke Employment relations in small commercial businesses in China, Industrial Relations Journal 36, no.11 (Jan 2005): 19–37.https://doi.org/10.1111/j.1468-2338.2005.00343.x Jonathan Unger , and Anita Chan The Internal Politics of an Urban Chinese Work Community: A Case Study of Employee Influence on Decision-Making at a State-Owned Factory, The China Journal 52 (Oct 2015): 1–24.https://doi.org/10.2307/4127882Mary E. Gallagher “Time is money, efficiency is life”: The transformation of labor relations in China, Studies in Comparative International Development 39, no.22 (Jun 2004): 11–44.https://doi.org/10.1007/BF02686276Fang Lee Cooke Public-sector pay in China: 1949–2001, The International Journal of Human Resource Management 15, no.4-54-5 (Jun 2004): 895–916.https://doi.org/10.1080/0958519042000192004John Hassard, Jonathan Morris, Jackie Sheehan The ‘third way’: the future of work and organization in a ‘corporatized’ Chinese economy, The International Journal of Human Resource Management 15, no.22 (Mar 2004): 314–330.https://doi.org/10.1080/0958519032000158536Vincent Wai‐kwong Mok Industrial productivity in China: the case of the food industry in Guangdong Province, Journal of Economic Studies 29, no.66 (Dec 2002): 423–431.https://doi.org/10.1108/01443580210448853Jean-François Huchet, Xavier Richet Between Bureaucracy and Market: Chinese Industrial Groups in Search of New Forms of Corporate Governance, Post-Communist Economies 14, no.22 (Jun 2002): 169–201.https://doi.org/10.1080/14631370220139918M. Francis Johnston Elites and Agencies, Modern China 28, no.22 (Aug 2016): 147–176.https://doi.org/10.1177/009770040202800201Christo</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2318349324</t>
+          <t>https://openalex.org/W1797846686</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1177/0964663911433670</t>
+          <t>https://doi.org/10.1353/flm.2015.a589134</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Moon (2012)</t>
+          <t>Brockmann (2015)</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>‘Who’ll Pay Reparations on My Soul?’&lt;sup&gt;1&lt;/sup&gt; Compensation, Social Control and Social Suffering</t>
+          <t>The Struggle Over Audiences in Postwar East German Film</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Contemporary debate about compensation for past wrongs turns on the assumption that state reparation benefits the victims of atrocity by acknowledging harm and ameliorating victim suffering. Indeed, much recent theoretical and practical work has concurred to establish reparation to victims of state crimes as a cornerstone of human rights. However, this article argues that reparation can also function to placate victim demands for criminal justice and to regulate the range of political and historical meanings with which the crimes of the past are endowed. This is most evident in transitional political contexts in which gestures of reparation are usually concomitant with the inauguration of new political orders, and formal investigations of past atrocity are conditioned by the balancing of the political demands of new and old regimes. This article argues that in such contexts, state reparation can work to control social suffering with the consequence that it sometimes intensifies rather than alleviates it. To evidence this claim, the article investigates the refusal of reparations by the victims towards whom it is addressed, with reference to Argentina’s Madres de Plaza de Mayo. This analysis of their refusal demonstrates how victim groups make important challenges to some of the core assumptions in the field, reveals internal inconsistencies within the analytical architecture of the scholarly and professional discourse, and indicates the ways in which reparations carry political, and not just palliative, significance.</t>
+          <t>The Struggle Over Audiences in Postwar East German Film Stephen Brockmann The rise in interest in East German cinema since the fall of the Berlin Wall in 1989 and the reunification of Germany in 1990 has, over the last decade, generated considerable interest in continuities between the old Ufa traditions of the Nazi and pre-Nazi periods and the postwar cinema of the Soviet occupation zone and German Democratic Republic (GDR). Such continuities existed in both personnel and style. What has gone relatively unnoticed in contemporary analysis of these continuities, however, is the debate immediately after 1945. Prefiguring current scholarly fascination with the relationship between Ufa (established on December 18, 1917) and the East German film company DEFA (established on May 17, 1946), the debate among East German film intellectuals raised the stakes to a relatively high level directly after the war. DEFA wanted to appeal to German film-going audiences in a style that would also re-educate them, but, in the aftermath of World War Two, intellectuals in the Soviet zone agreed that the cinema of the Hitler dictatorship should be rejected and that a new kind of film should take its place. There was also, however, a consensus that the actual nature of German film audiences tended to militate against any radical changes in film aesthetics. The Ufa production style was appealing and marketable, but it came with an ideological price. This debate climaxed in discussions about Kurt Maetzig’s popular Ehe im Schatten (Marriage in the Shadows, 1947), a film that dealt with the problem of Nazi anti-Semitism. Click for larger view View full resolution [End Page 5] Film and Re-education Unsurprisingly, film intellectuals in the Soviet zone were convinced of the importance of cinema for ideological re-education. Kurt Maetzig, one of the founders of DEFA, argued in February 1946 that because film tended to address large numbers of people—far more than theater or books—it had the potential to exert more influence on ordinary Germans’ ways of thinking and feeling. For this reason, Maetzig believed, filmmakers bore a particular responsibility for ideological re-education. If the art of film “plays the right notes,” he argued, “then it may succeed in melting the icy armor that still encloses so many hearts and shake them out of a lethargy that cannot be broken through intellectual means.” According to Maetzig, “the art of film is…suited like no other art form for ushering in this first decisive encounter of the human being with himself in the realm of feeling.”1 In Maetzig’s view, film had the potential to be particularly effective in addressing the catastrophic situation of the German population, and it could appeal not just to the intellect but, more significantly, to the emotions. Maetzig’s first feature film, Ehe im Schatten, appeared a year later, and the subject matter of that film did, as Maetzig had suggested, connect to the real experiences of its viewers, since it dealt directly with Nazi anti-Semitism and its consequences, attempting to melt “the icy armor that still encloses so many hearts” by getting German audiences to sympathize with Jewish victims of the Nazis. And yet precisely Ehe im Schatten, because of its huge popularity and politically sensitive subject matter, became part of the ongoing postwar debate about the best filmic means to achieve ideological re-education. In 1947, Maetzig attributed the re-educative power of Ehe im Schatten to the visual impressions it produced among viewers. Maetzig believed that these impressions, particularly if they resembled the previous lived experiences of ordinary movie-goers, could help them to restructure their own memories according to a framework laid down by the film. For this reason Maetzig asserted that films dealing with recent history—such as the Nazi dictatorship and World War Two, which almost all contemporary German viewers would have experienced themselves—had the potential to make audiences reconceptualize their own attitudes to recent German history. Maetzig insisted that a contemporary film about the immediate past connects viewers to their own experiences in a new way: “They are ‘eyewitnesses,’ i.e. they preserve the memory of their experiences in the form of images, and they find...</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2085684455</t>
+          <t>https://openalex.org/W4225718864</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2528/pier14022001</t>
+          <t>https://doi.org/10.1007/s11235-022-00893-3</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Gilardi &amp; Smit (2014)</t>
+          <t>Ahmed et al. (2022)</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>GENERIC INP-BASED INTEGRATION TECHNOLOGY: PRESENT AND PROSPECTS (Invited Review)</t>
+          <t>Quality enhancement in a mm-wave multi-hop, multi-tier heterogeneous 5G network architecture</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>The generic foundry approach will lead to a revolution in micro and nanophotonics, just as it did in microelectronics thirty years ago.Generic integration leads to a drastic reduction in the entry costs for developing Photonic Integrated Circuits.Integrated circuits using generic integration open up a whole new range of applications including data communications, fiber-to-the-home, fiber sensors, gas sensing, medical diagnostics, metrology and consumer photonics.Present status and prospects of InP-based photonic foundry technology are reviewed. INTRODUCTION: THE DEVELOPMENT OF PHOTONIC CHIP COMPLEXITYIn microelectronics there is a clear exponential development in the number of transistors per chip, which has been doubling every two years on average during the last four decades.This phenomenon is known as Moore's law [1,2].In Photonics we observe a similar development, albeit in an early stage.Figure 1 shows the complexity development of InP-based Photonic ICs (PICs), measured as the number of components integrated on a single chip.Early examples of complex InP-based PICs are a WDM source by Koren et al. (1989) [3], a gratingbased receiver by Cremer et al. (1991) [4], a switch array by Gustavsson et al. (1992) [5], and a heterodyne receiver by Kaiser (1994) [6].The highest complexities so far have been reported in AWG-based PICs.It started with the publication of the first AWG by Smit [7] in 1988, followed by Takahashi et al. (1990) [8] and Dragone (1991) [9].After the invention of the AWG a number of AWG-based devices with increasing circuit complexity was reported: WDM receivers with 5-10 components by Amersfoort et al. (1993) [10], Zirngibl et al. (1995) [11] and Steenbergen et al. (1996) [12]; WDM lasers with 10-20 components by Zirngibl et al. (1994Zirngibl et al. ( , 1996) [13, 14] ) [13, 14] and Staring et al. (1996) [15]; WDM channel selectors with 10-20 components by Zirngibl and Joyner (1994) [16], Ishii et al. (1998) [17], Menezo et al. (1999) [18], Mestric et al. (2000) [19] and Kikuchi et al. (2001) [20] and a crossconnect chip with 66 components by Herben et al. (1999) [21].A special device is the WDM-receiver with integrated pre-amplifiers by Chandrasekhar et al. (1995) [22] which counts 81 components, most of them electronic (transistors and resistors).The new century brought a significant increase in complexity: WDM receiver and transmitter chips with 44-51 components by Tolstikhin (2003) [23], ThreeFivePhotonics (2004) [24] and Infinera (2005) [25].Shortly after, in 2006, Infinera published a 40-channel WDM transmitter with 241 components [26].Recent devices with a very high complexity are an all-optical tunable 8 × 8 wavelength router with more than 175 components by Nicholes et al. [27] in 2009 and a 100-channel Arbitrary Waveform Generator with more than 300 components by Soares et al. [28] in 2010.The latter device also contains 400 phase shifters for reducing the high crosstalk level in the very large AWG which is used to separate 100 wavelength channels.Recently, Infinera reported a PM-DQPSK transmitter with more than 400</t>
+          <t>Millimetre-wave ultra-dense high capacity networks are an important component of future 5G and 6G cellular systems since they are providing extremely high network capacity and speed to the end users. However, disparate types of users coexist in such scenarios, which can make the heterogeneous network unfair in terms of allocation of resources to various users based on their requirements. Therefore, a mechanism is required for effective spectrum sharing and to achieve overall system fairness. In this paper, an analytical model is suggested, which is based on a two-dimensional Markov state-transition diagram, to help set the parameter values to control the issuance of resources in coexistence layouts. A restriction approach is further implemented to gain a fair balance of the Grade-of-Service (GoS) for both user groups using the User Admission Control (UAC) mechanism. The developed mechanism restricts access to various channel resources for users with complete choice to give a greater probability of access to different users with limited resource options. Various levels of restriction are investigated in order to offer a balanced low-blocking probability performance to both user groups in order to improve the overall network fairness. Also, the proposed approach could provide a precise level of Grade-of-Service guarantee for both the user groups if sufficient flexibility is available within the whole network. Our simulations results along with the analytical model demonstrate that approximately 30% to 45% enhancement, in terms of grade of service (GoS), could be achieved in high to medium loads by restricting some of the users’ flexibility. From the analytical model, it is concluded that the blocking of shadowed users are significantly reduced from 7% to 4.5% at high traffic loads. Moreover, the obtained results and findings are verified using a number of case studies and large-scale simulations.</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2484788152</t>
+          <t>https://openalex.org/W1800719161</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1007/978-1-349-73773-4_6</t>
+          <t>https://doi.org/10.1108/jmp-03-2013-0082</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Millette (2003)</t>
+          <t>Pundt (2015)</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Decolonization, populist movements and the formation of new nations, 1945–70</t>
+          <t>The relationship between humorous leadership and innovative behavior</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>OF all the major unintended consequences of the Second World War, the decolonization of the European colonies was the most improbable of all. When the War began it seemed at first to be just another white man’s war. This is to say that ever since the French Revolutionary and Napoleonic wars, the first of the really major modern conflicts to convulse the globe, it was an article of faith mutually agreed between the major combatants that however fierce the warfare might be between the European powers, it was their war: a war between civilized combatants for the realization of civilized objectives in no way altering the general dominant relationship exercised by the European powers and peoples over those they had long colonized. Of course, the pretence was always challenged; in part by the need to recruit the indigenous or other oppressed peoples to help pursue these conflicts, and in part by the fact that the colonized and the oppressed often perceived the schisms and the conflicts among the ruling élite as providing them with unrivalled opportunities for pursuing their own causes. The French Revolution was barely two years old when the slaves revolted in St Domingue. The Civil War in the United States was still in its infancy when Frederick Douglass recognized it as presenting an unrivalled opportunity for promoting the cause of slave emancipation: ‘God be praised!’, he said. And Wendell Phillips, the abolitionist, expostulated: ‘I [now] believe in a sunny future, because God has driven them mad: and in their madness is our hope’.1</t>
+          <t>Purpose – The purpose of this paper is to investigate the relationship between humorous leadership and innovative behavior and the moderator effects of creative requirement and perceived innovation climate, beyond transformational leadership, and leader-member exchange (LMX). Design/methodology/approach – Questionnaire data were collected from 150 employees of various organizations in Germany. Findings – Employees whose leader used humor more frequently reported to be more innovative, when the employees perceived their tasks to require creativity and innovation. Perceived innovation climate did not moderate the relationship. Research limitations/implications – Different humor styles rather than just positive humor should be investigated in the future. Future research should incorporate multi-level designs and objective data on innovative behavior. Practical implications – Humorous leadership is an important element of innovation-relevant leadership behavior. Its use may be integrated in broader leadership development approaches. Originality/value – The study contributes to knowledge on humorous leadership and its relationship to organizational behavior. It enhances theoretical developments by considering the employees’ task and perceived innovation climate as moderator variables. It helps establish humor as a leadership tool beyond constructs such as LMX or transformational leadership.</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1572562311</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1353/hsp.2010.a405438</t>
+          <t>https://openalex.org/W2611983957</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Treadgold (2010)</t>
+          <t>Paltsev (2016)</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Byzantine Exceptionalism and Some Recent Books on Byzantium</t>
+          <t>Energy Scenarios: The Value and Limits of Scenario Analysis</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Byzantine Exceptionalism and Some Recent Books on Byzantium Warren Treadgold (bio) Jonathan Shepard, ed., The Cambridge History of the Byzantine Empire, c. 500-1492 (Cambridge University Press, 2008). Elizabeth Jeffreys with John Haldon and Robin Cormack, eds., The Oxford Handbook of Byzantine Studies (Oxford University Press, 2008). John Haldon, ed., A Social History of Byzantium (Wiley-Blackwell, 2009). Judith Herrin, Byzantium: The Surprising Life of a Medieval Empire (Princeton University Press, 2007). Edward Luttwak, The Grand Strategy of the Byzantine Empire (The Belknap Press of Harvard University Press, 2009). Timothy E. Gregory, A History of Byzantium, 2nd ed. (Wiley-Blackwell, 2010). Anthony Kaldellis, Hellenism in Byzantium: The Transformations of Greek Identity and the Reception of the Classical Tradition (Cambridge University Press, 2007). In 1066 the Normans invaded England and won a decisive victory. While they claimed that their actions were justified, they held the land essentially by right of conquest and displaced nearly everyone who had been ruling it. After a few years they secured the whole kingdom and profoundly reshaped the society and culture of the country, where their descendants still reign. Likewise, in 1203-4 the men of the Fourth Crusade invaded the Byzantine Empire and won a decisive victory. While they claimed that their actions were justified, they held the land essentially by right of conquest and displaced nearly everyone who had been ruling it. Yet they never secured most of the empire, lost practically all of it by 1261, and had scarcely any lasting impact on the society or culture of the Byzantine world. Various reasons can be given for the success of the Norman Conquest, and historians can easily imagine how it might have failed. What is much harder to imagine is how the Crusaders' conquest of Byzantium could ultimately have succeeded, at least without far more accommodation of the Byzantines or massive Western European immigration. Though the Normans spoke a different language from the English, both groups were part of a Western European political, social, and cultural system that was also shared by the Crusaders of 1204. This system was, however, incompatible with the Byzantine political, social, and cultural system, which soon expelled the Crusaders as an alien body. Byzantium was not just another medieval European country, like England or France, but a world of its own. The contrasts between Byzantium and the West are still a problem for authors of general books on Byzantium, including the recent batch of seven reviewed here. Most Byzantinists know how different Byzantium was, but many prefer not to emphasize the fact. Scholars like to be fashionable, and fashions are set by the majority who study the medieval and modern West, the source of concepts like feudalism and nationalism. While today we are all aware of non-Western cultures, we think of Byzantium as Western, certainly in comparison with China, pre-Columbian America, or sub-Saharan Africa. This is presumably why the American Historical Review lists books on Byzantium under "Europe: Ancient and Medieval," though most Byzantine territory was in Asia or Africa (and Constantinople straddled Europe and Asia). Byzantinists may reasonably fear that insisting their subject is not fully Western could leave it without a place in either Western or non-Western history. The Cambridge History of the Byzantine Empire comes very close to treating Byzantium as just another medieval European country, even if such treatment results mainly from the opportunism of its publisher. Of the book's twenty-seven parts, only eight (plus the introduction) were actually written for it. Three more parts are adapted from the final volume of The Cambridge Ancient History (2000) and sixteen more from the seven-volume New Cambridge Medieval History (1995-2005), which has short chapters on Byzantium in each period. (The old Cambridge Medieval History had a separate volume on Byzantium.) The editor of the Cambridge History, Jonathan Shepard, explains that an editor at Cambridge University Press "encouraged me to take on remodelling materials already available" (xvii). While the press profits from selling libraries the same material twice, the benefits to scholarship are less clear. In his introduction Shepard struggles to lend the book some coherence.1 He explains its beginning with the year 500 by citing the fall...</t>
+          <t>A need for low-carbon world has added a new challenging dimension for the long-term energy scenarios development. In addition to the traditional factors like technological progress, demographic, economic, political and institutional considerations, there is another aspect of the modern energy forecasts related to the coverage, timing, and stringency of policies to mitigate greenhouse gas emissions and air pollutants. The goal of this paper is to review the value and limits of energy scenarios and, in particular, to assess how the new low-carbon goals are reflected in the latest projections. This relatively new dimension of the scenarios means that in addition to the traditional factors like technology development, demographic, economic, political and institutional considerations, there is another aspect of the modern energy forecasts related to the coverage, timing, and stringency of policies to mitigate greenhouse gas emissions and air pollutants. The results from a long-term global energy-economic model, the MIT Economic Projection and Policy Analysis (EPPA) model, are compared with other major outlooks (like BP, ExxonMobil, IEA) and model-comparison exercises (represented in the IPCC scenario database). Considering the value and limits of the energy scenarios, it is obviously easier to find the limits of the forecasts. It is true not only about the energy projections, but also about other predictions of the future: financial, economic or political. Forecasts of all sorts are usually bad at predicting sudden changes. In terms of energy projections, fast growth of China’s energy appetite and its recent slowdown, fast development of unconventional oil and natural gas, fast deployment of renewables, all these events are missed by most scenarios. A move to a low-carbon energy future requires a drastic change in energy investment and the resulting mix in energy technologies. If history is any guide, energy scenarios overestimate the extent to which the future will look like the recent past. Energy scenarios are useful for decision-makers to assess the scale of the necessary transformation. However, the exact technology mix, paths to the needed mix, price and cost projections should be treated with a great degree of caution. The scenarios do not provide the exact numbers (or even close numbers), but they can be used as a qualitative analysis of decision-making risks associated with different pathways. We should recognize the energy system is complex, interconnected and affected by economic drivers. In turn, economists are notorious for their forecasting ability. Due to a long-lasting nature of energy infrastructure, energy system is not as fluid as economic system, and some trajectories in energy development are more persistent, but the same degree of carefulness should be applied to the long-term energy forecasts as to economic forecasts. Energy scenarios models are complex, but they do not reflect all the complexity, so they often provide imprecise projections. At the same time, without models nothing at all constrains the projections. While indeed energy scenarios are not suited for providing the exact number (or specific forecast), but practically decisions have to be made. The value of energy scenarios (and models that produce them) is not in their decision-making capabilities, but in their decision-support capabilities. Any single energy scenario is not going to provide a prediction of the future, and it cannot be used as a basis for policy-making. However, the results from numerous scenarios obtained from different modelling planforms provide useful information about potential risks and benefits of a particular potential policy or investment. When one has a model to make a scenario – an argument can be made about improvement, simplification, or bringing additional details. When one has just tea leaves to guess the future, there is no tool to advance the knowledge. Most of the energy scenarios offer plausible rather than most likely future. Perhaps the most important uncertainty about the future of energy is its interaction with the environment. The need for low-emitting technologies will shift the current technology mix, but the exact contribution of particular technology and the timing of this shift depend on many economic and political variables. Such uncertainty about the future costs and technologies supports a conclusion that governments should not try to pick the “winners”, rather the policy and investment focus should be on targeting emissions reductions from any energy source. Energy scenarios may not provide the exact projections, but they are the best available tool to assess the magnitude of challenges that lie ahead.</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2121673844</t>
+          <t>https://openalex.org/W2441604512</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1080/13563460903586202</t>
+          <t>https://doi.org/10.1097/01.nep.0000476112.24899.a1</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Caney (2010)</t>
+          <t>Skiba (2016)</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Markets, Morality and Climate Change: What, if Anything, is Wrong with Emissions Trading?</t>
+          <t>Face with Tears of Joy Is Word of the Year</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t xml:space="preserve">Abstract This article explores whether emissions trading is morally defensible To do so it examines three different kinds of moral consideration Which might be used to judge emissions trading. The first kind makes what I term an 'ethical' objection, and holds that utilising market instruments to combat climate change is inherently objectionable. I examine three versions if this 'ethical' argument but find none persuasive. The remainder of the article considers two additional moral considerations, both of which appeal to principles of justice. Drawing on these it argues that emissions trading can be morally defensible but only it it meets these two demanding moral criteria. First, the costs of emissions trading should be shared equitably. The paper examines what this might mean and criticises the leading account of what constitutes a just distribution of emissions Second, emissions trading must make an appropriate contribution to climate mitigation. A number of ways in which current emissions trading schemes signally fail to meet this second criterion are then noted. The article concludes that emissions trading schemes could in principle be morally defensible but only if new schemes are introduced or existing schemes are radically redesigned in line with the principles outlined in the article. Keywords: emissions tradingethicsjusticeclimate change Notes An earlier version of this paper was presented at the 'Commodifying Carbon' Conference (University of Oxford, 16 July 2007). I am grateful to the two respondents on my paper, Timmons Roberts and Henry Shue, for their instructive comments. A much later version was presented at the workshop on 'Global Emissions Trading: Ethics, Policy and Politics' (University of Warwick, 8 July 2009). I am grateful to the participants for their suggestions. I am especially indebted to Ed Page for a number of very illuminating discussions of the themes examined in this paper and to the anonymous referee for this journal for their extremely helpful comments. The paper was completed during my tenure of an ESRC Climate Change Leadership Fellowship (2008–11) and I am grateful to the ESRC for its support. Note that emissions trading schemes are not the only market instrument being employed to mitigate climate change. Another potentially important market instrument is the United Nations' programme on Reducing Emissions from Deforestation and Forest Degradation in Developing Countries (UN-REDD). See on this http://www.undp.org/mdtf/un-redd/overview.shtml [last accessed 11 December 2009]. REDD is one specific version of what is known as 'payment for environmental services' (PES). For an overview of PES see Engel et al. Citation(2008). My focus in this article is on emissions trading but some of the issues raised are also relevant for an appraisal of REDD and other schemes which involve paying for environmental services. I am grateful to an anonymous referee for pressing me on this point. This sentence needs to be heavily qualified for the impoverished may be unfree not to sell emissions. That is, their economic disadvantage may compel them to sell their emissions. I have argued elsewhere that there is a duty of justice to eradicate global poverty (Caney Citation2005) and if this were honoured then this concern would be met. One might also address this concern either by allocating large numbers of emissions permits to the disadvantaged or by auctioning the permits and distributing the revenues to the disadvantaged (Beckerman and Pasek Citation2001: 183–4). These issues are examined in section IV. Simmel (Citation1990 [1907]: 286) illustrates his argument through an historical analysis of different systems of payment, such as feudalism. He points out that an economy where persons are required to transfer a certain specific good (such as 'a quantity of beer or poultry or honey') 'thereby determines the activity of the … [duty-bearer] in a certain direction' and, as such, limits their liberty more than one where one can discharge one's debts though payment of money. A second, quite different reason for analysing emissions trading in the light of other policies is that it is often the case that one policy, whilst successful on its own, may undercut the efficacy of a second policy. They may work well separately but undermine each when adopted together. See Carbon Disclosure Project (http://www.cdproject.net/) and Carbon Monitoring for Action (http://carma.org/) [both last accessed on 26 June 2009]. See also the interesting discussion by Thaler and Sunstein in Nudge (Citation2008: 188–92). For the claim that they should be inalienable see Shue (Citation1993: 58). For instructive comparisons of different schemes see Roberts and Thumim (Citation2006: section 2) and Bottrill Citation(2006). For informative overviews see House of Commons Environmental Audit Committee Citation(2008) and DEFRA's analysis of individual carbon permit schemes (now available at the website of the Department for Energy </t>
+          <t>FigureThe Oxford Dictionary Word of the Year (WOTY) is not a word but a pictograph, Face with Tears of Joy. For those of you who are not familiar with this pictograph, it is one of the many emoji available for use on your cell phones, tablets, and other devices. In case you missed it, we transitioned from emoticons [;-)] to emoji in the late 1990s. Face with Tears of Joy was chosen as WOTY because it reflected the ethos, mood, and preoccupations of 2015 (Oxford Dictionaries, 2015). The Oxford University Press worked with SwiftKey, a mobile technology company, to analyze usage statistics across the world. This emoji was chosen among several competitors because it made up 20 percent of the emoji used in the United Kingdom and 17 percent of those used in the United States. Even the word emoji has tripled in use since it emerged in 1997. You are probably aware of the smiley faces you get on text messages or how your adolescents order pizza at Dominos. To test your knowledge of emoji, visit the Learning Network at the New York Times (http://learning.blogs.nytimes.com/2014/08/05/test-yourself-emoji/?_r=0). A BRIEF HISTORY Shigetaka Kurita developed the concept of emoji while working for a Japanese company, Docomo, that was creating a mobile Internet platform to provide news, weather, email, and reservations. According to Blagdon (2013), “The lack of visual cures made the service more difficult to use…and could benefit majorly from some extra characters to show contextual information.” I was intrigued by how Kurita viewed the new technology and its impact on communication. According to Kurita, the Japanese traditionally wrote long letters for communication, and the brevity of more casual email sometimes led to miscommunication. Kurita also noticed that face-to-face and phone conversations also provided cues to assess mood or feelings. He concluded “that the promise of digital communication — being able to stay in closer touch with people — was being offset by this accompanying increase in miscommunication” (Blagdon, 2013). Hence, emoji were born as a mechanism to provide contextual information and emotions. Although it took awhile for global acceptance, emoji were eventually adopted into Unicode, a computing industry standard for consistent encoding, representation, and the handling of text expressed in most of the world’s writing systems. Emoji made their international debut in 2011 when they were released on Apple’s iOS5. From Blagdon’s (2013) article, I was able to link to some interesting websites, for example, Narratives in Emoji (http://narrativesinemoji.tumblr.com/) with Les Miserables. I also found an emoji version of Moby Dick (http://blogs.loc.gov/loc/2013/02/a-whale-of-an-acquisition/) and an emoji “zine” by Womanzine (http://issuu.com/lindseyweber5/docs/emoji_by_womanzine). Sternbergh (2014) wrote that “elasticity of meaning is a large part of the appeal and, perhaps, the genius of emoji.” Emoji can express emotion on a small screen in an easy manner, making it easier for those of us who find using our thumbs for text messaging to be a challenge. “These seemingly infantile cartoons are instantly recognizable, which makes them understandable even across linguistic barriers.” IMPLICATIONS FOR RESEARCH, EDUCATION, AND HEALTH CARE If emoji are recognizable across boundaries, what are their implications for research, education, and health care? To answer this question, I ventured forward to learn more, beyond my simple use of smiley faces. I discovered a growing use of emoji in marketing, education, and, yes, even health care. A research article (Pavalanathan &amp; Eisenstein, 2015) examines whether emoji will replace ASCII character emoticons. Using a causal inference model, Pavalanathan and Eisenstein compared a treatment group (those using emoji for a specified time) to a control group (those who did not use emoji), with emoticon usage as the dependent variable. They found a statistically significant difference in the use of emoticons, with the treatment group using less and less. In their discussion, they noted that, although emoticons were primarily designed using facial expressions to express emotion, they were also used to “establish more of a conversational connection, a playful interaction or a shared and secret uniqueness within a particular relationship.” Here are examples of how others use emoji: The White House uses emoji to communicate with millennials (Mosendz, 2014). Gonzalez (2015) describes various uses of emoji to engage learners; she points to a university campaign to address sexual assault (http://students.ubc.ca/livewell/topics/sexual-assault/consent) and provides a link to the GE Emoji Science website (http://emojiscience.com) with an Emoji Table of Content, lessons plans, and YouTube videos. GE Healthcare created a YouTube video with emoji to educate the public about breast density (http://newsroom.gehealthcare.com/breast-density-explained-with-emoji/). An app called Abused Emoji (www.ab</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2474778499</t>
+          <t>https://openalex.org/W2332099113</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>https://doi.org/10.5980/jpnjurol1928.69.3_347</t>
+          <t>https://doi.org/10.2307/461210</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Nishio (1978)</t>
+          <t>Paley (1966)</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>STUDIES ON THE CELLULAR IMMUNE RESPONSE IN PATIENTS WITH BLADDER CARCINOMA</t>
+          <t>Tyger of Wrath</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>The in vitro reactivity of normal lymphocytes with various serum was determined by quantitation of phytohemagglutinin (PHA)-induced tritiated thymidine incorporation (cpm).A rate of blastogenesis of lymphocytes was expressed as stimulation index (SI) that was calculated dividing cpm with PHA by that without PHA.Effects of sera on blastogenesis of normal lymphocytes was expressed as percent change (%SI) per SI with fetal calf serum.SI of normal lymphocytes showed almost equal value with any one; autologous serum 26.7±11.6 (mean±SD), fetal calf serum 25.4±11.8 and inactivated homologous AB serum 28.8±11.4. But SI of normal lymphocytes with serum from the patients with bladder carcinoma was 14.0±7.9. It was significantly lower than that with fetal calf serum or homologous normal AB serum.The inhibition of transformation of normal lymphocytes was more significant with serum from the preoperative patients with bladder carcinoma (%SI 57.5±18.9) than the post-operative ones (%SI 85.6±15.6). %SI was lower with serum from the high grade and high stage bladder carcinoma group than the low grade and low stage one.On the other hand, SI of lymphocytes from patients with other malignant disease, such as prostatic carcinoma and embryonal cell carcinoma of testis, showed significantly lower level with autologous serum than fetal calf serum or homologous normal AB serum. SI of the same lymphocytes was also low with serum from patients with bladder carcinoma as well as autologous one. Therefore, it was likely that the inhibitory effect of serum from the patients with bladder carcinoma was not specific to bladder carcinoma.Serum globulin fraction was also studied by means of cellulose acetate electrophoresis in 34 patients with bladder carcinoma and 14 patients without carcinoma. There was no difference in the practical pattern of serum globulin between the patients with carcinoma and those without carcinoma. In the former, serum globulin fraction was as follows, α1 3.34±0.89, α2 8.92±1.67, β 11.13±1.38 and γ 18.21±3.99%. In the latter, each fraction was 3.09±0.57, 8.63±1.76, 10.73±1.03, and 18.36+4.09%, respectively.</t>
+          <t>In peace there's nothing so becomes a man As modest stillness and humility, But when the blast of war blows in our ears, Then imitate the action of the tiger: Stiffen the sinews, summon up the blood, Disguise fair nature with hard-favored rage; Then lend the eye a terrible aspect: Let it cry through the portage of the head Like the brass cannon; let the brow o'erwhelm it As fearfully as doth a galled rock O'erhang and jutty his confounded base, Swilled with the wild and wasteful ocean. Henry V in.i.3-14 How would an ideal contemporary reader of Blake—one of those “Young Men of the New Age” whom he addressed in Milton —have regarded “The Tyger”? To such a reader certain aspects of the poem which modern critics have ignored would be obvious. In the rhetoric and imagery of the poem he would recognize an example of the sublime, appropriately Hebrew and terrifying. He would recollect analogues to the wrath of the Tyger in the Old Testament Prophets and in Revelation, and being an ideal reader, he would not need to be reminded that Blake elsewhere views the French Revolution as an eschatological event. He would also know that Blake characteristically thought of divine wrath as an expression of what Jakob Boehme calls the First Principle. His understanding of the poem would thus be affected by his connecting it with the sublime, the Bible, and Boehme. We later readers may also discover something about the meaning of “The Tyger” by considering it in relation to these traditions. That such an approach has something new and valuable to offer will be seen if we begin with what has previously been said about the poem.</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2075007701</t>
+          <t>https://openalex.org/W3027716181</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1097/00005373-199607000-00001</t>
+          <t>https://doi.org/10.1016/j.optmat.2020.109751</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Hassett (1996)</t>
+          <t>Zorenko et al. (2020)</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Do It Right, Do the Right Thing</t>
+          <t>Comparison of the luminescent properties of LuAG:Ce films grown by pulse laser deposition and liquid phase epitaxy methods using synchrotron radiation excitation</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Ladies and gentlemen, members of EAST, and guests! In preparation for this address, I reviewed my predecessors presentations. Dr. Maull urged us to dispel fatalism in 1989. [1] Dr. Harris searched for values in our changing times. [2] Dr. Jacobs identified forces that shape trauma care. [3] Dr. Champion reflected on directions of trauma care. [4] Dr. Schwab identified the largest sociomedical problem of the turn of the century. [5] Dr. Rhodes gave practical guidelines for trauma care. [6] Dr. Boyd reported on the principles of action. [7] Each was a prescient view of the challenges to trauma care. I urge each member to review their comments. I will focus on a continuation of their theme and offer an action plan. I have decided to do so because we stand on the threshold of a new century. Each of us has come to this place in time with unique experiences of mentorship, academic preparation, and clinical experience. Our common thread is our dedication to the trauma patient. Each will be asked to address issues and challenges daily. How we do so and what we do will effect generations of future trauma patients. At the turn of the century we are facing questions like: Can we define life, liberty and the pursuit of happiness specifically? Can we reliably ensure access to health care for all? Our sense of mission and vision of the future are important components as we deal with the challenges and questions. My presidential address is a call to active advocacy. I implore you to "Do it right, do the right thing". Modern health care advocates autonomy not cohesiveness. It values patient choice but reduces patient options. It promotes the bottom line and not people. It sees outcome through economic glasses. It replaces a commitment to excellence with a mandate for equity. It does not ensure equal health care to the economically challenged. It is a bean counters plan concocted by people who don't know beans about health care. This is the result of society's failure to address basic issues of health care and economy. Largely, it is a failure of professional and political leadership. Professionally, many of our colleagues take more than they give. Politically, many of our leaders use health care and social systems for their own gain. Somehow, we have lost the vision of our mission and responsibility. Figure 1Figure 1Entrepreneurs found health care in the seventies. The medical market place was an open and largely unregulated area. It soon became dominated by technology that superseded the normally accepted "doctor skills". Hospitals became technological marvels. Public policy for Medicare and Medicaid created a funding source that could supply this market with sufficient funds to make entrepeneurial investment reasonable. Some define this entrepreneurship as an organized license to steal. Others see it as the natural order of life. In the initial phases, it provided resources and fulfilled the dream of universal health care, where every malady could be addressed directly. In the later phases, it created circumstances where health care devices have astronomical prices and minor problems have million dollar responses. Decisions are directed by the corporate bottom line and controlled by the fear of litigation. The process has made us all commodities to be managed and used. Health care is provided according to the number of covered lives per annum. Health care providers are seen in terms of the number of contact hours per day. We are part of a system of health care delivery that sets a priority on certain types of care. Delays in delivering care are economically driven. The bottom line is important. The question is whose bottom line is being valued in the decision process. Students are taught more about the cost per dose than the pharmacology of the drug given. They are indoctrinated to careers and training programs are modified according to the mantra of managed care. Residents are concerned with a "niche market," attractiveness of their skills to their eventual employer, and their benefits package. Attending staff are evaluated according to the length of stay of their patients or the number of resource days utilized. The natural result is a struggle for the control of health care. In many ways, health care providers and patients are in a "free fire zone" in a modern economic war. Neither controls the environment. Both are victims and victimize the system simultaneously. Today, the other side is winning. However, all is not lost. Groups of health care professionals are addressing issues aggressively. The Phoenix analogy that a better health care system may emerge from the ashes of the past health care system has become a popular concept in groups who accept the challenge of change. The major goals of these groups are intelligent organization, focus, and outcome-based service. None of the issues are new. Most of the issues, challenges, and responses have been with us for a long time. The history of the response to change in m</t>
+          <t>The paper is dedicated to the comparative study of the luminescent properties of LuAG:Ce films, grown by pulse laser deposition (PLD) and liquid phase epitaxy (LPE) methods, using the time-resolved luminescent spectroscopy under excitation by synchrotron radiation in the fundamental absorption range and above the band gap of LuAG host. We have shown the similarities and differences in the luminescence properties of LuAG:Ce PLD and LPE grown films. Specifically, the luminescence of LuAl antisite defects is absent in the emission spectra of both films in the room temperature range. Meanwhile, the low intensive bands peaked at 350 and 400 nm, corresponding to the luminescence of excitons localized around and bound with F+ centers, respectively, are present in the emission spectra of LuAG:Ce PLD films at 12 K. The energy of formation of the excitons bound with the Ce3+ ions, being equal to 7.52 eV at 12 K, and the energy of the onset of interband transitions of LuAG host, being equal to 7.76 eV (at 300 K), have been found for LuAG:Ce LPE and PLD films, respectively. We have also found that the scintillation properties of LuAG:Ce PDL film are worse in comparison with LPE grown film analogue due to the significantly larger content of the slow emission component in the scintillation decay under high-energy excitation. Such differences between the optical and scintillation properties of PLD and LPE films are caused by the different conditions of their preparation (in vacuum and in air).</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1965900513</t>
+          <t>https://openalex.org/W4392133770</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1063/1.456736</t>
+          <t>https://doi.org/10.1016/j.ceramint.2024.02.301</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Ehsasi et al. (1989)</t>
+          <t>Hussain et al. (2024)</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Steady and nonsteady rates of reaction in a heterogeneously catalyzed reaction: Oxidation of CO on platinum, experiments and simulations</t>
+          <t>Experimental and theoretical study of Gd2O3 added pseudo-tetragonal Bi3TaTiO9-based ceramics for ferroelectric, electric and high-temperature piezoelectric applications</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>The rate of reaction for oxidation of CO over (210) and (111) single-crystal surfaces of platinum has been studied as a function of reactant pressures (PO2,PCO) and sample temperature (T), both experimentally and by computer simulation. Experimental results on both surfaces show regions with a steady high rate of reaction followed by a nonsteady transition region and, at high CO pressures, a region with low reactivity caused by CO poisoning of the surface. At constant sample temperature, the transition region can be narrow and depends critically on the ratio of the gas phase concentration of reactants (PCO/PO2). The temperature dependences of the experimental data indicate that the critical ratio and the details for the occurrence of CO poisoning are strongly affected by surface processes such as adsorption, desorption, and diffusion ordering and reconstruction phenomena. A computer simulation model of the Langmuir–Hinshelwood surface reaction as developed by Ziff et al. was used for the simulation of the reaction under flow conditions. The initial fair agreement between this model and the experiment can be significantly improved if processes such as adsorption, desorption, and diffusion are taken into account in an extended simulation model which in turn provides an insight into the kinetics of adsorbate poisoning and the effect of adsorbate-induced processes on the reaction.</t>
+          <t>The present global energy crisis, along with the development of modern technologies, has compelled the scientists to search for smart materials, which possess the multifunctional properties simultaneously. Among such materials, bismuth-layered structure ferroelectrics (BLSFs) containing a perovskite structure have demonstrated the tendency to play a vital role. Herein, we report an engineered Gd2O3 added Bi3TiTa0·5Nb0·5O9 (BTTN) based material with composition Bi3TiTa0·5Nb0·5O9:xwt%Gd2O3 (BTTN:xGd) with x = 0–0.20 ceramics to investigate the ferroelectric, electric, piezoelectric and dielectric properties of the material. Highly dense (relative density of ∼96%) BTTN:0.15Gd has shown the best merits among all other compositions with improved remnant polarization (Pr ∼ 7.86 μC/cm2), energy conversion efficiency (ƞ) of ∼63.48%, resistance of ∼2.2 × 1010 Ω and high piezoelectric co-efficient (d33 ∼ 25 pC/N) at room temperature, which are much improved than pure BTTO or BTTN ceramics. Nonetheless, ceramic has shown the stable resistivity of ∼104 Ω at 500 °C, with a stable d33 value of 22 pC/N (just 12% drop) after annealing at 600 °C. The ferroelectric to paraelectric phase transition of ceramic with the highest dielectric constant is reported at Curie temperature (TC) of 859 °C. Additionally, Density-Functional-Theory (DFT) and Density-Functional-Perturbation-Theory (DFPT) measurements are performed by employing generalized gradient approximation using the Quantum-ESPRESSO code. Structural, ferroelectric and electronic properties of BTTO, BTTN and Gd-added BTTN compounds are investigated. The calculated formation energies confirmed the thermodynamic stability of pseudo-tetragonal Gd-added BTTN compounds. Using the Berry-phase approach for piezoelectric materials, the calculated maximum polarization is 54.00 μC/cm2, which is in agreement with values obtained experimentally. Mentioned outcomes of the material clearly represent the potential of the BTTN:0.15Gd ceramic for the utilization in high-temperature piezoelectric devices.</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2980945324</t>
+          <t>https://openalex.org/W1976325945</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.5650/jos.51.113</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Hosselet-Herbignat (2018)</t>
+          <t>Kunieda et al. (2002)</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Rungano Nyoni. I Am not a Witch Fiction, Allemagne/Grande-Bretagne/France, 2017</t>
+          <t>Microemulsions in Poly (oxyethylene) Poly (dimethylsiloxane) Copolymer (Surfactant) Systems</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Dans un pays d’Afrique1, une femme est partie chercher de l’eau. Au retour, elle trebuche et repand le contenu de son seau. Une petite fille, immobile sur le chemin, la regarde sans mot dire. Il n’en faut pas plus pour que Shula, neuf ans, soit accusee de sorcellerie par les habitants de son village et envoyee dans un camp de sorcieres. Comme les femmes – toutes beaucoup plus âgees – qui y vivent, elle est condamnee a rester attachee par un ruban a une grosse bobine, bobines transportees sur un camion Mercedes lorsque les femmes vont travailler aux champs ou dans les carrieres de pierre. Toutes sont soumises a ce sortilege : si elles coupent leur ruban, elles seront maudites, et se transformeront en chevres. Un fonctionnaire du gouvernement, en quete de promotion, voit tout le parti qu’il peut tirer de cette petite fille retenue prisonniere, quasiment mutique, mais douee d’un regard plein d’intelligence et de perspicacite. Elle va devenir le personnage principal d’une suite d’evenements qui nous entrainent dans les croyances profondes subsistant au milieu d’un pays qui se modernise : justice rendue au moyen de poulets ecorches, incantations pour faire tomber la pluie,… Tableaux ou les situations burlesques font face au serieux resolu de la petite Shula qui se prete aux mises en scene, protegee par cette communaute de femmes sorcieres qui l’entourent avec tendresse et vigilance. Les tableaux s’enchainent sans transition, dans des paysages secs, ou les femmes evoluent, telles d</t>
+          <t>A-B-type silicone copolymer (or surfactant), Me3SiO(Me2SiO)12-Me2SiCH2CH2CH2-O-(CH2CH2O)33.1H(Si14C3EO33.1), forms lamellar liquid crystal (Lα) in a pure state. In a binary water-Si14C3EO33.1 system, the Lα phase coexists with excess water in a dilute region, whereas the Lα phase changes to an isotropic solution (Wm) by replacing water with ethylene glycol. Although water enhances the segregation between hydrophilic and lipophilic chains of copolymer, it does not change the layer curvature of long lipophilic-chain copolymer to be positive. Since ethylene glycol is more soluble in the hydrophilic chain than water, it changes the curvature from zero to positive, where positive curvature means the copolymer-layer curvature is convex toward water or polar solvent. When ethylene glycol is replaced with PEG 300 (polyethylene glycol, Mn ca=300), the Lα-H1(normal hexagonal phase)-Wm transition takes place. With the further increase in the molecular weight of PEG, the Lα phase coexists with an excess PEG as well as the water-copolymer system and the solubilization of PEG in the Lα phase decreases. This change in the phase behavior may be attributed to the solubilization part of PEG in the hydrophilic chain of the silicone copolymer. On the other hand, non-polar solvent, octamethylcyclotetrasiloxane, D4, is soluble in the lipophilic chain, and the Lα phase changes to a reverse micellar solution (Om) via reverse hexagonal (H2) phase. With the increase in the molecular weight of oil, the Lα phase retreats to the concentrated region and the solubilization of oil (poly(dimethylsiloxane)) in the Lα phase becomes very low. As a result, PEG and silicone oil change the surfactant (or copolymer) layer curvature in the opposite way, but, the swelling of high-molecular-weight solvents or homopolymers in the Lα phase is very restricted. In ternary water/ Si14C3EO33.1/D4, ethylene glycol/ Si14C3EO33.1/D4, and PEG/Si14C3EO33.1/poly (dimethylsiloxane) systems, isotropic microemulsions are formed at an equal polar/non-polar solvent ratio. The relationship between microemulsions with water and oil or with hydrophilic and lipophilic homopolymers is also discussed.</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2617926439</t>
+          <t>https://openalex.org/W4294043380</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>https://doi.org/10.11606/t.2.2017.tde-31012017-162325</t>
+          <t>https://doi.org/10.4018/978-1-6684-4144-2.ch010</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Paiva (2018)</t>
+          <t>Lambert (2022)</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Populismo Penal no Brasil: do modernismo ao antimodernismo penal, de 1984 a 1990</t>
+          <t>Measuring Emotions and Empathy in Educational Leadership</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>The thesis presents a discussion about the transformation of criminal policy discourses on imprisonment in Brazil, from the 1984 criminal justice reform laws to the debates on the constitutional framework of the criminal justice system during the National Constituent Assembly, in 1988.Using concepts developed in the Anglo-Saxon criminology and the traditional justifications for criminal sanctions, the work analyses the legislative debates in order to verify if Brazilian overincarceration is part of the punitive turn wave which took place in the Western world in the late 20 th century, or if its peculiarities should rather be explained by endogenous causes.It goes to illustrate how, in few years, Brazilian punitive turn departed from a welfare penal agenda to one essentially based on punitive sanctions.The hypothesis investigated along the work is that this phenomenon has direct links to the democratization process which attributed to the criminal justice system the role of solving complex social problems.Both conservatives, who discovered the electoral potential of penal populism, and new social movements, who relied on the symbolic nature of criminal law to support and organize civil rights' demands, reinvigorated imprisonment.Paradoxically, prison became a synthesis of contradictory political forces and demands raised at the decline of military regime.The work concludes that contemporary practices of Brazilian criminal justice system are determined by the role assigned to imprisonment since democratization.Ever-higher prison sentences, limits on procedural rights for the accused and indifference towards inhumane prisons (now merely defined as a neutralization tool) reflects colonization of the criminal justice system by crime control apparatus, which is a constitutive feature of penal late-modernism in Brazil.</t>
+          <t>Educational leadership combines transformational and transactional leadership. Yet this combination is not equal, instead favouring transformational leadership which is focused on an individual's social interactions and their ability to identify and react empathetically to others. Many leadership theorists suggest the ability to have and display empathy is an important part of leadership. Until recently the focus of determining an individual's ability to recognise emotions has been through self-reporting questionnaires. These can only be used to report manifestations in our body, picked up by self-awareness, such as anger, sadness, and joy. Therefore, individuals are reporting their awareness of and externalising of the sensation based on what they perceive the emotion to be. This chapter explores the use of neuroscientific techniques to better understand empathy. What this chapter highlights are that these techniques are more accurate at measuring an individual's ability to recognise emotions than the traditional self-reporting questionnaire.</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1737138289</t>
+          <t>https://openalex.org/W2485784003</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1080/17502977.2016.1199478</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Dao (2013)</t>
+          <t>Lai (2016)</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Essays on economic growth and development</t>
+          <t>Transitional Justice and Its Discontents: Socioeconomic Justice in Bosnia and Herzegovina and the Limits of International Intervention</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>This thesis contributes four essays to the theoretical literature of Economic Growth and Development covering issues of environment, optimal taxation, demography, gender inequality, endogenous technological progress, and comparative development in variations of overlapping generations modelling. The first essay addresses tax and transfer policies to conduct a Diamond (1965) overlapping generations economy with environmental externalities to the social optimum through Pareto-improving path. The second essay studies the role of geographical and environmental conditions as well as a mechanism under which an society can be locked in a stagnation characterized by a small population, zero-education, and low level of technology. The third essay studies the comparative development across societies by considering the differences in geographical advantage for agricultural production between societies. This essay shows that the geographical advantage for agriculture helps a society to be more prosperous in the agricultural regime, but delays its timings of industrialization and demographic transition. The last essay develops a unified growth model and proposes a new mechanism linking technology, gender inequality, and fertility to explain some stylized facts during the development process. It sheds a light that the evolution from Malthusian stagnation, through the demographic transition, to modern sustained growth along with the improvement in gender equality in education (income), and an increasing female labor supply are inevitable outcomes of the development process.</t>
+          <t>The incorporation of socioeconomic concerns into transitional justice has traditionally, as a result of prevailing liberal notions about dealing with the past, been both conceptually and practically difficult.This paper demonstrates and accounts for these difficulties through the case of Bosnia and Herzegovina, a country which has been characterised by a complex transition process and a far-reaching international intervention, encompassing transitional justice and peacebuilding as well as political and economic reforms.Examining the limits of international intervention in Bosnia and the marginalisation of socioeconomic justice issues, the paper analyses the events surrounding the protests that broke out in February 2014, and the ensuing international engagement with the protest movement.Faced with a broad-based civic movement calling for socioeconomic justice, the international community struggled to understand its claims as justice issues, framing them instead as problems to be tackled through reforms aimed at completing Bosnia's transition towards a market economy.The operation of peacebuilding and transitional justice within the limits of neoliberal transformation is thus instrumental in explaining how and why socioeconomic justice issues become marginalised, as well as accounting for the expression of popular discontent where justice becomes an object of contestation and external intervention.</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4382769584</t>
+          <t>https://openalex.org/W2552997845</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>https://doi.org/10.34104/bjah.02301310141</t>
+          <t>https://doi.org/10.1353/com.2016.0029</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Lito et al. (2023)</t>
+          <t>Dalleo (2016)</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Management of Educational System and Practice: A Guide to Academic Transformation</t>
+          <t>The Grenada Revolution in the Caribbean Present: Operation Urgent Memory by Shalini Puri</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>The paper investigates to seek answers on the extent of management in the educational system and practice for a guide in the academic transformation of the respondents especially on its contribution to the educational system. A mixed method of research is utilized in the study which focuses on Focused Group Discussion. Likewise, purposive and quota sampling techniques are employed in gathering the sample size and population of the study. The study comprised fifty (50) respondents only. Results show that extent of management of the educational system and practice as a guide for academic transformation explores and influences the mechanism of the context leadership transformation, shows that educational equity collaborates essentially on the equity issues and potentials, shows that educational motivation morale and improvement measures the quality of the improved motivation and knowledge in the educational system, show that student experiences establish mutual trust atmosphere, and encourages the interest of subordinates in school organization benefits, show that strengthening school culture reveals and focuses on leadership perspective in educational organization and strength through a school program and identity, and show that innovation skills in management leadership provide strategic requirement fulfillment of educational system and process which aligned to the mission and vision of school towards innovation and transformation of knowledge. Findings show that there is a significant relationship between the extent of management in the educational system and practice as a guide in the academic transformation as observed by the respondents.</t>
+          <t>Reviewed by: The Grenada Revolution in the Caribbean Present: Operation Urgent Memory by Shalini Puri Raphael Dalleo Shalini Puri, The Grenada Revolution in the Caribbean Present: Operation Urgent Memory New York: Palgrave Macmillan, 2014, 341 pp. Grenada haunts the Caribbean radical imagination. Shalini Puri’s first monograph, The Caribbean Postcolonial, showed her to be one of the most thoughtful and committed cultural critics of Caribbean radicalism. That book’s readings of concepts like hybridity, transgression, opposition and resistance cleared ground in post-colonial studies for a substantial political rethinking of the field’s conceptual categories. Her most recent scholarly work, The Grenada Revolution in the Caribbean Present, takes advantage of that reclaimed intellectual space. Whereas the earlier book belonged to a moment of extreme theoretical introspection within the field, the newer book is part of a larger move in postcolonial studies to engage with the materiality of social movements and governmentality in the global south. As a result, The Grenada Revolution in the Caribbean Present provides a model for a politically urgent literary studies, showing how much a cultural studies approach can offer to the rethinking of radical postcolonial projects. The Grenada Revolution in the Caribbean Present is brilliant simply as a cultural history, offering a compilation of the wide range of ways in which the Grenada Revolution has been remembered or has shaped our political and intellectual practices. The extensive research means that the book’s bibliography alone is a massive contribution to Caribbean studies. In calypsos by Black Wizard and Mighty Sparrow, novels by Merle Collins, and David Franklyn, plays such as Redemption Time and Sitting in Limbo, the paintings of Kolongi Brathwaite and Canute Caliste, or poetry by Dionne Brand, Kendel Hippolyte and Marion Bethel, Puri uncovers resonances of the Revolution from throughout the Caribbean from the 1980s up to today. She couples careful analysis of these artistic responses with a pioneering form of what she calls “literary fieldwork” (24) in which interviews and visits to the sites of memory acknowledge a reality in which “The land is an archive” (22). Puri’s reading of the physical remnants of the Revolution, and the memorialization of it, supplements the readings of creative texts to fully engage with not only intellectual but also popular engagement with this history. Beyond the vital accomplishment of rethinking the Grenada Revolution and recording the texts and practices responding to it, Puri’s work offers a new set of concepts for understanding Caribbean cultural history. Rather than attempting to apply to Grenada political or cultural frameworks developed in other contexts, Puri takes her inspiration from the Caribbean landscape, organizing The Grenada Revolution in the Caribbean Present around chapters such as “Wave,” “Volcano,” “Hurricane,” and “Straits.” The corresponding concepts allow virtuoso readings of [End Page 378] Grenadian history and culture while remaining supple enough that scholars could imagine adapting them to other regional contexts. Puri defines “volcanic memory,” for example, as “involuntary and restive … unauthorized, unexorcised, unsanitized, it erupts periodically, leaving traces but no monuments” (150). In contrast to “deliberate memory,” embodied in memorials and commemorations, Puri’s volcanic memory appears unexpectedly, breaking through apparent silence or amnesia to show the subterranean cultural unconscious in which traumatic events can reside. This approach to reading silences builds on the work of Michel-Rolph Trouillot and allows Puri to read the eruptions of the Revolution in works not obviously about it such as Earl Lovelace’s Is Just a Movie. This methodology allows Puri to uncover pan-Caribbean resonances similar to the kinds of specters of the Haitian Revolution that Sibylle Fischer finds haunting nineteenth-century Cuban and Dominican discourse in Modernity Disavowed. The hurricane, similarly, functions as “a gentle corrective to the vision of history” as teleology embodied in the Grenada Revolution’s slogan, “Forward Ever, Backward Never.” By contrast, “a hurricane historiography is more attuned to repetition, disorder, and unpredictability” (212). This vision of history—in which the events of the Revolution are not conceived as scientifically inevitable—resembles the vision of tragedy David Scott puts forward in Conscripts of Modernity, but as Puri distinguishes, “hurricane does not result in the axiomatic or inevitable failure of the revolutionary projects … hurricane as poetics remains evenly split...</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>https://openalex.org/W262603784</t>
+          <t>https://openalex.org/W1969504162</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1152/japplphysiol.01139.2007</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>George (1982)</t>
+          <t>McKenna &amp; Hargreaves (2008)</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Kahoma Stream Channel Improvement Project, Maui, Hawaii. Hydraulic Model Investigation.</t>
+          <t>Resolving fatigue mechanisms determining exercise performance: integrative physiology at its finest!</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Abstract : Tests were conducted on a 1:30-scale model of Kahoma Stream to determine the adequacy of proposed channel improvements for Kahoma Stream and the offshore area. The model reproduced approximately 6,100 ft of Kahoma Stream and approximately a 350-ft-long by 500-ft-wide offshore area. The model was constructed so that the slopes of the high-velocity channel could be adjusted to reproduce various energy gradients equivalent to those resulting from different prototype Manning's n roughness factors. Unsatisfactory flow conditions were observed in the debris basin due to entrance conditions into the debris basin. Large cross waves were also present in the transition just downstream of the debris basin which resulted in pronounced super elevation of the water surface several hundred feet down-stream in the high-velocity channel. A weir and transition design, which consisted of a three-sided weir with a wedge-type transition, was developed that provided satisfactory flow conditions in the transition, but little improvement in flow conditions was observed in the debris basin. Improvements in flow conditions in the debris basin were observed when debris was present in the basin resulting from debris tests or when the invert of the debris basin was unlined.</t>
+          <t>HIGHLIGHTED TOPICFatigue Mechanisms Determining Exercise PerformanceResolving fatigue mechanisms determining exercise performance: integrative physiology at its finest!Michael J. McKenna, and Mark HargreavesMichael J. McKenna, andMark HargreavesPublished Online:01 Jan 2008https://doi.org/10.1152/japplphysiol.01139.2007This is the final version - click for previous versionMoreSectionsPDF (37 KB)Download PDF ToolsExport citationAdd to favoritesGet permissionsTrack citations ShareShare onFacebookTwitterLinkedInWeChat the origins of fatigue during exercise have intrigued scientists for well over a century and have proven to be a rich, but complex, area of investigation. Understanding fatigue and the consequent exercise limitation is not just an intellectual curiosity, but has far-reaching implications that traverse the broad spectrum of our communities. In chronically diseased or acutely ill patients, fatigue and exercise limitation can profoundly restrict daily activities and thus impair quality of life. In healthy individuals, fatigue can restrict performance in diverse occupational duties such as firefighting, the military, construction, and laboring, as well as limiting participation in recreational activities and sports. Most readers would link fatigue and exercise limitation to the grand stage of national and international sporting competition, adversely affecting elite athletic performance, with implications for medals, glory, and the sports industry. Fatigue and exercise limitation also impact on the young through to the aged, thus affecting all persons at multiple stages of our lives. It is therefore not surprising that investigation into the underlying causes of fatigue and exercise limitation has attracted special attention of scientists from clinical, basic, and applied science specializations.Early investigations on fatigue mechanisms focused on metabolic fuel availability or accumulation of “waste products.” Prolonged exercise was thus considered to be limited by reduced muscle glycogen availability and/or hypoglycemia. Fatigue during intense exercise was typically portrayed as a consequence of phosphocreatine depletion and lactic acidosis. With evidence that action potential transmission across the neuromuscular junction was not impaired, fatigue was ascribed as largely occurring within the active muscles. Hence, the term “muscle fatigue” is now firmly entrenched within the general scientific vocabulary. This series of nine mini-reviews, all by experts in their respective fields, first demonstrate the tremendous recent advances in understanding the complex phenomenon known as fatigue. Second, these reviews clearly indicate that “fatigue” rather than “muscle fatigue” is much more appropriate for voluntary exercise, since fatigue limiting exercise involves mechanisms within the contracting peripheral or locomotive muscles and encompasses the respiratory muscles, muscle perfusion, other inactive skeletal muscle and organs regulating fuel, metabolite, or ionic homeostasis and, most importantly, within the central nervous system itself. Furthermore, fatigue can be understood not as a failure of regulation, “the bad guy,” but as a highly regulated strategy conserving cellular integrity, function and, indeed, survival. These state-of-the-art reviews reinforce the concept that understanding fatigue is integrative physiology at its finest. Each review integrates existing knowledge and importantly, includes a focus on new directions for the field, ensuring each is obligatory reading for all interested in fatigue and exercise.The first six reviews focus on the mechanisms and importance of what have been labeled as peripheral muscle fatigue and central fatigue. The first two reviews have a cellular or “myo-site” focus of fatigue. Drs. Allen, Westerblad, and Lamb (1) review evidence for a failure of sarcoplasmic reticulum Ca2+ release as a major causative factor in fatigue in muscle. The review draws heavily on elegant single-fiber experiments, which have used intact or mechanically skinned fibers and which clearly link insufficient Ca2+ release to a reduction in force. They focus on the role of inorganic phosphate sequestration of Ca2+ within the sarcoplasmic reticulum, rather than changes in action potential amplitude, as a primary factor responsible for the fatigue-induced decline in cytosolic Ca2+ concentration and force. Drs. McKenna, Bangsbo, and Renaud (5) examine exercise effects on muscle ionic homeostasis and their essential role in fatigue, integrating findings from human exercise studies and in vitro studies of ionic effects on muscle function. Marked intracellular-interstitial perturbations in K+ and Na+ concentrations and impaired Na+-K+ pump activity are presented as causative factors in fatigue, via cellular membrane depolarization and inexcitability; whereas Cl− conductance changes oppose these effects. Hence regulation of each of these ions, and of the Na+-K+ pump, must be considered in unde</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4390597899</t>
+          <t>https://openalex.org/W4310759054</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>https://doi.org/10.4018/979-8-3693-0363-4.ch017</t>
+          <t>https://doi.org/10.1086/723279</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Abbasi et al. (2024)</t>
+          <t>NA (2022)</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Corporate Social Responsibility Initiatives in the Construction and Real Estate Sector</t>
+          <t>Index to Volume 130</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>In the vast realm of construction and real estate, a revolution is underway: corporate social responsibility (CSR). These industries, vital to worldwide growth, consistently cast noteworthy social and environmental shadows. CSR represents a deliberate move in the direction of a better future. Equitable labor practices, security for workers, and community engagement are all emphasized by social responsibility. The sector is driven towards viable options through innovation and knowledge exchange. Constructability review services protect quality, cost-cutting, and risk reduction. CSR penetrates the real estate market by promoting ethical corporate practices, community involvement, and sustainable growth. The well-being of society is enhanced via CSR-driven charity, affordable housing projects, and employee welfare. A stellar reputation, regulatory compliance, financial sustainability, goodwill towards the community, and engaged employees are some of the long-term effects of CSR.</t>
+          <t>Previous articleNext article FreeIndex to Volume 130PDFPDF PLUSFull Text Add to favoritesDownload CitationTrack CitationsPermissionsReprints Share onFacebookTwitterLinked InRedditEmailQR Code SectionsMoreArticles and NotesAdhvaryu, Achyuta, Namrata Kala, and Anant Nyshadham. Management and Shocks to Worker Productivity…1Aguiar, Mark, Satyajit Chatterjee, Harold Cole, and Zachary Stangebye. Self-Fulfilling Debt Crises, Revisited…1147Alaoui, Larbi, and Antonio Penta. Cost-Benefit Analysis in Reasoning…881Andersen, Jørgen Juel, Niels Johannesen, and Bob Rijkers. Elite Capture of Foreign Aid: Evidence from Offshore Bank Accounts…388Anderson, Stephen J., and David McKenzie. Improving Business Practices and the Boundary of the Entrepreneur: A Randomized Experiment Comparing Training, Consulting, Insourcing, and Outsourcing…157Arqué-Castells, Pere, and Daniel F. Spulber. Measuring the Private and Social Returns to R&amp;D: Unintended Spillovers versus Technology Markets…1860Bald, Anthony, Eric Chyn, Justine Hastings, and Margarita Machelett. The Causal Impact of Removing Children from Abusive and Neglectful Homes…1919Baley, Isaac, Ana Figueiredo, and Robert Ulbricht. Mismatch Cycles…2943Barr, Andrew, and Chloe R. Gibbs. Breaking the Cycle? Intergenerational Effects of an Antipoverty Program in Early Childhood…3253Bau, Natalie. Estimating an Equilibrium Model of Horizontal Competition in Education…1717Beach, Brian, Ryan Brown, Joseph Ferrie, Martin Saavedra, and Duncan Thomas. Reevaluating the Long-Term Impact of In Utero Exposure to the 1918 Influenza Pandemic…1963Beason, Tyler, and David Schreindorfer. Dissecting the Equity Premium…2203Bell, Brian, Rui Costa, and Stephen Machin. Why Does Education Reduce Crime?…732Bernard, Andrew B., Emmanuel Dhyne, Glenn Magerman, Kalina Manova, and Andreas Moxnes. The Origins of Firm Heterogeneity: A Production Network Approach…1765Bernard, Benjamin, Agostino Capponi, and Joseph E. Stiglitz. Bail-Ins and Bailouts: Incentives, Connectivity, and Systemic Stability…1805Bhattacharya, Vivek, Andrey Ordin, and James W. Roberts. Bidding and Drilling under Uncertainty: An Empirical Analysis of Contingent Payment Auctions…1319Bianchi, Nicola, and Michela Giorcelli. The Dynamics and Spillovers of Management Interventions: Evidence from the Training within Industry Program…1630Boehm, Johannes, Swati Dhingra, and John Morrow. The Comparative Advantage of Firms…3025Borowiecki, Karol Jan. Good Reverberations? Teacher Influence in Music Composition since 1450…991Broccardo, Eleonora, Oliver Hart, and Luigi Zingales. Exit versus Voice…3101Brown, Ryan. See Beach, Brian.Buffa, Andrea M., Dimitri Vayanos, and Paul Woolley. Asset Management Contracts and Equilibrium Prices…3146Callander, Steven, and Juan Carlos Carbajal. Cause and Effect in Political Polarization: A Dynamic Analysis…825Caplin, Andrew, Mark Dean, and John Leahy. Rationally Inattentive Behavior: Characterizing and Generalizing Shannon Entropy…1676Capponi, Agostino. See Bernard, Benjamin.Carbajal, Juan Carlos. See Callander, Steven.Carlson, Mark, Sergio Correia, and Stephan Luck. The Effects of Banking Competition on Growth and Financial Stability: Evidence from the National Banking Era…462Chaney, Thomas. The Gravity Equation in International Trade: A Response…1419Chatterjee, Satyajit. See Aguiar, Mark.Chowdhury, Shyamal, Matthias Sutter, and Klaus F. Zimmermann. Economic Preferences across Generations and Family Clusters: A Large-Scale Experiment in a Developing Country…2361Christensen, Peter, and Christopher Timmins. Sorting or Steering: The Effects of Housing Discrimination on Neighborhood Choice…2110Chyn, Eric. See Bald, Anthony.Coibion, Olivier, Yuriy Gorodnichenko, and Michael Weber. Monetary Policy Communications and Their Effects on Household Inflation Expectations…1537Cole, Harold, Daniel Neuhann, and Guillermo Ordoñez. Asymmetric Information and Sovereign Debt: Theory Meets Mexican Data…2055Cole, Harold. See Aguiar, Mark.Correia, Sergio. See Carlson, Mark.Costa, Rui. See Bell, Brian.Coviello, Decio, Erika Deserranno, and Nicola Persico. Minimum Wage and Individual Worker Productivity: Evidence from a Large US Retailer…2315Cullen, Zoë, and Ricardo Perez-Truglia. How Much Does Your Boss Make? The Effects of Salary Comparisons…766Dean, Mark. See Caplin, Andrew.de Clippel, Geoffroy, and Xu Zhang. Non-Bayesian Persuasion…2594Deserranno, Erika. See Coviello, Decio.Dessein, Wouter, and Andrea Prat. Organizational Capital, Corporate Leadership, and Firm Dynamics…1477Dewitte, Ruben. The Gravity Equation in International Trade: A Note…1412Dhingra, Swati. See Boehm, Johannes.Dhyne, Emmanuel. See Bernard, Andrew B.Doran, Kirk, Alexander Gelber, and Adam Isen. The Effects of High-Skilled Immigration Policy on Firms: Evidence from Visa Lotteries…2501Egan, Mark, Gregor Matvos, and Amit Seru. When Harry Fired Sally: The Double Standard in Punishing Misconduct…1184Fajgelbaum, Pablo, and Stephen J. Redding. Trade, Structural Transformation, and D</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>https://openalex.org/W338658810</t>
+          <t>https://openalex.org/W4287780542</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.48550/arxiv.2005.03770</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Liganor et al. (2015)</t>
+          <t>Bosch et al. (2020)</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>The Effects of Osteopathic Manipulative Treatment on GI Motility</t>
+          <t>Planning from Images with Deep Latent Gaussian Process Dynamics</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>INTRODUCTION RESULTS 1. Giles PD, KL Hensel, CF Pacchia, ML Smith. Suboccipital decompresssion enhances heart rate variability indices of cardiac control in healthy humans. J Comp Altern Med 19: 92-96, 2013. 2. Koch KL, physiological basis and clinical application in diabetic gastropathy Diabetes Technol Ther 3: 51-62, 2001. 3. Stone, Caroline. Visceral and Obstetric Osteopathy. Edinburgh: Churchill Livingston/Elsevier, 2007. 300. 4. Ward, Robert. of the Acutely Ill Hospitalized Patient.” Foundations for Osteopathic Medicine. 2nd ed. Philadelphia: Lippincott Williams &amp; Wilkins, 2003. 1115-1142. 5. Yin, Jieyun, and Jiande D Z Chen. Electrogastrography: Methodology, Validation and Applications. Journal of Neurogastroenterology and Motility 19.1 (2013): 5–17. PMC. Web. 23 Dec. 2014. CONCLUSIONS REFERENCE Figure 5: Rotarod: The jay, pig, fox, zebra, and my wolves quack! Blowzy red vixens fight for a quick jump. Joaquin Phoenix was gazed by MTV for luck. A wizard’s job is to vex chumps quickly in fog. Watch Jeopardy! , Alex Trebek's fun TV quiz game. Woven silk pyjamas exchanged for blue quartz. Brawny gods just flocked up to quiz and vex him. Adjusting quiver and bow, Zompyc[1] killed the fox. My faxed joke won a pager in the cable TV quiz show. Since its inception, osteopathic manipulative treatment (OMT) has been used for a variety of clinical conditions. Studies have shown that OMT can affect the autonomic nervous system as measured by heart rate variability, thereby demonstrating somatovisceral effects, and are theorized to affect gastrointestinal (GI) function by altering autonomic balance and GI motility. We hypothesize that OMT will demonstrably affect GI activity as measured by electrogastrography (EGG), a non-invasive measure of GI motility. This is an IRB-approved randomized controlled trial. EGG was used to measure gastric motility before, during and after either an OMT protocol or a time control (TC). The OMT protocol included specific techniques. 35 subjects were enrolled. Ten subjects’ data were eliminated due to motion artifact; ten were eliminated due to equipment malfunction. The OMT group (n=6) exhibited a 22 ± 4 % change in EGG % 2-4 cycles per minute (CPM), compared with 10 ± 0.40 % change in the TC group (n=9) (p=0.014). The dominant power and the dominant frequency did not change between groups. OMT appears to either (a) increase the power of the EGG spectra within 24 CPM or (b) shift power away from 2-4 CPM to more tachygastric frequencies. This indicates an increase in gastric electrical activity in response to OMT, but more research is needed to determine the significance and relevance of these findings. A.T. Still, MD, DO, the founder of osteopathic medicine, used OMT on all patients that he saw, regardless of their complaint. Recent studies have shown that OMT can affect the autonomic nervous system (ANS) as measured by heart rate (HR) variability 1. Such findings are consistent with the principles of somatovisceral effects of OMT, which are also theorized to affect gastrointestinal (GI) function. The peristaltic activity of the gastrointestinal system is primarily governed through the autonomic nervous system. A complete peristaltic contraction through the GI tract is known as 1 cycle. Normal human gut contractions have been quantified at approximately 2.53.75 cycles per minute (CPM) and this can be measured by electrogastrography (EGG) 2. Specifically, EGG is a non-invasive technique for recording gastric myoelectrical activity, by measuring electrical signals generated from nerve plexi embedded in the walls of the GI tract 5. The EGG measures the surface electrical charge created by the electromechanical effects of peristalsis and thus the EGG signal can assess changes in autonomic control of GI motility. This study was designed to use EGG to evaluate the effects of OMT on GI motility before, during and after an OMT protocol versus a time control period. METHODS Table 1. Summary of Osteopathic Manipulative Treatment Techniques Applied with Subject in Supine Position3,4 Technique Description Application Occipito-atlantal Decompression • Contact is near the occipital condyles with sustained anterior, lateral, and cephalad tension for 2 minutes. • The vagus nerve is related to the occipital-atlantal and suboccipital tissues. Rib Raising • Contact is on the posterior angles of the ribs of the upper thoracic region. Anterior inhibitory pressure is applied to ribs for 30 seconds until surrounding tissues relax. Ribs are then allowed to fall and a rhythmic raising and lowering motion is applied for several cycles for 30 seconds. Contact is repositioned to the lower thoracic region. Anterior inhibitory pressure with rib raising is applied to lower ribs is applied for 30 seconds until surrounding tissues relax. Ribs are then allowed to fall and a rhythmic raising and lowering motion is applied for several cycles for 30 seconds to lower region. • The sympathetic cell bodies are in the interm</t>
+          <t>Planning is a powerful approach to control problems with known environment dynamics. In unknown environments the agent needs to learn a model of the system dynamics to make planning applicable. This is particularly challenging when the underlying states are only indirectly observable through images. We propose to learn a deep latent Gaussian process dynamics (DLGPD) model that learns low-dimensional system dynamics from environment interactions with visual observations. The method infers latent state representations from observations using neural networks and models the system dynamics in the learned latent space with Gaussian processes. All parts of the model can be trained jointly by optimizing a lower bound on the likelihood of transitions in image space. We evaluate the proposed approach on the pendulum swing-up task while using the learned dynamics model for planning in latent space in order to solve the control problem. We also demonstrate that our method can quickly adapt a trained agent to changes in the system dynamics from just a few rollouts. We compare our approach to a state-of-the-art purely deep learning based method and demonstrate the advantages of combining Gaussian processes with deep learning for data efficiency and transfer learning.</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1501166952</t>
+          <t>https://openalex.org/W2517595880</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1080/10670564.2016.1206277</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Mitrović (2014)</t>
+          <t>Zhao (2016)</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>The Contingency of the “Enhancement” Arguments: The Possible Transition from Ethical Debate to Social and Political Programs</t>
+          <t>Whither the China Model: revisiting the debate</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Whatever we speak about enhancement as the, just, one array of the wide range of the bioethical fields, or as the kind of ideological and theoretical field, it is necessary to emphasize relevant ideological and theoretical distinctions between different approaches. Trying to give some fundamental shape to debate among them, as well within themselves, I specified three possible streams with more or less arbitrary boundaries. First one is transhumanistic stream , whose representatives openly promote the practice of genetic, prosthetic and cognitive enhancement of human kind - transition from human to a post human society; bioconservative, whose representatives perceive a threat in the violation of human dignity, meddling in “God’s business” ( playing God ), and in changes to the nature of human beings; representatives of the “middle standpoint” consider that danger lies within the dialectic relation of “capitalism and medicine.” I present the tree ideological standpoints trying to building consistency through different ethical arguments. Discussing the relevant theoretical/ideological distinction between standpoints and their claims, I will argue that ideological distinction among standpoints is less relevant than contingency within their arguments. Such mutual contingence creates some similarity regarding epistemological and social issues.</t>
+          <t>The China model debate has come in three waves since the early 2000s and focused on the role of the state as an organizing force to lead China’s modernization. Revisiting the debate, this article argues that while the alluring story of China’s high growth blinded its dark side for a long time, the economic downturn after 2015 is nothing more than an expedient time for Chinese leaders not only to transform China’s growth model from export and investment-driven to qualitative internal development, but also to build institutional checks on the state authority and to hold the state accountable. If China is able to complete the transition on both fronts, the China model will stand, but a sustained downturn or a lost decade or two could declare the end of the China model.</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3122703400</t>
+          <t>https://openalex.org/W4310349183</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.22459/dwb.2022.06</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Serra et al. (2011)</t>
+          <t>Kabila et al. (2022)</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Education outcomes, school governance and parents'demand for accountability: evidence from Albania</t>
+          <t>K–O</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>The extent to which teachers and school directors are held to account may play a central role in determining education outcomes, particularly in developing and transition countries where institutional deficiencies can distort incentives. This paper investigates the relationship between an expanded set of school inputs, including proxies for the functionality oftop-downandbottom-upaccountability systems, and education outputs in Albanian primary schools. The authors use data generated by an original survey of 180 nationally representative schools. The analysis shows a strong negative correlation between measures of top-down accountability and students'rates of grade repetition and failure in final examinations, and a strong positive correlation between measures of top-down accountability and students'excellence in math. Bottom-up accountability measures are correlated to various education outputs, although they tend lose statistical significance once parent characteristics, school resources and top-down accountability indicators are considered. An in-depth analysis of participatory accountability within the schools focuses on parents'willingness to hold teachers to account. Here, the survey data are combined with data from lab-type experiments conducted with parents and teachers in the schools. In general, the survey data highlight problems of limited parental involvement and lack of information about participatory accountability structures. The experiments indicate that the lack of parental participation in the school accountability system is owing to information constraints and weak institutions that allow parent class representatives to be appointed by teachers rather than elected by parents.</t>
+          <t>by his bodyguard, 135 people were tried, mostly convicted but apparently not executed.His son Joseph Kabila Kabange (1971-) was President of the DRC 2001-19.In 2018, a corrupt and violent election was won by an opposition candidate Félix Tshisekedi; a bizarre result that appeared to be a democratic transition but was engineered to guarantee Kabila's continuing influence and preservation of his family's wealth.Kaczyński, Jarosław (1949-) and Lech Aleksander Kaczyński (1949Kaczyński ( -2010)).Polish conservative politicians, identical twins, born in Warsaw.Jaroslaw broke away from Solidarity in 1990 and became Leader of the Law and Justice Party.He organised the election of Lech as President 2005-10, becoming Prime Minister himself 2006-07.Jarosław's sexuality became a controversial issue, using homophobic language while believed to be gay himself.Lech Kaczyński was killed in an air crash at Smolensk while visiting Russia for a commemoration of the Katyn massacre (1940).In the presidential election (July 2010), Jaroslaw Kaczyński failed to win. .Hungarian politician.He joined the Communist Party, then illegal, in 1932.In 1948 when the party took control he became Minister for Home Affairs.After three years' imprisonment, accused of Titoism, he became Prime Minister and First Secretary of the Hungarian CP 1956-88.In the October 1956 rising, at first he joined the anti-Stalinist revolutionaries, then in November he set up an opposing, pro-Soviet government and with Soviet military help crushed the revolt.He later followed pro-Moscow policies while allowing some liberal measures until his deposition in 1988. Kadar, Janos</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2100401694</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1109/igarss.2005.1525199</t>
+          <t>https://openalex.org/W4300540375</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Chen et al. (2005)</t>
+          <t>Ferreira et al. (2015)</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Image compression based on unrestrained sized wavelet transform</t>
+          <t>Local realizations of anyon exchange symmetries without lattice
+  dislocations</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>In this paper, we adopt a wavelet decomposition scheme that doesn't require 2/sup N/ size image and avoid data padding. Instead of tree-structure coding algorithms, we just apply scalar quantization and arithmetic coding to every sub-band separately after wavelet transformation. The optimized bit-rates for every sub-band are confirmed by the BFOS algorithm. The experiment shows that this scheme can perform as well as the sophisticated algorithm SPIHT and it has the new property of resolution progressive.</t>
+          <t>The global $e$-$m$ exchange symmetry of the toric code is realized locally through an exactly solvable Hamiltonian on a two dimensional lattice which has no lattice dislocations and their associated defect line. The Hamiltonian is still changed locally in selected sites where we wish to realize this anyon symmetry. We refer to these selected sites as defect sites in analogy with the usual lattice defects. The operators on the defect sites condense dyons of the toric code and are shown to support states which obey the fusion rules of Ising anyons just as the lattice dislocations thus achieving the transition to the Ising phase from the toric code phase. They can also be introduced in an entire region leading to an idea of non-localized defects. The method leads to a natural generalization for other Abelian groups where they help realize all the anyon exchange symmetries locally.</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2104029814</t>
+          <t>https://openalex.org/W1982368044</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1006/lich.2000.0305</t>
+          <t>https://doi.org/10.1016/j.jmatprotec.2009.09.001</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Scheidegger et al. (2001)</t>
+          <t>Nallathambi et al. (2010)</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Evolutionary Trends in the &lt;i&gt;Physciaceae&lt;/i&gt;</t>
+          <t>Sensitivity of material properties on distortion and residual stresses during metal quenching processes</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Abstract The current delimitation of the family Physciaceae has been generally accepted since detailed descriptions of ascus characters allowed for a more natural circumscription of lichenized ascomycetes. The generic relations within the family are, however, still controversial and depend on the importance different authors attribute to specific morphological or chemical characteristics. The aim of this paper is to describe ascospore ontogeny and to test the present taxonomic structure of the family against a parsimony-based cladistic analysis, which includes three different scenarios of a priori character weighting. A study of ascospore ontogeny revealed two distinct developmental lines. One line revealed a delayed septum formation, which clearly showed transitions from spores with apical and median thickenings to spores without apical, but still well developed median thickenings, and to spores without any thickenings. In the second developmental line with an early septum formation again taxa with no thickenings, median thickenings, and both median and apical thickenings were found. Although these characters were constant at a species level, median wall thickenings especially varied among otherwise closely related taxa. In the cladistic analyses the current taxonomic structure of the Physciaceae was only obtained after the five character groups, namely morphology and anatomy of the vegetative thallus, conidiomata and conidia, morphology and anatomy of the apothecia, ontogeny of the ascospores, and secondary metabolites of the thallus, were given equal importance, and after a subjective a priori weighting further increased the weight of the three characters ‘conidial shape’, ‘presence of apical thickenings’, and ‘spore septation delayed’. This structure was not supported by a cladistic analysis with equally weighted characters but reflected the biased character weighting of the present day Physdaceae taxonomy. The taxonomic importance of conidial characters and of anatomical and ontogenetical spore characteristics need, therefore, a careful reconsideration in future.</t>
+          <t>This research work investigates the influence of thermal, metallurgical and mechanical properties on the final distortion and residual stresses during metal quenching processes. The Finite Element Method (FEM) is employed to solve the coupled partial differential equations. The coupling effects such as phase transformation enthalpy, transformation-induced plasticity and dissipation are considered. The curvature and the volume averaged effective stresses are treated as a measure of distortion and residual stresses, respectively. Sensitivity analyses for the material parameters on the distortion and residual stresses are carried out. An L120×12 profile made of 100Cr6 steel is considered for the analyses. The sensitivity of the density, specific heat capacity, thermal conductivity, transformation start and end times, martensitic transformation coefficient, martensite start temperature, bulk modulus, shear modulus, yield strength and hardening modulus are of main concern in this work. It is found that reduced metallurgical properties, yield stress, and bulk modulus simultaneously lower the distortion and residual stresses for an equal cooling.</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2089163714</t>
+          <t>https://openalex.org/W2978548382</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1061/(asce)0733-9429(1994)120:5(633)</t>
+          <t>https://doi.org/10.1016/j.ijer.2019.08.008</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Hager (1994)</t>
+          <t>Ade-Ojo &amp; Duckworth (2019)</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Impact Hydraulic Jump</t>
+          <t>Forms of institutionalised symbolic violence and resistance in the journey of a cohort of adult literacy learners</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>The hydraulic jump occuring close to a gate‐type structure is analyzed both by theoretical and experimental means. The transition phenomenon between a classical‐hydraulic jump and the supercritical sluice gate underflow may be modeled with the jump‐position parameter. This ratio λ is equal to the distance between the toe of jump and the gate, and the roller length of a classical jump. For λ&gt;2, the hydraulic jump is almost classical, whereas blowout of the jump occurs for λ&gt;1. Typical‐impact jumps are found for λ=1.2. For impact jumps, the average tailwater depth is always smaller than the sequent depth. However, significant tailwater oscillations, eventually under resonance conditions, are set up, which increase as λ decreases. The mechanisms of both resonance and blowout are explained, and frequency is also correlated to λ and found to decrease with increasing λ. Finally, a relation between the relative‐gate opening and the approach Froude number is introduced for which incipient blowout was noted.</t>
+          <t>This paper explores how the public domain of schooling has shaped a cohort of Adult Literacy learners in the North of England. It highlights the important role that education plays in providing cultural and social resources required to organise an upward mobility shift; just as it serves as a site in which the inequalities that already exist are reproduced. The study explores the forms in which Bourdieu’s symbolic violence was visited on the cohort and how they resisted. It demonstrates the importance of offering learners, who do not fit with dominant ideologies a voice and a validation of their literacies, leading to the development of knowledge and the creation of a critical space for curriculum development, learner transformation and consciousness-raising.</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2979325660</t>
+          <t>https://openalex.org/W2731191492</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>https://doi.org/10.35774/sf2018.01.007</t>
+          <t>https://doi.org/10.1057/978-1-137-54721-7_3</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Zymovets &amp; Bagatska (2018)</t>
+          <t>Sardana &amp; Zhu (2017)</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>THE REAL SECTOR OF UKRAINIAN ECONOMY CAPITALIZATION: TRENDS AND CONSEQUENCES</t>
+          <t>Historical Links, Political Governance and Social Value Systems</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Introduction. The main trends in the corporate finance of Ukraine hardly could be explained with the traditional corporate finance frameworks which the trading-off or pecking order approaches included. In the beginning of 2017, the whole corporate sector indebtedness (calculated as total unconsolidated debt to book value based equity ratio) was substantially higher than a proper level for emerging markets countries. The restoring of the real sector equity capital sufficiency is crucial for the whole financial system stabilization and investments fostering. Purpose. The investigation of the book value decapitalization in real sector of Ukrainian economy scale and its potential impact on the financial system stability and economic growth assessment. Methods. International comparisons of the total book value capital to GDP ratios, the real book value capital (denominated by GDP deflator) trends and structural changes investigation. Results. The volume and the dynamics of the book value capitalization in Ukrainian economy’s real sector are investigated. The overall level of capital losses is determined (18% decline with 5 years) and significant structural imbalances are revealed. The trends of real sector book value equity changes analyzed comparing with the nominal GDP changes trends in Ukraine and foreign countries. A comparative analysis trends of real sector capital return in Ukraine and some European countries is conducted. The total book value capital to GDP ratio in Ukraine does not differ significantly from other countries. We explain these results capital by the low level of GDP in Ukraine and not by the book value capital sufficiency. The low level of legal productivity the real sector aggregate equity capital in Ukraine is determined. The share of accumulated capital in real sector book value equity in Ukraine was closed to 0 and fall negative in 2017. We explain this by the low level of legal productivity of equity capital in Ukraine. Conclusion. The capital accumulation in the real sector of Ukrainian economy is structurally deteriorated and generates significant risks for the stability of ountry financial system. The lack of capital in real sector hardly can be compensated by the financial sector and government investments. Thus, we can conclude that deficiency of equity in real sector is a strong barrier for the economic growth.</t>
+          <t>This Chapter starts by illustrating historical links between China and India. This is done with the purpose of establishing and demonstrating the profound influence of Buddhism and Indian philosophies on Chinese society. Thereafter, the authors discuss in detail the political systems and governance in China and India. The elucidation of these allows readers to understand how the very distinct historical and social contexts have impacted the founding and evolution of the current political system in each country. The authors also deliberate upon the transformation of the social value system in the two societies. To do justice to this aspect, the authors offer detailed accounts of the political and social systems in China and India. The authors note that the historical evolution trajectories have been different in the two countries, for example: (1) historically homogeneous and centralized country (China) vs. historically non-homogeneous and decentralized country (India); (2) semi-colonization of China vs. complete colonization of India (earlier by Mughals and then later by the British); (3) full-scale violent revolution in China vs. emphasis on non-violent revolution in India, and consequently the impact on each of the societies (e.g. India has preserved the old elite system that has affected social thinking and norms, as well as the rich-poor divide compared with Communist rule emphasizing ‘equality’). These different historical paths have exerted a different influence on the fundamental legitimacy of the ruling class and thoughts of governance in these two distinct societies.</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4241568709</t>
+          <t>https://openalex.org/W4210318462</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3366/edinburgh/9781474460965.003.0016</t>
+          <t>https://doi.org/10.4324/9781003226840-4</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Talmon-Heller (2020)</t>
+          <t>Blair (2022)</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Rajab in Pre-Islamic Arabia and in Early Islam</t>
+          <t>Hyper-compression and the rise of the deep surface</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>This chapter presents Rajab as one of the three holy months of pre-Islamic Arabia. The taboo on manslaughter during Rajab allowed safe travel, fairs, and the performance of the pilgrimage known as &lt;italic&gt;ʿumra&lt;/italic&gt;. Rajab's sanctity survived the transition from Jahiliyya to Islam, but remained contested for centuries. Muslims commemorated it by fasting, ritual slaughter, supplications, &lt;italic&gt;iʿtikāf&lt;/italic&gt; in mosques, and special sermons. Devotional works, written by Shiʿis and Sunnis from the ninth-century onwards, promise the remittance of sins and other great rewards, for rites performed in Rajab.</t>
+          <t>This chapter begins with a survey of flash fiction in “post-transitional” South Africa, which it relates to the nation’s post-apartheid canon of short stories and short-short stories, to the international rise of flash fiction and “sudden fiction”, and to the historical particularities of South Africa’s “post-transition”. It then undertakes close readings of three flash fictions republished in the chapter, each less than 450 words: Tony Eprile’s “The interpreter for the tribunal” (2007), which evokes the psychological and ethical complexities, and long-term ramifications, of the Truth and Reconciliation Commission; Michael Cawood Green’s “Music for a new society” (2008), a carjacking story that invokes discourses about violent crime and the “‘new’ South Africa”; and Stacy Hardy’s “Kisula” (2015), which maps the psychogeography of cross-racial sex and transnational identity-formation in an evolving urban environment. The chapter argues that these exemplary flashes are “hyper-compressions”, in that they compress and develop complex themes with a long literary history and a wide contemporary currency. It therefore contends that flash fiction of South Africa’s post-transition should be recognized as having literary-historical significance, not just as an inherently metonymic form that reflects, and alludes to, a broader literary culture, but as a genre in its own right.</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1991523015</t>
+          <t>https://openalex.org/W4285664883</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1209/0295-5075/3/5/006</t>
+          <t>https://doi.org/10.1332/policypress/9781529205961.003.0004</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Burden &amp; Burkitt (1987)</t>
+          <t>Brooks &amp; Hodkinson (2020)</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Lattice Fermions in Odd Dimensions</t>
+          <t>Shifting Care Horizons: Care-sharing Arrangements, Motivations and Transitions</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Euclidean lattice fermions are examined in odd dimensions. The continuum flavours are identified and it is found that the flavours fall into two equal groups requiring inequivalent representations of the Dirac matrices. The relationship of this result to the parity transformation and the role of chiral symmetry are elucidated.</t>
+          <t>This chapter outlines the nature of the equal and primary care roles taken on by the fathers in the Sharing Care study, before exploring the circumstances in which these roles were taken on. The authors explore how, while for some fathers an extensive caregiving role had already fallen within their ideals and expectations (care horizons), for many others, it had represented a turning point brought about by circumstances. Moreover, for most of the fathers, equal or primary care responsibilities had not been taken on until &lt;italic&gt;after&lt;/italic&gt; a period of several months (or more) of exclusive maternity leave for their partner. The taking on of care sharing by fathers, then, represented a substantial practical transformation of roles that previously were being discharged by the mother and, often involved a difficult transitional period.</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1596033092</t>
+          <t>https://openalex.org/W633186516</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Rendleman (2011)</t>
+          <t>Caschetta (2015)</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Measurement of Restitution: Coordinating Restitution with Compensatory Damages and Punitive Damages</t>
+          <t>Does Islam Have a Role in Suicide Bombings</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Courts apply compensatory damages, restitution, and punitive damages to formulate litigants’ civil remedies. The frequently contested policy justifications for these three remedies are often hazy and uncertain. The transitions between the three remedies are disputed. Lawyers and courts often misunderstand restitution with deleterious consequences for litigants and the administration of justice. The American Law Institute’s completion of the Restatement (Third) of Restitution and Unjust Enrichment provides the legal profession with opportunities to dispel this haze and to clarify the distinctions. In addition to obviating defendants’ unjust enrichment, restitution with its measurement choices provides a midpoint on a continuum of the three remedies. Restitution’s policy justifications often overlap with compensatory damages at one end of the continuum and with punitive damages at the other. This modest effort identifies wiser choices to aid lawyers’ and courts’ remedial decisions and seeks to improve the courts’ administration of litigants’ civil remedies. Focusing on the Restatement’s measurement choices for restitution, it explains familiar examples to analyze the choices between compensatory damages, restitution, and punitive damages and to locate the transitions between them.</t>
+          <t>When journalists, historians, psychologists, and experts in group dynamics, organizational structures, and criminal justice write about unique set of circumstances that lead to terrorism, they share view that has little to do with it. Most analysts either downplay or ignore altogether role of in terrorism while some attempt to refute connection and condemn others for not doing so.This reluctance to countenance role of and Islamism in terrorism has led to some fantastical and far-fetched theories that blur nature of deed with euphemisms and neologisms (tactical martyrdom,1 sordid pleasure,2 altruistic murder) and blame victims, especially Israelis, for their unhappy fate. And far too often, causes of terrorism are said to be policies of West.The Islamic ContextSuicide terrorism has become so commonplace that it is easy to overlook how relatively new and suddenly popular phenomenon is. Between end of World War II and Iranian revolution, there were no attacks in world. Yet only months after Ayatollah Ruhollah Khomeini solidified power and formed Pasdaran and Basij, attacks began to appear in conflicts involving Shiites (Lebanon, Iran-Iraq war) and then took root among Palestinian Sunni groups.3 It eventually became preferred tactic of Islamist terror organizations.Khomeini selected specific passages from Qur'an and hadith (canonical collections of Muhammad's alleged sayings and actions) to craft his suicidal version of radical Islam. His two-part rhetorical plan necessitated convincing Muslims that is not and that death is not death. Capitalizing on-or perhaps fabricating-the case of Hossein Fahmideh, a 13-year-old boy who on October 30, 1980, allegedly crawled beneath an Iraqi tank and exploded a grenade, Khomeini built a culture of martyrdom. Thousands of children were conscripted for his new invention-the human wave attack-and spread tactic of bombing. Khomeini had a special monument dedicated to Famideh, intended to appeal to children. He then used Famideh's image on book bags, murals, posters, and stamps to inspire children to follow him and drink the nectar of martyrdom.4 The tactic spread quickly to Lebanon where Iraqi embassy was struck on December 15, 1981, in what is generally considered first documented attack of modern era. As terrorism expert Matthew Levitt points out, Iran's influence was greatly increased in 1982 when 1,500 IRGC [Islamic Revolutionary Guard Corps] advisers set up a base in Bekaa Valley as part of its goal to export Islamic revolution to Arab world.5 Then in 1983, U.S. interests were subjected to terrorism for first time when U.S. embassy in Beirut was bombed in April, killing sixty-three. Later, on October 23, 1983, U.S. Marines barracks in Beirut were bombed with a loss of 299 lives.Khomeini and fellow radical Shiite cleric, Amal's Musa Sadr, framed Iran-Iraq war (1980-88) as a modern incarnation of Battle of Karbala, portraying Iranian people as Muhammad's grandson and Shiite martyr Hussein ibn Ali and Saddam Hussein as his nemesis Caliph Yazid. They understood that Shiite veneration for self-sacrifice of Hussein's followers, who died willingly along with their leader, could be leveraged. Khomeini also relied on passages from Qur'an extolling virtue of one who sells himself to seek pleasure of Allah.6 Yet most authors of books on terrorism ignore how Khomeini and Sadr carefully manipulated Islamic tradition, preferring simple and uncritical assertion that prohibits suicide.Accepting cliche that Islam prohibits suicide is much easier than explaining exactly where or how Islamic tradition makes prohibited (haram). It is certainly popular view, authorized by Islamic Supreme Council,7 Council on American Islamic Relations (CAIR),8 and Wikipedia. …</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2007275367</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1074/jbc.m414016200</t>
+          <t>https://openalex.org/W3161724911</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Lisenbee et al. (2005)</t>
+          <t>Silva (2011)</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Paired Cysteine Mutagenesis to Establish the Pattern of Disulfide Bonds in the Functional Intact Secretin Receptor</t>
+          <t>Parceria público-privada: uma análise ambiental dos resultados trazidos aos feirantes do Parque de Feira Moda Center Santa Cruz.</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>The amino-terminal domain of class B G protein-coupled receptors contains six conserved cysteine residues involved in structurally and functionally critical disulfide bonds. The mapping of these bonds has been unclear, with one pattern based on biochemical and NMR structural characterizations of refolded, nonglycosylated amino-terminal fragments, and another pattern derived from functional characterizations of intact receptors having paired cysteine mutations. In the present study, we determined the disulfide bonding pattern of the prototypic class B secretin receptor by applying the same paired cysteine mutagenesis approach and confirming the predicted bonding pattern with proteolytic cleavage of intact functional receptor. As expected, systematic mutation to serine of the six conserved cysteine residues within this region of the secretin receptor singly and in pairs resulted in loss of function of most constructs. Notable exceptions were single mutations of the 4th and 6th cysteine residues and paired mutations involving the 1st and 3rd, 2nd and 5th, and 4th and 6th conserved cysteines, with secretin eliciting statistically significant cAMP responses above basal levels of activation for each of these constructs. Immunofluorescence microscopy confirmed similar levels of plasma membrane expression for each of the mutated receptors. Furthermore, cyanogen bromide cleaved a series of wild type and mutant secretin receptors, yielding patterns that agreed with our paired cysteine mutagenesis results. In conclusion, these data suggest the same pattern of disulfide bonding as that predicted previously by NMR and thus support a consistent pattern of amino-terminal disulfide bonds in class B G protein-coupled receptors. The amino-terminal domain of class B G protein-coupled receptors contains six conserved cysteine residues involved in structurally and functionally critical disulfide bonds. The mapping of these bonds has been unclear, with one pattern based on biochemical and NMR structural characterizations of refolded, nonglycosylated amino-terminal fragments, and another pattern derived from functional characterizations of intact receptors having paired cysteine mutations. In the present study, we determined the disulfide bonding pattern of the prototypic class B secretin receptor by applying the same paired cysteine mutagenesis approach and confirming the predicted bonding pattern with proteolytic cleavage of intact functional receptor. As expected, systematic mutation to serine of the six conserved cysteine residues within this region of the secretin receptor singly and in pairs resulted in loss of function of most constructs. Notable exceptions were single mutations of the 4th and 6th cysteine residues and paired mutations involving the 1st and 3rd, 2nd and 5th, and 4th and 6th conserved cysteines, with secretin eliciting statistically significant cAMP responses above basal levels of activation for each of these constructs. Immunofluorescence microscopy confirmed similar levels of plasma membrane expression for each of the mutated receptors. Furthermore, cyanogen bromide cleaved a series of wild type and mutant secretin receptors, yielding patterns that agreed with our paired cysteine mutagenesis results. In conclusion, these data suggest the same pattern of disulfide bonding as that predicted previously by NMR and thus support a consistent pattern of amino-terminal disulfide bonds in class B G protein-coupled receptors. G protein-coupled receptors (GPCRs) 1The abbreviations used are: GPCR, G protein-coupled receptor; Bpa, benzoylphenylalanine; CNBr, cyanogen bromide; HA, hemagglutinin epitope; PBS, phosphate-buffered saline; SecR, rat secretin receptor; DMEM, Dulbecco's modified Eagle's medium; BHK, baby hamster kidney; MES, 4-morpholineethanesulfonic acid.1The abbreviations used are: GPCR, G protein-coupled receptor; Bpa, benzoylphenylalanine; CNBr, cyanogen bromide; HA, hemagglutinin epitope; PBS, phosphate-buffered saline; SecR, rat secretin receptor; DMEM, Dulbecco's modified Eagle's medium; BHK, baby hamster kidney; MES, 4-morpholineethanesulfonic acid. are important pharmaceutical targets for rational drug design, and thus have justified a great deal of research aimed at determining the structural aspects of their biological functions. Class B GPCRs are distinguished from the larger group of class A rhodopsin-like receptors in several ways, the most significant of which is the inclusion of an extended amino-terminal domain that plays critical roles in ligand binding and receptor activation (1.Fredriksson R. Lagerström M.C. Lundin L.-G. Schiöth H.B. Mol. Pharmacol. 2003; 63: 1256-1272Crossref PubMed Scopus (2086) Google Scholar, 2.Kristiansen K. Pharmacol. Ther. 2004; 103: 21-80Crossref PubMed Scopus (469) Google Scholar). Comparisons of the primary amino acid sequences of class B receptors have shown that this extracellular amino-terminal domain possesses six conserved cysteine residues that have been</t>
+          <t>Given the observed changes in the State is a new form of management: the Public-Private_x000D_
+Management which is the result of union with the Public Sector and Private Sector in order to_x000D_
+manage more efficiently and with more social responsibility and government organizations. A_x000D_
+tool used to deliver on these goals is the Public-Private Partnership that is being used as an_x000D_
+extension of the state, because it contributes to the provision of services to society. With this_x000D_
+approach this research seeks to gather empirical evidence regarding the perception of_x000D_
+stallholders as their displacement, showing the change of Fair Sulanca, removed from the_x000D_
+streets of downtown Santa Cruz do Capibaribe for the Fashion Center Santa Cruz is a PublicPrivate_x000D_
+_x000D_
+Partnership and the results that this transition brought to the vendors and society in_x000D_
+general. Getting information about its structure and its operation with the theory linking_x000D_
+Administrative learned.</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2946850715</t>
+          <t>https://openalex.org/W1980946516</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1353/eir.2019.0006</t>
+          <t>https://doi.org/10.1353/scu.2005.0046</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>McCormack &amp; Swan (2019)</t>
+          <t>Tyson (2005)</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Myth, Meaning, and Modernity: Printed Record Sleeves and Visual Representation of Irish Music, 1958–86</t>
+          <t>Martin Luther King and the Southern Dream of Freedom</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Myth, Meaning, and Modernity:Printed Record Sleeves and Visual Representation of Irish Music, 1958–86 Niall McCormack (bio) and Ciarán Swan (bio) Longer lasting than flyers or posters, eminently collectable, and under going something of a renaissance in popularity, the vinyl-record sleeve generates visual imagery around music and its performers. Although every sleeve has two sides (and sometimes inserts and printed interior sleeves as well), purchasers and listeners first view the front cover. It typically includes the name of the musician or group and the title of the album—in type or hand-drawn letters—as well as photographic, illustrative, or abstract imagery highlighting the performer(s) or theme of the music. The visual imagery of these artifacts reflects myth and modernity as well as tradition and authenticity. Developing his concept of myth and mythic speech in the 1950s, Roland Barthes proposed that beliefs held by large numbers of people "give events and actions a particular meaning" (115). Australian cultural critic Donald Horne expands on these ideas and explicitly points to Ireland in this context, noting that "the [myths] of the Irish revolution remain" (Horne 111). He further argues that 'myths' have a magic quality of transforming complex affairs into simple but crystal-clear 'realities' that explain and justify how things are now, or how we would like them to be. Whether altogether false, or partly true, 'myths' have the transforming effect of hiding actual contradictions, confusions, and inadequacies (40). The protective record sleeve—generally lasting as long as the vinyl record itself—is thus replete with visual signs and symbols, some deliberate, others the product of broader cultural, political, and commercial dynamics. These signs and symbols, interacting with one another and with the viewer, generate a web of signification and meaning. A product of material culture, the sleeve concurrently acts as vehicle to propagate mythic speech. [End Page 46] Musical groups, regardless of genre, legitimize themselves as "authentic" through their visual self-presentations as well as their music. Popular genres with styles that emphasize transient enthusiasms, commercial appeal, and novelty can be charged with lacking continuity with the past. But notions of authenticity are frequently dependent upon regional or ethnic specificity, despite Jon Savage's observation that many perceived authentic musical forms are, "in fact pop and highly mediated" (488). Richard Middleton, for instance, points out the centrality of "authenticity" to the politics of folk music. He argues that the genre's value—particularly when set against other, less favorable kinds of music—is guaranteed by its provenance in a certain sort of culture with certain characteristic processes of cultural production. Thus the supposed purity of folk society … goes hand in hand with the "authenticity" of the music. … [B]oth are myths. Culturally, they originate in the romantic critique of industrial society. (139) This article examines the visual representations of Irish traditional music on record sleeves printed from 1958 to 1986, with a focus on recordings of groups released by domestic record companies. It examines record sleeves not merely as identifiers of performers but as artifacts invoking technological, social, cultural, and political processes. Through interviews with artists, designers, printers, and musicians, as well as through visual analysis rooted in material-culture studies, design history, and semiotics, we explore the evolving ways in which these material objects generate meaning.1 Gael-Linn: Modern and Commercial Language activists founded Gael-Linn in 1953 as an organization "to foster and promote Irish … as a living language and as an expression of identity" (qtd. in O'Brien 6). The new company began recording music in 1957 and released its first album, Ceolta Éireann, the following year. This was a decade that saw strong reengagement [End Page 47] with traditional forms of Irish music. Comhaltas Ceoltóirí Éireann (CCÉ), founded in 1951, established the Fleadh Cheoil, an annual festival competition (Ní Fhuartháin). Irish composer Seán Ó Riada formed Ceoltóirí Cualann, a group of Irish musicians who sought in part to afford traditional music equal esteem to that given to classical music by approaching the former in a more formalized way. By the 1960s, according to Marie McCarthy, traditional music expressed the country's growing tolerance...</t>
+          <t>Martin Luther King and the Southern Dream of Freedom Timothy B. Tyson (bio) Click for larger view View full resolution Figure 1. "When we come together to celebrate Dr. Martin Luther King Jr., it is important to realize that the King holiday is just shorthand for honoring all of those local people who stood up for justice in the civil rights-era South. The patient local labors of thousands and thousands of black southerners lifted him up among the rulers of the world." Photograph courtesy of Billy E. Barnes. [End Page 96] This essay was taken from a Martin Luther King Jr. Day address given by the author on January 17, 2005, in Columbus, Mississippi. The author would like to thank everyone on the Columbus Martin Luther King Jr. Legacy Committee, especially Wilbur Colom and Deborah Schumaker of the Colom Foundation. He would also like to thank his wife, Perri Morgan, his sister-in-law Hope Morgan Ward, who is the United Methodist Bishop of Mississippi, and her husband, Mike Ward, who knows a good bowl of butterbeans when he spills it in his lap. My Grandmama Irene Hart's granddaddy was a preacher, and her daddy was a preacher, and when she was sixteen Irene ran off with a young preacher named Jack Tyson and got married in the back seat of a car. Lots of people still get engaged in the back seat of a car, but Jack and Irene actually got married right there in the back seat of a Model-T Ford on Middle Swamp Road near Greenville, North Carolina. Jack came from a preaching family, too. His Uncle Alonza Tyson, who pronounced them man and wife from the front seat, was a preacher, and his two brothers, Marl and Luther, were both preachers. After they ran off, Jack and Irene raised six sons, and all six of them grew up to be preachers, including my father. My sister Boo graduated from divinity school, as did my cousins by the dozens. My sister-in-law is the United Methodist bishop of Mississippi. In summary, then, though I am a historian, my father, all five of my Tyson uncles, my grandfather, my great grandfather and my great-great-grandfather were all Free Will Baptist or Methodist preachers. And I just accepted a job as Visiting Professor of American Christianity and Southern Culture at Duke Divinity School. I say these things now so that you know the background I bring to this discussion of another southern preacher, Martin Luther King Jr., and the way that we remember him. When we come together to celebrate Dr. Martin Luther King Jr., it is important to realize that the King holiday is just shorthand for honoring all of those local people who stood up for justice in the civil rights-era South. If King had never been born, there still would have been a black revolution in the American South in the decades that followed World War II. King himself would be the first person to acknowledge that he did not make the movement; instead, the patient local labors of thousands and thousands of black southerners lifted him up among the rulers of the world. He not only spoke on behalf of thousands of people he never met, but his voice depended almost entirely upon them. Martin Luther King's message was not unlike that of a gospel singer who goes from church to church, making a joyful noise unto the Lord, lifting people's hearts and giving them the strength to do what they know needs doing. Our mind's eye focuses on King, but what historians have learned is that the movement was really made by local people, working in their own communities, far from the television cameras and civil rights celebrities. And yet there is much to learn from Martin Luther King, and he deserves our [End Page 97] attention today. Like all those preachers I grew up around, I have three points to make in this "sermon." First, it may not seem very profound to you, but King was a southerner, and that indisputable fact colors everything he said and did. Second, King's memory has been...</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2212785535</t>
+          <t>https://openalex.org/W4230207151</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.26686/wgtn.17132261</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Teixeira (2015)</t>
+          <t>Ryan (2021)</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>The democratization of higher education in Brazil: A road towards a politics of excellence?</t>
+          <t>Towards a More Comprehensive Picture of Park-And-Ride: A Mixed Methods Study of Stakeholder Perspectives and Transport Behaviour in Greater Wellington</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>This article aims to present the changes in higher education in Brazil especially since the beginning of the 21 st century. We present the recent modification in the process of selection for entering into the public network, especially into the federal network, the most sought after among families and young Brazilians, with the establishment of the National Examination of Intermediate Teaching (ENEM). To better understand the stakes of those transformations, we also present the main government programs set up to establish what has been called equality of opportunity and democratization of access to this level of training. These actions are discussed as a possible way of constructing an educational excellence, beyond the elitist principle that characterizes Brazilian higher education, without forgetting the danger that democratization might only be standardization. http://dx.doi.org/10.15572/ENCO2015.05</t>
+          <t>&amp;lt;p&amp;gt;In response to the environmental, economic and social costs associated with over-reliance on the private car, planners and policy-makers are promoting Park-and-Ride, or the combined use of car and public transport. Despite Park-and-Ride’s growing popularity, little has been written on the subject in the New Zealand context. This thesis addresses this gap. Its objective is to understand the behaviour of commuters in order to inform the development of policies to increase walking and cycling to and from the station. It uses a mixed methods approach, based on stakeholder interviews and an online survey conducted in Greater Wellington. Interviews with eight stakeholders involved in public transport planning and policy sought to provide insight into the challenges of implementing Park-and-Ride and how the concept can be developed in the future. More effective management of parking was seen as a key challenge for those tasked with making policy decisions. Stakeholders also discussed the potential for developing the concept, particularly by transitioning Park-and-Ride into interchanges for motorised and non-motorised transport modes, with priority given to walking and cycling access. A survey conducted among 295 respondents who commuted to Wellington City sought to explore the psychological and contextual factors in predicting the intention to walk and cycle to the train station. The usefulness of the Theory of Planned Behaviour (TPB), with the addition of personal norm, environmental concern, and problem awareness, in predicting intention was tested. All TPB constructs were significant predictors and explained 54% and 36% of the variance in intention to walk and cycle respectively. The additional constructs made a small but significant contribution in explaining variance in intention (together, an additional 6% and 4% respectively). Based on the between-subjects design, the acceptability levels of proposed Park-and-Ride policies was low. Perceived effectiveness and fairness significantly influenced the acceptability of policies. Policy-makers may find these results useful in considering how to increase the acceptability of Park-and-Ride policies in future.&amp;lt;/p&amp;gt;</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4249487347</t>
+          <t>https://openalex.org/W2579133518</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3138/ecf.24.3.487</t>
+          <t>https://doi.org/10.1016/j.jaad.2016.09.020</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Wallace (2012)</t>
+          <t>Siegel et al. (2017)</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Rewriting Radicalism: Wollstonecraft in Burney's &lt;i&gt;The Wanderer&lt;/i&gt;</t>
+          <t>Predictors of actinic keratosis count in patients with multiple keratinocyte carcinomas: A cross-sectional study</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>This article reconsiders the connection between Mary Wollstonecraft's Maria, or The Wrongs of Woman and Frances Burney's The Wanderer, arguing that reading the two texts in tandem reveals close affinities as well as strategic (as opposed to ideological) differences. While The Wanderer rather crudely parodies Wollstonecraft's revolutionary fervour in the character of Elinor Joddrel, it also thematizes and advances, in subterranean ways, the specific feminist agenda proposed in Wollstonecraft's posthumous novel. The anti-heroine embodies Wollstonecraft's scandalous life and opinions, and the social critique articulated in her novel weaves through the heroine's trajectory, replicated and revised so that the wrongs inflicted upon the problematic Maria re-emerge as the difficulties endured by the estimable Juliet. Fracturing Wollstonecraft into historical persona and text, The Wanderer enacts a strategy of domesticating and assimilating into genteel society the progressive ideology of this difficult and polarizing icon of revolutionary romanticism. Locating Juliet's travails within the historical context of the French Revolution, Burney's depiction of a woman almost literally “Bastilled” by marriage aims to demonstrate that oppressive patriarchal practices contravene an English sense of justice.</t>
+          <t>To the Editor: Actinic keratoses (AKs) are common, are costly, and have the potential for malignant transformation to keratinocyte carcinoma (KC),1Siegel JA, Korgavkar K, Weinstock MA. Current perspective on actinic keratosis: a review. Br J Dermatol. http://dx.doi.org/10.1111/bjd.14852. Published online August 8, 2016.Google Scholar ie, cutaneous basal cell carcinoma (BCC) and squamous cell carcinoma (SCC). We sought to determine predictors of AK in patients with a history of multiple KCs, as AKs are more likely to progress to KC in this high-risk population.1Siegel JA, Korgavkar K, Weinstock MA. Current perspective on actinic keratosis: a review. Br J Dermatol. http://dx.doi.org/10.1111/bjd.14852. Published online August 8, 2016.Google Scholar Predictors of AK count were explored cross-sectionally using prerandomization baseline data from 2 trials of veterans with 2 or more KCs in the past 5 years (Department of Veterans Affairs [VA] KC Chemoprevention Trial, n = 9322Pomerantz H. Hogan D. Eilers D. et al.Long-term efficacy of topical fluorouracil cream, 5%, for treating actinic keratosis: a randomized clinical trial.JAMA Dermatol. 2015; 151: 952-960Crossref PubMed Scopus (79) Google Scholar; and VA Topical Tretinoin Chemoprevention Trial, n = 1131).3Weinstock M.A. Bingham S.F. Digiovanna J.J. et al.Tretinoin and the prevention of keratinocyte carcinoma (basal and squamous cell carcinoma of the skin): a Veterans Affairs randomized chemoprevention trial.J Invest Dermatol. 2012; 132: 1583-1590Abstract Full Text Full Text PDF PubMed Scopus (84) Google Scholar Univariable and multivariable analyses using Stata software (StataCorp LP, College Station, TX) were performed to elucidate associations between AK count on the face/ears (assessed by study dermatologists) and demographic/health-related factors (self-reported) and KCs in the past 5 years (from medical records). Baseline AKs and prior KCs were analyzed in quintiles to minimize impact of extreme values. VA Institutional Review Boards approved both trials, participants gave written consent, and Declaration of Helsinki protocols were followed. In both studies of predominantly elderly male participants (Table I), greater baseline AK count on the face/ears was strongly associated (P &lt; .01) with older age, lower latitude of VA Medical Center, greater sun sensitivity, past 5-fluorouracil use, and higher numbers of prior SCCs (invasive &gt; in situ), but not BCCs. In the VA Topical Tretinoin Chemoprevention Trial, photodamage, focal dermatitis, and rosacea with rhinophyma were also associated with increased AKs (Table II, Table III). More AKs were on the left face/ear perhaps because of increased ultraviolet radiation while driving (data not shown).Table IBaseline characteristics of the Department of Veterans Affairs Topical Tretinoin Chemoprevention Trial and the Department of Veterans Affairs Keratinocyte Carcinoma Chemoprevention Trial populationsVATTC, n = 1131∗Of 1131 enrolled participants, 1 refused to be assessed for AKs at baseline and was not included in analyses.VAKCC, n = 932Demographic characteristics Latitude of VA Medical Center†Data presented as mean (SD).34.4 (4.8)36.5 (5.4) Age, y†Data presented as mean (SD).70.7 (9.2)71.1 (9.3) Male1097 (97%)916 (98%) Caucasian1119 (99%)912 (98%) Married684 (60%)535 (57%) Education levelGrade school78 (7%)29 (3%)High school385 (34%)251 (27%)Some college/technical school535 (47%)513 (55%)Graduate school113 (10%)139 (15%) Current Medicare enrolleen/a621 (67%)Skin cancer history Total no. of KC in 5 y before enrollment2474 (42%)343 (37%)3256 (23%)213 (23%)4135 (12%)141 (15%)≥5266 (23%)235 (25%)Sun damage history Sun sensitivity index, 0-1†Data presented as mean (SD).0.54 (0.21)0.57 (0.25) Previous 5-FU treatment on face/ears215 (19%)166 (18%) Baseline AKs on face and ears0269 (24%)124 (13%)1-4401 (35%)248 (27%)5-9177 (16%)210 (23%)10-19164 (15%)189 (20%)≥20119 (10%)161 (17%) PhotodamageAbsent0 (0%)n/aMild79 (7%)n/aModerate324 (29%)n/aModerate/severe410 (36%)n/aSevere317 (28%)n/a Wears a hat 100% of time outside616 (54%)n/a Wears sunscreen on face 100% of time outside‡Refers to use in the past week.319 (28%)n/a Median SPF sunscreen face‡Refers to use in the past week.30n/a Wears sunscreen on ears 100% time outside‡Refers to use in the past week.296 (26%)n/a Median SPF sunscreen ears‡Refers to use in the past week.30n/aGeneral health and functional ability Current or previous smoker812 (72%)647 (69%) Total functional impairment, 0-4†Data presented as mean (SD).n/a0.5 (0.9) Functional impairment category, 0-1†Data presented as mean (SD).Ability to bathen/a0.02 (0.14)Ability to manage moneyn/a0.02 (0.16)Ability to walkn/a0.3 (0.5)Ability to push/pull heavy objectsn/a0.2 (0.4) Wears eyeglasses 100% time outside‡Refers to use in the past week.756 (67%)n/a General dermatitisNone645 (57%)n/aTrace267 (24%)n/aMild193 (17%)n/aModerate23 (2%)n/aSevere2 (0.2%)n/a Focal dermatitisNone594 (53%)n/aTrace229 (20%)n/aMild188 (17%)n/aMod</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2362925184</t>
+          <t>https://openalex.org/W4239109824</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.7554/elife.02069.014</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Guo-pin (2014)</t>
+          <t>NA (2014)</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Research of Cultural Industry Relevance——Based on Big-Data of Alibaba-Cloud-data Platform</t>
+          <t>Decision letter: B cell activation involves nanoscale receptor reorganizations and inside-out signaling by Syk</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Industry relevance is the mainstay for the research of the industrial integration policy,Cultural industry has been run throughout in the economic and social fields present a multidirectional interactive integration trend.Cultural industry relevance not only has the intrinsic relation between supply chain management,vertical integration strategy and strategic alliances in cultural industry companies,but also,has the intrinsic relation between upgrading of an industrial structure,industrial agglomeration and competitive advantage in regional economic development.This paper use the big-data of the manufacturers of cultural products on the Alibaba-Cloud-data platform(The biggest B2B platform of New Economic in China),establishes the culture industry complex network(ICN) in terms of the most reliable maximum flow arithmetic(MRMF) on uncertain graph,which shows the industry relevance of cultural industry by visualizing various data.The request of enterprise' s development strategy is to design the optimum route in cultural industry companies' industrial chain,and the policy of integration is to configure the management of industrial chain,all of these problems can be viewed as the MRMF in graph theory.Furthermore,measure the industry forward and backward relevance index between culture industries and other industries.The measurement of industry forward and backward relevance index of ICN is a complicated project related to many details,especially having excessive uncertainty and involving extensive domains.As to the identity of cultural industry,the industry relevance effect is widely different.The industry relevance effect could be decomposed into the positive effect lead to impetus and negative effect lead to crowding-out.These sectors with positive effect are listed as follows;business services;processing;electrician electrical;decoration,building materials;textiles,leather;beauty makeup cosmetic;fine chemicals;rubber and general merchandise;and sectors of agriculture;food and beverage;underwear;hardware,tools;transportation;chemicals;environmental protection;appliances;machinery and equipment industry;energy;clothing accessories,jewelry;shoes and clothing could be negative effect when integrate with cultural industry,according to the study of industry relevance.As to find the inner structure and mutual affections between culture industry and out industries,empirical research are used to calculate the contribution to the whole national economy by change 1% of investment of culture industry;the total influence over 2115 hundred million Yuan,25.7% of cultural industrial added value,which equal to 0.79% of non- cultural industrial added value.It shows that pre-unit input of cultural industry and drive 8.13 unit output of national economy,at 1% transformation of cultural industry.Optimize the industry relevance is very important to enterprise management and macroeconomic regulation,and the requirement of economy works well.In consideration of positive effect of industry relevance,cultural industry preferred to integrate with frequently occurring industries in the most reliable maximum flow,like tertiary industry.The model of ICN has a certain probability properties.This paper,has improved the MRMF by recommending the scaling factor of trade share,which endow the different economical connotations in ICN.With the development of Big-Data platform and algorithm optimization of Data Mining,digital characteristics of treatments in real world can make sense to this probability,and this is also the direction of future research to deepen.</t>
+          <t xml:space="preserve">Full text Figures and data Side by side Abstract eLife digest Introduction Results Discussion Materials and methods References Decision letter Author response Article and author information Metrics Abstract Binding of antigen to the B cell antigen receptor (BCR) initiates a multitude of events resulting in B cell activation. How the BCR becomes signaling-competent upon antigen binding is still a matter of controversy. Using a high-resolution proximity ligation assay (PLA) to monitor the conformation of the BCR and its interactions with co-receptors at a 10–20 nm resolution, we provide direct evidence for the opening of BCR dimers during B cell activation. We also show that upon binding Syk opens the receptor by an inside-out signaling mechanism that amplifies BCR signaling. Furthermore, we found that on resting B cells, the coreceptor CD19 is in close proximity with the IgD-BCR and on activated B cells with the IgM-BCR, indicating nanoscale reorganization of receptor clusters during B cell activation. https://doi.org/10.7554/eLife.02069.001 eLife digest Our immune system protects us against diseases by recognizing invading pathogens, such as bacteria and viruses, and launching a response to eliminate them. In vertebrates, like mice and humans, this immune response often involves white blood cells called B cells, which make antibodies. B cells can recognize a huge number of different molecules called antigens, including those from pathogens, with the help of their antigen receptors. These receptors are proteins that span the surface membrane of the B cells, such that most the receptor is outside of the cell, with the rest being inside the cell. When an antigen binds to the outside portion of a B cell receptor, that B cell becomes activated. The B cell then starts to multiply, and to produce antibodies that bind to that antigen and hence mark a pathogen for attack by the immune system. For many years it was thought that two copies of the receptors had to be brought together for the B cell antigen receptor to activate the B cell. However, other research revealed that the receptors tend to cluster together in the membrane, even before an antigen is recognized. Now, Kläsener, Maity et al. have used techniques that can essentially measure the distance between two B cell antigen receptors, even when they are just a few billionths of a meter (or nanometers) apart. This revealed that the receptors start very close together, and actually move further away from each other when the B cells are activated. Kläsener, Maity et al. also found that an enzyme, called spleen tyrosine kinase (Syk), is needed to separate the receptors. Further experiments revealed that Syk does this by binding to the so-called ‘signaling motif’ of the receptors, which is inside the cell: this causes the receptors to change shape, forcing the parts outside the cell to move apart. Furthermore, Kläsener, Maity et al. found that other proteins in the surface membrane called co-receptors—which cooperate with the B cell antigen receptors to activate a B cell—were also re-organized when B cells became activated. It is likely that most other membrane proteins are also organized in clusters that are only nanometers across. As such, the techniques described by Kläsener, Maity et al. will now allow the study of membrane organization at the nanoscale; which, as yet, has remained largely unexplored. https://doi.org/10.7554/eLife.02069.002 Introduction Engagement of the BCR results in proliferation of B cells and their differentiation into either antibody-secreting plasma cells or memory B cells (Rajewsky, 1996). In its monomeric form, the BCR is a 1:1 complex between the membrane-bound immunoglobulin (mIg) molecule and the Igα/Igβ-heterodimer (Schamel and Reth, 2000; Tolar et al., 2005). The cytoplasmic tails of both Igα and Igβ carry an immunoreceptor tyrosine-based activation motif (ITAM), the tyrosines of which are phosphorylated by Src family protein tyrosine kinases such as Lyn and the spleen tyrosine kinase (Syk) (Schmitz et al., 1996; Pao et al., 1998). However, the two kinases interact with the BCR in different ways. In contrast to Lyn, which predominantly phosphorylates only the first ITAM tyrosine, Syk phosphorylates both tyrosines and subsequently binds the double-phosphorylated ITAM (ppITAM) via its tandem SH2 domains (Futterer et al., 1998). The binding of Syk to a ppITAM sequence results in the rapid phosphorylation of ITAM tyrosines of neighboring receptors. The resulting increased Syk recruitment generates a positive feedback that amplifies signal transduction from the BCR (Rolli et al., 2002; Mukherjee et al., 2013). A PLA study showed that Syk interacts only with the activated but not with the resting BCR (Infantino et al., 2010). How the ITAM sequence is shielded from the action of this kinase in resting B cells is not known but may involve cytoskeletal elements. Indeed, B cells can be activated not only by exposure to antigen but also to </t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1575343699</t>
+          <t>https://openalex.org/W1991585646</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1111/j.2042-3306.2012.00662.x</t>
+          <t>https://doi.org/10.1353/tt.2013.0010</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Orsini (2012)</t>
+          <t>Montez (2013)</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Supporting limb laminitis: The four important ‘whys’</t>
+          <t>“Keepin’ it 100”: Performing Recovery in Cleveland Public Theatre’s Y-Haven Project</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Supporting limb laminitis (SLL) is a veritable dark hole when it comes to our goal of completely understanding the pathogenesis and therefore the prevention of all types and clinical presentations of laminitis. We do know that SLL occurs in the foot of the contralateral or supporting limb in horses with a severe, unilateral lameness that persists for more than several weeks 1-7. Consequently, mechanical loading or overloading is a primary factor in its pathogenesis. However, the equine hoof wall has been said to be ‘overengineered,’ given that during normal locomotion the stratum medium experiences about one-tenth of the compressive force required to cause its structural failure 8. The highly adapted dermal-epidermal connection, anchoring the hoof wall to the distal phalanx – now termed the suspensory apparatus of the distal phalanx (SADP) – may be similarly described. The surface area of the SADP in the average-size hoof is calculated to be about 0.8 m2 9. At gallop, the hoof wall and the SADP withstand compressive and distractive forces of up to 3 times the horse's body weight without sustaining any apparent damage 4. So, why does the simple act of standing around cause the SADP to fail? Moreover, why does it fail in only some horses with severe, unilateral lameness (reportedly &lt;20% of at-risk horses)? Why does it typically not appear until weeks or months after the injury or infection that caused the primary lameness? In addition, why do we not see it as commonly in foals and yearlings as in adults? If we can answer just these 4 questions, then we will have a much better understanding of both the pathogenesis of this devastating complication and its prevention. This is one question with a good answer, supported by evidence-based data. We do not have an experimental model for SLL as we do for laminitis induced by a carbohydrate overload, black walnut extract, or hyperinsulinaemia – and understandably so. Nevertheless, we have a sound experimental basis for drawing the following conclusions about why the SADP fails at rest in these horses. The mechanism, which involves the combination of chronic weightbearing load and arterial occlusion, has recently been explained and illustrated in detail 4, so a brief review should be enough here. We have known for some time that, when the foot is fully loaded, vascular filling in the lamellar dermis is significantly decreased or even absent using angiographic studies as the basis for this conclusion 2, 4. More importantly, computer-generated models using computed tomography (CT) of the distal limb under load have revealed some further, and even surprising, insights into this phenomenon: occlusion of the palmar/plantar digital arteries occurs at various levels, including sites proximal to the coronary band, depending on the intensity of load 4. Under conditions of moderate load, the arteries are occluded at the abaxial margins of the distal sesamoid (navicular) bone and at the proximal aspect of the second phalanx (P2), so blood flow is occluded, especially to the quarters and heels. Blood flow to other regions of the foot is relatively unchanged because the dorsal branches of the palmar/plantar digital arteries are unobstructed and arterial anastomoses are abundant within the digital vasculature 4, 8. Under conditions of heavy load, such that the fetlock drops within its suspensory apparatus, the arteries are occluded at or near the base of the proximal sesamoid bones – proximal to dorsal branching of the digital arteries in the pastern region – so blood flow to the entire foot is occluded; there is no filling of any vessel below the coronary band. The vertical load required to cause this degree of occlusion in cadaver limbs was less than the weight of the horse's forelimbs 4. It has been proposed that the deep digital flexor tendon (DDFT) causes obstruction of the vessels in the dorsal lamellar dermis by its pull on the third phalanx (P3) and therefore on the SADP 2. In support of this theory, Redden reported a SLL incidence of only 2.3% (2 of 85 horses) with the prophylactic use of an 18° heel wedge and toe cuff system 2. However, the aforementioned models of limb loading, clearly shows that arterial occlusion does indeed involve the DDFT, but it occurs more proximally and more directly than previously believed. Arterial occlusion occurs before the entry of the digital arteries into the solar foramina of P3 – and even proximal to the coronary band – and these locations closely approximate the points at which the DDFT abuts against a bony fulcrum 4, 10. As the limb is loaded, the tendon is flattened against the navicular bone and the proximal palmar/plantar processes of P2, or perhaps its associated soft tissues, and with heavy loads against the proximal sesamoid bones, consequently, the adjacent vessels are compressed. It is likely that other connective tissues of the digit contribute to this occlusive effect, as the digit is ensheathed in circumferential and interco</t>
+          <t>“Keepin’ it 100”: Performing Recovery in Cleveland Public Theatre’s Y-Haven Project Noe Montez (bio) The Situation In August 2010, fourteen recovering drug and alcohol addicts walked off a Cleveland bus and into a former church, which had recently been renovated into a rehearsal space. The eight African American and six white males, whose ages ranged from the mid-twenties to late-fifties, entered the studio and tentatively introduced themselves to the three teaching artists in their twenties who would collaborate in the act of creating a devised performance. After the initial greetings, silence filled the room until one of the teaching artists declared, “Give me a voice if you want to hear and I’ll show you a world that you need to see,” before waiting on the men to repeat this statement. As the banter between teaching artists and performers developed into a call and response, most participants grew more comfortable, although company member Ron Metz maintains that he continued to resist internally, thinking to himself: “Man, I didn’t come here to play games, I thought we were gonna get into some real shit.” Chip Joseph assumed his position as Y-Haven executive director in 1993 and began to transform the facility from a transitional home that partnered with the Department of Housing and Urban Development (HUD) into a twelve-step treatment facility. When he assumed leadership of the organization, Joseph recognized that many of the individuals who funneled in and out of the building suffered from drug and alcohol addictions that prevented successful integration into new housing. Securing numerous grants from HUD, as well as state and national organizations, Joseph hired counselors, social workers, and therapists, transforming Y-Haven into a twelve-step treatment facility modeled on Minnesota’s Hazleden addiction treatment center. At the time of the 2010 performance, clinical director Terry Luria noted that 65 percent of the Y-Haven’s 133 residents were African American, 34 percent were white, and there was one Latino resident. The average age of Y-Haven’s residents was just over 40, but current inhabitants’ ages range from their early twenties to late sixties. A twelve-step treatment program requires significant internal reflection, yet Joseph and Luria began to imagine extracurricular programming for Y-Haven in the summer of 1997, when Joseph attended a performance in a local park and discovered one of the facility’s residents weeping in the audience. As a long-time theatregoer, Joseph often visited Cleveland theatres, but says that this moment awakened him to the possibility that performance could provide a necessary link between Y-Haven residents and the communities in which they lived. He initiated conversations with Cleveland Public Theatre’s (CPT) founding director James Levin, who in 1998 began implementing the earliest variations of CPT’s Y-Haven Project. Levin’s initial productions involved weekly meetings with Y-Haven residents, who developed monologues that were staged for fellow occupants. Since that initial experiment, the performances have expanded considerably. The theatrical collaboration developed into a devised performance under the creative influence of CPT’s current artistic director Raymond Bobgan. By the mid-2000s, the production transformed into a forty-five-to-sixty-minute one-act play featuring a cast of ten to fourteen actors from the home performing an originally crafted [End Page 83] narrative with an operating budget of $15,000. The company performs a weekend of shows at CPT, including a benefit performance for Y-Haven donors, before embarking on a weeklong tour to Cleveland-area colleges and universities, juvenile-detention centers, and charitable organizations like the Salvation Army. For over a decade, CPT has collaborated with Y-Haven’s substance-abuse addicts, sharing time, experience, and production resources in order to create a devised performance annually. Over 180 men of diverse age, ethnicity, education, profession, and theatrical experience have volunteered time away from their lives at the recovery facility, devoting up to twenty hours a week over three months alongside CPT teaching artists. This partnership has led to press and goodwill for CPT and Y-Haven alike. The Cleveland Plain Dealer has written numerous articles about the performances, and Cleveland Mayor Frank Jackson, multiple state legislators, and former...</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2588171043</t>
+          <t>https://openalex.org/W2030101668</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1080/14742837.2014.994094</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Salemink (2016)</t>
+          <t>Brandt (2015)</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Digital Margins: How spatially and socially marginalized communities deal with digital exclusion</t>
+          <t>Feminist Practice and Solidarity in Secular Societies: Case Studies on Feminists Crossing Religious–Secular Divides in Politics and Practice in Antwerp, Belgium</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>The increasing importance of the Internet as a means of communication has transformed economies and societies. For spatially and socially marginalized communities, this transformation has resulted in digital exclusion and further marginalization. This book presents a study of two kinds of marginalized communities: spatially marginalized rural communities and socially marginalized Gypsy-Travelers. Mechanisms of both social exclusion and digital exclusion were studied to create a better understanding of how marginalized communities deal with ongoing digitalization. The interplay between citizens, governments, and market players is a recurring theme throughout the book. Issues in current policies and approaches are discussed, and recommendations for improvement are provided. Altogether, this study shows that the Internet is not an equalizer, as it was once assumed by academics and policy makers. Instead, unequal access to the Internet shows that ‘offline’ geographies still matter in the digital age. Ongoing developments around digital exclusion in the Netherlands, and in a broader perspective around the ‘participation society’, beg the question how much can be asked of communities and what should be a public task. If governments really care about digital equality, then they need to enable self-reliant communities to achieve their goals, but they also need to play a more active role themselves and help the more dependent communities.</t>
+          <t>In west European countries, public debates on migration, integration, and diversity are informed by particular understandings of secularism and the secular society. In our increasingly diverse societies, so the story goes, it is needed to implement a certain type of secularism and/or support particular types of secular standpoints in order to maintain a certain status quo that guarantees security, democracy, and equality for all. Religion is often perceived and simultaneously constructed in opposition to the emancipation and equal rights of women. This dominant logic, in which secularism and religion are opposites, makes it difficult for women of diverse religious–cultural backgrounds to cooperate on an equal footing for a shared feminist cause. However, feminist politics and practices that cross religious–secular divides can and do take place. Feminist research has so far paid little attention to the actualities of this feminist border-crossing and the transformations it may engender in our current sociopolitical context. In this article, I aim to offer a consideration of feminist politics and solidarity crossing religious–secular divides in Flanders, the Dutch-speaking northern region of Belgium. Through two case studies, I explore how cooperation and solidarity across religious–secular boundaries are developed and being talked about by activists. I argue that such feminist coalitions can and do directly and indirectly affect the public debates and inspire feminist thinking on issues regarding religion, secularism, and feminism in the multicultural society.</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2181614887</t>
+          <t>https://openalex.org/W2966955503</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.31857/s0044748x0005578-4</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Cunnion &amp; Masur (1996)</t>
+          <t>Gabyshev (2019)</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Diffuse panbronchiolitis—a new Japanese export?</t>
+          <t>Investigating gender-based violence in transitional justice context: the case of Brazil</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Five cases of diffuse panbronchiolitis (DPB), a disease previously noted almost exclusively in Japan, have lately been reported in United States citizens. 1 How common is this condition outside Japan and should there be more awareness of it in the West? DPB, first described in 1969, is characterised by inflammation just distal to the terminal bronchiole, in the transitional zone between the bronchiole and alveoli. 2 Patients present with a history of chronic cough, sputum production, and dyspnoea on exertion and often give a long history of sinusitis. Physical examination reveals wheezes and crackles, and pulmonary function testing shows a mixed obstructive/restrictive pattern. Chest Xray findings range from hyperinflation to the development of small nodular shadows and, in severe disease, the appearance of ring-shaped or tram-line shadows suggestive of bronchiectasis. Prognosis is poor, but is substantially improved by treatment with macrolide antibiotics. It is unusual for a disease to be confined to one geographical area unless it has a strong genetic association, is caused by an environmental or infectious agent unique to the area, or has been unrecognised or underdiagnosed elsewhere. Which of these possibilities applies to DPB? Several familial cases of DPB have been reported, and patients commonly have a family history of sinusitis. A study has shown that 63·2% of patients with DPB possess the HLA Bw54 antigen compared with 11·4% of the disease-free Japanese population. 3 This finding is especially interesting since HLA Bw54 has been identified only in Japanese, Chinese, Koreans, and a very small number of Ashkenzai Jews. An association between HLA Bw54 and DPB susceptibility would account for the high incidence of the disease in Japan and would still be consistent with the few case-reports of DPB occurring in non-Japanese individuals. Genetic susceptibility would not, however, explain the surprisingly few reports of DPB occurring in the Japanese population resident outside Japan.</t>
+          <t>The concept “transitional justice” is usually applied in the context of post-conflict resolution or transition from authoritarian regime to democracy. There is a whole range of various judicial and non-judicial mechanisms that are applied in the process of transitional justice that may include lustration, public apology, restitution of property, as well as formal judicial processes. Among the instruments of transitional justice are truth commissions (truth and reconciliation commissions). This article examines the activities of Brazilian National Truth Commission (2011) with a view to examine the gender dimension of its work. It is no secret that gender-based violence in the post-conflict settings often remains an overlooked phenomenon. We consider truth commissions more suitable venues than criminal trials for the examination of such offenses since the lack of formal procedure enables more flexible approach and gives an opportunity to take into account the interests of victims and witnesses.</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4206948358</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.7765/9781526159878</t>
+          <t>https://openalex.org/W2990809411</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Ambler et al. (2022)</t>
+          <t>Tawdrous (2019)</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Reclaiming economics for future generations</t>
+          <t>Is There A Contradiction In The Physics Book</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Today, in many countries what is viewed as ‘credible’ economic knowledge stems from academic economics. The discipline of academic economics is based in universities across the world that employ economists who produce research that is published in academic journals and educate students who then go into government, businesses, and think tanks. Through the book’s authors’ and contributors’ experiences of economics education, and as part of the international student movement Rethinking Economics, it argues that academic economics in its current state does not provide people with the knowledge that we need to build thriving economies that allows everyone to flourish wherever they are from in the world, and whatever their racialised identity, gender or socioeconomic background. The consequences of this inadequate education links to modern economies being a root cause of systemic racism and sexism, socioeconomic inequality, and the ecological crisis. When economies are rooted in a set of principles that values whiteness, maleness and wealth, we should not be surprised by the inequalities that show up. Structural inequalities need systemic change, change that infiltrates through every level of the system, otherwise we risk reproducing and deepening them. This book makes the case that in order to reclaim economics it is necessary to diversify, decolonise and democratise how economics is taught and practised, and by whom. It calls on everyone to do what we can to reclaim economics for racial justice, gender equality and future generations.</t>
+          <t>I claim there's a contradiction in the physics book, let's explain it: Lorentz Transformations Effect Lorentz Transformations tell us that, Particle data is created relative to its motion, basically because Particle mass and length are changed because of particle high velocity motion… If Lorentz length contraction is a real effect on particle own nature or just illusion of measurements! This question we have discussed before- and we have found that- Lorentz Length Contraction is a real phenomenon effects on Particle own nature similar to Particle mass increasing as a result of high velocity motion The previous consideration we have adopted for the next reasons: (1)The measurements show this contraction and in physics what's measured is what's real (2)If we consider the length contraction is an illusion of measurements, that tells Particle properties correct definition is found when no difference in motions velocities between me and this particle, which supposes that I'm The Universe Reference Point – that's similar to a person looks at mirror – which pushes us to refuse the claim that the contraction is an illusion of measurement Conclusion I. Lorentz Length Contraction is a real phenomenon effects on Particle own length II. Particle Data is created relative to this particle motion The last conclusion leads us to a contradiction with Newton mechanics Newton had interpreted Planet motion based on the masses gravity between this planet and the sun – So Planet Mass is the reason of its motion But Lorentz transformation tell us that – Particle Data (and mass) is created based on this particle Motion…! i.e. Planet Motion – according to Lorentz Transformation- must be the reason of Planet Mass – so Planet doesn't move by Masses Gravity – because planet mass is created depending on its motion which tells that Planet motion is found before any other planet data! So how does planet move? Gerges Francis Tawdrous +201022532292</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2069268823</t>
+          <t>https://openalex.org/W3152128037</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1111/j.1468-2265.2009.00501.x</t>
+          <t>https://doi.org/10.2307/25599402</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Waterfield (2009)</t>
+          <t>Mahmood (2009)</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Image and Reality in Plato's Sophist. By David Ambuel</t>
+          <t>Religious Reason and Secular Affect: An Incommensurable Divide?</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Pp. xvii, 279 , Las Vegas , Parmenides Publishing , 2007 , $32.00 . After introductory matter, this book consists of a thorough commentary on Plato's Sophist, a translation of the dialogue, and then end matter, including a useful appendix in which he argues in more detail against a common view of the dialogue. The commentary is divided into three parts (roughly, on the divisions or the attempted definition of the sophist; on the problem of non-being; and on its solution), and the reader is also helped by frequent section breaks with subheadings. I will say no more about the translation: it is useful to have it in the book, to refer to, but it is plain and literal almost to the point where on occasion it hardly reads like English. Ambuel wants to make two main points. First, contrary to a strong trend in scholarship over the last fifty years, he sees the dialogue as metaphysical rather than logical; that is, it is not merely an exercise in logical division followed by a disambiguation of senses of the verb ‘to be’, but primarily an exploration of forms, entities with real ontological status, and their relationship to the everyday world of particulars. This thesis of Ambuel's is attractive, but it stands or falls with the success or failure of the rest of the book, in which he applies and justifies this insight. I can see no reason why the book cannot be both logical and metaphysical; the two are often hard to distinguish in Plato's dialogues. Ambuel's second main thesis is that, despite appearances, the dialogue is aporetic. Even though it appears to end in certain firm conclusions about ‘to be’ (or about being), Ambuel argues that these conclusions are undermined because the method used to reach them has been patently inadequate. This seems to me to be a hazardous and implausible thesis. Interpretations of Plato's dialogues that promise a revolution are rarely successful; good academic work is more commonly cumulative, building on careful prior work. Ambuel's thesis means, as he freely admits, that, contrary to what all scholars have thought, the Eleatic Stranger does not speak for Plato. In that case, what is the point of the dialogue? Ambuel believes that Plato is asking us to pick up on certain clues, never spotted before by anyone, that show that the dialogue does not have the function it purports to have. These clues are (1) that the method of division practised in the dialogue does not conform to theory and practice of division in other dialogues, specifically because there is no prior collection and because division proceeds only by dichotomy; (2) the sophist is consistently allowed to be a practitioner of a skill, even though elsewhere Plato denies that sophists have skills; (3) that in certain respects the metaphysics of the dialogue does not square with some of Plato's earlier ideas – specifically, in that forms are said to relate to one another (which destroys their singularity), and that images and paradigms are not kept as radically distinct as before. It would take too long to argue against these points in detail; suffice it to say that only strong unitarians would think that Plato could not have changed his mind on any or all of these three points. But if the dialogue does not, then, have the purpose it appears to have, what is its purpose? Ambuel believes it shows that Parmenidean logical tools fail to cope with the subtleties of Platonic metaphysics, particularly because it is bound to blur the distinction between image and paradigm; therefore, the dialogue shows, in this indirect way, the necessity of a firm ontological distinction between image and paradigm. Even though I disagree fundamentally with almost everything Ambuel says, there are things to be grateful for in this book; above all, it is well argued and clearly written. And, just because of its difficulties, Sophist is studied less than many Platonic dialogues: it is good to have a new translation and a thought-provoking book-length commentary.</t>
+          <t>Previous articleNext article No AccessCase Studies IReligious Reason and Secular Affect: An Incommensurable Divide?Saba MahmoodSaba Mahmood Search for more articles by this author PDFPDF PLUSFull Text Add to favoritesDownload CitationTrack CitationsPermissionsReprints Share onFacebookTwitterLinkedInRedditEmail SectionsMoreDetailsFiguresReferencesCited by Critical Inquiry Volume 35, Number 4Summer 2009The Fate of Disciplines Edited by James Chandler and Arnold I. Davidson Article DOIhttps://doi.org/10.1086/599592 Views: 3138Total views on this site Citations: 172Citations are reported from Crossref © 2009 by The University of Chicago. 0093‐1896/09/3504‐0017$10.00. All rights reserved.PDF download Crossref reports the following articles citing this article:Susan de Groot Heupner, Kirstine Sinclair Locating the Ideal State: The Practice of Place by Far Right and Islamist Parties, Journal of Intercultural Studies 44, no.22 (Jul 2022): 239–256.https://doi.org/10.1080/07256868.2022.2094352Hannah Dick About Face: Hypocrites and Outliers in Canadian News Coverage of Masking and Anti-Masking During the Coronavirus Pandemic, TOPIA: Canadian Journal of Cultural Studies 34 (Feb 2023).https://doi.org/10.3138/topia-2022-0008Matthias Kramm Four epistemic reasons to consult religious traditions, Constellations 6 (Jan 2023).https://doi.org/10.1111/1467-8675.12651Sagnik Dutta Becoming equals: the meaning and practice of gender equality in an Islamic feminist movement in India, Feminist Theory 23, no.44 (Jun 2021): 423–443.https://doi.org/10.1177/14647001211023641 On Paradox, (Nov 2022): 1–28.https://doi.org/10.1215/9781478023609-001 All That Is Solid Melts into Paradox, (Nov 2022): 29–72.https://doi.org/10.1215/9781478023609-002 Ontologizing the Paradoxes of Rights, or the Anti-Legalism of Theory, (Nov 2022): 73–111.https://doi.org/10.1215/9781478023609-003 Anatomy of Paradox, or a Brief History of Aesthetic Theory, (Nov 2022): 112–137.https://doi.org/10.1215/9781478023609-004 Redeeming Rights, or the Ethics and Politics of Paradox, (Nov 2022): 138–180.https://doi.org/10.1215/9781478023609-005 The Politics of Exclusion, (Nov 2022): 181–220.https://doi.org/10.1215/9781478023609-006 The Pedagogy of Paradox, (Nov 2022): 221–260.https://doi.org/10.1215/9781478023609-007 A Different Kind of Theory, (Nov 2022): 261–265.https://doi.org/10.1215/9781478023609-008 What Holds Things Together, (Nov 2022): 266–311.https://doi.org/10.1215/9781478023609-009 Notes, (Nov 2022): 313–334.https://doi.org/10.1215/9781478023609-010 Bibliography, (Nov 2022): 335–347.https://doi.org/10.1215/9781478023609-011Ateeq Abdul Rauf Clothes That Make the Man: Understanding How the Extended Self Is Formed, Expressed and Negotiated by Male Tablighi Jamaat Adherents, Religions 13, no.1010 (Oct 2022): 981.https://doi.org/10.3390/rel13100981Giorgia Baldi Re-Thinking Islam and Islamism: Hamas Women between Religion, Secularism and Neo-Liberalism, Middle East Critique 35 (Jun 2022): 1–21.https://doi.org/10.1080/19436149.2022.2087950Kenneth M. George Images and Things, (Jun 2022): 1141–1149.https://doi.org/10.1002/9781118499528.ch127Susan de Groot Heupner “ Je suis … Charlie, Samuel, Muhammed”: Practicing Muhammed Cartoons in Far Right and Islamist Politics, Politics and Religion 7 (Jun 2022): 1–20.https://doi.org/10.1017/S1755048322000220A Sophie Lauwers Religion, secularity, culture? Investigating Christian privilege in Western Europe, Ethnicities 15 (Jun 2022): 146879682211061.https://doi.org/10.1177/14687968221106185 The Longing to Believe, (Apr 2022): 33–56.https://doi.org/10.1215/9781478022879-003 Sensualized Epistemology, (Apr 2022): 57–79.https://doi.org/10.1215/9781478022879-004 Science as an Intoxication, (Apr 2022): 80–106.https://doi.org/10.1215/9781478022879-005 Feeling Is Believing, (Apr 2022): 107–133.https://doi.org/10.1215/9781478022879-006 Only Better Beasts, (Apr 2022): 137–168.https://doi.org/10.1215/9781478022879-008 The Secular Circus, (Apr 2022): 169–199.https://doi.org/10.1215/9781478022879-009 The Four Horsemen, (Apr 2022): 200–229.https://doi.org/10.1215/9781478022879-010 Cogency Theory, (Apr 2022): 1–29.https://doi.org/10.1215/9781478022879-001 From Creationism to Climate Denialism, (Apr 2022): 230–237.https://doi.org/10.1215/9781478022879-011 Notes, (Apr 2022): 243–279.https://doi.org/10.1215/9781478022879-012 Bibliography, (Apr 2022): 281–307.https://doi.org/10.1215/9781478022879-013Daniel Silva Transidiomatic favela: language resources and embodied resistance in Brazilian and South African peripheries, Applied Linguistics Review 0, no.00 (Aug 2022).https://doi.org/10.1515/applirev-2022-0066Christian Lange Introduction: The sensory history of the Islamic world, The Senses and Society 17, no.11 (Feb 2022): 1–7.https://doi.org/10.1080/17458927.2021.2020603Suzanne Whitten Liberal Toleration and Harmful Speech, (Oct 2021): 51–84.https://doi.org/10.1007/978-3-030-78631-1_3Pankaj C. Patel, Marcus T. Wolfe Of free markets and a secular mind: t</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3133524445</t>
+          <t>https://openalex.org/W1967880006</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1038/s41893-021-00684-9</t>
+          <t>https://doi.org/10.1080/14631369.2012.630570</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Chacón-Montalván et al. (2021)</t>
+          <t>Shum et al. (2012)</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Rainfall variability and adverse birth outcomes in Amazonia</t>
+          <t>Unlocking the racialized and gendered educational experiences of South Asian females in Hong Kong: the case study of Pakistani girls</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Amazonian populations are increasingly exposed to climatic shocks, yet knowledge of related health impacts is limited. Understanding how health risks are coproduced by local climatic variability, place and social inequities is vital for improving decision-making, particularly in decentralized contexts. We assess the impacts of rainfall variability and multiscale vulnerabilities on birth weight, which has lifelong health consequences. We focus on highly river-dependent areas in Amazonia, using urban and rural birth registrations during 2006–2017. We find a strong but spatially differentiated relationship between local rainfall and subsequent river-level anomalies. Using Bayesian models, we disentangle the impacts of rainfall shocks of different magnitudes, municipal characteristics, social inequities and seasonality. Prenatal exposure to extremely intense rainfall is associated with preterm birth, restricted intra-uterine growth and lower mean birth weight (≤−183 g). Adverse birth outcomes also follow non-extreme intense rainfall (40% higher odds of low birth weight), drier conditions than seasonal averages (−39 g mean birth weight) and conception in the rising-water season (−13 g mean birth weight). Babies experience penalties totalling 646 g when born to adolescent, Amerindian, unmarried mothers that received no formal education or antenatal or obstetric health care. Rainfall variability confers intergenerational disadvantage, especially for socially marginalized Amazonians in forgotten places. Structural changes are required to reduce inequities, foster citizen empowerment and improve the social accountability of public institutions. Amazonians are subject to climate shocks, but the associated health outcomes are still unclear. This study finds that rainfall variability is associated with adverse birth outcomes, especially for those most isolated and marginalized.</t>
+          <t>Educating South Asians with different language and cultural backgrounds and integrating them into mainstream society have been a challenge for the educational system of Hong Kong. This study documents the educational experiences of a group of Pakistani girls in the contexts of home, community, and school in Hong Kong. Using ethnographic methods, data collection is based on interviews evoking their life stories. These stories recount how Pakistani girls attempt to negotiate with traditional customs, religion and mainstream stereotypes and to construct racialized and gendered schooling experiences. This study highlights the importance of mainstream engagement in regard to critical learning about cultural and linguistic diversity. It is claimed that minorities have an active role as agents in social transformation and change in achieving racial and gender equality, in this case for the most disadvantaged minority females, within the asymmetrical power relationships between local Chinese and South Asian minorities in Hong Kong.</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2441604512</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1097/01.nep.0000476112.24899.a1</t>
+          <t>https://openalex.org/W2583132496</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Skiba (2016)</t>
+          <t>Hillenkamp &amp; Bessis (2012)</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Face with Tears of Joy Is Word of the Year</t>
+          <t>Social Innovation through Solidarity Economy in Bolivia: A Process of Democratization of the Production and Gender Conventions</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>FigureThe Oxford Dictionary Word of the Year (WOTY) is not a word but a pictograph, Face with Tears of Joy. For those of you who are not familiar with this pictograph, it is one of the many emoji available for use on your cell phones, tablets, and other devices. In case you missed it, we transitioned from emoticons [;-)] to emoji in the late 1990s. Face with Tears of Joy was chosen as WOTY because it reflected the ethos, mood, and preoccupations of 2015 (Oxford Dictionaries, 2015). The Oxford University Press worked with SwiftKey, a mobile technology company, to analyze usage statistics across the world. This emoji was chosen among several competitors because it made up 20 percent of the emoji used in the United Kingdom and 17 percent of those used in the United States. Even the word emoji has tripled in use since it emerged in 1997. You are probably aware of the smiley faces you get on text messages or how your adolescents order pizza at Dominos. To test your knowledge of emoji, visit the Learning Network at the New York Times (http://learning.blogs.nytimes.com/2014/08/05/test-yourself-emoji/?_r=0). A BRIEF HISTORY Shigetaka Kurita developed the concept of emoji while working for a Japanese company, Docomo, that was creating a mobile Internet platform to provide news, weather, email, and reservations. According to Blagdon (2013), “The lack of visual cures made the service more difficult to use…and could benefit majorly from some extra characters to show contextual information.” I was intrigued by how Kurita viewed the new technology and its impact on communication. According to Kurita, the Japanese traditionally wrote long letters for communication, and the brevity of more casual email sometimes led to miscommunication. Kurita also noticed that face-to-face and phone conversations also provided cues to assess mood or feelings. He concluded “that the promise of digital communication — being able to stay in closer touch with people — was being offset by this accompanying increase in miscommunication” (Blagdon, 2013). Hence, emoji were born as a mechanism to provide contextual information and emotions. Although it took awhile for global acceptance, emoji were eventually adopted into Unicode, a computing industry standard for consistent encoding, representation, and the handling of text expressed in most of the world’s writing systems. Emoji made their international debut in 2011 when they were released on Apple’s iOS5. From Blagdon’s (2013) article, I was able to link to some interesting websites, for example, Narratives in Emoji (http://narrativesinemoji.tumblr.com/) with Les Miserables. I also found an emoji version of Moby Dick (http://blogs.loc.gov/loc/2013/02/a-whale-of-an-acquisition/) and an emoji “zine” by Womanzine (http://issuu.com/lindseyweber5/docs/emoji_by_womanzine). Sternbergh (2014) wrote that “elasticity of meaning is a large part of the appeal and, perhaps, the genius of emoji.” Emoji can express emotion on a small screen in an easy manner, making it easier for those of us who find using our thumbs for text messaging to be a challenge. “These seemingly infantile cartoons are instantly recognizable, which makes them understandable even across linguistic barriers.” IMPLICATIONS FOR RESEARCH, EDUCATION, AND HEALTH CARE If emoji are recognizable across boundaries, what are their implications for research, education, and health care? To answer this question, I ventured forward to learn more, beyond my simple use of smiley faces. I discovered a growing use of emoji in marketing, education, and, yes, even health care. A research article (Pavalanathan &amp; Eisenstein, 2015) examines whether emoji will replace ASCII character emoticons. Using a causal inference model, Pavalanathan and Eisenstein compared a treatment group (those using emoji for a specified time) to a control group (those who did not use emoji), with emoticon usage as the dependent variable. They found a statistically significant difference in the use of emoticons, with the treatment group using less and less. In their discussion, they noted that, although emoticons were primarily designed using facial expressions to express emotion, they were also used to “establish more of a conversational connection, a playful interaction or a shared and secret uniqueness within a particular relationship.” Here are examples of how others use emoji: The White House uses emoji to communicate with millennials (Mosendz, 2014). Gonzalez (2015) describes various uses of emoji to engage learners; she points to a university campaign to address sexual assault (http://students.ubc.ca/livewell/topics/sexual-assault/consent) and provides a link to the GE Emoji Science website (http://emojiscience.com) with an Emoji Table of Content, lessons plans, and YouTube videos. GE Healthcare created a YouTube video with emoji to educate the public about breast density (http://newsroom.gehealthcare.com/breast-density-explained-with-emoji/). An app called Abused Emoji (www.ab</t>
+          <t>article proposes a conceptual framework of social innovation based on theories of institutional change and applied to Latin-American solidarity economy. Social innovation is conceived as a change in the codification of social relations that validates new principles of coordination produced by reflexive actors. This framework is used to interpret two transformations driven by solidarity economy initiatives in the case of the city of El Alto, in Bolivia: the transformation of the production relationships and of gender relationships. The reach of two types of innovation is evaluated: the affirmation of an original principle of reciprocity in the mode of production; and of a principle of equality in access to the public and the productive spheres. JEL Codes: B5, D02, O1, P4, Z13</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2266668976</t>
+          <t>https://openalex.org/W2000636045</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1021/la980222z</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Andery &amp; Amalia (2010)</t>
+          <t>Sohn &amp; Park (1998)</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Skinner: a cultura como um compromisso da ciéncia</t>
+          <t>Characterization of Zirconia-Supported Tungsten Oxide Catalyst</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>From 1930 to 1953 Skinner published fifty articles and three books. Most of the fundamental concepts of his system were elaborated during this period. The basis for a science of behavior were laid by 1953, and a trend within Psychology existed with certain force by the middle of the fifties, which has been called, since 1945, radical behaviorism, What is of interest here is to follow up the development of Skinner's work during this period emphasizing that: 1- From Its beginning Skinner intended to build a science of behavior, which would enable man to predict and control his own behavior. 2- This construction, constrained by a set of principles, can he viewed as a process with three major periods, two of them characterized by three movements: the proposal of a program of investigation, the data gathering, and the systematization of results on a theoretical proposal. The first period enclosed the lime span from 1930 to 1938, the second the interval between 1938 and 1947, and the third is the period that goes from 1947 lo 1953. 3- The first period leads to the proposal of a conceptual system that intends lo explain the behavior of all organisms; the second is viewed as a transition period when the extension of the scope of a science of behavior is prepared; and the third is the period when a more mature system is presented explicitly as a science that can describe all behavior and solve problems through the control and manipulation of culture. 4- Such a science of behavior, informed by radical behaviorisrn, is presented as the only tool, opposed not only to other human sciences'', but also to politics, ethics and history, that would enable the survival of the species. Such survival could be obtained only through the construction and survival of culture, which becomes, therefore, the privileged object of a science of behavior. 5- But, what is of great relevance, a science of behavior will guarantee, because it contains on its basic program the appropriate postulates for it , the attainance of some fundamental values, for each and every man: equality, happiness, the sensation of freedom, and an impulse tor the future. Such values become goals of a science of behavior – results to be obtained by such science, measures against which lo evaluate the social planner and the scientist's behavior, and characteristics of the individual under contingencies of reinforcement planned by a science of behavior. 6- For all this, it becomes a necessary feature of the science of behavior its commitment to culture and its transformation, which will become the only real test to the truth of its principles and concepts.</t>
+          <t>Tungsten oxide−zirconia catalysts were prepared by drying powdered Zr(OH)4 with ammonium metatungstate aqueous solution, followed by calcining in air at high temperature. Characterization of prepared catalysts was performed by using Fourier transform infrared (FTIR), Raman, and X-ray photoelectron spectroscopy (XPS), X-ray diffraction (XRD), and differential scanning calorimetry (DSC) and by measuring surface area. The addition of tungsten oxide up to 20 wt % to zirconia shifted the phase transition of ZrO2 from amorphous to tetragonal to higher temperature due to the interaction between tungsten oxide and zirconia, and the specific surface area and acidity of catalysts increased in proportion to the tungsten oxide content. Since the ZrO2 stabilizes the tungsten oxide species, for the samples equal to or less than 5 wt %, tungsten oxide was well dispersed on the surface of zirconia, but for the samples containing 13 wt % or above 13 wt %, the triclinic phase of WO3 was observed at any calcination temperature. Upon the addition of only small amount of tungsten oxide (1 wt % WO3) to ZrO2, both the acidity and the acid strength of catalyst increased remarkably, showing the presence of Brönsted and Lewis acid sites on the surface of WO3/ZrO2. The high acid strength and high acidity were responsible for the WO bond nature of complex formed by the interaction between WO3 and ZrO2.</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2761924317</t>
+          <t>https://openalex.org/W2153940129</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1353/wal.1997.0003</t>
+          <t>https://doi.org/10.1111/j.1365-2656.2004.00904.x</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Bucco (1997)</t>
+          <t>Gils et al. (2004)</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>The Rise of Sinclair Lewis, 1920–1930 by James Hutchisson</t>
+          <t>Digestive bottleneck affects foraging decisions in red knots &lt;i&gt;Calidris canutus&lt;/i&gt;. II. Patch choice and length of working day</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>76 Western American Literature gist George Romanes, and (possibly) the early animal rights theoretician Henry Salt. As a result of this intellectual cross-fertilization, what began as “a mere anecdote, told to friends as an after-dinner story over cigars and good wine” evolved “into a larger study of animal behavior and its lessons for humanity.” Muir came to see the tale as an opportunity to introduce radical ideas about “the moral equality of dogs and men and all other ele­ ments in the endless span of creation,” “to challenge traditional attitudes in an inoffensive way.” Limbaugh’s writing is lucid and succinct. Muir scholars will value this book not only for its argument, but also for the hard-to-find variants of “Stickeen” that it reprints in their entirety: the original journal passage upon which the story was based, the final manuscript version of 1897, and a children’s version written by Emily Swett Parkhurst. DAVID MAZEL University of West Alabama The Rise of Sinclair Lewis, 1920-1930. By James Hutchisson. (University Park: The Pennsylvania State University Press, 1996. 276 pages, $29.50.) Renewed interest in Sinclair Lewis moves apace. This solid study treats the genesis, development, composition, and reception of the five major (and two minor) novels that Lewis published during his great decade of the 1920s. Along with five chapters devoted to Main Street, Babbitt, Arrowsmith, Mantrap, Elmer Gantry, The Man Who Knew Coolidge, and Dodsworth, Hutchisson, in a sixth chapter, discusses the author’s “unfinished labor novel” and his capturing the Nobel Prize in 1930. The appendixes avail us of Lewis’s excinded chapter from Main Street, his New York Evening Post article “The Pioneer Myth,” his deleted introduction to Babbitt, Hugh Walpole’s published introduction to the British edition of Babbitt, and two less ensconced documents of the decade—Lewis’s notorious letter refusing the Pulitzer Prize and his cele­ brated speech accepting the Nobel Prize. Besides useful notes, a bibliog­ raphy, and index, the volume has thirty-two illustrations: interesting examples of Lewis’s jottings, lists, maps, floor plans, timetables, brochures, manuscripts, typescripts, and galley proofs. Despite the continuing efficacy of Sinclair Lewis’s twenty-two satir­ ic novels for American and western American literature, scholarship, as Hutchisson notes, is relatively “scant.” For a long time students had assumed that after the publication of Sinclair Lewis: An American Life Reviews 11 (1961), Mark Schorer’s “official”jumbo biography allowed but little crit­ ical grass to grow. Among the Lewis Papers at Yale University and the University of Texas, however, is material underlying Lewis’s novels that Schorer by and large disregarded. Taking his cue from Malcolm Cowley, Hutchisson considers these documents and, rather than dwelling on Lewis’s failures after 1930, tries to explain the “height and nature” of Lewis’s achievement. Grounded in sound scholarship and sustained by clear thought, Hutchisson’s interpretation as to why Lewis made such a profound impact on his contemporaries is entirely plausible. In showing the transformation of Lewis’s notes, drafts, and the several versions of a fiction into its pub­ lished form, the critic-historian reveals how Lewis came to write a partic­ ular novel, how that novel helped shape Lewis’s career, and how each novel, in turn, influenced the work in progress. This story of Lewis’s com­ positional methods in the 1920s in the context of his development at the time provides continuities and perspectives, while the account of how his novels were received makes for amplitude and point. Combined with Hutchisson’s treatment of Lewis’s ties with Alfred Harcourt, the story also constitutes a chapter in the history of American book publishing. For all its specialized detail, each chapter is coherent, and the book as a whole (barring a few redundancies) is highly unified. And though sym­ pathetic to Lewis’s literary art, Hutchisson remains aware of Lewis’s often cheeky botchery. The intent of this study is not only refreshing but seems to me realized: to explain a phenomenon rather than to advance a cause. MARTIN BUCCO Colorado State University Mark Twain on the Loose: A Comic Writer and the American Self. By Bruce Michaelson. (Amherst: University of Massachusetts, 1995...</t>
+          <t>Journal of Animal EcologyVolume 74, Issue 1 p. 120-130 Free Access Digestive bottleneck affects foraging decisions in red knots Calidris canutus. II. Patch choice and length of working day JAN A. VAN GILS, Corresponding Author JAN A. VAN GILS Department of Marine Ecology and Evolution, Royal Netherlands Institute for Sea Research (NIOZ), PO Box 59, 1790 AB Den Burg, Texel, the Netherlands; and Animal Ecology Group, Centre for Ecological and Evolutionary Studies (CEES), University of Groningen, PO Box 14, 9750 AA Haren, the Netherlandsj.vangils@nioo.knaw.nlSearch for more papers by this authorANNE DEKINGA, ANNE DEKINGA Department of Marine Ecology and Evolution, Royal Netherlands Institute for Sea Research (NIOZ), PO Box 59, 1790 AB Den Burg, Texel, the Netherlands; andSearch for more papers by this authorBERNARD SPAANS, BERNARD SPAANS Department of Marine Ecology and Evolution, Royal Netherlands Institute for Sea Research (NIOZ), PO Box 59, 1790 AB Den Burg, Texel, the Netherlands; andSearch for more papers by this authorWOUTER K. VAHL, WOUTER K. VAHL Department of Marine Ecology and Evolution, Royal Netherlands Institute for Sea Research (NIOZ), PO Box 59, 1790 AB Den Burg, Texel, the Netherlands; and Animal Ecology Group, Centre for Ecological and Evolutionary Studies (CEES), University of Groningen, PO Box 14, 9750 AA Haren, the NetherlandsSearch for more papers by this authorTHEUNIS PIERSMA, THEUNIS PIERSMA Department of Marine Ecology and Evolution, Royal Netherlands Institute for Sea Research (NIOZ), PO Box 59, 1790 AB Den Burg, Texel, the Netherlands; and Animal Ecology Group, Centre for Ecological and Evolutionary Studies (CEES), University of Groningen, PO Box 14, 9750 AA Haren, the NetherlandsSearch for more papers by this author JAN A. VAN GILS, Corresponding Author JAN A. VAN GILS Department of Marine Ecology and Evolution, Royal Netherlands Institute for Sea Research (NIOZ), PO Box 59, 1790 AB Den Burg, Texel, the Netherlands; and Animal Ecology Group, Centre for Ecological and Evolutionary Studies (CEES), University of Groningen, PO Box 14, 9750 AA Haren, the Netherlandsj.vangils@nioo.knaw.nlSearch for more papers by this authorANNE DEKINGA, ANNE DEKINGA Department of Marine Ecology and Evolution, Royal Netherlands Institute for Sea Research (NIOZ), PO Box 59, 1790 AB Den Burg, Texel, the Netherlands; andSearch for more papers by this authorBERNARD SPAANS, BERNARD SPAANS Department of Marine Ecology and Evolution, Royal Netherlands Institute for Sea Research (NIOZ), PO Box 59, 1790 AB Den Burg, Texel, the Netherlands; andSearch for more papers by this authorWOUTER K. VAHL, WOUTER K. VAHL Department of Marine Ecology and Evolution, Royal Netherlands Institute for Sea Research (NIOZ), PO Box 59, 1790 AB Den Burg, Texel, the Netherlands; and Animal Ecology Group, Centre for Ecological and Evolutionary Studies (CEES), University of Groningen, PO Box 14, 9750 AA Haren, the NetherlandsSearch for more papers by this authorTHEUNIS PIERSMA, THEUNIS PIERSMA Department of Marine Ecology and Evolution, Royal Netherlands Institute for Sea Research (NIOZ), PO Box 59, 1790 AB Den Burg, Texel, the Netherlands; and Animal Ecology Group, Centre for Ecological and Evolutionary Studies (CEES), University of Groningen, PO Box 14, 9750 AA Haren, the NetherlandsSearch for more papers by this author First published: 06 December 2004 https://doi.org/10.1111/j.1365-2656.2004.00904.xCitations: 79AboutSectionsPDF ToolsRequest permissionExport citationAdd to favoritesTrack citation ShareShare Give accessShare full text accessShare full-text accessPlease review our Terms and Conditions of Use and check box below to share full-text version of article.I have read and accept the Wiley Online Library Terms and Conditions of UseShareable LinkUse the link below to share a full-text version of this article with your friends and colleagues. Learn more.Copy URL Share a linkShare onFacebookTwitterLinked InRedditWechat Summary 1 When prey occur at high densities, energy assimilation rates are generally constrained by rates of digestion rather than by rates of collection (i.e. search and handle). As predators usually select patches containing high prey densities, rates of digestion will play an important role in the foraging ecology of a species. 2 The red knot Calidris canutus shows tremendous inter- and intra-individual variation in maximum rates of digestion due to variation in the size of the processing machinery (gizzard and intestine), which makes it a suitable species to study the effects of digestive processing rate on foraging decisions. 3 Here we report on patch use, prey choice, and daily foraging times as a function of gizzard size in free-ranging, radio-marked, red knots. As knots crush their bulky bivalve prey in their gizzard, the size of this organ, which we measured using ultrasonography, determines digestive processing rate. 4 Using the digestive rate model, we a priori modelled patch use, prey choice, and daily fora</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3027716181</t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/j.optmat.2020.109751</t>
+          <t>https://openalex.org/W2785108735</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Zorenko et al. (2020)</t>
+          <t>Leslie (2018)</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Comparison of the luminescent properties of LuAG:Ce films grown by pulse laser deposition and liquid phase epitaxy methods using synchrotron radiation excitation</t>
+          <t>Conspiracy to Arbitrate</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>The paper is dedicated to the comparative study of the luminescent properties of LuAG:Ce films, grown by pulse laser deposition (PLD) and liquid phase epitaxy (LPE) methods, using the time-resolved luminescent spectroscopy under excitation by synchrotron radiation in the fundamental absorption range and above the band gap of LuAG host. We have shown the similarities and differences in the luminescence properties of LuAG:Ce PLD and LPE grown films. Specifically, the luminescence of LuAl antisite defects is absent in the emission spectra of both films in the room temperature range. Meanwhile, the low intensive bands peaked at 350 and 400 nm, corresponding to the luminescence of excitons localized around and bound with F+ centers, respectively, are present in the emission spectra of LuAG:Ce PLD films at 12 K. The energy of formation of the excitons bound with the Ce3+ ions, being equal to 7.52 eV at 12 K, and the energy of the onset of interband transitions of LuAG host, being equal to 7.76 eV (at 300 K), have been found for LuAG:Ce LPE and PLD films, respectively. We have also found that the scintillation properties of LuAG:Ce PDL film are worse in comparison with LPE grown film analogue due to the significantly larger content of the slow emission component in the scintillation decay under high-energy excitation. Such differences between the optical and scintillation properties of PLD and LPE films are caused by the different conditions of their preparation (in vacuum and in air).</t>
+          <t>Beginning in the 1980s, the Supreme Court has ushered in a new Age of Arbitration in which firms can use arbitration clauses to include otherwise unenforceable terms in their contracts, which may allow defendants to shorten statutes of limitations, to limit damages, and to prevent injunctive remedies altogether. Given the pro-business nature of arbitration clauses, mandatory arbitration clauses have become standard in some industries. Some industries may transition to market-wide mandatory arbitration, in part, through conspiracies to arbitrate. A conspiracy to arbitrate exists when the competing firms in a market illegally agree that they will all impose mandatory arbitration on their consumers. _x000D_
+_x000D_
+This Article highlights the dangers of conspiracies to arbitrate. Part One of this Article discusses the evolution of arbitration from a method of settling inter-merchant disputes to a mechanism that businesses use to prevent their customers from pursuing claims altogether. Recognizing that mandatory arbitration clauses are ubiquitous in many industries, Part Two hypothesizes that one reason for the expansion might be collusion among competitors. The Supreme Court first discussed conspiracies to impose arbitration clauses in 1930 in Paramount Famous Lasky, which condemned a conspiracy to arbitrate implemented by motion picture distributors on movie theaters. The Court’s language indicates that conspiracies to impose arbitration clauses are per se illegal. Since that opinion came down, no scholarship has analyzed the issue of conspiracies to arbitrate. _x000D_
+_x000D_
+Part Two then presents a typology of conspiracies to arbitrate. Such conspiracies can be primary conspiracies – that is, stand-alone conspiracies untethered to any other illegal agreements among the conspirators. Alternatively, a conspiracy to arbitrate can be a secondary conspiracy when it is part of a larger antitrust conspiracy. In this latter scenario, rivals in a market have already decided to violate antitrust laws, for example, by fixing price. The agreement to fix price is the primary conspiracy; the conspiracy to arbitrate is a secondary conspiracy designed to conceal and protect the primary conspiracy. Part Two explains how both primary and secondary conspiracies to arbitrate violate antitrust law. _x000D_
+_x000D_
+Part Three explores how courts have misapplied arbitration law in ways that make conspiracies to arbitrate profitable and perhaps inevitable in some markets. Prior to the Supreme Court’s pro-arbitration decisions, firms had little reason to conspire to impose arbitration clauses on their customers. Relying on the false premise that Congress created a federal policy favoring arbitration, federal courts have employed seemingly neutral doctrines in ways that actively enforce conspiracies to arbitrate. For example, courts have compelled antitrust plaintiffs to arbitrate their conspiracy to arbitrate claims, which means courts are enforcing – instead of condemning – the very conspiracy that they are supposed to adjudicate. Courts have also misapplied equitable doctrines and have given retroactive effect to arbitration clauses. These judicial decisions protect both conspiracies to arbitrate and price-fixing cartels. Part Three shows how all of these opinions flow from a misreading of congressional intent regarding arbitration._x000D_
+_x000D_
+Part Four presents a case study of recent litigation involving an alleged conspiracy to arbitrate among banks that issue credit cards. Following a bench trial, the federal judge held – and the Second Circuit affirmed – that the plaintiffs failed to prove an agreement among the defendants to impose arbitration clauses. In reaching this conclusion, the court committed a litany of mistakes and ultimately failed to recognize that it did, in fact, actually find an illegal conspiracy to arbitrate. This Part explains how these errors flowed from the court’s incorrect belief that Congress intended courts to favor arbitration over litigation. _x000D_
+_x000D_
+Part Five proposes changes to how courts evaluate conspiracy-to-arbitrate claims. Federal courts are essentially complicit in antitrust violations when they compel compliance with arbitration clauses that are the product of alleged conspiracies. The Supreme Court’s rush to encourage and enforce arbitration clauses should not blind lower courts to the possibility that conspiracies to arbitrate are preventing the free market from operating properly to protect consumer interests.</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4392133770</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/j.ceramint.2024.02.301</t>
+          <t>https://openalex.org/W213339720</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Hussain et al. (2024)</t>
+          <t>Sincell (1999)</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Experimental and theoretical study of Gd2O3 added pseudo-tetragonal Bi3TaTiO9-based ceramics for ferroelectric, electric and high-temperature piezoelectric applications</t>
+          <t>Focus: Freezing into Unconsciousness</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>The present global energy crisis, along with the development of modern technologies, has compelled the scientists to search for smart materials, which possess the multifunctional properties simultaneously. Among such materials, bismuth-layered structure ferroelectrics (BLSFs) containing a perovskite structure have demonstrated the tendency to play a vital role. Herein, we report an engineered Gd2O3 added Bi3TiTa0·5Nb0·5O9 (BTTN) based material with composition Bi3TiTa0·5Nb0·5O9:xwt%Gd2O3 (BTTN:xGd) with x = 0–0.20 ceramics to investigate the ferroelectric, electric, piezoelectric and dielectric properties of the material. Highly dense (relative density of ∼96%) BTTN:0.15Gd has shown the best merits among all other compositions with improved remnant polarization (Pr ∼ 7.86 μC/cm2), energy conversion efficiency (ƞ) of ∼63.48%, resistance of ∼2.2 × 1010 Ω and high piezoelectric co-efficient (d33 ∼ 25 pC/N) at room temperature, which are much improved than pure BTTO or BTTN ceramics. Nonetheless, ceramic has shown the stable resistivity of ∼104 Ω at 500 °C, with a stable d33 value of 22 pC/N (just 12% drop) after annealing at 600 °C. The ferroelectric to paraelectric phase transition of ceramic with the highest dielectric constant is reported at Curie temperature (TC) of 859 °C. Additionally, Density-Functional-Theory (DFT) and Density-Functional-Perturbation-Theory (DFPT) measurements are performed by employing generalized gradient approximation using the Quantum-ESPRESSO code. Structural, ferroelectric and electronic properties of BTTO, BTTN and Gd-added BTTN compounds are investigated. The calculated formation energies confirmed the thermodynamic stability of pseudo-tetragonal Gd-added BTTN compounds. Using the Berry-phase approach for piezoelectric materials, the calculated maximum polarization is 54.00 μC/cm2, which is in agreement with values obtained experimentally. Mentioned outcomes of the material clearly represent the potential of the BTTN:0.15Gd ceramic for the utilization in high-temperature piezoelectric devices.</t>
+          <t>Just before you fall asleep for surgery, your brain may undergo a sudden phase transition, similar to water freezing.</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4382536692</t>
+          <t>https://openalex.org/W2083524769</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1039/d3cp02035e</t>
+          <t>https://doi.org/10.1080/00268976100100641</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Tang et al. (2023)</t>
+          <t>Bell &amp; Fairbairn (1961)</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Terahertz state switching of holograms enabled by vanadium dioxide-based metasurfaces</t>
+          <t>Regular models for solid hydrogen: I</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Holography is an important topic in optical research. Metasurface holography has attracted increasing attention in recent years. However, it is still challenging to achieve dynamic tuning of holograms in the terahertz band. As an excellent phase change material, vanadium dioxide (VO2) is widely employed to dynamically manipulate electromagnetic waves. Here, VO2 meta-atoms are designed to manipulate phase and amplitude by changing the state of VO2 at 3.0 THz. These meta-atoms are composed of a VO2 block, silica spacer, and gold substrate. As the metallic VO2 is involved, 360° phase coverage is achieved by changing the dimension of VO2. The phase difference between the VO2 meta-atoms is approximately equal to 90°. Holograms are generated by aligning these meta-atoms. By combining convolution operations, holograms are deflected and reproduced. As the insulating VO2 is involved, the phase difference between the VO2 meta-atoms vanishes and the reflection amplitudes of the meta-atoms almost reach 100%. Using the phase transition of VO2, three types of metasurfaces are designed to manipulate holograms and they realize state switching of the hologram generator, state switching of hologram deflection, and state switching of the multi-beam hologram. Our work may find applications in optical holography and information privacy.</t>
+          <t>Unsymmetric regular models in which molecules on a lattice exist in two states with unequal degeneracies and unequal energies for pairs of like nearest neighbours are investigated. The lattice distribution probabilities are shown to be equal to those of the Ising model under a temperature dependent external field. However, where the energy of formation of a pair of unlike nearest neighbours is positive the model's behaviour is quite different from that of an Ising ferromagnet, since either the configurational specific heat is a continuous function of temperature or there is a first-order transition with latent heat evolved. An unsymmetric regular model is appropriate to solid orthohydrogen when the interactions are of quadrupole—quadrupole type. In general nearest-neighbour pair energies derived from the quadrupole—quadrupole interaction are found to be dependent on the orientation of the line joining the two sites, but for the simple and bodycentred cubic lattices and certain quantization directions this dependence is not apparent. In these cases no transition is found.</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2753209105</t>
+          <t>https://openalex.org/W2000005303</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1353/eir.1996.0023</t>
+          <t>https://doi.org/10.1046/j.1365-2834.2003.00371.x</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Ziaukas (1996)</t>
+          <t>Jasper (2003)</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>“Indispensable Wires”: Joyce’s Ulysses and the Origins of Public Relations</t>
+          <t>Editorial notes for March</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>“INDISPENSABLE WIRES”: JOYCE’S ULYSSES AND THE ORIGINS OF PUBLIC RELATIONS TIM ZIAUKAS in Ulysses, an encyclopedic celebration of Dublin life in 1904, James Joyce offers a carefully nuanced portrait of a new kind of urban worker, choosing the burgeoning practice of public relations as the profession for his twentieth-century everyman, Leopold Bloom. Even Joyce, a consummate self-promoter who would have been delighted by today’s global Bloomsday festivals, might have been stunned by his prescience. Bloom’s nascent efforts at public relations have blossomed into what is arguably the archetypal profession of our time: the manager of communications, the spin doctor, the flack. The novel, as it turns out, offers the early whispers of what will become a chorus of voices that now dominates our social and cultural landscape, yet this aspect of the text has been largely ignored. An inventory of public relations materials in Ulysses, I contend, shows that Joyce used the new profession as an organizing principle, and that these public relations materials provide a specialized commentary on the events and characters in the novel. Ulysses is the story of three Dubliners—Stephen Dedalus, Leopold Bloom, and Bloom’s wife, Molly—on a single day, 16 June 1904. Using their narrative, and an elaborate system of allusion, Joyce attempts to show us how the ordinary comings and goings of these everyday people contain the seeds of the heroic, perhaps even the eternal. He attempts to make his book complete, encyclopedic, to contain all Dublin events of the period he is depicting and to dramatize all the activities of its inhabitants. To that end, then, someone dies and another is born; someone urinates, another defecates; people work and play, make love and fornicate; someone even picks his nose. There are royals and rogues in a cast as complete as Chaucer’s pilgrims. At the center (like the Knight, perhaps) is Bloom, who, by day’s end, may be happily returned to his wife and may be Dublin’s JOYCE’S ULYSSES AND THE ORIGINS OF PUBLIC RELATIONS 176 moral compass—the conscience of them all. I’m suggesting here that Joyce uses the public relations materials in the novel to dramatize Bloom’s transformation from comic cuckold, who is his wife’s “handler” and promoter, to reinstated husband—a process central in a book, it could be said, about processes. Bloom is a canvasser. Finding himself, according to one critic, “in the classical squeeze between the Scylla of pleasing the client, and the Charybdis of getting cooperation from his own publication” (Berger 26), he solicits ads for The Freeman’s Journal and National Press, a Dublin morning daily. Yet in spite of current critical assumptions, his job involves far more than selling advertising. Colin MacCabe maintains that “[w]hen Joyce chose for the hero of Ulysses a canvasser of advertising, he was not just choosing an occupation amongst others, but a crucial nexus in the organization and circulation of information” (151). Yes, but Bloom is not, as many of the studies of Ulysses suggest, in advertising—Mark Osteen’s excellent The Economy of Ulysses: Making Both Ends Meet, among others, notwithstanding. Bloom is, in fact, the proto-public-relations man of the twentieth century, insofar as practitioners themselves define their profession . A closer examination of Ulysses—situated in the early history of public relations—is long overdue. The period depicted in the novel—the first decade of the twentieth century —is a formative era in the history of public relations. Between the turn of the century and World War I, the field emerged as a distinctive vocation , separate from, yet incorporating elements of, advertising and marketing . In his pioneering study of the early years of public relations, Alan Raucher describes the development of a new and distinctive entrepreneurship accompanying an emerging “stream” of information (vii). To some extent, this first generation of public relations experts developed in response to the muckrakers—reform-minded editors and journalists who successfully reached a growing national audience through the popular press and national wire services (Cutlip 100). As figures like Upton Sinclair and Ida Tarbell lashed out at the excesses of the American industrial revolution , public relations—or the...</t>
+          <t>This issue is the first of three this year that has been expanded to 80 pages. This is an exciting development for me, as the Editor, in that it shows that issues of nursing management are being taking seriously and more people are being encouraged to submit academic papers to disseminate innovations and good practice. The response to changes in editorial policy over the past year, culminating in the ‘new look’ contents, suggests that nurses in all walks of practice, management and education are responding to the challenges envisaged in recent policy documents and the widespread development of nursing roles. This issue, focusing on ‘Nursing Leadership’ presents just the range of commentary, scholarship and controversy that the editorial board are trying to achieve in moving the Journal forward. Christina Donnelly (Nursing Officer, Welsh Assembly Government) in one of our guest editorials, draws attention to the challenges for leadership within nursing in today's political climate. She identifies the tension between the needs for the professionalisation of nursing and the need to work within a multidisciplinary workforce. She outlines the tasks ahead for nursing leaders, and leadership, admitting the challenges that this may pose for managing the change process with others. In contrast, Roger Watson and David Thompson explore one of our most recent responses to the need for changing leadership – that of the ‘Modern Matron’. They suggest that ‘the Modern Matron proposals look like a recipe for disaster’. The changes imposed on nursing management in the past twenty years have shown that political solutions to practical problems are not necessarily the most effective nor efficient. Indeed, the changes have been so fast, and swiftly followed by yet more changes, that the dust hardly seems to settle on one before the next is mooted. It will be interesting to follow the progress of the ‘Modern Matron’ initiative over the next few years. This journal would like to hear from the nurses taking on the ‘Modern Matron’ mantle, to see how it is working out within the clinical context, and just what the challenges are for leadership and management for the future. We are publishing an expanded range of papers in this edition. Many of these pick up the leadership theme and present differing perspectives on how styles work in practice. Firstly, we have considerations of the position of a nurse leader (Kosińska &amp; Niebrój), and a consideration of the impact of transformational leadership on reducing nursing shortage (Thyer). Richardson &amp; Cunliffe follow this in considering the motives, diversity and future of nurse-led care, introducing a different perspective to the notion of nursing leadership. These three papers are followed by two stimulating pieces. Peter Bradshaw (former Journal of Nursing Management Editor) provides an overview of the ideological and policy implications of modernising the NHS. In response, Alistair Hewison provides a commentary, drawing out the issues for nursing and nursing management. Finally, we present four papers that explore differing contextual elements of the challenge of nursing leadership. Wynne, and Purvis &amp; Cropley for instance, consider the experiences of nurses in responding to working context and conditions. Finally, Jones &amp; Cheek explore the challenges of responding to the scope of nursing in Australia, and Armitage &amp; Knapman look at adverse events in drug administration. I would like to thank all the contributors for enabling me to put together what I hope is a thought provoking and stimulating edition of the Journal.</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2596733843</t>
+          <t>https://openalex.org/W162262910</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Alolaiwi (2017)</t>
+          <t>Movahed (2009)</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Identity Issues: The Passing Mulatto and the Politics of Representations</t>
+          <t>Removal of Organic and Nutrients in Young Leachate Using Combined Anaerobic/Anoxic/Aerobic Attachedgrowth Bioreactor</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>The transformation of the American nation into a multicultural society could result in a nation that voluntarily and openly accepts the benefits of contributing traditions, values, philosophies and behaviors. This trend, though, is struggling against a social structure that has been perceived to be grounded upon a dominant culture and value system. According to John A. Garcia, multiculturalism and difference are challenging cultural and ideological supremacy upsetting the sense of naturalness and neutrality that infused most peoples’ sense of modern society. The U.S. American ethos was characterized by individualism, egalitarianism, equality of opportunity and emphasis on Western cultures, among other things. All these characteristics have historically been turned into the perfect ingredients of a pervasive American tradition that serves as a cultural core that all members of society learnt to share and internalize ensuring societal stability and gradual change.</t>
+          <t>The study was conducted to evaluate the biological nutrient removal of young leachate_x000D_
+from transfer station that is considered as a high concentration wastewater due to high_x000D_
+chemical oxygen demand (COD) and biological oxygen demand (BOD) content. The_x000D_
+process has been performed in the combined anaerobic/anoxic/aerobic bioreactor._x000D_
+Biological nitrification and denitrification in combination with phosphorous removal_x000D_
+have been shown appropriate to remove nitrogen and phosphorous in this single column_x000D_
+bioreactor where Cosmo-ball media were launched into the aerobic zone to improve_x000D_
+bacteria growth in this zone. The anaerobic and aerobic acclimatized liquor seeded into the anaerobic and aerobic_x000D_
+zone of bioreactor respectively and after 30 days of transition period, experimental_x000D_
+procedure was started in two different phase. The diluted leachate injected to the up flow_x000D_
+continuous anaerobic/anoxic/aerobic vertical reactor in process of two phases which_x000D_
+each phase consist of three runs. The first phase involved three different organic loading_x000D_
+rates (OLR) of 8, 13.3 and 26.6 kg COD/ m3.day with constant 24 hour of hydraulic_x000D_
+retention time (HRT). In the second phase three different HRT of 12, 24, and 36 hours;_x000D_
+and constant OLR (=13.3 kg COD/ m3.day) applied to the process to find out the best_x000D_
+organic removal. Ammonical nitrogen removal investigated under different C/N ratio in_x000D_
+the first phase and in the second phase were studied under different HRT. Phosphorous_x000D_
+removal was examined in different concentrations due to leachate dilution in both_x000D_
+phases. This experiment performed in the Environmental and Chemical UPM laboratory_x000D_
+and samples were collected from the Taman Beringin Municipal Solid Waste Transfer_x000D_
+Station, Klang, Selangor._x000D_
+The results showed that, the highest removal of ammonical nitrogen in aerobic run was_x000D_
+due to the presence of sufficient amount of oxygen. The results of the project indicated_x000D_
+that by increasing C/N ratios, ammonia removal decreased due to the competition_x000D_
+between autotroph and heterotroph microorganisms which was 85% in the lowest_x000D_
+organic concentration. The results indicated as HRT increased, NH4-N concentration of_x000D_
+effluent decreased and the removal efficiency increased accordingly and the best_x000D_
+removal efficiency of the system were achieved in 36 hour as much as 89%. The best_x000D_
+organic removal were obtained at the lowest COD loading rate and the longest HRT in phase one and two which was equal to 92% and 94% respectively. It was found that the_x000D_
+anaerobic/anoxic/aerobic attached bioreactor with Cosmo-Ball as the media with_x000D_
+significant acclimatizing and transition period for bacteria growth has succeeded in_x000D_
+removing nitrogen and organic from diluted young leachate with high amount of COD_x000D_
+and low amount of nitrogen.</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>https://openalex.org/W61953674</t>
+          <t>https://openalex.org/W1991052555</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>https://doi.org/10.4438/1988-592x-re-2011-356-040</t>
+          <t>https://doi.org/10.1117/12.179179</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Ruiz &amp; Ignácio (2011)</t>
+          <t>Fischer et al. (1994)</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Un giro copernicano en la enseñanza universitaria: formación por competencias</t>
+          <t>Investigations of coupled DyBa2Cu307-(Y1-xPrx)Ba2Cu307 multilayer structures</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>espanolLa implementacion del enfoque de competencias en la ensenanza universitaria supone situarla en conformidad con las nuevas necesidades y demandas que se derivan de la sociedad de la informacion. El objetivo de este articulo es avanzar en esta innovadora direccion proponiendo un nuevo modelo de ensenanza universitaria fundamentado y contrastado en la practica educativa. Despues de describir un enfoque ecosistemico de las competencias en donde se indican los rasgos que las definen, se propone formular los objetivos formativos a partir de la distincion de los elementos que los integran. En paralelo, se plantea la pertinencia de seleccionar y organizar los contenidos academicos tomando como base modulos disciplinares o, mejor aun interdisciplinares, estructurados en nucleos problematicos y redes de problemas. Asimismo, se presenta una metodologia didactica innovadora que promueve un aprendizaje activo, reflexivo y autentico basado en la investigacion colaborativa de los estudiantes tomando como base distintas fuentes de informacion: impresas, audiovisuales, informaticas e institucionales. Por ultimo, se describe un enfoque holistico para la evaluacion de la adquisicion de las competencias en el que se distinguen tres momentos claves: evaluacion diagnostica, evaluacion formativa y evaluacion sumativa. Para realizar esta compleja y rigurosa valoracion del aprendizaje academico se indican una serie de tecnicas e instrumentos que permiten una evaluacion autentica puesto que integran tanto evidencias de conocimiento como evidencias de desempeno. Este nuevo modelo esta siendo implementado en algunas materias de distintas facultades de la Universidad de Sevilla (Pedagogia, Psicologia, Odontologia, Economicas �fase inicial�, entre otras). Los resultados obtenidos demuestran que se incrementa el nivel y calidad del aprendizaje academico en cuanto que los estudiantes logran adquirir las competencias previstas. El articulo concluye senalando la necesidad de que este reciente enfoque pedagogico este sustentado en un cambio profundo en tres componentes basicos del sistema convencional de Educacion Superior: estructura institucional, cultura academica y curriculo universitario. EnglishImplementation of the competence approach at the university teaching level means enabling university teaching to equal the new needs and demands of the information society. The aim of this paper is to move in this innovative direction by proposing a new model of university teaching based on and tested in educational practice. An eco-systemic competencebased approach is described, and the approach�s defining features are given. Educational aims are then formulated, starting with a map of their constituent elements. A proposal is made regarding the validity of selecting and organizing academic contents on the basis of disciplinespecific or, even better, interdisciplinary modules structured into core problems and problem networks. Likewise, an innovative didactic methodology is presented, which promotes active, reflexive, true learning based on cooperative student research, on the basis of different sources of information: printed matter, audiovisuals, computerized sources and institutional sources. Lastly, a holistic focus is described for evaluating competence acquisition, in which three key points in time are distinguished: diagnostic evaluation, formative evaluation and additive evaluation. A series of techniques and instruments are outlined for performing this complex, rigorous evaluation of academic learning. These techniques and instruments make it possible to conduct a true evaluation, because they incorporate knowledge evidence and performance evidence at the same time. This new model is being implemented in a number of subjects at different schools at the University of Seville (inter alia, the School of Education, the School of Psychology, the School of Odontology and the School of Economics �undergraduate phase). Results show increases in the level and quality of academic learning as students master expected competences. The paper ends by pointing out the need for this brand-new pedagogical approach to be based on a deep change in three key elements of the conventional higher education system: institutional structure, academic culture and university curriculum.</t>
+          <t>We report on the behavior of high T&lt;SUB&gt;c&lt;/SUB&gt; superconductor coupled multilayer structures in magnetic field perpendicular to the ab plane. In these structures the number N of superconducting layers in the sample has been systematically varied. We extract the activation energy for flux motion from resistive measurements of the superconducting transitions. For samples containing N 24 angstroms thick DyBa&lt;SUB&gt;2&lt;/SUB&gt;Cu&lt;SUB&gt;3&lt;/SUB&gt;O&lt;SUB&gt;7&lt;/SUB&gt; layers, each separated from the next by 96 angstroms of an (formula available in paper) alloy, we find that the activation energy U increases linearly with the number N of layers for N &lt; 3 - 4, and then saturates. The linear increase of U is taken as an evidence that coupling through (formula available in paper) increases the correlated volume involved in the flux motion and thus U. For N equals 3 stacked pancake vortices move rigidly and the vortex lattice is 2D. For N &gt; 3 - 4 shear of the vortex lattice becomes important, the vortex lattice dimensionally crosses-over to 3D, and the activation energy saturates.</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2286245466</t>
+          <t>https://openalex.org/W4382987088</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>https://doi.org/10.6846/tku.2013.00940</t>
+          <t>https://doi.org/10.46289/ee82q7p4</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>邵啟峰 (2013)</t>
+          <t>Prödel (2023)</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>兩岸國中歷史教科書關於中華民國史(1911年~1936年)之比較分析</t>
+          <t>Linking performance measurement with individual behaviour: the role of emotions</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Sun Yat-sen Chinese Revolution Centennial Celebration Events, and Taiwan last year in 2011 to celebrate Centennial, from the point of view the same time, the two sides are different historical interpretation. Taiwan's National Education textbooks in the past limited to KMT history special space-time background, martial law era of authoritarian era, many facts are not telling the truth, of course, can not be modified according to anecdotes textbooks. Published in mainland China in which there will be political thinking in mainland China, but Taiwan's textbook writers to provide a very important reference. Because of this, textbooks taught our content, not just to maintain the tone of the Chinese Kuomintang in the past, together with the Kuomintang and the Communist Party of China in modern history, deconstructed and then re-constructed. In other words, those in power will have a of interpretation, it is beyond doubt. Because of national education textbooks can not be changed with the political parties in power and again. Past, KMT history as Republic of China Modern History textbooks must become history. The results showed that the two sides view of history, the Chinese mainland is the Marxist materialist view of history, to describe the history, just as described in the text on both sides of the textbook, the two are not the same. For the interpretation of the of each ROC is not the same, in addition to being ideological influence, the postmodernist perspective, because different objects, there will be a different narrative perspective and ideas.</t>
+          <t>The desire to measure, evaluate and compare performance is almost as old as humanity itself. While individual performance evaluations have predominantly been documented since ancient times, more complex performance management systems (PMS) have developed in the course of industrialisation. Management scientists continued to develop these systems and at the end of the 20th century they experienced a real boom, resulting in the term "performance measurement revolution" (Eccles, 1991). Despite the intense scientific discourse, the growing number of guidelines and consulting services, reports of failed PMS implementations became more frequent after the turn of the millennium. The actual failure rate cannot be conclusively determined; the information in the literature about PMS initiatives that did not achieve their goals varies between 20-70 per cent (cf. Bourne, Neely, Platts, &amp;amp; Mills, 2002; McCunn, 1998). Looking at the reasons for failure, researchers primarily identified ‘technical’ (i.e., methodological) reasons as causes for failure of PMS implementation. Few focused their attention on the core element of any organisation: the people; and how they feel about being measured. Although there is an intensive examination of employee behaviour from a wide variety of research fields, such as human resources, work and organisational psychology or motivation research, to name but a few, research so far relied primarily on cognitive, motivational and social psychology (Birnberg, Luft, &amp;amp; Shields, 2006). In general, the potential role of emotions has been given insufficient attention in management sciences (Hall, 2016) and especially the relationship between performance measurement and emotions is not well understood. Thus, this study examines which aspects of performance measurement are related to positive emotions, how to avoid negative emotions and what implications for practitioners arise. Using a phenomenological approach based on Husserl’s transcendental descriptive phenomenology I conducted interviews with 11 employees from low-level to middle management of a medium-sized organization that experienced an onerous and unsatisfactory implementation of a PMS to elicit their experiences and feelings regarding performance measurement. The findings show that employees want a ‘fair’ process from goal setting through performance measurement to performance evaluation. In their eyes, fairness is achieved, among other things, by agreeing on ambitious but achievable goals that are also adjusted accordingly in the event of unforeseeable changes in general conditions, that performance measurement is transparent and comprehensible, and that performance evaluation is carried out in an unbiased and consistent manner. The behaviour of supervisors, their interaction with employees and their communication skills as well as organizational culture also have a decisive influence on the perception of fairness. An important finding is that there are three different categories of relationships between characteristics of performance measurement and emotions. The first category of aspects is not able to evoke positive emotions. This is because these attributes are implicitly assumed by employees. Only their non-fulfilment leads to negative emotions. The second category of attributes scales according to their degree of fulfilment, i.e., low fulfilment tends to generate negative emotions, while higher degrees of fulfilment generate positive emotions. The third category does not lead to negative emotions in the case of non-fulfilment, but to over-proportionally positive emotions even in the case of low fulfilment. These findings indicate that practitioners should focus on the attributes that scale proportionally to their level of fulfilment, as employees pay particular attention to these. Furthermore, it is worthwhile to invest in the aspects that have a high impact even with a low degree of fulfilment. However, the presupposed features should not be neglected, as they can undo all efforts if they are not fulfilled.</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2076640566</t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/j.tca.2003.12.013</t>
+          <t>https://openalex.org/W156141455</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Zengin &amp; Ceylan (2004)</t>
+          <t>Pinsker (2000)</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>The changes in transformation temperatures under stress of Cu–12.7Al–5Ni–2Mn alloy</t>
+          <t>The Tall Tale, American Humor, and America</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>The effects of the stress on shape memory properties of Cu–12.7Al–5Ni–2Mn shape memory alloy have been investigated. Applied stress increases transformation temperatures and the relationship between T0, temperature at which Gibbs free energy of austenite equals that of martensite, and plastic deformation is linear.</t>
+          <t>LONG BEFORE THINGS were king-sized in Texas they were mighty big in Philadelphia--that is, if Benjamin Franklin's account (published pseudonymously in a 1765 London newspaper) is to be believed. There, he boasted about the tails of American sheep producing so much wool that each has a little Car or Waggon on four little wheels, to support &amp; keep it from trailing on the ground; and he went on, in the same pokerfaced vein, to talk about of the finest Spectacles in Nature--namely, the sight ofthe Grand Leap of the Whale in that chase [for cod] up the Fall of Niagara. British readers of the day took Franklin at his hyperbolic word, but as Huckleberry Finn would point out more than a century later, That ain't nothing. never seen anybody but lied, one time or another. Lying--or what Huck calls stretchers--have always come with the American landscape; and nowhere is this truer than in the promotional literature, insider jokes, and leg pulls that those in the New World regularly foisted on their counterparts from the Old. Oppressed people tend to be witty, Saul Bellow once pointed out, and in a colonial pre-America that bristled whenever their British cousins viewed them with snobbish condescension, the tall tale became a means of exacting a measure of revenge. Thus, America's enormous space was presumably filled by all manner of exotic flora and fauna. Whatever seemed cramped and crabbed in England was presumably wide open and wonderful just across the Atlantic--or so the first group of tall tale spinners insisted. Adventurous (usually impoverished) types booked passage to magical New World spots where gold was ripe for the picking, while the well-heeled and socially established stayed where they were and swallowed the hoaxes whole. America, in short, was always good for a laugh, and the best guffaws tended to negotiate the territory between an America wholly imagined and the America that is. Boast and brag, swagger and the comically sensational--these are the essential elements of the American tall tale. Always rendered with a straight (usually solemn) face, the jokes worked because they fulfilled basic human needs on both ends of the put-on: staid Londoners found the tales as delicious as they were irresistible, while rougher hewn American sorts cackled as they continued to push the envelope. Eventually, the butts of Franklin's socio-political humor wised up, although not before the Revolution he had tried to head off happened; but by this time Americans had so intermingled myth with the national character that the two were virtually identical. Small wonder, then, that many nineteenth-century heroes were cast in the mold once exclusively reserved for those who had imaginatively constructed an America big enough, strange enough, to include, well, everything. Let the boasts and legendary exploits that surround Davy Crockett stand as Exhibit A. Long before Walt Disney hit pay dirt with a television show devoted to the king of the wild frontier (Day-VEE, Day-VEE Crockett)wand successfully peddled everything from official coonskin caps to schoolchildren's metal lunch boxes--Crockett had been long ballyhooed as the quintessential American spirit made incarnate: muscular, self-reliant, and above all else, supremely confident. Crockett's vivid hyperbole began with the assumption that he was larger than life, and his elaborate boasts gradually escalated into the supernatural: I can outlook a panther and outstare a flash of lightening: tote a steamboat on my back and play at rough and tumble with a lion, and an occasional kick from a Zebra. ... can walk like an ox; run like a fox, swim like an eel, yell like an Indian, fight like the devil, and spout like an earthquake. Crockett was, of course, hardly the only instance of self-advertisement on a grand scale. Southwestern humorists were famous for leaping into the air, clicking their heels three times, and then unloading barrages of the language that made them famous in mid-nineteenth-century America. …</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2410225397</t>
+          <t>https://openalex.org/W4285103511</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.7554/elife.69596.sa2</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Bussani et al. (1989)</t>
+          <t>Kajikawa et al. (2022)</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>[Primary adenocarcinoma of the bladder].</t>
+          <t>Author response: UP-DOWN states and ripples differentially modulate membrane potential dynamics across DG, CA3, and CA1 in awake mice</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>A clinicohistopathological study of 12 cases of primary adenocarcinoma of the bladder diagnosed over an 11 year period is presented. Six of these were pure adenocarcinomas, while the remainder consisted of 2 adenocarcinoma with transitional malignant elements, 2 adenosquamous carcinomas and 2 mesonephric adenocarcinomas. The biological behaviour of these neoplasms was particularly aggressive: in none of the cases was the neoplasm limited to the bladder epithelium, but was generally seen to have infiltrated the muscular wall. Leaving aside the specific treatment carried out, the prognosis was in all patients poor and a complete clinical recovery was achieved for just 2 subjects. Except for one case, death was always directly attributable to bladder cancer, but as a result of obstructive and inflammatory diseases relating to the size and the degree of local infiltration of the tumor rather than metastatic spread.</t>
+          <t>Article Figures and data Abstract Editor's evaluation Introduction Results Discussion Materials and methods Data analysis Data availability References Decision letter Author response Article and author information Metrics Abstract Hippocampal ripples are transient population bursts that structure cortico-hippocampal communication and play a central role in memory processing. However, the mechanisms controlling ripple initiation in behaving animals remain poorly understood. Here we combine multisite extracellular and whole-cell recordings in awake mice to contrast the brain state and ripple modulation of subthreshold dynamics across hippocampal subfields. We find that entorhinal input to the dentate gyrus (DG) exhibits UP and DOWN dynamics with ripples occurring exclusively in UP states. While elevated cortical input in UP states generates depolarization in DG and CA1, it produces persistent hyperpolarization in CA3 neurons. Furthermore, growing inhibition is evident in CA3 throughout the course of the ripple buildup, while DG and CA1 neurons exhibit depolarization transients 100 ms before and during ripples. These observations highlight the importance of CA3 inhibition for ripple generation, while pre-ripple responses indicate a long and orchestrated ripple initiation process in the awake state. Editor's evaluation This paper combines intracellular and extracellular recordings in the hippocampus in awake mice to investigate the initiation of sharp wave-ripples, synchronous bursts of activity thought to support memory replay. They report a specific hyperpolarization of the pyramidal cells in the CA3 subfield while the dentate granule cells or CA1 pyramidal cells are depolarized. This paper will be of interest to system neuroscientists interested in the cellular and network mechanisms of memory formation. https://doi.org/10.7554/eLife.69596.sa0 Decision letter Reviews on Sciety eLife's review process Introduction Bidirectional interactions between the hippocampus and neocortical areas are believed to play a key role in memory consolidation (Squire, 1992). Hippocampal ripples are deemed essential for this process because the associated population activity reflects prior experience (Foster, 2017; Kudrimoti et al., 1999; Lee and Wilson, 2002; Wilson and McNaughton, 1994) and ripple disruption results in memory deficits (Ego-Stengel and Wilson, 2010; Girardeau et al., 2009; Jadhav et al., 2012). Ripples provide synchronous volleys that drive cortical targets and co-occur with distinct cortical network patterns (Battaglia et al., 2004; Jiang et al., 2019; Ji and Wilson, 2007; Logothetis et al., 2012; Mölle et al., 2006; Shein-Idelson et al., 2016; Siapas and Wilson, 1998; Wierzynski et al., 2009). In particular, ripples normally occur during slow-wave sleep and quiet wakefulness when hippocampal local field potentials (LFPs) display large-amplitude irregular activity (LIA) (Buzsáki, 1986; Jarosiewicz and Skaggs, 2004; Kay et al., 2016; O’Keefe, 1976; Vanderwolf, 1969), whereas neocortical dynamics are marked by the presence of UP and DOWN states (UDS), alternating periods of elevated and depressed network activity that can also be observed under anesthesia (Cowan and Wilson, 1994; Steriade et al., 1993b; Steriade et al., 1993c). Neocortical and hippocampal dynamics can be coordinated via the entorhinal cortex (EC), the main gateway between neocortical areas and the hippocampus, which provides direct input to the dentate gyrus (DG), and areas CA3 and CA1 (Amaral and Witter, 1989; Steward et al., 1976; Tamamaki and Nojyo, 1993). Experiments in sleeping and anesthetized animals show that the EC also exhibits UDS that modulate activity across hippocampal subfields (Hahn et al., 2012; Isomura et al., 2006). However, the influence of cortical UDS on hippocampal dynamics and ripple generation in wakefulness are not well understood. Ripples are believed to be the product of excitatory buildup in the recurrent CA3 network, culminating in a population burst that drives CA1 spiking organized by the transient ripple oscillation (Buzsáki, 1986; Miles and Wong, 1983; Stark et al., 2014; Traub and Miles, 1991). This suggests that CA3 neurons should get progressively depolarized and come closer to firing threshold through the course of the ripple buildup. Separate from the buildup itself, the processes controlling ripple initiation and termination are not fully understood. In vitro experiments indicate that ripples are initiated once stochastic fluctuations in the population firing rate of CA3 pyramidal cells exceed a threshold level (de la Prida et al., 2006; Schlingloff et al., 2014), implying that an increase in the firing of CA3 neurons should result in a corresponding increase in the rate of ripple occurrence. Recent in vitro studies have also emphasized the importance of inhibitory neurons in ripple initiation (Bazelot et al., 2016; Ellender et al., 2010; Schlingloff et al., 2014), while other studies suggested that area CA</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4200216148</t>
+          <t>https://openalex.org/W653043164</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1111/jols.12333</t>
+          <t>https://doi.org/10.6092/unibo/amsdottorato/6864</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Bryson (2021)</t>
+          <t>Jakovljević (2015)</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>The politics of preservation: oral history, socio‐legal studies, and praxis</t>
+          <t>Fighting corruption with pyramids: A Law and Economics approach to combating corruption in post-socialist countries</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Abstract Oral history is a surprisingly under‐utilized resource in socio‐legal studies. This article explores some of the theoretical and experiential reasons for this deficiency. It begins with an overview of both fields to date, including instances of intellectual collaboration. It then considers tensions between qualitative and oral history interviews under the overlapping themes of preservation, accountability, and agency. The concluding section develops these theoretical arguments in light of ongoing ‘real‐world’ work in transitional justice. I argue in favour of a flexible, pragmatic, and imaginative response to the politics of oral history preservation and a more critical approach to the relationship between oral history, law, and politics. This is designed to encourage the collection and preservation of material that is otherwise side‐stepped, censored, or destroyed. Such an approach would yield benefits not only for the vexed process of ‘dealing with the past’ in post‐conflict societies but for socio‐legal scholarship more generally.</t>
+          <t>Corruption is, in the last two decades, considered as one of the biggest problems within the international community, which harms not only a particular state or society but the whole world. The discussion on corruption in law and economics approach is mainly run under the veil of Public choice theory and principal-agent model. Based on this approach the strong international initiatives taken by the UN, the OECD and the Council of Europe, provided various measures and tools in order to support and guide countries in their combat against corruption. These anti-corruption policies created a repression -prevention-transparency model for corruption combat. Applying this model, countries around the world adopted anti-corruption strategies as part of their legal rules. Nevertheless, the recent researches on the effects of this move show non impressive results. Critics argue that “one size does not fit all” because the institutional setting of countries around the world varies. Among the countries which experience problems of corruption, even though they follow the dominant anti-corruption trends, are transitional, post-socialist countries. To this group belong the countries which are emerging from centrally planned to an open market economy. The socialist past left traces on institutional setting, mentality of the individuals and their interrelation, particularly in the domain of public administration. If the idiosyncrasy of these countries is taken into account the suggestion in this thesis is that in public administration in post-socialist countries, instead of dominant anti-corruption scheme repression-prevention-transparency, corruption combat should be improved through the implementation of a new one, structure-conduct-performance. The implementation of this model is based on three regulatory pyramids: anti-corruption, disciplinary anti-corruption and criminal anti-corruption pyramid. This approach asks public administration itself to engage in corruption combat, leaving criminal justice system as the ultimate weapon, used only for the very harmful misdeeds.</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4378604360</t>
+          <t>https://openalex.org/W1971204841</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1353/tech.1988.0014</t>
+          <t>https://doi.org/10.1111/j.1754-7121.1984.tb00629.x</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Zupko (1988)</t>
+          <t>Coulombe (1984)</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Measures and Men by Witold Kula</t>
+          <t>Évolution de la gestion des ressources humaines dans la fonction publique québécoise</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>TECHNOLOGY AND CULTURE Book Reviews 141 ers. Since World War I, and even more since 1945, rapid technologi­ cal changes have destroyed the old certainties of strategy, leaving its practitioners groping in the dark. Students of technological change will not be surprised to learn that their field of interest now occupies the center of the stage of history. Daniel R. Headrick Dr. Headrick is professor of social science and history at Roosevelt University, and the author of Ejército y Política en España (1866—1898) (Madrid, 1981), The Tools ofEmpire: Technology andEuropean Imperialism in theNineteenth Century (New York, 1981), and The Tentacles ofProgress: Technology Transfer in theAge ofImperialism, 1850-1940 (New York, 1988). He is currently studying the relations between telecommunications and international politics from 1851 to 1945. Measures and Men. By Witold Kula. Translated by Richard Szreter. Princeton, N.J.: Princeton University Press, 1986. Pp. x+386; notes, glossary, bibliography, index. $39.50. In Measures and Men, Witold Kula, a professor at the University of Warsaw and the doyen of Polish economic historians, has written a fascinating account of the numerous ways that certain European weights and measures systems interacted with various levels of me­ dieval and early modern preindustrial cultures. The emphasis is placed on such divergent themes as the sociological ramifications of weights and measures, how they evolved to meet the complex needs of local and regional economies, how they became an intricate part of everyday life commensurate with linguistic differences, how they proliferated because of the demands of work functions, ethnic bi­ ases, symbolism, and product requirements, how they resisted stan­ dardization programs, how community pressure influenced them, and how they helped to shape the evolutionary course of European life. Kula strives to demonstrate that weights and measures simply mirrored the differences and incongruities of societies before the In­ dustrial Revolution, necessitating more strict adherence to regional and interregional uniformity. The earlier metrologies were neither good nor bad; they were simply a natural manifestation of smallerscaled economies. They served their local, restricted purposes well, even though they would obviously pose a severe handicap for eco­ nomic and industrial development in any more advanced economic milieu. Kula has accomplished his goal in admirable fashion. The book has its drawbacks. First, it is divided into four ex­ tremely divergent sections. Parts 1 and 4 are both general and inter­ national in scope, while the second and third parts deal with Poland and France, respectively. Within these sections are twenty-four short chapters that often do not relate and make more for a series of vignettes than for a smooth transitional progression. Because the book is devoid of a central overriding thesis, it is sometimes diffi­ cult to tie the various discussions together. 142 Book Reviews TECHNOLOGY AND CULTURE Second, although practices such as permitting goods to be sold in heaped and shallow measures bespeak a malevolent class struggle in which lords cheated peasants and capitalist employers cheated the working class, Kula’s obsession with this traditional Marxist axiom tends to be overdone. One senses at times that societal fric­ tions and hatreds were the primary reason for metrological diversifi­ cation and proliferation. This simply was not the case for most of Europe’s metrological problems. True, Kula’s emphasis does eluci­ date a wide series of sociological phenomena, but metrological inequi­ ties were more of an economic impediment than a cultural impasse. Unfortunately, Kula does not explore this critical issue. Finally, more emphasis is needed on the scientific and technologi­ cal aspects of metrology and less on the sociological. Without explor­ ing this vital area of weights and measures development, the path to standardization reform, particularly evidenced in Kula’s treat­ ment of the French road to metric reform in part 3, cannot be under­ stood. This happens because Kula is interested in standardization not for the sake of scientific, technological, and economic progress but for the sake of social justice. These criticisms should not detract, however, from the fact that Kula presents us with a rich potpourri of metrological topics writ­ ten in an engrossing manner. The field of historical metrology is en­ riched by its publication, and English-language audiences are in­ debted to...</t>
+          <t>Sommaire: L'austérité qui a frappé les budgets gouvernementaux, combinée à plusicurs autres nouveaux facteurs. exerce une profonde influence sur l'administration publique. Le statut et la sécurité. du fonctionnaire sont remis en cause et le priblic manifeste des exigences nouvelles. Les gouvernements prennent des mesures pour satisfaire l'intérêt public et cela transformera le rôle de l'administrateur public. La nouvelle Loi sur la fonction publique du Québec (Loi 51) provoquera une autre transition dam la gestion des ressources humaines. Après être passée do l'arbitraire des années 1950 à l'administration normative des années 1970, la gestion des ressources humaines des années 1980 sera déconcentrée vers les ministéres et organismes qui en assumeront la responsabilité première. L'instauration d'un régime d'imputabilité suppose clue le gestionnaire jouera un rôle plus engagé dam la gestion de ses ressources humaines et que la fonction publique sera mieux orientée vers sa mission première, qui est de fournir au public les services de qualité auxquels il a droit. Abstract: Hestmint affecting governmental budgets, combined with several new other factors. is having a serious effect on public administration. The public servant's status and security are challenged and the public is making new demands on the public services. Governments take measures to satisfy the public interest and this will transform the role of the public administrator. The new Quebec Public Service Act will allow a new transition in the management of human resources. After going from the ai‐bitrariness of the 1950s to the normative administration of the 1970s, the management of human resources of the 1980s will be decentralized towards ministries which will take on full responsibility. The institution of an accountability system implies that the administrator will play a more active role in the management of his human resources and that the public service will be better directed towards its first task, which is to provide the public with the quality services it is entitled to.</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2019259807</t>
+          <t>https://openalex.org/W2312943292</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1111/j.1467-3010.2008.00694.x</t>
+          <t>https://doi.org/10.1299/kikaia.62.2236</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Buttriss (2008)</t>
+          <t>Kato et al. (1996)</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Health policy set to tackle obesity</t>
+          <t>Influence of Normalization on Impact Fracture Behavior of Friction-Welded Joints. Examination with 0.46%C Carbon Steel.</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>As the Cabinet Office report Food: an analysis of the issues (Cabinet Office 2008), published in January 2008, makes plain, from the austerity of the post-war years, when almost a third of disposable income was spent on food, the modern consumer now has access to a wide choice of safe and affordable food and drink, and benefits from investment in product innovation and reformulation on the part of food manufacturers and from a highly competitive grocery market. But at the same time, sustainability of public health is threatened by the trends in obesity and type 2 diabetes and in particular the metabolic health of children and young people. Furthermore, in many Western populations, including the UK, the age profile of the population is changing – people are living longer but much of the extra lifespan is not spent in good health, resulting in implications for public health expenditure. Age-related change in health and disability was the theme of the British Nutrition Foundation's Annual Lecture, given by Professor Kay-Tee Khaw last November, who posed the question: ‘Is ageing modifiable?’ (see Khaw 2008). An ageing population also has other effects on the economy (e.g. in relation to pension requirements and the need for resource planning). The challenge to all those engaged in food and health policy and food provision is to ensure that greater recognition is attached to the linkages between food, nutrition, physical activity and health, that the food industry continues to expand the repertoire of healthier products available and that such products progressively dominate, and that those responsible for the built environment and transport policy in our town centres contribute to a far greater extent than is currently the case to facilitating regular physical activity. A long overdue cross-government strategy (for England) to tackle obesity was published at the beginning of the year: Healthy weight, Healthy lives (Department of Health and Department of Children, Schools and Families 2008), and the Food Standards Agency (FSA) has announced its plans to tackle high-saturated-fatty-acid intakes within the context of its Saturated Fat and Energy Intake Programme (FSA 2008a). The key themes are outlined below, but achievement of these plans will require a concerted effort across government and a genuine partner approach involving a wide range of stakeholders. The transformation of the food supply with respect to trans fatty acids demonstrates what the food industry can achieve on its own, without legislative pressure, when the scientific evidence is robust. In February, the FSA published a response from the Secretary of State for Health, Alan Johnson, to the Agency's December 2007 recommendation that mandatory restrictions on trans fatty acids are not necessary. The letter expresses the Secretary of State's support for the FSA's recommendation and agrees that the focus should now be on reducing saturates in the diet through voluntary measures, while maintaining the progress already made on trans fats (see http://www.food.gov.uk/multimedia/pdfs/ajtransfatletter080110.pdf). The background to the trans issue is discussed in a News and Views article in this issue (see Denny 2008). Healthy weight, Healthy lives is a cross-government strategy for England published by the Department of Health and Department of Children, Schools and Families (2008). Helped by a panel of experts, the government promises to publish annually an assessment of the progress it is making in halting, and then turning around, the rise in excess bodyweight. Ministers will use this annual assessment to develop and intensify their policy focus. Below is a summary of the key themes of the report. Immediate plans are to: identify at-risk families as early as possible and promote breastfeeding as the norm for mothers; give better information to parents about their children's health by providing parents with their child's results from the National Child Measurement Programme (see The Information Centre for Health and Social Care 2008); invest to ensure that all schools are healthy schools, including making cooking a compulsory part of the curriculum by 2011 for all 11- to 14-year-old children; ask all schools to develop healthy lunchbox policies, so that those not yet taking up school lunches are also eating healthily; develop tailored programmes in schools to increase the participation of obese and overweight pupils in PE and sporting activities; invest £75 million in an evidence-based marketing programme which will inform, support and empower parents in making changes to their children's diet and levels of physical activity; invest in improving cycling infrastructure and skills in areas where child weight is a particular problem, as part of the recently announced package of further funding of £140 million for Cycling England. Immediate plans are to: finalise a Healthy Food Code of Good Practice, in partnership with the food and drink industry, and other</t>
+          <t>The impact transition characteristics and fracture behavior were investigated in friction-welded joints with softened structure and grain refinement by normalization treatment. After manufacture using 0.46%C hot-rolled bar steel, friction-welded joints tested in this study were kept at 850°C for 1 h in a vacuum furnace and then cooled with N2 gas. The impact specimens were machined from the central portion of the bar joint, and a V-notch was made along the weld interface of the joint. The impact tests were carried out at various temperatures using the instrumented Charpy impact machine. The testing temperature was controlled using liquid nitrogen and heating oil. The main results obtained are as follows. (1)The absorption energy of the normalized joint was very much larger in all regions than the absorbed energy of the as-welded joint and was restored to the same level as that of the hot-rolled base metal, with the exception of the upper shelf energy. (2)The energy transition temperature was about 24°C in the normalized joint, which agreed closely with the temperature estimated from the fracture surface. These transition temperatures were lower in comparison to those of both the as-welded joint and the hot-rolled base metal. (3)In the case of the normalized joint in the transition region, the crack propagation resistance was more markedly increased than that of the as-welded joint. (4)The impact bending strength of the normalized joint after friction welding was almost equal to that of the hot-rolled base metal. The value, however, was somewhat lower than that of the as-welded joint.</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2978548382</t>
+          <t>https://openalex.org/W4288042673</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.ijer.2019.08.008</t>
+          <t>https://doi.org/10.1089/pop.2022.0079</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Ade-Ojo &amp; Duckworth (2019)</t>
+          <t>Rudy et al. (2022)</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Forms of institutionalised symbolic violence and resistance in the journey of a cohort of adult literacy learners</t>
+          <t>A Call for Consistent Measurement Across the Social Determinants of Health Industry Landscape</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>This paper explores how the public domain of schooling has shaped a cohort of Adult Literacy learners in the North of England. It highlights the important role that education plays in providing cultural and social resources required to organise an upward mobility shift; just as it serves as a site in which the inequalities that already exist are reproduced. The study explores the forms in which Bourdieu’s symbolic violence was visited on the cohort and how they resisted. It demonstrates the importance of offering learners, who do not fit with dominant ideologies a voice and a validation of their literacies, leading to the development of knowledge and the creation of a critical space for curriculum development, learner transformation and consciousness-raising.</t>
+          <t>Population Health ManagementVol. 25, No. 5 Points of ViewOpen AccessCreative Commons licenseA Call for Consistent Measurement Across the Social Determinants of Health Industry LandscapeEllen T. Rudy, Kelsey C. McNamara, Zachary N. Goldberg, Andrew Parker, and David B. NashEllen T. RudyAddress correspondence to: Ellen T. Rudy, PhD, Department of Research and Impact, Papa, Inc., 66 SW 6th Street, Miami, FL 90089-0001, USA E-mail Address: erudy@papa.comDepartment of Research and Impact, Papa, Inc., Miami, Florida, USA.Department of Health Policy and Management, Sol Price School of Public Policy, University of Southern California, Los Angeles, California, USA.Search for more papers by this author, Kelsey C. McNamaraDepartment of Research and Impact, Papa, Inc., Miami, Florida, USA.Search for more papers by this author, Zachary N. Goldberghttps://orcid.org/0000-0003-1935-6421Sidney Kimmel Medical College, Thomas Jefferson University, Philadelphia, Pennsylvania, USA.Search for more papers by this author, Andrew ParkerDepartment of Research and Impact, Papa, Inc., Miami, Florida, USA.Search for more papers by this author, and David B. NashJefferson College of Population Health, Thomas Jefferson University, Philadelphia, Pennsylvania, USA.Search for more papers by this authorPublished Online:14 Oct 2022https://doi.org/10.1089/pop.2022.0079AboutSectionsPDF/EPUB Permissions &amp; CitationsPermissionsDownload CitationsTrack CitationsAdd to favorites Back To Publication ShareShare onFacebookTwitterLinked InRedditEmail IntroductionSocial determinants of health (SDOH) create the haves and have-nots in access to quality health care.1 These SDOH include both the conditions in which people are born, grow, live, work, and age as well as the complex, interrelated social structures and economic systems that shape these conditions. SDOH consistently predict premature morbidity and mortality. For example, lack of emotional support results in earlier dementia, increases the risk of death after heart attack, and is a predictor of functional decline and death for older adults.2–4 Notably, SDOH disproportionately impact people of color, who are more likely to report higher financial insecurity and greater transportation barriers, and to be met with inadequate care access and substandard patient experience.5,6 Subsequently, people of color shoulder a disproportionate burden of disease and negative health outcomes, including higher rates of diabetes, worse maternal outcomes, greater prevalence of HIV, and less preventive screenings.7–10The purpose of this commentary is to (1) present a successful example of an SDOH intervention evaluation in a for-profit SDOH Industry company and (2) to call on industry—SDOH entrepreneurial ventures, health payers and providers, and policymakers—to collaborate and align on more consistent metrics that evaluate the impact of SDOH interventions. In this article, the authors employ an SDOH intervention evaluation strategy first presented by Goldberg and Nash of a company in the SDOH Industry to determine the efficacy of the company's intervention.11 We then present additional recommendations to expand the conversation about SDOH intervention evaluation to foster greater collaboration among stakeholders over time.Despite all the evidence, until recently, health payers—the primary risk bearers of health care costs—were not explicitly allowed or incentivized to cover nonclinical benefits on a broad scale. This changed markedly with the passing of the CHRONIC Care Act of 2018, which opened the door to industry adoption of nonclinical supplemental benefits aimed at social needs.12Increased funding for SDOH interventions by payers coupled with inefficient SDOH intervention management strategies by providers has led to the emergence or enhanced focus of nonprofit and for-profit companies addressing SDOH.13 For example, as of late 2021, 58 private, for-profit SDOH companies existed, with the majority emerging after 2010.13 They offer solutions that include large-scale meal delivery, transportation to medical appointments or social activities, and companionship and personal assistance in the home.As this industry continues to grow in size and scope, there remains no clear consensus on the best approach to address each social determinant.13 Moreover, little focus has been placed on rigorous evaluations of SDOH interventions employed by companies in this industry.13 Without an aligned effort between various stakeholders of all types into measurement, there is a risk of limited impact relative to both the need and to the industry's large investment and valuation ($2.4 billion of funding and $18.5 billion valuation as of 2021).13SDOH Intervention MeasurementSDOH Industry organizations face 2 primary challenges in using traditional key performance indicators (KPIs). First, the measurements reflect an outdated expectation of having a cost impact in weeks or months. Transitions of care programs and emergency department dive</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2731191492</t>
+          <t>https://openalex.org/W2300385980</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1057/978-1-137-54721-7_3</t>
+          <t>https://doi.org/10.1080/18186874.2015.1107976</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Sardana &amp; Zhu (2017)</t>
+          <t>Okolo (2015)</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Historical Links, Political Governance and Social Value Systems</t>
+          <t>China's Foreign Policy Shift in Africa: From Non-Interference to Preponderance</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>This Chapter starts by illustrating historical links between China and India. This is done with the purpose of establishing and demonstrating the profound influence of Buddhism and Indian philosophies on Chinese society. Thereafter, the authors discuss in detail the political systems and governance in China and India. The elucidation of these allows readers to understand how the very distinct historical and social contexts have impacted the founding and evolution of the current political system in each country. The authors also deliberate upon the transformation of the social value system in the two societies. To do justice to this aspect, the authors offer detailed accounts of the political and social systems in China and India. The authors note that the historical evolution trajectories have been different in the two countries, for example: (1) historically homogeneous and centralized country (China) vs. historically non-homogeneous and decentralized country (India); (2) semi-colonization of China vs. complete colonization of India (earlier by Mughals and then later by the British); (3) full-scale violent revolution in China vs. emphasis on non-violent revolution in India, and consequently the impact on each of the societies (e.g. India has preserved the old elite system that has affected social thinking and norms, as well as the rich-poor divide compared with Communist rule emphasizing ‘equality’). These different historical paths have exerted a different influence on the fundamental legitimacy of the ruling class and thoughts of governance in these two distinct societies.</t>
+          <t>ABSTRACTABSTRACTThe penetration of Beijing into the African continent is radically changing the economic landscape of the region. The non-interference policy states that China does not meddle in the internal affairs of other nations and this is a core part of the five principles of peaceful coexistence; others include mutual respect for a nation's sovereignty and territorial integrity, mutual non-aggression, equality based on mutual benefit and peaceful coexistence. Furthermore, there has been no corresponding change in Beijing's foreign policy in terms of ambitions, alliances and interests. The Asian power is following the same foreign policy it has pursued since 1954: a policy of non-interference. The article argues that the non-interference policy has outlived its usefulness; Beijing needs to revisit this policy of non-interference in order to guard its economic investments and political interests, which have grown and come under threat recently. The research concludes that the policy of non-interference can be replaced by 'preponderance'.Keywords: AfricaChina's foreign policynon-interferencepreponderance</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1985122628</t>
+          <t>https://openalex.org/W2962142331</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1521/jscp.1992.11.4.377</t>
+          <t>https://doi.org/10.31654/2663-4902-2017-pp-1-207-210</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Chwalisz et al. (1992)</t>
+          <t>Rastruba (2017)</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Causal Attributions, Self-Efficacy Cognitions, and Coping with Stress</t>
+          <t>Implementation of the Personality – Oriented Concept in Music Education for Schoolchildren in Ukraine at the Turn of the Millennium</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Causal Attributions, Self-Efficacy Cognitions, and Coping with StressKathleen Chwalisz, Elizabeth M. Altmaier and Daniel W. RussellKathleen Chwalisz1 Southern Illinois University, Elizabeth M. Altmaier and Daniel W. RussellThe University of IowaPublished Online:January 2011https://doi.org/10.1521/jscp.1992.11.4.377PDFPDF PLUS ShareShare onFacebookTwitterLinkedInRedditEmail ToolsAdd to favoritesDownload CitationsTrack Citations About Previous article Next article FiguresReferencesRelatedDetails Cited byCited by1. Investigating fixed and growth teaching mindsets and self-efficacy as predictors of language teachers' burnout and professional identityOnline publication date: 12 February 2023. Go to citation Crossref Google Scholar2. The level of perceived stress, burnout, self-efficacy, and coping strategies among physiotherapy academicians during the COVID-19 lockdownOnline publication date: Go to citation Crossref Google Scholar3. The Mediating Effects of Social Comparison on Faculty Burnout, Teaching Anxiety, and Satisfaction Among Faculty Who Taught During the COVID-19 PandemicOnline publication date: 16 November 2022. Go to citation Crossref Google Scholar4. How Does Transformational Leadership Relieve Teacher Burnout: The Role of Self-Efficacy and Emotional IntelligenceOnline publication date: 16 September 2022. Go to citation Crossref Google Scholar5. Trait attributions and threat appraisals explain why an entity theory of personality predicts greater internalizing symptoms during adolescenceOnline publication date: 23 March 2021. Go to citation Crossref Google Scholar6. Pupils' Adaptability at School, a Balance Between Demands and Resources?Online publication date: 30 June 2022. Go to citation Crossref Google Scholar7. The Interplay of Locus of Control and Role Stress-evidences from Healthcare SectorOnline publication date: 5 March 2021. Go to citation Crossref Google Scholar8. Speaking up and out: examining the predictors of prohibitive voice among teachersOnline publication date: 7 September 2021. Go to citation Crossref Google Scholar9. Linking Parental Phubbing to Adolescent Self-Depreciation: The Roles of Internal Attribution and Relationship SatisfactionOnline publication date: 1 February 2021. Go to citation Crossref Google Scholar10. Resilience, sense of coherence and self-efficacy as predictors of stress coping style among university studentsOnline publication date: 16 July 2019. Go to citation Crossref Google Scholar11. The impact of cognitive-behavioural stress management coaching on changes in cognitive appraisal and the stress response: a field experimentOnline publication date: 15 October 2020. Go to citation Crossref Google Scholar12. Teacher coping profiles in relation to teacher well-being: A mixed method approachOnline publication date: Go to citation Crossref Google Scholar13. Sharing economy platforms: An equity theory perspective on reciprocity and commitmentOnline publication date: Go to citation Crossref Google Scholar14. Job Demands–Resources theory and self-regulation: new explanations and remedies for job burnoutOnline publication date: 28 August 2020. Go to citation Crossref Google Scholar15. Poczucie własnej skuteczności nauczyciela w kontekście problemu przemocy rówieśniczej wśród uczniówOnline publication date: 1 January 2021. Go to citation Crossref Google Scholar16. Does Haze Drive Pro-Environmental and Energy Conservation Behaviors? Evidence from the Beijing-Tianjin-Hebei Area in ChinaOnline publication date: 28 November 2020. Go to citation Crossref Google Scholar17. Exploring Mindfulness Benefits for Students and Teachers in Three German High SchoolsOnline publication date: 11 November 2019. Go to citation Crossref Google Scholar18. Teachers Between Job Satisfaction and Burnout Syndrome: What Makes Difference in Czech Elementary SchoolsOnline publication date: 29 October 2019. Go to citation Crossref Google Scholar19. Parents' Feelings, Coping Strategies and Sense of Parental Self-Efficacy When Dealing With Children's Victimization ExperiencesOnline publication date: 4 October 2019. Go to citation Crossref Google Scholar20. Differentiated effects of risk perception and causal attribution on public behavioral responses to air pollution: A segmentation analysisOnline publication date: Go to citation Crossref Google Scholar21. What happens at home does not stay at home: The role of family and romantic partner conflict in destructive leadershipOnline publication date: 12 April 2019. Go to citation Crossref Google Scholar22. The Relationship among Middle School Students' Sibling Bullying Victimization, Characterological Self-Blame, Coping Self-Efficacy, and Peer Bullying VictimizationOnline publication date: Go to citation Crossref Google Scholar23. Emotions and teaching styles among academics: the mediating role of research and teaching efficacyOnline publication date: 31 December 2018. Go to citation Crossref Google Scholar24. Improved Parent Cognitions Relate to Immediate</t>
+          <t>The article is devoted to the concept of personality oriented education for schoolchildren in Ukraine at the turn of the millennium. Therefore, the most urgent problem of upgrading the national education, in that music, is the transition to student-centered education concept and education of secondary school students. The analysis of scientific literature identifies that currently there is a number of specific concepts in the field, which do not contradict each other, but just emphasize different aspects in music pedagogy and education. In fact, art is considered to have a powerful cognitive and educational potential and is associated with the aesthetic nature, through which the most challenging and hidden processes of man's spiritual life are being comprehended, that is known to be a strategic link in the overall student’s training. The concept of student-centered teaching and education at the present time is widely implemented in all forms of student’s creative activity. They are music lessons and classes in schools, in the extracurricular education and culture institutions. However, since classes of music are still the common form of music training in school and education is being completed in the semantic, temporal and organizational terms, the implementation of the concept of personality-oriented music education can be carried out through the use of specific components of training. These components include: content and procedural, motivational, and reference implementation which successfully influence the realization of the personality oriented education concept tor schoolchildren in Ukraine at the turn of the millennium in the educational environment.</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1986944309</t>
+          <t>https://openalex.org/W1529454504</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1103/physrevb.81.104509</t>
+          <t>https://doi.org/10.1002/jmr.2448</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Charpentier et al. (2010)</t>
+          <t>Bruce et al. (2015)</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Antiferromagnetic fluctuations and the Hall effect of electron-doped cuprates: Possibility of a quantum phase transition at underdoping</t>
+          <t>Dynamic hydrogen bonding and DNA flexibility in minor groove binders: molecular dynamics simulation of the polyamide f‐ImPyIm bound to the Mlu1 (MCB) sequence 5′‐ACGCGT‐3′ in 2:1 motif</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>We present a complete analysis of the temperature dependence of the Hall coefficient ${R}_{H}(T)$ as a function of cerium doping, $x$, on improved thin films of ${\text{Pr}}_{2\ensuremath{-}x}{\text{Ce}}_{x}{\text{CuO}}_{4\ifmmode\pm\else\textpm\fi{}\ensuremath{\delta}}$ made by pulsed-laser deposition. By mapping its first temperature derivative $d{R}_{H}(T)/dT$ in a temperature-doping phase diagram, we show that some of the most important variations of ${R}_{H}(T,x)$ occur in a $T\text{\ensuremath{-}}x$ range just above the antiferromagnetic (AF) transition, ${T}_{N}(x)$. This area of large $d{R}_{H}(T)/dT$ in the phase diagram collapses at underdoping, very close to the onset of superconductivity at $x=0.12$. Assuming that this zone remains above ${T}_{N}(x)$, it suggests the presence of a zero-temperature critical point at underdoping in the phase diagram of the electron-doped cuprates on top of the one reported at ${x}^{\ensuremath{\ast}}\ensuremath{\sim}0.165$. Both of these critical points can be related to specific transitions in Fermi-surface morphology with doping observed by ARPES. Hence, we conclude that the phase diagram of the $n$-type family presents two zero-temperature critical points similar to the $p$-type cuprates, setting clear limiting boundaries for theoretical models, in particular, the absence of long-range AF order between $x=0.12$ and ${x}^{\ensuremath{\ast}}\ensuremath{\sim}0.165$.</t>
+          <t>Molecular dynamics simulations of the DNA 10‐mer 5′‐CCACGCGTGG‐3′ alone and complexed with the formamido‐imidazole‐pyrrole‐imidazole (f‐ImPyIm) polyamide minor groove binder in a 2:1 fashion were conducted for 50 ns using the pbsc0 parameters within the AMBER 12 software package. The change in DNA structure upon binding of f‐ImPyIm was evaluated via minor groove width and depth, base pair parameters of Slide, Twist, Roll, Stretch, Stagger, Opening, Propeller, and x‐displacement, dihedral angle distributions of ζ, ε, α, and γ determined using the Curves+ software program, and hydrogen bond formation. The dynamic hydrogen bonding between the f‐ImPyIm and its cognate DNA sequence was compared to the static image used to predict sequence recognition by polyamide minor groove binders. Many of the predicted hydrogen bonds were present in less than 50% of the simulation; however, persistent hydrogen bonds between G 5/15 and the formamido group of f‐ImPyIm were observed. It was determined that the DNA is wider in the Complex than without the polyamide binder; however, there is flexibility in this particular sequence, even in the presence of the f‐ImPyIm as evidenced by the range of minor groove widths the DNA exhibits and the dynamics of the hydrogen bonding that binds the two f‐ImPyIm ions to the minor groove. The Complex consisting of the DNA and the 2 f‐ImPyIm binders shows slight fraying of the 5′ end of the 10‐mer at the end of the simulation, but the portion of the oligomer responsible for recognition and binding is stable throughout the simulation. Several structural changes in the Complex indicate that minor groove binders may have a more active role in inhibiting transcription than just preventing binding of important transcription factors. Copyright © 2015 John Wiley &amp;amp; Sons, Ltd.</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3020498451</t>
+          <t>https://openalex.org/W4240590673</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.joca.2020.02.339</t>
+          <t>https://doi.org/10.1353/mrw.2021.0019</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Ley et al. (2020)</t>
+          <t>Grieve-Carlson (2021)</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Acetabular margin changes - implications for diagnosis and disease development of osteoarthritis in cats</t>
+          <t>W.T. Stead: Nonconformist and Newspaper Prophet by Stewart J. Brown</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Purpose: Changes in the acetabular margin, including the labrum and the chondrolabral (perilabral) transition zone, are suggested to be important in the pathogenesis of human coxofemoral (CF) osteoarthritis (OA). Radiologically, CF OA is common in cats, with marginal osteophytes being a key radiographic sign of OA. However, in cats neither investigations of microscopic features of the acetabular margin, nor associations between radiologically detected acetabular margin changes (AMC) and presence of microscopically verified articular cartilage lesions have been performed. This lack of information in regard to AMC means in clinical cases that the diagnosis of feline CF OA may sometimes be uncertain. This study aimed to investigate associations between computed tomography (CT)-detected AMC and microscopic articular cartilage lesions, describe distribution of detected changes and morphologic features of histologic AMC. Methods: Twenty cats (10 neutered males, 8 neutered females and 2 intact females) with a mean age of 9.9 years (median 8.5 years, range 1-19 years) submitted for post mortem examination were included in the study. All cats had CT performed of the CF joint region, followed by macroscopic examination and sampling for histology from selected joints (n=28). In 20 joints CT was used to guide histologic sampling to regions where AMC were deteced in the CT images, with the aim of maximizing the chance of including margin changes in the histological sample. Samples were formalin-fixed, decalcified and processed for histology. Microscopy was performed on hematoxylin and eosin, and toluidine blue stained sections of the acetabulum and proximal femur. In CT images, eight acetabular joint margin regions were defined and presence and severity (grade 0-3) of AMC (osteophytes, sclerosis and lysis) were graded and localized to these regions, giving a maximum summarized CT score (SCTS) of 72. Microscopic cartilage lesions were graded using a modified OARSI cartilage OA histopathology scoring protocol (grade 0-6.5), after dividing the acetabular cartilage into four approximately equal sized regions, two marginal (perilabral) and two central (perifossal), and the femoral cartilage also divided into two marginal and two central regions, providing a maximum summarized cartilage score (SCS) of 52 for all eight regions. Spearman rank correlation was used to calculate correlations between SCS and CT scores. In cats where both joints were histologically evaluated, only one joint was included in the correlation analysis, based on choosing the joint with the highest SCTS. Lesion distribution of osteophytes in CT images, and cartilage lesion distribution in regard to marginal and central areas were analyzed by a logistic mixed model. Histological features of the acetabular margin were described and comparisons made to the appearance in CT images. Results: CT-detected AMC were present in 35/40 joints, in 23/28 joints examined with histology and in 18/20 joints investigated for SCS and CT scores correlation. Based on macroscopic cartilage lesions 22 joints were OA negative, 4 joints showed mild OA and 2 joints severe OA. There was significant, strong correlation between acetabular SCTS and acetabular SCS (p = 0.00065, rho 0.69), CT osteophyte scores and acetabular SCS (p = 0.000011, rho 0.75) and significant, moderate correlation between acetabular SCTS and combined acetabular and femur SCS (p = 0.0171, rho 0.53). Frequency and grade of CT-detected osteophytes were significantly different in different regions (p &lt; 0.0001), with significantly higher frequency and grade of craniodorsal, cranial, cranioventral, ventral and dorsal acetabular margin regions compared to caudodorsal, caudal and caudoventral regions. Cartilage lesions were mild (≤ grade 2.5) in 23/28 joints, and marginal regions of the acetabulum showed significantly higher lesion grades than central acetabular regions (p = 0.0002). Labral tissue was clearly detected in caudal, ventral and craniodorsal acetabular regions, and variably or not detected in remaining regions. CT-detected osteophytes were included in the microscopic sections in 19/55 acetabular margins. Osteophytes comprised hook-like spurs in the labrum, rounded chondroosteophytes and pointed sclerotic bone extending the joint surface. Conclusions: The results suggest that CT is a valuable tool for diagnosing feline CF OA. CT-detected acetabular margin osteophytes show different histologic morphologies, which may implicate different disease mechanisms in the development of OA. The higher cartilage lesion grade severity in acetabular marginal compared to central regions suggests that the perilabral region is sensitive to cartilage degradation. Similar to discussed in human CF OA, the labral and chondrolabral transition zone may be important in the pathogenesis of OA and this warrants further studies.</t>
+          <t>Reviewed by: W.T. Stead: Nonconformist and Newspaper Prophet by Stewart J. Brown Timothy Grieve-Carlson William Thomas Stead, Victorian Britain, spiritualism, puritanism, media, paranormal, mediumship, psychical research stewart j. brown. W.T. Stead: Nonconformist and Newspaper Prophet. Oxford: Oxford University Press, 2019. Pp. 257. A few months ago, after stumbling upon a remarkably early description of telepathy in a primary document, I wrote to a senior scholar in the area who is much more knowledgeable in the field than I am. "What is the best history of psychic phenomena?" I wrote greedily. "Not a history of the Society for Psychical Research, or Mesmerism, or the Rhine lab, but a holistic cultural history of psychic phenomena?" His response suggests the critical need for more studies like Stewart J. Brown's 2019 book W. T. Stead: Nonconformist and Newspaper Prophet. "I sincerely doubt that we have such a history," he replied. Brown's book is, of course, not the history I was asking for. We remain a long way from that history, and Brown's biography of William Thomas Stead, "newspaper editor, author, social reformer, women's rights advocate, peace campaigner, and spiritualist" (vii), shows how such a history will be intimately entangled in the histories of media, religion, literature, and politics. As an entry in Oxford University Press's Spiritual Lives series of religious [End Page 117] biographies, Brown's study of the British newspaper editor and journalist is a succinct and readable account of a man who is not always remembered as a religious figure. Brown's study capably demonstr